--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>No</t>
   </si>
@@ -305,43 +305,67 @@
     <t>B000-4</t>
   </si>
   <si>
+    <t>Uang Sampah April</t>
+  </si>
+  <si>
+    <t>Uang konsumsi rapat</t>
+  </si>
+  <si>
+    <t>Sekretariat</t>
+  </si>
+  <si>
+    <t>Cetak slip gaji</t>
+  </si>
+  <si>
+    <t>Khairul Huda</t>
+  </si>
+  <si>
+    <t>Peralatan kerja bakti</t>
+  </si>
+  <si>
+    <t>Alat semprot santri</t>
+  </si>
+  <si>
+    <t>Ust. Salim</t>
+  </si>
+  <si>
+    <t>Koperasi</t>
+  </si>
+  <si>
+    <t>Modal awal koperasi</t>
+  </si>
+  <si>
+    <t>Mukafaah</t>
+  </si>
+  <si>
+    <t>Abu Umar</t>
+  </si>
+  <si>
+    <t>Mukafaah Abu Umar</t>
+  </si>
+  <si>
+    <t>B000-5</t>
+  </si>
+  <si>
+    <t>Operasional jumat</t>
+  </si>
+  <si>
     <t>Uang Sampah Mei</t>
   </si>
   <si>
-    <t>Uang konsumsi rapat</t>
-  </si>
-  <si>
-    <t>Sekretariat</t>
-  </si>
-  <si>
-    <t>Cetak slip gaji</t>
-  </si>
-  <si>
-    <t>Khairul Huda</t>
-  </si>
-  <si>
-    <t>Peralatan kerja bakti</t>
-  </si>
-  <si>
-    <t>Alat semprot santri</t>
-  </si>
-  <si>
-    <t>Ust. Salim</t>
-  </si>
-  <si>
-    <t>Koperasi</t>
-  </si>
-  <si>
-    <t>Modal awal koperasi</t>
-  </si>
-  <si>
-    <t>Mukafaah</t>
-  </si>
-  <si>
-    <t>Abu Umar</t>
-  </si>
-  <si>
-    <t>Mukafaah Abu Umar</t>
+    <t>Uang parkir jumat</t>
+  </si>
+  <si>
+    <t>Beli HP</t>
+  </si>
+  <si>
+    <t>Mukafaah Abul Ashim</t>
+  </si>
+  <si>
+    <t>Abu Suhailah</t>
+  </si>
+  <si>
+    <t>Pembelian rak koperasi</t>
   </si>
 </sst>
 </file>
@@ -353,8 +377,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -376,39 +400,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,15 +421,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,15 +438,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,16 +460,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,6 +494,44 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,31 +544,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,7 +565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +583,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,73 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,85 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,29 +776,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,23 +816,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,151 +851,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1030,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5423,9 +5447,9 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -6329,7 +6353,7 @@
         <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D35" s="3">
         <v>42840</v>
@@ -6569,14 +6593,26 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="3">
+        <v>42856</v>
+      </c>
+      <c r="E44" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
@@ -6584,14 +6620,26 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="3">
+        <v>42856</v>
+      </c>
+      <c r="E45" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
@@ -6599,14 +6647,26 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="3">
+        <v>42859</v>
+      </c>
+      <c r="E46" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
@@ -6614,14 +6674,26 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3">
+        <v>42861</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1616000</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
@@ -6629,47 +6701,87 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="3">
+        <v>42861</v>
+      </c>
+      <c r="E48" s="4">
+        <v>285000</v>
+      </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="3">
+        <v>42861</v>
+      </c>
+      <c r="E49" s="4">
+        <v>565000</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="3">
+        <v>42861</v>
+      </c>
+      <c r="E50" s="4">
+        <v>700000</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
@@ -6682,7 +6794,9 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="4"/>
@@ -6695,7 +6809,9 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="4"/>
@@ -6708,7 +6824,9 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="4"/>
@@ -6721,7 +6839,9 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="4"/>
@@ -6734,7 +6854,9 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="4"/>
@@ -6747,7 +6869,9 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="4"/>
@@ -6760,7 +6884,9 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="4"/>
@@ -6773,7 +6899,9 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="4"/>
@@ -6786,7 +6914,9 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="4"/>
@@ -6799,7 +6929,9 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="4"/>
@@ -6812,7 +6944,9 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="4"/>

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>No</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Mukafaah Abul Ashim</t>
+  </si>
+  <si>
+    <t>B000-6</t>
   </si>
   <si>
     <t>Abu Suhailah</t>
@@ -373,12 +376,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -400,6 +403,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -407,9 +417,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,9 +446,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,8 +461,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,6 +471,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,24 +500,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,30 +523,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,16 +537,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,13 +568,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,97 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,67 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,22 +781,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,15 +810,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -833,6 +821,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,15 +866,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -874,139 +877,133 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,7 +1012,13 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,11 +1029,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5449,7 +5452,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -6753,25 +6756,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D50" s="3">
-        <v>42861</v>
+        <v>42863</v>
       </c>
       <c r="E50" s="4">
         <v>700000</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6780,7 +6783,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -6795,7 +6798,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -6810,7 +6813,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -6825,7 +6828,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -6840,7 +6843,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -6855,7 +6858,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -6870,7 +6873,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -6885,7 +6888,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6900,7 +6903,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -6915,7 +6918,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -6930,7 +6933,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -6945,7 +6948,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>No</t>
   </si>
@@ -369,6 +369,21 @@
   </si>
   <si>
     <t>Pembelian rak koperasi</t>
+  </si>
+  <si>
+    <t>Daurah</t>
+  </si>
+  <si>
+    <t>Musyarah pengurus bahas banin</t>
+  </si>
+  <si>
+    <t>Romadlon</t>
+  </si>
+  <si>
+    <t>Utsman</t>
+  </si>
+  <si>
+    <t>B000-7</t>
   </si>
 </sst>
 </file>
@@ -376,12 +391,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -405,12 +420,97 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,37 +525,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,82 +560,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -553,7 +568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,7 +583,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +667,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,151 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,8 +801,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,6 +812,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,30 +836,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,166 +880,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1401,196 +1425,196 @@
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>42644</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10">
         <v>3000000</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>42644</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="10">
         <v>1087500</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>42644</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>960000</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>42278</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="10">
         <v>3000000</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <v>42278</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <v>1087500</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>42292</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="10">
         <v>556000</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="5">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>42658</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="10">
         <v>40000</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="9">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="13">
         <v>42552</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="14">
         <v>1000000</v>
       </c>
       <c r="F9" t="s">
@@ -1601,16 +1625,16 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="9">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="13">
         <v>42553</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="14">
         <v>465000</v>
       </c>
       <c r="F10" t="s">
@@ -1621,16 +1645,16 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="9">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="13">
         <v>42553</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="14">
         <v>180000</v>
       </c>
       <c r="F11" t="s">
@@ -1641,16 +1665,16 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="9">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="13">
         <v>42553</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="14">
         <v>500000</v>
       </c>
       <c r="F12" t="s">
@@ -1664,16 +1688,16 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="13">
         <v>42553</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="14">
         <v>10000</v>
       </c>
       <c r="F13" t="s">
@@ -1684,16 +1708,16 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="13">
         <v>42553</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="14">
         <v>499500</v>
       </c>
       <c r="F14" t="s">
@@ -1704,16 +1728,16 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="9">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="13">
         <v>42553</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="14">
         <v>200000</v>
       </c>
       <c r="F15" t="s">
@@ -1724,16 +1748,16 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="13">
         <v>42556</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="14">
         <v>600000</v>
       </c>
       <c r="F16" t="s">
@@ -1744,16 +1768,16 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="9">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="13">
         <v>42556</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="14">
         <v>-290000</v>
       </c>
       <c r="F17" t="s">
@@ -1767,16 +1791,16 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="13">
         <v>42570</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="14">
         <v>320000</v>
       </c>
       <c r="F18" t="s">
@@ -1787,16 +1811,16 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="13">
         <v>42579</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="14">
         <v>3600000</v>
       </c>
       <c r="F19" t="s">
@@ -1810,16 +1834,16 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="9">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="13">
         <v>42573</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="14">
         <v>500000</v>
       </c>
       <c r="F20" t="s">
@@ -1830,16 +1854,16 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="9">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="13">
         <v>42573</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="14">
         <v>100000</v>
       </c>
       <c r="F21" t="s">
@@ -1850,16 +1874,16 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="13">
         <v>42573</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="14">
         <v>1125000</v>
       </c>
       <c r="F22" t="s">
@@ -1873,16 +1897,16 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="9">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="13">
         <v>42573</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="14">
         <v>2500000</v>
       </c>
       <c r="F23" t="s">
@@ -1896,16 +1920,16 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="9">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="13">
         <v>42573</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="14">
         <v>140000</v>
       </c>
       <c r="F24" t="s">
@@ -1919,16 +1943,16 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="9">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="13">
         <v>42573</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="14">
         <v>25000</v>
       </c>
       <c r="F25" t="s">
@@ -1939,16 +1963,16 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="9">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="13">
         <v>42573</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="14">
         <v>19000</v>
       </c>
       <c r="F26" t="s">
@@ -1962,16 +1986,16 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="9">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="13">
         <v>42573</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="14">
         <v>50000</v>
       </c>
       <c r="F27" t="s">
@@ -1985,16 +2009,16 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="9">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="13">
         <v>42574</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="14">
         <v>901500</v>
       </c>
       <c r="F28" t="s">
@@ -2008,16 +2032,16 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="9">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="13">
         <v>42574</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="14">
         <v>100000</v>
       </c>
       <c r="F29" t="s">
@@ -2028,16 +2052,16 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="9">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="13">
         <v>42575</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="14">
         <v>100000</v>
       </c>
       <c r="F30" t="s">
@@ -2048,16 +2072,16 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="9">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="13">
         <v>42576</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="14">
         <v>400000</v>
       </c>
       <c r="F31" t="s">
@@ -2071,16 +2095,16 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="9">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="13">
         <v>42577</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="14">
         <v>300000</v>
       </c>
       <c r="F32" t="s">
@@ -2094,16 +2118,16 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="9">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="13">
         <v>42579</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="14">
         <v>1000000</v>
       </c>
       <c r="F33" t="s">
@@ -2114,16 +2138,16 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="9">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="13">
         <v>42581</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="14">
         <v>-159000</v>
       </c>
       <c r="F34" t="s">
@@ -2137,16 +2161,16 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="9">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="13">
         <v>42581</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="14">
         <v>200000</v>
       </c>
       <c r="F35" t="s">
@@ -2157,16 +2181,16 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="9">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="13">
         <v>42583</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="14">
         <v>2150000</v>
       </c>
       <c r="F36" t="s">
@@ -2180,16 +2204,16 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="9">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="13">
         <v>42583</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="14">
         <v>7500</v>
       </c>
       <c r="F37" t="s">
@@ -2203,16 +2227,16 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="9">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="13">
         <v>42583</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="14">
         <v>1000000</v>
       </c>
       <c r="F38" t="s">
@@ -2226,16 +2250,16 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="9">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="13">
         <v>42583</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="14">
         <v>100000</v>
       </c>
       <c r="F39" t="s">
@@ -2246,16 +2270,16 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="9">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="13">
         <v>42583</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="14">
         <v>20000</v>
       </c>
       <c r="F40" t="s">
@@ -2269,16 +2293,16 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="9">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="13">
         <v>42583</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="14">
         <v>4000000</v>
       </c>
       <c r="F41" t="s">
@@ -2292,16 +2316,16 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="9">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="13">
         <v>42585</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="14">
         <v>5000000</v>
       </c>
       <c r="F42" t="s">
@@ -2315,16 +2339,16 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="9">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="13">
         <v>42585</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="14">
         <v>200000</v>
       </c>
       <c r="F43" t="s">
@@ -2335,16 +2359,16 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="9">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="13">
         <v>42587</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="14">
         <v>465000</v>
       </c>
       <c r="F44" t="s">
@@ -2358,16 +2382,16 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="9">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="13">
         <v>42587</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="14">
         <v>500000</v>
       </c>
       <c r="F45" t="s">
@@ -2378,16 +2402,16 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="9">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="13">
         <v>42587</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="14">
         <v>180000</v>
       </c>
       <c r="F46" t="s">
@@ -2398,16 +2422,16 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="9">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="13">
         <v>42587</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="14">
         <v>570000</v>
       </c>
       <c r="F47" t="s">
@@ -2418,16 +2442,16 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="9">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="13">
         <v>42587</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="14">
         <v>200000</v>
       </c>
       <c r="F48" t="s">
@@ -2438,16 +2462,16 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="9">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="13">
         <v>42587</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="14">
         <v>100000</v>
       </c>
       <c r="F49" t="s">
@@ -2458,19 +2482,19 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="9">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="16">
         <v>42679</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="17">
         <v>100000</v>
       </c>
       <c r="F50" t="s">
@@ -2481,2962 +2505,2962 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="9">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="17"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="9">
+      <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="9">
+      <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="17"/>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="9">
+      <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="9">
+      <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="9">
+      <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="E56" s="14"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="9">
+      <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="9">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="9">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="9">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="E60" s="14"/>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="9">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="E61" s="14"/>
+      <c r="E61" s="17"/>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="9">
+      <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="E62" s="14"/>
+      <c r="E62" s="17"/>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="9">
+      <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="17"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="9">
+      <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="E64" s="14"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="9">
+      <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="E65" s="14"/>
+      <c r="E65" s="17"/>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="9">
+      <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="E66" s="14"/>
+      <c r="E66" s="17"/>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="9">
+      <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="E67" s="14"/>
+      <c r="E67" s="17"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="9">
+      <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="E68" s="14"/>
+      <c r="E68" s="17"/>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="9">
+      <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="E69" s="14"/>
+      <c r="E69" s="17"/>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="9">
+      <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="17"/>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="9">
+      <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="E71" s="14"/>
+      <c r="E71" s="17"/>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="9">
+      <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="E72" s="14"/>
+      <c r="E72" s="17"/>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="9">
+      <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="E73" s="14"/>
+      <c r="E73" s="17"/>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="9">
+      <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="E74" s="14"/>
+      <c r="E74" s="17"/>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="9">
+      <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="E75" s="14"/>
+      <c r="E75" s="17"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="9">
+      <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="E76" s="14"/>
+      <c r="E76" s="17"/>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="9">
+      <c r="A77" s="12">
         <v>76</v>
       </c>
-      <c r="E77" s="14"/>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="9">
+      <c r="A78" s="12">
         <v>77</v>
       </c>
-      <c r="E78" s="14"/>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="9">
+      <c r="A79" s="12">
         <v>78</v>
       </c>
-      <c r="E79" s="14"/>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="9">
+      <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="E80" s="14"/>
+      <c r="E80" s="17"/>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="9">
+      <c r="A81" s="12">
         <v>80</v>
       </c>
-      <c r="E81" s="14"/>
+      <c r="E81" s="17"/>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="9">
+      <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="E82" s="14"/>
+      <c r="E82" s="17"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="9">
+      <c r="A83" s="12">
         <v>82</v>
       </c>
-      <c r="E83" s="14"/>
+      <c r="E83" s="17"/>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="9">
+      <c r="A84" s="12">
         <v>83</v>
       </c>
-      <c r="E84" s="14"/>
+      <c r="E84" s="17"/>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="9">
+      <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="E85" s="14"/>
+      <c r="E85" s="17"/>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="9">
+      <c r="A86" s="12">
         <v>85</v>
       </c>
-      <c r="E86" s="14"/>
+      <c r="E86" s="17"/>
     </row>
     <row r="87" customHeight="1" spans="5:5">
-      <c r="E87" s="14"/>
+      <c r="E87" s="17"/>
     </row>
     <row r="88" customHeight="1" spans="5:5">
-      <c r="E88" s="14"/>
+      <c r="E88" s="17"/>
     </row>
     <row r="89" customHeight="1" spans="5:5">
-      <c r="E89" s="14"/>
+      <c r="E89" s="17"/>
     </row>
     <row r="90" customHeight="1" spans="5:5">
-      <c r="E90" s="14"/>
+      <c r="E90" s="17"/>
     </row>
     <row r="91" customHeight="1" spans="5:5">
-      <c r="E91" s="14"/>
+      <c r="E91" s="17"/>
     </row>
     <row r="92" customHeight="1" spans="5:5">
-      <c r="E92" s="14"/>
+      <c r="E92" s="17"/>
     </row>
     <row r="93" customHeight="1" spans="5:5">
-      <c r="E93" s="14"/>
+      <c r="E93" s="17"/>
     </row>
     <row r="94" customHeight="1" spans="5:5">
-      <c r="E94" s="14"/>
+      <c r="E94" s="17"/>
     </row>
     <row r="95" customHeight="1" spans="5:5">
-      <c r="E95" s="14"/>
+      <c r="E95" s="17"/>
     </row>
     <row r="96" customHeight="1" spans="5:5">
-      <c r="E96" s="14"/>
+      <c r="E96" s="17"/>
     </row>
     <row r="97" customHeight="1" spans="5:5">
-      <c r="E97" s="14"/>
+      <c r="E97" s="17"/>
     </row>
     <row r="98" customHeight="1" spans="5:5">
-      <c r="E98" s="14"/>
+      <c r="E98" s="17"/>
     </row>
     <row r="99" customHeight="1" spans="5:5">
-      <c r="E99" s="14"/>
+      <c r="E99" s="17"/>
     </row>
     <row r="100" customHeight="1" spans="5:5">
-      <c r="E100" s="14"/>
+      <c r="E100" s="17"/>
     </row>
     <row r="101" customHeight="1" spans="5:5">
-      <c r="E101" s="14"/>
+      <c r="E101" s="17"/>
     </row>
     <row r="102" customHeight="1" spans="5:5">
-      <c r="E102" s="14"/>
+      <c r="E102" s="17"/>
     </row>
     <row r="103" customHeight="1" spans="5:5">
-      <c r="E103" s="14"/>
+      <c r="E103" s="17"/>
     </row>
     <row r="104" customHeight="1" spans="5:5">
-      <c r="E104" s="14"/>
+      <c r="E104" s="17"/>
     </row>
     <row r="105" customHeight="1" spans="5:5">
-      <c r="E105" s="14"/>
+      <c r="E105" s="17"/>
     </row>
     <row r="106" customHeight="1" spans="5:5">
-      <c r="E106" s="14"/>
+      <c r="E106" s="17"/>
     </row>
     <row r="107" customHeight="1" spans="5:5">
-      <c r="E107" s="14"/>
+      <c r="E107" s="17"/>
     </row>
     <row r="108" customHeight="1" spans="5:5">
-      <c r="E108" s="14"/>
+      <c r="E108" s="17"/>
     </row>
     <row r="109" customHeight="1" spans="5:5">
-      <c r="E109" s="14"/>
+      <c r="E109" s="17"/>
     </row>
     <row r="110" customHeight="1" spans="5:5">
-      <c r="E110" s="14"/>
+      <c r="E110" s="17"/>
     </row>
     <row r="111" customHeight="1" spans="5:5">
-      <c r="E111" s="14"/>
+      <c r="E111" s="17"/>
     </row>
     <row r="112" customHeight="1" spans="5:5">
-      <c r="E112" s="14"/>
+      <c r="E112" s="17"/>
     </row>
     <row r="113" customHeight="1" spans="5:5">
-      <c r="E113" s="14"/>
+      <c r="E113" s="17"/>
     </row>
     <row r="114" customHeight="1" spans="5:5">
-      <c r="E114" s="14"/>
+      <c r="E114" s="17"/>
     </row>
     <row r="115" customHeight="1" spans="5:5">
-      <c r="E115" s="14"/>
+      <c r="E115" s="17"/>
     </row>
     <row r="116" customHeight="1" spans="5:5">
-      <c r="E116" s="14"/>
+      <c r="E116" s="17"/>
     </row>
     <row r="117" customHeight="1" spans="5:5">
-      <c r="E117" s="14"/>
+      <c r="E117" s="17"/>
     </row>
     <row r="118" customHeight="1" spans="5:5">
-      <c r="E118" s="14"/>
+      <c r="E118" s="17"/>
     </row>
     <row r="119" customHeight="1" spans="5:5">
-      <c r="E119" s="14"/>
+      <c r="E119" s="17"/>
     </row>
     <row r="120" customHeight="1" spans="5:5">
-      <c r="E120" s="14"/>
+      <c r="E120" s="17"/>
     </row>
     <row r="121" customHeight="1" spans="5:5">
-      <c r="E121" s="14"/>
+      <c r="E121" s="17"/>
     </row>
     <row r="122" customHeight="1" spans="5:5">
-      <c r="E122" s="14"/>
+      <c r="E122" s="17"/>
     </row>
     <row r="123" customHeight="1" spans="5:5">
-      <c r="E123" s="14"/>
+      <c r="E123" s="17"/>
     </row>
     <row r="124" customHeight="1" spans="5:5">
-      <c r="E124" s="14"/>
+      <c r="E124" s="17"/>
     </row>
     <row r="125" customHeight="1" spans="5:5">
-      <c r="E125" s="14"/>
+      <c r="E125" s="17"/>
     </row>
     <row r="126" customHeight="1" spans="5:5">
-      <c r="E126" s="14"/>
+      <c r="E126" s="17"/>
     </row>
     <row r="127" customHeight="1" spans="5:5">
-      <c r="E127" s="14"/>
+      <c r="E127" s="17"/>
     </row>
     <row r="128" customHeight="1" spans="5:5">
-      <c r="E128" s="14"/>
+      <c r="E128" s="17"/>
     </row>
     <row r="129" customHeight="1" spans="5:5">
-      <c r="E129" s="14"/>
+      <c r="E129" s="17"/>
     </row>
     <row r="130" customHeight="1" spans="5:5">
-      <c r="E130" s="14"/>
+      <c r="E130" s="17"/>
     </row>
     <row r="131" customHeight="1" spans="5:5">
-      <c r="E131" s="14"/>
+      <c r="E131" s="17"/>
     </row>
     <row r="132" customHeight="1" spans="5:5">
-      <c r="E132" s="14"/>
+      <c r="E132" s="17"/>
     </row>
     <row r="133" customHeight="1" spans="5:5">
-      <c r="E133" s="14"/>
+      <c r="E133" s="17"/>
     </row>
     <row r="134" customHeight="1" spans="5:5">
-      <c r="E134" s="14"/>
+      <c r="E134" s="17"/>
     </row>
     <row r="135" customHeight="1" spans="5:5">
-      <c r="E135" s="14"/>
+      <c r="E135" s="17"/>
     </row>
     <row r="136" customHeight="1" spans="5:5">
-      <c r="E136" s="14"/>
+      <c r="E136" s="17"/>
     </row>
     <row r="137" customHeight="1" spans="5:5">
-      <c r="E137" s="14"/>
+      <c r="E137" s="17"/>
     </row>
     <row r="138" customHeight="1" spans="5:5">
-      <c r="E138" s="14"/>
+      <c r="E138" s="17"/>
     </row>
     <row r="139" customHeight="1" spans="5:5">
-      <c r="E139" s="14"/>
+      <c r="E139" s="17"/>
     </row>
     <row r="140" customHeight="1" spans="5:5">
-      <c r="E140" s="14"/>
+      <c r="E140" s="17"/>
     </row>
     <row r="141" customHeight="1" spans="5:5">
-      <c r="E141" s="14"/>
+      <c r="E141" s="17"/>
     </row>
     <row r="142" customHeight="1" spans="5:5">
-      <c r="E142" s="14"/>
+      <c r="E142" s="17"/>
     </row>
     <row r="143" customHeight="1" spans="5:5">
-      <c r="E143" s="14"/>
+      <c r="E143" s="17"/>
     </row>
     <row r="144" customHeight="1" spans="5:5">
-      <c r="E144" s="14"/>
+      <c r="E144" s="17"/>
     </row>
     <row r="145" customHeight="1" spans="5:5">
-      <c r="E145" s="14"/>
+      <c r="E145" s="17"/>
     </row>
     <row r="146" customHeight="1" spans="5:5">
-      <c r="E146" s="14"/>
+      <c r="E146" s="17"/>
     </row>
     <row r="147" customHeight="1" spans="5:5">
-      <c r="E147" s="14"/>
+      <c r="E147" s="17"/>
     </row>
     <row r="148" customHeight="1" spans="5:5">
-      <c r="E148" s="14"/>
+      <c r="E148" s="17"/>
     </row>
     <row r="149" customHeight="1" spans="5:5">
-      <c r="E149" s="14"/>
+      <c r="E149" s="17"/>
     </row>
     <row r="150" customHeight="1" spans="5:5">
-      <c r="E150" s="14"/>
+      <c r="E150" s="17"/>
     </row>
     <row r="151" customHeight="1" spans="5:5">
-      <c r="E151" s="14"/>
+      <c r="E151" s="17"/>
     </row>
     <row r="152" customHeight="1" spans="5:5">
-      <c r="E152" s="14"/>
+      <c r="E152" s="17"/>
     </row>
     <row r="153" customHeight="1" spans="5:5">
-      <c r="E153" s="14"/>
+      <c r="E153" s="17"/>
     </row>
     <row r="154" customHeight="1" spans="5:5">
-      <c r="E154" s="14"/>
+      <c r="E154" s="17"/>
     </row>
     <row r="155" customHeight="1" spans="5:5">
-      <c r="E155" s="14"/>
+      <c r="E155" s="17"/>
     </row>
     <row r="156" customHeight="1" spans="5:5">
-      <c r="E156" s="14"/>
+      <c r="E156" s="17"/>
     </row>
     <row r="157" customHeight="1" spans="5:5">
-      <c r="E157" s="14"/>
+      <c r="E157" s="17"/>
     </row>
     <row r="158" customHeight="1" spans="5:5">
-      <c r="E158" s="14"/>
+      <c r="E158" s="17"/>
     </row>
     <row r="159" customHeight="1" spans="5:5">
-      <c r="E159" s="14"/>
+      <c r="E159" s="17"/>
     </row>
     <row r="160" customHeight="1" spans="5:5">
-      <c r="E160" s="14"/>
+      <c r="E160" s="17"/>
     </row>
     <row r="161" customHeight="1" spans="5:5">
-      <c r="E161" s="14"/>
+      <c r="E161" s="17"/>
     </row>
     <row r="162" customHeight="1" spans="5:5">
-      <c r="E162" s="14"/>
+      <c r="E162" s="17"/>
     </row>
     <row r="163" customHeight="1" spans="5:5">
-      <c r="E163" s="14"/>
+      <c r="E163" s="17"/>
     </row>
     <row r="164" customHeight="1" spans="5:5">
-      <c r="E164" s="14"/>
+      <c r="E164" s="17"/>
     </row>
     <row r="165" customHeight="1" spans="5:5">
-      <c r="E165" s="14"/>
+      <c r="E165" s="17"/>
     </row>
     <row r="166" customHeight="1" spans="5:5">
-      <c r="E166" s="14"/>
+      <c r="E166" s="17"/>
     </row>
     <row r="167" customHeight="1" spans="5:5">
-      <c r="E167" s="14"/>
+      <c r="E167" s="17"/>
     </row>
     <row r="168" customHeight="1" spans="5:5">
-      <c r="E168" s="14"/>
+      <c r="E168" s="17"/>
     </row>
     <row r="169" customHeight="1" spans="5:5">
-      <c r="E169" s="14"/>
+      <c r="E169" s="17"/>
     </row>
     <row r="170" customHeight="1" spans="5:5">
-      <c r="E170" s="14"/>
+      <c r="E170" s="17"/>
     </row>
     <row r="171" customHeight="1" spans="5:5">
-      <c r="E171" s="14"/>
+      <c r="E171" s="17"/>
     </row>
     <row r="172" customHeight="1" spans="5:5">
-      <c r="E172" s="14"/>
+      <c r="E172" s="17"/>
     </row>
     <row r="173" customHeight="1" spans="5:5">
-      <c r="E173" s="14"/>
+      <c r="E173" s="17"/>
     </row>
     <row r="174" customHeight="1" spans="5:5">
-      <c r="E174" s="14"/>
+      <c r="E174" s="17"/>
     </row>
     <row r="175" customHeight="1" spans="5:5">
-      <c r="E175" s="14"/>
+      <c r="E175" s="17"/>
     </row>
     <row r="176" customHeight="1" spans="5:5">
-      <c r="E176" s="14"/>
+      <c r="E176" s="17"/>
     </row>
     <row r="177" customHeight="1" spans="5:5">
-      <c r="E177" s="14"/>
+      <c r="E177" s="17"/>
     </row>
     <row r="178" customHeight="1" spans="5:5">
-      <c r="E178" s="14"/>
+      <c r="E178" s="17"/>
     </row>
     <row r="179" customHeight="1" spans="5:5">
-      <c r="E179" s="14"/>
+      <c r="E179" s="17"/>
     </row>
     <row r="180" customHeight="1" spans="5:5">
-      <c r="E180" s="14"/>
+      <c r="E180" s="17"/>
     </row>
     <row r="181" customHeight="1" spans="5:5">
-      <c r="E181" s="14"/>
+      <c r="E181" s="17"/>
     </row>
     <row r="182" customHeight="1" spans="5:5">
-      <c r="E182" s="14"/>
+      <c r="E182" s="17"/>
     </row>
     <row r="183" customHeight="1" spans="5:5">
-      <c r="E183" s="14"/>
+      <c r="E183" s="17"/>
     </row>
     <row r="184" customHeight="1" spans="5:5">
-      <c r="E184" s="14"/>
+      <c r="E184" s="17"/>
     </row>
     <row r="185" customHeight="1" spans="5:5">
-      <c r="E185" s="14"/>
+      <c r="E185" s="17"/>
     </row>
     <row r="186" customHeight="1" spans="5:5">
-      <c r="E186" s="14"/>
+      <c r="E186" s="17"/>
     </row>
     <row r="187" customHeight="1" spans="5:5">
-      <c r="E187" s="14"/>
+      <c r="E187" s="17"/>
     </row>
     <row r="188" customHeight="1" spans="5:5">
-      <c r="E188" s="14"/>
+      <c r="E188" s="17"/>
     </row>
     <row r="189" customHeight="1" spans="5:5">
-      <c r="E189" s="14"/>
+      <c r="E189" s="17"/>
     </row>
     <row r="190" customHeight="1" spans="5:5">
-      <c r="E190" s="14"/>
+      <c r="E190" s="17"/>
     </row>
     <row r="191" customHeight="1" spans="5:5">
-      <c r="E191" s="14"/>
+      <c r="E191" s="17"/>
     </row>
     <row r="192" customHeight="1" spans="5:5">
-      <c r="E192" s="14"/>
+      <c r="E192" s="17"/>
     </row>
     <row r="193" customHeight="1" spans="5:5">
-      <c r="E193" s="14"/>
+      <c r="E193" s="17"/>
     </row>
     <row r="194" customHeight="1" spans="5:5">
-      <c r="E194" s="14"/>
+      <c r="E194" s="17"/>
     </row>
     <row r="195" customHeight="1" spans="5:5">
-      <c r="E195" s="14"/>
+      <c r="E195" s="17"/>
     </row>
     <row r="196" customHeight="1" spans="5:5">
-      <c r="E196" s="14"/>
+      <c r="E196" s="17"/>
     </row>
     <row r="197" customHeight="1" spans="5:5">
-      <c r="E197" s="14"/>
+      <c r="E197" s="17"/>
     </row>
     <row r="198" customHeight="1" spans="5:5">
-      <c r="E198" s="14"/>
+      <c r="E198" s="17"/>
     </row>
     <row r="199" customHeight="1" spans="5:5">
-      <c r="E199" s="14"/>
+      <c r="E199" s="17"/>
     </row>
     <row r="200" customHeight="1" spans="5:5">
-      <c r="E200" s="14"/>
+      <c r="E200" s="17"/>
     </row>
     <row r="201" customHeight="1" spans="5:5">
-      <c r="E201" s="14"/>
+      <c r="E201" s="17"/>
     </row>
     <row r="202" customHeight="1" spans="5:5">
-      <c r="E202" s="14"/>
+      <c r="E202" s="17"/>
     </row>
     <row r="203" customHeight="1" spans="5:5">
-      <c r="E203" s="14"/>
+      <c r="E203" s="17"/>
     </row>
     <row r="204" customHeight="1" spans="5:5">
-      <c r="E204" s="14"/>
+      <c r="E204" s="17"/>
     </row>
     <row r="205" customHeight="1" spans="5:5">
-      <c r="E205" s="14"/>
+      <c r="E205" s="17"/>
     </row>
     <row r="206" customHeight="1" spans="5:5">
-      <c r="E206" s="14"/>
+      <c r="E206" s="17"/>
     </row>
     <row r="207" customHeight="1" spans="5:5">
-      <c r="E207" s="14"/>
+      <c r="E207" s="17"/>
     </row>
     <row r="208" customHeight="1" spans="5:5">
-      <c r="E208" s="14"/>
+      <c r="E208" s="17"/>
     </row>
     <row r="209" customHeight="1" spans="5:5">
-      <c r="E209" s="14"/>
+      <c r="E209" s="17"/>
     </row>
     <row r="210" customHeight="1" spans="5:5">
-      <c r="E210" s="14"/>
+      <c r="E210" s="17"/>
     </row>
     <row r="211" customHeight="1" spans="5:5">
-      <c r="E211" s="14"/>
+      <c r="E211" s="17"/>
     </row>
     <row r="212" customHeight="1" spans="5:5">
-      <c r="E212" s="14"/>
+      <c r="E212" s="17"/>
     </row>
     <row r="213" customHeight="1" spans="5:5">
-      <c r="E213" s="14"/>
+      <c r="E213" s="17"/>
     </row>
     <row r="214" customHeight="1" spans="5:5">
-      <c r="E214" s="14"/>
+      <c r="E214" s="17"/>
     </row>
     <row r="215" customHeight="1" spans="5:5">
-      <c r="E215" s="14"/>
+      <c r="E215" s="17"/>
     </row>
     <row r="216" customHeight="1" spans="5:5">
-      <c r="E216" s="14"/>
+      <c r="E216" s="17"/>
     </row>
     <row r="217" customHeight="1" spans="5:5">
-      <c r="E217" s="14"/>
+      <c r="E217" s="17"/>
     </row>
     <row r="218" customHeight="1" spans="5:5">
-      <c r="E218" s="14"/>
+      <c r="E218" s="17"/>
     </row>
     <row r="219" customHeight="1" spans="5:5">
-      <c r="E219" s="14"/>
+      <c r="E219" s="17"/>
     </row>
     <row r="220" customHeight="1" spans="5:5">
-      <c r="E220" s="14"/>
+      <c r="E220" s="17"/>
     </row>
     <row r="221" customHeight="1" spans="5:5">
-      <c r="E221" s="14"/>
+      <c r="E221" s="17"/>
     </row>
     <row r="222" customHeight="1" spans="5:5">
-      <c r="E222" s="14"/>
+      <c r="E222" s="17"/>
     </row>
     <row r="223" customHeight="1" spans="5:5">
-      <c r="E223" s="14"/>
+      <c r="E223" s="17"/>
     </row>
     <row r="224" customHeight="1" spans="5:5">
-      <c r="E224" s="14"/>
+      <c r="E224" s="17"/>
     </row>
     <row r="225" customHeight="1" spans="5:5">
-      <c r="E225" s="14"/>
+      <c r="E225" s="17"/>
     </row>
     <row r="226" customHeight="1" spans="5:5">
-      <c r="E226" s="14"/>
+      <c r="E226" s="17"/>
     </row>
     <row r="227" customHeight="1" spans="5:5">
-      <c r="E227" s="14"/>
+      <c r="E227" s="17"/>
     </row>
     <row r="228" customHeight="1" spans="5:5">
-      <c r="E228" s="14"/>
+      <c r="E228" s="17"/>
     </row>
     <row r="229" customHeight="1" spans="5:5">
-      <c r="E229" s="14"/>
+      <c r="E229" s="17"/>
     </row>
     <row r="230" customHeight="1" spans="5:5">
-      <c r="E230" s="14"/>
+      <c r="E230" s="17"/>
     </row>
     <row r="231" customHeight="1" spans="5:5">
-      <c r="E231" s="14"/>
+      <c r="E231" s="17"/>
     </row>
     <row r="232" customHeight="1" spans="5:5">
-      <c r="E232" s="14"/>
+      <c r="E232" s="17"/>
     </row>
     <row r="233" customHeight="1" spans="5:5">
-      <c r="E233" s="14"/>
+      <c r="E233" s="17"/>
     </row>
     <row r="234" customHeight="1" spans="5:5">
-      <c r="E234" s="14"/>
+      <c r="E234" s="17"/>
     </row>
     <row r="235" customHeight="1" spans="5:5">
-      <c r="E235" s="14"/>
+      <c r="E235" s="17"/>
     </row>
     <row r="236" customHeight="1" spans="5:5">
-      <c r="E236" s="14"/>
+      <c r="E236" s="17"/>
     </row>
     <row r="237" customHeight="1" spans="5:5">
-      <c r="E237" s="14"/>
+      <c r="E237" s="17"/>
     </row>
     <row r="238" customHeight="1" spans="5:5">
-      <c r="E238" s="14"/>
+      <c r="E238" s="17"/>
     </row>
     <row r="239" customHeight="1" spans="5:5">
-      <c r="E239" s="14"/>
+      <c r="E239" s="17"/>
     </row>
     <row r="240" customHeight="1" spans="5:5">
-      <c r="E240" s="14"/>
+      <c r="E240" s="17"/>
     </row>
     <row r="241" customHeight="1" spans="5:5">
-      <c r="E241" s="14"/>
+      <c r="E241" s="17"/>
     </row>
     <row r="242" customHeight="1" spans="5:5">
-      <c r="E242" s="14"/>
+      <c r="E242" s="17"/>
     </row>
     <row r="243" customHeight="1" spans="5:5">
-      <c r="E243" s="14"/>
+      <c r="E243" s="17"/>
     </row>
     <row r="244" customHeight="1" spans="5:5">
-      <c r="E244" s="14"/>
+      <c r="E244" s="17"/>
     </row>
     <row r="245" customHeight="1" spans="5:5">
-      <c r="E245" s="14"/>
+      <c r="E245" s="17"/>
     </row>
     <row r="246" customHeight="1" spans="5:5">
-      <c r="E246" s="14"/>
+      <c r="E246" s="17"/>
     </row>
     <row r="247" customHeight="1" spans="5:5">
-      <c r="E247" s="14"/>
+      <c r="E247" s="17"/>
     </row>
     <row r="248" customHeight="1" spans="5:5">
-      <c r="E248" s="14"/>
+      <c r="E248" s="17"/>
     </row>
     <row r="249" customHeight="1" spans="5:5">
-      <c r="E249" s="14"/>
+      <c r="E249" s="17"/>
     </row>
     <row r="250" customHeight="1" spans="5:5">
-      <c r="E250" s="14"/>
+      <c r="E250" s="17"/>
     </row>
     <row r="251" customHeight="1" spans="5:5">
-      <c r="E251" s="14"/>
+      <c r="E251" s="17"/>
     </row>
     <row r="252" customHeight="1" spans="5:5">
-      <c r="E252" s="14"/>
+      <c r="E252" s="17"/>
     </row>
     <row r="253" customHeight="1" spans="5:5">
-      <c r="E253" s="14"/>
+      <c r="E253" s="17"/>
     </row>
     <row r="254" customHeight="1" spans="5:5">
-      <c r="E254" s="14"/>
+      <c r="E254" s="17"/>
     </row>
     <row r="255" customHeight="1" spans="5:5">
-      <c r="E255" s="14"/>
+      <c r="E255" s="17"/>
     </row>
     <row r="256" customHeight="1" spans="5:5">
-      <c r="E256" s="14"/>
+      <c r="E256" s="17"/>
     </row>
     <row r="257" customHeight="1" spans="5:5">
-      <c r="E257" s="14"/>
+      <c r="E257" s="17"/>
     </row>
     <row r="258" customHeight="1" spans="5:5">
-      <c r="E258" s="14"/>
+      <c r="E258" s="17"/>
     </row>
     <row r="259" customHeight="1" spans="5:5">
-      <c r="E259" s="14"/>
+      <c r="E259" s="17"/>
     </row>
     <row r="260" customHeight="1" spans="5:5">
-      <c r="E260" s="14"/>
+      <c r="E260" s="17"/>
     </row>
     <row r="261" customHeight="1" spans="5:5">
-      <c r="E261" s="14"/>
+      <c r="E261" s="17"/>
     </row>
     <row r="262" customHeight="1" spans="5:5">
-      <c r="E262" s="14"/>
+      <c r="E262" s="17"/>
     </row>
     <row r="263" customHeight="1" spans="5:5">
-      <c r="E263" s="14"/>
+      <c r="E263" s="17"/>
     </row>
     <row r="264" customHeight="1" spans="5:5">
-      <c r="E264" s="14"/>
+      <c r="E264" s="17"/>
     </row>
     <row r="265" customHeight="1" spans="5:5">
-      <c r="E265" s="14"/>
+      <c r="E265" s="17"/>
     </row>
     <row r="266" customHeight="1" spans="5:5">
-      <c r="E266" s="14"/>
+      <c r="E266" s="17"/>
     </row>
     <row r="267" customHeight="1" spans="5:5">
-      <c r="E267" s="14"/>
+      <c r="E267" s="17"/>
     </row>
     <row r="268" customHeight="1" spans="5:5">
-      <c r="E268" s="14"/>
+      <c r="E268" s="17"/>
     </row>
     <row r="269" customHeight="1" spans="5:5">
-      <c r="E269" s="14"/>
+      <c r="E269" s="17"/>
     </row>
     <row r="270" customHeight="1" spans="5:5">
-      <c r="E270" s="14"/>
+      <c r="E270" s="17"/>
     </row>
     <row r="271" customHeight="1" spans="5:5">
-      <c r="E271" s="14"/>
+      <c r="E271" s="17"/>
     </row>
     <row r="272" customHeight="1" spans="5:5">
-      <c r="E272" s="14"/>
+      <c r="E272" s="17"/>
     </row>
     <row r="273" customHeight="1" spans="5:5">
-      <c r="E273" s="14"/>
+      <c r="E273" s="17"/>
     </row>
     <row r="274" customHeight="1" spans="5:5">
-      <c r="E274" s="14"/>
+      <c r="E274" s="17"/>
     </row>
     <row r="275" customHeight="1" spans="5:5">
-      <c r="E275" s="14"/>
+      <c r="E275" s="17"/>
     </row>
     <row r="276" customHeight="1" spans="5:5">
-      <c r="E276" s="14"/>
+      <c r="E276" s="17"/>
     </row>
     <row r="277" customHeight="1" spans="5:5">
-      <c r="E277" s="14"/>
+      <c r="E277" s="17"/>
     </row>
     <row r="278" customHeight="1" spans="5:5">
-      <c r="E278" s="14"/>
+      <c r="E278" s="17"/>
     </row>
     <row r="279" customHeight="1" spans="5:5">
-      <c r="E279" s="14"/>
+      <c r="E279" s="17"/>
     </row>
     <row r="280" customHeight="1" spans="5:5">
-      <c r="E280" s="14"/>
+      <c r="E280" s="17"/>
     </row>
     <row r="281" customHeight="1" spans="5:5">
-      <c r="E281" s="14"/>
+      <c r="E281" s="17"/>
     </row>
     <row r="282" customHeight="1" spans="5:5">
-      <c r="E282" s="14"/>
+      <c r="E282" s="17"/>
     </row>
     <row r="283" customHeight="1" spans="5:5">
-      <c r="E283" s="14"/>
+      <c r="E283" s="17"/>
     </row>
     <row r="284" customHeight="1" spans="5:5">
-      <c r="E284" s="14"/>
+      <c r="E284" s="17"/>
     </row>
     <row r="285" customHeight="1" spans="5:5">
-      <c r="E285" s="14"/>
+      <c r="E285" s="17"/>
     </row>
     <row r="286" customHeight="1" spans="5:5">
-      <c r="E286" s="14"/>
+      <c r="E286" s="17"/>
     </row>
     <row r="287" customHeight="1" spans="5:5">
-      <c r="E287" s="14"/>
+      <c r="E287" s="17"/>
     </row>
     <row r="288" customHeight="1" spans="5:5">
-      <c r="E288" s="14"/>
+      <c r="E288" s="17"/>
     </row>
     <row r="289" customHeight="1" spans="5:5">
-      <c r="E289" s="14"/>
+      <c r="E289" s="17"/>
     </row>
     <row r="290" customHeight="1" spans="5:5">
-      <c r="E290" s="14"/>
+      <c r="E290" s="17"/>
     </row>
     <row r="291" customHeight="1" spans="5:5">
-      <c r="E291" s="14"/>
+      <c r="E291" s="17"/>
     </row>
     <row r="292" customHeight="1" spans="5:5">
-      <c r="E292" s="14"/>
+      <c r="E292" s="17"/>
     </row>
     <row r="293" customHeight="1" spans="5:5">
-      <c r="E293" s="14"/>
+      <c r="E293" s="17"/>
     </row>
     <row r="294" customHeight="1" spans="5:5">
-      <c r="E294" s="14"/>
+      <c r="E294" s="17"/>
     </row>
     <row r="295" customHeight="1" spans="5:5">
-      <c r="E295" s="14"/>
+      <c r="E295" s="17"/>
     </row>
     <row r="296" customHeight="1" spans="5:5">
-      <c r="E296" s="14"/>
+      <c r="E296" s="17"/>
     </row>
     <row r="297" customHeight="1" spans="5:5">
-      <c r="E297" s="14"/>
+      <c r="E297" s="17"/>
     </row>
     <row r="298" customHeight="1" spans="5:5">
-      <c r="E298" s="14"/>
+      <c r="E298" s="17"/>
     </row>
     <row r="299" customHeight="1" spans="5:5">
-      <c r="E299" s="14"/>
+      <c r="E299" s="17"/>
     </row>
     <row r="300" customHeight="1" spans="5:5">
-      <c r="E300" s="14"/>
+      <c r="E300" s="17"/>
     </row>
     <row r="301" customHeight="1" spans="5:5">
-      <c r="E301" s="14"/>
+      <c r="E301" s="17"/>
     </row>
     <row r="302" customHeight="1" spans="5:5">
-      <c r="E302" s="14"/>
+      <c r="E302" s="17"/>
     </row>
     <row r="303" customHeight="1" spans="5:5">
-      <c r="E303" s="14"/>
+      <c r="E303" s="17"/>
     </row>
     <row r="304" customHeight="1" spans="5:5">
-      <c r="E304" s="14"/>
+      <c r="E304" s="17"/>
     </row>
     <row r="305" customHeight="1" spans="5:5">
-      <c r="E305" s="14"/>
+      <c r="E305" s="17"/>
     </row>
     <row r="306" customHeight="1" spans="5:5">
-      <c r="E306" s="14"/>
+      <c r="E306" s="17"/>
     </row>
     <row r="307" customHeight="1" spans="5:5">
-      <c r="E307" s="14"/>
+      <c r="E307" s="17"/>
     </row>
     <row r="308" customHeight="1" spans="5:5">
-      <c r="E308" s="14"/>
+      <c r="E308" s="17"/>
     </row>
     <row r="309" customHeight="1" spans="5:5">
-      <c r="E309" s="14"/>
+      <c r="E309" s="17"/>
     </row>
     <row r="310" customHeight="1" spans="5:5">
-      <c r="E310" s="14"/>
+      <c r="E310" s="17"/>
     </row>
     <row r="311" customHeight="1" spans="5:5">
-      <c r="E311" s="14"/>
+      <c r="E311" s="17"/>
     </row>
     <row r="312" customHeight="1" spans="5:5">
-      <c r="E312" s="14"/>
+      <c r="E312" s="17"/>
     </row>
     <row r="313" customHeight="1" spans="5:5">
-      <c r="E313" s="14"/>
+      <c r="E313" s="17"/>
     </row>
     <row r="314" customHeight="1" spans="5:5">
-      <c r="E314" s="14"/>
+      <c r="E314" s="17"/>
     </row>
     <row r="315" customHeight="1" spans="5:5">
-      <c r="E315" s="14"/>
+      <c r="E315" s="17"/>
     </row>
     <row r="316" customHeight="1" spans="5:5">
-      <c r="E316" s="14"/>
+      <c r="E316" s="17"/>
     </row>
     <row r="317" customHeight="1" spans="5:5">
-      <c r="E317" s="14"/>
+      <c r="E317" s="17"/>
     </row>
     <row r="318" customHeight="1" spans="5:5">
-      <c r="E318" s="14"/>
+      <c r="E318" s="17"/>
     </row>
     <row r="319" customHeight="1" spans="5:5">
-      <c r="E319" s="14"/>
+      <c r="E319" s="17"/>
     </row>
     <row r="320" customHeight="1" spans="5:5">
-      <c r="E320" s="14"/>
+      <c r="E320" s="17"/>
     </row>
     <row r="321" customHeight="1" spans="5:5">
-      <c r="E321" s="14"/>
+      <c r="E321" s="17"/>
     </row>
     <row r="322" customHeight="1" spans="5:5">
-      <c r="E322" s="14"/>
+      <c r="E322" s="17"/>
     </row>
     <row r="323" customHeight="1" spans="5:5">
-      <c r="E323" s="14"/>
+      <c r="E323" s="17"/>
     </row>
     <row r="324" customHeight="1" spans="5:5">
-      <c r="E324" s="14"/>
+      <c r="E324" s="17"/>
     </row>
     <row r="325" customHeight="1" spans="5:5">
-      <c r="E325" s="14"/>
+      <c r="E325" s="17"/>
     </row>
     <row r="326" customHeight="1" spans="5:5">
-      <c r="E326" s="14"/>
+      <c r="E326" s="17"/>
     </row>
     <row r="327" customHeight="1" spans="5:5">
-      <c r="E327" s="14"/>
+      <c r="E327" s="17"/>
     </row>
     <row r="328" customHeight="1" spans="5:5">
-      <c r="E328" s="14"/>
+      <c r="E328" s="17"/>
     </row>
     <row r="329" customHeight="1" spans="5:5">
-      <c r="E329" s="14"/>
+      <c r="E329" s="17"/>
     </row>
     <row r="330" customHeight="1" spans="5:5">
-      <c r="E330" s="14"/>
+      <c r="E330" s="17"/>
     </row>
     <row r="331" customHeight="1" spans="5:5">
-      <c r="E331" s="14"/>
+      <c r="E331" s="17"/>
     </row>
     <row r="332" customHeight="1" spans="5:5">
-      <c r="E332" s="14"/>
+      <c r="E332" s="17"/>
     </row>
     <row r="333" customHeight="1" spans="5:5">
-      <c r="E333" s="14"/>
+      <c r="E333" s="17"/>
     </row>
     <row r="334" customHeight="1" spans="5:5">
-      <c r="E334" s="14"/>
+      <c r="E334" s="17"/>
     </row>
     <row r="335" customHeight="1" spans="5:5">
-      <c r="E335" s="14"/>
+      <c r="E335" s="17"/>
     </row>
     <row r="336" customHeight="1" spans="5:5">
-      <c r="E336" s="14"/>
+      <c r="E336" s="17"/>
     </row>
     <row r="337" customHeight="1" spans="5:5">
-      <c r="E337" s="14"/>
+      <c r="E337" s="17"/>
     </row>
     <row r="338" customHeight="1" spans="5:5">
-      <c r="E338" s="14"/>
+      <c r="E338" s="17"/>
     </row>
     <row r="339" customHeight="1" spans="5:5">
-      <c r="E339" s="14"/>
+      <c r="E339" s="17"/>
     </row>
     <row r="340" customHeight="1" spans="5:5">
-      <c r="E340" s="14"/>
+      <c r="E340" s="17"/>
     </row>
     <row r="341" customHeight="1" spans="5:5">
-      <c r="E341" s="14"/>
+      <c r="E341" s="17"/>
     </row>
     <row r="342" customHeight="1" spans="5:5">
-      <c r="E342" s="14"/>
+      <c r="E342" s="17"/>
     </row>
     <row r="343" customHeight="1" spans="5:5">
-      <c r="E343" s="14"/>
+      <c r="E343" s="17"/>
     </row>
     <row r="344" customHeight="1" spans="5:5">
-      <c r="E344" s="14"/>
+      <c r="E344" s="17"/>
     </row>
     <row r="345" customHeight="1" spans="5:5">
-      <c r="E345" s="14"/>
+      <c r="E345" s="17"/>
     </row>
     <row r="346" customHeight="1" spans="5:5">
-      <c r="E346" s="14"/>
+      <c r="E346" s="17"/>
     </row>
     <row r="347" customHeight="1" spans="5:5">
-      <c r="E347" s="14"/>
+      <c r="E347" s="17"/>
     </row>
     <row r="348" customHeight="1" spans="5:5">
-      <c r="E348" s="14"/>
+      <c r="E348" s="17"/>
     </row>
     <row r="349" customHeight="1" spans="5:5">
-      <c r="E349" s="14"/>
+      <c r="E349" s="17"/>
     </row>
     <row r="350" customHeight="1" spans="5:5">
-      <c r="E350" s="14"/>
+      <c r="E350" s="17"/>
     </row>
     <row r="351" customHeight="1" spans="5:5">
-      <c r="E351" s="14"/>
+      <c r="E351" s="17"/>
     </row>
     <row r="352" customHeight="1" spans="5:5">
-      <c r="E352" s="14"/>
+      <c r="E352" s="17"/>
     </row>
     <row r="353" customHeight="1" spans="5:5">
-      <c r="E353" s="14"/>
+      <c r="E353" s="17"/>
     </row>
     <row r="354" customHeight="1" spans="5:5">
-      <c r="E354" s="14"/>
+      <c r="E354" s="17"/>
     </row>
     <row r="355" customHeight="1" spans="5:5">
-      <c r="E355" s="14"/>
+      <c r="E355" s="17"/>
     </row>
     <row r="356" customHeight="1" spans="5:5">
-      <c r="E356" s="14"/>
+      <c r="E356" s="17"/>
     </row>
     <row r="357" customHeight="1" spans="5:5">
-      <c r="E357" s="14"/>
+      <c r="E357" s="17"/>
     </row>
     <row r="358" customHeight="1" spans="5:5">
-      <c r="E358" s="14"/>
+      <c r="E358" s="17"/>
     </row>
     <row r="359" customHeight="1" spans="5:5">
-      <c r="E359" s="14"/>
+      <c r="E359" s="17"/>
     </row>
     <row r="360" customHeight="1" spans="5:5">
-      <c r="E360" s="14"/>
+      <c r="E360" s="17"/>
     </row>
     <row r="361" customHeight="1" spans="5:5">
-      <c r="E361" s="14"/>
+      <c r="E361" s="17"/>
     </row>
     <row r="362" customHeight="1" spans="5:5">
-      <c r="E362" s="14"/>
+      <c r="E362" s="17"/>
     </row>
     <row r="363" customHeight="1" spans="5:5">
-      <c r="E363" s="14"/>
+      <c r="E363" s="17"/>
     </row>
     <row r="364" customHeight="1" spans="5:5">
-      <c r="E364" s="14"/>
+      <c r="E364" s="17"/>
     </row>
     <row r="365" customHeight="1" spans="5:5">
-      <c r="E365" s="14"/>
+      <c r="E365" s="17"/>
     </row>
     <row r="366" customHeight="1" spans="5:5">
-      <c r="E366" s="14"/>
+      <c r="E366" s="17"/>
     </row>
     <row r="367" customHeight="1" spans="5:5">
-      <c r="E367" s="14"/>
+      <c r="E367" s="17"/>
     </row>
     <row r="368" customHeight="1" spans="5:5">
-      <c r="E368" s="14"/>
+      <c r="E368" s="17"/>
     </row>
     <row r="369" customHeight="1" spans="5:5">
-      <c r="E369" s="14"/>
+      <c r="E369" s="17"/>
     </row>
     <row r="370" customHeight="1" spans="5:5">
-      <c r="E370" s="14"/>
+      <c r="E370" s="17"/>
     </row>
     <row r="371" customHeight="1" spans="5:5">
-      <c r="E371" s="14"/>
+      <c r="E371" s="17"/>
     </row>
     <row r="372" customHeight="1" spans="5:5">
-      <c r="E372" s="14"/>
+      <c r="E372" s="17"/>
     </row>
     <row r="373" customHeight="1" spans="5:5">
-      <c r="E373" s="14"/>
+      <c r="E373" s="17"/>
     </row>
     <row r="374" customHeight="1" spans="5:5">
-      <c r="E374" s="14"/>
+      <c r="E374" s="17"/>
     </row>
     <row r="375" customHeight="1" spans="5:5">
-      <c r="E375" s="14"/>
+      <c r="E375" s="17"/>
     </row>
     <row r="376" customHeight="1" spans="5:5">
-      <c r="E376" s="14"/>
+      <c r="E376" s="17"/>
     </row>
     <row r="377" customHeight="1" spans="5:5">
-      <c r="E377" s="14"/>
+      <c r="E377" s="17"/>
     </row>
     <row r="378" customHeight="1" spans="5:5">
-      <c r="E378" s="14"/>
+      <c r="E378" s="17"/>
     </row>
     <row r="379" customHeight="1" spans="5:5">
-      <c r="E379" s="14"/>
+      <c r="E379" s="17"/>
     </row>
     <row r="380" customHeight="1" spans="5:5">
-      <c r="E380" s="14"/>
+      <c r="E380" s="17"/>
     </row>
     <row r="381" customHeight="1" spans="5:5">
-      <c r="E381" s="14"/>
+      <c r="E381" s="17"/>
     </row>
     <row r="382" customHeight="1" spans="5:5">
-      <c r="E382" s="14"/>
+      <c r="E382" s="17"/>
     </row>
     <row r="383" customHeight="1" spans="5:5">
-      <c r="E383" s="14"/>
+      <c r="E383" s="17"/>
     </row>
     <row r="384" customHeight="1" spans="5:5">
-      <c r="E384" s="14"/>
+      <c r="E384" s="17"/>
     </row>
     <row r="385" customHeight="1" spans="5:5">
-      <c r="E385" s="14"/>
+      <c r="E385" s="17"/>
     </row>
     <row r="386" customHeight="1" spans="5:5">
-      <c r="E386" s="14"/>
+      <c r="E386" s="17"/>
     </row>
     <row r="387" customHeight="1" spans="5:5">
-      <c r="E387" s="14"/>
+      <c r="E387" s="17"/>
     </row>
     <row r="388" customHeight="1" spans="5:5">
-      <c r="E388" s="14"/>
+      <c r="E388" s="17"/>
     </row>
     <row r="389" customHeight="1" spans="5:5">
-      <c r="E389" s="14"/>
+      <c r="E389" s="17"/>
     </row>
     <row r="390" customHeight="1" spans="5:5">
-      <c r="E390" s="14"/>
+      <c r="E390" s="17"/>
     </row>
     <row r="391" customHeight="1" spans="5:5">
-      <c r="E391" s="14"/>
+      <c r="E391" s="17"/>
     </row>
     <row r="392" customHeight="1" spans="5:5">
-      <c r="E392" s="14"/>
+      <c r="E392" s="17"/>
     </row>
     <row r="393" customHeight="1" spans="5:5">
-      <c r="E393" s="14"/>
+      <c r="E393" s="17"/>
     </row>
     <row r="394" customHeight="1" spans="5:5">
-      <c r="E394" s="14"/>
+      <c r="E394" s="17"/>
     </row>
     <row r="395" customHeight="1" spans="5:5">
-      <c r="E395" s="14"/>
+      <c r="E395" s="17"/>
     </row>
     <row r="396" customHeight="1" spans="5:5">
-      <c r="E396" s="14"/>
+      <c r="E396" s="17"/>
     </row>
     <row r="397" customHeight="1" spans="5:5">
-      <c r="E397" s="14"/>
+      <c r="E397" s="17"/>
     </row>
     <row r="398" customHeight="1" spans="5:5">
-      <c r="E398" s="14"/>
+      <c r="E398" s="17"/>
     </row>
     <row r="399" customHeight="1" spans="5:5">
-      <c r="E399" s="14"/>
+      <c r="E399" s="17"/>
     </row>
     <row r="400" customHeight="1" spans="5:5">
-      <c r="E400" s="14"/>
+      <c r="E400" s="17"/>
     </row>
     <row r="401" customHeight="1" spans="5:5">
-      <c r="E401" s="14"/>
+      <c r="E401" s="17"/>
     </row>
     <row r="402" customHeight="1" spans="5:5">
-      <c r="E402" s="14"/>
+      <c r="E402" s="17"/>
     </row>
     <row r="403" customHeight="1" spans="5:5">
-      <c r="E403" s="14"/>
+      <c r="E403" s="17"/>
     </row>
     <row r="404" customHeight="1" spans="5:5">
-      <c r="E404" s="14"/>
+      <c r="E404" s="17"/>
     </row>
     <row r="405" customHeight="1" spans="5:5">
-      <c r="E405" s="14"/>
+      <c r="E405" s="17"/>
     </row>
     <row r="406" customHeight="1" spans="5:5">
-      <c r="E406" s="14"/>
+      <c r="E406" s="17"/>
     </row>
     <row r="407" customHeight="1" spans="5:5">
-      <c r="E407" s="14"/>
+      <c r="E407" s="17"/>
     </row>
     <row r="408" customHeight="1" spans="5:5">
-      <c r="E408" s="14"/>
+      <c r="E408" s="17"/>
     </row>
     <row r="409" customHeight="1" spans="5:5">
-      <c r="E409" s="14"/>
+      <c r="E409" s="17"/>
     </row>
     <row r="410" customHeight="1" spans="5:5">
-      <c r="E410" s="14"/>
+      <c r="E410" s="17"/>
     </row>
     <row r="411" customHeight="1" spans="5:5">
-      <c r="E411" s="14"/>
+      <c r="E411" s="17"/>
     </row>
     <row r="412" customHeight="1" spans="5:5">
-      <c r="E412" s="14"/>
+      <c r="E412" s="17"/>
     </row>
     <row r="413" customHeight="1" spans="5:5">
-      <c r="E413" s="14"/>
+      <c r="E413" s="17"/>
     </row>
     <row r="414" customHeight="1" spans="5:5">
-      <c r="E414" s="14"/>
+      <c r="E414" s="17"/>
     </row>
     <row r="415" customHeight="1" spans="5:5">
-      <c r="E415" s="14"/>
+      <c r="E415" s="17"/>
     </row>
     <row r="416" customHeight="1" spans="5:5">
-      <c r="E416" s="14"/>
+      <c r="E416" s="17"/>
     </row>
     <row r="417" customHeight="1" spans="5:5">
-      <c r="E417" s="14"/>
+      <c r="E417" s="17"/>
     </row>
     <row r="418" customHeight="1" spans="5:5">
-      <c r="E418" s="14"/>
+      <c r="E418" s="17"/>
     </row>
     <row r="419" customHeight="1" spans="5:5">
-      <c r="E419" s="14"/>
+      <c r="E419" s="17"/>
     </row>
     <row r="420" customHeight="1" spans="5:5">
-      <c r="E420" s="14"/>
+      <c r="E420" s="17"/>
     </row>
     <row r="421" customHeight="1" spans="5:5">
-      <c r="E421" s="14"/>
+      <c r="E421" s="17"/>
     </row>
     <row r="422" customHeight="1" spans="5:5">
-      <c r="E422" s="14"/>
+      <c r="E422" s="17"/>
     </row>
     <row r="423" customHeight="1" spans="5:5">
-      <c r="E423" s="14"/>
+      <c r="E423" s="17"/>
     </row>
     <row r="424" customHeight="1" spans="5:5">
-      <c r="E424" s="14"/>
+      <c r="E424" s="17"/>
     </row>
     <row r="425" customHeight="1" spans="5:5">
-      <c r="E425" s="14"/>
+      <c r="E425" s="17"/>
     </row>
     <row r="426" customHeight="1" spans="5:5">
-      <c r="E426" s="14"/>
+      <c r="E426" s="17"/>
     </row>
     <row r="427" customHeight="1" spans="5:5">
-      <c r="E427" s="14"/>
+      <c r="E427" s="17"/>
     </row>
     <row r="428" customHeight="1" spans="5:5">
-      <c r="E428" s="14"/>
+      <c r="E428" s="17"/>
     </row>
     <row r="429" customHeight="1" spans="5:5">
-      <c r="E429" s="14"/>
+      <c r="E429" s="17"/>
     </row>
     <row r="430" customHeight="1" spans="5:5">
-      <c r="E430" s="14"/>
+      <c r="E430" s="17"/>
     </row>
     <row r="431" customHeight="1" spans="5:5">
-      <c r="E431" s="14"/>
+      <c r="E431" s="17"/>
     </row>
     <row r="432" customHeight="1" spans="5:5">
-      <c r="E432" s="14"/>
+      <c r="E432" s="17"/>
     </row>
     <row r="433" customHeight="1" spans="5:5">
-      <c r="E433" s="14"/>
+      <c r="E433" s="17"/>
     </row>
     <row r="434" customHeight="1" spans="5:5">
-      <c r="E434" s="14"/>
+      <c r="E434" s="17"/>
     </row>
     <row r="435" customHeight="1" spans="5:5">
-      <c r="E435" s="14"/>
+      <c r="E435" s="17"/>
     </row>
     <row r="436" customHeight="1" spans="5:5">
-      <c r="E436" s="14"/>
+      <c r="E436" s="17"/>
     </row>
     <row r="437" customHeight="1" spans="5:5">
-      <c r="E437" s="14"/>
+      <c r="E437" s="17"/>
     </row>
     <row r="438" customHeight="1" spans="5:5">
-      <c r="E438" s="14"/>
+      <c r="E438" s="17"/>
     </row>
     <row r="439" customHeight="1" spans="5:5">
-      <c r="E439" s="14"/>
+      <c r="E439" s="17"/>
     </row>
     <row r="440" customHeight="1" spans="5:5">
-      <c r="E440" s="14"/>
+      <c r="E440" s="17"/>
     </row>
     <row r="441" customHeight="1" spans="5:5">
-      <c r="E441" s="14"/>
+      <c r="E441" s="17"/>
     </row>
     <row r="442" customHeight="1" spans="5:5">
-      <c r="E442" s="14"/>
+      <c r="E442" s="17"/>
     </row>
     <row r="443" customHeight="1" spans="5:5">
-      <c r="E443" s="14"/>
+      <c r="E443" s="17"/>
     </row>
     <row r="444" customHeight="1" spans="5:5">
-      <c r="E444" s="14"/>
+      <c r="E444" s="17"/>
     </row>
     <row r="445" customHeight="1" spans="5:5">
-      <c r="E445" s="14"/>
+      <c r="E445" s="17"/>
     </row>
     <row r="446" customHeight="1" spans="5:5">
-      <c r="E446" s="14"/>
+      <c r="E446" s="17"/>
     </row>
     <row r="447" customHeight="1" spans="5:5">
-      <c r="E447" s="14"/>
+      <c r="E447" s="17"/>
     </row>
     <row r="448" customHeight="1" spans="5:5">
-      <c r="E448" s="14"/>
+      <c r="E448" s="17"/>
     </row>
     <row r="449" customHeight="1" spans="5:5">
-      <c r="E449" s="14"/>
+      <c r="E449" s="17"/>
     </row>
     <row r="450" customHeight="1" spans="5:5">
-      <c r="E450" s="14"/>
+      <c r="E450" s="17"/>
     </row>
     <row r="451" customHeight="1" spans="5:5">
-      <c r="E451" s="14"/>
+      <c r="E451" s="17"/>
     </row>
     <row r="452" customHeight="1" spans="5:5">
-      <c r="E452" s="14"/>
+      <c r="E452" s="17"/>
     </row>
     <row r="453" customHeight="1" spans="5:5">
-      <c r="E453" s="14"/>
+      <c r="E453" s="17"/>
     </row>
     <row r="454" customHeight="1" spans="5:5">
-      <c r="E454" s="14"/>
+      <c r="E454" s="17"/>
     </row>
     <row r="455" customHeight="1" spans="5:5">
-      <c r="E455" s="14"/>
+      <c r="E455" s="17"/>
     </row>
     <row r="456" customHeight="1" spans="5:5">
-      <c r="E456" s="14"/>
+      <c r="E456" s="17"/>
     </row>
     <row r="457" customHeight="1" spans="5:5">
-      <c r="E457" s="14"/>
+      <c r="E457" s="17"/>
     </row>
     <row r="458" customHeight="1" spans="5:5">
-      <c r="E458" s="14"/>
+      <c r="E458" s="17"/>
     </row>
     <row r="459" customHeight="1" spans="5:5">
-      <c r="E459" s="14"/>
+      <c r="E459" s="17"/>
     </row>
     <row r="460" customHeight="1" spans="5:5">
-      <c r="E460" s="14"/>
+      <c r="E460" s="17"/>
     </row>
     <row r="461" customHeight="1" spans="5:5">
-      <c r="E461" s="14"/>
+      <c r="E461" s="17"/>
     </row>
     <row r="462" customHeight="1" spans="5:5">
-      <c r="E462" s="14"/>
+      <c r="E462" s="17"/>
     </row>
     <row r="463" customHeight="1" spans="5:5">
-      <c r="E463" s="14"/>
+      <c r="E463" s="17"/>
     </row>
     <row r="464" customHeight="1" spans="5:5">
-      <c r="E464" s="14"/>
+      <c r="E464" s="17"/>
     </row>
     <row r="465" customHeight="1" spans="5:5">
-      <c r="E465" s="14"/>
+      <c r="E465" s="17"/>
     </row>
     <row r="466" customHeight="1" spans="5:5">
-      <c r="E466" s="14"/>
+      <c r="E466" s="17"/>
     </row>
     <row r="467" customHeight="1" spans="5:5">
-      <c r="E467" s="14"/>
+      <c r="E467" s="17"/>
     </row>
     <row r="468" customHeight="1" spans="5:5">
-      <c r="E468" s="14"/>
+      <c r="E468" s="17"/>
     </row>
     <row r="469" customHeight="1" spans="5:5">
-      <c r="E469" s="14"/>
+      <c r="E469" s="17"/>
     </row>
     <row r="470" customHeight="1" spans="5:5">
-      <c r="E470" s="14"/>
+      <c r="E470" s="17"/>
     </row>
     <row r="471" customHeight="1" spans="5:5">
-      <c r="E471" s="14"/>
+      <c r="E471" s="17"/>
     </row>
     <row r="472" customHeight="1" spans="5:5">
-      <c r="E472" s="14"/>
+      <c r="E472" s="17"/>
     </row>
     <row r="473" customHeight="1" spans="5:5">
-      <c r="E473" s="14"/>
+      <c r="E473" s="17"/>
     </row>
     <row r="474" customHeight="1" spans="5:5">
-      <c r="E474" s="14"/>
+      <c r="E474" s="17"/>
     </row>
     <row r="475" customHeight="1" spans="5:5">
-      <c r="E475" s="14"/>
+      <c r="E475" s="17"/>
     </row>
     <row r="476" customHeight="1" spans="5:5">
-      <c r="E476" s="14"/>
+      <c r="E476" s="17"/>
     </row>
     <row r="477" customHeight="1" spans="5:5">
-      <c r="E477" s="14"/>
+      <c r="E477" s="17"/>
     </row>
     <row r="478" customHeight="1" spans="5:5">
-      <c r="E478" s="14"/>
+      <c r="E478" s="17"/>
     </row>
     <row r="479" customHeight="1" spans="5:5">
-      <c r="E479" s="14"/>
+      <c r="E479" s="17"/>
     </row>
     <row r="480" customHeight="1" spans="5:5">
-      <c r="E480" s="14"/>
+      <c r="E480" s="17"/>
     </row>
     <row r="481" customHeight="1" spans="5:5">
-      <c r="E481" s="14"/>
+      <c r="E481" s="17"/>
     </row>
     <row r="482" customHeight="1" spans="5:5">
-      <c r="E482" s="14"/>
+      <c r="E482" s="17"/>
     </row>
     <row r="483" customHeight="1" spans="5:5">
-      <c r="E483" s="14"/>
+      <c r="E483" s="17"/>
     </row>
     <row r="484" customHeight="1" spans="5:5">
-      <c r="E484" s="14"/>
+      <c r="E484" s="17"/>
     </row>
     <row r="485" customHeight="1" spans="5:5">
-      <c r="E485" s="14"/>
+      <c r="E485" s="17"/>
     </row>
     <row r="486" customHeight="1" spans="5:5">
-      <c r="E486" s="14"/>
+      <c r="E486" s="17"/>
     </row>
     <row r="487" customHeight="1" spans="5:5">
-      <c r="E487" s="14"/>
+      <c r="E487" s="17"/>
     </row>
     <row r="488" customHeight="1" spans="5:5">
-      <c r="E488" s="14"/>
+      <c r="E488" s="17"/>
     </row>
     <row r="489" customHeight="1" spans="5:5">
-      <c r="E489" s="14"/>
+      <c r="E489" s="17"/>
     </row>
     <row r="490" customHeight="1" spans="5:5">
-      <c r="E490" s="14"/>
+      <c r="E490" s="17"/>
     </row>
     <row r="491" customHeight="1" spans="5:5">
-      <c r="E491" s="14"/>
+      <c r="E491" s="17"/>
     </row>
     <row r="492" customHeight="1" spans="5:5">
-      <c r="E492" s="14"/>
+      <c r="E492" s="17"/>
     </row>
     <row r="493" customHeight="1" spans="5:5">
-      <c r="E493" s="14"/>
+      <c r="E493" s="17"/>
     </row>
     <row r="494" customHeight="1" spans="5:5">
-      <c r="E494" s="14"/>
+      <c r="E494" s="17"/>
     </row>
     <row r="495" customHeight="1" spans="5:5">
-      <c r="E495" s="14"/>
+      <c r="E495" s="17"/>
     </row>
     <row r="496" customHeight="1" spans="5:5">
-      <c r="E496" s="14"/>
+      <c r="E496" s="17"/>
     </row>
     <row r="497" customHeight="1" spans="5:5">
-      <c r="E497" s="14"/>
+      <c r="E497" s="17"/>
     </row>
     <row r="498" customHeight="1" spans="5:5">
-      <c r="E498" s="14"/>
+      <c r="E498" s="17"/>
     </row>
     <row r="499" customHeight="1" spans="5:5">
-      <c r="E499" s="14"/>
+      <c r="E499" s="17"/>
     </row>
     <row r="500" customHeight="1" spans="5:5">
-      <c r="E500" s="14"/>
+      <c r="E500" s="17"/>
     </row>
     <row r="501" customHeight="1" spans="5:5">
-      <c r="E501" s="14"/>
+      <c r="E501" s="17"/>
     </row>
     <row r="502" customHeight="1" spans="5:5">
-      <c r="E502" s="14"/>
+      <c r="E502" s="17"/>
     </row>
     <row r="503" customHeight="1" spans="5:5">
-      <c r="E503" s="14"/>
+      <c r="E503" s="17"/>
     </row>
     <row r="504" customHeight="1" spans="5:5">
-      <c r="E504" s="14"/>
+      <c r="E504" s="17"/>
     </row>
     <row r="505" customHeight="1" spans="5:5">
-      <c r="E505" s="14"/>
+      <c r="E505" s="17"/>
     </row>
     <row r="506" customHeight="1" spans="5:5">
-      <c r="E506" s="14"/>
+      <c r="E506" s="17"/>
     </row>
     <row r="507" customHeight="1" spans="5:5">
-      <c r="E507" s="14"/>
+      <c r="E507" s="17"/>
     </row>
     <row r="508" customHeight="1" spans="5:5">
-      <c r="E508" s="14"/>
+      <c r="E508" s="17"/>
     </row>
     <row r="509" customHeight="1" spans="5:5">
-      <c r="E509" s="14"/>
+      <c r="E509" s="17"/>
     </row>
     <row r="510" customHeight="1" spans="5:5">
-      <c r="E510" s="14"/>
+      <c r="E510" s="17"/>
     </row>
     <row r="511" customHeight="1" spans="5:5">
-      <c r="E511" s="14"/>
+      <c r="E511" s="17"/>
     </row>
     <row r="512" customHeight="1" spans="5:5">
-      <c r="E512" s="14"/>
+      <c r="E512" s="17"/>
     </row>
     <row r="513" customHeight="1" spans="5:5">
-      <c r="E513" s="14"/>
+      <c r="E513" s="17"/>
     </row>
     <row r="514" customHeight="1" spans="5:5">
-      <c r="E514" s="14"/>
+      <c r="E514" s="17"/>
     </row>
     <row r="515" customHeight="1" spans="5:5">
-      <c r="E515" s="14"/>
+      <c r="E515" s="17"/>
     </row>
     <row r="516" customHeight="1" spans="5:5">
-      <c r="E516" s="14"/>
+      <c r="E516" s="17"/>
     </row>
     <row r="517" customHeight="1" spans="5:5">
-      <c r="E517" s="14"/>
+      <c r="E517" s="17"/>
     </row>
     <row r="518" customHeight="1" spans="5:5">
-      <c r="E518" s="14"/>
+      <c r="E518" s="17"/>
     </row>
     <row r="519" customHeight="1" spans="5:5">
-      <c r="E519" s="14"/>
+      <c r="E519" s="17"/>
     </row>
     <row r="520" customHeight="1" spans="5:5">
-      <c r="E520" s="14"/>
+      <c r="E520" s="17"/>
     </row>
     <row r="521" customHeight="1" spans="5:5">
-      <c r="E521" s="14"/>
+      <c r="E521" s="17"/>
     </row>
     <row r="522" customHeight="1" spans="5:5">
-      <c r="E522" s="14"/>
+      <c r="E522" s="17"/>
     </row>
     <row r="523" customHeight="1" spans="5:5">
-      <c r="E523" s="14"/>
+      <c r="E523" s="17"/>
     </row>
     <row r="524" customHeight="1" spans="5:5">
-      <c r="E524" s="14"/>
+      <c r="E524" s="17"/>
     </row>
     <row r="525" customHeight="1" spans="5:5">
-      <c r="E525" s="14"/>
+      <c r="E525" s="17"/>
     </row>
     <row r="526" customHeight="1" spans="5:5">
-      <c r="E526" s="14"/>
+      <c r="E526" s="17"/>
     </row>
     <row r="527" customHeight="1" spans="5:5">
-      <c r="E527" s="14"/>
+      <c r="E527" s="17"/>
     </row>
     <row r="528" customHeight="1" spans="5:5">
-      <c r="E528" s="14"/>
+      <c r="E528" s="17"/>
     </row>
     <row r="529" customHeight="1" spans="5:5">
-      <c r="E529" s="14"/>
+      <c r="E529" s="17"/>
     </row>
     <row r="530" customHeight="1" spans="5:5">
-      <c r="E530" s="14"/>
+      <c r="E530" s="17"/>
     </row>
     <row r="531" customHeight="1" spans="5:5">
-      <c r="E531" s="14"/>
+      <c r="E531" s="17"/>
     </row>
     <row r="532" customHeight="1" spans="5:5">
-      <c r="E532" s="14"/>
+      <c r="E532" s="17"/>
     </row>
     <row r="533" customHeight="1" spans="5:5">
-      <c r="E533" s="14"/>
+      <c r="E533" s="17"/>
     </row>
     <row r="534" customHeight="1" spans="5:5">
-      <c r="E534" s="14"/>
+      <c r="E534" s="17"/>
     </row>
     <row r="535" customHeight="1" spans="5:5">
-      <c r="E535" s="14"/>
+      <c r="E535" s="17"/>
     </row>
     <row r="536" customHeight="1" spans="5:5">
-      <c r="E536" s="14"/>
+      <c r="E536" s="17"/>
     </row>
     <row r="537" customHeight="1" spans="5:5">
-      <c r="E537" s="14"/>
+      <c r="E537" s="17"/>
     </row>
     <row r="538" customHeight="1" spans="5:5">
-      <c r="E538" s="14"/>
+      <c r="E538" s="17"/>
     </row>
     <row r="539" customHeight="1" spans="5:5">
-      <c r="E539" s="14"/>
+      <c r="E539" s="17"/>
     </row>
     <row r="540" customHeight="1" spans="5:5">
-      <c r="E540" s="14"/>
+      <c r="E540" s="17"/>
     </row>
     <row r="541" customHeight="1" spans="5:5">
-      <c r="E541" s="14"/>
+      <c r="E541" s="17"/>
     </row>
     <row r="542" customHeight="1" spans="5:5">
-      <c r="E542" s="14"/>
+      <c r="E542" s="17"/>
     </row>
     <row r="543" customHeight="1" spans="5:5">
-      <c r="E543" s="14"/>
+      <c r="E543" s="17"/>
     </row>
     <row r="544" customHeight="1" spans="5:5">
-      <c r="E544" s="14"/>
+      <c r="E544" s="17"/>
     </row>
     <row r="545" customHeight="1" spans="5:5">
-      <c r="E545" s="14"/>
+      <c r="E545" s="17"/>
     </row>
     <row r="546" customHeight="1" spans="5:5">
-      <c r="E546" s="14"/>
+      <c r="E546" s="17"/>
     </row>
     <row r="547" customHeight="1" spans="5:5">
-      <c r="E547" s="14"/>
+      <c r="E547" s="17"/>
     </row>
     <row r="548" customHeight="1" spans="5:5">
-      <c r="E548" s="14"/>
+      <c r="E548" s="17"/>
     </row>
     <row r="549" customHeight="1" spans="5:5">
-      <c r="E549" s="14"/>
+      <c r="E549" s="17"/>
     </row>
     <row r="550" customHeight="1" spans="5:5">
-      <c r="E550" s="14"/>
+      <c r="E550" s="17"/>
     </row>
     <row r="551" customHeight="1" spans="5:5">
-      <c r="E551" s="14"/>
+      <c r="E551" s="17"/>
     </row>
     <row r="552" customHeight="1" spans="5:5">
-      <c r="E552" s="14"/>
+      <c r="E552" s="17"/>
     </row>
     <row r="553" customHeight="1" spans="5:5">
-      <c r="E553" s="14"/>
+      <c r="E553" s="17"/>
     </row>
     <row r="554" customHeight="1" spans="5:5">
-      <c r="E554" s="14"/>
+      <c r="E554" s="17"/>
     </row>
     <row r="555" customHeight="1" spans="5:5">
-      <c r="E555" s="14"/>
+      <c r="E555" s="17"/>
     </row>
     <row r="556" customHeight="1" spans="5:5">
-      <c r="E556" s="14"/>
+      <c r="E556" s="17"/>
     </row>
     <row r="557" customHeight="1" spans="5:5">
-      <c r="E557" s="14"/>
+      <c r="E557" s="17"/>
     </row>
     <row r="558" customHeight="1" spans="5:5">
-      <c r="E558" s="14"/>
+      <c r="E558" s="17"/>
     </row>
     <row r="559" customHeight="1" spans="5:5">
-      <c r="E559" s="14"/>
+      <c r="E559" s="17"/>
     </row>
     <row r="560" customHeight="1" spans="5:5">
-      <c r="E560" s="14"/>
+      <c r="E560" s="17"/>
     </row>
     <row r="561" customHeight="1" spans="5:5">
-      <c r="E561" s="14"/>
+      <c r="E561" s="17"/>
     </row>
     <row r="562" customHeight="1" spans="5:5">
-      <c r="E562" s="14"/>
+      <c r="E562" s="17"/>
     </row>
     <row r="563" customHeight="1" spans="5:5">
-      <c r="E563" s="14"/>
+      <c r="E563" s="17"/>
     </row>
     <row r="564" customHeight="1" spans="5:5">
-      <c r="E564" s="14"/>
+      <c r="E564" s="17"/>
     </row>
     <row r="565" customHeight="1" spans="5:5">
-      <c r="E565" s="14"/>
+      <c r="E565" s="17"/>
     </row>
     <row r="566" customHeight="1" spans="5:5">
-      <c r="E566" s="14"/>
+      <c r="E566" s="17"/>
     </row>
     <row r="567" customHeight="1" spans="5:5">
-      <c r="E567" s="14"/>
+      <c r="E567" s="17"/>
     </row>
     <row r="568" customHeight="1" spans="5:5">
-      <c r="E568" s="14"/>
+      <c r="E568" s="17"/>
     </row>
     <row r="569" customHeight="1" spans="5:5">
-      <c r="E569" s="14"/>
+      <c r="E569" s="17"/>
     </row>
     <row r="570" customHeight="1" spans="5:5">
-      <c r="E570" s="14"/>
+      <c r="E570" s="17"/>
     </row>
     <row r="571" customHeight="1" spans="5:5">
-      <c r="E571" s="14"/>
+      <c r="E571" s="17"/>
     </row>
     <row r="572" customHeight="1" spans="5:5">
-      <c r="E572" s="14"/>
+      <c r="E572" s="17"/>
     </row>
     <row r="573" customHeight="1" spans="5:5">
-      <c r="E573" s="14"/>
+      <c r="E573" s="17"/>
     </row>
     <row r="574" customHeight="1" spans="5:5">
-      <c r="E574" s="14"/>
+      <c r="E574" s="17"/>
     </row>
     <row r="575" customHeight="1" spans="5:5">
-      <c r="E575" s="14"/>
+      <c r="E575" s="17"/>
     </row>
     <row r="576" customHeight="1" spans="5:5">
-      <c r="E576" s="14"/>
+      <c r="E576" s="17"/>
     </row>
     <row r="577" customHeight="1" spans="5:5">
-      <c r="E577" s="14"/>
+      <c r="E577" s="17"/>
     </row>
     <row r="578" customHeight="1" spans="5:5">
-      <c r="E578" s="14"/>
+      <c r="E578" s="17"/>
     </row>
     <row r="579" customHeight="1" spans="5:5">
-      <c r="E579" s="14"/>
+      <c r="E579" s="17"/>
     </row>
     <row r="580" customHeight="1" spans="5:5">
-      <c r="E580" s="14"/>
+      <c r="E580" s="17"/>
     </row>
     <row r="581" customHeight="1" spans="5:5">
-      <c r="E581" s="14"/>
+      <c r="E581" s="17"/>
     </row>
     <row r="582" customHeight="1" spans="5:5">
-      <c r="E582" s="14"/>
+      <c r="E582" s="17"/>
     </row>
     <row r="583" customHeight="1" spans="5:5">
-      <c r="E583" s="14"/>
+      <c r="E583" s="17"/>
     </row>
     <row r="584" customHeight="1" spans="5:5">
-      <c r="E584" s="14"/>
+      <c r="E584" s="17"/>
     </row>
     <row r="585" customHeight="1" spans="5:5">
-      <c r="E585" s="14"/>
+      <c r="E585" s="17"/>
     </row>
     <row r="586" customHeight="1" spans="5:5">
-      <c r="E586" s="14"/>
+      <c r="E586" s="17"/>
     </row>
     <row r="587" customHeight="1" spans="5:5">
-      <c r="E587" s="14"/>
+      <c r="E587" s="17"/>
     </row>
     <row r="588" customHeight="1" spans="5:5">
-      <c r="E588" s="14"/>
+      <c r="E588" s="17"/>
     </row>
     <row r="589" customHeight="1" spans="5:5">
-      <c r="E589" s="14"/>
+      <c r="E589" s="17"/>
     </row>
     <row r="590" customHeight="1" spans="5:5">
-      <c r="E590" s="14"/>
+      <c r="E590" s="17"/>
     </row>
     <row r="591" customHeight="1" spans="5:5">
-      <c r="E591" s="14"/>
+      <c r="E591" s="17"/>
     </row>
     <row r="592" customHeight="1" spans="5:5">
-      <c r="E592" s="14"/>
+      <c r="E592" s="17"/>
     </row>
     <row r="593" customHeight="1" spans="5:5">
-      <c r="E593" s="14"/>
+      <c r="E593" s="17"/>
     </row>
     <row r="594" customHeight="1" spans="5:5">
-      <c r="E594" s="14"/>
+      <c r="E594" s="17"/>
     </row>
     <row r="595" customHeight="1" spans="5:5">
-      <c r="E595" s="14"/>
+      <c r="E595" s="17"/>
     </row>
     <row r="596" customHeight="1" spans="5:5">
-      <c r="E596" s="14"/>
+      <c r="E596" s="17"/>
     </row>
     <row r="597" customHeight="1" spans="5:5">
-      <c r="E597" s="14"/>
+      <c r="E597" s="17"/>
     </row>
     <row r="598" customHeight="1" spans="5:5">
-      <c r="E598" s="14"/>
+      <c r="E598" s="17"/>
     </row>
     <row r="599" customHeight="1" spans="5:5">
-      <c r="E599" s="14"/>
+      <c r="E599" s="17"/>
     </row>
     <row r="600" customHeight="1" spans="5:5">
-      <c r="E600" s="14"/>
+      <c r="E600" s="17"/>
     </row>
     <row r="601" customHeight="1" spans="5:5">
-      <c r="E601" s="14"/>
+      <c r="E601" s="17"/>
     </row>
     <row r="602" customHeight="1" spans="5:5">
-      <c r="E602" s="14"/>
+      <c r="E602" s="17"/>
     </row>
     <row r="603" customHeight="1" spans="5:5">
-      <c r="E603" s="14"/>
+      <c r="E603" s="17"/>
     </row>
     <row r="604" customHeight="1" spans="5:5">
-      <c r="E604" s="14"/>
+      <c r="E604" s="17"/>
     </row>
     <row r="605" customHeight="1" spans="5:5">
-      <c r="E605" s="14"/>
+      <c r="E605" s="17"/>
     </row>
     <row r="606" customHeight="1" spans="5:5">
-      <c r="E606" s="14"/>
+      <c r="E606" s="17"/>
     </row>
     <row r="607" customHeight="1" spans="5:5">
-      <c r="E607" s="14"/>
+      <c r="E607" s="17"/>
     </row>
     <row r="608" customHeight="1" spans="5:5">
-      <c r="E608" s="14"/>
+      <c r="E608" s="17"/>
     </row>
     <row r="609" customHeight="1" spans="5:5">
-      <c r="E609" s="14"/>
+      <c r="E609" s="17"/>
     </row>
     <row r="610" customHeight="1" spans="5:5">
-      <c r="E610" s="14"/>
+      <c r="E610" s="17"/>
     </row>
     <row r="611" customHeight="1" spans="5:5">
-      <c r="E611" s="14"/>
+      <c r="E611" s="17"/>
     </row>
     <row r="612" customHeight="1" spans="5:5">
-      <c r="E612" s="14"/>
+      <c r="E612" s="17"/>
     </row>
     <row r="613" customHeight="1" spans="5:5">
-      <c r="E613" s="14"/>
+      <c r="E613" s="17"/>
     </row>
     <row r="614" customHeight="1" spans="5:5">
-      <c r="E614" s="14"/>
+      <c r="E614" s="17"/>
     </row>
     <row r="615" customHeight="1" spans="5:5">
-      <c r="E615" s="14"/>
+      <c r="E615" s="17"/>
     </row>
     <row r="616" customHeight="1" spans="5:5">
-      <c r="E616" s="14"/>
+      <c r="E616" s="17"/>
     </row>
     <row r="617" customHeight="1" spans="5:5">
-      <c r="E617" s="14"/>
+      <c r="E617" s="17"/>
     </row>
     <row r="618" customHeight="1" spans="5:5">
-      <c r="E618" s="14"/>
+      <c r="E618" s="17"/>
     </row>
     <row r="619" customHeight="1" spans="5:5">
-      <c r="E619" s="14"/>
+      <c r="E619" s="17"/>
     </row>
     <row r="620" customHeight="1" spans="5:5">
-      <c r="E620" s="14"/>
+      <c r="E620" s="17"/>
     </row>
     <row r="621" customHeight="1" spans="5:5">
-      <c r="E621" s="14"/>
+      <c r="E621" s="17"/>
     </row>
     <row r="622" customHeight="1" spans="5:5">
-      <c r="E622" s="14"/>
+      <c r="E622" s="17"/>
     </row>
     <row r="623" customHeight="1" spans="5:5">
-      <c r="E623" s="14"/>
+      <c r="E623" s="17"/>
     </row>
     <row r="624" customHeight="1" spans="5:5">
-      <c r="E624" s="14"/>
+      <c r="E624" s="17"/>
     </row>
     <row r="625" customHeight="1" spans="5:5">
-      <c r="E625" s="14"/>
+      <c r="E625" s="17"/>
     </row>
     <row r="626" customHeight="1" spans="5:5">
-      <c r="E626" s="14"/>
+      <c r="E626" s="17"/>
     </row>
     <row r="627" customHeight="1" spans="5:5">
-      <c r="E627" s="14"/>
+      <c r="E627" s="17"/>
     </row>
     <row r="628" customHeight="1" spans="5:5">
-      <c r="E628" s="14"/>
+      <c r="E628" s="17"/>
     </row>
     <row r="629" customHeight="1" spans="5:5">
-      <c r="E629" s="14"/>
+      <c r="E629" s="17"/>
     </row>
     <row r="630" customHeight="1" spans="5:5">
-      <c r="E630" s="14"/>
+      <c r="E630" s="17"/>
     </row>
     <row r="631" customHeight="1" spans="5:5">
-      <c r="E631" s="14"/>
+      <c r="E631" s="17"/>
     </row>
     <row r="632" customHeight="1" spans="5:5">
-      <c r="E632" s="14"/>
+      <c r="E632" s="17"/>
     </row>
     <row r="633" customHeight="1" spans="5:5">
-      <c r="E633" s="14"/>
+      <c r="E633" s="17"/>
     </row>
     <row r="634" customHeight="1" spans="5:5">
-      <c r="E634" s="14"/>
+      <c r="E634" s="17"/>
     </row>
     <row r="635" customHeight="1" spans="5:5">
-      <c r="E635" s="14"/>
+      <c r="E635" s="17"/>
     </row>
     <row r="636" customHeight="1" spans="5:5">
-      <c r="E636" s="14"/>
+      <c r="E636" s="17"/>
     </row>
     <row r="637" customHeight="1" spans="5:5">
-      <c r="E637" s="14"/>
+      <c r="E637" s="17"/>
     </row>
     <row r="638" customHeight="1" spans="5:5">
-      <c r="E638" s="14"/>
+      <c r="E638" s="17"/>
     </row>
     <row r="639" customHeight="1" spans="5:5">
-      <c r="E639" s="14"/>
+      <c r="E639" s="17"/>
     </row>
     <row r="640" customHeight="1" spans="5:5">
-      <c r="E640" s="14"/>
+      <c r="E640" s="17"/>
     </row>
     <row r="641" customHeight="1" spans="5:5">
-      <c r="E641" s="14"/>
+      <c r="E641" s="17"/>
     </row>
     <row r="642" customHeight="1" spans="5:5">
-      <c r="E642" s="14"/>
+      <c r="E642" s="17"/>
     </row>
     <row r="643" customHeight="1" spans="5:5">
-      <c r="E643" s="14"/>
+      <c r="E643" s="17"/>
     </row>
     <row r="644" customHeight="1" spans="5:5">
-      <c r="E644" s="14"/>
+      <c r="E644" s="17"/>
     </row>
     <row r="645" customHeight="1" spans="5:5">
-      <c r="E645" s="14"/>
+      <c r="E645" s="17"/>
     </row>
     <row r="646" customHeight="1" spans="5:5">
-      <c r="E646" s="14"/>
+      <c r="E646" s="17"/>
     </row>
     <row r="647" customHeight="1" spans="5:5">
-      <c r="E647" s="14"/>
+      <c r="E647" s="17"/>
     </row>
     <row r="648" customHeight="1" spans="5:5">
-      <c r="E648" s="14"/>
+      <c r="E648" s="17"/>
     </row>
     <row r="649" customHeight="1" spans="5:5">
-      <c r="E649" s="14"/>
+      <c r="E649" s="17"/>
     </row>
     <row r="650" customHeight="1" spans="5:5">
-      <c r="E650" s="14"/>
+      <c r="E650" s="17"/>
     </row>
     <row r="651" customHeight="1" spans="5:5">
-      <c r="E651" s="14"/>
+      <c r="E651" s="17"/>
     </row>
     <row r="652" customHeight="1" spans="5:5">
-      <c r="E652" s="14"/>
+      <c r="E652" s="17"/>
     </row>
     <row r="653" customHeight="1" spans="5:5">
-      <c r="E653" s="14"/>
+      <c r="E653" s="17"/>
     </row>
     <row r="654" customHeight="1" spans="5:5">
-      <c r="E654" s="14"/>
+      <c r="E654" s="17"/>
     </row>
     <row r="655" customHeight="1" spans="5:5">
-      <c r="E655" s="14"/>
+      <c r="E655" s="17"/>
     </row>
     <row r="656" customHeight="1" spans="5:5">
-      <c r="E656" s="14"/>
+      <c r="E656" s="17"/>
     </row>
     <row r="657" customHeight="1" spans="5:5">
-      <c r="E657" s="14"/>
+      <c r="E657" s="17"/>
     </row>
     <row r="658" customHeight="1" spans="5:5">
-      <c r="E658" s="14"/>
+      <c r="E658" s="17"/>
     </row>
     <row r="659" customHeight="1" spans="5:5">
-      <c r="E659" s="14"/>
+      <c r="E659" s="17"/>
     </row>
     <row r="660" customHeight="1" spans="5:5">
-      <c r="E660" s="14"/>
+      <c r="E660" s="17"/>
     </row>
     <row r="661" customHeight="1" spans="5:5">
-      <c r="E661" s="14"/>
+      <c r="E661" s="17"/>
     </row>
     <row r="662" customHeight="1" spans="5:5">
-      <c r="E662" s="14"/>
+      <c r="E662" s="17"/>
     </row>
     <row r="663" customHeight="1" spans="5:5">
-      <c r="E663" s="14"/>
+      <c r="E663" s="17"/>
     </row>
     <row r="664" customHeight="1" spans="5:5">
-      <c r="E664" s="14"/>
+      <c r="E664" s="17"/>
     </row>
     <row r="665" customHeight="1" spans="5:5">
-      <c r="E665" s="14"/>
+      <c r="E665" s="17"/>
     </row>
     <row r="666" customHeight="1" spans="5:5">
-      <c r="E666" s="14"/>
+      <c r="E666" s="17"/>
     </row>
     <row r="667" customHeight="1" spans="5:5">
-      <c r="E667" s="14"/>
+      <c r="E667" s="17"/>
     </row>
     <row r="668" customHeight="1" spans="5:5">
-      <c r="E668" s="14"/>
+      <c r="E668" s="17"/>
     </row>
     <row r="669" customHeight="1" spans="5:5">
-      <c r="E669" s="14"/>
+      <c r="E669" s="17"/>
     </row>
     <row r="670" customHeight="1" spans="5:5">
-      <c r="E670" s="14"/>
+      <c r="E670" s="17"/>
     </row>
     <row r="671" customHeight="1" spans="5:5">
-      <c r="E671" s="14"/>
+      <c r="E671" s="17"/>
     </row>
     <row r="672" customHeight="1" spans="5:5">
-      <c r="E672" s="14"/>
+      <c r="E672" s="17"/>
     </row>
     <row r="673" customHeight="1" spans="5:5">
-      <c r="E673" s="14"/>
+      <c r="E673" s="17"/>
     </row>
     <row r="674" customHeight="1" spans="5:5">
-      <c r="E674" s="14"/>
+      <c r="E674" s="17"/>
     </row>
     <row r="675" customHeight="1" spans="5:5">
-      <c r="E675" s="14"/>
+      <c r="E675" s="17"/>
     </row>
     <row r="676" customHeight="1" spans="5:5">
-      <c r="E676" s="14"/>
+      <c r="E676" s="17"/>
     </row>
     <row r="677" customHeight="1" spans="5:5">
-      <c r="E677" s="14"/>
+      <c r="E677" s="17"/>
     </row>
     <row r="678" customHeight="1" spans="5:5">
-      <c r="E678" s="14"/>
+      <c r="E678" s="17"/>
     </row>
     <row r="679" customHeight="1" spans="5:5">
-      <c r="E679" s="14"/>
+      <c r="E679" s="17"/>
     </row>
     <row r="680" customHeight="1" spans="5:5">
-      <c r="E680" s="14"/>
+      <c r="E680" s="17"/>
     </row>
     <row r="681" customHeight="1" spans="5:5">
-      <c r="E681" s="14"/>
+      <c r="E681" s="17"/>
     </row>
     <row r="682" customHeight="1" spans="5:5">
-      <c r="E682" s="14"/>
+      <c r="E682" s="17"/>
     </row>
     <row r="683" customHeight="1" spans="5:5">
-      <c r="E683" s="14"/>
+      <c r="E683" s="17"/>
     </row>
     <row r="684" customHeight="1" spans="5:5">
-      <c r="E684" s="14"/>
+      <c r="E684" s="17"/>
     </row>
     <row r="685" customHeight="1" spans="5:5">
-      <c r="E685" s="14"/>
+      <c r="E685" s="17"/>
     </row>
     <row r="686" customHeight="1" spans="5:5">
-      <c r="E686" s="14"/>
+      <c r="E686" s="17"/>
     </row>
     <row r="687" customHeight="1" spans="5:5">
-      <c r="E687" s="14"/>
+      <c r="E687" s="17"/>
     </row>
     <row r="688" customHeight="1" spans="5:5">
-      <c r="E688" s="14"/>
+      <c r="E688" s="17"/>
     </row>
     <row r="689" customHeight="1" spans="5:5">
-      <c r="E689" s="14"/>
+      <c r="E689" s="17"/>
     </row>
     <row r="690" customHeight="1" spans="5:5">
-      <c r="E690" s="14"/>
+      <c r="E690" s="17"/>
     </row>
     <row r="691" customHeight="1" spans="5:5">
-      <c r="E691" s="14"/>
+      <c r="E691" s="17"/>
     </row>
     <row r="692" customHeight="1" spans="5:5">
-      <c r="E692" s="14"/>
+      <c r="E692" s="17"/>
     </row>
     <row r="693" customHeight="1" spans="5:5">
-      <c r="E693" s="14"/>
+      <c r="E693" s="17"/>
     </row>
     <row r="694" customHeight="1" spans="5:5">
-      <c r="E694" s="14"/>
+      <c r="E694" s="17"/>
     </row>
     <row r="695" customHeight="1" spans="5:5">
-      <c r="E695" s="14"/>
+      <c r="E695" s="17"/>
     </row>
     <row r="696" customHeight="1" spans="5:5">
-      <c r="E696" s="14"/>
+      <c r="E696" s="17"/>
     </row>
     <row r="697" customHeight="1" spans="5:5">
-      <c r="E697" s="14"/>
+      <c r="E697" s="17"/>
     </row>
     <row r="698" customHeight="1" spans="5:5">
-      <c r="E698" s="14"/>
+      <c r="E698" s="17"/>
     </row>
     <row r="699" customHeight="1" spans="5:5">
-      <c r="E699" s="14"/>
+      <c r="E699" s="17"/>
     </row>
     <row r="700" customHeight="1" spans="5:5">
-      <c r="E700" s="14"/>
+      <c r="E700" s="17"/>
     </row>
     <row r="701" customHeight="1" spans="5:5">
-      <c r="E701" s="14"/>
+      <c r="E701" s="17"/>
     </row>
     <row r="702" customHeight="1" spans="5:5">
-      <c r="E702" s="14"/>
+      <c r="E702" s="17"/>
     </row>
     <row r="703" customHeight="1" spans="5:5">
-      <c r="E703" s="14"/>
+      <c r="E703" s="17"/>
     </row>
     <row r="704" customHeight="1" spans="5:5">
-      <c r="E704" s="14"/>
+      <c r="E704" s="17"/>
     </row>
     <row r="705" customHeight="1" spans="5:5">
-      <c r="E705" s="14"/>
+      <c r="E705" s="17"/>
     </row>
     <row r="706" customHeight="1" spans="5:5">
-      <c r="E706" s="14"/>
+      <c r="E706" s="17"/>
     </row>
     <row r="707" customHeight="1" spans="5:5">
-      <c r="E707" s="14"/>
+      <c r="E707" s="17"/>
     </row>
     <row r="708" customHeight="1" spans="5:5">
-      <c r="E708" s="14"/>
+      <c r="E708" s="17"/>
     </row>
     <row r="709" customHeight="1" spans="5:5">
-      <c r="E709" s="14"/>
+      <c r="E709" s="17"/>
     </row>
     <row r="710" customHeight="1" spans="5:5">
-      <c r="E710" s="14"/>
+      <c r="E710" s="17"/>
     </row>
     <row r="711" customHeight="1" spans="5:5">
-      <c r="E711" s="14"/>
+      <c r="E711" s="17"/>
     </row>
     <row r="712" customHeight="1" spans="5:5">
-      <c r="E712" s="14"/>
+      <c r="E712" s="17"/>
     </row>
     <row r="713" customHeight="1" spans="5:5">
-      <c r="E713" s="14"/>
+      <c r="E713" s="17"/>
     </row>
     <row r="714" customHeight="1" spans="5:5">
-      <c r="E714" s="14"/>
+      <c r="E714" s="17"/>
     </row>
     <row r="715" customHeight="1" spans="5:5">
-      <c r="E715" s="14"/>
+      <c r="E715" s="17"/>
     </row>
     <row r="716" customHeight="1" spans="5:5">
-      <c r="E716" s="14"/>
+      <c r="E716" s="17"/>
     </row>
     <row r="717" customHeight="1" spans="5:5">
-      <c r="E717" s="14"/>
+      <c r="E717" s="17"/>
     </row>
     <row r="718" customHeight="1" spans="5:5">
-      <c r="E718" s="14"/>
+      <c r="E718" s="17"/>
     </row>
     <row r="719" customHeight="1" spans="5:5">
-      <c r="E719" s="14"/>
+      <c r="E719" s="17"/>
     </row>
     <row r="720" customHeight="1" spans="5:5">
-      <c r="E720" s="14"/>
+      <c r="E720" s="17"/>
     </row>
     <row r="721" customHeight="1" spans="5:5">
-      <c r="E721" s="14"/>
+      <c r="E721" s="17"/>
     </row>
     <row r="722" customHeight="1" spans="5:5">
-      <c r="E722" s="14"/>
+      <c r="E722" s="17"/>
     </row>
     <row r="723" customHeight="1" spans="5:5">
-      <c r="E723" s="14"/>
+      <c r="E723" s="17"/>
     </row>
     <row r="724" customHeight="1" spans="5:5">
-      <c r="E724" s="14"/>
+      <c r="E724" s="17"/>
     </row>
     <row r="725" customHeight="1" spans="5:5">
-      <c r="E725" s="14"/>
+      <c r="E725" s="17"/>
     </row>
     <row r="726" customHeight="1" spans="5:5">
-      <c r="E726" s="14"/>
+      <c r="E726" s="17"/>
     </row>
     <row r="727" customHeight="1" spans="5:5">
-      <c r="E727" s="14"/>
+      <c r="E727" s="17"/>
     </row>
     <row r="728" customHeight="1" spans="5:5">
-      <c r="E728" s="14"/>
+      <c r="E728" s="17"/>
     </row>
     <row r="729" customHeight="1" spans="5:5">
-      <c r="E729" s="14"/>
+      <c r="E729" s="17"/>
     </row>
     <row r="730" customHeight="1" spans="5:5">
-      <c r="E730" s="14"/>
+      <c r="E730" s="17"/>
     </row>
     <row r="731" customHeight="1" spans="5:5">
-      <c r="E731" s="14"/>
+      <c r="E731" s="17"/>
     </row>
     <row r="732" customHeight="1" spans="5:5">
-      <c r="E732" s="14"/>
+      <c r="E732" s="17"/>
     </row>
     <row r="733" customHeight="1" spans="5:5">
-      <c r="E733" s="14"/>
+      <c r="E733" s="17"/>
     </row>
     <row r="734" customHeight="1" spans="5:5">
-      <c r="E734" s="14"/>
+      <c r="E734" s="17"/>
     </row>
     <row r="735" customHeight="1" spans="5:5">
-      <c r="E735" s="14"/>
+      <c r="E735" s="17"/>
     </row>
     <row r="736" customHeight="1" spans="5:5">
-      <c r="E736" s="14"/>
+      <c r="E736" s="17"/>
     </row>
     <row r="737" customHeight="1" spans="5:5">
-      <c r="E737" s="14"/>
+      <c r="E737" s="17"/>
     </row>
     <row r="738" customHeight="1" spans="5:5">
-      <c r="E738" s="14"/>
+      <c r="E738" s="17"/>
     </row>
     <row r="739" customHeight="1" spans="5:5">
-      <c r="E739" s="14"/>
+      <c r="E739" s="17"/>
     </row>
     <row r="740" customHeight="1" spans="5:5">
-      <c r="E740" s="14"/>
+      <c r="E740" s="17"/>
     </row>
     <row r="741" customHeight="1" spans="5:5">
-      <c r="E741" s="14"/>
+      <c r="E741" s="17"/>
     </row>
     <row r="742" customHeight="1" spans="5:5">
-      <c r="E742" s="14"/>
+      <c r="E742" s="17"/>
     </row>
     <row r="743" customHeight="1" spans="5:5">
-      <c r="E743" s="14"/>
+      <c r="E743" s="17"/>
     </row>
     <row r="744" customHeight="1" spans="5:5">
-      <c r="E744" s="14"/>
+      <c r="E744" s="17"/>
     </row>
     <row r="745" customHeight="1" spans="5:5">
-      <c r="E745" s="14"/>
+      <c r="E745" s="17"/>
     </row>
     <row r="746" customHeight="1" spans="5:5">
-      <c r="E746" s="14"/>
+      <c r="E746" s="17"/>
     </row>
     <row r="747" customHeight="1" spans="5:5">
-      <c r="E747" s="14"/>
+      <c r="E747" s="17"/>
     </row>
     <row r="748" customHeight="1" spans="5:5">
-      <c r="E748" s="14"/>
+      <c r="E748" s="17"/>
     </row>
     <row r="749" customHeight="1" spans="5:5">
-      <c r="E749" s="14"/>
+      <c r="E749" s="17"/>
     </row>
     <row r="750" customHeight="1" spans="5:5">
-      <c r="E750" s="14"/>
+      <c r="E750" s="17"/>
     </row>
     <row r="751" customHeight="1" spans="5:5">
-      <c r="E751" s="14"/>
+      <c r="E751" s="17"/>
     </row>
     <row r="752" customHeight="1" spans="5:5">
-      <c r="E752" s="14"/>
+      <c r="E752" s="17"/>
     </row>
     <row r="753" customHeight="1" spans="5:5">
-      <c r="E753" s="14"/>
+      <c r="E753" s="17"/>
     </row>
     <row r="754" customHeight="1" spans="5:5">
-      <c r="E754" s="14"/>
+      <c r="E754" s="17"/>
     </row>
     <row r="755" customHeight="1" spans="5:5">
-      <c r="E755" s="14"/>
+      <c r="E755" s="17"/>
     </row>
     <row r="756" customHeight="1" spans="5:5">
-      <c r="E756" s="14"/>
+      <c r="E756" s="17"/>
     </row>
     <row r="757" customHeight="1" spans="5:5">
-      <c r="E757" s="14"/>
+      <c r="E757" s="17"/>
     </row>
     <row r="758" customHeight="1" spans="5:5">
-      <c r="E758" s="14"/>
+      <c r="E758" s="17"/>
     </row>
     <row r="759" customHeight="1" spans="5:5">
-      <c r="E759" s="14"/>
+      <c r="E759" s="17"/>
     </row>
     <row r="760" customHeight="1" spans="5:5">
-      <c r="E760" s="14"/>
+      <c r="E760" s="17"/>
     </row>
     <row r="761" customHeight="1" spans="5:5">
-      <c r="E761" s="14"/>
+      <c r="E761" s="17"/>
     </row>
     <row r="762" customHeight="1" spans="5:5">
-      <c r="E762" s="14"/>
+      <c r="E762" s="17"/>
     </row>
     <row r="763" customHeight="1" spans="5:5">
-      <c r="E763" s="14"/>
+      <c r="E763" s="17"/>
     </row>
     <row r="764" customHeight="1" spans="5:5">
-      <c r="E764" s="14"/>
+      <c r="E764" s="17"/>
     </row>
     <row r="765" customHeight="1" spans="5:5">
-      <c r="E765" s="14"/>
+      <c r="E765" s="17"/>
     </row>
     <row r="766" customHeight="1" spans="5:5">
-      <c r="E766" s="14"/>
+      <c r="E766" s="17"/>
     </row>
     <row r="767" customHeight="1" spans="5:5">
-      <c r="E767" s="14"/>
+      <c r="E767" s="17"/>
     </row>
     <row r="768" customHeight="1" spans="5:5">
-      <c r="E768" s="14"/>
+      <c r="E768" s="17"/>
     </row>
     <row r="769" customHeight="1" spans="5:5">
-      <c r="E769" s="14"/>
+      <c r="E769" s="17"/>
     </row>
     <row r="770" customHeight="1" spans="5:5">
-      <c r="E770" s="14"/>
+      <c r="E770" s="17"/>
     </row>
     <row r="771" customHeight="1" spans="5:5">
-      <c r="E771" s="14"/>
+      <c r="E771" s="17"/>
     </row>
     <row r="772" customHeight="1" spans="5:5">
-      <c r="E772" s="14"/>
+      <c r="E772" s="17"/>
     </row>
     <row r="773" customHeight="1" spans="5:5">
-      <c r="E773" s="14"/>
+      <c r="E773" s="17"/>
     </row>
     <row r="774" customHeight="1" spans="5:5">
-      <c r="E774" s="14"/>
+      <c r="E774" s="17"/>
     </row>
     <row r="775" customHeight="1" spans="5:5">
-      <c r="E775" s="14"/>
+      <c r="E775" s="17"/>
     </row>
     <row r="776" customHeight="1" spans="5:5">
-      <c r="E776" s="14"/>
+      <c r="E776" s="17"/>
     </row>
     <row r="777" customHeight="1" spans="5:5">
-      <c r="E777" s="14"/>
+      <c r="E777" s="17"/>
     </row>
     <row r="778" customHeight="1" spans="5:5">
-      <c r="E778" s="14"/>
+      <c r="E778" s="17"/>
     </row>
     <row r="779" customHeight="1" spans="5:5">
-      <c r="E779" s="14"/>
+      <c r="E779" s="17"/>
     </row>
     <row r="780" customHeight="1" spans="5:5">
-      <c r="E780" s="14"/>
+      <c r="E780" s="17"/>
     </row>
     <row r="781" customHeight="1" spans="5:5">
-      <c r="E781" s="14"/>
+      <c r="E781" s="17"/>
     </row>
     <row r="782" customHeight="1" spans="5:5">
-      <c r="E782" s="14"/>
+      <c r="E782" s="17"/>
     </row>
     <row r="783" customHeight="1" spans="5:5">
-      <c r="E783" s="14"/>
+      <c r="E783" s="17"/>
     </row>
     <row r="784" customHeight="1" spans="5:5">
-      <c r="E784" s="14"/>
+      <c r="E784" s="17"/>
     </row>
     <row r="785" customHeight="1" spans="5:5">
-      <c r="E785" s="14"/>
+      <c r="E785" s="17"/>
     </row>
     <row r="786" customHeight="1" spans="5:5">
-      <c r="E786" s="14"/>
+      <c r="E786" s="17"/>
     </row>
     <row r="787" customHeight="1" spans="5:5">
-      <c r="E787" s="14"/>
+      <c r="E787" s="17"/>
     </row>
     <row r="788" customHeight="1" spans="5:5">
-      <c r="E788" s="14"/>
+      <c r="E788" s="17"/>
     </row>
     <row r="789" customHeight="1" spans="5:5">
-      <c r="E789" s="14"/>
+      <c r="E789" s="17"/>
     </row>
     <row r="790" customHeight="1" spans="5:5">
-      <c r="E790" s="14"/>
+      <c r="E790" s="17"/>
     </row>
     <row r="791" customHeight="1" spans="5:5">
-      <c r="E791" s="14"/>
+      <c r="E791" s="17"/>
     </row>
     <row r="792" customHeight="1" spans="5:5">
-      <c r="E792" s="14"/>
+      <c r="E792" s="17"/>
     </row>
     <row r="793" customHeight="1" spans="5:5">
-      <c r="E793" s="14"/>
+      <c r="E793" s="17"/>
     </row>
     <row r="794" customHeight="1" spans="5:5">
-      <c r="E794" s="14"/>
+      <c r="E794" s="17"/>
     </row>
     <row r="795" customHeight="1" spans="5:5">
-      <c r="E795" s="14"/>
+      <c r="E795" s="17"/>
     </row>
     <row r="796" customHeight="1" spans="5:5">
-      <c r="E796" s="14"/>
+      <c r="E796" s="17"/>
     </row>
     <row r="797" customHeight="1" spans="5:5">
-      <c r="E797" s="14"/>
+      <c r="E797" s="17"/>
     </row>
     <row r="798" customHeight="1" spans="5:5">
-      <c r="E798" s="14"/>
+      <c r="E798" s="17"/>
     </row>
     <row r="799" customHeight="1" spans="5:5">
-      <c r="E799" s="14"/>
+      <c r="E799" s="17"/>
     </row>
     <row r="800" customHeight="1" spans="5:5">
-      <c r="E800" s="14"/>
+      <c r="E800" s="17"/>
     </row>
     <row r="801" customHeight="1" spans="5:5">
-      <c r="E801" s="14"/>
+      <c r="E801" s="17"/>
     </row>
     <row r="802" customHeight="1" spans="5:5">
-      <c r="E802" s="14"/>
+      <c r="E802" s="17"/>
     </row>
     <row r="803" customHeight="1" spans="5:5">
-      <c r="E803" s="14"/>
+      <c r="E803" s="17"/>
     </row>
     <row r="804" customHeight="1" spans="5:5">
-      <c r="E804" s="14"/>
+      <c r="E804" s="17"/>
     </row>
     <row r="805" customHeight="1" spans="5:5">
-      <c r="E805" s="14"/>
+      <c r="E805" s="17"/>
     </row>
     <row r="806" customHeight="1" spans="5:5">
-      <c r="E806" s="14"/>
+      <c r="E806" s="17"/>
     </row>
     <row r="807" customHeight="1" spans="5:5">
-      <c r="E807" s="14"/>
+      <c r="E807" s="17"/>
     </row>
     <row r="808" customHeight="1" spans="5:5">
-      <c r="E808" s="14"/>
+      <c r="E808" s="17"/>
     </row>
     <row r="809" customHeight="1" spans="5:5">
-      <c r="E809" s="14"/>
+      <c r="E809" s="17"/>
     </row>
     <row r="810" customHeight="1" spans="5:5">
-      <c r="E810" s="14"/>
+      <c r="E810" s="17"/>
     </row>
     <row r="811" customHeight="1" spans="5:5">
-      <c r="E811" s="14"/>
+      <c r="E811" s="17"/>
     </row>
     <row r="812" customHeight="1" spans="5:5">
-      <c r="E812" s="14"/>
+      <c r="E812" s="17"/>
     </row>
     <row r="813" customHeight="1" spans="5:5">
-      <c r="E813" s="14"/>
+      <c r="E813" s="17"/>
     </row>
     <row r="814" customHeight="1" spans="5:5">
-      <c r="E814" s="14"/>
+      <c r="E814" s="17"/>
     </row>
     <row r="815" customHeight="1" spans="5:5">
-      <c r="E815" s="14"/>
+      <c r="E815" s="17"/>
     </row>
     <row r="816" customHeight="1" spans="5:5">
-      <c r="E816" s="14"/>
+      <c r="E816" s="17"/>
     </row>
     <row r="817" customHeight="1" spans="5:5">
-      <c r="E817" s="14"/>
+      <c r="E817" s="17"/>
     </row>
     <row r="818" customHeight="1" spans="5:5">
-      <c r="E818" s="14"/>
+      <c r="E818" s="17"/>
     </row>
     <row r="819" customHeight="1" spans="5:5">
-      <c r="E819" s="14"/>
+      <c r="E819" s="17"/>
     </row>
     <row r="820" customHeight="1" spans="5:5">
-      <c r="E820" s="14"/>
+      <c r="E820" s="17"/>
     </row>
     <row r="821" customHeight="1" spans="5:5">
-      <c r="E821" s="14"/>
+      <c r="E821" s="17"/>
     </row>
     <row r="822" customHeight="1" spans="5:5">
-      <c r="E822" s="14"/>
+      <c r="E822" s="17"/>
     </row>
     <row r="823" customHeight="1" spans="5:5">
-      <c r="E823" s="14"/>
+      <c r="E823" s="17"/>
     </row>
     <row r="824" customHeight="1" spans="5:5">
-      <c r="E824" s="14"/>
+      <c r="E824" s="17"/>
     </row>
     <row r="825" customHeight="1" spans="5:5">
-      <c r="E825" s="14"/>
+      <c r="E825" s="17"/>
     </row>
     <row r="826" customHeight="1" spans="5:5">
-      <c r="E826" s="14"/>
+      <c r="E826" s="17"/>
     </row>
     <row r="827" customHeight="1" spans="5:5">
-      <c r="E827" s="14"/>
+      <c r="E827" s="17"/>
     </row>
     <row r="828" customHeight="1" spans="5:5">
-      <c r="E828" s="14"/>
+      <c r="E828" s="17"/>
     </row>
     <row r="829" customHeight="1" spans="5:5">
-      <c r="E829" s="14"/>
+      <c r="E829" s="17"/>
     </row>
     <row r="830" customHeight="1" spans="5:5">
-      <c r="E830" s="14"/>
+      <c r="E830" s="17"/>
     </row>
     <row r="831" customHeight="1" spans="5:5">
-      <c r="E831" s="14"/>
+      <c r="E831" s="17"/>
     </row>
     <row r="832" customHeight="1" spans="5:5">
-      <c r="E832" s="14"/>
+      <c r="E832" s="17"/>
     </row>
     <row r="833" customHeight="1" spans="5:5">
-      <c r="E833" s="14"/>
+      <c r="E833" s="17"/>
     </row>
     <row r="834" customHeight="1" spans="5:5">
-      <c r="E834" s="14"/>
+      <c r="E834" s="17"/>
     </row>
     <row r="835" customHeight="1" spans="5:5">
-      <c r="E835" s="14"/>
+      <c r="E835" s="17"/>
     </row>
     <row r="836" customHeight="1" spans="5:5">
-      <c r="E836" s="14"/>
+      <c r="E836" s="17"/>
     </row>
     <row r="837" customHeight="1" spans="5:5">
-      <c r="E837" s="14"/>
+      <c r="E837" s="17"/>
     </row>
     <row r="838" customHeight="1" spans="5:5">
-      <c r="E838" s="14"/>
+      <c r="E838" s="17"/>
     </row>
     <row r="839" customHeight="1" spans="5:5">
-      <c r="E839" s="14"/>
+      <c r="E839" s="17"/>
     </row>
     <row r="840" customHeight="1" spans="5:5">
-      <c r="E840" s="14"/>
+      <c r="E840" s="17"/>
     </row>
     <row r="841" customHeight="1" spans="5:5">
-      <c r="E841" s="14"/>
+      <c r="E841" s="17"/>
     </row>
     <row r="842" customHeight="1" spans="5:5">
-      <c r="E842" s="14"/>
+      <c r="E842" s="17"/>
     </row>
     <row r="843" customHeight="1" spans="5:5">
-      <c r="E843" s="14"/>
+      <c r="E843" s="17"/>
     </row>
     <row r="844" customHeight="1" spans="5:5">
-      <c r="E844" s="14"/>
+      <c r="E844" s="17"/>
     </row>
     <row r="845" customHeight="1" spans="5:5">
-      <c r="E845" s="14"/>
+      <c r="E845" s="17"/>
     </row>
     <row r="846" customHeight="1" spans="5:5">
-      <c r="E846" s="14"/>
+      <c r="E846" s="17"/>
     </row>
     <row r="847" customHeight="1" spans="5:5">
-      <c r="E847" s="14"/>
+      <c r="E847" s="17"/>
     </row>
     <row r="848" customHeight="1" spans="5:5">
-      <c r="E848" s="14"/>
+      <c r="E848" s="17"/>
     </row>
     <row r="849" customHeight="1" spans="5:5">
-      <c r="E849" s="14"/>
+      <c r="E849" s="17"/>
     </row>
     <row r="850" customHeight="1" spans="5:5">
-      <c r="E850" s="14"/>
+      <c r="E850" s="17"/>
     </row>
     <row r="851" customHeight="1" spans="5:5">
-      <c r="E851" s="14"/>
+      <c r="E851" s="17"/>
     </row>
     <row r="852" customHeight="1" spans="5:5">
-      <c r="E852" s="14"/>
+      <c r="E852" s="17"/>
     </row>
     <row r="853" customHeight="1" spans="5:5">
-      <c r="E853" s="14"/>
+      <c r="E853" s="17"/>
     </row>
     <row r="854" customHeight="1" spans="5:5">
-      <c r="E854" s="14"/>
+      <c r="E854" s="17"/>
     </row>
     <row r="855" customHeight="1" spans="5:5">
-      <c r="E855" s="14"/>
+      <c r="E855" s="17"/>
     </row>
     <row r="856" customHeight="1" spans="5:5">
-      <c r="E856" s="14"/>
+      <c r="E856" s="17"/>
     </row>
     <row r="857" customHeight="1" spans="5:5">
-      <c r="E857" s="14"/>
+      <c r="E857" s="17"/>
     </row>
     <row r="858" customHeight="1" spans="5:5">
-      <c r="E858" s="14"/>
+      <c r="E858" s="17"/>
     </row>
     <row r="859" customHeight="1" spans="5:5">
-      <c r="E859" s="14"/>
+      <c r="E859" s="17"/>
     </row>
     <row r="860" customHeight="1" spans="5:5">
-      <c r="E860" s="14"/>
+      <c r="E860" s="17"/>
     </row>
     <row r="861" customHeight="1" spans="5:5">
-      <c r="E861" s="14"/>
+      <c r="E861" s="17"/>
     </row>
     <row r="862" customHeight="1" spans="5:5">
-      <c r="E862" s="14"/>
+      <c r="E862" s="17"/>
     </row>
     <row r="863" customHeight="1" spans="5:5">
-      <c r="E863" s="14"/>
+      <c r="E863" s="17"/>
     </row>
     <row r="864" customHeight="1" spans="5:5">
-      <c r="E864" s="14"/>
+      <c r="E864" s="17"/>
     </row>
     <row r="865" customHeight="1" spans="5:5">
-      <c r="E865" s="14"/>
+      <c r="E865" s="17"/>
     </row>
     <row r="866" customHeight="1" spans="5:5">
-      <c r="E866" s="14"/>
+      <c r="E866" s="17"/>
     </row>
     <row r="867" customHeight="1" spans="5:5">
-      <c r="E867" s="14"/>
+      <c r="E867" s="17"/>
     </row>
     <row r="868" customHeight="1" spans="5:5">
-      <c r="E868" s="14"/>
+      <c r="E868" s="17"/>
     </row>
     <row r="869" customHeight="1" spans="5:5">
-      <c r="E869" s="14"/>
+      <c r="E869" s="17"/>
     </row>
     <row r="870" customHeight="1" spans="5:5">
-      <c r="E870" s="14"/>
+      <c r="E870" s="17"/>
     </row>
     <row r="871" customHeight="1" spans="5:5">
-      <c r="E871" s="14"/>
+      <c r="E871" s="17"/>
     </row>
     <row r="872" customHeight="1" spans="5:5">
-      <c r="E872" s="14"/>
+      <c r="E872" s="17"/>
     </row>
     <row r="873" customHeight="1" spans="5:5">
-      <c r="E873" s="14"/>
+      <c r="E873" s="17"/>
     </row>
     <row r="874" customHeight="1" spans="5:5">
-      <c r="E874" s="14"/>
+      <c r="E874" s="17"/>
     </row>
     <row r="875" customHeight="1" spans="5:5">
-      <c r="E875" s="14"/>
+      <c r="E875" s="17"/>
     </row>
     <row r="876" customHeight="1" spans="5:5">
-      <c r="E876" s="14"/>
+      <c r="E876" s="17"/>
     </row>
     <row r="877" customHeight="1" spans="5:5">
-      <c r="E877" s="14"/>
+      <c r="E877" s="17"/>
     </row>
     <row r="878" customHeight="1" spans="5:5">
-      <c r="E878" s="14"/>
+      <c r="E878" s="17"/>
     </row>
     <row r="879" customHeight="1" spans="5:5">
-      <c r="E879" s="14"/>
+      <c r="E879" s="17"/>
     </row>
     <row r="880" customHeight="1" spans="5:5">
-      <c r="E880" s="14"/>
+      <c r="E880" s="17"/>
     </row>
     <row r="881" customHeight="1" spans="5:5">
-      <c r="E881" s="14"/>
+      <c r="E881" s="17"/>
     </row>
     <row r="882" customHeight="1" spans="5:5">
-      <c r="E882" s="14"/>
+      <c r="E882" s="17"/>
     </row>
     <row r="883" customHeight="1" spans="5:5">
-      <c r="E883" s="14"/>
+      <c r="E883" s="17"/>
     </row>
     <row r="884" customHeight="1" spans="5:5">
-      <c r="E884" s="14"/>
+      <c r="E884" s="17"/>
     </row>
     <row r="885" customHeight="1" spans="5:5">
-      <c r="E885" s="14"/>
+      <c r="E885" s="17"/>
     </row>
     <row r="886" customHeight="1" spans="5:5">
-      <c r="E886" s="14"/>
+      <c r="E886" s="17"/>
     </row>
     <row r="887" customHeight="1" spans="5:5">
-      <c r="E887" s="14"/>
+      <c r="E887" s="17"/>
     </row>
     <row r="888" customHeight="1" spans="5:5">
-      <c r="E888" s="14"/>
+      <c r="E888" s="17"/>
     </row>
     <row r="889" customHeight="1" spans="5:5">
-      <c r="E889" s="14"/>
+      <c r="E889" s="17"/>
     </row>
     <row r="890" customHeight="1" spans="5:5">
-      <c r="E890" s="14"/>
+      <c r="E890" s="17"/>
     </row>
     <row r="891" customHeight="1" spans="5:5">
-      <c r="E891" s="14"/>
+      <c r="E891" s="17"/>
     </row>
     <row r="892" customHeight="1" spans="5:5">
-      <c r="E892" s="14"/>
+      <c r="E892" s="17"/>
     </row>
     <row r="893" customHeight="1" spans="5:5">
-      <c r="E893" s="14"/>
+      <c r="E893" s="17"/>
     </row>
     <row r="894" customHeight="1" spans="5:5">
-      <c r="E894" s="14"/>
+      <c r="E894" s="17"/>
     </row>
     <row r="895" customHeight="1" spans="5:5">
-      <c r="E895" s="14"/>
+      <c r="E895" s="17"/>
     </row>
     <row r="896" customHeight="1" spans="5:5">
-      <c r="E896" s="14"/>
+      <c r="E896" s="17"/>
     </row>
     <row r="897" customHeight="1" spans="5:5">
-      <c r="E897" s="14"/>
+      <c r="E897" s="17"/>
     </row>
     <row r="898" customHeight="1" spans="5:5">
-      <c r="E898" s="14"/>
+      <c r="E898" s="17"/>
     </row>
     <row r="899" customHeight="1" spans="5:5">
-      <c r="E899" s="14"/>
+      <c r="E899" s="17"/>
     </row>
     <row r="900" customHeight="1" spans="5:5">
-      <c r="E900" s="14"/>
+      <c r="E900" s="17"/>
     </row>
     <row r="901" customHeight="1" spans="5:5">
-      <c r="E901" s="14"/>
+      <c r="E901" s="17"/>
     </row>
     <row r="902" customHeight="1" spans="5:5">
-      <c r="E902" s="14"/>
+      <c r="E902" s="17"/>
     </row>
     <row r="903" customHeight="1" spans="5:5">
-      <c r="E903" s="14"/>
+      <c r="E903" s="17"/>
     </row>
     <row r="904" customHeight="1" spans="5:5">
-      <c r="E904" s="14"/>
+      <c r="E904" s="17"/>
     </row>
     <row r="905" customHeight="1" spans="5:5">
-      <c r="E905" s="14"/>
+      <c r="E905" s="17"/>
     </row>
     <row r="906" customHeight="1" spans="5:5">
-      <c r="E906" s="14"/>
+      <c r="E906" s="17"/>
     </row>
     <row r="907" customHeight="1" spans="5:5">
-      <c r="E907" s="14"/>
+      <c r="E907" s="17"/>
     </row>
     <row r="908" customHeight="1" spans="5:5">
-      <c r="E908" s="14"/>
+      <c r="E908" s="17"/>
     </row>
     <row r="909" customHeight="1" spans="5:5">
-      <c r="E909" s="14"/>
+      <c r="E909" s="17"/>
     </row>
     <row r="910" customHeight="1" spans="5:5">
-      <c r="E910" s="14"/>
+      <c r="E910" s="17"/>
     </row>
     <row r="911" customHeight="1" spans="5:5">
-      <c r="E911" s="14"/>
+      <c r="E911" s="17"/>
     </row>
     <row r="912" customHeight="1" spans="5:5">
-      <c r="E912" s="14"/>
+      <c r="E912" s="17"/>
     </row>
     <row r="913" customHeight="1" spans="5:5">
-      <c r="E913" s="14"/>
+      <c r="E913" s="17"/>
     </row>
     <row r="914" customHeight="1" spans="5:5">
-      <c r="E914" s="14"/>
+      <c r="E914" s="17"/>
     </row>
     <row r="915" customHeight="1" spans="5:5">
-      <c r="E915" s="14"/>
+      <c r="E915" s="17"/>
     </row>
     <row r="916" customHeight="1" spans="5:5">
-      <c r="E916" s="14"/>
+      <c r="E916" s="17"/>
     </row>
     <row r="917" customHeight="1" spans="5:5">
-      <c r="E917" s="14"/>
+      <c r="E917" s="17"/>
     </row>
     <row r="918" customHeight="1" spans="5:5">
-      <c r="E918" s="14"/>
+      <c r="E918" s="17"/>
     </row>
     <row r="919" customHeight="1" spans="5:5">
-      <c r="E919" s="14"/>
+      <c r="E919" s="17"/>
     </row>
     <row r="920" customHeight="1" spans="5:5">
-      <c r="E920" s="14"/>
+      <c r="E920" s="17"/>
     </row>
     <row r="921" customHeight="1" spans="5:5">
-      <c r="E921" s="14"/>
+      <c r="E921" s="17"/>
     </row>
     <row r="922" customHeight="1" spans="5:5">
-      <c r="E922" s="14"/>
+      <c r="E922" s="17"/>
     </row>
     <row r="923" customHeight="1" spans="5:5">
-      <c r="E923" s="14"/>
+      <c r="E923" s="17"/>
     </row>
     <row r="924" customHeight="1" spans="5:5">
-      <c r="E924" s="14"/>
+      <c r="E924" s="17"/>
     </row>
     <row r="925" customHeight="1" spans="5:5">
-      <c r="E925" s="14"/>
+      <c r="E925" s="17"/>
     </row>
     <row r="926" customHeight="1" spans="5:5">
-      <c r="E926" s="14"/>
+      <c r="E926" s="17"/>
     </row>
     <row r="927" customHeight="1" spans="5:5">
-      <c r="E927" s="14"/>
+      <c r="E927" s="17"/>
     </row>
     <row r="928" customHeight="1" spans="5:5">
-      <c r="E928" s="14"/>
+      <c r="E928" s="17"/>
     </row>
     <row r="929" customHeight="1" spans="5:5">
-      <c r="E929" s="14"/>
+      <c r="E929" s="17"/>
     </row>
     <row r="930" customHeight="1" spans="5:5">
-      <c r="E930" s="14"/>
+      <c r="E930" s="17"/>
     </row>
     <row r="931" customHeight="1" spans="5:5">
-      <c r="E931" s="14"/>
+      <c r="E931" s="17"/>
     </row>
     <row r="932" customHeight="1" spans="5:5">
-      <c r="E932" s="14"/>
+      <c r="E932" s="17"/>
     </row>
     <row r="933" customHeight="1" spans="5:5">
-      <c r="E933" s="14"/>
+      <c r="E933" s="17"/>
     </row>
     <row r="934" customHeight="1" spans="5:5">
-      <c r="E934" s="14"/>
+      <c r="E934" s="17"/>
     </row>
     <row r="935" customHeight="1" spans="5:5">
-      <c r="E935" s="14"/>
+      <c r="E935" s="17"/>
     </row>
     <row r="936" customHeight="1" spans="5:5">
-      <c r="E936" s="14"/>
+      <c r="E936" s="17"/>
     </row>
     <row r="937" customHeight="1" spans="5:5">
-      <c r="E937" s="14"/>
+      <c r="E937" s="17"/>
     </row>
     <row r="938" customHeight="1" spans="5:5">
-      <c r="E938" s="14"/>
+      <c r="E938" s="17"/>
     </row>
     <row r="939" customHeight="1" spans="5:5">
-      <c r="E939" s="14"/>
+      <c r="E939" s="17"/>
     </row>
     <row r="940" customHeight="1" spans="5:5">
-      <c r="E940" s="14"/>
+      <c r="E940" s="17"/>
     </row>
     <row r="941" customHeight="1" spans="5:5">
-      <c r="E941" s="14"/>
+      <c r="E941" s="17"/>
     </row>
     <row r="942" customHeight="1" spans="5:5">
-      <c r="E942" s="14"/>
+      <c r="E942" s="17"/>
     </row>
     <row r="943" customHeight="1" spans="5:5">
-      <c r="E943" s="14"/>
+      <c r="E943" s="17"/>
     </row>
     <row r="944" customHeight="1" spans="5:5">
-      <c r="E944" s="14"/>
+      <c r="E944" s="17"/>
     </row>
     <row r="945" customHeight="1" spans="5:5">
-      <c r="E945" s="14"/>
+      <c r="E945" s="17"/>
     </row>
     <row r="946" customHeight="1" spans="5:5">
-      <c r="E946" s="14"/>
+      <c r="E946" s="17"/>
     </row>
     <row r="947" customHeight="1" spans="5:5">
-      <c r="E947" s="14"/>
+      <c r="E947" s="17"/>
     </row>
     <row r="948" customHeight="1" spans="5:5">
-      <c r="E948" s="14"/>
+      <c r="E948" s="17"/>
     </row>
     <row r="949" customHeight="1" spans="5:5">
-      <c r="E949" s="14"/>
+      <c r="E949" s="17"/>
     </row>
     <row r="950" customHeight="1" spans="5:5">
-      <c r="E950" s="14"/>
+      <c r="E950" s="17"/>
     </row>
     <row r="951" customHeight="1" spans="5:5">
-      <c r="E951" s="14"/>
+      <c r="E951" s="17"/>
     </row>
     <row r="952" customHeight="1" spans="5:5">
-      <c r="E952" s="14"/>
+      <c r="E952" s="17"/>
     </row>
     <row r="953" customHeight="1" spans="5:5">
-      <c r="E953" s="14"/>
+      <c r="E953" s="17"/>
     </row>
     <row r="954" customHeight="1" spans="5:5">
-      <c r="E954" s="14"/>
+      <c r="E954" s="17"/>
     </row>
     <row r="955" customHeight="1" spans="5:5">
-      <c r="E955" s="14"/>
+      <c r="E955" s="17"/>
     </row>
     <row r="956" customHeight="1" spans="5:5">
-      <c r="E956" s="14"/>
+      <c r="E956" s="17"/>
     </row>
     <row r="957" customHeight="1" spans="5:5">
-      <c r="E957" s="14"/>
+      <c r="E957" s="17"/>
     </row>
     <row r="958" customHeight="1" spans="5:5">
-      <c r="E958" s="14"/>
+      <c r="E958" s="17"/>
     </row>
     <row r="959" customHeight="1" spans="5:5">
-      <c r="E959" s="14"/>
+      <c r="E959" s="17"/>
     </row>
     <row r="960" customHeight="1" spans="5:5">
-      <c r="E960" s="14"/>
+      <c r="E960" s="17"/>
     </row>
     <row r="961" customHeight="1" spans="5:5">
-      <c r="E961" s="14"/>
+      <c r="E961" s="17"/>
     </row>
     <row r="962" customHeight="1" spans="5:5">
-      <c r="E962" s="14"/>
+      <c r="E962" s="17"/>
     </row>
     <row r="963" customHeight="1" spans="5:5">
-      <c r="E963" s="14"/>
+      <c r="E963" s="17"/>
     </row>
     <row r="964" customHeight="1" spans="5:5">
-      <c r="E964" s="14"/>
+      <c r="E964" s="17"/>
     </row>
     <row r="965" customHeight="1" spans="5:5">
-      <c r="E965" s="14"/>
+      <c r="E965" s="17"/>
     </row>
     <row r="966" customHeight="1" spans="5:5">
-      <c r="E966" s="14"/>
+      <c r="E966" s="17"/>
     </row>
     <row r="967" customHeight="1" spans="5:5">
-      <c r="E967" s="14"/>
+      <c r="E967" s="17"/>
     </row>
     <row r="968" customHeight="1" spans="5:5">
-      <c r="E968" s="14"/>
+      <c r="E968" s="17"/>
     </row>
     <row r="969" customHeight="1" spans="5:5">
-      <c r="E969" s="14"/>
+      <c r="E969" s="17"/>
     </row>
     <row r="970" customHeight="1" spans="5:5">
-      <c r="E970" s="14"/>
+      <c r="E970" s="17"/>
     </row>
     <row r="971" customHeight="1" spans="5:5">
-      <c r="E971" s="14"/>
+      <c r="E971" s="17"/>
     </row>
     <row r="972" customHeight="1" spans="5:5">
-      <c r="E972" s="14"/>
+      <c r="E972" s="17"/>
     </row>
     <row r="973" customHeight="1" spans="5:5">
-      <c r="E973" s="14"/>
+      <c r="E973" s="17"/>
     </row>
     <row r="974" customHeight="1" spans="5:5">
-      <c r="E974" s="14"/>
+      <c r="E974" s="17"/>
     </row>
     <row r="975" customHeight="1" spans="5:5">
-      <c r="E975" s="14"/>
+      <c r="E975" s="17"/>
     </row>
     <row r="976" customHeight="1" spans="5:5">
-      <c r="E976" s="14"/>
+      <c r="E976" s="17"/>
     </row>
     <row r="977" customHeight="1" spans="5:5">
-      <c r="E977" s="14"/>
+      <c r="E977" s="17"/>
     </row>
     <row r="978" customHeight="1" spans="5:5">
-      <c r="E978" s="14"/>
+      <c r="E978" s="17"/>
     </row>
     <row r="979" customHeight="1" spans="5:5">
-      <c r="E979" s="14"/>
+      <c r="E979" s="17"/>
     </row>
     <row r="980" customHeight="1" spans="5:5">
-      <c r="E980" s="14"/>
+      <c r="E980" s="17"/>
     </row>
     <row r="981" customHeight="1" spans="5:5">
-      <c r="E981" s="14"/>
+      <c r="E981" s="17"/>
     </row>
     <row r="982" customHeight="1" spans="5:5">
-      <c r="E982" s="14"/>
+      <c r="E982" s="17"/>
     </row>
     <row r="983" customHeight="1" spans="5:5">
-      <c r="E983" s="14"/>
+      <c r="E983" s="17"/>
     </row>
     <row r="984" customHeight="1" spans="5:5">
-      <c r="E984" s="14"/>
+      <c r="E984" s="17"/>
     </row>
     <row r="985" customHeight="1" spans="5:5">
-      <c r="E985" s="14"/>
+      <c r="E985" s="17"/>
     </row>
     <row r="986" customHeight="1" spans="5:5">
-      <c r="E986" s="14"/>
+      <c r="E986" s="17"/>
     </row>
     <row r="987" customHeight="1" spans="5:5">
-      <c r="E987" s="14"/>
+      <c r="E987" s="17"/>
     </row>
     <row r="988" customHeight="1" spans="5:5">
-      <c r="E988" s="14"/>
+      <c r="E988" s="17"/>
     </row>
     <row r="989" customHeight="1" spans="5:5">
-      <c r="E989" s="14"/>
+      <c r="E989" s="17"/>
     </row>
     <row r="990" customHeight="1" spans="5:5">
-      <c r="E990" s="14"/>
+      <c r="E990" s="17"/>
     </row>
     <row r="991" customHeight="1" spans="5:5">
-      <c r="E991" s="14"/>
+      <c r="E991" s="17"/>
     </row>
     <row r="992" customHeight="1" spans="5:5">
-      <c r="E992" s="14"/>
+      <c r="E992" s="17"/>
     </row>
     <row r="993" customHeight="1" spans="5:5">
-      <c r="E993" s="14"/>
+      <c r="E993" s="17"/>
     </row>
     <row r="994" customHeight="1" spans="5:5">
-      <c r="E994" s="14"/>
+      <c r="E994" s="17"/>
     </row>
     <row r="995" customHeight="1" spans="5:5">
-      <c r="E995" s="14"/>
+      <c r="E995" s="17"/>
     </row>
     <row r="996" customHeight="1" spans="5:5">
-      <c r="E996" s="14"/>
+      <c r="E996" s="17"/>
     </row>
     <row r="997" customHeight="1" spans="5:5">
-      <c r="E997" s="14"/>
+      <c r="E997" s="17"/>
     </row>
     <row r="998" customHeight="1" spans="5:5">
-      <c r="E998" s="14"/>
+      <c r="E998" s="17"/>
     </row>
     <row r="999" customHeight="1" spans="5:5">
-      <c r="E999" s="14"/>
+      <c r="E999" s="17"/>
     </row>
     <row r="1000" customHeight="1" spans="5:5">
-      <c r="E1000" s="14"/>
+      <c r="E1000" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5452,7 +5476,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -6785,11 +6809,19 @@
       <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="4"/>
+      <c r="C51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="3">
+        <v>42875</v>
+      </c>
+      <c r="E51" s="4">
+        <v>550000</v>
+      </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8">
@@ -6800,12 +6832,24 @@
       <c r="B52" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3">
+        <v>42881</v>
+      </c>
+      <c r="E52" s="4">
+        <v>16000</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
@@ -6815,27 +6859,47 @@
       <c r="B53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3">
+        <v>42881</v>
+      </c>
+      <c r="E53" s="4">
+        <v>207000</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="2">
+      <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="C54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="6">
+        <v>42886</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
@@ -6845,11 +6909,19 @@
       <c r="B55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="4"/>
+      <c r="C55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="3">
+        <v>42887</v>
+      </c>
+      <c r="E55" s="4">
+        <v>28000</v>
+      </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8">
@@ -6860,11 +6932,21 @@
       <c r="B56" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="3">
+        <v>42887</v>
+      </c>
+      <c r="E56" s="4">
+        <v>125000</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8">
@@ -6873,7 +6955,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -6888,7 +6970,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6903,7 +6985,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -6918,7 +7000,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -6933,7 +7015,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -6948,7 +7030,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -6962,7 +7044,9 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="4"/>
@@ -6975,7 +7059,9 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="4"/>
@@ -6988,7 +7074,9 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="4"/>
@@ -7001,7 +7089,9 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="4"/>

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>No</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>B000-7</t>
+  </si>
+  <si>
+    <t>Abu Ishaq</t>
+  </si>
+  <si>
+    <t>FC Adm ujian</t>
+  </si>
+  <si>
+    <t>Ronda dan Jaga siang</t>
+  </si>
+  <si>
+    <t>Kelebihan uang jaga siang</t>
   </si>
 </sst>
 </file>
@@ -418,21 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,9 +443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,49 +460,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,11 +481,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,6 +503,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -545,8 +541,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,14 +575,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,37 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +631,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -655,13 +739,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,97 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,33 +810,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -840,6 +825,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -851,6 +845,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,170 +907,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,6 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1425,196 +1438,196 @@
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>42644</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>3000000</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>42644</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>1087500</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>42644</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>960000</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>42278</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>3000000</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>42278</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>1087500</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>42292</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>556000</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>42658</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>40000</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>42552</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>1000000</v>
       </c>
       <c r="F9" t="s">
@@ -1625,16 +1638,16 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>42553</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>465000</v>
       </c>
       <c r="F10" t="s">
@@ -1645,16 +1658,16 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>42553</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>180000</v>
       </c>
       <c r="F11" t="s">
@@ -1665,16 +1678,16 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>42553</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="15">
         <v>500000</v>
       </c>
       <c r="F12" t="s">
@@ -1688,16 +1701,16 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>42553</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>10000</v>
       </c>
       <c r="F13" t="s">
@@ -1708,16 +1721,16 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <v>42553</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <v>499500</v>
       </c>
       <c r="F14" t="s">
@@ -1728,16 +1741,16 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>42553</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="15">
         <v>200000</v>
       </c>
       <c r="F15" t="s">
@@ -1748,16 +1761,16 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>42556</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="15">
         <v>600000</v>
       </c>
       <c r="F16" t="s">
@@ -1768,16 +1781,16 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <v>42556</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <v>-290000</v>
       </c>
       <c r="F17" t="s">
@@ -1791,16 +1804,16 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="14">
         <v>42570</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="15">
         <v>320000</v>
       </c>
       <c r="F18" t="s">
@@ -1811,16 +1824,16 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="14">
         <v>42579</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="15">
         <v>3600000</v>
       </c>
       <c r="F19" t="s">
@@ -1834,16 +1847,16 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="14">
         <v>42573</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="15">
         <v>500000</v>
       </c>
       <c r="F20" t="s">
@@ -1854,16 +1867,16 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="14">
         <v>42573</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>100000</v>
       </c>
       <c r="F21" t="s">
@@ -1874,16 +1887,16 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="12">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="14">
         <v>42573</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="15">
         <v>1125000</v>
       </c>
       <c r="F22" t="s">
@@ -1897,16 +1910,16 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="12">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="14">
         <v>42573</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="15">
         <v>2500000</v>
       </c>
       <c r="F23" t="s">
@@ -1920,16 +1933,16 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="14">
         <v>42573</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="15">
         <v>140000</v>
       </c>
       <c r="F24" t="s">
@@ -1943,16 +1956,16 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="14">
         <v>42573</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="15">
         <v>25000</v>
       </c>
       <c r="F25" t="s">
@@ -1963,16 +1976,16 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="14">
         <v>42573</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="15">
         <v>19000</v>
       </c>
       <c r="F26" t="s">
@@ -1986,16 +1999,16 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="14">
         <v>42573</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="15">
         <v>50000</v>
       </c>
       <c r="F27" t="s">
@@ -2009,16 +2022,16 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="12">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="14">
         <v>42574</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="15">
         <v>901500</v>
       </c>
       <c r="F28" t="s">
@@ -2032,16 +2045,16 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="14">
         <v>42574</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="15">
         <v>100000</v>
       </c>
       <c r="F29" t="s">
@@ -2052,16 +2065,16 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="12">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="14">
         <v>42575</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="15">
         <v>100000</v>
       </c>
       <c r="F30" t="s">
@@ -2072,16 +2085,16 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="12">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="14">
         <v>42576</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="15">
         <v>400000</v>
       </c>
       <c r="F31" t="s">
@@ -2095,16 +2108,16 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="12">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="14">
         <v>42577</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="15">
         <v>300000</v>
       </c>
       <c r="F32" t="s">
@@ -2118,16 +2131,16 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="12">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="14">
         <v>42579</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="15">
         <v>1000000</v>
       </c>
       <c r="F33" t="s">
@@ -2138,16 +2151,16 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="14">
         <v>42581</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="15">
         <v>-159000</v>
       </c>
       <c r="F34" t="s">
@@ -2161,16 +2174,16 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="12">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="14">
         <v>42581</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="15">
         <v>200000</v>
       </c>
       <c r="F35" t="s">
@@ -2181,16 +2194,16 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="12">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="14">
         <v>42583</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="15">
         <v>2150000</v>
       </c>
       <c r="F36" t="s">
@@ -2204,16 +2217,16 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="12">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="14">
         <v>42583</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="15">
         <v>7500</v>
       </c>
       <c r="F37" t="s">
@@ -2227,16 +2240,16 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="12">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="14">
         <v>42583</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="15">
         <v>1000000</v>
       </c>
       <c r="F38" t="s">
@@ -2250,16 +2263,16 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="12">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="14">
         <v>42583</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="15">
         <v>100000</v>
       </c>
       <c r="F39" t="s">
@@ -2270,16 +2283,16 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="12">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="14">
         <v>42583</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="15">
         <v>20000</v>
       </c>
       <c r="F40" t="s">
@@ -2293,16 +2306,16 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="12">
+      <c r="A41" s="13">
         <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="14">
         <v>42583</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="15">
         <v>4000000</v>
       </c>
       <c r="F41" t="s">
@@ -2316,16 +2329,16 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="12">
+      <c r="A42" s="13">
         <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="14">
         <v>42585</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="15">
         <v>5000000</v>
       </c>
       <c r="F42" t="s">
@@ -2339,16 +2352,16 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="12">
+      <c r="A43" s="13">
         <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="14">
         <v>42585</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="15">
         <v>200000</v>
       </c>
       <c r="F43" t="s">
@@ -2359,16 +2372,16 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="12">
+      <c r="A44" s="13">
         <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="14">
         <v>42587</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="15">
         <v>465000</v>
       </c>
       <c r="F44" t="s">
@@ -2382,16 +2395,16 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="12">
+      <c r="A45" s="13">
         <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="14">
         <v>42587</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="15">
         <v>500000</v>
       </c>
       <c r="F45" t="s">
@@ -2402,16 +2415,16 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="12">
+      <c r="A46" s="13">
         <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="14">
         <v>42587</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="15">
         <v>180000</v>
       </c>
       <c r="F46" t="s">
@@ -2422,16 +2435,16 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="12">
+      <c r="A47" s="13">
         <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="14">
         <v>42587</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="15">
         <v>570000</v>
       </c>
       <c r="F47" t="s">
@@ -2442,16 +2455,16 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="12">
+      <c r="A48" s="13">
         <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="14">
         <v>42587</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="15">
         <v>200000</v>
       </c>
       <c r="F48" t="s">
@@ -2462,16 +2475,16 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="12">
+      <c r="A49" s="13">
         <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="14">
         <v>42587</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="15">
         <v>100000</v>
       </c>
       <c r="F49" t="s">
@@ -2482,19 +2495,19 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="12">
+      <c r="A50" s="13">
         <v>49</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="17">
         <v>42679</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="18">
         <v>100000</v>
       </c>
       <c r="F50" t="s">
@@ -2505,2962 +2518,2962 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="12">
+      <c r="A51" s="13">
         <v>50</v>
       </c>
-      <c r="E51" s="17"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="12">
+      <c r="A52" s="13">
         <v>51</v>
       </c>
-      <c r="E52" s="17"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="12">
+      <c r="A53" s="13">
         <v>52</v>
       </c>
-      <c r="E53" s="17"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="12">
+      <c r="A54" s="13">
         <v>53</v>
       </c>
-      <c r="E54" s="17"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="12">
+      <c r="A55" s="13">
         <v>54</v>
       </c>
-      <c r="E55" s="17"/>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="12">
+      <c r="A56" s="13">
         <v>55</v>
       </c>
-      <c r="E56" s="17"/>
+      <c r="E56" s="18"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="12">
+      <c r="A57" s="13">
         <v>56</v>
       </c>
-      <c r="E57" s="17"/>
+      <c r="E57" s="18"/>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="12">
+      <c r="A58" s="13">
         <v>57</v>
       </c>
-      <c r="E58" s="17"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="12">
+      <c r="A59" s="13">
         <v>58</v>
       </c>
-      <c r="E59" s="17"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="12">
+      <c r="A60" s="13">
         <v>59</v>
       </c>
-      <c r="E60" s="17"/>
+      <c r="E60" s="18"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="12">
+      <c r="A61" s="13">
         <v>60</v>
       </c>
-      <c r="E61" s="17"/>
+      <c r="E61" s="18"/>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="12">
+      <c r="A62" s="13">
         <v>61</v>
       </c>
-      <c r="E62" s="17"/>
+      <c r="E62" s="18"/>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="12">
+      <c r="A63" s="13">
         <v>62</v>
       </c>
-      <c r="E63" s="17"/>
+      <c r="E63" s="18"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="12">
+      <c r="A64" s="13">
         <v>63</v>
       </c>
-      <c r="E64" s="17"/>
+      <c r="E64" s="18"/>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="12">
+      <c r="A65" s="13">
         <v>64</v>
       </c>
-      <c r="E65" s="17"/>
+      <c r="E65" s="18"/>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="12">
+      <c r="A66" s="13">
         <v>65</v>
       </c>
-      <c r="E66" s="17"/>
+      <c r="E66" s="18"/>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="12">
+      <c r="A67" s="13">
         <v>66</v>
       </c>
-      <c r="E67" s="17"/>
+      <c r="E67" s="18"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="12">
+      <c r="A68" s="13">
         <v>67</v>
       </c>
-      <c r="E68" s="17"/>
+      <c r="E68" s="18"/>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="12">
+      <c r="A69" s="13">
         <v>68</v>
       </c>
-      <c r="E69" s="17"/>
+      <c r="E69" s="18"/>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="12">
+      <c r="A70" s="13">
         <v>69</v>
       </c>
-      <c r="E70" s="17"/>
+      <c r="E70" s="18"/>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="12">
+      <c r="A71" s="13">
         <v>70</v>
       </c>
-      <c r="E71" s="17"/>
+      <c r="E71" s="18"/>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="12">
+      <c r="A72" s="13">
         <v>71</v>
       </c>
-      <c r="E72" s="17"/>
+      <c r="E72" s="18"/>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="12">
+      <c r="A73" s="13">
         <v>72</v>
       </c>
-      <c r="E73" s="17"/>
+      <c r="E73" s="18"/>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="12">
+      <c r="A74" s="13">
         <v>73</v>
       </c>
-      <c r="E74" s="17"/>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="12">
+      <c r="A75" s="13">
         <v>74</v>
       </c>
-      <c r="E75" s="17"/>
+      <c r="E75" s="18"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="12">
+      <c r="A76" s="13">
         <v>75</v>
       </c>
-      <c r="E76" s="17"/>
+      <c r="E76" s="18"/>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="12">
+      <c r="A77" s="13">
         <v>76</v>
       </c>
-      <c r="E77" s="17"/>
+      <c r="E77" s="18"/>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="12">
+      <c r="A78" s="13">
         <v>77</v>
       </c>
-      <c r="E78" s="17"/>
+      <c r="E78" s="18"/>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="12">
+      <c r="A79" s="13">
         <v>78</v>
       </c>
-      <c r="E79" s="17"/>
+      <c r="E79" s="18"/>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="12">
+      <c r="A80" s="13">
         <v>79</v>
       </c>
-      <c r="E80" s="17"/>
+      <c r="E80" s="18"/>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="12">
+      <c r="A81" s="13">
         <v>80</v>
       </c>
-      <c r="E81" s="17"/>
+      <c r="E81" s="18"/>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="12">
+      <c r="A82" s="13">
         <v>81</v>
       </c>
-      <c r="E82" s="17"/>
+      <c r="E82" s="18"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="12">
+      <c r="A83" s="13">
         <v>82</v>
       </c>
-      <c r="E83" s="17"/>
+      <c r="E83" s="18"/>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="12">
+      <c r="A84" s="13">
         <v>83</v>
       </c>
-      <c r="E84" s="17"/>
+      <c r="E84" s="18"/>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="12">
+      <c r="A85" s="13">
         <v>84</v>
       </c>
-      <c r="E85" s="17"/>
+      <c r="E85" s="18"/>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="12">
+      <c r="A86" s="13">
         <v>85</v>
       </c>
-      <c r="E86" s="17"/>
+      <c r="E86" s="18"/>
     </row>
     <row r="87" customHeight="1" spans="5:5">
-      <c r="E87" s="17"/>
+      <c r="E87" s="18"/>
     </row>
     <row r="88" customHeight="1" spans="5:5">
-      <c r="E88" s="17"/>
+      <c r="E88" s="18"/>
     </row>
     <row r="89" customHeight="1" spans="5:5">
-      <c r="E89" s="17"/>
+      <c r="E89" s="18"/>
     </row>
     <row r="90" customHeight="1" spans="5:5">
-      <c r="E90" s="17"/>
+      <c r="E90" s="18"/>
     </row>
     <row r="91" customHeight="1" spans="5:5">
-      <c r="E91" s="17"/>
+      <c r="E91" s="18"/>
     </row>
     <row r="92" customHeight="1" spans="5:5">
-      <c r="E92" s="17"/>
+      <c r="E92" s="18"/>
     </row>
     <row r="93" customHeight="1" spans="5:5">
-      <c r="E93" s="17"/>
+      <c r="E93" s="18"/>
     </row>
     <row r="94" customHeight="1" spans="5:5">
-      <c r="E94" s="17"/>
+      <c r="E94" s="18"/>
     </row>
     <row r="95" customHeight="1" spans="5:5">
-      <c r="E95" s="17"/>
+      <c r="E95" s="18"/>
     </row>
     <row r="96" customHeight="1" spans="5:5">
-      <c r="E96" s="17"/>
+      <c r="E96" s="18"/>
     </row>
     <row r="97" customHeight="1" spans="5:5">
-      <c r="E97" s="17"/>
+      <c r="E97" s="18"/>
     </row>
     <row r="98" customHeight="1" spans="5:5">
-      <c r="E98" s="17"/>
+      <c r="E98" s="18"/>
     </row>
     <row r="99" customHeight="1" spans="5:5">
-      <c r="E99" s="17"/>
+      <c r="E99" s="18"/>
     </row>
     <row r="100" customHeight="1" spans="5:5">
-      <c r="E100" s="17"/>
+      <c r="E100" s="18"/>
     </row>
     <row r="101" customHeight="1" spans="5:5">
-      <c r="E101" s="17"/>
+      <c r="E101" s="18"/>
     </row>
     <row r="102" customHeight="1" spans="5:5">
-      <c r="E102" s="17"/>
+      <c r="E102" s="18"/>
     </row>
     <row r="103" customHeight="1" spans="5:5">
-      <c r="E103" s="17"/>
+      <c r="E103" s="18"/>
     </row>
     <row r="104" customHeight="1" spans="5:5">
-      <c r="E104" s="17"/>
+      <c r="E104" s="18"/>
     </row>
     <row r="105" customHeight="1" spans="5:5">
-      <c r="E105" s="17"/>
+      <c r="E105" s="18"/>
     </row>
     <row r="106" customHeight="1" spans="5:5">
-      <c r="E106" s="17"/>
+      <c r="E106" s="18"/>
     </row>
     <row r="107" customHeight="1" spans="5:5">
-      <c r="E107" s="17"/>
+      <c r="E107" s="18"/>
     </row>
     <row r="108" customHeight="1" spans="5:5">
-      <c r="E108" s="17"/>
+      <c r="E108" s="18"/>
     </row>
     <row r="109" customHeight="1" spans="5:5">
-      <c r="E109" s="17"/>
+      <c r="E109" s="18"/>
     </row>
     <row r="110" customHeight="1" spans="5:5">
-      <c r="E110" s="17"/>
+      <c r="E110" s="18"/>
     </row>
     <row r="111" customHeight="1" spans="5:5">
-      <c r="E111" s="17"/>
+      <c r="E111" s="18"/>
     </row>
     <row r="112" customHeight="1" spans="5:5">
-      <c r="E112" s="17"/>
+      <c r="E112" s="18"/>
     </row>
     <row r="113" customHeight="1" spans="5:5">
-      <c r="E113" s="17"/>
+      <c r="E113" s="18"/>
     </row>
     <row r="114" customHeight="1" spans="5:5">
-      <c r="E114" s="17"/>
+      <c r="E114" s="18"/>
     </row>
     <row r="115" customHeight="1" spans="5:5">
-      <c r="E115" s="17"/>
+      <c r="E115" s="18"/>
     </row>
     <row r="116" customHeight="1" spans="5:5">
-      <c r="E116" s="17"/>
+      <c r="E116" s="18"/>
     </row>
     <row r="117" customHeight="1" spans="5:5">
-      <c r="E117" s="17"/>
+      <c r="E117" s="18"/>
     </row>
     <row r="118" customHeight="1" spans="5:5">
-      <c r="E118" s="17"/>
+      <c r="E118" s="18"/>
     </row>
     <row r="119" customHeight="1" spans="5:5">
-      <c r="E119" s="17"/>
+      <c r="E119" s="18"/>
     </row>
     <row r="120" customHeight="1" spans="5:5">
-      <c r="E120" s="17"/>
+      <c r="E120" s="18"/>
     </row>
     <row r="121" customHeight="1" spans="5:5">
-      <c r="E121" s="17"/>
+      <c r="E121" s="18"/>
     </row>
     <row r="122" customHeight="1" spans="5:5">
-      <c r="E122" s="17"/>
+      <c r="E122" s="18"/>
     </row>
     <row r="123" customHeight="1" spans="5:5">
-      <c r="E123" s="17"/>
+      <c r="E123" s="18"/>
     </row>
     <row r="124" customHeight="1" spans="5:5">
-      <c r="E124" s="17"/>
+      <c r="E124" s="18"/>
     </row>
     <row r="125" customHeight="1" spans="5:5">
-      <c r="E125" s="17"/>
+      <c r="E125" s="18"/>
     </row>
     <row r="126" customHeight="1" spans="5:5">
-      <c r="E126" s="17"/>
+      <c r="E126" s="18"/>
     </row>
     <row r="127" customHeight="1" spans="5:5">
-      <c r="E127" s="17"/>
+      <c r="E127" s="18"/>
     </row>
     <row r="128" customHeight="1" spans="5:5">
-      <c r="E128" s="17"/>
+      <c r="E128" s="18"/>
     </row>
     <row r="129" customHeight="1" spans="5:5">
-      <c r="E129" s="17"/>
+      <c r="E129" s="18"/>
     </row>
     <row r="130" customHeight="1" spans="5:5">
-      <c r="E130" s="17"/>
+      <c r="E130" s="18"/>
     </row>
     <row r="131" customHeight="1" spans="5:5">
-      <c r="E131" s="17"/>
+      <c r="E131" s="18"/>
     </row>
     <row r="132" customHeight="1" spans="5:5">
-      <c r="E132" s="17"/>
+      <c r="E132" s="18"/>
     </row>
     <row r="133" customHeight="1" spans="5:5">
-      <c r="E133" s="17"/>
+      <c r="E133" s="18"/>
     </row>
     <row r="134" customHeight="1" spans="5:5">
-      <c r="E134" s="17"/>
+      <c r="E134" s="18"/>
     </row>
     <row r="135" customHeight="1" spans="5:5">
-      <c r="E135" s="17"/>
+      <c r="E135" s="18"/>
     </row>
     <row r="136" customHeight="1" spans="5:5">
-      <c r="E136" s="17"/>
+      <c r="E136" s="18"/>
     </row>
     <row r="137" customHeight="1" spans="5:5">
-      <c r="E137" s="17"/>
+      <c r="E137" s="18"/>
     </row>
     <row r="138" customHeight="1" spans="5:5">
-      <c r="E138" s="17"/>
+      <c r="E138" s="18"/>
     </row>
     <row r="139" customHeight="1" spans="5:5">
-      <c r="E139" s="17"/>
+      <c r="E139" s="18"/>
     </row>
     <row r="140" customHeight="1" spans="5:5">
-      <c r="E140" s="17"/>
+      <c r="E140" s="18"/>
     </row>
     <row r="141" customHeight="1" spans="5:5">
-      <c r="E141" s="17"/>
+      <c r="E141" s="18"/>
     </row>
     <row r="142" customHeight="1" spans="5:5">
-      <c r="E142" s="17"/>
+      <c r="E142" s="18"/>
     </row>
     <row r="143" customHeight="1" spans="5:5">
-      <c r="E143" s="17"/>
+      <c r="E143" s="18"/>
     </row>
     <row r="144" customHeight="1" spans="5:5">
-      <c r="E144" s="17"/>
+      <c r="E144" s="18"/>
     </row>
     <row r="145" customHeight="1" spans="5:5">
-      <c r="E145" s="17"/>
+      <c r="E145" s="18"/>
     </row>
     <row r="146" customHeight="1" spans="5:5">
-      <c r="E146" s="17"/>
+      <c r="E146" s="18"/>
     </row>
     <row r="147" customHeight="1" spans="5:5">
-      <c r="E147" s="17"/>
+      <c r="E147" s="18"/>
     </row>
     <row r="148" customHeight="1" spans="5:5">
-      <c r="E148" s="17"/>
+      <c r="E148" s="18"/>
     </row>
     <row r="149" customHeight="1" spans="5:5">
-      <c r="E149" s="17"/>
+      <c r="E149" s="18"/>
     </row>
     <row r="150" customHeight="1" spans="5:5">
-      <c r="E150" s="17"/>
+      <c r="E150" s="18"/>
     </row>
     <row r="151" customHeight="1" spans="5:5">
-      <c r="E151" s="17"/>
+      <c r="E151" s="18"/>
     </row>
     <row r="152" customHeight="1" spans="5:5">
-      <c r="E152" s="17"/>
+      <c r="E152" s="18"/>
     </row>
     <row r="153" customHeight="1" spans="5:5">
-      <c r="E153" s="17"/>
+      <c r="E153" s="18"/>
     </row>
     <row r="154" customHeight="1" spans="5:5">
-      <c r="E154" s="17"/>
+      <c r="E154" s="18"/>
     </row>
     <row r="155" customHeight="1" spans="5:5">
-      <c r="E155" s="17"/>
+      <c r="E155" s="18"/>
     </row>
     <row r="156" customHeight="1" spans="5:5">
-      <c r="E156" s="17"/>
+      <c r="E156" s="18"/>
     </row>
     <row r="157" customHeight="1" spans="5:5">
-      <c r="E157" s="17"/>
+      <c r="E157" s="18"/>
     </row>
     <row r="158" customHeight="1" spans="5:5">
-      <c r="E158" s="17"/>
+      <c r="E158" s="18"/>
     </row>
     <row r="159" customHeight="1" spans="5:5">
-      <c r="E159" s="17"/>
+      <c r="E159" s="18"/>
     </row>
     <row r="160" customHeight="1" spans="5:5">
-      <c r="E160" s="17"/>
+      <c r="E160" s="18"/>
     </row>
     <row r="161" customHeight="1" spans="5:5">
-      <c r="E161" s="17"/>
+      <c r="E161" s="18"/>
     </row>
     <row r="162" customHeight="1" spans="5:5">
-      <c r="E162" s="17"/>
+      <c r="E162" s="18"/>
     </row>
     <row r="163" customHeight="1" spans="5:5">
-      <c r="E163" s="17"/>
+      <c r="E163" s="18"/>
     </row>
     <row r="164" customHeight="1" spans="5:5">
-      <c r="E164" s="17"/>
+      <c r="E164" s="18"/>
     </row>
     <row r="165" customHeight="1" spans="5:5">
-      <c r="E165" s="17"/>
+      <c r="E165" s="18"/>
     </row>
     <row r="166" customHeight="1" spans="5:5">
-      <c r="E166" s="17"/>
+      <c r="E166" s="18"/>
     </row>
     <row r="167" customHeight="1" spans="5:5">
-      <c r="E167" s="17"/>
+      <c r="E167" s="18"/>
     </row>
     <row r="168" customHeight="1" spans="5:5">
-      <c r="E168" s="17"/>
+      <c r="E168" s="18"/>
     </row>
     <row r="169" customHeight="1" spans="5:5">
-      <c r="E169" s="17"/>
+      <c r="E169" s="18"/>
     </row>
     <row r="170" customHeight="1" spans="5:5">
-      <c r="E170" s="17"/>
+      <c r="E170" s="18"/>
     </row>
     <row r="171" customHeight="1" spans="5:5">
-      <c r="E171" s="17"/>
+      <c r="E171" s="18"/>
     </row>
     <row r="172" customHeight="1" spans="5:5">
-      <c r="E172" s="17"/>
+      <c r="E172" s="18"/>
     </row>
     <row r="173" customHeight="1" spans="5:5">
-      <c r="E173" s="17"/>
+      <c r="E173" s="18"/>
     </row>
     <row r="174" customHeight="1" spans="5:5">
-      <c r="E174" s="17"/>
+      <c r="E174" s="18"/>
     </row>
     <row r="175" customHeight="1" spans="5:5">
-      <c r="E175" s="17"/>
+      <c r="E175" s="18"/>
     </row>
     <row r="176" customHeight="1" spans="5:5">
-      <c r="E176" s="17"/>
+      <c r="E176" s="18"/>
     </row>
     <row r="177" customHeight="1" spans="5:5">
-      <c r="E177" s="17"/>
+      <c r="E177" s="18"/>
     </row>
     <row r="178" customHeight="1" spans="5:5">
-      <c r="E178" s="17"/>
+      <c r="E178" s="18"/>
     </row>
     <row r="179" customHeight="1" spans="5:5">
-      <c r="E179" s="17"/>
+      <c r="E179" s="18"/>
     </row>
     <row r="180" customHeight="1" spans="5:5">
-      <c r="E180" s="17"/>
+      <c r="E180" s="18"/>
     </row>
     <row r="181" customHeight="1" spans="5:5">
-      <c r="E181" s="17"/>
+      <c r="E181" s="18"/>
     </row>
     <row r="182" customHeight="1" spans="5:5">
-      <c r="E182" s="17"/>
+      <c r="E182" s="18"/>
     </row>
     <row r="183" customHeight="1" spans="5:5">
-      <c r="E183" s="17"/>
+      <c r="E183" s="18"/>
     </row>
     <row r="184" customHeight="1" spans="5:5">
-      <c r="E184" s="17"/>
+      <c r="E184" s="18"/>
     </row>
     <row r="185" customHeight="1" spans="5:5">
-      <c r="E185" s="17"/>
+      <c r="E185" s="18"/>
     </row>
     <row r="186" customHeight="1" spans="5:5">
-      <c r="E186" s="17"/>
+      <c r="E186" s="18"/>
     </row>
     <row r="187" customHeight="1" spans="5:5">
-      <c r="E187" s="17"/>
+      <c r="E187" s="18"/>
     </row>
     <row r="188" customHeight="1" spans="5:5">
-      <c r="E188" s="17"/>
+      <c r="E188" s="18"/>
     </row>
     <row r="189" customHeight="1" spans="5:5">
-      <c r="E189" s="17"/>
+      <c r="E189" s="18"/>
     </row>
     <row r="190" customHeight="1" spans="5:5">
-      <c r="E190" s="17"/>
+      <c r="E190" s="18"/>
     </row>
     <row r="191" customHeight="1" spans="5:5">
-      <c r="E191" s="17"/>
+      <c r="E191" s="18"/>
     </row>
     <row r="192" customHeight="1" spans="5:5">
-      <c r="E192" s="17"/>
+      <c r="E192" s="18"/>
     </row>
     <row r="193" customHeight="1" spans="5:5">
-      <c r="E193" s="17"/>
+      <c r="E193" s="18"/>
     </row>
     <row r="194" customHeight="1" spans="5:5">
-      <c r="E194" s="17"/>
+      <c r="E194" s="18"/>
     </row>
     <row r="195" customHeight="1" spans="5:5">
-      <c r="E195" s="17"/>
+      <c r="E195" s="18"/>
     </row>
     <row r="196" customHeight="1" spans="5:5">
-      <c r="E196" s="17"/>
+      <c r="E196" s="18"/>
     </row>
     <row r="197" customHeight="1" spans="5:5">
-      <c r="E197" s="17"/>
+      <c r="E197" s="18"/>
     </row>
     <row r="198" customHeight="1" spans="5:5">
-      <c r="E198" s="17"/>
+      <c r="E198" s="18"/>
     </row>
     <row r="199" customHeight="1" spans="5:5">
-      <c r="E199" s="17"/>
+      <c r="E199" s="18"/>
     </row>
     <row r="200" customHeight="1" spans="5:5">
-      <c r="E200" s="17"/>
+      <c r="E200" s="18"/>
     </row>
     <row r="201" customHeight="1" spans="5:5">
-      <c r="E201" s="17"/>
+      <c r="E201" s="18"/>
     </row>
     <row r="202" customHeight="1" spans="5:5">
-      <c r="E202" s="17"/>
+      <c r="E202" s="18"/>
     </row>
     <row r="203" customHeight="1" spans="5:5">
-      <c r="E203" s="17"/>
+      <c r="E203" s="18"/>
     </row>
     <row r="204" customHeight="1" spans="5:5">
-      <c r="E204" s="17"/>
+      <c r="E204" s="18"/>
     </row>
     <row r="205" customHeight="1" spans="5:5">
-      <c r="E205" s="17"/>
+      <c r="E205" s="18"/>
     </row>
     <row r="206" customHeight="1" spans="5:5">
-      <c r="E206" s="17"/>
+      <c r="E206" s="18"/>
     </row>
     <row r="207" customHeight="1" spans="5:5">
-      <c r="E207" s="17"/>
+      <c r="E207" s="18"/>
     </row>
     <row r="208" customHeight="1" spans="5:5">
-      <c r="E208" s="17"/>
+      <c r="E208" s="18"/>
     </row>
     <row r="209" customHeight="1" spans="5:5">
-      <c r="E209" s="17"/>
+      <c r="E209" s="18"/>
     </row>
     <row r="210" customHeight="1" spans="5:5">
-      <c r="E210" s="17"/>
+      <c r="E210" s="18"/>
     </row>
     <row r="211" customHeight="1" spans="5:5">
-      <c r="E211" s="17"/>
+      <c r="E211" s="18"/>
     </row>
     <row r="212" customHeight="1" spans="5:5">
-      <c r="E212" s="17"/>
+      <c r="E212" s="18"/>
     </row>
     <row r="213" customHeight="1" spans="5:5">
-      <c r="E213" s="17"/>
+      <c r="E213" s="18"/>
     </row>
     <row r="214" customHeight="1" spans="5:5">
-      <c r="E214" s="17"/>
+      <c r="E214" s="18"/>
     </row>
     <row r="215" customHeight="1" spans="5:5">
-      <c r="E215" s="17"/>
+      <c r="E215" s="18"/>
     </row>
     <row r="216" customHeight="1" spans="5:5">
-      <c r="E216" s="17"/>
+      <c r="E216" s="18"/>
     </row>
     <row r="217" customHeight="1" spans="5:5">
-      <c r="E217" s="17"/>
+      <c r="E217" s="18"/>
     </row>
     <row r="218" customHeight="1" spans="5:5">
-      <c r="E218" s="17"/>
+      <c r="E218" s="18"/>
     </row>
     <row r="219" customHeight="1" spans="5:5">
-      <c r="E219" s="17"/>
+      <c r="E219" s="18"/>
     </row>
     <row r="220" customHeight="1" spans="5:5">
-      <c r="E220" s="17"/>
+      <c r="E220" s="18"/>
     </row>
     <row r="221" customHeight="1" spans="5:5">
-      <c r="E221" s="17"/>
+      <c r="E221" s="18"/>
     </row>
     <row r="222" customHeight="1" spans="5:5">
-      <c r="E222" s="17"/>
+      <c r="E222" s="18"/>
     </row>
     <row r="223" customHeight="1" spans="5:5">
-      <c r="E223" s="17"/>
+      <c r="E223" s="18"/>
     </row>
     <row r="224" customHeight="1" spans="5:5">
-      <c r="E224" s="17"/>
+      <c r="E224" s="18"/>
     </row>
     <row r="225" customHeight="1" spans="5:5">
-      <c r="E225" s="17"/>
+      <c r="E225" s="18"/>
     </row>
     <row r="226" customHeight="1" spans="5:5">
-      <c r="E226" s="17"/>
+      <c r="E226" s="18"/>
     </row>
     <row r="227" customHeight="1" spans="5:5">
-      <c r="E227" s="17"/>
+      <c r="E227" s="18"/>
     </row>
     <row r="228" customHeight="1" spans="5:5">
-      <c r="E228" s="17"/>
+      <c r="E228" s="18"/>
     </row>
     <row r="229" customHeight="1" spans="5:5">
-      <c r="E229" s="17"/>
+      <c r="E229" s="18"/>
     </row>
     <row r="230" customHeight="1" spans="5:5">
-      <c r="E230" s="17"/>
+      <c r="E230" s="18"/>
     </row>
     <row r="231" customHeight="1" spans="5:5">
-      <c r="E231" s="17"/>
+      <c r="E231" s="18"/>
     </row>
     <row r="232" customHeight="1" spans="5:5">
-      <c r="E232" s="17"/>
+      <c r="E232" s="18"/>
     </row>
     <row r="233" customHeight="1" spans="5:5">
-      <c r="E233" s="17"/>
+      <c r="E233" s="18"/>
     </row>
     <row r="234" customHeight="1" spans="5:5">
-      <c r="E234" s="17"/>
+      <c r="E234" s="18"/>
     </row>
     <row r="235" customHeight="1" spans="5:5">
-      <c r="E235" s="17"/>
+      <c r="E235" s="18"/>
     </row>
     <row r="236" customHeight="1" spans="5:5">
-      <c r="E236" s="17"/>
+      <c r="E236" s="18"/>
     </row>
     <row r="237" customHeight="1" spans="5:5">
-      <c r="E237" s="17"/>
+      <c r="E237" s="18"/>
     </row>
     <row r="238" customHeight="1" spans="5:5">
-      <c r="E238" s="17"/>
+      <c r="E238" s="18"/>
     </row>
     <row r="239" customHeight="1" spans="5:5">
-      <c r="E239" s="17"/>
+      <c r="E239" s="18"/>
     </row>
     <row r="240" customHeight="1" spans="5:5">
-      <c r="E240" s="17"/>
+      <c r="E240" s="18"/>
     </row>
     <row r="241" customHeight="1" spans="5:5">
-      <c r="E241" s="17"/>
+      <c r="E241" s="18"/>
     </row>
     <row r="242" customHeight="1" spans="5:5">
-      <c r="E242" s="17"/>
+      <c r="E242" s="18"/>
     </row>
     <row r="243" customHeight="1" spans="5:5">
-      <c r="E243" s="17"/>
+      <c r="E243" s="18"/>
     </row>
     <row r="244" customHeight="1" spans="5:5">
-      <c r="E244" s="17"/>
+      <c r="E244" s="18"/>
     </row>
     <row r="245" customHeight="1" spans="5:5">
-      <c r="E245" s="17"/>
+      <c r="E245" s="18"/>
     </row>
     <row r="246" customHeight="1" spans="5:5">
-      <c r="E246" s="17"/>
+      <c r="E246" s="18"/>
     </row>
     <row r="247" customHeight="1" spans="5:5">
-      <c r="E247" s="17"/>
+      <c r="E247" s="18"/>
     </row>
     <row r="248" customHeight="1" spans="5:5">
-      <c r="E248" s="17"/>
+      <c r="E248" s="18"/>
     </row>
     <row r="249" customHeight="1" spans="5:5">
-      <c r="E249" s="17"/>
+      <c r="E249" s="18"/>
     </row>
     <row r="250" customHeight="1" spans="5:5">
-      <c r="E250" s="17"/>
+      <c r="E250" s="18"/>
     </row>
     <row r="251" customHeight="1" spans="5:5">
-      <c r="E251" s="17"/>
+      <c r="E251" s="18"/>
     </row>
     <row r="252" customHeight="1" spans="5:5">
-      <c r="E252" s="17"/>
+      <c r="E252" s="18"/>
     </row>
     <row r="253" customHeight="1" spans="5:5">
-      <c r="E253" s="17"/>
+      <c r="E253" s="18"/>
     </row>
     <row r="254" customHeight="1" spans="5:5">
-      <c r="E254" s="17"/>
+      <c r="E254" s="18"/>
     </row>
     <row r="255" customHeight="1" spans="5:5">
-      <c r="E255" s="17"/>
+      <c r="E255" s="18"/>
     </row>
     <row r="256" customHeight="1" spans="5:5">
-      <c r="E256" s="17"/>
+      <c r="E256" s="18"/>
     </row>
     <row r="257" customHeight="1" spans="5:5">
-      <c r="E257" s="17"/>
+      <c r="E257" s="18"/>
     </row>
     <row r="258" customHeight="1" spans="5:5">
-      <c r="E258" s="17"/>
+      <c r="E258" s="18"/>
     </row>
     <row r="259" customHeight="1" spans="5:5">
-      <c r="E259" s="17"/>
+      <c r="E259" s="18"/>
     </row>
     <row r="260" customHeight="1" spans="5:5">
-      <c r="E260" s="17"/>
+      <c r="E260" s="18"/>
     </row>
     <row r="261" customHeight="1" spans="5:5">
-      <c r="E261" s="17"/>
+      <c r="E261" s="18"/>
     </row>
     <row r="262" customHeight="1" spans="5:5">
-      <c r="E262" s="17"/>
+      <c r="E262" s="18"/>
     </row>
     <row r="263" customHeight="1" spans="5:5">
-      <c r="E263" s="17"/>
+      <c r="E263" s="18"/>
     </row>
     <row r="264" customHeight="1" spans="5:5">
-      <c r="E264" s="17"/>
+      <c r="E264" s="18"/>
     </row>
     <row r="265" customHeight="1" spans="5:5">
-      <c r="E265" s="17"/>
+      <c r="E265" s="18"/>
     </row>
     <row r="266" customHeight="1" spans="5:5">
-      <c r="E266" s="17"/>
+      <c r="E266" s="18"/>
     </row>
     <row r="267" customHeight="1" spans="5:5">
-      <c r="E267" s="17"/>
+      <c r="E267" s="18"/>
     </row>
     <row r="268" customHeight="1" spans="5:5">
-      <c r="E268" s="17"/>
+      <c r="E268" s="18"/>
     </row>
     <row r="269" customHeight="1" spans="5:5">
-      <c r="E269" s="17"/>
+      <c r="E269" s="18"/>
     </row>
     <row r="270" customHeight="1" spans="5:5">
-      <c r="E270" s="17"/>
+      <c r="E270" s="18"/>
     </row>
     <row r="271" customHeight="1" spans="5:5">
-      <c r="E271" s="17"/>
+      <c r="E271" s="18"/>
     </row>
     <row r="272" customHeight="1" spans="5:5">
-      <c r="E272" s="17"/>
+      <c r="E272" s="18"/>
     </row>
     <row r="273" customHeight="1" spans="5:5">
-      <c r="E273" s="17"/>
+      <c r="E273" s="18"/>
     </row>
     <row r="274" customHeight="1" spans="5:5">
-      <c r="E274" s="17"/>
+      <c r="E274" s="18"/>
     </row>
     <row r="275" customHeight="1" spans="5:5">
-      <c r="E275" s="17"/>
+      <c r="E275" s="18"/>
     </row>
     <row r="276" customHeight="1" spans="5:5">
-      <c r="E276" s="17"/>
+      <c r="E276" s="18"/>
     </row>
     <row r="277" customHeight="1" spans="5:5">
-      <c r="E277" s="17"/>
+      <c r="E277" s="18"/>
     </row>
     <row r="278" customHeight="1" spans="5:5">
-      <c r="E278" s="17"/>
+      <c r="E278" s="18"/>
     </row>
     <row r="279" customHeight="1" spans="5:5">
-      <c r="E279" s="17"/>
+      <c r="E279" s="18"/>
     </row>
     <row r="280" customHeight="1" spans="5:5">
-      <c r="E280" s="17"/>
+      <c r="E280" s="18"/>
     </row>
     <row r="281" customHeight="1" spans="5:5">
-      <c r="E281" s="17"/>
+      <c r="E281" s="18"/>
     </row>
     <row r="282" customHeight="1" spans="5:5">
-      <c r="E282" s="17"/>
+      <c r="E282" s="18"/>
     </row>
     <row r="283" customHeight="1" spans="5:5">
-      <c r="E283" s="17"/>
+      <c r="E283" s="18"/>
     </row>
     <row r="284" customHeight="1" spans="5:5">
-      <c r="E284" s="17"/>
+      <c r="E284" s="18"/>
     </row>
     <row r="285" customHeight="1" spans="5:5">
-      <c r="E285" s="17"/>
+      <c r="E285" s="18"/>
     </row>
     <row r="286" customHeight="1" spans="5:5">
-      <c r="E286" s="17"/>
+      <c r="E286" s="18"/>
     </row>
     <row r="287" customHeight="1" spans="5:5">
-      <c r="E287" s="17"/>
+      <c r="E287" s="18"/>
     </row>
     <row r="288" customHeight="1" spans="5:5">
-      <c r="E288" s="17"/>
+      <c r="E288" s="18"/>
     </row>
     <row r="289" customHeight="1" spans="5:5">
-      <c r="E289" s="17"/>
+      <c r="E289" s="18"/>
     </row>
     <row r="290" customHeight="1" spans="5:5">
-      <c r="E290" s="17"/>
+      <c r="E290" s="18"/>
     </row>
     <row r="291" customHeight="1" spans="5:5">
-      <c r="E291" s="17"/>
+      <c r="E291" s="18"/>
     </row>
     <row r="292" customHeight="1" spans="5:5">
-      <c r="E292" s="17"/>
+      <c r="E292" s="18"/>
     </row>
     <row r="293" customHeight="1" spans="5:5">
-      <c r="E293" s="17"/>
+      <c r="E293" s="18"/>
     </row>
     <row r="294" customHeight="1" spans="5:5">
-      <c r="E294" s="17"/>
+      <c r="E294" s="18"/>
     </row>
     <row r="295" customHeight="1" spans="5:5">
-      <c r="E295" s="17"/>
+      <c r="E295" s="18"/>
     </row>
     <row r="296" customHeight="1" spans="5:5">
-      <c r="E296" s="17"/>
+      <c r="E296" s="18"/>
     </row>
     <row r="297" customHeight="1" spans="5:5">
-      <c r="E297" s="17"/>
+      <c r="E297" s="18"/>
     </row>
     <row r="298" customHeight="1" spans="5:5">
-      <c r="E298" s="17"/>
+      <c r="E298" s="18"/>
     </row>
     <row r="299" customHeight="1" spans="5:5">
-      <c r="E299" s="17"/>
+      <c r="E299" s="18"/>
     </row>
     <row r="300" customHeight="1" spans="5:5">
-      <c r="E300" s="17"/>
+      <c r="E300" s="18"/>
     </row>
     <row r="301" customHeight="1" spans="5:5">
-      <c r="E301" s="17"/>
+      <c r="E301" s="18"/>
     </row>
     <row r="302" customHeight="1" spans="5:5">
-      <c r="E302" s="17"/>
+      <c r="E302" s="18"/>
     </row>
     <row r="303" customHeight="1" spans="5:5">
-      <c r="E303" s="17"/>
+      <c r="E303" s="18"/>
     </row>
     <row r="304" customHeight="1" spans="5:5">
-      <c r="E304" s="17"/>
+      <c r="E304" s="18"/>
     </row>
     <row r="305" customHeight="1" spans="5:5">
-      <c r="E305" s="17"/>
+      <c r="E305" s="18"/>
     </row>
     <row r="306" customHeight="1" spans="5:5">
-      <c r="E306" s="17"/>
+      <c r="E306" s="18"/>
     </row>
     <row r="307" customHeight="1" spans="5:5">
-      <c r="E307" s="17"/>
+      <c r="E307" s="18"/>
     </row>
     <row r="308" customHeight="1" spans="5:5">
-      <c r="E308" s="17"/>
+      <c r="E308" s="18"/>
     </row>
     <row r="309" customHeight="1" spans="5:5">
-      <c r="E309" s="17"/>
+      <c r="E309" s="18"/>
     </row>
     <row r="310" customHeight="1" spans="5:5">
-      <c r="E310" s="17"/>
+      <c r="E310" s="18"/>
     </row>
     <row r="311" customHeight="1" spans="5:5">
-      <c r="E311" s="17"/>
+      <c r="E311" s="18"/>
     </row>
     <row r="312" customHeight="1" spans="5:5">
-      <c r="E312" s="17"/>
+      <c r="E312" s="18"/>
     </row>
     <row r="313" customHeight="1" spans="5:5">
-      <c r="E313" s="17"/>
+      <c r="E313" s="18"/>
     </row>
     <row r="314" customHeight="1" spans="5:5">
-      <c r="E314" s="17"/>
+      <c r="E314" s="18"/>
     </row>
     <row r="315" customHeight="1" spans="5:5">
-      <c r="E315" s="17"/>
+      <c r="E315" s="18"/>
     </row>
     <row r="316" customHeight="1" spans="5:5">
-      <c r="E316" s="17"/>
+      <c r="E316" s="18"/>
     </row>
     <row r="317" customHeight="1" spans="5:5">
-      <c r="E317" s="17"/>
+      <c r="E317" s="18"/>
     </row>
     <row r="318" customHeight="1" spans="5:5">
-      <c r="E318" s="17"/>
+      <c r="E318" s="18"/>
     </row>
     <row r="319" customHeight="1" spans="5:5">
-      <c r="E319" s="17"/>
+      <c r="E319" s="18"/>
     </row>
     <row r="320" customHeight="1" spans="5:5">
-      <c r="E320" s="17"/>
+      <c r="E320" s="18"/>
     </row>
     <row r="321" customHeight="1" spans="5:5">
-      <c r="E321" s="17"/>
+      <c r="E321" s="18"/>
     </row>
     <row r="322" customHeight="1" spans="5:5">
-      <c r="E322" s="17"/>
+      <c r="E322" s="18"/>
     </row>
     <row r="323" customHeight="1" spans="5:5">
-      <c r="E323" s="17"/>
+      <c r="E323" s="18"/>
     </row>
     <row r="324" customHeight="1" spans="5:5">
-      <c r="E324" s="17"/>
+      <c r="E324" s="18"/>
     </row>
     <row r="325" customHeight="1" spans="5:5">
-      <c r="E325" s="17"/>
+      <c r="E325" s="18"/>
     </row>
     <row r="326" customHeight="1" spans="5:5">
-      <c r="E326" s="17"/>
+      <c r="E326" s="18"/>
     </row>
     <row r="327" customHeight="1" spans="5:5">
-      <c r="E327" s="17"/>
+      <c r="E327" s="18"/>
     </row>
     <row r="328" customHeight="1" spans="5:5">
-      <c r="E328" s="17"/>
+      <c r="E328" s="18"/>
     </row>
     <row r="329" customHeight="1" spans="5:5">
-      <c r="E329" s="17"/>
+      <c r="E329" s="18"/>
     </row>
     <row r="330" customHeight="1" spans="5:5">
-      <c r="E330" s="17"/>
+      <c r="E330" s="18"/>
     </row>
     <row r="331" customHeight="1" spans="5:5">
-      <c r="E331" s="17"/>
+      <c r="E331" s="18"/>
     </row>
     <row r="332" customHeight="1" spans="5:5">
-      <c r="E332" s="17"/>
+      <c r="E332" s="18"/>
     </row>
     <row r="333" customHeight="1" spans="5:5">
-      <c r="E333" s="17"/>
+      <c r="E333" s="18"/>
     </row>
     <row r="334" customHeight="1" spans="5:5">
-      <c r="E334" s="17"/>
+      <c r="E334" s="18"/>
     </row>
     <row r="335" customHeight="1" spans="5:5">
-      <c r="E335" s="17"/>
+      <c r="E335" s="18"/>
     </row>
     <row r="336" customHeight="1" spans="5:5">
-      <c r="E336" s="17"/>
+      <c r="E336" s="18"/>
     </row>
     <row r="337" customHeight="1" spans="5:5">
-      <c r="E337" s="17"/>
+      <c r="E337" s="18"/>
     </row>
     <row r="338" customHeight="1" spans="5:5">
-      <c r="E338" s="17"/>
+      <c r="E338" s="18"/>
     </row>
     <row r="339" customHeight="1" spans="5:5">
-      <c r="E339" s="17"/>
+      <c r="E339" s="18"/>
     </row>
     <row r="340" customHeight="1" spans="5:5">
-      <c r="E340" s="17"/>
+      <c r="E340" s="18"/>
     </row>
     <row r="341" customHeight="1" spans="5:5">
-      <c r="E341" s="17"/>
+      <c r="E341" s="18"/>
     </row>
     <row r="342" customHeight="1" spans="5:5">
-      <c r="E342" s="17"/>
+      <c r="E342" s="18"/>
     </row>
     <row r="343" customHeight="1" spans="5:5">
-      <c r="E343" s="17"/>
+      <c r="E343" s="18"/>
     </row>
     <row r="344" customHeight="1" spans="5:5">
-      <c r="E344" s="17"/>
+      <c r="E344" s="18"/>
     </row>
     <row r="345" customHeight="1" spans="5:5">
-      <c r="E345" s="17"/>
+      <c r="E345" s="18"/>
     </row>
     <row r="346" customHeight="1" spans="5:5">
-      <c r="E346" s="17"/>
+      <c r="E346" s="18"/>
     </row>
     <row r="347" customHeight="1" spans="5:5">
-      <c r="E347" s="17"/>
+      <c r="E347" s="18"/>
     </row>
     <row r="348" customHeight="1" spans="5:5">
-      <c r="E348" s="17"/>
+      <c r="E348" s="18"/>
     </row>
     <row r="349" customHeight="1" spans="5:5">
-      <c r="E349" s="17"/>
+      <c r="E349" s="18"/>
     </row>
     <row r="350" customHeight="1" spans="5:5">
-      <c r="E350" s="17"/>
+      <c r="E350" s="18"/>
     </row>
     <row r="351" customHeight="1" spans="5:5">
-      <c r="E351" s="17"/>
+      <c r="E351" s="18"/>
     </row>
     <row r="352" customHeight="1" spans="5:5">
-      <c r="E352" s="17"/>
+      <c r="E352" s="18"/>
     </row>
     <row r="353" customHeight="1" spans="5:5">
-      <c r="E353" s="17"/>
+      <c r="E353" s="18"/>
     </row>
     <row r="354" customHeight="1" spans="5:5">
-      <c r="E354" s="17"/>
+      <c r="E354" s="18"/>
     </row>
     <row r="355" customHeight="1" spans="5:5">
-      <c r="E355" s="17"/>
+      <c r="E355" s="18"/>
     </row>
     <row r="356" customHeight="1" spans="5:5">
-      <c r="E356" s="17"/>
+      <c r="E356" s="18"/>
     </row>
     <row r="357" customHeight="1" spans="5:5">
-      <c r="E357" s="17"/>
+      <c r="E357" s="18"/>
     </row>
     <row r="358" customHeight="1" spans="5:5">
-      <c r="E358" s="17"/>
+      <c r="E358" s="18"/>
     </row>
     <row r="359" customHeight="1" spans="5:5">
-      <c r="E359" s="17"/>
+      <c r="E359" s="18"/>
     </row>
     <row r="360" customHeight="1" spans="5:5">
-      <c r="E360" s="17"/>
+      <c r="E360" s="18"/>
     </row>
     <row r="361" customHeight="1" spans="5:5">
-      <c r="E361" s="17"/>
+      <c r="E361" s="18"/>
     </row>
     <row r="362" customHeight="1" spans="5:5">
-      <c r="E362" s="17"/>
+      <c r="E362" s="18"/>
     </row>
     <row r="363" customHeight="1" spans="5:5">
-      <c r="E363" s="17"/>
+      <c r="E363" s="18"/>
     </row>
     <row r="364" customHeight="1" spans="5:5">
-      <c r="E364" s="17"/>
+      <c r="E364" s="18"/>
     </row>
     <row r="365" customHeight="1" spans="5:5">
-      <c r="E365" s="17"/>
+      <c r="E365" s="18"/>
     </row>
     <row r="366" customHeight="1" spans="5:5">
-      <c r="E366" s="17"/>
+      <c r="E366" s="18"/>
     </row>
     <row r="367" customHeight="1" spans="5:5">
-      <c r="E367" s="17"/>
+      <c r="E367" s="18"/>
     </row>
     <row r="368" customHeight="1" spans="5:5">
-      <c r="E368" s="17"/>
+      <c r="E368" s="18"/>
     </row>
     <row r="369" customHeight="1" spans="5:5">
-      <c r="E369" s="17"/>
+      <c r="E369" s="18"/>
     </row>
     <row r="370" customHeight="1" spans="5:5">
-      <c r="E370" s="17"/>
+      <c r="E370" s="18"/>
     </row>
     <row r="371" customHeight="1" spans="5:5">
-      <c r="E371" s="17"/>
+      <c r="E371" s="18"/>
     </row>
     <row r="372" customHeight="1" spans="5:5">
-      <c r="E372" s="17"/>
+      <c r="E372" s="18"/>
     </row>
     <row r="373" customHeight="1" spans="5:5">
-      <c r="E373" s="17"/>
+      <c r="E373" s="18"/>
     </row>
     <row r="374" customHeight="1" spans="5:5">
-      <c r="E374" s="17"/>
+      <c r="E374" s="18"/>
     </row>
     <row r="375" customHeight="1" spans="5:5">
-      <c r="E375" s="17"/>
+      <c r="E375" s="18"/>
     </row>
     <row r="376" customHeight="1" spans="5:5">
-      <c r="E376" s="17"/>
+      <c r="E376" s="18"/>
     </row>
     <row r="377" customHeight="1" spans="5:5">
-      <c r="E377" s="17"/>
+      <c r="E377" s="18"/>
     </row>
     <row r="378" customHeight="1" spans="5:5">
-      <c r="E378" s="17"/>
+      <c r="E378" s="18"/>
     </row>
     <row r="379" customHeight="1" spans="5:5">
-      <c r="E379" s="17"/>
+      <c r="E379" s="18"/>
     </row>
     <row r="380" customHeight="1" spans="5:5">
-      <c r="E380" s="17"/>
+      <c r="E380" s="18"/>
     </row>
     <row r="381" customHeight="1" spans="5:5">
-      <c r="E381" s="17"/>
+      <c r="E381" s="18"/>
     </row>
     <row r="382" customHeight="1" spans="5:5">
-      <c r="E382" s="17"/>
+      <c r="E382" s="18"/>
     </row>
     <row r="383" customHeight="1" spans="5:5">
-      <c r="E383" s="17"/>
+      <c r="E383" s="18"/>
     </row>
     <row r="384" customHeight="1" spans="5:5">
-      <c r="E384" s="17"/>
+      <c r="E384" s="18"/>
     </row>
     <row r="385" customHeight="1" spans="5:5">
-      <c r="E385" s="17"/>
+      <c r="E385" s="18"/>
     </row>
     <row r="386" customHeight="1" spans="5:5">
-      <c r="E386" s="17"/>
+      <c r="E386" s="18"/>
     </row>
     <row r="387" customHeight="1" spans="5:5">
-      <c r="E387" s="17"/>
+      <c r="E387" s="18"/>
     </row>
     <row r="388" customHeight="1" spans="5:5">
-      <c r="E388" s="17"/>
+      <c r="E388" s="18"/>
     </row>
     <row r="389" customHeight="1" spans="5:5">
-      <c r="E389" s="17"/>
+      <c r="E389" s="18"/>
     </row>
     <row r="390" customHeight="1" spans="5:5">
-      <c r="E390" s="17"/>
+      <c r="E390" s="18"/>
     </row>
     <row r="391" customHeight="1" spans="5:5">
-      <c r="E391" s="17"/>
+      <c r="E391" s="18"/>
     </row>
     <row r="392" customHeight="1" spans="5:5">
-      <c r="E392" s="17"/>
+      <c r="E392" s="18"/>
     </row>
     <row r="393" customHeight="1" spans="5:5">
-      <c r="E393" s="17"/>
+      <c r="E393" s="18"/>
     </row>
     <row r="394" customHeight="1" spans="5:5">
-      <c r="E394" s="17"/>
+      <c r="E394" s="18"/>
     </row>
     <row r="395" customHeight="1" spans="5:5">
-      <c r="E395" s="17"/>
+      <c r="E395" s="18"/>
     </row>
     <row r="396" customHeight="1" spans="5:5">
-      <c r="E396" s="17"/>
+      <c r="E396" s="18"/>
     </row>
     <row r="397" customHeight="1" spans="5:5">
-      <c r="E397" s="17"/>
+      <c r="E397" s="18"/>
     </row>
     <row r="398" customHeight="1" spans="5:5">
-      <c r="E398" s="17"/>
+      <c r="E398" s="18"/>
     </row>
     <row r="399" customHeight="1" spans="5:5">
-      <c r="E399" s="17"/>
+      <c r="E399" s="18"/>
     </row>
     <row r="400" customHeight="1" spans="5:5">
-      <c r="E400" s="17"/>
+      <c r="E400" s="18"/>
     </row>
     <row r="401" customHeight="1" spans="5:5">
-      <c r="E401" s="17"/>
+      <c r="E401" s="18"/>
     </row>
     <row r="402" customHeight="1" spans="5:5">
-      <c r="E402" s="17"/>
+      <c r="E402" s="18"/>
     </row>
     <row r="403" customHeight="1" spans="5:5">
-      <c r="E403" s="17"/>
+      <c r="E403" s="18"/>
     </row>
     <row r="404" customHeight="1" spans="5:5">
-      <c r="E404" s="17"/>
+      <c r="E404" s="18"/>
     </row>
     <row r="405" customHeight="1" spans="5:5">
-      <c r="E405" s="17"/>
+      <c r="E405" s="18"/>
     </row>
     <row r="406" customHeight="1" spans="5:5">
-      <c r="E406" s="17"/>
+      <c r="E406" s="18"/>
     </row>
     <row r="407" customHeight="1" spans="5:5">
-      <c r="E407" s="17"/>
+      <c r="E407" s="18"/>
     </row>
     <row r="408" customHeight="1" spans="5:5">
-      <c r="E408" s="17"/>
+      <c r="E408" s="18"/>
     </row>
     <row r="409" customHeight="1" spans="5:5">
-      <c r="E409" s="17"/>
+      <c r="E409" s="18"/>
     </row>
     <row r="410" customHeight="1" spans="5:5">
-      <c r="E410" s="17"/>
+      <c r="E410" s="18"/>
     </row>
     <row r="411" customHeight="1" spans="5:5">
-      <c r="E411" s="17"/>
+      <c r="E411" s="18"/>
     </row>
     <row r="412" customHeight="1" spans="5:5">
-      <c r="E412" s="17"/>
+      <c r="E412" s="18"/>
     </row>
     <row r="413" customHeight="1" spans="5:5">
-      <c r="E413" s="17"/>
+      <c r="E413" s="18"/>
     </row>
     <row r="414" customHeight="1" spans="5:5">
-      <c r="E414" s="17"/>
+      <c r="E414" s="18"/>
     </row>
     <row r="415" customHeight="1" spans="5:5">
-      <c r="E415" s="17"/>
+      <c r="E415" s="18"/>
     </row>
     <row r="416" customHeight="1" spans="5:5">
-      <c r="E416" s="17"/>
+      <c r="E416" s="18"/>
     </row>
     <row r="417" customHeight="1" spans="5:5">
-      <c r="E417" s="17"/>
+      <c r="E417" s="18"/>
     </row>
     <row r="418" customHeight="1" spans="5:5">
-      <c r="E418" s="17"/>
+      <c r="E418" s="18"/>
     </row>
     <row r="419" customHeight="1" spans="5:5">
-      <c r="E419" s="17"/>
+      <c r="E419" s="18"/>
     </row>
     <row r="420" customHeight="1" spans="5:5">
-      <c r="E420" s="17"/>
+      <c r="E420" s="18"/>
     </row>
     <row r="421" customHeight="1" spans="5:5">
-      <c r="E421" s="17"/>
+      <c r="E421" s="18"/>
     </row>
     <row r="422" customHeight="1" spans="5:5">
-      <c r="E422" s="17"/>
+      <c r="E422" s="18"/>
     </row>
     <row r="423" customHeight="1" spans="5:5">
-      <c r="E423" s="17"/>
+      <c r="E423" s="18"/>
     </row>
     <row r="424" customHeight="1" spans="5:5">
-      <c r="E424" s="17"/>
+      <c r="E424" s="18"/>
     </row>
     <row r="425" customHeight="1" spans="5:5">
-      <c r="E425" s="17"/>
+      <c r="E425" s="18"/>
     </row>
     <row r="426" customHeight="1" spans="5:5">
-      <c r="E426" s="17"/>
+      <c r="E426" s="18"/>
     </row>
     <row r="427" customHeight="1" spans="5:5">
-      <c r="E427" s="17"/>
+      <c r="E427" s="18"/>
     </row>
     <row r="428" customHeight="1" spans="5:5">
-      <c r="E428" s="17"/>
+      <c r="E428" s="18"/>
     </row>
     <row r="429" customHeight="1" spans="5:5">
-      <c r="E429" s="17"/>
+      <c r="E429" s="18"/>
     </row>
     <row r="430" customHeight="1" spans="5:5">
-      <c r="E430" s="17"/>
+      <c r="E430" s="18"/>
     </row>
     <row r="431" customHeight="1" spans="5:5">
-      <c r="E431" s="17"/>
+      <c r="E431" s="18"/>
     </row>
     <row r="432" customHeight="1" spans="5:5">
-      <c r="E432" s="17"/>
+      <c r="E432" s="18"/>
     </row>
     <row r="433" customHeight="1" spans="5:5">
-      <c r="E433" s="17"/>
+      <c r="E433" s="18"/>
     </row>
     <row r="434" customHeight="1" spans="5:5">
-      <c r="E434" s="17"/>
+      <c r="E434" s="18"/>
     </row>
     <row r="435" customHeight="1" spans="5:5">
-      <c r="E435" s="17"/>
+      <c r="E435" s="18"/>
     </row>
     <row r="436" customHeight="1" spans="5:5">
-      <c r="E436" s="17"/>
+      <c r="E436" s="18"/>
     </row>
     <row r="437" customHeight="1" spans="5:5">
-      <c r="E437" s="17"/>
+      <c r="E437" s="18"/>
     </row>
     <row r="438" customHeight="1" spans="5:5">
-      <c r="E438" s="17"/>
+      <c r="E438" s="18"/>
     </row>
     <row r="439" customHeight="1" spans="5:5">
-      <c r="E439" s="17"/>
+      <c r="E439" s="18"/>
     </row>
     <row r="440" customHeight="1" spans="5:5">
-      <c r="E440" s="17"/>
+      <c r="E440" s="18"/>
     </row>
     <row r="441" customHeight="1" spans="5:5">
-      <c r="E441" s="17"/>
+      <c r="E441" s="18"/>
     </row>
     <row r="442" customHeight="1" spans="5:5">
-      <c r="E442" s="17"/>
+      <c r="E442" s="18"/>
     </row>
     <row r="443" customHeight="1" spans="5:5">
-      <c r="E443" s="17"/>
+      <c r="E443" s="18"/>
     </row>
     <row r="444" customHeight="1" spans="5:5">
-      <c r="E444" s="17"/>
+      <c r="E444" s="18"/>
     </row>
     <row r="445" customHeight="1" spans="5:5">
-      <c r="E445" s="17"/>
+      <c r="E445" s="18"/>
     </row>
     <row r="446" customHeight="1" spans="5:5">
-      <c r="E446" s="17"/>
+      <c r="E446" s="18"/>
     </row>
     <row r="447" customHeight="1" spans="5:5">
-      <c r="E447" s="17"/>
+      <c r="E447" s="18"/>
     </row>
     <row r="448" customHeight="1" spans="5:5">
-      <c r="E448" s="17"/>
+      <c r="E448" s="18"/>
     </row>
     <row r="449" customHeight="1" spans="5:5">
-      <c r="E449" s="17"/>
+      <c r="E449" s="18"/>
     </row>
     <row r="450" customHeight="1" spans="5:5">
-      <c r="E450" s="17"/>
+      <c r="E450" s="18"/>
     </row>
     <row r="451" customHeight="1" spans="5:5">
-      <c r="E451" s="17"/>
+      <c r="E451" s="18"/>
     </row>
     <row r="452" customHeight="1" spans="5:5">
-      <c r="E452" s="17"/>
+      <c r="E452" s="18"/>
     </row>
     <row r="453" customHeight="1" spans="5:5">
-      <c r="E453" s="17"/>
+      <c r="E453" s="18"/>
     </row>
     <row r="454" customHeight="1" spans="5:5">
-      <c r="E454" s="17"/>
+      <c r="E454" s="18"/>
     </row>
     <row r="455" customHeight="1" spans="5:5">
-      <c r="E455" s="17"/>
+      <c r="E455" s="18"/>
     </row>
     <row r="456" customHeight="1" spans="5:5">
-      <c r="E456" s="17"/>
+      <c r="E456" s="18"/>
     </row>
     <row r="457" customHeight="1" spans="5:5">
-      <c r="E457" s="17"/>
+      <c r="E457" s="18"/>
     </row>
     <row r="458" customHeight="1" spans="5:5">
-      <c r="E458" s="17"/>
+      <c r="E458" s="18"/>
     </row>
     <row r="459" customHeight="1" spans="5:5">
-      <c r="E459" s="17"/>
+      <c r="E459" s="18"/>
     </row>
     <row r="460" customHeight="1" spans="5:5">
-      <c r="E460" s="17"/>
+      <c r="E460" s="18"/>
     </row>
     <row r="461" customHeight="1" spans="5:5">
-      <c r="E461" s="17"/>
+      <c r="E461" s="18"/>
     </row>
     <row r="462" customHeight="1" spans="5:5">
-      <c r="E462" s="17"/>
+      <c r="E462" s="18"/>
     </row>
     <row r="463" customHeight="1" spans="5:5">
-      <c r="E463" s="17"/>
+      <c r="E463" s="18"/>
     </row>
     <row r="464" customHeight="1" spans="5:5">
-      <c r="E464" s="17"/>
+      <c r="E464" s="18"/>
     </row>
     <row r="465" customHeight="1" spans="5:5">
-      <c r="E465" s="17"/>
+      <c r="E465" s="18"/>
     </row>
     <row r="466" customHeight="1" spans="5:5">
-      <c r="E466" s="17"/>
+      <c r="E466" s="18"/>
     </row>
     <row r="467" customHeight="1" spans="5:5">
-      <c r="E467" s="17"/>
+      <c r="E467" s="18"/>
     </row>
     <row r="468" customHeight="1" spans="5:5">
-      <c r="E468" s="17"/>
+      <c r="E468" s="18"/>
     </row>
     <row r="469" customHeight="1" spans="5:5">
-      <c r="E469" s="17"/>
+      <c r="E469" s="18"/>
     </row>
     <row r="470" customHeight="1" spans="5:5">
-      <c r="E470" s="17"/>
+      <c r="E470" s="18"/>
     </row>
     <row r="471" customHeight="1" spans="5:5">
-      <c r="E471" s="17"/>
+      <c r="E471" s="18"/>
     </row>
     <row r="472" customHeight="1" spans="5:5">
-      <c r="E472" s="17"/>
+      <c r="E472" s="18"/>
     </row>
     <row r="473" customHeight="1" spans="5:5">
-      <c r="E473" s="17"/>
+      <c r="E473" s="18"/>
     </row>
     <row r="474" customHeight="1" spans="5:5">
-      <c r="E474" s="17"/>
+      <c r="E474" s="18"/>
     </row>
     <row r="475" customHeight="1" spans="5:5">
-      <c r="E475" s="17"/>
+      <c r="E475" s="18"/>
     </row>
     <row r="476" customHeight="1" spans="5:5">
-      <c r="E476" s="17"/>
+      <c r="E476" s="18"/>
     </row>
     <row r="477" customHeight="1" spans="5:5">
-      <c r="E477" s="17"/>
+      <c r="E477" s="18"/>
     </row>
     <row r="478" customHeight="1" spans="5:5">
-      <c r="E478" s="17"/>
+      <c r="E478" s="18"/>
     </row>
     <row r="479" customHeight="1" spans="5:5">
-      <c r="E479" s="17"/>
+      <c r="E479" s="18"/>
     </row>
     <row r="480" customHeight="1" spans="5:5">
-      <c r="E480" s="17"/>
+      <c r="E480" s="18"/>
     </row>
     <row r="481" customHeight="1" spans="5:5">
-      <c r="E481" s="17"/>
+      <c r="E481" s="18"/>
     </row>
     <row r="482" customHeight="1" spans="5:5">
-      <c r="E482" s="17"/>
+      <c r="E482" s="18"/>
     </row>
     <row r="483" customHeight="1" spans="5:5">
-      <c r="E483" s="17"/>
+      <c r="E483" s="18"/>
     </row>
     <row r="484" customHeight="1" spans="5:5">
-      <c r="E484" s="17"/>
+      <c r="E484" s="18"/>
     </row>
     <row r="485" customHeight="1" spans="5:5">
-      <c r="E485" s="17"/>
+      <c r="E485" s="18"/>
     </row>
     <row r="486" customHeight="1" spans="5:5">
-      <c r="E486" s="17"/>
+      <c r="E486" s="18"/>
     </row>
     <row r="487" customHeight="1" spans="5:5">
-      <c r="E487" s="17"/>
+      <c r="E487" s="18"/>
     </row>
     <row r="488" customHeight="1" spans="5:5">
-      <c r="E488" s="17"/>
+      <c r="E488" s="18"/>
     </row>
     <row r="489" customHeight="1" spans="5:5">
-      <c r="E489" s="17"/>
+      <c r="E489" s="18"/>
     </row>
     <row r="490" customHeight="1" spans="5:5">
-      <c r="E490" s="17"/>
+      <c r="E490" s="18"/>
     </row>
     <row r="491" customHeight="1" spans="5:5">
-      <c r="E491" s="17"/>
+      <c r="E491" s="18"/>
     </row>
     <row r="492" customHeight="1" spans="5:5">
-      <c r="E492" s="17"/>
+      <c r="E492" s="18"/>
     </row>
     <row r="493" customHeight="1" spans="5:5">
-      <c r="E493" s="17"/>
+      <c r="E493" s="18"/>
     </row>
     <row r="494" customHeight="1" spans="5:5">
-      <c r="E494" s="17"/>
+      <c r="E494" s="18"/>
     </row>
     <row r="495" customHeight="1" spans="5:5">
-      <c r="E495" s="17"/>
+      <c r="E495" s="18"/>
     </row>
     <row r="496" customHeight="1" spans="5:5">
-      <c r="E496" s="17"/>
+      <c r="E496" s="18"/>
     </row>
     <row r="497" customHeight="1" spans="5:5">
-      <c r="E497" s="17"/>
+      <c r="E497" s="18"/>
     </row>
     <row r="498" customHeight="1" spans="5:5">
-      <c r="E498" s="17"/>
+      <c r="E498" s="18"/>
     </row>
     <row r="499" customHeight="1" spans="5:5">
-      <c r="E499" s="17"/>
+      <c r="E499" s="18"/>
     </row>
     <row r="500" customHeight="1" spans="5:5">
-      <c r="E500" s="17"/>
+      <c r="E500" s="18"/>
     </row>
     <row r="501" customHeight="1" spans="5:5">
-      <c r="E501" s="17"/>
+      <c r="E501" s="18"/>
     </row>
     <row r="502" customHeight="1" spans="5:5">
-      <c r="E502" s="17"/>
+      <c r="E502" s="18"/>
     </row>
     <row r="503" customHeight="1" spans="5:5">
-      <c r="E503" s="17"/>
+      <c r="E503" s="18"/>
     </row>
     <row r="504" customHeight="1" spans="5:5">
-      <c r="E504" s="17"/>
+      <c r="E504" s="18"/>
     </row>
     <row r="505" customHeight="1" spans="5:5">
-      <c r="E505" s="17"/>
+      <c r="E505" s="18"/>
     </row>
     <row r="506" customHeight="1" spans="5:5">
-      <c r="E506" s="17"/>
+      <c r="E506" s="18"/>
     </row>
     <row r="507" customHeight="1" spans="5:5">
-      <c r="E507" s="17"/>
+      <c r="E507" s="18"/>
     </row>
     <row r="508" customHeight="1" spans="5:5">
-      <c r="E508" s="17"/>
+      <c r="E508" s="18"/>
     </row>
     <row r="509" customHeight="1" spans="5:5">
-      <c r="E509" s="17"/>
+      <c r="E509" s="18"/>
     </row>
     <row r="510" customHeight="1" spans="5:5">
-      <c r="E510" s="17"/>
+      <c r="E510" s="18"/>
     </row>
     <row r="511" customHeight="1" spans="5:5">
-      <c r="E511" s="17"/>
+      <c r="E511" s="18"/>
     </row>
     <row r="512" customHeight="1" spans="5:5">
-      <c r="E512" s="17"/>
+      <c r="E512" s="18"/>
     </row>
     <row r="513" customHeight="1" spans="5:5">
-      <c r="E513" s="17"/>
+      <c r="E513" s="18"/>
     </row>
     <row r="514" customHeight="1" spans="5:5">
-      <c r="E514" s="17"/>
+      <c r="E514" s="18"/>
     </row>
     <row r="515" customHeight="1" spans="5:5">
-      <c r="E515" s="17"/>
+      <c r="E515" s="18"/>
     </row>
     <row r="516" customHeight="1" spans="5:5">
-      <c r="E516" s="17"/>
+      <c r="E516" s="18"/>
     </row>
     <row r="517" customHeight="1" spans="5:5">
-      <c r="E517" s="17"/>
+      <c r="E517" s="18"/>
     </row>
     <row r="518" customHeight="1" spans="5:5">
-      <c r="E518" s="17"/>
+      <c r="E518" s="18"/>
     </row>
     <row r="519" customHeight="1" spans="5:5">
-      <c r="E519" s="17"/>
+      <c r="E519" s="18"/>
     </row>
     <row r="520" customHeight="1" spans="5:5">
-      <c r="E520" s="17"/>
+      <c r="E520" s="18"/>
     </row>
     <row r="521" customHeight="1" spans="5:5">
-      <c r="E521" s="17"/>
+      <c r="E521" s="18"/>
     </row>
     <row r="522" customHeight="1" spans="5:5">
-      <c r="E522" s="17"/>
+      <c r="E522" s="18"/>
     </row>
     <row r="523" customHeight="1" spans="5:5">
-      <c r="E523" s="17"/>
+      <c r="E523" s="18"/>
     </row>
     <row r="524" customHeight="1" spans="5:5">
-      <c r="E524" s="17"/>
+      <c r="E524" s="18"/>
     </row>
     <row r="525" customHeight="1" spans="5:5">
-      <c r="E525" s="17"/>
+      <c r="E525" s="18"/>
     </row>
     <row r="526" customHeight="1" spans="5:5">
-      <c r="E526" s="17"/>
+      <c r="E526" s="18"/>
     </row>
     <row r="527" customHeight="1" spans="5:5">
-      <c r="E527" s="17"/>
+      <c r="E527" s="18"/>
     </row>
     <row r="528" customHeight="1" spans="5:5">
-      <c r="E528" s="17"/>
+      <c r="E528" s="18"/>
     </row>
     <row r="529" customHeight="1" spans="5:5">
-      <c r="E529" s="17"/>
+      <c r="E529" s="18"/>
     </row>
     <row r="530" customHeight="1" spans="5:5">
-      <c r="E530" s="17"/>
+      <c r="E530" s="18"/>
     </row>
     <row r="531" customHeight="1" spans="5:5">
-      <c r="E531" s="17"/>
+      <c r="E531" s="18"/>
     </row>
     <row r="532" customHeight="1" spans="5:5">
-      <c r="E532" s="17"/>
+      <c r="E532" s="18"/>
     </row>
     <row r="533" customHeight="1" spans="5:5">
-      <c r="E533" s="17"/>
+      <c r="E533" s="18"/>
     </row>
     <row r="534" customHeight="1" spans="5:5">
-      <c r="E534" s="17"/>
+      <c r="E534" s="18"/>
     </row>
     <row r="535" customHeight="1" spans="5:5">
-      <c r="E535" s="17"/>
+      <c r="E535" s="18"/>
     </row>
     <row r="536" customHeight="1" spans="5:5">
-      <c r="E536" s="17"/>
+      <c r="E536" s="18"/>
     </row>
     <row r="537" customHeight="1" spans="5:5">
-      <c r="E537" s="17"/>
+      <c r="E537" s="18"/>
     </row>
     <row r="538" customHeight="1" spans="5:5">
-      <c r="E538" s="17"/>
+      <c r="E538" s="18"/>
     </row>
     <row r="539" customHeight="1" spans="5:5">
-      <c r="E539" s="17"/>
+      <c r="E539" s="18"/>
     </row>
     <row r="540" customHeight="1" spans="5:5">
-      <c r="E540" s="17"/>
+      <c r="E540" s="18"/>
     </row>
     <row r="541" customHeight="1" spans="5:5">
-      <c r="E541" s="17"/>
+      <c r="E541" s="18"/>
     </row>
     <row r="542" customHeight="1" spans="5:5">
-      <c r="E542" s="17"/>
+      <c r="E542" s="18"/>
     </row>
     <row r="543" customHeight="1" spans="5:5">
-      <c r="E543" s="17"/>
+      <c r="E543" s="18"/>
     </row>
     <row r="544" customHeight="1" spans="5:5">
-      <c r="E544" s="17"/>
+      <c r="E544" s="18"/>
     </row>
     <row r="545" customHeight="1" spans="5:5">
-      <c r="E545" s="17"/>
+      <c r="E545" s="18"/>
     </row>
     <row r="546" customHeight="1" spans="5:5">
-      <c r="E546" s="17"/>
+      <c r="E546" s="18"/>
     </row>
     <row r="547" customHeight="1" spans="5:5">
-      <c r="E547" s="17"/>
+      <c r="E547" s="18"/>
     </row>
     <row r="548" customHeight="1" spans="5:5">
-      <c r="E548" s="17"/>
+      <c r="E548" s="18"/>
     </row>
     <row r="549" customHeight="1" spans="5:5">
-      <c r="E549" s="17"/>
+      <c r="E549" s="18"/>
     </row>
     <row r="550" customHeight="1" spans="5:5">
-      <c r="E550" s="17"/>
+      <c r="E550" s="18"/>
     </row>
     <row r="551" customHeight="1" spans="5:5">
-      <c r="E551" s="17"/>
+      <c r="E551" s="18"/>
     </row>
     <row r="552" customHeight="1" spans="5:5">
-      <c r="E552" s="17"/>
+      <c r="E552" s="18"/>
     </row>
     <row r="553" customHeight="1" spans="5:5">
-      <c r="E553" s="17"/>
+      <c r="E553" s="18"/>
     </row>
     <row r="554" customHeight="1" spans="5:5">
-      <c r="E554" s="17"/>
+      <c r="E554" s="18"/>
     </row>
     <row r="555" customHeight="1" spans="5:5">
-      <c r="E555" s="17"/>
+      <c r="E555" s="18"/>
     </row>
     <row r="556" customHeight="1" spans="5:5">
-      <c r="E556" s="17"/>
+      <c r="E556" s="18"/>
     </row>
     <row r="557" customHeight="1" spans="5:5">
-      <c r="E557" s="17"/>
+      <c r="E557" s="18"/>
     </row>
     <row r="558" customHeight="1" spans="5:5">
-      <c r="E558" s="17"/>
+      <c r="E558" s="18"/>
     </row>
     <row r="559" customHeight="1" spans="5:5">
-      <c r="E559" s="17"/>
+      <c r="E559" s="18"/>
     </row>
     <row r="560" customHeight="1" spans="5:5">
-      <c r="E560" s="17"/>
+      <c r="E560" s="18"/>
     </row>
     <row r="561" customHeight="1" spans="5:5">
-      <c r="E561" s="17"/>
+      <c r="E561" s="18"/>
     </row>
     <row r="562" customHeight="1" spans="5:5">
-      <c r="E562" s="17"/>
+      <c r="E562" s="18"/>
     </row>
     <row r="563" customHeight="1" spans="5:5">
-      <c r="E563" s="17"/>
+      <c r="E563" s="18"/>
     </row>
     <row r="564" customHeight="1" spans="5:5">
-      <c r="E564" s="17"/>
+      <c r="E564" s="18"/>
     </row>
     <row r="565" customHeight="1" spans="5:5">
-      <c r="E565" s="17"/>
+      <c r="E565" s="18"/>
     </row>
     <row r="566" customHeight="1" spans="5:5">
-      <c r="E566" s="17"/>
+      <c r="E566" s="18"/>
     </row>
     <row r="567" customHeight="1" spans="5:5">
-      <c r="E567" s="17"/>
+      <c r="E567" s="18"/>
     </row>
     <row r="568" customHeight="1" spans="5:5">
-      <c r="E568" s="17"/>
+      <c r="E568" s="18"/>
     </row>
     <row r="569" customHeight="1" spans="5:5">
-      <c r="E569" s="17"/>
+      <c r="E569" s="18"/>
     </row>
     <row r="570" customHeight="1" spans="5:5">
-      <c r="E570" s="17"/>
+      <c r="E570" s="18"/>
     </row>
     <row r="571" customHeight="1" spans="5:5">
-      <c r="E571" s="17"/>
+      <c r="E571" s="18"/>
     </row>
     <row r="572" customHeight="1" spans="5:5">
-      <c r="E572" s="17"/>
+      <c r="E572" s="18"/>
     </row>
     <row r="573" customHeight="1" spans="5:5">
-      <c r="E573" s="17"/>
+      <c r="E573" s="18"/>
     </row>
     <row r="574" customHeight="1" spans="5:5">
-      <c r="E574" s="17"/>
+      <c r="E574" s="18"/>
     </row>
     <row r="575" customHeight="1" spans="5:5">
-      <c r="E575" s="17"/>
+      <c r="E575" s="18"/>
     </row>
     <row r="576" customHeight="1" spans="5:5">
-      <c r="E576" s="17"/>
+      <c r="E576" s="18"/>
     </row>
     <row r="577" customHeight="1" spans="5:5">
-      <c r="E577" s="17"/>
+      <c r="E577" s="18"/>
     </row>
     <row r="578" customHeight="1" spans="5:5">
-      <c r="E578" s="17"/>
+      <c r="E578" s="18"/>
     </row>
     <row r="579" customHeight="1" spans="5:5">
-      <c r="E579" s="17"/>
+      <c r="E579" s="18"/>
     </row>
     <row r="580" customHeight="1" spans="5:5">
-      <c r="E580" s="17"/>
+      <c r="E580" s="18"/>
     </row>
     <row r="581" customHeight="1" spans="5:5">
-      <c r="E581" s="17"/>
+      <c r="E581" s="18"/>
     </row>
     <row r="582" customHeight="1" spans="5:5">
-      <c r="E582" s="17"/>
+      <c r="E582" s="18"/>
     </row>
     <row r="583" customHeight="1" spans="5:5">
-      <c r="E583" s="17"/>
+      <c r="E583" s="18"/>
     </row>
     <row r="584" customHeight="1" spans="5:5">
-      <c r="E584" s="17"/>
+      <c r="E584" s="18"/>
     </row>
     <row r="585" customHeight="1" spans="5:5">
-      <c r="E585" s="17"/>
+      <c r="E585" s="18"/>
     </row>
     <row r="586" customHeight="1" spans="5:5">
-      <c r="E586" s="17"/>
+      <c r="E586" s="18"/>
     </row>
     <row r="587" customHeight="1" spans="5:5">
-      <c r="E587" s="17"/>
+      <c r="E587" s="18"/>
     </row>
     <row r="588" customHeight="1" spans="5:5">
-      <c r="E588" s="17"/>
+      <c r="E588" s="18"/>
     </row>
     <row r="589" customHeight="1" spans="5:5">
-      <c r="E589" s="17"/>
+      <c r="E589" s="18"/>
     </row>
     <row r="590" customHeight="1" spans="5:5">
-      <c r="E590" s="17"/>
+      <c r="E590" s="18"/>
     </row>
     <row r="591" customHeight="1" spans="5:5">
-      <c r="E591" s="17"/>
+      <c r="E591" s="18"/>
     </row>
     <row r="592" customHeight="1" spans="5:5">
-      <c r="E592" s="17"/>
+      <c r="E592" s="18"/>
     </row>
     <row r="593" customHeight="1" spans="5:5">
-      <c r="E593" s="17"/>
+      <c r="E593" s="18"/>
     </row>
     <row r="594" customHeight="1" spans="5:5">
-      <c r="E594" s="17"/>
+      <c r="E594" s="18"/>
     </row>
     <row r="595" customHeight="1" spans="5:5">
-      <c r="E595" s="17"/>
+      <c r="E595" s="18"/>
     </row>
     <row r="596" customHeight="1" spans="5:5">
-      <c r="E596" s="17"/>
+      <c r="E596" s="18"/>
     </row>
     <row r="597" customHeight="1" spans="5:5">
-      <c r="E597" s="17"/>
+      <c r="E597" s="18"/>
     </row>
     <row r="598" customHeight="1" spans="5:5">
-      <c r="E598" s="17"/>
+      <c r="E598" s="18"/>
     </row>
     <row r="599" customHeight="1" spans="5:5">
-      <c r="E599" s="17"/>
+      <c r="E599" s="18"/>
     </row>
     <row r="600" customHeight="1" spans="5:5">
-      <c r="E600" s="17"/>
+      <c r="E600" s="18"/>
     </row>
     <row r="601" customHeight="1" spans="5:5">
-      <c r="E601" s="17"/>
+      <c r="E601" s="18"/>
     </row>
     <row r="602" customHeight="1" spans="5:5">
-      <c r="E602" s="17"/>
+      <c r="E602" s="18"/>
     </row>
     <row r="603" customHeight="1" spans="5:5">
-      <c r="E603" s="17"/>
+      <c r="E603" s="18"/>
     </row>
     <row r="604" customHeight="1" spans="5:5">
-      <c r="E604" s="17"/>
+      <c r="E604" s="18"/>
     </row>
     <row r="605" customHeight="1" spans="5:5">
-      <c r="E605" s="17"/>
+      <c r="E605" s="18"/>
     </row>
     <row r="606" customHeight="1" spans="5:5">
-      <c r="E606" s="17"/>
+      <c r="E606" s="18"/>
     </row>
     <row r="607" customHeight="1" spans="5:5">
-      <c r="E607" s="17"/>
+      <c r="E607" s="18"/>
     </row>
     <row r="608" customHeight="1" spans="5:5">
-      <c r="E608" s="17"/>
+      <c r="E608" s="18"/>
     </row>
     <row r="609" customHeight="1" spans="5:5">
-      <c r="E609" s="17"/>
+      <c r="E609" s="18"/>
     </row>
     <row r="610" customHeight="1" spans="5:5">
-      <c r="E610" s="17"/>
+      <c r="E610" s="18"/>
     </row>
     <row r="611" customHeight="1" spans="5:5">
-      <c r="E611" s="17"/>
+      <c r="E611" s="18"/>
     </row>
     <row r="612" customHeight="1" spans="5:5">
-      <c r="E612" s="17"/>
+      <c r="E612" s="18"/>
     </row>
     <row r="613" customHeight="1" spans="5:5">
-      <c r="E613" s="17"/>
+      <c r="E613" s="18"/>
     </row>
     <row r="614" customHeight="1" spans="5:5">
-      <c r="E614" s="17"/>
+      <c r="E614" s="18"/>
     </row>
     <row r="615" customHeight="1" spans="5:5">
-      <c r="E615" s="17"/>
+      <c r="E615" s="18"/>
     </row>
     <row r="616" customHeight="1" spans="5:5">
-      <c r="E616" s="17"/>
+      <c r="E616" s="18"/>
     </row>
     <row r="617" customHeight="1" spans="5:5">
-      <c r="E617" s="17"/>
+      <c r="E617" s="18"/>
     </row>
     <row r="618" customHeight="1" spans="5:5">
-      <c r="E618" s="17"/>
+      <c r="E618" s="18"/>
     </row>
     <row r="619" customHeight="1" spans="5:5">
-      <c r="E619" s="17"/>
+      <c r="E619" s="18"/>
     </row>
     <row r="620" customHeight="1" spans="5:5">
-      <c r="E620" s="17"/>
+      <c r="E620" s="18"/>
     </row>
     <row r="621" customHeight="1" spans="5:5">
-      <c r="E621" s="17"/>
+      <c r="E621" s="18"/>
     </row>
     <row r="622" customHeight="1" spans="5:5">
-      <c r="E622" s="17"/>
+      <c r="E622" s="18"/>
     </row>
     <row r="623" customHeight="1" spans="5:5">
-      <c r="E623" s="17"/>
+      <c r="E623" s="18"/>
     </row>
     <row r="624" customHeight="1" spans="5:5">
-      <c r="E624" s="17"/>
+      <c r="E624" s="18"/>
     </row>
     <row r="625" customHeight="1" spans="5:5">
-      <c r="E625" s="17"/>
+      <c r="E625" s="18"/>
     </row>
     <row r="626" customHeight="1" spans="5:5">
-      <c r="E626" s="17"/>
+      <c r="E626" s="18"/>
     </row>
     <row r="627" customHeight="1" spans="5:5">
-      <c r="E627" s="17"/>
+      <c r="E627" s="18"/>
     </row>
     <row r="628" customHeight="1" spans="5:5">
-      <c r="E628" s="17"/>
+      <c r="E628" s="18"/>
     </row>
     <row r="629" customHeight="1" spans="5:5">
-      <c r="E629" s="17"/>
+      <c r="E629" s="18"/>
     </row>
     <row r="630" customHeight="1" spans="5:5">
-      <c r="E630" s="17"/>
+      <c r="E630" s="18"/>
     </row>
     <row r="631" customHeight="1" spans="5:5">
-      <c r="E631" s="17"/>
+      <c r="E631" s="18"/>
     </row>
     <row r="632" customHeight="1" spans="5:5">
-      <c r="E632" s="17"/>
+      <c r="E632" s="18"/>
     </row>
     <row r="633" customHeight="1" spans="5:5">
-      <c r="E633" s="17"/>
+      <c r="E633" s="18"/>
     </row>
     <row r="634" customHeight="1" spans="5:5">
-      <c r="E634" s="17"/>
+      <c r="E634" s="18"/>
     </row>
     <row r="635" customHeight="1" spans="5:5">
-      <c r="E635" s="17"/>
+      <c r="E635" s="18"/>
     </row>
     <row r="636" customHeight="1" spans="5:5">
-      <c r="E636" s="17"/>
+      <c r="E636" s="18"/>
     </row>
     <row r="637" customHeight="1" spans="5:5">
-      <c r="E637" s="17"/>
+      <c r="E637" s="18"/>
     </row>
     <row r="638" customHeight="1" spans="5:5">
-      <c r="E638" s="17"/>
+      <c r="E638" s="18"/>
     </row>
     <row r="639" customHeight="1" spans="5:5">
-      <c r="E639" s="17"/>
+      <c r="E639" s="18"/>
     </row>
     <row r="640" customHeight="1" spans="5:5">
-      <c r="E640" s="17"/>
+      <c r="E640" s="18"/>
     </row>
     <row r="641" customHeight="1" spans="5:5">
-      <c r="E641" s="17"/>
+      <c r="E641" s="18"/>
     </row>
     <row r="642" customHeight="1" spans="5:5">
-      <c r="E642" s="17"/>
+      <c r="E642" s="18"/>
     </row>
     <row r="643" customHeight="1" spans="5:5">
-      <c r="E643" s="17"/>
+      <c r="E643" s="18"/>
     </row>
     <row r="644" customHeight="1" spans="5:5">
-      <c r="E644" s="17"/>
+      <c r="E644" s="18"/>
     </row>
     <row r="645" customHeight="1" spans="5:5">
-      <c r="E645" s="17"/>
+      <c r="E645" s="18"/>
     </row>
     <row r="646" customHeight="1" spans="5:5">
-      <c r="E646" s="17"/>
+      <c r="E646" s="18"/>
     </row>
     <row r="647" customHeight="1" spans="5:5">
-      <c r="E647" s="17"/>
+      <c r="E647" s="18"/>
     </row>
     <row r="648" customHeight="1" spans="5:5">
-      <c r="E648" s="17"/>
+      <c r="E648" s="18"/>
     </row>
     <row r="649" customHeight="1" spans="5:5">
-      <c r="E649" s="17"/>
+      <c r="E649" s="18"/>
     </row>
     <row r="650" customHeight="1" spans="5:5">
-      <c r="E650" s="17"/>
+      <c r="E650" s="18"/>
     </row>
     <row r="651" customHeight="1" spans="5:5">
-      <c r="E651" s="17"/>
+      <c r="E651" s="18"/>
     </row>
     <row r="652" customHeight="1" spans="5:5">
-      <c r="E652" s="17"/>
+      <c r="E652" s="18"/>
     </row>
     <row r="653" customHeight="1" spans="5:5">
-      <c r="E653" s="17"/>
+      <c r="E653" s="18"/>
     </row>
     <row r="654" customHeight="1" spans="5:5">
-      <c r="E654" s="17"/>
+      <c r="E654" s="18"/>
     </row>
     <row r="655" customHeight="1" spans="5:5">
-      <c r="E655" s="17"/>
+      <c r="E655" s="18"/>
     </row>
     <row r="656" customHeight="1" spans="5:5">
-      <c r="E656" s="17"/>
+      <c r="E656" s="18"/>
     </row>
     <row r="657" customHeight="1" spans="5:5">
-      <c r="E657" s="17"/>
+      <c r="E657" s="18"/>
     </row>
     <row r="658" customHeight="1" spans="5:5">
-      <c r="E658" s="17"/>
+      <c r="E658" s="18"/>
     </row>
     <row r="659" customHeight="1" spans="5:5">
-      <c r="E659" s="17"/>
+      <c r="E659" s="18"/>
     </row>
     <row r="660" customHeight="1" spans="5:5">
-      <c r="E660" s="17"/>
+      <c r="E660" s="18"/>
     </row>
     <row r="661" customHeight="1" spans="5:5">
-      <c r="E661" s="17"/>
+      <c r="E661" s="18"/>
     </row>
     <row r="662" customHeight="1" spans="5:5">
-      <c r="E662" s="17"/>
+      <c r="E662" s="18"/>
     </row>
     <row r="663" customHeight="1" spans="5:5">
-      <c r="E663" s="17"/>
+      <c r="E663" s="18"/>
     </row>
     <row r="664" customHeight="1" spans="5:5">
-      <c r="E664" s="17"/>
+      <c r="E664" s="18"/>
     </row>
     <row r="665" customHeight="1" spans="5:5">
-      <c r="E665" s="17"/>
+      <c r="E665" s="18"/>
     </row>
     <row r="666" customHeight="1" spans="5:5">
-      <c r="E666" s="17"/>
+      <c r="E666" s="18"/>
     </row>
     <row r="667" customHeight="1" spans="5:5">
-      <c r="E667" s="17"/>
+      <c r="E667" s="18"/>
     </row>
     <row r="668" customHeight="1" spans="5:5">
-      <c r="E668" s="17"/>
+      <c r="E668" s="18"/>
     </row>
     <row r="669" customHeight="1" spans="5:5">
-      <c r="E669" s="17"/>
+      <c r="E669" s="18"/>
     </row>
     <row r="670" customHeight="1" spans="5:5">
-      <c r="E670" s="17"/>
+      <c r="E670" s="18"/>
     </row>
     <row r="671" customHeight="1" spans="5:5">
-      <c r="E671" s="17"/>
+      <c r="E671" s="18"/>
     </row>
     <row r="672" customHeight="1" spans="5:5">
-      <c r="E672" s="17"/>
+      <c r="E672" s="18"/>
     </row>
     <row r="673" customHeight="1" spans="5:5">
-      <c r="E673" s="17"/>
+      <c r="E673" s="18"/>
     </row>
     <row r="674" customHeight="1" spans="5:5">
-      <c r="E674" s="17"/>
+      <c r="E674" s="18"/>
     </row>
     <row r="675" customHeight="1" spans="5:5">
-      <c r="E675" s="17"/>
+      <c r="E675" s="18"/>
     </row>
     <row r="676" customHeight="1" spans="5:5">
-      <c r="E676" s="17"/>
+      <c r="E676" s="18"/>
     </row>
     <row r="677" customHeight="1" spans="5:5">
-      <c r="E677" s="17"/>
+      <c r="E677" s="18"/>
     </row>
     <row r="678" customHeight="1" spans="5:5">
-      <c r="E678" s="17"/>
+      <c r="E678" s="18"/>
     </row>
     <row r="679" customHeight="1" spans="5:5">
-      <c r="E679" s="17"/>
+      <c r="E679" s="18"/>
     </row>
     <row r="680" customHeight="1" spans="5:5">
-      <c r="E680" s="17"/>
+      <c r="E680" s="18"/>
     </row>
     <row r="681" customHeight="1" spans="5:5">
-      <c r="E681" s="17"/>
+      <c r="E681" s="18"/>
     </row>
     <row r="682" customHeight="1" spans="5:5">
-      <c r="E682" s="17"/>
+      <c r="E682" s="18"/>
     </row>
     <row r="683" customHeight="1" spans="5:5">
-      <c r="E683" s="17"/>
+      <c r="E683" s="18"/>
     </row>
     <row r="684" customHeight="1" spans="5:5">
-      <c r="E684" s="17"/>
+      <c r="E684" s="18"/>
     </row>
     <row r="685" customHeight="1" spans="5:5">
-      <c r="E685" s="17"/>
+      <c r="E685" s="18"/>
     </row>
     <row r="686" customHeight="1" spans="5:5">
-      <c r="E686" s="17"/>
+      <c r="E686" s="18"/>
     </row>
     <row r="687" customHeight="1" spans="5:5">
-      <c r="E687" s="17"/>
+      <c r="E687" s="18"/>
     </row>
     <row r="688" customHeight="1" spans="5:5">
-      <c r="E688" s="17"/>
+      <c r="E688" s="18"/>
     </row>
     <row r="689" customHeight="1" spans="5:5">
-      <c r="E689" s="17"/>
+      <c r="E689" s="18"/>
     </row>
     <row r="690" customHeight="1" spans="5:5">
-      <c r="E690" s="17"/>
+      <c r="E690" s="18"/>
     </row>
     <row r="691" customHeight="1" spans="5:5">
-      <c r="E691" s="17"/>
+      <c r="E691" s="18"/>
     </row>
     <row r="692" customHeight="1" spans="5:5">
-      <c r="E692" s="17"/>
+      <c r="E692" s="18"/>
     </row>
     <row r="693" customHeight="1" spans="5:5">
-      <c r="E693" s="17"/>
+      <c r="E693" s="18"/>
     </row>
     <row r="694" customHeight="1" spans="5:5">
-      <c r="E694" s="17"/>
+      <c r="E694" s="18"/>
     </row>
     <row r="695" customHeight="1" spans="5:5">
-      <c r="E695" s="17"/>
+      <c r="E695" s="18"/>
     </row>
     <row r="696" customHeight="1" spans="5:5">
-      <c r="E696" s="17"/>
+      <c r="E696" s="18"/>
     </row>
     <row r="697" customHeight="1" spans="5:5">
-      <c r="E697" s="17"/>
+      <c r="E697" s="18"/>
     </row>
     <row r="698" customHeight="1" spans="5:5">
-      <c r="E698" s="17"/>
+      <c r="E698" s="18"/>
     </row>
     <row r="699" customHeight="1" spans="5:5">
-      <c r="E699" s="17"/>
+      <c r="E699" s="18"/>
     </row>
     <row r="700" customHeight="1" spans="5:5">
-      <c r="E700" s="17"/>
+      <c r="E700" s="18"/>
     </row>
     <row r="701" customHeight="1" spans="5:5">
-      <c r="E701" s="17"/>
+      <c r="E701" s="18"/>
     </row>
     <row r="702" customHeight="1" spans="5:5">
-      <c r="E702" s="17"/>
+      <c r="E702" s="18"/>
     </row>
     <row r="703" customHeight="1" spans="5:5">
-      <c r="E703" s="17"/>
+      <c r="E703" s="18"/>
     </row>
     <row r="704" customHeight="1" spans="5:5">
-      <c r="E704" s="17"/>
+      <c r="E704" s="18"/>
     </row>
     <row r="705" customHeight="1" spans="5:5">
-      <c r="E705" s="17"/>
+      <c r="E705" s="18"/>
     </row>
     <row r="706" customHeight="1" spans="5:5">
-      <c r="E706" s="17"/>
+      <c r="E706" s="18"/>
     </row>
     <row r="707" customHeight="1" spans="5:5">
-      <c r="E707" s="17"/>
+      <c r="E707" s="18"/>
     </row>
     <row r="708" customHeight="1" spans="5:5">
-      <c r="E708" s="17"/>
+      <c r="E708" s="18"/>
     </row>
     <row r="709" customHeight="1" spans="5:5">
-      <c r="E709" s="17"/>
+      <c r="E709" s="18"/>
     </row>
     <row r="710" customHeight="1" spans="5:5">
-      <c r="E710" s="17"/>
+      <c r="E710" s="18"/>
     </row>
     <row r="711" customHeight="1" spans="5:5">
-      <c r="E711" s="17"/>
+      <c r="E711" s="18"/>
     </row>
     <row r="712" customHeight="1" spans="5:5">
-      <c r="E712" s="17"/>
+      <c r="E712" s="18"/>
     </row>
     <row r="713" customHeight="1" spans="5:5">
-      <c r="E713" s="17"/>
+      <c r="E713" s="18"/>
     </row>
     <row r="714" customHeight="1" spans="5:5">
-      <c r="E714" s="17"/>
+      <c r="E714" s="18"/>
     </row>
     <row r="715" customHeight="1" spans="5:5">
-      <c r="E715" s="17"/>
+      <c r="E715" s="18"/>
     </row>
     <row r="716" customHeight="1" spans="5:5">
-      <c r="E716" s="17"/>
+      <c r="E716" s="18"/>
     </row>
     <row r="717" customHeight="1" spans="5:5">
-      <c r="E717" s="17"/>
+      <c r="E717" s="18"/>
     </row>
     <row r="718" customHeight="1" spans="5:5">
-      <c r="E718" s="17"/>
+      <c r="E718" s="18"/>
     </row>
     <row r="719" customHeight="1" spans="5:5">
-      <c r="E719" s="17"/>
+      <c r="E719" s="18"/>
     </row>
     <row r="720" customHeight="1" spans="5:5">
-      <c r="E720" s="17"/>
+      <c r="E720" s="18"/>
     </row>
     <row r="721" customHeight="1" spans="5:5">
-      <c r="E721" s="17"/>
+      <c r="E721" s="18"/>
     </row>
     <row r="722" customHeight="1" spans="5:5">
-      <c r="E722" s="17"/>
+      <c r="E722" s="18"/>
     </row>
     <row r="723" customHeight="1" spans="5:5">
-      <c r="E723" s="17"/>
+      <c r="E723" s="18"/>
     </row>
     <row r="724" customHeight="1" spans="5:5">
-      <c r="E724" s="17"/>
+      <c r="E724" s="18"/>
     </row>
     <row r="725" customHeight="1" spans="5:5">
-      <c r="E725" s="17"/>
+      <c r="E725" s="18"/>
     </row>
     <row r="726" customHeight="1" spans="5:5">
-      <c r="E726" s="17"/>
+      <c r="E726" s="18"/>
     </row>
     <row r="727" customHeight="1" spans="5:5">
-      <c r="E727" s="17"/>
+      <c r="E727" s="18"/>
     </row>
     <row r="728" customHeight="1" spans="5:5">
-      <c r="E728" s="17"/>
+      <c r="E728" s="18"/>
     </row>
     <row r="729" customHeight="1" spans="5:5">
-      <c r="E729" s="17"/>
+      <c r="E729" s="18"/>
     </row>
     <row r="730" customHeight="1" spans="5:5">
-      <c r="E730" s="17"/>
+      <c r="E730" s="18"/>
     </row>
     <row r="731" customHeight="1" spans="5:5">
-      <c r="E731" s="17"/>
+      <c r="E731" s="18"/>
     </row>
     <row r="732" customHeight="1" spans="5:5">
-      <c r="E732" s="17"/>
+      <c r="E732" s="18"/>
     </row>
     <row r="733" customHeight="1" spans="5:5">
-      <c r="E733" s="17"/>
+      <c r="E733" s="18"/>
     </row>
     <row r="734" customHeight="1" spans="5:5">
-      <c r="E734" s="17"/>
+      <c r="E734" s="18"/>
     </row>
     <row r="735" customHeight="1" spans="5:5">
-      <c r="E735" s="17"/>
+      <c r="E735" s="18"/>
     </row>
     <row r="736" customHeight="1" spans="5:5">
-      <c r="E736" s="17"/>
+      <c r="E736" s="18"/>
     </row>
     <row r="737" customHeight="1" spans="5:5">
-      <c r="E737" s="17"/>
+      <c r="E737" s="18"/>
     </row>
     <row r="738" customHeight="1" spans="5:5">
-      <c r="E738" s="17"/>
+      <c r="E738" s="18"/>
     </row>
     <row r="739" customHeight="1" spans="5:5">
-      <c r="E739" s="17"/>
+      <c r="E739" s="18"/>
     </row>
     <row r="740" customHeight="1" spans="5:5">
-      <c r="E740" s="17"/>
+      <c r="E740" s="18"/>
     </row>
     <row r="741" customHeight="1" spans="5:5">
-      <c r="E741" s="17"/>
+      <c r="E741" s="18"/>
     </row>
     <row r="742" customHeight="1" spans="5:5">
-      <c r="E742" s="17"/>
+      <c r="E742" s="18"/>
     </row>
     <row r="743" customHeight="1" spans="5:5">
-      <c r="E743" s="17"/>
+      <c r="E743" s="18"/>
     </row>
     <row r="744" customHeight="1" spans="5:5">
-      <c r="E744" s="17"/>
+      <c r="E744" s="18"/>
     </row>
     <row r="745" customHeight="1" spans="5:5">
-      <c r="E745" s="17"/>
+      <c r="E745" s="18"/>
     </row>
     <row r="746" customHeight="1" spans="5:5">
-      <c r="E746" s="17"/>
+      <c r="E746" s="18"/>
     </row>
     <row r="747" customHeight="1" spans="5:5">
-      <c r="E747" s="17"/>
+      <c r="E747" s="18"/>
     </row>
     <row r="748" customHeight="1" spans="5:5">
-      <c r="E748" s="17"/>
+      <c r="E748" s="18"/>
     </row>
     <row r="749" customHeight="1" spans="5:5">
-      <c r="E749" s="17"/>
+      <c r="E749" s="18"/>
     </row>
     <row r="750" customHeight="1" spans="5:5">
-      <c r="E750" s="17"/>
+      <c r="E750" s="18"/>
     </row>
     <row r="751" customHeight="1" spans="5:5">
-      <c r="E751" s="17"/>
+      <c r="E751" s="18"/>
     </row>
     <row r="752" customHeight="1" spans="5:5">
-      <c r="E752" s="17"/>
+      <c r="E752" s="18"/>
     </row>
     <row r="753" customHeight="1" spans="5:5">
-      <c r="E753" s="17"/>
+      <c r="E753" s="18"/>
     </row>
     <row r="754" customHeight="1" spans="5:5">
-      <c r="E754" s="17"/>
+      <c r="E754" s="18"/>
     </row>
     <row r="755" customHeight="1" spans="5:5">
-      <c r="E755" s="17"/>
+      <c r="E755" s="18"/>
     </row>
     <row r="756" customHeight="1" spans="5:5">
-      <c r="E756" s="17"/>
+      <c r="E756" s="18"/>
     </row>
     <row r="757" customHeight="1" spans="5:5">
-      <c r="E757" s="17"/>
+      <c r="E757" s="18"/>
     </row>
     <row r="758" customHeight="1" spans="5:5">
-      <c r="E758" s="17"/>
+      <c r="E758" s="18"/>
     </row>
     <row r="759" customHeight="1" spans="5:5">
-      <c r="E759" s="17"/>
+      <c r="E759" s="18"/>
     </row>
     <row r="760" customHeight="1" spans="5:5">
-      <c r="E760" s="17"/>
+      <c r="E760" s="18"/>
     </row>
     <row r="761" customHeight="1" spans="5:5">
-      <c r="E761" s="17"/>
+      <c r="E761" s="18"/>
     </row>
     <row r="762" customHeight="1" spans="5:5">
-      <c r="E762" s="17"/>
+      <c r="E762" s="18"/>
     </row>
     <row r="763" customHeight="1" spans="5:5">
-      <c r="E763" s="17"/>
+      <c r="E763" s="18"/>
     </row>
     <row r="764" customHeight="1" spans="5:5">
-      <c r="E764" s="17"/>
+      <c r="E764" s="18"/>
     </row>
     <row r="765" customHeight="1" spans="5:5">
-      <c r="E765" s="17"/>
+      <c r="E765" s="18"/>
     </row>
     <row r="766" customHeight="1" spans="5:5">
-      <c r="E766" s="17"/>
+      <c r="E766" s="18"/>
     </row>
     <row r="767" customHeight="1" spans="5:5">
-      <c r="E767" s="17"/>
+      <c r="E767" s="18"/>
     </row>
     <row r="768" customHeight="1" spans="5:5">
-      <c r="E768" s="17"/>
+      <c r="E768" s="18"/>
     </row>
     <row r="769" customHeight="1" spans="5:5">
-      <c r="E769" s="17"/>
+      <c r="E769" s="18"/>
     </row>
     <row r="770" customHeight="1" spans="5:5">
-      <c r="E770" s="17"/>
+      <c r="E770" s="18"/>
     </row>
     <row r="771" customHeight="1" spans="5:5">
-      <c r="E771" s="17"/>
+      <c r="E771" s="18"/>
     </row>
     <row r="772" customHeight="1" spans="5:5">
-      <c r="E772" s="17"/>
+      <c r="E772" s="18"/>
     </row>
     <row r="773" customHeight="1" spans="5:5">
-      <c r="E773" s="17"/>
+      <c r="E773" s="18"/>
     </row>
     <row r="774" customHeight="1" spans="5:5">
-      <c r="E774" s="17"/>
+      <c r="E774" s="18"/>
     </row>
     <row r="775" customHeight="1" spans="5:5">
-      <c r="E775" s="17"/>
+      <c r="E775" s="18"/>
     </row>
     <row r="776" customHeight="1" spans="5:5">
-      <c r="E776" s="17"/>
+      <c r="E776" s="18"/>
     </row>
     <row r="777" customHeight="1" spans="5:5">
-      <c r="E777" s="17"/>
+      <c r="E777" s="18"/>
     </row>
     <row r="778" customHeight="1" spans="5:5">
-      <c r="E778" s="17"/>
+      <c r="E778" s="18"/>
     </row>
     <row r="779" customHeight="1" spans="5:5">
-      <c r="E779" s="17"/>
+      <c r="E779" s="18"/>
     </row>
     <row r="780" customHeight="1" spans="5:5">
-      <c r="E780" s="17"/>
+      <c r="E780" s="18"/>
     </row>
     <row r="781" customHeight="1" spans="5:5">
-      <c r="E781" s="17"/>
+      <c r="E781" s="18"/>
     </row>
     <row r="782" customHeight="1" spans="5:5">
-      <c r="E782" s="17"/>
+      <c r="E782" s="18"/>
     </row>
     <row r="783" customHeight="1" spans="5:5">
-      <c r="E783" s="17"/>
+      <c r="E783" s="18"/>
     </row>
     <row r="784" customHeight="1" spans="5:5">
-      <c r="E784" s="17"/>
+      <c r="E784" s="18"/>
     </row>
     <row r="785" customHeight="1" spans="5:5">
-      <c r="E785" s="17"/>
+      <c r="E785" s="18"/>
     </row>
     <row r="786" customHeight="1" spans="5:5">
-      <c r="E786" s="17"/>
+      <c r="E786" s="18"/>
     </row>
     <row r="787" customHeight="1" spans="5:5">
-      <c r="E787" s="17"/>
+      <c r="E787" s="18"/>
     </row>
     <row r="788" customHeight="1" spans="5:5">
-      <c r="E788" s="17"/>
+      <c r="E788" s="18"/>
     </row>
     <row r="789" customHeight="1" spans="5:5">
-      <c r="E789" s="17"/>
+      <c r="E789" s="18"/>
     </row>
     <row r="790" customHeight="1" spans="5:5">
-      <c r="E790" s="17"/>
+      <c r="E790" s="18"/>
     </row>
     <row r="791" customHeight="1" spans="5:5">
-      <c r="E791" s="17"/>
+      <c r="E791" s="18"/>
     </row>
     <row r="792" customHeight="1" spans="5:5">
-      <c r="E792" s="17"/>
+      <c r="E792" s="18"/>
     </row>
     <row r="793" customHeight="1" spans="5:5">
-      <c r="E793" s="17"/>
+      <c r="E793" s="18"/>
     </row>
     <row r="794" customHeight="1" spans="5:5">
-      <c r="E794" s="17"/>
+      <c r="E794" s="18"/>
     </row>
     <row r="795" customHeight="1" spans="5:5">
-      <c r="E795" s="17"/>
+      <c r="E795" s="18"/>
     </row>
     <row r="796" customHeight="1" spans="5:5">
-      <c r="E796" s="17"/>
+      <c r="E796" s="18"/>
     </row>
     <row r="797" customHeight="1" spans="5:5">
-      <c r="E797" s="17"/>
+      <c r="E797" s="18"/>
     </row>
     <row r="798" customHeight="1" spans="5:5">
-      <c r="E798" s="17"/>
+      <c r="E798" s="18"/>
     </row>
     <row r="799" customHeight="1" spans="5:5">
-      <c r="E799" s="17"/>
+      <c r="E799" s="18"/>
     </row>
     <row r="800" customHeight="1" spans="5:5">
-      <c r="E800" s="17"/>
+      <c r="E800" s="18"/>
     </row>
     <row r="801" customHeight="1" spans="5:5">
-      <c r="E801" s="17"/>
+      <c r="E801" s="18"/>
     </row>
     <row r="802" customHeight="1" spans="5:5">
-      <c r="E802" s="17"/>
+      <c r="E802" s="18"/>
     </row>
     <row r="803" customHeight="1" spans="5:5">
-      <c r="E803" s="17"/>
+      <c r="E803" s="18"/>
     </row>
     <row r="804" customHeight="1" spans="5:5">
-      <c r="E804" s="17"/>
+      <c r="E804" s="18"/>
     </row>
     <row r="805" customHeight="1" spans="5:5">
-      <c r="E805" s="17"/>
+      <c r="E805" s="18"/>
     </row>
     <row r="806" customHeight="1" spans="5:5">
-      <c r="E806" s="17"/>
+      <c r="E806" s="18"/>
     </row>
     <row r="807" customHeight="1" spans="5:5">
-      <c r="E807" s="17"/>
+      <c r="E807" s="18"/>
     </row>
     <row r="808" customHeight="1" spans="5:5">
-      <c r="E808" s="17"/>
+      <c r="E808" s="18"/>
     </row>
     <row r="809" customHeight="1" spans="5:5">
-      <c r="E809" s="17"/>
+      <c r="E809" s="18"/>
     </row>
     <row r="810" customHeight="1" spans="5:5">
-      <c r="E810" s="17"/>
+      <c r="E810" s="18"/>
     </row>
     <row r="811" customHeight="1" spans="5:5">
-      <c r="E811" s="17"/>
+      <c r="E811" s="18"/>
     </row>
     <row r="812" customHeight="1" spans="5:5">
-      <c r="E812" s="17"/>
+      <c r="E812" s="18"/>
     </row>
     <row r="813" customHeight="1" spans="5:5">
-      <c r="E813" s="17"/>
+      <c r="E813" s="18"/>
     </row>
     <row r="814" customHeight="1" spans="5:5">
-      <c r="E814" s="17"/>
+      <c r="E814" s="18"/>
     </row>
     <row r="815" customHeight="1" spans="5:5">
-      <c r="E815" s="17"/>
+      <c r="E815" s="18"/>
     </row>
     <row r="816" customHeight="1" spans="5:5">
-      <c r="E816" s="17"/>
+      <c r="E816" s="18"/>
     </row>
     <row r="817" customHeight="1" spans="5:5">
-      <c r="E817" s="17"/>
+      <c r="E817" s="18"/>
     </row>
     <row r="818" customHeight="1" spans="5:5">
-      <c r="E818" s="17"/>
+      <c r="E818" s="18"/>
     </row>
     <row r="819" customHeight="1" spans="5:5">
-      <c r="E819" s="17"/>
+      <c r="E819" s="18"/>
     </row>
     <row r="820" customHeight="1" spans="5:5">
-      <c r="E820" s="17"/>
+      <c r="E820" s="18"/>
     </row>
     <row r="821" customHeight="1" spans="5:5">
-      <c r="E821" s="17"/>
+      <c r="E821" s="18"/>
     </row>
     <row r="822" customHeight="1" spans="5:5">
-      <c r="E822" s="17"/>
+      <c r="E822" s="18"/>
     </row>
     <row r="823" customHeight="1" spans="5:5">
-      <c r="E823" s="17"/>
+      <c r="E823" s="18"/>
     </row>
     <row r="824" customHeight="1" spans="5:5">
-      <c r="E824" s="17"/>
+      <c r="E824" s="18"/>
     </row>
     <row r="825" customHeight="1" spans="5:5">
-      <c r="E825" s="17"/>
+      <c r="E825" s="18"/>
     </row>
     <row r="826" customHeight="1" spans="5:5">
-      <c r="E826" s="17"/>
+      <c r="E826" s="18"/>
     </row>
     <row r="827" customHeight="1" spans="5:5">
-      <c r="E827" s="17"/>
+      <c r="E827" s="18"/>
     </row>
     <row r="828" customHeight="1" spans="5:5">
-      <c r="E828" s="17"/>
+      <c r="E828" s="18"/>
     </row>
     <row r="829" customHeight="1" spans="5:5">
-      <c r="E829" s="17"/>
+      <c r="E829" s="18"/>
     </row>
     <row r="830" customHeight="1" spans="5:5">
-      <c r="E830" s="17"/>
+      <c r="E830" s="18"/>
     </row>
     <row r="831" customHeight="1" spans="5:5">
-      <c r="E831" s="17"/>
+      <c r="E831" s="18"/>
     </row>
     <row r="832" customHeight="1" spans="5:5">
-      <c r="E832" s="17"/>
+      <c r="E832" s="18"/>
     </row>
     <row r="833" customHeight="1" spans="5:5">
-      <c r="E833" s="17"/>
+      <c r="E833" s="18"/>
     </row>
     <row r="834" customHeight="1" spans="5:5">
-      <c r="E834" s="17"/>
+      <c r="E834" s="18"/>
     </row>
     <row r="835" customHeight="1" spans="5:5">
-      <c r="E835" s="17"/>
+      <c r="E835" s="18"/>
     </row>
     <row r="836" customHeight="1" spans="5:5">
-      <c r="E836" s="17"/>
+      <c r="E836" s="18"/>
     </row>
     <row r="837" customHeight="1" spans="5:5">
-      <c r="E837" s="17"/>
+      <c r="E837" s="18"/>
     </row>
     <row r="838" customHeight="1" spans="5:5">
-      <c r="E838" s="17"/>
+      <c r="E838" s="18"/>
     </row>
     <row r="839" customHeight="1" spans="5:5">
-      <c r="E839" s="17"/>
+      <c r="E839" s="18"/>
     </row>
     <row r="840" customHeight="1" spans="5:5">
-      <c r="E840" s="17"/>
+      <c r="E840" s="18"/>
     </row>
     <row r="841" customHeight="1" spans="5:5">
-      <c r="E841" s="17"/>
+      <c r="E841" s="18"/>
     </row>
     <row r="842" customHeight="1" spans="5:5">
-      <c r="E842" s="17"/>
+      <c r="E842" s="18"/>
     </row>
     <row r="843" customHeight="1" spans="5:5">
-      <c r="E843" s="17"/>
+      <c r="E843" s="18"/>
     </row>
     <row r="844" customHeight="1" spans="5:5">
-      <c r="E844" s="17"/>
+      <c r="E844" s="18"/>
     </row>
     <row r="845" customHeight="1" spans="5:5">
-      <c r="E845" s="17"/>
+      <c r="E845" s="18"/>
     </row>
     <row r="846" customHeight="1" spans="5:5">
-      <c r="E846" s="17"/>
+      <c r="E846" s="18"/>
     </row>
     <row r="847" customHeight="1" spans="5:5">
-      <c r="E847" s="17"/>
+      <c r="E847" s="18"/>
     </row>
     <row r="848" customHeight="1" spans="5:5">
-      <c r="E848" s="17"/>
+      <c r="E848" s="18"/>
     </row>
     <row r="849" customHeight="1" spans="5:5">
-      <c r="E849" s="17"/>
+      <c r="E849" s="18"/>
     </row>
     <row r="850" customHeight="1" spans="5:5">
-      <c r="E850" s="17"/>
+      <c r="E850" s="18"/>
     </row>
     <row r="851" customHeight="1" spans="5:5">
-      <c r="E851" s="17"/>
+      <c r="E851" s="18"/>
     </row>
     <row r="852" customHeight="1" spans="5:5">
-      <c r="E852" s="17"/>
+      <c r="E852" s="18"/>
     </row>
     <row r="853" customHeight="1" spans="5:5">
-      <c r="E853" s="17"/>
+      <c r="E853" s="18"/>
     </row>
     <row r="854" customHeight="1" spans="5:5">
-      <c r="E854" s="17"/>
+      <c r="E854" s="18"/>
     </row>
     <row r="855" customHeight="1" spans="5:5">
-      <c r="E855" s="17"/>
+      <c r="E855" s="18"/>
     </row>
     <row r="856" customHeight="1" spans="5:5">
-      <c r="E856" s="17"/>
+      <c r="E856" s="18"/>
     </row>
     <row r="857" customHeight="1" spans="5:5">
-      <c r="E857" s="17"/>
+      <c r="E857" s="18"/>
     </row>
     <row r="858" customHeight="1" spans="5:5">
-      <c r="E858" s="17"/>
+      <c r="E858" s="18"/>
     </row>
     <row r="859" customHeight="1" spans="5:5">
-      <c r="E859" s="17"/>
+      <c r="E859" s="18"/>
     </row>
     <row r="860" customHeight="1" spans="5:5">
-      <c r="E860" s="17"/>
+      <c r="E860" s="18"/>
     </row>
     <row r="861" customHeight="1" spans="5:5">
-      <c r="E861" s="17"/>
+      <c r="E861" s="18"/>
     </row>
     <row r="862" customHeight="1" spans="5:5">
-      <c r="E862" s="17"/>
+      <c r="E862" s="18"/>
     </row>
     <row r="863" customHeight="1" spans="5:5">
-      <c r="E863" s="17"/>
+      <c r="E863" s="18"/>
     </row>
     <row r="864" customHeight="1" spans="5:5">
-      <c r="E864" s="17"/>
+      <c r="E864" s="18"/>
     </row>
     <row r="865" customHeight="1" spans="5:5">
-      <c r="E865" s="17"/>
+      <c r="E865" s="18"/>
     </row>
     <row r="866" customHeight="1" spans="5:5">
-      <c r="E866" s="17"/>
+      <c r="E866" s="18"/>
     </row>
     <row r="867" customHeight="1" spans="5:5">
-      <c r="E867" s="17"/>
+      <c r="E867" s="18"/>
     </row>
     <row r="868" customHeight="1" spans="5:5">
-      <c r="E868" s="17"/>
+      <c r="E868" s="18"/>
     </row>
     <row r="869" customHeight="1" spans="5:5">
-      <c r="E869" s="17"/>
+      <c r="E869" s="18"/>
     </row>
     <row r="870" customHeight="1" spans="5:5">
-      <c r="E870" s="17"/>
+      <c r="E870" s="18"/>
     </row>
     <row r="871" customHeight="1" spans="5:5">
-      <c r="E871" s="17"/>
+      <c r="E871" s="18"/>
     </row>
     <row r="872" customHeight="1" spans="5:5">
-      <c r="E872" s="17"/>
+      <c r="E872" s="18"/>
     </row>
     <row r="873" customHeight="1" spans="5:5">
-      <c r="E873" s="17"/>
+      <c r="E873" s="18"/>
     </row>
     <row r="874" customHeight="1" spans="5:5">
-      <c r="E874" s="17"/>
+      <c r="E874" s="18"/>
     </row>
     <row r="875" customHeight="1" spans="5:5">
-      <c r="E875" s="17"/>
+      <c r="E875" s="18"/>
     </row>
     <row r="876" customHeight="1" spans="5:5">
-      <c r="E876" s="17"/>
+      <c r="E876" s="18"/>
     </row>
     <row r="877" customHeight="1" spans="5:5">
-      <c r="E877" s="17"/>
+      <c r="E877" s="18"/>
     </row>
     <row r="878" customHeight="1" spans="5:5">
-      <c r="E878" s="17"/>
+      <c r="E878" s="18"/>
     </row>
     <row r="879" customHeight="1" spans="5:5">
-      <c r="E879" s="17"/>
+      <c r="E879" s="18"/>
     </row>
     <row r="880" customHeight="1" spans="5:5">
-      <c r="E880" s="17"/>
+      <c r="E880" s="18"/>
     </row>
     <row r="881" customHeight="1" spans="5:5">
-      <c r="E881" s="17"/>
+      <c r="E881" s="18"/>
     </row>
     <row r="882" customHeight="1" spans="5:5">
-      <c r="E882" s="17"/>
+      <c r="E882" s="18"/>
     </row>
     <row r="883" customHeight="1" spans="5:5">
-      <c r="E883" s="17"/>
+      <c r="E883" s="18"/>
     </row>
     <row r="884" customHeight="1" spans="5:5">
-      <c r="E884" s="17"/>
+      <c r="E884" s="18"/>
     </row>
     <row r="885" customHeight="1" spans="5:5">
-      <c r="E885" s="17"/>
+      <c r="E885" s="18"/>
     </row>
     <row r="886" customHeight="1" spans="5:5">
-      <c r="E886" s="17"/>
+      <c r="E886" s="18"/>
     </row>
     <row r="887" customHeight="1" spans="5:5">
-      <c r="E887" s="17"/>
+      <c r="E887" s="18"/>
     </row>
     <row r="888" customHeight="1" spans="5:5">
-      <c r="E888" s="17"/>
+      <c r="E888" s="18"/>
     </row>
     <row r="889" customHeight="1" spans="5:5">
-      <c r="E889" s="17"/>
+      <c r="E889" s="18"/>
     </row>
     <row r="890" customHeight="1" spans="5:5">
-      <c r="E890" s="17"/>
+      <c r="E890" s="18"/>
     </row>
     <row r="891" customHeight="1" spans="5:5">
-      <c r="E891" s="17"/>
+      <c r="E891" s="18"/>
     </row>
     <row r="892" customHeight="1" spans="5:5">
-      <c r="E892" s="17"/>
+      <c r="E892" s="18"/>
     </row>
     <row r="893" customHeight="1" spans="5:5">
-      <c r="E893" s="17"/>
+      <c r="E893" s="18"/>
     </row>
     <row r="894" customHeight="1" spans="5:5">
-      <c r="E894" s="17"/>
+      <c r="E894" s="18"/>
     </row>
     <row r="895" customHeight="1" spans="5:5">
-      <c r="E895" s="17"/>
+      <c r="E895" s="18"/>
     </row>
     <row r="896" customHeight="1" spans="5:5">
-      <c r="E896" s="17"/>
+      <c r="E896" s="18"/>
     </row>
     <row r="897" customHeight="1" spans="5:5">
-      <c r="E897" s="17"/>
+      <c r="E897" s="18"/>
     </row>
     <row r="898" customHeight="1" spans="5:5">
-      <c r="E898" s="17"/>
+      <c r="E898" s="18"/>
     </row>
     <row r="899" customHeight="1" spans="5:5">
-      <c r="E899" s="17"/>
+      <c r="E899" s="18"/>
     </row>
     <row r="900" customHeight="1" spans="5:5">
-      <c r="E900" s="17"/>
+      <c r="E900" s="18"/>
     </row>
     <row r="901" customHeight="1" spans="5:5">
-      <c r="E901" s="17"/>
+      <c r="E901" s="18"/>
     </row>
     <row r="902" customHeight="1" spans="5:5">
-      <c r="E902" s="17"/>
+      <c r="E902" s="18"/>
     </row>
     <row r="903" customHeight="1" spans="5:5">
-      <c r="E903" s="17"/>
+      <c r="E903" s="18"/>
     </row>
     <row r="904" customHeight="1" spans="5:5">
-      <c r="E904" s="17"/>
+      <c r="E904" s="18"/>
     </row>
     <row r="905" customHeight="1" spans="5:5">
-      <c r="E905" s="17"/>
+      <c r="E905" s="18"/>
     </row>
     <row r="906" customHeight="1" spans="5:5">
-      <c r="E906" s="17"/>
+      <c r="E906" s="18"/>
     </row>
     <row r="907" customHeight="1" spans="5:5">
-      <c r="E907" s="17"/>
+      <c r="E907" s="18"/>
     </row>
     <row r="908" customHeight="1" spans="5:5">
-      <c r="E908" s="17"/>
+      <c r="E908" s="18"/>
     </row>
     <row r="909" customHeight="1" spans="5:5">
-      <c r="E909" s="17"/>
+      <c r="E909" s="18"/>
     </row>
     <row r="910" customHeight="1" spans="5:5">
-      <c r="E910" s="17"/>
+      <c r="E910" s="18"/>
     </row>
     <row r="911" customHeight="1" spans="5:5">
-      <c r="E911" s="17"/>
+      <c r="E911" s="18"/>
     </row>
     <row r="912" customHeight="1" spans="5:5">
-      <c r="E912" s="17"/>
+      <c r="E912" s="18"/>
     </row>
     <row r="913" customHeight="1" spans="5:5">
-      <c r="E913" s="17"/>
+      <c r="E913" s="18"/>
     </row>
     <row r="914" customHeight="1" spans="5:5">
-      <c r="E914" s="17"/>
+      <c r="E914" s="18"/>
     </row>
     <row r="915" customHeight="1" spans="5:5">
-      <c r="E915" s="17"/>
+      <c r="E915" s="18"/>
     </row>
     <row r="916" customHeight="1" spans="5:5">
-      <c r="E916" s="17"/>
+      <c r="E916" s="18"/>
     </row>
     <row r="917" customHeight="1" spans="5:5">
-      <c r="E917" s="17"/>
+      <c r="E917" s="18"/>
     </row>
     <row r="918" customHeight="1" spans="5:5">
-      <c r="E918" s="17"/>
+      <c r="E918" s="18"/>
     </row>
     <row r="919" customHeight="1" spans="5:5">
-      <c r="E919" s="17"/>
+      <c r="E919" s="18"/>
     </row>
     <row r="920" customHeight="1" spans="5:5">
-      <c r="E920" s="17"/>
+      <c r="E920" s="18"/>
     </row>
     <row r="921" customHeight="1" spans="5:5">
-      <c r="E921" s="17"/>
+      <c r="E921" s="18"/>
     </row>
     <row r="922" customHeight="1" spans="5:5">
-      <c r="E922" s="17"/>
+      <c r="E922" s="18"/>
     </row>
     <row r="923" customHeight="1" spans="5:5">
-      <c r="E923" s="17"/>
+      <c r="E923" s="18"/>
     </row>
     <row r="924" customHeight="1" spans="5:5">
-      <c r="E924" s="17"/>
+      <c r="E924" s="18"/>
     </row>
     <row r="925" customHeight="1" spans="5:5">
-      <c r="E925" s="17"/>
+      <c r="E925" s="18"/>
     </row>
     <row r="926" customHeight="1" spans="5:5">
-      <c r="E926" s="17"/>
+      <c r="E926" s="18"/>
     </row>
     <row r="927" customHeight="1" spans="5:5">
-      <c r="E927" s="17"/>
+      <c r="E927" s="18"/>
     </row>
     <row r="928" customHeight="1" spans="5:5">
-      <c r="E928" s="17"/>
+      <c r="E928" s="18"/>
     </row>
     <row r="929" customHeight="1" spans="5:5">
-      <c r="E929" s="17"/>
+      <c r="E929" s="18"/>
     </row>
     <row r="930" customHeight="1" spans="5:5">
-      <c r="E930" s="17"/>
+      <c r="E930" s="18"/>
     </row>
     <row r="931" customHeight="1" spans="5:5">
-      <c r="E931" s="17"/>
+      <c r="E931" s="18"/>
     </row>
     <row r="932" customHeight="1" spans="5:5">
-      <c r="E932" s="17"/>
+      <c r="E932" s="18"/>
     </row>
     <row r="933" customHeight="1" spans="5:5">
-      <c r="E933" s="17"/>
+      <c r="E933" s="18"/>
     </row>
     <row r="934" customHeight="1" spans="5:5">
-      <c r="E934" s="17"/>
+      <c r="E934" s="18"/>
     </row>
     <row r="935" customHeight="1" spans="5:5">
-      <c r="E935" s="17"/>
+      <c r="E935" s="18"/>
     </row>
     <row r="936" customHeight="1" spans="5:5">
-      <c r="E936" s="17"/>
+      <c r="E936" s="18"/>
     </row>
     <row r="937" customHeight="1" spans="5:5">
-      <c r="E937" s="17"/>
+      <c r="E937" s="18"/>
     </row>
     <row r="938" customHeight="1" spans="5:5">
-      <c r="E938" s="17"/>
+      <c r="E938" s="18"/>
     </row>
     <row r="939" customHeight="1" spans="5:5">
-      <c r="E939" s="17"/>
+      <c r="E939" s="18"/>
     </row>
     <row r="940" customHeight="1" spans="5:5">
-      <c r="E940" s="17"/>
+      <c r="E940" s="18"/>
     </row>
     <row r="941" customHeight="1" spans="5:5">
-      <c r="E941" s="17"/>
+      <c r="E941" s="18"/>
     </row>
     <row r="942" customHeight="1" spans="5:5">
-      <c r="E942" s="17"/>
+      <c r="E942" s="18"/>
     </row>
     <row r="943" customHeight="1" spans="5:5">
-      <c r="E943" s="17"/>
+      <c r="E943" s="18"/>
     </row>
     <row r="944" customHeight="1" spans="5:5">
-      <c r="E944" s="17"/>
+      <c r="E944" s="18"/>
     </row>
     <row r="945" customHeight="1" spans="5:5">
-      <c r="E945" s="17"/>
+      <c r="E945" s="18"/>
     </row>
     <row r="946" customHeight="1" spans="5:5">
-      <c r="E946" s="17"/>
+      <c r="E946" s="18"/>
     </row>
     <row r="947" customHeight="1" spans="5:5">
-      <c r="E947" s="17"/>
+      <c r="E947" s="18"/>
     </row>
     <row r="948" customHeight="1" spans="5:5">
-      <c r="E948" s="17"/>
+      <c r="E948" s="18"/>
     </row>
     <row r="949" customHeight="1" spans="5:5">
-      <c r="E949" s="17"/>
+      <c r="E949" s="18"/>
     </row>
     <row r="950" customHeight="1" spans="5:5">
-      <c r="E950" s="17"/>
+      <c r="E950" s="18"/>
     </row>
     <row r="951" customHeight="1" spans="5:5">
-      <c r="E951" s="17"/>
+      <c r="E951" s="18"/>
     </row>
     <row r="952" customHeight="1" spans="5:5">
-      <c r="E952" s="17"/>
+      <c r="E952" s="18"/>
     </row>
     <row r="953" customHeight="1" spans="5:5">
-      <c r="E953" s="17"/>
+      <c r="E953" s="18"/>
     </row>
     <row r="954" customHeight="1" spans="5:5">
-      <c r="E954" s="17"/>
+      <c r="E954" s="18"/>
     </row>
     <row r="955" customHeight="1" spans="5:5">
-      <c r="E955" s="17"/>
+      <c r="E955" s="18"/>
     </row>
     <row r="956" customHeight="1" spans="5:5">
-      <c r="E956" s="17"/>
+      <c r="E956" s="18"/>
     </row>
     <row r="957" customHeight="1" spans="5:5">
-      <c r="E957" s="17"/>
+      <c r="E957" s="18"/>
     </row>
     <row r="958" customHeight="1" spans="5:5">
-      <c r="E958" s="17"/>
+      <c r="E958" s="18"/>
     </row>
     <row r="959" customHeight="1" spans="5:5">
-      <c r="E959" s="17"/>
+      <c r="E959" s="18"/>
     </row>
     <row r="960" customHeight="1" spans="5:5">
-      <c r="E960" s="17"/>
+      <c r="E960" s="18"/>
     </row>
     <row r="961" customHeight="1" spans="5:5">
-      <c r="E961" s="17"/>
+      <c r="E961" s="18"/>
     </row>
     <row r="962" customHeight="1" spans="5:5">
-      <c r="E962" s="17"/>
+      <c r="E962" s="18"/>
     </row>
     <row r="963" customHeight="1" spans="5:5">
-      <c r="E963" s="17"/>
+      <c r="E963" s="18"/>
     </row>
     <row r="964" customHeight="1" spans="5:5">
-      <c r="E964" s="17"/>
+      <c r="E964" s="18"/>
     </row>
     <row r="965" customHeight="1" spans="5:5">
-      <c r="E965" s="17"/>
+      <c r="E965" s="18"/>
     </row>
     <row r="966" customHeight="1" spans="5:5">
-      <c r="E966" s="17"/>
+      <c r="E966" s="18"/>
     </row>
     <row r="967" customHeight="1" spans="5:5">
-      <c r="E967" s="17"/>
+      <c r="E967" s="18"/>
     </row>
     <row r="968" customHeight="1" spans="5:5">
-      <c r="E968" s="17"/>
+      <c r="E968" s="18"/>
     </row>
     <row r="969" customHeight="1" spans="5:5">
-      <c r="E969" s="17"/>
+      <c r="E969" s="18"/>
     </row>
     <row r="970" customHeight="1" spans="5:5">
-      <c r="E970" s="17"/>
+      <c r="E970" s="18"/>
     </row>
     <row r="971" customHeight="1" spans="5:5">
-      <c r="E971" s="17"/>
+      <c r="E971" s="18"/>
     </row>
     <row r="972" customHeight="1" spans="5:5">
-      <c r="E972" s="17"/>
+      <c r="E972" s="18"/>
     </row>
     <row r="973" customHeight="1" spans="5:5">
-      <c r="E973" s="17"/>
+      <c r="E973" s="18"/>
     </row>
     <row r="974" customHeight="1" spans="5:5">
-      <c r="E974" s="17"/>
+      <c r="E974" s="18"/>
     </row>
     <row r="975" customHeight="1" spans="5:5">
-      <c r="E975" s="17"/>
+      <c r="E975" s="18"/>
     </row>
     <row r="976" customHeight="1" spans="5:5">
-      <c r="E976" s="17"/>
+      <c r="E976" s="18"/>
     </row>
     <row r="977" customHeight="1" spans="5:5">
-      <c r="E977" s="17"/>
+      <c r="E977" s="18"/>
     </row>
     <row r="978" customHeight="1" spans="5:5">
-      <c r="E978" s="17"/>
+      <c r="E978" s="18"/>
     </row>
     <row r="979" customHeight="1" spans="5:5">
-      <c r="E979" s="17"/>
+      <c r="E979" s="18"/>
     </row>
     <row r="980" customHeight="1" spans="5:5">
-      <c r="E980" s="17"/>
+      <c r="E980" s="18"/>
     </row>
     <row r="981" customHeight="1" spans="5:5">
-      <c r="E981" s="17"/>
+      <c r="E981" s="18"/>
     </row>
     <row r="982" customHeight="1" spans="5:5">
-      <c r="E982" s="17"/>
+      <c r="E982" s="18"/>
     </row>
     <row r="983" customHeight="1" spans="5:5">
-      <c r="E983" s="17"/>
+      <c r="E983" s="18"/>
     </row>
     <row r="984" customHeight="1" spans="5:5">
-      <c r="E984" s="17"/>
+      <c r="E984" s="18"/>
     </row>
     <row r="985" customHeight="1" spans="5:5">
-      <c r="E985" s="17"/>
+      <c r="E985" s="18"/>
     </row>
     <row r="986" customHeight="1" spans="5:5">
-      <c r="E986" s="17"/>
+      <c r="E986" s="18"/>
     </row>
     <row r="987" customHeight="1" spans="5:5">
-      <c r="E987" s="17"/>
+      <c r="E987" s="18"/>
     </row>
     <row r="988" customHeight="1" spans="5:5">
-      <c r="E988" s="17"/>
+      <c r="E988" s="18"/>
     </row>
     <row r="989" customHeight="1" spans="5:5">
-      <c r="E989" s="17"/>
+      <c r="E989" s="18"/>
     </row>
     <row r="990" customHeight="1" spans="5:5">
-      <c r="E990" s="17"/>
+      <c r="E990" s="18"/>
     </row>
     <row r="991" customHeight="1" spans="5:5">
-      <c r="E991" s="17"/>
+      <c r="E991" s="18"/>
     </row>
     <row r="992" customHeight="1" spans="5:5">
-      <c r="E992" s="17"/>
+      <c r="E992" s="18"/>
     </row>
     <row r="993" customHeight="1" spans="5:5">
-      <c r="E993" s="17"/>
+      <c r="E993" s="18"/>
     </row>
     <row r="994" customHeight="1" spans="5:5">
-      <c r="E994" s="17"/>
+      <c r="E994" s="18"/>
     </row>
     <row r="995" customHeight="1" spans="5:5">
-      <c r="E995" s="17"/>
+      <c r="E995" s="18"/>
     </row>
     <row r="996" customHeight="1" spans="5:5">
-      <c r="E996" s="17"/>
+      <c r="E996" s="18"/>
     </row>
     <row r="997" customHeight="1" spans="5:5">
-      <c r="E997" s="17"/>
+      <c r="E997" s="18"/>
     </row>
     <row r="998" customHeight="1" spans="5:5">
-      <c r="E998" s="17"/>
+      <c r="E998" s="18"/>
     </row>
     <row r="999" customHeight="1" spans="5:5">
-      <c r="E999" s="17"/>
+      <c r="E999" s="18"/>
     </row>
     <row r="1000" customHeight="1" spans="5:5">
-      <c r="E1000" s="17"/>
+      <c r="E1000" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5476,7 +5489,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -6944,7 +6957,7 @@
       <c r="F56" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H56" s="2"/>
@@ -6957,12 +6970,24 @@
       <c r="B57" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="3">
+        <v>42889</v>
+      </c>
+      <c r="E57" s="4">
+        <v>394000</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
@@ -6972,12 +6997,22 @@
       <c r="B58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="4"/>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3">
+        <v>42890</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1666000</v>
+      </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
@@ -6987,12 +7022,23 @@
       <c r="B59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="4"/>
+      <c r="C59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="3">
+        <v>42890</v>
+      </c>
+      <c r="E59" s="4">
+        <f>450000+600000</f>
+        <v>1050000</v>
+      </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
@@ -7002,12 +7048,22 @@
       <c r="B60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="4"/>
+      <c r="C60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="3">
+        <v>42890</v>
+      </c>
+      <c r="E60" s="4">
+        <v>-250000</v>
+      </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
   <si>
     <t>No</t>
   </si>
@@ -396,6 +396,195 @@
   </si>
   <si>
     <t>Kelebihan uang jaga siang</t>
+  </si>
+  <si>
+    <t>Uang Lelah Dapur</t>
+  </si>
+  <si>
+    <t>Pembangunan</t>
+  </si>
+  <si>
+    <t>Uang Bongkar Kanopi</t>
+  </si>
+  <si>
+    <t>Pak Pur</t>
+  </si>
+  <si>
+    <t>Uang Hadiah</t>
+  </si>
+  <si>
+    <t>Uang Beras</t>
+  </si>
+  <si>
+    <t>B000-8</t>
+  </si>
+  <si>
+    <t>FC bulan kegiatan</t>
+  </si>
+  <si>
+    <t>Uang makan santri yg tinggal di asrama</t>
+  </si>
+  <si>
+    <t>THR</t>
+  </si>
+  <si>
+    <t>Uang bingkisan pengurus pondok</t>
+  </si>
+  <si>
+    <t>Uang Jaga Pondok</t>
+  </si>
+  <si>
+    <t>Uang Listrik</t>
+  </si>
+  <si>
+    <t>Uang Gas</t>
+  </si>
+  <si>
+    <t>Pembelian toner</t>
+  </si>
+  <si>
+    <t>Uang jumatan</t>
+  </si>
+  <si>
+    <t>B000-9</t>
+  </si>
+  <si>
+    <t>uang konsumsi santri yg baru datang</t>
+  </si>
+  <si>
+    <t>Mas Febi</t>
+  </si>
+  <si>
+    <t>Uang jaga malam dan jaga tidur</t>
+  </si>
+  <si>
+    <t>Uang Sarpras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronda </t>
+  </si>
+  <si>
+    <t>uang sampah Juni-juli</t>
+  </si>
+  <si>
+    <t>Pulsa HP</t>
+  </si>
+  <si>
+    <t>Ustadz Hidayat</t>
+  </si>
+  <si>
+    <t>Uang biaya administrasi</t>
+  </si>
+  <si>
+    <t>Uang lauk santri yg tidak puasa tasu'a</t>
+  </si>
+  <si>
+    <t>Uang jaga malam dan jaga siang dan dapur</t>
+  </si>
+  <si>
+    <t>Pinjam uang SPP untuk pembangunan</t>
+  </si>
+  <si>
+    <t>B000-10</t>
+  </si>
+  <si>
+    <t>Uang Kesehatan Juli</t>
+  </si>
+  <si>
+    <t>Uang Air minum juni 2017</t>
+  </si>
+  <si>
+    <t>Uang Pulsa</t>
+  </si>
+  <si>
+    <t>Dauroh</t>
+  </si>
+  <si>
+    <t>Abu Dzulkifli</t>
+  </si>
+  <si>
+    <t>Uang akomodasi darnas</t>
+  </si>
+  <si>
+    <t>Pulsa pondok</t>
+  </si>
+  <si>
+    <t>Uang Peralatan</t>
+  </si>
+  <si>
+    <t>Ustadz Yahya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetak jadwal </t>
+  </si>
+  <si>
+    <t>Uang jamuan makan</t>
+  </si>
+  <si>
+    <t>B000-11</t>
+  </si>
+  <si>
+    <t>Abu Zakka</t>
+  </si>
+  <si>
+    <t>Uang daftar kartu jumat</t>
+  </si>
+  <si>
+    <t>Uang konsumsi tamu ma'had</t>
+  </si>
+  <si>
+    <t>P. Djarot</t>
+  </si>
+  <si>
+    <t>Uang Linmas</t>
+  </si>
+  <si>
+    <t>Uang air minum juli 2017</t>
+  </si>
+  <si>
+    <t>Uang Sampah Agustus 2017</t>
+  </si>
+  <si>
+    <t>B000-12</t>
+  </si>
+  <si>
+    <t>Abu Farros</t>
+  </si>
+  <si>
+    <t>Pak Djarot</t>
+  </si>
+  <si>
+    <t>Uang Pulsa HP</t>
+  </si>
+  <si>
+    <t>Sampah September</t>
+  </si>
+  <si>
+    <t>B000-13</t>
+  </si>
+  <si>
+    <t>Dipinjam pembangunan</t>
+  </si>
+  <si>
+    <t>Muhammad bin Sawa</t>
+  </si>
+  <si>
+    <t>Uang lauk selama liburan</t>
+  </si>
+  <si>
+    <t>Muadz</t>
+  </si>
+  <si>
+    <t>Mukafaah Musyrif</t>
+  </si>
+  <si>
+    <t>Uang banin dipinjam pembangunan</t>
+  </si>
+  <si>
+    <t>B000-14</t>
+  </si>
+  <si>
+    <t>Operasional Mahad</t>
   </si>
 </sst>
 </file>
@@ -404,11 +593,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -437,15 +626,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,53 +654,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +671,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,47 +761,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,7 +796,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,19 +832,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,13 +892,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,19 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +946,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,79 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,6 +999,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -829,22 +1053,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,198 +1082,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,10 +1256,14 @@
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1438,196 +1631,196 @@
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="9">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="14">
         <v>42644</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="15">
         <v>3000000</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="14">
         <v>42644</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>1087500</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="9">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="14">
         <v>42644</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="15">
         <v>960000</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>42278</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>3000000</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="16">
         <v>42278</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="15">
         <v>1087500</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="14">
         <v>42292</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>556000</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="9">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="14">
         <v>42658</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="15">
         <v>40000</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="13">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="18">
         <v>42552</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="19">
         <v>1000000</v>
       </c>
       <c r="F9" t="s">
@@ -1638,16 +1831,16 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="13">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="18">
         <v>42553</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="19">
         <v>465000</v>
       </c>
       <c r="F10" t="s">
@@ -1658,16 +1851,16 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="13">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="18">
         <v>42553</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="19">
         <v>180000</v>
       </c>
       <c r="F11" t="s">
@@ -1678,16 +1871,16 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="13">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="18">
         <v>42553</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="19">
         <v>500000</v>
       </c>
       <c r="F12" t="s">
@@ -1701,16 +1894,16 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="13">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="18">
         <v>42553</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="19">
         <v>10000</v>
       </c>
       <c r="F13" t="s">
@@ -1721,16 +1914,16 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="13">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="18">
         <v>42553</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="19">
         <v>499500</v>
       </c>
       <c r="F14" t="s">
@@ -1741,16 +1934,16 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="13">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="18">
         <v>42553</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="19">
         <v>200000</v>
       </c>
       <c r="F15" t="s">
@@ -1761,16 +1954,16 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="13">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="18">
         <v>42556</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="19">
         <v>600000</v>
       </c>
       <c r="F16" t="s">
@@ -1781,16 +1974,16 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="13">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="18">
         <v>42556</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="19">
         <v>-290000</v>
       </c>
       <c r="F17" t="s">
@@ -1804,16 +1997,16 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="13">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="18">
         <v>42570</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="19">
         <v>320000</v>
       </c>
       <c r="F18" t="s">
@@ -1824,16 +2017,16 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="13">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="18">
         <v>42579</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="19">
         <v>3600000</v>
       </c>
       <c r="F19" t="s">
@@ -1847,16 +2040,16 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="13">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="18">
         <v>42573</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="19">
         <v>500000</v>
       </c>
       <c r="F20" t="s">
@@ -1867,16 +2060,16 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="13">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="18">
         <v>42573</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="19">
         <v>100000</v>
       </c>
       <c r="F21" t="s">
@@ -1887,16 +2080,16 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="13">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="18">
         <v>42573</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="19">
         <v>1125000</v>
       </c>
       <c r="F22" t="s">
@@ -1910,16 +2103,16 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="13">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="18">
         <v>42573</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="19">
         <v>2500000</v>
       </c>
       <c r="F23" t="s">
@@ -1933,16 +2126,16 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="13">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="18">
         <v>42573</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="19">
         <v>140000</v>
       </c>
       <c r="F24" t="s">
@@ -1956,16 +2149,16 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="13">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="18">
         <v>42573</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="19">
         <v>25000</v>
       </c>
       <c r="F25" t="s">
@@ -1976,16 +2169,16 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="13">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="18">
         <v>42573</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="19">
         <v>19000</v>
       </c>
       <c r="F26" t="s">
@@ -1999,16 +2192,16 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="13">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="18">
         <v>42573</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="19">
         <v>50000</v>
       </c>
       <c r="F27" t="s">
@@ -2022,16 +2215,16 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="13">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="18">
         <v>42574</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="19">
         <v>901500</v>
       </c>
       <c r="F28" t="s">
@@ -2045,16 +2238,16 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="13">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="18">
         <v>42574</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="19">
         <v>100000</v>
       </c>
       <c r="F29" t="s">
@@ -2065,16 +2258,16 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="13">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="18">
         <v>42575</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="19">
         <v>100000</v>
       </c>
       <c r="F30" t="s">
@@ -2085,16 +2278,16 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="13">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="18">
         <v>42576</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="19">
         <v>400000</v>
       </c>
       <c r="F31" t="s">
@@ -2108,16 +2301,16 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="13">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="18">
         <v>42577</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="19">
         <v>300000</v>
       </c>
       <c r="F32" t="s">
@@ -2131,16 +2324,16 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="13">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="18">
         <v>42579</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="19">
         <v>1000000</v>
       </c>
       <c r="F33" t="s">
@@ -2151,16 +2344,16 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="13">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="18">
         <v>42581</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="19">
         <v>-159000</v>
       </c>
       <c r="F34" t="s">
@@ -2174,16 +2367,16 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="13">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="18">
         <v>42581</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="19">
         <v>200000</v>
       </c>
       <c r="F35" t="s">
@@ -2194,16 +2387,16 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="13">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="18">
         <v>42583</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="19">
         <v>2150000</v>
       </c>
       <c r="F36" t="s">
@@ -2217,16 +2410,16 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="13">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="18">
         <v>42583</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="19">
         <v>7500</v>
       </c>
       <c r="F37" t="s">
@@ -2240,16 +2433,16 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="13">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="18">
         <v>42583</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="19">
         <v>1000000</v>
       </c>
       <c r="F38" t="s">
@@ -2263,16 +2456,16 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="13">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="18">
         <v>42583</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="19">
         <v>100000</v>
       </c>
       <c r="F39" t="s">
@@ -2283,16 +2476,16 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="13">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="18">
         <v>42583</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="19">
         <v>20000</v>
       </c>
       <c r="F40" t="s">
@@ -2306,16 +2499,16 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="13">
+      <c r="A41" s="17">
         <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="18">
         <v>42583</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="19">
         <v>4000000</v>
       </c>
       <c r="F41" t="s">
@@ -2329,16 +2522,16 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="13">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="18">
         <v>42585</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="19">
         <v>5000000</v>
       </c>
       <c r="F42" t="s">
@@ -2352,16 +2545,16 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="13">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="18">
         <v>42585</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="19">
         <v>200000</v>
       </c>
       <c r="F43" t="s">
@@ -2372,16 +2565,16 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="13">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="18">
         <v>42587</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="19">
         <v>465000</v>
       </c>
       <c r="F44" t="s">
@@ -2395,16 +2588,16 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="13">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="18">
         <v>42587</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="19">
         <v>500000</v>
       </c>
       <c r="F45" t="s">
@@ -2415,16 +2608,16 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="13">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="18">
         <v>42587</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="19">
         <v>180000</v>
       </c>
       <c r="F46" t="s">
@@ -2435,16 +2628,16 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="13">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="18">
         <v>42587</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="19">
         <v>570000</v>
       </c>
       <c r="F47" t="s">
@@ -2455,16 +2648,16 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="13">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="18">
         <v>42587</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="19">
         <v>200000</v>
       </c>
       <c r="F48" t="s">
@@ -2475,16 +2668,16 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="13">
+      <c r="A49" s="17">
         <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="18">
         <v>42587</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="19">
         <v>100000</v>
       </c>
       <c r="F49" t="s">
@@ -2495,19 +2688,19 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="13">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="21">
         <v>42679</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="22">
         <v>100000</v>
       </c>
       <c r="F50" t="s">
@@ -2518,2962 +2711,2962 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="13">
+      <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" s="22"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="13">
+      <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="E52" s="18"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="13">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="E53" s="18"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="13">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="E54" s="18"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="13">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="E55" s="18"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="13">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="13">
+      <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="E57" s="18"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="13">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="E58" s="18"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="13">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="E59" s="18"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="13">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="E60" s="18"/>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="13">
+      <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="E61" s="18"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="13">
+      <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="E62" s="18"/>
+      <c r="E62" s="22"/>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="13">
+      <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="E63" s="18"/>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="13">
+      <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="E64" s="18"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="13">
+      <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="E65" s="18"/>
+      <c r="E65" s="22"/>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="13">
+      <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="E66" s="18"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="13">
+      <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="E67" s="18"/>
+      <c r="E67" s="22"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="13">
+      <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="E68" s="18"/>
+      <c r="E68" s="22"/>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="13">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="E69" s="18"/>
+      <c r="E69" s="22"/>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="13">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="E70" s="18"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="13">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="E71" s="18"/>
+      <c r="E71" s="22"/>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="13">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="E72" s="18"/>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="13">
+      <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="E73" s="18"/>
+      <c r="E73" s="22"/>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="13">
+      <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="E74" s="18"/>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="13">
+      <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="E75" s="18"/>
+      <c r="E75" s="22"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="13">
+      <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="E76" s="18"/>
+      <c r="E76" s="22"/>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="13">
+      <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="E77" s="18"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="13">
+      <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="E78" s="18"/>
+      <c r="E78" s="22"/>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="13">
+      <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="E79" s="18"/>
+      <c r="E79" s="22"/>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="13">
+      <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="E80" s="18"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="13">
+      <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="E81" s="18"/>
+      <c r="E81" s="22"/>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="13">
+      <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="E82" s="18"/>
+      <c r="E82" s="22"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="13">
+      <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="E83" s="18"/>
+      <c r="E83" s="22"/>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="13">
+      <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="E84" s="18"/>
+      <c r="E84" s="22"/>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="13">
+      <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="E85" s="18"/>
+      <c r="E85" s="22"/>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="13">
+      <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="E86" s="18"/>
+      <c r="E86" s="22"/>
     </row>
     <row r="87" customHeight="1" spans="5:5">
-      <c r="E87" s="18"/>
+      <c r="E87" s="22"/>
     </row>
     <row r="88" customHeight="1" spans="5:5">
-      <c r="E88" s="18"/>
+      <c r="E88" s="22"/>
     </row>
     <row r="89" customHeight="1" spans="5:5">
-      <c r="E89" s="18"/>
+      <c r="E89" s="22"/>
     </row>
     <row r="90" customHeight="1" spans="5:5">
-      <c r="E90" s="18"/>
+      <c r="E90" s="22"/>
     </row>
     <row r="91" customHeight="1" spans="5:5">
-      <c r="E91" s="18"/>
+      <c r="E91" s="22"/>
     </row>
     <row r="92" customHeight="1" spans="5:5">
-      <c r="E92" s="18"/>
+      <c r="E92" s="22"/>
     </row>
     <row r="93" customHeight="1" spans="5:5">
-      <c r="E93" s="18"/>
+      <c r="E93" s="22"/>
     </row>
     <row r="94" customHeight="1" spans="5:5">
-      <c r="E94" s="18"/>
+      <c r="E94" s="22"/>
     </row>
     <row r="95" customHeight="1" spans="5:5">
-      <c r="E95" s="18"/>
+      <c r="E95" s="22"/>
     </row>
     <row r="96" customHeight="1" spans="5:5">
-      <c r="E96" s="18"/>
+      <c r="E96" s="22"/>
     </row>
     <row r="97" customHeight="1" spans="5:5">
-      <c r="E97" s="18"/>
+      <c r="E97" s="22"/>
     </row>
     <row r="98" customHeight="1" spans="5:5">
-      <c r="E98" s="18"/>
+      <c r="E98" s="22"/>
     </row>
     <row r="99" customHeight="1" spans="5:5">
-      <c r="E99" s="18"/>
+      <c r="E99" s="22"/>
     </row>
     <row r="100" customHeight="1" spans="5:5">
-      <c r="E100" s="18"/>
+      <c r="E100" s="22"/>
     </row>
     <row r="101" customHeight="1" spans="5:5">
-      <c r="E101" s="18"/>
+      <c r="E101" s="22"/>
     </row>
     <row r="102" customHeight="1" spans="5:5">
-      <c r="E102" s="18"/>
+      <c r="E102" s="22"/>
     </row>
     <row r="103" customHeight="1" spans="5:5">
-      <c r="E103" s="18"/>
+      <c r="E103" s="22"/>
     </row>
     <row r="104" customHeight="1" spans="5:5">
-      <c r="E104" s="18"/>
+      <c r="E104" s="22"/>
     </row>
     <row r="105" customHeight="1" spans="5:5">
-      <c r="E105" s="18"/>
+      <c r="E105" s="22"/>
     </row>
     <row r="106" customHeight="1" spans="5:5">
-      <c r="E106" s="18"/>
+      <c r="E106" s="22"/>
     </row>
     <row r="107" customHeight="1" spans="5:5">
-      <c r="E107" s="18"/>
+      <c r="E107" s="22"/>
     </row>
     <row r="108" customHeight="1" spans="5:5">
-      <c r="E108" s="18"/>
+      <c r="E108" s="22"/>
     </row>
     <row r="109" customHeight="1" spans="5:5">
-      <c r="E109" s="18"/>
+      <c r="E109" s="22"/>
     </row>
     <row r="110" customHeight="1" spans="5:5">
-      <c r="E110" s="18"/>
+      <c r="E110" s="22"/>
     </row>
     <row r="111" customHeight="1" spans="5:5">
-      <c r="E111" s="18"/>
+      <c r="E111" s="22"/>
     </row>
     <row r="112" customHeight="1" spans="5:5">
-      <c r="E112" s="18"/>
+      <c r="E112" s="22"/>
     </row>
     <row r="113" customHeight="1" spans="5:5">
-      <c r="E113" s="18"/>
+      <c r="E113" s="22"/>
     </row>
     <row r="114" customHeight="1" spans="5:5">
-      <c r="E114" s="18"/>
+      <c r="E114" s="22"/>
     </row>
     <row r="115" customHeight="1" spans="5:5">
-      <c r="E115" s="18"/>
+      <c r="E115" s="22"/>
     </row>
     <row r="116" customHeight="1" spans="5:5">
-      <c r="E116" s="18"/>
+      <c r="E116" s="22"/>
     </row>
     <row r="117" customHeight="1" spans="5:5">
-      <c r="E117" s="18"/>
+      <c r="E117" s="22"/>
     </row>
     <row r="118" customHeight="1" spans="5:5">
-      <c r="E118" s="18"/>
+      <c r="E118" s="22"/>
     </row>
     <row r="119" customHeight="1" spans="5:5">
-      <c r="E119" s="18"/>
+      <c r="E119" s="22"/>
     </row>
     <row r="120" customHeight="1" spans="5:5">
-      <c r="E120" s="18"/>
+      <c r="E120" s="22"/>
     </row>
     <row r="121" customHeight="1" spans="5:5">
-      <c r="E121" s="18"/>
+      <c r="E121" s="22"/>
     </row>
     <row r="122" customHeight="1" spans="5:5">
-      <c r="E122" s="18"/>
+      <c r="E122" s="22"/>
     </row>
     <row r="123" customHeight="1" spans="5:5">
-      <c r="E123" s="18"/>
+      <c r="E123" s="22"/>
     </row>
     <row r="124" customHeight="1" spans="5:5">
-      <c r="E124" s="18"/>
+      <c r="E124" s="22"/>
     </row>
     <row r="125" customHeight="1" spans="5:5">
-      <c r="E125" s="18"/>
+      <c r="E125" s="22"/>
     </row>
     <row r="126" customHeight="1" spans="5:5">
-      <c r="E126" s="18"/>
+      <c r="E126" s="22"/>
     </row>
     <row r="127" customHeight="1" spans="5:5">
-      <c r="E127" s="18"/>
+      <c r="E127" s="22"/>
     </row>
     <row r="128" customHeight="1" spans="5:5">
-      <c r="E128" s="18"/>
+      <c r="E128" s="22"/>
     </row>
     <row r="129" customHeight="1" spans="5:5">
-      <c r="E129" s="18"/>
+      <c r="E129" s="22"/>
     </row>
     <row r="130" customHeight="1" spans="5:5">
-      <c r="E130" s="18"/>
+      <c r="E130" s="22"/>
     </row>
     <row r="131" customHeight="1" spans="5:5">
-      <c r="E131" s="18"/>
+      <c r="E131" s="22"/>
     </row>
     <row r="132" customHeight="1" spans="5:5">
-      <c r="E132" s="18"/>
+      <c r="E132" s="22"/>
     </row>
     <row r="133" customHeight="1" spans="5:5">
-      <c r="E133" s="18"/>
+      <c r="E133" s="22"/>
     </row>
     <row r="134" customHeight="1" spans="5:5">
-      <c r="E134" s="18"/>
+      <c r="E134" s="22"/>
     </row>
     <row r="135" customHeight="1" spans="5:5">
-      <c r="E135" s="18"/>
+      <c r="E135" s="22"/>
     </row>
     <row r="136" customHeight="1" spans="5:5">
-      <c r="E136" s="18"/>
+      <c r="E136" s="22"/>
     </row>
     <row r="137" customHeight="1" spans="5:5">
-      <c r="E137" s="18"/>
+      <c r="E137" s="22"/>
     </row>
     <row r="138" customHeight="1" spans="5:5">
-      <c r="E138" s="18"/>
+      <c r="E138" s="22"/>
     </row>
     <row r="139" customHeight="1" spans="5:5">
-      <c r="E139" s="18"/>
+      <c r="E139" s="22"/>
     </row>
     <row r="140" customHeight="1" spans="5:5">
-      <c r="E140" s="18"/>
+      <c r="E140" s="22"/>
     </row>
     <row r="141" customHeight="1" spans="5:5">
-      <c r="E141" s="18"/>
+      <c r="E141" s="22"/>
     </row>
     <row r="142" customHeight="1" spans="5:5">
-      <c r="E142" s="18"/>
+      <c r="E142" s="22"/>
     </row>
     <row r="143" customHeight="1" spans="5:5">
-      <c r="E143" s="18"/>
+      <c r="E143" s="22"/>
     </row>
     <row r="144" customHeight="1" spans="5:5">
-      <c r="E144" s="18"/>
+      <c r="E144" s="22"/>
     </row>
     <row r="145" customHeight="1" spans="5:5">
-      <c r="E145" s="18"/>
+      <c r="E145" s="22"/>
     </row>
     <row r="146" customHeight="1" spans="5:5">
-      <c r="E146" s="18"/>
+      <c r="E146" s="22"/>
     </row>
     <row r="147" customHeight="1" spans="5:5">
-      <c r="E147" s="18"/>
+      <c r="E147" s="22"/>
     </row>
     <row r="148" customHeight="1" spans="5:5">
-      <c r="E148" s="18"/>
+      <c r="E148" s="22"/>
     </row>
     <row r="149" customHeight="1" spans="5:5">
-      <c r="E149" s="18"/>
+      <c r="E149" s="22"/>
     </row>
     <row r="150" customHeight="1" spans="5:5">
-      <c r="E150" s="18"/>
+      <c r="E150" s="22"/>
     </row>
     <row r="151" customHeight="1" spans="5:5">
-      <c r="E151" s="18"/>
+      <c r="E151" s="22"/>
     </row>
     <row r="152" customHeight="1" spans="5:5">
-      <c r="E152" s="18"/>
+      <c r="E152" s="22"/>
     </row>
     <row r="153" customHeight="1" spans="5:5">
-      <c r="E153" s="18"/>
+      <c r="E153" s="22"/>
     </row>
     <row r="154" customHeight="1" spans="5:5">
-      <c r="E154" s="18"/>
+      <c r="E154" s="22"/>
     </row>
     <row r="155" customHeight="1" spans="5:5">
-      <c r="E155" s="18"/>
+      <c r="E155" s="22"/>
     </row>
     <row r="156" customHeight="1" spans="5:5">
-      <c r="E156" s="18"/>
+      <c r="E156" s="22"/>
     </row>
     <row r="157" customHeight="1" spans="5:5">
-      <c r="E157" s="18"/>
+      <c r="E157" s="22"/>
     </row>
     <row r="158" customHeight="1" spans="5:5">
-      <c r="E158" s="18"/>
+      <c r="E158" s="22"/>
     </row>
     <row r="159" customHeight="1" spans="5:5">
-      <c r="E159" s="18"/>
+      <c r="E159" s="22"/>
     </row>
     <row r="160" customHeight="1" spans="5:5">
-      <c r="E160" s="18"/>
+      <c r="E160" s="22"/>
     </row>
     <row r="161" customHeight="1" spans="5:5">
-      <c r="E161" s="18"/>
+      <c r="E161" s="22"/>
     </row>
     <row r="162" customHeight="1" spans="5:5">
-      <c r="E162" s="18"/>
+      <c r="E162" s="22"/>
     </row>
     <row r="163" customHeight="1" spans="5:5">
-      <c r="E163" s="18"/>
+      <c r="E163" s="22"/>
     </row>
     <row r="164" customHeight="1" spans="5:5">
-      <c r="E164" s="18"/>
+      <c r="E164" s="22"/>
     </row>
     <row r="165" customHeight="1" spans="5:5">
-      <c r="E165" s="18"/>
+      <c r="E165" s="22"/>
     </row>
     <row r="166" customHeight="1" spans="5:5">
-      <c r="E166" s="18"/>
+      <c r="E166" s="22"/>
     </row>
     <row r="167" customHeight="1" spans="5:5">
-      <c r="E167" s="18"/>
+      <c r="E167" s="22"/>
     </row>
     <row r="168" customHeight="1" spans="5:5">
-      <c r="E168" s="18"/>
+      <c r="E168" s="22"/>
     </row>
     <row r="169" customHeight="1" spans="5:5">
-      <c r="E169" s="18"/>
+      <c r="E169" s="22"/>
     </row>
     <row r="170" customHeight="1" spans="5:5">
-      <c r="E170" s="18"/>
+      <c r="E170" s="22"/>
     </row>
     <row r="171" customHeight="1" spans="5:5">
-      <c r="E171" s="18"/>
+      <c r="E171" s="22"/>
     </row>
     <row r="172" customHeight="1" spans="5:5">
-      <c r="E172" s="18"/>
+      <c r="E172" s="22"/>
     </row>
     <row r="173" customHeight="1" spans="5:5">
-      <c r="E173" s="18"/>
+      <c r="E173" s="22"/>
     </row>
     <row r="174" customHeight="1" spans="5:5">
-      <c r="E174" s="18"/>
+      <c r="E174" s="22"/>
     </row>
     <row r="175" customHeight="1" spans="5:5">
-      <c r="E175" s="18"/>
+      <c r="E175" s="22"/>
     </row>
     <row r="176" customHeight="1" spans="5:5">
-      <c r="E176" s="18"/>
+      <c r="E176" s="22"/>
     </row>
     <row r="177" customHeight="1" spans="5:5">
-      <c r="E177" s="18"/>
+      <c r="E177" s="22"/>
     </row>
     <row r="178" customHeight="1" spans="5:5">
-      <c r="E178" s="18"/>
+      <c r="E178" s="22"/>
     </row>
     <row r="179" customHeight="1" spans="5:5">
-      <c r="E179" s="18"/>
+      <c r="E179" s="22"/>
     </row>
     <row r="180" customHeight="1" spans="5:5">
-      <c r="E180" s="18"/>
+      <c r="E180" s="22"/>
     </row>
     <row r="181" customHeight="1" spans="5:5">
-      <c r="E181" s="18"/>
+      <c r="E181" s="22"/>
     </row>
     <row r="182" customHeight="1" spans="5:5">
-      <c r="E182" s="18"/>
+      <c r="E182" s="22"/>
     </row>
     <row r="183" customHeight="1" spans="5:5">
-      <c r="E183" s="18"/>
+      <c r="E183" s="22"/>
     </row>
     <row r="184" customHeight="1" spans="5:5">
-      <c r="E184" s="18"/>
+      <c r="E184" s="22"/>
     </row>
     <row r="185" customHeight="1" spans="5:5">
-      <c r="E185" s="18"/>
+      <c r="E185" s="22"/>
     </row>
     <row r="186" customHeight="1" spans="5:5">
-      <c r="E186" s="18"/>
+      <c r="E186" s="22"/>
     </row>
     <row r="187" customHeight="1" spans="5:5">
-      <c r="E187" s="18"/>
+      <c r="E187" s="22"/>
     </row>
     <row r="188" customHeight="1" spans="5:5">
-      <c r="E188" s="18"/>
+      <c r="E188" s="22"/>
     </row>
     <row r="189" customHeight="1" spans="5:5">
-      <c r="E189" s="18"/>
+      <c r="E189" s="22"/>
     </row>
     <row r="190" customHeight="1" spans="5:5">
-      <c r="E190" s="18"/>
+      <c r="E190" s="22"/>
     </row>
     <row r="191" customHeight="1" spans="5:5">
-      <c r="E191" s="18"/>
+      <c r="E191" s="22"/>
     </row>
     <row r="192" customHeight="1" spans="5:5">
-      <c r="E192" s="18"/>
+      <c r="E192" s="22"/>
     </row>
     <row r="193" customHeight="1" spans="5:5">
-      <c r="E193" s="18"/>
+      <c r="E193" s="22"/>
     </row>
     <row r="194" customHeight="1" spans="5:5">
-      <c r="E194" s="18"/>
+      <c r="E194" s="22"/>
     </row>
     <row r="195" customHeight="1" spans="5:5">
-      <c r="E195" s="18"/>
+      <c r="E195" s="22"/>
     </row>
     <row r="196" customHeight="1" spans="5:5">
-      <c r="E196" s="18"/>
+      <c r="E196" s="22"/>
     </row>
     <row r="197" customHeight="1" spans="5:5">
-      <c r="E197" s="18"/>
+      <c r="E197" s="22"/>
     </row>
     <row r="198" customHeight="1" spans="5:5">
-      <c r="E198" s="18"/>
+      <c r="E198" s="22"/>
     </row>
     <row r="199" customHeight="1" spans="5:5">
-      <c r="E199" s="18"/>
+      <c r="E199" s="22"/>
     </row>
     <row r="200" customHeight="1" spans="5:5">
-      <c r="E200" s="18"/>
+      <c r="E200" s="22"/>
     </row>
     <row r="201" customHeight="1" spans="5:5">
-      <c r="E201" s="18"/>
+      <c r="E201" s="22"/>
     </row>
     <row r="202" customHeight="1" spans="5:5">
-      <c r="E202" s="18"/>
+      <c r="E202" s="22"/>
     </row>
     <row r="203" customHeight="1" spans="5:5">
-      <c r="E203" s="18"/>
+      <c r="E203" s="22"/>
     </row>
     <row r="204" customHeight="1" spans="5:5">
-      <c r="E204" s="18"/>
+      <c r="E204" s="22"/>
     </row>
     <row r="205" customHeight="1" spans="5:5">
-      <c r="E205" s="18"/>
+      <c r="E205" s="22"/>
     </row>
     <row r="206" customHeight="1" spans="5:5">
-      <c r="E206" s="18"/>
+      <c r="E206" s="22"/>
     </row>
     <row r="207" customHeight="1" spans="5:5">
-      <c r="E207" s="18"/>
+      <c r="E207" s="22"/>
     </row>
     <row r="208" customHeight="1" spans="5:5">
-      <c r="E208" s="18"/>
+      <c r="E208" s="22"/>
     </row>
     <row r="209" customHeight="1" spans="5:5">
-      <c r="E209" s="18"/>
+      <c r="E209" s="22"/>
     </row>
     <row r="210" customHeight="1" spans="5:5">
-      <c r="E210" s="18"/>
+      <c r="E210" s="22"/>
     </row>
     <row r="211" customHeight="1" spans="5:5">
-      <c r="E211" s="18"/>
+      <c r="E211" s="22"/>
     </row>
     <row r="212" customHeight="1" spans="5:5">
-      <c r="E212" s="18"/>
+      <c r="E212" s="22"/>
     </row>
     <row r="213" customHeight="1" spans="5:5">
-      <c r="E213" s="18"/>
+      <c r="E213" s="22"/>
     </row>
     <row r="214" customHeight="1" spans="5:5">
-      <c r="E214" s="18"/>
+      <c r="E214" s="22"/>
     </row>
     <row r="215" customHeight="1" spans="5:5">
-      <c r="E215" s="18"/>
+      <c r="E215" s="22"/>
     </row>
     <row r="216" customHeight="1" spans="5:5">
-      <c r="E216" s="18"/>
+      <c r="E216" s="22"/>
     </row>
     <row r="217" customHeight="1" spans="5:5">
-      <c r="E217" s="18"/>
+      <c r="E217" s="22"/>
     </row>
     <row r="218" customHeight="1" spans="5:5">
-      <c r="E218" s="18"/>
+      <c r="E218" s="22"/>
     </row>
     <row r="219" customHeight="1" spans="5:5">
-      <c r="E219" s="18"/>
+      <c r="E219" s="22"/>
     </row>
     <row r="220" customHeight="1" spans="5:5">
-      <c r="E220" s="18"/>
+      <c r="E220" s="22"/>
     </row>
     <row r="221" customHeight="1" spans="5:5">
-      <c r="E221" s="18"/>
+      <c r="E221" s="22"/>
     </row>
     <row r="222" customHeight="1" spans="5:5">
-      <c r="E222" s="18"/>
+      <c r="E222" s="22"/>
     </row>
     <row r="223" customHeight="1" spans="5:5">
-      <c r="E223" s="18"/>
+      <c r="E223" s="22"/>
     </row>
     <row r="224" customHeight="1" spans="5:5">
-      <c r="E224" s="18"/>
+      <c r="E224" s="22"/>
     </row>
     <row r="225" customHeight="1" spans="5:5">
-      <c r="E225" s="18"/>
+      <c r="E225" s="22"/>
     </row>
     <row r="226" customHeight="1" spans="5:5">
-      <c r="E226" s="18"/>
+      <c r="E226" s="22"/>
     </row>
     <row r="227" customHeight="1" spans="5:5">
-      <c r="E227" s="18"/>
+      <c r="E227" s="22"/>
     </row>
     <row r="228" customHeight="1" spans="5:5">
-      <c r="E228" s="18"/>
+      <c r="E228" s="22"/>
     </row>
     <row r="229" customHeight="1" spans="5:5">
-      <c r="E229" s="18"/>
+      <c r="E229" s="22"/>
     </row>
     <row r="230" customHeight="1" spans="5:5">
-      <c r="E230" s="18"/>
+      <c r="E230" s="22"/>
     </row>
     <row r="231" customHeight="1" spans="5:5">
-      <c r="E231" s="18"/>
+      <c r="E231" s="22"/>
     </row>
     <row r="232" customHeight="1" spans="5:5">
-      <c r="E232" s="18"/>
+      <c r="E232" s="22"/>
     </row>
     <row r="233" customHeight="1" spans="5:5">
-      <c r="E233" s="18"/>
+      <c r="E233" s="22"/>
     </row>
     <row r="234" customHeight="1" spans="5:5">
-      <c r="E234" s="18"/>
+      <c r="E234" s="22"/>
     </row>
     <row r="235" customHeight="1" spans="5:5">
-      <c r="E235" s="18"/>
+      <c r="E235" s="22"/>
     </row>
     <row r="236" customHeight="1" spans="5:5">
-      <c r="E236" s="18"/>
+      <c r="E236" s="22"/>
     </row>
     <row r="237" customHeight="1" spans="5:5">
-      <c r="E237" s="18"/>
+      <c r="E237" s="22"/>
     </row>
     <row r="238" customHeight="1" spans="5:5">
-      <c r="E238" s="18"/>
+      <c r="E238" s="22"/>
     </row>
     <row r="239" customHeight="1" spans="5:5">
-      <c r="E239" s="18"/>
+      <c r="E239" s="22"/>
     </row>
     <row r="240" customHeight="1" spans="5:5">
-      <c r="E240" s="18"/>
+      <c r="E240" s="22"/>
     </row>
     <row r="241" customHeight="1" spans="5:5">
-      <c r="E241" s="18"/>
+      <c r="E241" s="22"/>
     </row>
     <row r="242" customHeight="1" spans="5:5">
-      <c r="E242" s="18"/>
+      <c r="E242" s="22"/>
     </row>
     <row r="243" customHeight="1" spans="5:5">
-      <c r="E243" s="18"/>
+      <c r="E243" s="22"/>
     </row>
     <row r="244" customHeight="1" spans="5:5">
-      <c r="E244" s="18"/>
+      <c r="E244" s="22"/>
     </row>
     <row r="245" customHeight="1" spans="5:5">
-      <c r="E245" s="18"/>
+      <c r="E245" s="22"/>
     </row>
     <row r="246" customHeight="1" spans="5:5">
-      <c r="E246" s="18"/>
+      <c r="E246" s="22"/>
     </row>
     <row r="247" customHeight="1" spans="5:5">
-      <c r="E247" s="18"/>
+      <c r="E247" s="22"/>
     </row>
     <row r="248" customHeight="1" spans="5:5">
-      <c r="E248" s="18"/>
+      <c r="E248" s="22"/>
     </row>
     <row r="249" customHeight="1" spans="5:5">
-      <c r="E249" s="18"/>
+      <c r="E249" s="22"/>
     </row>
     <row r="250" customHeight="1" spans="5:5">
-      <c r="E250" s="18"/>
+      <c r="E250" s="22"/>
     </row>
     <row r="251" customHeight="1" spans="5:5">
-      <c r="E251" s="18"/>
+      <c r="E251" s="22"/>
     </row>
     <row r="252" customHeight="1" spans="5:5">
-      <c r="E252" s="18"/>
+      <c r="E252" s="22"/>
     </row>
     <row r="253" customHeight="1" spans="5:5">
-      <c r="E253" s="18"/>
+      <c r="E253" s="22"/>
     </row>
     <row r="254" customHeight="1" spans="5:5">
-      <c r="E254" s="18"/>
+      <c r="E254" s="22"/>
     </row>
     <row r="255" customHeight="1" spans="5:5">
-      <c r="E255" s="18"/>
+      <c r="E255" s="22"/>
     </row>
     <row r="256" customHeight="1" spans="5:5">
-      <c r="E256" s="18"/>
+      <c r="E256" s="22"/>
     </row>
     <row r="257" customHeight="1" spans="5:5">
-      <c r="E257" s="18"/>
+      <c r="E257" s="22"/>
     </row>
     <row r="258" customHeight="1" spans="5:5">
-      <c r="E258" s="18"/>
+      <c r="E258" s="22"/>
     </row>
     <row r="259" customHeight="1" spans="5:5">
-      <c r="E259" s="18"/>
+      <c r="E259" s="22"/>
     </row>
     <row r="260" customHeight="1" spans="5:5">
-      <c r="E260" s="18"/>
+      <c r="E260" s="22"/>
     </row>
     <row r="261" customHeight="1" spans="5:5">
-      <c r="E261" s="18"/>
+      <c r="E261" s="22"/>
     </row>
     <row r="262" customHeight="1" spans="5:5">
-      <c r="E262" s="18"/>
+      <c r="E262" s="22"/>
     </row>
     <row r="263" customHeight="1" spans="5:5">
-      <c r="E263" s="18"/>
+      <c r="E263" s="22"/>
     </row>
     <row r="264" customHeight="1" spans="5:5">
-      <c r="E264" s="18"/>
+      <c r="E264" s="22"/>
     </row>
     <row r="265" customHeight="1" spans="5:5">
-      <c r="E265" s="18"/>
+      <c r="E265" s="22"/>
     </row>
     <row r="266" customHeight="1" spans="5:5">
-      <c r="E266" s="18"/>
+      <c r="E266" s="22"/>
     </row>
     <row r="267" customHeight="1" spans="5:5">
-      <c r="E267" s="18"/>
+      <c r="E267" s="22"/>
     </row>
     <row r="268" customHeight="1" spans="5:5">
-      <c r="E268" s="18"/>
+      <c r="E268" s="22"/>
     </row>
     <row r="269" customHeight="1" spans="5:5">
-      <c r="E269" s="18"/>
+      <c r="E269" s="22"/>
     </row>
     <row r="270" customHeight="1" spans="5:5">
-      <c r="E270" s="18"/>
+      <c r="E270" s="22"/>
     </row>
     <row r="271" customHeight="1" spans="5:5">
-      <c r="E271" s="18"/>
+      <c r="E271" s="22"/>
     </row>
     <row r="272" customHeight="1" spans="5:5">
-      <c r="E272" s="18"/>
+      <c r="E272" s="22"/>
     </row>
     <row r="273" customHeight="1" spans="5:5">
-      <c r="E273" s="18"/>
+      <c r="E273" s="22"/>
     </row>
     <row r="274" customHeight="1" spans="5:5">
-      <c r="E274" s="18"/>
+      <c r="E274" s="22"/>
     </row>
     <row r="275" customHeight="1" spans="5:5">
-      <c r="E275" s="18"/>
+      <c r="E275" s="22"/>
     </row>
     <row r="276" customHeight="1" spans="5:5">
-      <c r="E276" s="18"/>
+      <c r="E276" s="22"/>
     </row>
     <row r="277" customHeight="1" spans="5:5">
-      <c r="E277" s="18"/>
+      <c r="E277" s="22"/>
     </row>
     <row r="278" customHeight="1" spans="5:5">
-      <c r="E278" s="18"/>
+      <c r="E278" s="22"/>
     </row>
     <row r="279" customHeight="1" spans="5:5">
-      <c r="E279" s="18"/>
+      <c r="E279" s="22"/>
     </row>
     <row r="280" customHeight="1" spans="5:5">
-      <c r="E280" s="18"/>
+      <c r="E280" s="22"/>
     </row>
     <row r="281" customHeight="1" spans="5:5">
-      <c r="E281" s="18"/>
+      <c r="E281" s="22"/>
     </row>
     <row r="282" customHeight="1" spans="5:5">
-      <c r="E282" s="18"/>
+      <c r="E282" s="22"/>
     </row>
     <row r="283" customHeight="1" spans="5:5">
-      <c r="E283" s="18"/>
+      <c r="E283" s="22"/>
     </row>
     <row r="284" customHeight="1" spans="5:5">
-      <c r="E284" s="18"/>
+      <c r="E284" s="22"/>
     </row>
     <row r="285" customHeight="1" spans="5:5">
-      <c r="E285" s="18"/>
+      <c r="E285" s="22"/>
     </row>
     <row r="286" customHeight="1" spans="5:5">
-      <c r="E286" s="18"/>
+      <c r="E286" s="22"/>
     </row>
     <row r="287" customHeight="1" spans="5:5">
-      <c r="E287" s="18"/>
+      <c r="E287" s="22"/>
     </row>
     <row r="288" customHeight="1" spans="5:5">
-      <c r="E288" s="18"/>
+      <c r="E288" s="22"/>
     </row>
     <row r="289" customHeight="1" spans="5:5">
-      <c r="E289" s="18"/>
+      <c r="E289" s="22"/>
     </row>
     <row r="290" customHeight="1" spans="5:5">
-      <c r="E290" s="18"/>
+      <c r="E290" s="22"/>
     </row>
     <row r="291" customHeight="1" spans="5:5">
-      <c r="E291" s="18"/>
+      <c r="E291" s="22"/>
     </row>
     <row r="292" customHeight="1" spans="5:5">
-      <c r="E292" s="18"/>
+      <c r="E292" s="22"/>
     </row>
     <row r="293" customHeight="1" spans="5:5">
-      <c r="E293" s="18"/>
+      <c r="E293" s="22"/>
     </row>
     <row r="294" customHeight="1" spans="5:5">
-      <c r="E294" s="18"/>
+      <c r="E294" s="22"/>
     </row>
     <row r="295" customHeight="1" spans="5:5">
-      <c r="E295" s="18"/>
+      <c r="E295" s="22"/>
     </row>
     <row r="296" customHeight="1" spans="5:5">
-      <c r="E296" s="18"/>
+      <c r="E296" s="22"/>
     </row>
     <row r="297" customHeight="1" spans="5:5">
-      <c r="E297" s="18"/>
+      <c r="E297" s="22"/>
     </row>
     <row r="298" customHeight="1" spans="5:5">
-      <c r="E298" s="18"/>
+      <c r="E298" s="22"/>
     </row>
     <row r="299" customHeight="1" spans="5:5">
-      <c r="E299" s="18"/>
+      <c r="E299" s="22"/>
     </row>
     <row r="300" customHeight="1" spans="5:5">
-      <c r="E300" s="18"/>
+      <c r="E300" s="22"/>
     </row>
     <row r="301" customHeight="1" spans="5:5">
-      <c r="E301" s="18"/>
+      <c r="E301" s="22"/>
     </row>
     <row r="302" customHeight="1" spans="5:5">
-      <c r="E302" s="18"/>
+      <c r="E302" s="22"/>
     </row>
     <row r="303" customHeight="1" spans="5:5">
-      <c r="E303" s="18"/>
+      <c r="E303" s="22"/>
     </row>
     <row r="304" customHeight="1" spans="5:5">
-      <c r="E304" s="18"/>
+      <c r="E304" s="22"/>
     </row>
     <row r="305" customHeight="1" spans="5:5">
-      <c r="E305" s="18"/>
+      <c r="E305" s="22"/>
     </row>
     <row r="306" customHeight="1" spans="5:5">
-      <c r="E306" s="18"/>
+      <c r="E306" s="22"/>
     </row>
     <row r="307" customHeight="1" spans="5:5">
-      <c r="E307" s="18"/>
+      <c r="E307" s="22"/>
     </row>
     <row r="308" customHeight="1" spans="5:5">
-      <c r="E308" s="18"/>
+      <c r="E308" s="22"/>
     </row>
     <row r="309" customHeight="1" spans="5:5">
-      <c r="E309" s="18"/>
+      <c r="E309" s="22"/>
     </row>
     <row r="310" customHeight="1" spans="5:5">
-      <c r="E310" s="18"/>
+      <c r="E310" s="22"/>
     </row>
     <row r="311" customHeight="1" spans="5:5">
-      <c r="E311" s="18"/>
+      <c r="E311" s="22"/>
     </row>
     <row r="312" customHeight="1" spans="5:5">
-      <c r="E312" s="18"/>
+      <c r="E312" s="22"/>
     </row>
     <row r="313" customHeight="1" spans="5:5">
-      <c r="E313" s="18"/>
+      <c r="E313" s="22"/>
     </row>
     <row r="314" customHeight="1" spans="5:5">
-      <c r="E314" s="18"/>
+      <c r="E314" s="22"/>
     </row>
     <row r="315" customHeight="1" spans="5:5">
-      <c r="E315" s="18"/>
+      <c r="E315" s="22"/>
     </row>
     <row r="316" customHeight="1" spans="5:5">
-      <c r="E316" s="18"/>
+      <c r="E316" s="22"/>
     </row>
     <row r="317" customHeight="1" spans="5:5">
-      <c r="E317" s="18"/>
+      <c r="E317" s="22"/>
     </row>
     <row r="318" customHeight="1" spans="5:5">
-      <c r="E318" s="18"/>
+      <c r="E318" s="22"/>
     </row>
     <row r="319" customHeight="1" spans="5:5">
-      <c r="E319" s="18"/>
+      <c r="E319" s="22"/>
     </row>
     <row r="320" customHeight="1" spans="5:5">
-      <c r="E320" s="18"/>
+      <c r="E320" s="22"/>
     </row>
     <row r="321" customHeight="1" spans="5:5">
-      <c r="E321" s="18"/>
+      <c r="E321" s="22"/>
     </row>
     <row r="322" customHeight="1" spans="5:5">
-      <c r="E322" s="18"/>
+      <c r="E322" s="22"/>
     </row>
     <row r="323" customHeight="1" spans="5:5">
-      <c r="E323" s="18"/>
+      <c r="E323" s="22"/>
     </row>
     <row r="324" customHeight="1" spans="5:5">
-      <c r="E324" s="18"/>
+      <c r="E324" s="22"/>
     </row>
     <row r="325" customHeight="1" spans="5:5">
-      <c r="E325" s="18"/>
+      <c r="E325" s="22"/>
     </row>
     <row r="326" customHeight="1" spans="5:5">
-      <c r="E326" s="18"/>
+      <c r="E326" s="22"/>
     </row>
     <row r="327" customHeight="1" spans="5:5">
-      <c r="E327" s="18"/>
+      <c r="E327" s="22"/>
     </row>
     <row r="328" customHeight="1" spans="5:5">
-      <c r="E328" s="18"/>
+      <c r="E328" s="22"/>
     </row>
     <row r="329" customHeight="1" spans="5:5">
-      <c r="E329" s="18"/>
+      <c r="E329" s="22"/>
     </row>
     <row r="330" customHeight="1" spans="5:5">
-      <c r="E330" s="18"/>
+      <c r="E330" s="22"/>
     </row>
     <row r="331" customHeight="1" spans="5:5">
-      <c r="E331" s="18"/>
+      <c r="E331" s="22"/>
     </row>
     <row r="332" customHeight="1" spans="5:5">
-      <c r="E332" s="18"/>
+      <c r="E332" s="22"/>
     </row>
     <row r="333" customHeight="1" spans="5:5">
-      <c r="E333" s="18"/>
+      <c r="E333" s="22"/>
     </row>
     <row r="334" customHeight="1" spans="5:5">
-      <c r="E334" s="18"/>
+      <c r="E334" s="22"/>
     </row>
     <row r="335" customHeight="1" spans="5:5">
-      <c r="E335" s="18"/>
+      <c r="E335" s="22"/>
     </row>
     <row r="336" customHeight="1" spans="5:5">
-      <c r="E336" s="18"/>
+      <c r="E336" s="22"/>
     </row>
     <row r="337" customHeight="1" spans="5:5">
-      <c r="E337" s="18"/>
+      <c r="E337" s="22"/>
     </row>
     <row r="338" customHeight="1" spans="5:5">
-      <c r="E338" s="18"/>
+      <c r="E338" s="22"/>
     </row>
     <row r="339" customHeight="1" spans="5:5">
-      <c r="E339" s="18"/>
+      <c r="E339" s="22"/>
     </row>
     <row r="340" customHeight="1" spans="5:5">
-      <c r="E340" s="18"/>
+      <c r="E340" s="22"/>
     </row>
     <row r="341" customHeight="1" spans="5:5">
-      <c r="E341" s="18"/>
+      <c r="E341" s="22"/>
     </row>
     <row r="342" customHeight="1" spans="5:5">
-      <c r="E342" s="18"/>
+      <c r="E342" s="22"/>
     </row>
     <row r="343" customHeight="1" spans="5:5">
-      <c r="E343" s="18"/>
+      <c r="E343" s="22"/>
     </row>
     <row r="344" customHeight="1" spans="5:5">
-      <c r="E344" s="18"/>
+      <c r="E344" s="22"/>
     </row>
     <row r="345" customHeight="1" spans="5:5">
-      <c r="E345" s="18"/>
+      <c r="E345" s="22"/>
     </row>
     <row r="346" customHeight="1" spans="5:5">
-      <c r="E346" s="18"/>
+      <c r="E346" s="22"/>
     </row>
     <row r="347" customHeight="1" spans="5:5">
-      <c r="E347" s="18"/>
+      <c r="E347" s="22"/>
     </row>
     <row r="348" customHeight="1" spans="5:5">
-      <c r="E348" s="18"/>
+      <c r="E348" s="22"/>
     </row>
     <row r="349" customHeight="1" spans="5:5">
-      <c r="E349" s="18"/>
+      <c r="E349" s="22"/>
     </row>
     <row r="350" customHeight="1" spans="5:5">
-      <c r="E350" s="18"/>
+      <c r="E350" s="22"/>
     </row>
     <row r="351" customHeight="1" spans="5:5">
-      <c r="E351" s="18"/>
+      <c r="E351" s="22"/>
     </row>
     <row r="352" customHeight="1" spans="5:5">
-      <c r="E352" s="18"/>
+      <c r="E352" s="22"/>
     </row>
     <row r="353" customHeight="1" spans="5:5">
-      <c r="E353" s="18"/>
+      <c r="E353" s="22"/>
     </row>
     <row r="354" customHeight="1" spans="5:5">
-      <c r="E354" s="18"/>
+      <c r="E354" s="22"/>
     </row>
     <row r="355" customHeight="1" spans="5:5">
-      <c r="E355" s="18"/>
+      <c r="E355" s="22"/>
     </row>
     <row r="356" customHeight="1" spans="5:5">
-      <c r="E356" s="18"/>
+      <c r="E356" s="22"/>
     </row>
     <row r="357" customHeight="1" spans="5:5">
-      <c r="E357" s="18"/>
+      <c r="E357" s="22"/>
     </row>
     <row r="358" customHeight="1" spans="5:5">
-      <c r="E358" s="18"/>
+      <c r="E358" s="22"/>
     </row>
     <row r="359" customHeight="1" spans="5:5">
-      <c r="E359" s="18"/>
+      <c r="E359" s="22"/>
     </row>
     <row r="360" customHeight="1" spans="5:5">
-      <c r="E360" s="18"/>
+      <c r="E360" s="22"/>
     </row>
     <row r="361" customHeight="1" spans="5:5">
-      <c r="E361" s="18"/>
+      <c r="E361" s="22"/>
     </row>
     <row r="362" customHeight="1" spans="5:5">
-      <c r="E362" s="18"/>
+      <c r="E362" s="22"/>
     </row>
     <row r="363" customHeight="1" spans="5:5">
-      <c r="E363" s="18"/>
+      <c r="E363" s="22"/>
     </row>
     <row r="364" customHeight="1" spans="5:5">
-      <c r="E364" s="18"/>
+      <c r="E364" s="22"/>
     </row>
     <row r="365" customHeight="1" spans="5:5">
-      <c r="E365" s="18"/>
+      <c r="E365" s="22"/>
     </row>
     <row r="366" customHeight="1" spans="5:5">
-      <c r="E366" s="18"/>
+      <c r="E366" s="22"/>
     </row>
     <row r="367" customHeight="1" spans="5:5">
-      <c r="E367" s="18"/>
+      <c r="E367" s="22"/>
     </row>
     <row r="368" customHeight="1" spans="5:5">
-      <c r="E368" s="18"/>
+      <c r="E368" s="22"/>
     </row>
     <row r="369" customHeight="1" spans="5:5">
-      <c r="E369" s="18"/>
+      <c r="E369" s="22"/>
     </row>
     <row r="370" customHeight="1" spans="5:5">
-      <c r="E370" s="18"/>
+      <c r="E370" s="22"/>
     </row>
     <row r="371" customHeight="1" spans="5:5">
-      <c r="E371" s="18"/>
+      <c r="E371" s="22"/>
     </row>
     <row r="372" customHeight="1" spans="5:5">
-      <c r="E372" s="18"/>
+      <c r="E372" s="22"/>
     </row>
     <row r="373" customHeight="1" spans="5:5">
-      <c r="E373" s="18"/>
+      <c r="E373" s="22"/>
     </row>
     <row r="374" customHeight="1" spans="5:5">
-      <c r="E374" s="18"/>
+      <c r="E374" s="22"/>
     </row>
     <row r="375" customHeight="1" spans="5:5">
-      <c r="E375" s="18"/>
+      <c r="E375" s="22"/>
     </row>
     <row r="376" customHeight="1" spans="5:5">
-      <c r="E376" s="18"/>
+      <c r="E376" s="22"/>
     </row>
     <row r="377" customHeight="1" spans="5:5">
-      <c r="E377" s="18"/>
+      <c r="E377" s="22"/>
     </row>
     <row r="378" customHeight="1" spans="5:5">
-      <c r="E378" s="18"/>
+      <c r="E378" s="22"/>
     </row>
     <row r="379" customHeight="1" spans="5:5">
-      <c r="E379" s="18"/>
+      <c r="E379" s="22"/>
     </row>
     <row r="380" customHeight="1" spans="5:5">
-      <c r="E380" s="18"/>
+      <c r="E380" s="22"/>
     </row>
     <row r="381" customHeight="1" spans="5:5">
-      <c r="E381" s="18"/>
+      <c r="E381" s="22"/>
     </row>
     <row r="382" customHeight="1" spans="5:5">
-      <c r="E382" s="18"/>
+      <c r="E382" s="22"/>
     </row>
     <row r="383" customHeight="1" spans="5:5">
-      <c r="E383" s="18"/>
+      <c r="E383" s="22"/>
     </row>
     <row r="384" customHeight="1" spans="5:5">
-      <c r="E384" s="18"/>
+      <c r="E384" s="22"/>
     </row>
     <row r="385" customHeight="1" spans="5:5">
-      <c r="E385" s="18"/>
+      <c r="E385" s="22"/>
     </row>
     <row r="386" customHeight="1" spans="5:5">
-      <c r="E386" s="18"/>
+      <c r="E386" s="22"/>
     </row>
     <row r="387" customHeight="1" spans="5:5">
-      <c r="E387" s="18"/>
+      <c r="E387" s="22"/>
     </row>
     <row r="388" customHeight="1" spans="5:5">
-      <c r="E388" s="18"/>
+      <c r="E388" s="22"/>
     </row>
     <row r="389" customHeight="1" spans="5:5">
-      <c r="E389" s="18"/>
+      <c r="E389" s="22"/>
     </row>
     <row r="390" customHeight="1" spans="5:5">
-      <c r="E390" s="18"/>
+      <c r="E390" s="22"/>
     </row>
     <row r="391" customHeight="1" spans="5:5">
-      <c r="E391" s="18"/>
+      <c r="E391" s="22"/>
     </row>
     <row r="392" customHeight="1" spans="5:5">
-      <c r="E392" s="18"/>
+      <c r="E392" s="22"/>
     </row>
     <row r="393" customHeight="1" spans="5:5">
-      <c r="E393" s="18"/>
+      <c r="E393" s="22"/>
     </row>
     <row r="394" customHeight="1" spans="5:5">
-      <c r="E394" s="18"/>
+      <c r="E394" s="22"/>
     </row>
     <row r="395" customHeight="1" spans="5:5">
-      <c r="E395" s="18"/>
+      <c r="E395" s="22"/>
     </row>
     <row r="396" customHeight="1" spans="5:5">
-      <c r="E396" s="18"/>
+      <c r="E396" s="22"/>
     </row>
     <row r="397" customHeight="1" spans="5:5">
-      <c r="E397" s="18"/>
+      <c r="E397" s="22"/>
     </row>
     <row r="398" customHeight="1" spans="5:5">
-      <c r="E398" s="18"/>
+      <c r="E398" s="22"/>
     </row>
     <row r="399" customHeight="1" spans="5:5">
-      <c r="E399" s="18"/>
+      <c r="E399" s="22"/>
     </row>
     <row r="400" customHeight="1" spans="5:5">
-      <c r="E400" s="18"/>
+      <c r="E400" s="22"/>
     </row>
     <row r="401" customHeight="1" spans="5:5">
-      <c r="E401" s="18"/>
+      <c r="E401" s="22"/>
     </row>
     <row r="402" customHeight="1" spans="5:5">
-      <c r="E402" s="18"/>
+      <c r="E402" s="22"/>
     </row>
     <row r="403" customHeight="1" spans="5:5">
-      <c r="E403" s="18"/>
+      <c r="E403" s="22"/>
     </row>
     <row r="404" customHeight="1" spans="5:5">
-      <c r="E404" s="18"/>
+      <c r="E404" s="22"/>
     </row>
     <row r="405" customHeight="1" spans="5:5">
-      <c r="E405" s="18"/>
+      <c r="E405" s="22"/>
     </row>
     <row r="406" customHeight="1" spans="5:5">
-      <c r="E406" s="18"/>
+      <c r="E406" s="22"/>
     </row>
     <row r="407" customHeight="1" spans="5:5">
-      <c r="E407" s="18"/>
+      <c r="E407" s="22"/>
     </row>
     <row r="408" customHeight="1" spans="5:5">
-      <c r="E408" s="18"/>
+      <c r="E408" s="22"/>
     </row>
     <row r="409" customHeight="1" spans="5:5">
-      <c r="E409" s="18"/>
+      <c r="E409" s="22"/>
     </row>
     <row r="410" customHeight="1" spans="5:5">
-      <c r="E410" s="18"/>
+      <c r="E410" s="22"/>
     </row>
     <row r="411" customHeight="1" spans="5:5">
-      <c r="E411" s="18"/>
+      <c r="E411" s="22"/>
     </row>
     <row r="412" customHeight="1" spans="5:5">
-      <c r="E412" s="18"/>
+      <c r="E412" s="22"/>
     </row>
     <row r="413" customHeight="1" spans="5:5">
-      <c r="E413" s="18"/>
+      <c r="E413" s="22"/>
     </row>
     <row r="414" customHeight="1" spans="5:5">
-      <c r="E414" s="18"/>
+      <c r="E414" s="22"/>
     </row>
     <row r="415" customHeight="1" spans="5:5">
-      <c r="E415" s="18"/>
+      <c r="E415" s="22"/>
     </row>
     <row r="416" customHeight="1" spans="5:5">
-      <c r="E416" s="18"/>
+      <c r="E416" s="22"/>
     </row>
     <row r="417" customHeight="1" spans="5:5">
-      <c r="E417" s="18"/>
+      <c r="E417" s="22"/>
     </row>
     <row r="418" customHeight="1" spans="5:5">
-      <c r="E418" s="18"/>
+      <c r="E418" s="22"/>
     </row>
     <row r="419" customHeight="1" spans="5:5">
-      <c r="E419" s="18"/>
+      <c r="E419" s="22"/>
     </row>
     <row r="420" customHeight="1" spans="5:5">
-      <c r="E420" s="18"/>
+      <c r="E420" s="22"/>
     </row>
     <row r="421" customHeight="1" spans="5:5">
-      <c r="E421" s="18"/>
+      <c r="E421" s="22"/>
     </row>
     <row r="422" customHeight="1" spans="5:5">
-      <c r="E422" s="18"/>
+      <c r="E422" s="22"/>
     </row>
     <row r="423" customHeight="1" spans="5:5">
-      <c r="E423" s="18"/>
+      <c r="E423" s="22"/>
     </row>
     <row r="424" customHeight="1" spans="5:5">
-      <c r="E424" s="18"/>
+      <c r="E424" s="22"/>
     </row>
     <row r="425" customHeight="1" spans="5:5">
-      <c r="E425" s="18"/>
+      <c r="E425" s="22"/>
     </row>
     <row r="426" customHeight="1" spans="5:5">
-      <c r="E426" s="18"/>
+      <c r="E426" s="22"/>
     </row>
     <row r="427" customHeight="1" spans="5:5">
-      <c r="E427" s="18"/>
+      <c r="E427" s="22"/>
     </row>
     <row r="428" customHeight="1" spans="5:5">
-      <c r="E428" s="18"/>
+      <c r="E428" s="22"/>
     </row>
     <row r="429" customHeight="1" spans="5:5">
-      <c r="E429" s="18"/>
+      <c r="E429" s="22"/>
     </row>
     <row r="430" customHeight="1" spans="5:5">
-      <c r="E430" s="18"/>
+      <c r="E430" s="22"/>
     </row>
     <row r="431" customHeight="1" spans="5:5">
-      <c r="E431" s="18"/>
+      <c r="E431" s="22"/>
     </row>
     <row r="432" customHeight="1" spans="5:5">
-      <c r="E432" s="18"/>
+      <c r="E432" s="22"/>
     </row>
     <row r="433" customHeight="1" spans="5:5">
-      <c r="E433" s="18"/>
+      <c r="E433" s="22"/>
     </row>
     <row r="434" customHeight="1" spans="5:5">
-      <c r="E434" s="18"/>
+      <c r="E434" s="22"/>
     </row>
     <row r="435" customHeight="1" spans="5:5">
-      <c r="E435" s="18"/>
+      <c r="E435" s="22"/>
     </row>
     <row r="436" customHeight="1" spans="5:5">
-      <c r="E436" s="18"/>
+      <c r="E436" s="22"/>
     </row>
     <row r="437" customHeight="1" spans="5:5">
-      <c r="E437" s="18"/>
+      <c r="E437" s="22"/>
     </row>
     <row r="438" customHeight="1" spans="5:5">
-      <c r="E438" s="18"/>
+      <c r="E438" s="22"/>
     </row>
     <row r="439" customHeight="1" spans="5:5">
-      <c r="E439" s="18"/>
+      <c r="E439" s="22"/>
     </row>
     <row r="440" customHeight="1" spans="5:5">
-      <c r="E440" s="18"/>
+      <c r="E440" s="22"/>
     </row>
     <row r="441" customHeight="1" spans="5:5">
-      <c r="E441" s="18"/>
+      <c r="E441" s="22"/>
     </row>
     <row r="442" customHeight="1" spans="5:5">
-      <c r="E442" s="18"/>
+      <c r="E442" s="22"/>
     </row>
     <row r="443" customHeight="1" spans="5:5">
-      <c r="E443" s="18"/>
+      <c r="E443" s="22"/>
     </row>
     <row r="444" customHeight="1" spans="5:5">
-      <c r="E444" s="18"/>
+      <c r="E444" s="22"/>
     </row>
     <row r="445" customHeight="1" spans="5:5">
-      <c r="E445" s="18"/>
+      <c r="E445" s="22"/>
     </row>
     <row r="446" customHeight="1" spans="5:5">
-      <c r="E446" s="18"/>
+      <c r="E446" s="22"/>
     </row>
     <row r="447" customHeight="1" spans="5:5">
-      <c r="E447" s="18"/>
+      <c r="E447" s="22"/>
     </row>
     <row r="448" customHeight="1" spans="5:5">
-      <c r="E448" s="18"/>
+      <c r="E448" s="22"/>
     </row>
     <row r="449" customHeight="1" spans="5:5">
-      <c r="E449" s="18"/>
+      <c r="E449" s="22"/>
     </row>
     <row r="450" customHeight="1" spans="5:5">
-      <c r="E450" s="18"/>
+      <c r="E450" s="22"/>
     </row>
     <row r="451" customHeight="1" spans="5:5">
-      <c r="E451" s="18"/>
+      <c r="E451" s="22"/>
     </row>
     <row r="452" customHeight="1" spans="5:5">
-      <c r="E452" s="18"/>
+      <c r="E452" s="22"/>
     </row>
     <row r="453" customHeight="1" spans="5:5">
-      <c r="E453" s="18"/>
+      <c r="E453" s="22"/>
     </row>
     <row r="454" customHeight="1" spans="5:5">
-      <c r="E454" s="18"/>
+      <c r="E454" s="22"/>
     </row>
     <row r="455" customHeight="1" spans="5:5">
-      <c r="E455" s="18"/>
+      <c r="E455" s="22"/>
     </row>
     <row r="456" customHeight="1" spans="5:5">
-      <c r="E456" s="18"/>
+      <c r="E456" s="22"/>
     </row>
     <row r="457" customHeight="1" spans="5:5">
-      <c r="E457" s="18"/>
+      <c r="E457" s="22"/>
     </row>
     <row r="458" customHeight="1" spans="5:5">
-      <c r="E458" s="18"/>
+      <c r="E458" s="22"/>
     </row>
     <row r="459" customHeight="1" spans="5:5">
-      <c r="E459" s="18"/>
+      <c r="E459" s="22"/>
     </row>
     <row r="460" customHeight="1" spans="5:5">
-      <c r="E460" s="18"/>
+      <c r="E460" s="22"/>
     </row>
     <row r="461" customHeight="1" spans="5:5">
-      <c r="E461" s="18"/>
+      <c r="E461" s="22"/>
     </row>
     <row r="462" customHeight="1" spans="5:5">
-      <c r="E462" s="18"/>
+      <c r="E462" s="22"/>
     </row>
     <row r="463" customHeight="1" spans="5:5">
-      <c r="E463" s="18"/>
+      <c r="E463" s="22"/>
     </row>
     <row r="464" customHeight="1" spans="5:5">
-      <c r="E464" s="18"/>
+      <c r="E464" s="22"/>
     </row>
     <row r="465" customHeight="1" spans="5:5">
-      <c r="E465" s="18"/>
+      <c r="E465" s="22"/>
     </row>
     <row r="466" customHeight="1" spans="5:5">
-      <c r="E466" s="18"/>
+      <c r="E466" s="22"/>
     </row>
     <row r="467" customHeight="1" spans="5:5">
-      <c r="E467" s="18"/>
+      <c r="E467" s="22"/>
     </row>
     <row r="468" customHeight="1" spans="5:5">
-      <c r="E468" s="18"/>
+      <c r="E468" s="22"/>
     </row>
     <row r="469" customHeight="1" spans="5:5">
-      <c r="E469" s="18"/>
+      <c r="E469" s="22"/>
     </row>
     <row r="470" customHeight="1" spans="5:5">
-      <c r="E470" s="18"/>
+      <c r="E470" s="22"/>
     </row>
     <row r="471" customHeight="1" spans="5:5">
-      <c r="E471" s="18"/>
+      <c r="E471" s="22"/>
     </row>
     <row r="472" customHeight="1" spans="5:5">
-      <c r="E472" s="18"/>
+      <c r="E472" s="22"/>
     </row>
     <row r="473" customHeight="1" spans="5:5">
-      <c r="E473" s="18"/>
+      <c r="E473" s="22"/>
     </row>
     <row r="474" customHeight="1" spans="5:5">
-      <c r="E474" s="18"/>
+      <c r="E474" s="22"/>
     </row>
     <row r="475" customHeight="1" spans="5:5">
-      <c r="E475" s="18"/>
+      <c r="E475" s="22"/>
     </row>
     <row r="476" customHeight="1" spans="5:5">
-      <c r="E476" s="18"/>
+      <c r="E476" s="22"/>
     </row>
     <row r="477" customHeight="1" spans="5:5">
-      <c r="E477" s="18"/>
+      <c r="E477" s="22"/>
     </row>
     <row r="478" customHeight="1" spans="5:5">
-      <c r="E478" s="18"/>
+      <c r="E478" s="22"/>
     </row>
     <row r="479" customHeight="1" spans="5:5">
-      <c r="E479" s="18"/>
+      <c r="E479" s="22"/>
     </row>
     <row r="480" customHeight="1" spans="5:5">
-      <c r="E480" s="18"/>
+      <c r="E480" s="22"/>
     </row>
     <row r="481" customHeight="1" spans="5:5">
-      <c r="E481" s="18"/>
+      <c r="E481" s="22"/>
     </row>
     <row r="482" customHeight="1" spans="5:5">
-      <c r="E482" s="18"/>
+      <c r="E482" s="22"/>
     </row>
     <row r="483" customHeight="1" spans="5:5">
-      <c r="E483" s="18"/>
+      <c r="E483" s="22"/>
     </row>
     <row r="484" customHeight="1" spans="5:5">
-      <c r="E484" s="18"/>
+      <c r="E484" s="22"/>
     </row>
     <row r="485" customHeight="1" spans="5:5">
-      <c r="E485" s="18"/>
+      <c r="E485" s="22"/>
     </row>
     <row r="486" customHeight="1" spans="5:5">
-      <c r="E486" s="18"/>
+      <c r="E486" s="22"/>
     </row>
     <row r="487" customHeight="1" spans="5:5">
-      <c r="E487" s="18"/>
+      <c r="E487" s="22"/>
     </row>
     <row r="488" customHeight="1" spans="5:5">
-      <c r="E488" s="18"/>
+      <c r="E488" s="22"/>
     </row>
     <row r="489" customHeight="1" spans="5:5">
-      <c r="E489" s="18"/>
+      <c r="E489" s="22"/>
     </row>
     <row r="490" customHeight="1" spans="5:5">
-      <c r="E490" s="18"/>
+      <c r="E490" s="22"/>
     </row>
     <row r="491" customHeight="1" spans="5:5">
-      <c r="E491" s="18"/>
+      <c r="E491" s="22"/>
     </row>
     <row r="492" customHeight="1" spans="5:5">
-      <c r="E492" s="18"/>
+      <c r="E492" s="22"/>
     </row>
     <row r="493" customHeight="1" spans="5:5">
-      <c r="E493" s="18"/>
+      <c r="E493" s="22"/>
     </row>
     <row r="494" customHeight="1" spans="5:5">
-      <c r="E494" s="18"/>
+      <c r="E494" s="22"/>
     </row>
     <row r="495" customHeight="1" spans="5:5">
-      <c r="E495" s="18"/>
+      <c r="E495" s="22"/>
     </row>
     <row r="496" customHeight="1" spans="5:5">
-      <c r="E496" s="18"/>
+      <c r="E496" s="22"/>
     </row>
     <row r="497" customHeight="1" spans="5:5">
-      <c r="E497" s="18"/>
+      <c r="E497" s="22"/>
     </row>
     <row r="498" customHeight="1" spans="5:5">
-      <c r="E498" s="18"/>
+      <c r="E498" s="22"/>
     </row>
     <row r="499" customHeight="1" spans="5:5">
-      <c r="E499" s="18"/>
+      <c r="E499" s="22"/>
     </row>
     <row r="500" customHeight="1" spans="5:5">
-      <c r="E500" s="18"/>
+      <c r="E500" s="22"/>
     </row>
     <row r="501" customHeight="1" spans="5:5">
-      <c r="E501" s="18"/>
+      <c r="E501" s="22"/>
     </row>
     <row r="502" customHeight="1" spans="5:5">
-      <c r="E502" s="18"/>
+      <c r="E502" s="22"/>
     </row>
     <row r="503" customHeight="1" spans="5:5">
-      <c r="E503" s="18"/>
+      <c r="E503" s="22"/>
     </row>
     <row r="504" customHeight="1" spans="5:5">
-      <c r="E504" s="18"/>
+      <c r="E504" s="22"/>
     </row>
     <row r="505" customHeight="1" spans="5:5">
-      <c r="E505" s="18"/>
+      <c r="E505" s="22"/>
     </row>
     <row r="506" customHeight="1" spans="5:5">
-      <c r="E506" s="18"/>
+      <c r="E506" s="22"/>
     </row>
     <row r="507" customHeight="1" spans="5:5">
-      <c r="E507" s="18"/>
+      <c r="E507" s="22"/>
     </row>
     <row r="508" customHeight="1" spans="5:5">
-      <c r="E508" s="18"/>
+      <c r="E508" s="22"/>
     </row>
     <row r="509" customHeight="1" spans="5:5">
-      <c r="E509" s="18"/>
+      <c r="E509" s="22"/>
     </row>
     <row r="510" customHeight="1" spans="5:5">
-      <c r="E510" s="18"/>
+      <c r="E510" s="22"/>
     </row>
     <row r="511" customHeight="1" spans="5:5">
-      <c r="E511" s="18"/>
+      <c r="E511" s="22"/>
     </row>
     <row r="512" customHeight="1" spans="5:5">
-      <c r="E512" s="18"/>
+      <c r="E512" s="22"/>
     </row>
     <row r="513" customHeight="1" spans="5:5">
-      <c r="E513" s="18"/>
+      <c r="E513" s="22"/>
     </row>
     <row r="514" customHeight="1" spans="5:5">
-      <c r="E514" s="18"/>
+      <c r="E514" s="22"/>
     </row>
     <row r="515" customHeight="1" spans="5:5">
-      <c r="E515" s="18"/>
+      <c r="E515" s="22"/>
     </row>
     <row r="516" customHeight="1" spans="5:5">
-      <c r="E516" s="18"/>
+      <c r="E516" s="22"/>
     </row>
     <row r="517" customHeight="1" spans="5:5">
-      <c r="E517" s="18"/>
+      <c r="E517" s="22"/>
     </row>
     <row r="518" customHeight="1" spans="5:5">
-      <c r="E518" s="18"/>
+      <c r="E518" s="22"/>
     </row>
     <row r="519" customHeight="1" spans="5:5">
-      <c r="E519" s="18"/>
+      <c r="E519" s="22"/>
     </row>
     <row r="520" customHeight="1" spans="5:5">
-      <c r="E520" s="18"/>
+      <c r="E520" s="22"/>
     </row>
     <row r="521" customHeight="1" spans="5:5">
-      <c r="E521" s="18"/>
+      <c r="E521" s="22"/>
     </row>
     <row r="522" customHeight="1" spans="5:5">
-      <c r="E522" s="18"/>
+      <c r="E522" s="22"/>
     </row>
     <row r="523" customHeight="1" spans="5:5">
-      <c r="E523" s="18"/>
+      <c r="E523" s="22"/>
     </row>
     <row r="524" customHeight="1" spans="5:5">
-      <c r="E524" s="18"/>
+      <c r="E524" s="22"/>
     </row>
     <row r="525" customHeight="1" spans="5:5">
-      <c r="E525" s="18"/>
+      <c r="E525" s="22"/>
     </row>
     <row r="526" customHeight="1" spans="5:5">
-      <c r="E526" s="18"/>
+      <c r="E526" s="22"/>
     </row>
     <row r="527" customHeight="1" spans="5:5">
-      <c r="E527" s="18"/>
+      <c r="E527" s="22"/>
     </row>
     <row r="528" customHeight="1" spans="5:5">
-      <c r="E528" s="18"/>
+      <c r="E528" s="22"/>
     </row>
     <row r="529" customHeight="1" spans="5:5">
-      <c r="E529" s="18"/>
+      <c r="E529" s="22"/>
     </row>
     <row r="530" customHeight="1" spans="5:5">
-      <c r="E530" s="18"/>
+      <c r="E530" s="22"/>
     </row>
     <row r="531" customHeight="1" spans="5:5">
-      <c r="E531" s="18"/>
+      <c r="E531" s="22"/>
     </row>
     <row r="532" customHeight="1" spans="5:5">
-      <c r="E532" s="18"/>
+      <c r="E532" s="22"/>
     </row>
     <row r="533" customHeight="1" spans="5:5">
-      <c r="E533" s="18"/>
+      <c r="E533" s="22"/>
     </row>
     <row r="534" customHeight="1" spans="5:5">
-      <c r="E534" s="18"/>
+      <c r="E534" s="22"/>
     </row>
     <row r="535" customHeight="1" spans="5:5">
-      <c r="E535" s="18"/>
+      <c r="E535" s="22"/>
     </row>
     <row r="536" customHeight="1" spans="5:5">
-      <c r="E536" s="18"/>
+      <c r="E536" s="22"/>
     </row>
     <row r="537" customHeight="1" spans="5:5">
-      <c r="E537" s="18"/>
+      <c r="E537" s="22"/>
     </row>
     <row r="538" customHeight="1" spans="5:5">
-      <c r="E538" s="18"/>
+      <c r="E538" s="22"/>
     </row>
     <row r="539" customHeight="1" spans="5:5">
-      <c r="E539" s="18"/>
+      <c r="E539" s="22"/>
     </row>
     <row r="540" customHeight="1" spans="5:5">
-      <c r="E540" s="18"/>
+      <c r="E540" s="22"/>
     </row>
     <row r="541" customHeight="1" spans="5:5">
-      <c r="E541" s="18"/>
+      <c r="E541" s="22"/>
     </row>
     <row r="542" customHeight="1" spans="5:5">
-      <c r="E542" s="18"/>
+      <c r="E542" s="22"/>
     </row>
     <row r="543" customHeight="1" spans="5:5">
-      <c r="E543" s="18"/>
+      <c r="E543" s="22"/>
     </row>
     <row r="544" customHeight="1" spans="5:5">
-      <c r="E544" s="18"/>
+      <c r="E544" s="22"/>
     </row>
     <row r="545" customHeight="1" spans="5:5">
-      <c r="E545" s="18"/>
+      <c r="E545" s="22"/>
     </row>
     <row r="546" customHeight="1" spans="5:5">
-      <c r="E546" s="18"/>
+      <c r="E546" s="22"/>
     </row>
     <row r="547" customHeight="1" spans="5:5">
-      <c r="E547" s="18"/>
+      <c r="E547" s="22"/>
     </row>
     <row r="548" customHeight="1" spans="5:5">
-      <c r="E548" s="18"/>
+      <c r="E548" s="22"/>
     </row>
     <row r="549" customHeight="1" spans="5:5">
-      <c r="E549" s="18"/>
+      <c r="E549" s="22"/>
     </row>
     <row r="550" customHeight="1" spans="5:5">
-      <c r="E550" s="18"/>
+      <c r="E550" s="22"/>
     </row>
     <row r="551" customHeight="1" spans="5:5">
-      <c r="E551" s="18"/>
+      <c r="E551" s="22"/>
     </row>
     <row r="552" customHeight="1" spans="5:5">
-      <c r="E552" s="18"/>
+      <c r="E552" s="22"/>
     </row>
     <row r="553" customHeight="1" spans="5:5">
-      <c r="E553" s="18"/>
+      <c r="E553" s="22"/>
     </row>
     <row r="554" customHeight="1" spans="5:5">
-      <c r="E554" s="18"/>
+      <c r="E554" s="22"/>
     </row>
     <row r="555" customHeight="1" spans="5:5">
-      <c r="E555" s="18"/>
+      <c r="E555" s="22"/>
     </row>
     <row r="556" customHeight="1" spans="5:5">
-      <c r="E556" s="18"/>
+      <c r="E556" s="22"/>
     </row>
     <row r="557" customHeight="1" spans="5:5">
-      <c r="E557" s="18"/>
+      <c r="E557" s="22"/>
     </row>
     <row r="558" customHeight="1" spans="5:5">
-      <c r="E558" s="18"/>
+      <c r="E558" s="22"/>
     </row>
     <row r="559" customHeight="1" spans="5:5">
-      <c r="E559" s="18"/>
+      <c r="E559" s="22"/>
     </row>
     <row r="560" customHeight="1" spans="5:5">
-      <c r="E560" s="18"/>
+      <c r="E560" s="22"/>
     </row>
     <row r="561" customHeight="1" spans="5:5">
-      <c r="E561" s="18"/>
+      <c r="E561" s="22"/>
     </row>
     <row r="562" customHeight="1" spans="5:5">
-      <c r="E562" s="18"/>
+      <c r="E562" s="22"/>
     </row>
     <row r="563" customHeight="1" spans="5:5">
-      <c r="E563" s="18"/>
+      <c r="E563" s="22"/>
     </row>
     <row r="564" customHeight="1" spans="5:5">
-      <c r="E564" s="18"/>
+      <c r="E564" s="22"/>
     </row>
     <row r="565" customHeight="1" spans="5:5">
-      <c r="E565" s="18"/>
+      <c r="E565" s="22"/>
     </row>
     <row r="566" customHeight="1" spans="5:5">
-      <c r="E566" s="18"/>
+      <c r="E566" s="22"/>
     </row>
     <row r="567" customHeight="1" spans="5:5">
-      <c r="E567" s="18"/>
+      <c r="E567" s="22"/>
     </row>
     <row r="568" customHeight="1" spans="5:5">
-      <c r="E568" s="18"/>
+      <c r="E568" s="22"/>
     </row>
     <row r="569" customHeight="1" spans="5:5">
-      <c r="E569" s="18"/>
+      <c r="E569" s="22"/>
     </row>
     <row r="570" customHeight="1" spans="5:5">
-      <c r="E570" s="18"/>
+      <c r="E570" s="22"/>
     </row>
     <row r="571" customHeight="1" spans="5:5">
-      <c r="E571" s="18"/>
+      <c r="E571" s="22"/>
     </row>
     <row r="572" customHeight="1" spans="5:5">
-      <c r="E572" s="18"/>
+      <c r="E572" s="22"/>
     </row>
     <row r="573" customHeight="1" spans="5:5">
-      <c r="E573" s="18"/>
+      <c r="E573" s="22"/>
     </row>
     <row r="574" customHeight="1" spans="5:5">
-      <c r="E574" s="18"/>
+      <c r="E574" s="22"/>
     </row>
     <row r="575" customHeight="1" spans="5:5">
-      <c r="E575" s="18"/>
+      <c r="E575" s="22"/>
     </row>
     <row r="576" customHeight="1" spans="5:5">
-      <c r="E576" s="18"/>
+      <c r="E576" s="22"/>
     </row>
     <row r="577" customHeight="1" spans="5:5">
-      <c r="E577" s="18"/>
+      <c r="E577" s="22"/>
     </row>
     <row r="578" customHeight="1" spans="5:5">
-      <c r="E578" s="18"/>
+      <c r="E578" s="22"/>
     </row>
     <row r="579" customHeight="1" spans="5:5">
-      <c r="E579" s="18"/>
+      <c r="E579" s="22"/>
     </row>
     <row r="580" customHeight="1" spans="5:5">
-      <c r="E580" s="18"/>
+      <c r="E580" s="22"/>
     </row>
     <row r="581" customHeight="1" spans="5:5">
-      <c r="E581" s="18"/>
+      <c r="E581" s="22"/>
     </row>
     <row r="582" customHeight="1" spans="5:5">
-      <c r="E582" s="18"/>
+      <c r="E582" s="22"/>
     </row>
     <row r="583" customHeight="1" spans="5:5">
-      <c r="E583" s="18"/>
+      <c r="E583" s="22"/>
     </row>
     <row r="584" customHeight="1" spans="5:5">
-      <c r="E584" s="18"/>
+      <c r="E584" s="22"/>
     </row>
     <row r="585" customHeight="1" spans="5:5">
-      <c r="E585" s="18"/>
+      <c r="E585" s="22"/>
     </row>
     <row r="586" customHeight="1" spans="5:5">
-      <c r="E586" s="18"/>
+      <c r="E586" s="22"/>
     </row>
     <row r="587" customHeight="1" spans="5:5">
-      <c r="E587" s="18"/>
+      <c r="E587" s="22"/>
     </row>
     <row r="588" customHeight="1" spans="5:5">
-      <c r="E588" s="18"/>
+      <c r="E588" s="22"/>
     </row>
     <row r="589" customHeight="1" spans="5:5">
-      <c r="E589" s="18"/>
+      <c r="E589" s="22"/>
     </row>
     <row r="590" customHeight="1" spans="5:5">
-      <c r="E590" s="18"/>
+      <c r="E590" s="22"/>
     </row>
     <row r="591" customHeight="1" spans="5:5">
-      <c r="E591" s="18"/>
+      <c r="E591" s="22"/>
     </row>
     <row r="592" customHeight="1" spans="5:5">
-      <c r="E592" s="18"/>
+      <c r="E592" s="22"/>
     </row>
     <row r="593" customHeight="1" spans="5:5">
-      <c r="E593" s="18"/>
+      <c r="E593" s="22"/>
     </row>
     <row r="594" customHeight="1" spans="5:5">
-      <c r="E594" s="18"/>
+      <c r="E594" s="22"/>
     </row>
     <row r="595" customHeight="1" spans="5:5">
-      <c r="E595" s="18"/>
+      <c r="E595" s="22"/>
     </row>
     <row r="596" customHeight="1" spans="5:5">
-      <c r="E596" s="18"/>
+      <c r="E596" s="22"/>
     </row>
     <row r="597" customHeight="1" spans="5:5">
-      <c r="E597" s="18"/>
+      <c r="E597" s="22"/>
     </row>
     <row r="598" customHeight="1" spans="5:5">
-      <c r="E598" s="18"/>
+      <c r="E598" s="22"/>
     </row>
     <row r="599" customHeight="1" spans="5:5">
-      <c r="E599" s="18"/>
+      <c r="E599" s="22"/>
     </row>
     <row r="600" customHeight="1" spans="5:5">
-      <c r="E600" s="18"/>
+      <c r="E600" s="22"/>
     </row>
     <row r="601" customHeight="1" spans="5:5">
-      <c r="E601" s="18"/>
+      <c r="E601" s="22"/>
     </row>
     <row r="602" customHeight="1" spans="5:5">
-      <c r="E602" s="18"/>
+      <c r="E602" s="22"/>
     </row>
     <row r="603" customHeight="1" spans="5:5">
-      <c r="E603" s="18"/>
+      <c r="E603" s="22"/>
     </row>
     <row r="604" customHeight="1" spans="5:5">
-      <c r="E604" s="18"/>
+      <c r="E604" s="22"/>
     </row>
     <row r="605" customHeight="1" spans="5:5">
-      <c r="E605" s="18"/>
+      <c r="E605" s="22"/>
     </row>
     <row r="606" customHeight="1" spans="5:5">
-      <c r="E606" s="18"/>
+      <c r="E606" s="22"/>
     </row>
     <row r="607" customHeight="1" spans="5:5">
-      <c r="E607" s="18"/>
+      <c r="E607" s="22"/>
     </row>
     <row r="608" customHeight="1" spans="5:5">
-      <c r="E608" s="18"/>
+      <c r="E608" s="22"/>
     </row>
     <row r="609" customHeight="1" spans="5:5">
-      <c r="E609" s="18"/>
+      <c r="E609" s="22"/>
     </row>
     <row r="610" customHeight="1" spans="5:5">
-      <c r="E610" s="18"/>
+      <c r="E610" s="22"/>
     </row>
     <row r="611" customHeight="1" spans="5:5">
-      <c r="E611" s="18"/>
+      <c r="E611" s="22"/>
     </row>
     <row r="612" customHeight="1" spans="5:5">
-      <c r="E612" s="18"/>
+      <c r="E612" s="22"/>
     </row>
     <row r="613" customHeight="1" spans="5:5">
-      <c r="E613" s="18"/>
+      <c r="E613" s="22"/>
     </row>
     <row r="614" customHeight="1" spans="5:5">
-      <c r="E614" s="18"/>
+      <c r="E614" s="22"/>
     </row>
     <row r="615" customHeight="1" spans="5:5">
-      <c r="E615" s="18"/>
+      <c r="E615" s="22"/>
     </row>
     <row r="616" customHeight="1" spans="5:5">
-      <c r="E616" s="18"/>
+      <c r="E616" s="22"/>
     </row>
     <row r="617" customHeight="1" spans="5:5">
-      <c r="E617" s="18"/>
+      <c r="E617" s="22"/>
     </row>
     <row r="618" customHeight="1" spans="5:5">
-      <c r="E618" s="18"/>
+      <c r="E618" s="22"/>
     </row>
     <row r="619" customHeight="1" spans="5:5">
-      <c r="E619" s="18"/>
+      <c r="E619" s="22"/>
     </row>
     <row r="620" customHeight="1" spans="5:5">
-      <c r="E620" s="18"/>
+      <c r="E620" s="22"/>
     </row>
     <row r="621" customHeight="1" spans="5:5">
-      <c r="E621" s="18"/>
+      <c r="E621" s="22"/>
     </row>
     <row r="622" customHeight="1" spans="5:5">
-      <c r="E622" s="18"/>
+      <c r="E622" s="22"/>
     </row>
     <row r="623" customHeight="1" spans="5:5">
-      <c r="E623" s="18"/>
+      <c r="E623" s="22"/>
     </row>
     <row r="624" customHeight="1" spans="5:5">
-      <c r="E624" s="18"/>
+      <c r="E624" s="22"/>
     </row>
     <row r="625" customHeight="1" spans="5:5">
-      <c r="E625" s="18"/>
+      <c r="E625" s="22"/>
     </row>
     <row r="626" customHeight="1" spans="5:5">
-      <c r="E626" s="18"/>
+      <c r="E626" s="22"/>
     </row>
     <row r="627" customHeight="1" spans="5:5">
-      <c r="E627" s="18"/>
+      <c r="E627" s="22"/>
     </row>
     <row r="628" customHeight="1" spans="5:5">
-      <c r="E628" s="18"/>
+      <c r="E628" s="22"/>
     </row>
     <row r="629" customHeight="1" spans="5:5">
-      <c r="E629" s="18"/>
+      <c r="E629" s="22"/>
     </row>
     <row r="630" customHeight="1" spans="5:5">
-      <c r="E630" s="18"/>
+      <c r="E630" s="22"/>
     </row>
     <row r="631" customHeight="1" spans="5:5">
-      <c r="E631" s="18"/>
+      <c r="E631" s="22"/>
     </row>
     <row r="632" customHeight="1" spans="5:5">
-      <c r="E632" s="18"/>
+      <c r="E632" s="22"/>
     </row>
     <row r="633" customHeight="1" spans="5:5">
-      <c r="E633" s="18"/>
+      <c r="E633" s="22"/>
     </row>
     <row r="634" customHeight="1" spans="5:5">
-      <c r="E634" s="18"/>
+      <c r="E634" s="22"/>
     </row>
     <row r="635" customHeight="1" spans="5:5">
-      <c r="E635" s="18"/>
+      <c r="E635" s="22"/>
     </row>
     <row r="636" customHeight="1" spans="5:5">
-      <c r="E636" s="18"/>
+      <c r="E636" s="22"/>
     </row>
     <row r="637" customHeight="1" spans="5:5">
-      <c r="E637" s="18"/>
+      <c r="E637" s="22"/>
     </row>
     <row r="638" customHeight="1" spans="5:5">
-      <c r="E638" s="18"/>
+      <c r="E638" s="22"/>
     </row>
     <row r="639" customHeight="1" spans="5:5">
-      <c r="E639" s="18"/>
+      <c r="E639" s="22"/>
     </row>
     <row r="640" customHeight="1" spans="5:5">
-      <c r="E640" s="18"/>
+      <c r="E640" s="22"/>
     </row>
     <row r="641" customHeight="1" spans="5:5">
-      <c r="E641" s="18"/>
+      <c r="E641" s="22"/>
     </row>
     <row r="642" customHeight="1" spans="5:5">
-      <c r="E642" s="18"/>
+      <c r="E642" s="22"/>
     </row>
     <row r="643" customHeight="1" spans="5:5">
-      <c r="E643" s="18"/>
+      <c r="E643" s="22"/>
     </row>
     <row r="644" customHeight="1" spans="5:5">
-      <c r="E644" s="18"/>
+      <c r="E644" s="22"/>
     </row>
     <row r="645" customHeight="1" spans="5:5">
-      <c r="E645" s="18"/>
+      <c r="E645" s="22"/>
     </row>
     <row r="646" customHeight="1" spans="5:5">
-      <c r="E646" s="18"/>
+      <c r="E646" s="22"/>
     </row>
     <row r="647" customHeight="1" spans="5:5">
-      <c r="E647" s="18"/>
+      <c r="E647" s="22"/>
     </row>
     <row r="648" customHeight="1" spans="5:5">
-      <c r="E648" s="18"/>
+      <c r="E648" s="22"/>
     </row>
     <row r="649" customHeight="1" spans="5:5">
-      <c r="E649" s="18"/>
+      <c r="E649" s="22"/>
     </row>
     <row r="650" customHeight="1" spans="5:5">
-      <c r="E650" s="18"/>
+      <c r="E650" s="22"/>
     </row>
     <row r="651" customHeight="1" spans="5:5">
-      <c r="E651" s="18"/>
+      <c r="E651" s="22"/>
     </row>
     <row r="652" customHeight="1" spans="5:5">
-      <c r="E652" s="18"/>
+      <c r="E652" s="22"/>
     </row>
     <row r="653" customHeight="1" spans="5:5">
-      <c r="E653" s="18"/>
+      <c r="E653" s="22"/>
     </row>
     <row r="654" customHeight="1" spans="5:5">
-      <c r="E654" s="18"/>
+      <c r="E654" s="22"/>
     </row>
     <row r="655" customHeight="1" spans="5:5">
-      <c r="E655" s="18"/>
+      <c r="E655" s="22"/>
     </row>
     <row r="656" customHeight="1" spans="5:5">
-      <c r="E656" s="18"/>
+      <c r="E656" s="22"/>
     </row>
     <row r="657" customHeight="1" spans="5:5">
-      <c r="E657" s="18"/>
+      <c r="E657" s="22"/>
     </row>
     <row r="658" customHeight="1" spans="5:5">
-      <c r="E658" s="18"/>
+      <c r="E658" s="22"/>
     </row>
     <row r="659" customHeight="1" spans="5:5">
-      <c r="E659" s="18"/>
+      <c r="E659" s="22"/>
     </row>
     <row r="660" customHeight="1" spans="5:5">
-      <c r="E660" s="18"/>
+      <c r="E660" s="22"/>
     </row>
     <row r="661" customHeight="1" spans="5:5">
-      <c r="E661" s="18"/>
+      <c r="E661" s="22"/>
     </row>
     <row r="662" customHeight="1" spans="5:5">
-      <c r="E662" s="18"/>
+      <c r="E662" s="22"/>
     </row>
     <row r="663" customHeight="1" spans="5:5">
-      <c r="E663" s="18"/>
+      <c r="E663" s="22"/>
     </row>
     <row r="664" customHeight="1" spans="5:5">
-      <c r="E664" s="18"/>
+      <c r="E664" s="22"/>
     </row>
     <row r="665" customHeight="1" spans="5:5">
-      <c r="E665" s="18"/>
+      <c r="E665" s="22"/>
     </row>
     <row r="666" customHeight="1" spans="5:5">
-      <c r="E666" s="18"/>
+      <c r="E666" s="22"/>
     </row>
     <row r="667" customHeight="1" spans="5:5">
-      <c r="E667" s="18"/>
+      <c r="E667" s="22"/>
     </row>
     <row r="668" customHeight="1" spans="5:5">
-      <c r="E668" s="18"/>
+      <c r="E668" s="22"/>
     </row>
     <row r="669" customHeight="1" spans="5:5">
-      <c r="E669" s="18"/>
+      <c r="E669" s="22"/>
     </row>
     <row r="670" customHeight="1" spans="5:5">
-      <c r="E670" s="18"/>
+      <c r="E670" s="22"/>
     </row>
     <row r="671" customHeight="1" spans="5:5">
-      <c r="E671" s="18"/>
+      <c r="E671" s="22"/>
     </row>
     <row r="672" customHeight="1" spans="5:5">
-      <c r="E672" s="18"/>
+      <c r="E672" s="22"/>
     </row>
     <row r="673" customHeight="1" spans="5:5">
-      <c r="E673" s="18"/>
+      <c r="E673" s="22"/>
     </row>
     <row r="674" customHeight="1" spans="5:5">
-      <c r="E674" s="18"/>
+      <c r="E674" s="22"/>
     </row>
     <row r="675" customHeight="1" spans="5:5">
-      <c r="E675" s="18"/>
+      <c r="E675" s="22"/>
     </row>
     <row r="676" customHeight="1" spans="5:5">
-      <c r="E676" s="18"/>
+      <c r="E676" s="22"/>
     </row>
     <row r="677" customHeight="1" spans="5:5">
-      <c r="E677" s="18"/>
+      <c r="E677" s="22"/>
     </row>
     <row r="678" customHeight="1" spans="5:5">
-      <c r="E678" s="18"/>
+      <c r="E678" s="22"/>
     </row>
     <row r="679" customHeight="1" spans="5:5">
-      <c r="E679" s="18"/>
+      <c r="E679" s="22"/>
     </row>
     <row r="680" customHeight="1" spans="5:5">
-      <c r="E680" s="18"/>
+      <c r="E680" s="22"/>
     </row>
     <row r="681" customHeight="1" spans="5:5">
-      <c r="E681" s="18"/>
+      <c r="E681" s="22"/>
     </row>
     <row r="682" customHeight="1" spans="5:5">
-      <c r="E682" s="18"/>
+      <c r="E682" s="22"/>
     </row>
     <row r="683" customHeight="1" spans="5:5">
-      <c r="E683" s="18"/>
+      <c r="E683" s="22"/>
     </row>
     <row r="684" customHeight="1" spans="5:5">
-      <c r="E684" s="18"/>
+      <c r="E684" s="22"/>
     </row>
     <row r="685" customHeight="1" spans="5:5">
-      <c r="E685" s="18"/>
+      <c r="E685" s="22"/>
     </row>
     <row r="686" customHeight="1" spans="5:5">
-      <c r="E686" s="18"/>
+      <c r="E686" s="22"/>
     </row>
     <row r="687" customHeight="1" spans="5:5">
-      <c r="E687" s="18"/>
+      <c r="E687" s="22"/>
     </row>
     <row r="688" customHeight="1" spans="5:5">
-      <c r="E688" s="18"/>
+      <c r="E688" s="22"/>
     </row>
     <row r="689" customHeight="1" spans="5:5">
-      <c r="E689" s="18"/>
+      <c r="E689" s="22"/>
     </row>
     <row r="690" customHeight="1" spans="5:5">
-      <c r="E690" s="18"/>
+      <c r="E690" s="22"/>
     </row>
     <row r="691" customHeight="1" spans="5:5">
-      <c r="E691" s="18"/>
+      <c r="E691" s="22"/>
     </row>
     <row r="692" customHeight="1" spans="5:5">
-      <c r="E692" s="18"/>
+      <c r="E692" s="22"/>
     </row>
     <row r="693" customHeight="1" spans="5:5">
-      <c r="E693" s="18"/>
+      <c r="E693" s="22"/>
     </row>
     <row r="694" customHeight="1" spans="5:5">
-      <c r="E694" s="18"/>
+      <c r="E694" s="22"/>
     </row>
     <row r="695" customHeight="1" spans="5:5">
-      <c r="E695" s="18"/>
+      <c r="E695" s="22"/>
     </row>
     <row r="696" customHeight="1" spans="5:5">
-      <c r="E696" s="18"/>
+      <c r="E696" s="22"/>
     </row>
     <row r="697" customHeight="1" spans="5:5">
-      <c r="E697" s="18"/>
+      <c r="E697" s="22"/>
     </row>
     <row r="698" customHeight="1" spans="5:5">
-      <c r="E698" s="18"/>
+      <c r="E698" s="22"/>
     </row>
     <row r="699" customHeight="1" spans="5:5">
-      <c r="E699" s="18"/>
+      <c r="E699" s="22"/>
     </row>
     <row r="700" customHeight="1" spans="5:5">
-      <c r="E700" s="18"/>
+      <c r="E700" s="22"/>
     </row>
     <row r="701" customHeight="1" spans="5:5">
-      <c r="E701" s="18"/>
+      <c r="E701" s="22"/>
     </row>
     <row r="702" customHeight="1" spans="5:5">
-      <c r="E702" s="18"/>
+      <c r="E702" s="22"/>
     </row>
     <row r="703" customHeight="1" spans="5:5">
-      <c r="E703" s="18"/>
+      <c r="E703" s="22"/>
     </row>
     <row r="704" customHeight="1" spans="5:5">
-      <c r="E704" s="18"/>
+      <c r="E704" s="22"/>
     </row>
     <row r="705" customHeight="1" spans="5:5">
-      <c r="E705" s="18"/>
+      <c r="E705" s="22"/>
     </row>
     <row r="706" customHeight="1" spans="5:5">
-      <c r="E706" s="18"/>
+      <c r="E706" s="22"/>
     </row>
     <row r="707" customHeight="1" spans="5:5">
-      <c r="E707" s="18"/>
+      <c r="E707" s="22"/>
     </row>
     <row r="708" customHeight="1" spans="5:5">
-      <c r="E708" s="18"/>
+      <c r="E708" s="22"/>
     </row>
     <row r="709" customHeight="1" spans="5:5">
-      <c r="E709" s="18"/>
+      <c r="E709" s="22"/>
     </row>
     <row r="710" customHeight="1" spans="5:5">
-      <c r="E710" s="18"/>
+      <c r="E710" s="22"/>
     </row>
     <row r="711" customHeight="1" spans="5:5">
-      <c r="E711" s="18"/>
+      <c r="E711" s="22"/>
     </row>
     <row r="712" customHeight="1" spans="5:5">
-      <c r="E712" s="18"/>
+      <c r="E712" s="22"/>
     </row>
     <row r="713" customHeight="1" spans="5:5">
-      <c r="E713" s="18"/>
+      <c r="E713" s="22"/>
     </row>
     <row r="714" customHeight="1" spans="5:5">
-      <c r="E714" s="18"/>
+      <c r="E714" s="22"/>
     </row>
     <row r="715" customHeight="1" spans="5:5">
-      <c r="E715" s="18"/>
+      <c r="E715" s="22"/>
     </row>
     <row r="716" customHeight="1" spans="5:5">
-      <c r="E716" s="18"/>
+      <c r="E716" s="22"/>
     </row>
     <row r="717" customHeight="1" spans="5:5">
-      <c r="E717" s="18"/>
+      <c r="E717" s="22"/>
     </row>
     <row r="718" customHeight="1" spans="5:5">
-      <c r="E718" s="18"/>
+      <c r="E718" s="22"/>
     </row>
     <row r="719" customHeight="1" spans="5:5">
-      <c r="E719" s="18"/>
+      <c r="E719" s="22"/>
     </row>
     <row r="720" customHeight="1" spans="5:5">
-      <c r="E720" s="18"/>
+      <c r="E720" s="22"/>
     </row>
     <row r="721" customHeight="1" spans="5:5">
-      <c r="E721" s="18"/>
+      <c r="E721" s="22"/>
     </row>
     <row r="722" customHeight="1" spans="5:5">
-      <c r="E722" s="18"/>
+      <c r="E722" s="22"/>
     </row>
     <row r="723" customHeight="1" spans="5:5">
-      <c r="E723" s="18"/>
+      <c r="E723" s="22"/>
     </row>
     <row r="724" customHeight="1" spans="5:5">
-      <c r="E724" s="18"/>
+      <c r="E724" s="22"/>
     </row>
     <row r="725" customHeight="1" spans="5:5">
-      <c r="E725" s="18"/>
+      <c r="E725" s="22"/>
     </row>
     <row r="726" customHeight="1" spans="5:5">
-      <c r="E726" s="18"/>
+      <c r="E726" s="22"/>
     </row>
     <row r="727" customHeight="1" spans="5:5">
-      <c r="E727" s="18"/>
+      <c r="E727" s="22"/>
     </row>
     <row r="728" customHeight="1" spans="5:5">
-      <c r="E728" s="18"/>
+      <c r="E728" s="22"/>
     </row>
     <row r="729" customHeight="1" spans="5:5">
-      <c r="E729" s="18"/>
+      <c r="E729" s="22"/>
     </row>
     <row r="730" customHeight="1" spans="5:5">
-      <c r="E730" s="18"/>
+      <c r="E730" s="22"/>
     </row>
     <row r="731" customHeight="1" spans="5:5">
-      <c r="E731" s="18"/>
+      <c r="E731" s="22"/>
     </row>
     <row r="732" customHeight="1" spans="5:5">
-      <c r="E732" s="18"/>
+      <c r="E732" s="22"/>
     </row>
     <row r="733" customHeight="1" spans="5:5">
-      <c r="E733" s="18"/>
+      <c r="E733" s="22"/>
     </row>
     <row r="734" customHeight="1" spans="5:5">
-      <c r="E734" s="18"/>
+      <c r="E734" s="22"/>
     </row>
     <row r="735" customHeight="1" spans="5:5">
-      <c r="E735" s="18"/>
+      <c r="E735" s="22"/>
     </row>
     <row r="736" customHeight="1" spans="5:5">
-      <c r="E736" s="18"/>
+      <c r="E736" s="22"/>
     </row>
     <row r="737" customHeight="1" spans="5:5">
-      <c r="E737" s="18"/>
+      <c r="E737" s="22"/>
     </row>
     <row r="738" customHeight="1" spans="5:5">
-      <c r="E738" s="18"/>
+      <c r="E738" s="22"/>
     </row>
     <row r="739" customHeight="1" spans="5:5">
-      <c r="E739" s="18"/>
+      <c r="E739" s="22"/>
     </row>
     <row r="740" customHeight="1" spans="5:5">
-      <c r="E740" s="18"/>
+      <c r="E740" s="22"/>
     </row>
     <row r="741" customHeight="1" spans="5:5">
-      <c r="E741" s="18"/>
+      <c r="E741" s="22"/>
     </row>
     <row r="742" customHeight="1" spans="5:5">
-      <c r="E742" s="18"/>
+      <c r="E742" s="22"/>
     </row>
     <row r="743" customHeight="1" spans="5:5">
-      <c r="E743" s="18"/>
+      <c r="E743" s="22"/>
     </row>
     <row r="744" customHeight="1" spans="5:5">
-      <c r="E744" s="18"/>
+      <c r="E744" s="22"/>
     </row>
     <row r="745" customHeight="1" spans="5:5">
-      <c r="E745" s="18"/>
+      <c r="E745" s="22"/>
     </row>
     <row r="746" customHeight="1" spans="5:5">
-      <c r="E746" s="18"/>
+      <c r="E746" s="22"/>
     </row>
     <row r="747" customHeight="1" spans="5:5">
-      <c r="E747" s="18"/>
+      <c r="E747" s="22"/>
     </row>
     <row r="748" customHeight="1" spans="5:5">
-      <c r="E748" s="18"/>
+      <c r="E748" s="22"/>
     </row>
     <row r="749" customHeight="1" spans="5:5">
-      <c r="E749" s="18"/>
+      <c r="E749" s="22"/>
     </row>
     <row r="750" customHeight="1" spans="5:5">
-      <c r="E750" s="18"/>
+      <c r="E750" s="22"/>
     </row>
     <row r="751" customHeight="1" spans="5:5">
-      <c r="E751" s="18"/>
+      <c r="E751" s="22"/>
     </row>
     <row r="752" customHeight="1" spans="5:5">
-      <c r="E752" s="18"/>
+      <c r="E752" s="22"/>
     </row>
     <row r="753" customHeight="1" spans="5:5">
-      <c r="E753" s="18"/>
+      <c r="E753" s="22"/>
     </row>
     <row r="754" customHeight="1" spans="5:5">
-      <c r="E754" s="18"/>
+      <c r="E754" s="22"/>
     </row>
     <row r="755" customHeight="1" spans="5:5">
-      <c r="E755" s="18"/>
+      <c r="E755" s="22"/>
     </row>
     <row r="756" customHeight="1" spans="5:5">
-      <c r="E756" s="18"/>
+      <c r="E756" s="22"/>
     </row>
     <row r="757" customHeight="1" spans="5:5">
-      <c r="E757" s="18"/>
+      <c r="E757" s="22"/>
     </row>
     <row r="758" customHeight="1" spans="5:5">
-      <c r="E758" s="18"/>
+      <c r="E758" s="22"/>
     </row>
     <row r="759" customHeight="1" spans="5:5">
-      <c r="E759" s="18"/>
+      <c r="E759" s="22"/>
     </row>
     <row r="760" customHeight="1" spans="5:5">
-      <c r="E760" s="18"/>
+      <c r="E760" s="22"/>
     </row>
     <row r="761" customHeight="1" spans="5:5">
-      <c r="E761" s="18"/>
+      <c r="E761" s="22"/>
     </row>
     <row r="762" customHeight="1" spans="5:5">
-      <c r="E762" s="18"/>
+      <c r="E762" s="22"/>
     </row>
     <row r="763" customHeight="1" spans="5:5">
-      <c r="E763" s="18"/>
+      <c r="E763" s="22"/>
     </row>
     <row r="764" customHeight="1" spans="5:5">
-      <c r="E764" s="18"/>
+      <c r="E764" s="22"/>
     </row>
     <row r="765" customHeight="1" spans="5:5">
-      <c r="E765" s="18"/>
+      <c r="E765" s="22"/>
     </row>
     <row r="766" customHeight="1" spans="5:5">
-      <c r="E766" s="18"/>
+      <c r="E766" s="22"/>
     </row>
     <row r="767" customHeight="1" spans="5:5">
-      <c r="E767" s="18"/>
+      <c r="E767" s="22"/>
     </row>
     <row r="768" customHeight="1" spans="5:5">
-      <c r="E768" s="18"/>
+      <c r="E768" s="22"/>
     </row>
     <row r="769" customHeight="1" spans="5:5">
-      <c r="E769" s="18"/>
+      <c r="E769" s="22"/>
     </row>
     <row r="770" customHeight="1" spans="5:5">
-      <c r="E770" s="18"/>
+      <c r="E770" s="22"/>
     </row>
     <row r="771" customHeight="1" spans="5:5">
-      <c r="E771" s="18"/>
+      <c r="E771" s="22"/>
     </row>
     <row r="772" customHeight="1" spans="5:5">
-      <c r="E772" s="18"/>
+      <c r="E772" s="22"/>
     </row>
     <row r="773" customHeight="1" spans="5:5">
-      <c r="E773" s="18"/>
+      <c r="E773" s="22"/>
     </row>
     <row r="774" customHeight="1" spans="5:5">
-      <c r="E774" s="18"/>
+      <c r="E774" s="22"/>
     </row>
     <row r="775" customHeight="1" spans="5:5">
-      <c r="E775" s="18"/>
+      <c r="E775" s="22"/>
     </row>
     <row r="776" customHeight="1" spans="5:5">
-      <c r="E776" s="18"/>
+      <c r="E776" s="22"/>
     </row>
     <row r="777" customHeight="1" spans="5:5">
-      <c r="E777" s="18"/>
+      <c r="E777" s="22"/>
     </row>
     <row r="778" customHeight="1" spans="5:5">
-      <c r="E778" s="18"/>
+      <c r="E778" s="22"/>
     </row>
     <row r="779" customHeight="1" spans="5:5">
-      <c r="E779" s="18"/>
+      <c r="E779" s="22"/>
     </row>
     <row r="780" customHeight="1" spans="5:5">
-      <c r="E780" s="18"/>
+      <c r="E780" s="22"/>
     </row>
     <row r="781" customHeight="1" spans="5:5">
-      <c r="E781" s="18"/>
+      <c r="E781" s="22"/>
     </row>
     <row r="782" customHeight="1" spans="5:5">
-      <c r="E782" s="18"/>
+      <c r="E782" s="22"/>
     </row>
     <row r="783" customHeight="1" spans="5:5">
-      <c r="E783" s="18"/>
+      <c r="E783" s="22"/>
     </row>
     <row r="784" customHeight="1" spans="5:5">
-      <c r="E784" s="18"/>
+      <c r="E784" s="22"/>
     </row>
     <row r="785" customHeight="1" spans="5:5">
-      <c r="E785" s="18"/>
+      <c r="E785" s="22"/>
     </row>
     <row r="786" customHeight="1" spans="5:5">
-      <c r="E786" s="18"/>
+      <c r="E786" s="22"/>
     </row>
     <row r="787" customHeight="1" spans="5:5">
-      <c r="E787" s="18"/>
+      <c r="E787" s="22"/>
     </row>
     <row r="788" customHeight="1" spans="5:5">
-      <c r="E788" s="18"/>
+      <c r="E788" s="22"/>
     </row>
     <row r="789" customHeight="1" spans="5:5">
-      <c r="E789" s="18"/>
+      <c r="E789" s="22"/>
     </row>
     <row r="790" customHeight="1" spans="5:5">
-      <c r="E790" s="18"/>
+      <c r="E790" s="22"/>
     </row>
     <row r="791" customHeight="1" spans="5:5">
-      <c r="E791" s="18"/>
+      <c r="E791" s="22"/>
     </row>
     <row r="792" customHeight="1" spans="5:5">
-      <c r="E792" s="18"/>
+      <c r="E792" s="22"/>
     </row>
     <row r="793" customHeight="1" spans="5:5">
-      <c r="E793" s="18"/>
+      <c r="E793" s="22"/>
     </row>
     <row r="794" customHeight="1" spans="5:5">
-      <c r="E794" s="18"/>
+      <c r="E794" s="22"/>
     </row>
     <row r="795" customHeight="1" spans="5:5">
-      <c r="E795" s="18"/>
+      <c r="E795" s="22"/>
     </row>
     <row r="796" customHeight="1" spans="5:5">
-      <c r="E796" s="18"/>
+      <c r="E796" s="22"/>
     </row>
     <row r="797" customHeight="1" spans="5:5">
-      <c r="E797" s="18"/>
+      <c r="E797" s="22"/>
     </row>
     <row r="798" customHeight="1" spans="5:5">
-      <c r="E798" s="18"/>
+      <c r="E798" s="22"/>
     </row>
     <row r="799" customHeight="1" spans="5:5">
-      <c r="E799" s="18"/>
+      <c r="E799" s="22"/>
     </row>
     <row r="800" customHeight="1" spans="5:5">
-      <c r="E800" s="18"/>
+      <c r="E800" s="22"/>
     </row>
     <row r="801" customHeight="1" spans="5:5">
-      <c r="E801" s="18"/>
+      <c r="E801" s="22"/>
     </row>
     <row r="802" customHeight="1" spans="5:5">
-      <c r="E802" s="18"/>
+      <c r="E802" s="22"/>
     </row>
     <row r="803" customHeight="1" spans="5:5">
-      <c r="E803" s="18"/>
+      <c r="E803" s="22"/>
     </row>
     <row r="804" customHeight="1" spans="5:5">
-      <c r="E804" s="18"/>
+      <c r="E804" s="22"/>
     </row>
     <row r="805" customHeight="1" spans="5:5">
-      <c r="E805" s="18"/>
+      <c r="E805" s="22"/>
     </row>
     <row r="806" customHeight="1" spans="5:5">
-      <c r="E806" s="18"/>
+      <c r="E806" s="22"/>
     </row>
     <row r="807" customHeight="1" spans="5:5">
-      <c r="E807" s="18"/>
+      <c r="E807" s="22"/>
     </row>
     <row r="808" customHeight="1" spans="5:5">
-      <c r="E808" s="18"/>
+      <c r="E808" s="22"/>
     </row>
     <row r="809" customHeight="1" spans="5:5">
-      <c r="E809" s="18"/>
+      <c r="E809" s="22"/>
     </row>
     <row r="810" customHeight="1" spans="5:5">
-      <c r="E810" s="18"/>
+      <c r="E810" s="22"/>
     </row>
     <row r="811" customHeight="1" spans="5:5">
-      <c r="E811" s="18"/>
+      <c r="E811" s="22"/>
     </row>
     <row r="812" customHeight="1" spans="5:5">
-      <c r="E812" s="18"/>
+      <c r="E812" s="22"/>
     </row>
     <row r="813" customHeight="1" spans="5:5">
-      <c r="E813" s="18"/>
+      <c r="E813" s="22"/>
     </row>
     <row r="814" customHeight="1" spans="5:5">
-      <c r="E814" s="18"/>
+      <c r="E814" s="22"/>
     </row>
     <row r="815" customHeight="1" spans="5:5">
-      <c r="E815" s="18"/>
+      <c r="E815" s="22"/>
     </row>
     <row r="816" customHeight="1" spans="5:5">
-      <c r="E816" s="18"/>
+      <c r="E816" s="22"/>
     </row>
     <row r="817" customHeight="1" spans="5:5">
-      <c r="E817" s="18"/>
+      <c r="E817" s="22"/>
     </row>
     <row r="818" customHeight="1" spans="5:5">
-      <c r="E818" s="18"/>
+      <c r="E818" s="22"/>
     </row>
     <row r="819" customHeight="1" spans="5:5">
-      <c r="E819" s="18"/>
+      <c r="E819" s="22"/>
     </row>
     <row r="820" customHeight="1" spans="5:5">
-      <c r="E820" s="18"/>
+      <c r="E820" s="22"/>
     </row>
     <row r="821" customHeight="1" spans="5:5">
-      <c r="E821" s="18"/>
+      <c r="E821" s="22"/>
     </row>
     <row r="822" customHeight="1" spans="5:5">
-      <c r="E822" s="18"/>
+      <c r="E822" s="22"/>
     </row>
     <row r="823" customHeight="1" spans="5:5">
-      <c r="E823" s="18"/>
+      <c r="E823" s="22"/>
     </row>
     <row r="824" customHeight="1" spans="5:5">
-      <c r="E824" s="18"/>
+      <c r="E824" s="22"/>
     </row>
     <row r="825" customHeight="1" spans="5:5">
-      <c r="E825" s="18"/>
+      <c r="E825" s="22"/>
     </row>
     <row r="826" customHeight="1" spans="5:5">
-      <c r="E826" s="18"/>
+      <c r="E826" s="22"/>
     </row>
     <row r="827" customHeight="1" spans="5:5">
-      <c r="E827" s="18"/>
+      <c r="E827" s="22"/>
     </row>
     <row r="828" customHeight="1" spans="5:5">
-      <c r="E828" s="18"/>
+      <c r="E828" s="22"/>
     </row>
     <row r="829" customHeight="1" spans="5:5">
-      <c r="E829" s="18"/>
+      <c r="E829" s="22"/>
     </row>
     <row r="830" customHeight="1" spans="5:5">
-      <c r="E830" s="18"/>
+      <c r="E830" s="22"/>
     </row>
     <row r="831" customHeight="1" spans="5:5">
-      <c r="E831" s="18"/>
+      <c r="E831" s="22"/>
     </row>
     <row r="832" customHeight="1" spans="5:5">
-      <c r="E832" s="18"/>
+      <c r="E832" s="22"/>
     </row>
     <row r="833" customHeight="1" spans="5:5">
-      <c r="E833" s="18"/>
+      <c r="E833" s="22"/>
     </row>
     <row r="834" customHeight="1" spans="5:5">
-      <c r="E834" s="18"/>
+      <c r="E834" s="22"/>
     </row>
     <row r="835" customHeight="1" spans="5:5">
-      <c r="E835" s="18"/>
+      <c r="E835" s="22"/>
     </row>
     <row r="836" customHeight="1" spans="5:5">
-      <c r="E836" s="18"/>
+      <c r="E836" s="22"/>
     </row>
     <row r="837" customHeight="1" spans="5:5">
-      <c r="E837" s="18"/>
+      <c r="E837" s="22"/>
     </row>
     <row r="838" customHeight="1" spans="5:5">
-      <c r="E838" s="18"/>
+      <c r="E838" s="22"/>
     </row>
     <row r="839" customHeight="1" spans="5:5">
-      <c r="E839" s="18"/>
+      <c r="E839" s="22"/>
     </row>
     <row r="840" customHeight="1" spans="5:5">
-      <c r="E840" s="18"/>
+      <c r="E840" s="22"/>
     </row>
     <row r="841" customHeight="1" spans="5:5">
-      <c r="E841" s="18"/>
+      <c r="E841" s="22"/>
     </row>
     <row r="842" customHeight="1" spans="5:5">
-      <c r="E842" s="18"/>
+      <c r="E842" s="22"/>
     </row>
     <row r="843" customHeight="1" spans="5:5">
-      <c r="E843" s="18"/>
+      <c r="E843" s="22"/>
     </row>
     <row r="844" customHeight="1" spans="5:5">
-      <c r="E844" s="18"/>
+      <c r="E844" s="22"/>
     </row>
     <row r="845" customHeight="1" spans="5:5">
-      <c r="E845" s="18"/>
+      <c r="E845" s="22"/>
     </row>
     <row r="846" customHeight="1" spans="5:5">
-      <c r="E846" s="18"/>
+      <c r="E846" s="22"/>
     </row>
     <row r="847" customHeight="1" spans="5:5">
-      <c r="E847" s="18"/>
+      <c r="E847" s="22"/>
     </row>
     <row r="848" customHeight="1" spans="5:5">
-      <c r="E848" s="18"/>
+      <c r="E848" s="22"/>
     </row>
     <row r="849" customHeight="1" spans="5:5">
-      <c r="E849" s="18"/>
+      <c r="E849" s="22"/>
     </row>
     <row r="850" customHeight="1" spans="5:5">
-      <c r="E850" s="18"/>
+      <c r="E850" s="22"/>
     </row>
     <row r="851" customHeight="1" spans="5:5">
-      <c r="E851" s="18"/>
+      <c r="E851" s="22"/>
     </row>
     <row r="852" customHeight="1" spans="5:5">
-      <c r="E852" s="18"/>
+      <c r="E852" s="22"/>
     </row>
     <row r="853" customHeight="1" spans="5:5">
-      <c r="E853" s="18"/>
+      <c r="E853" s="22"/>
     </row>
     <row r="854" customHeight="1" spans="5:5">
-      <c r="E854" s="18"/>
+      <c r="E854" s="22"/>
     </row>
     <row r="855" customHeight="1" spans="5:5">
-      <c r="E855" s="18"/>
+      <c r="E855" s="22"/>
     </row>
     <row r="856" customHeight="1" spans="5:5">
-      <c r="E856" s="18"/>
+      <c r="E856" s="22"/>
     </row>
     <row r="857" customHeight="1" spans="5:5">
-      <c r="E857" s="18"/>
+      <c r="E857" s="22"/>
     </row>
     <row r="858" customHeight="1" spans="5:5">
-      <c r="E858" s="18"/>
+      <c r="E858" s="22"/>
     </row>
     <row r="859" customHeight="1" spans="5:5">
-      <c r="E859" s="18"/>
+      <c r="E859" s="22"/>
     </row>
     <row r="860" customHeight="1" spans="5:5">
-      <c r="E860" s="18"/>
+      <c r="E860" s="22"/>
     </row>
     <row r="861" customHeight="1" spans="5:5">
-      <c r="E861" s="18"/>
+      <c r="E861" s="22"/>
     </row>
     <row r="862" customHeight="1" spans="5:5">
-      <c r="E862" s="18"/>
+      <c r="E862" s="22"/>
     </row>
     <row r="863" customHeight="1" spans="5:5">
-      <c r="E863" s="18"/>
+      <c r="E863" s="22"/>
     </row>
     <row r="864" customHeight="1" spans="5:5">
-      <c r="E864" s="18"/>
+      <c r="E864" s="22"/>
     </row>
     <row r="865" customHeight="1" spans="5:5">
-      <c r="E865" s="18"/>
+      <c r="E865" s="22"/>
     </row>
     <row r="866" customHeight="1" spans="5:5">
-      <c r="E866" s="18"/>
+      <c r="E866" s="22"/>
     </row>
     <row r="867" customHeight="1" spans="5:5">
-      <c r="E867" s="18"/>
+      <c r="E867" s="22"/>
     </row>
     <row r="868" customHeight="1" spans="5:5">
-      <c r="E868" s="18"/>
+      <c r="E868" s="22"/>
     </row>
     <row r="869" customHeight="1" spans="5:5">
-      <c r="E869" s="18"/>
+      <c r="E869" s="22"/>
     </row>
     <row r="870" customHeight="1" spans="5:5">
-      <c r="E870" s="18"/>
+      <c r="E870" s="22"/>
     </row>
     <row r="871" customHeight="1" spans="5:5">
-      <c r="E871" s="18"/>
+      <c r="E871" s="22"/>
     </row>
     <row r="872" customHeight="1" spans="5:5">
-      <c r="E872" s="18"/>
+      <c r="E872" s="22"/>
     </row>
     <row r="873" customHeight="1" spans="5:5">
-      <c r="E873" s="18"/>
+      <c r="E873" s="22"/>
     </row>
     <row r="874" customHeight="1" spans="5:5">
-      <c r="E874" s="18"/>
+      <c r="E874" s="22"/>
     </row>
     <row r="875" customHeight="1" spans="5:5">
-      <c r="E875" s="18"/>
+      <c r="E875" s="22"/>
     </row>
     <row r="876" customHeight="1" spans="5:5">
-      <c r="E876" s="18"/>
+      <c r="E876" s="22"/>
     </row>
     <row r="877" customHeight="1" spans="5:5">
-      <c r="E877" s="18"/>
+      <c r="E877" s="22"/>
     </row>
     <row r="878" customHeight="1" spans="5:5">
-      <c r="E878" s="18"/>
+      <c r="E878" s="22"/>
     </row>
     <row r="879" customHeight="1" spans="5:5">
-      <c r="E879" s="18"/>
+      <c r="E879" s="22"/>
     </row>
     <row r="880" customHeight="1" spans="5:5">
-      <c r="E880" s="18"/>
+      <c r="E880" s="22"/>
     </row>
     <row r="881" customHeight="1" spans="5:5">
-      <c r="E881" s="18"/>
+      <c r="E881" s="22"/>
     </row>
     <row r="882" customHeight="1" spans="5:5">
-      <c r="E882" s="18"/>
+      <c r="E882" s="22"/>
     </row>
     <row r="883" customHeight="1" spans="5:5">
-      <c r="E883" s="18"/>
+      <c r="E883" s="22"/>
     </row>
     <row r="884" customHeight="1" spans="5:5">
-      <c r="E884" s="18"/>
+      <c r="E884" s="22"/>
     </row>
     <row r="885" customHeight="1" spans="5:5">
-      <c r="E885" s="18"/>
+      <c r="E885" s="22"/>
     </row>
     <row r="886" customHeight="1" spans="5:5">
-      <c r="E886" s="18"/>
+      <c r="E886" s="22"/>
     </row>
     <row r="887" customHeight="1" spans="5:5">
-      <c r="E887" s="18"/>
+      <c r="E887" s="22"/>
     </row>
     <row r="888" customHeight="1" spans="5:5">
-      <c r="E888" s="18"/>
+      <c r="E888" s="22"/>
     </row>
     <row r="889" customHeight="1" spans="5:5">
-      <c r="E889" s="18"/>
+      <c r="E889" s="22"/>
     </row>
     <row r="890" customHeight="1" spans="5:5">
-      <c r="E890" s="18"/>
+      <c r="E890" s="22"/>
     </row>
     <row r="891" customHeight="1" spans="5:5">
-      <c r="E891" s="18"/>
+      <c r="E891" s="22"/>
     </row>
     <row r="892" customHeight="1" spans="5:5">
-      <c r="E892" s="18"/>
+      <c r="E892" s="22"/>
     </row>
     <row r="893" customHeight="1" spans="5:5">
-      <c r="E893" s="18"/>
+      <c r="E893" s="22"/>
     </row>
     <row r="894" customHeight="1" spans="5:5">
-      <c r="E894" s="18"/>
+      <c r="E894" s="22"/>
     </row>
     <row r="895" customHeight="1" spans="5:5">
-      <c r="E895" s="18"/>
+      <c r="E895" s="22"/>
     </row>
     <row r="896" customHeight="1" spans="5:5">
-      <c r="E896" s="18"/>
+      <c r="E896" s="22"/>
     </row>
     <row r="897" customHeight="1" spans="5:5">
-      <c r="E897" s="18"/>
+      <c r="E897" s="22"/>
     </row>
     <row r="898" customHeight="1" spans="5:5">
-      <c r="E898" s="18"/>
+      <c r="E898" s="22"/>
     </row>
     <row r="899" customHeight="1" spans="5:5">
-      <c r="E899" s="18"/>
+      <c r="E899" s="22"/>
     </row>
     <row r="900" customHeight="1" spans="5:5">
-      <c r="E900" s="18"/>
+      <c r="E900" s="22"/>
     </row>
     <row r="901" customHeight="1" spans="5:5">
-      <c r="E901" s="18"/>
+      <c r="E901" s="22"/>
     </row>
     <row r="902" customHeight="1" spans="5:5">
-      <c r="E902" s="18"/>
+      <c r="E902" s="22"/>
     </row>
     <row r="903" customHeight="1" spans="5:5">
-      <c r="E903" s="18"/>
+      <c r="E903" s="22"/>
     </row>
     <row r="904" customHeight="1" spans="5:5">
-      <c r="E904" s="18"/>
+      <c r="E904" s="22"/>
     </row>
     <row r="905" customHeight="1" spans="5:5">
-      <c r="E905" s="18"/>
+      <c r="E905" s="22"/>
     </row>
     <row r="906" customHeight="1" spans="5:5">
-      <c r="E906" s="18"/>
+      <c r="E906" s="22"/>
     </row>
     <row r="907" customHeight="1" spans="5:5">
-      <c r="E907" s="18"/>
+      <c r="E907" s="22"/>
     </row>
     <row r="908" customHeight="1" spans="5:5">
-      <c r="E908" s="18"/>
+      <c r="E908" s="22"/>
     </row>
     <row r="909" customHeight="1" spans="5:5">
-      <c r="E909" s="18"/>
+      <c r="E909" s="22"/>
     </row>
     <row r="910" customHeight="1" spans="5:5">
-      <c r="E910" s="18"/>
+      <c r="E910" s="22"/>
     </row>
     <row r="911" customHeight="1" spans="5:5">
-      <c r="E911" s="18"/>
+      <c r="E911" s="22"/>
     </row>
     <row r="912" customHeight="1" spans="5:5">
-      <c r="E912" s="18"/>
+      <c r="E912" s="22"/>
     </row>
     <row r="913" customHeight="1" spans="5:5">
-      <c r="E913" s="18"/>
+      <c r="E913" s="22"/>
     </row>
     <row r="914" customHeight="1" spans="5:5">
-      <c r="E914" s="18"/>
+      <c r="E914" s="22"/>
     </row>
     <row r="915" customHeight="1" spans="5:5">
-      <c r="E915" s="18"/>
+      <c r="E915" s="22"/>
     </row>
     <row r="916" customHeight="1" spans="5:5">
-      <c r="E916" s="18"/>
+      <c r="E916" s="22"/>
     </row>
     <row r="917" customHeight="1" spans="5:5">
-      <c r="E917" s="18"/>
+      <c r="E917" s="22"/>
     </row>
     <row r="918" customHeight="1" spans="5:5">
-      <c r="E918" s="18"/>
+      <c r="E918" s="22"/>
     </row>
     <row r="919" customHeight="1" spans="5:5">
-      <c r="E919" s="18"/>
+      <c r="E919" s="22"/>
     </row>
     <row r="920" customHeight="1" spans="5:5">
-      <c r="E920" s="18"/>
+      <c r="E920" s="22"/>
     </row>
     <row r="921" customHeight="1" spans="5:5">
-      <c r="E921" s="18"/>
+      <c r="E921" s="22"/>
     </row>
     <row r="922" customHeight="1" spans="5:5">
-      <c r="E922" s="18"/>
+      <c r="E922" s="22"/>
     </row>
     <row r="923" customHeight="1" spans="5:5">
-      <c r="E923" s="18"/>
+      <c r="E923" s="22"/>
     </row>
     <row r="924" customHeight="1" spans="5:5">
-      <c r="E924" s="18"/>
+      <c r="E924" s="22"/>
     </row>
     <row r="925" customHeight="1" spans="5:5">
-      <c r="E925" s="18"/>
+      <c r="E925" s="22"/>
     </row>
     <row r="926" customHeight="1" spans="5:5">
-      <c r="E926" s="18"/>
+      <c r="E926" s="22"/>
     </row>
     <row r="927" customHeight="1" spans="5:5">
-      <c r="E927" s="18"/>
+      <c r="E927" s="22"/>
     </row>
     <row r="928" customHeight="1" spans="5:5">
-      <c r="E928" s="18"/>
+      <c r="E928" s="22"/>
     </row>
     <row r="929" customHeight="1" spans="5:5">
-      <c r="E929" s="18"/>
+      <c r="E929" s="22"/>
     </row>
     <row r="930" customHeight="1" spans="5:5">
-      <c r="E930" s="18"/>
+      <c r="E930" s="22"/>
     </row>
     <row r="931" customHeight="1" spans="5:5">
-      <c r="E931" s="18"/>
+      <c r="E931" s="22"/>
     </row>
     <row r="932" customHeight="1" spans="5:5">
-      <c r="E932" s="18"/>
+      <c r="E932" s="22"/>
     </row>
     <row r="933" customHeight="1" spans="5:5">
-      <c r="E933" s="18"/>
+      <c r="E933" s="22"/>
     </row>
     <row r="934" customHeight="1" spans="5:5">
-      <c r="E934" s="18"/>
+      <c r="E934" s="22"/>
     </row>
     <row r="935" customHeight="1" spans="5:5">
-      <c r="E935" s="18"/>
+      <c r="E935" s="22"/>
     </row>
     <row r="936" customHeight="1" spans="5:5">
-      <c r="E936" s="18"/>
+      <c r="E936" s="22"/>
     </row>
     <row r="937" customHeight="1" spans="5:5">
-      <c r="E937" s="18"/>
+      <c r="E937" s="22"/>
     </row>
     <row r="938" customHeight="1" spans="5:5">
-      <c r="E938" s="18"/>
+      <c r="E938" s="22"/>
     </row>
     <row r="939" customHeight="1" spans="5:5">
-      <c r="E939" s="18"/>
+      <c r="E939" s="22"/>
     </row>
     <row r="940" customHeight="1" spans="5:5">
-      <c r="E940" s="18"/>
+      <c r="E940" s="22"/>
     </row>
     <row r="941" customHeight="1" spans="5:5">
-      <c r="E941" s="18"/>
+      <c r="E941" s="22"/>
     </row>
     <row r="942" customHeight="1" spans="5:5">
-      <c r="E942" s="18"/>
+      <c r="E942" s="22"/>
     </row>
     <row r="943" customHeight="1" spans="5:5">
-      <c r="E943" s="18"/>
+      <c r="E943" s="22"/>
     </row>
     <row r="944" customHeight="1" spans="5:5">
-      <c r="E944" s="18"/>
+      <c r="E944" s="22"/>
     </row>
     <row r="945" customHeight="1" spans="5:5">
-      <c r="E945" s="18"/>
+      <c r="E945" s="22"/>
     </row>
     <row r="946" customHeight="1" spans="5:5">
-      <c r="E946" s="18"/>
+      <c r="E946" s="22"/>
     </row>
     <row r="947" customHeight="1" spans="5:5">
-      <c r="E947" s="18"/>
+      <c r="E947" s="22"/>
     </row>
     <row r="948" customHeight="1" spans="5:5">
-      <c r="E948" s="18"/>
+      <c r="E948" s="22"/>
     </row>
     <row r="949" customHeight="1" spans="5:5">
-      <c r="E949" s="18"/>
+      <c r="E949" s="22"/>
     </row>
     <row r="950" customHeight="1" spans="5:5">
-      <c r="E950" s="18"/>
+      <c r="E950" s="22"/>
     </row>
     <row r="951" customHeight="1" spans="5:5">
-      <c r="E951" s="18"/>
+      <c r="E951" s="22"/>
     </row>
     <row r="952" customHeight="1" spans="5:5">
-      <c r="E952" s="18"/>
+      <c r="E952" s="22"/>
     </row>
     <row r="953" customHeight="1" spans="5:5">
-      <c r="E953" s="18"/>
+      <c r="E953" s="22"/>
     </row>
     <row r="954" customHeight="1" spans="5:5">
-      <c r="E954" s="18"/>
+      <c r="E954" s="22"/>
     </row>
     <row r="955" customHeight="1" spans="5:5">
-      <c r="E955" s="18"/>
+      <c r="E955" s="22"/>
     </row>
     <row r="956" customHeight="1" spans="5:5">
-      <c r="E956" s="18"/>
+      <c r="E956" s="22"/>
     </row>
     <row r="957" customHeight="1" spans="5:5">
-      <c r="E957" s="18"/>
+      <c r="E957" s="22"/>
     </row>
     <row r="958" customHeight="1" spans="5:5">
-      <c r="E958" s="18"/>
+      <c r="E958" s="22"/>
     </row>
     <row r="959" customHeight="1" spans="5:5">
-      <c r="E959" s="18"/>
+      <c r="E959" s="22"/>
     </row>
     <row r="960" customHeight="1" spans="5:5">
-      <c r="E960" s="18"/>
+      <c r="E960" s="22"/>
     </row>
     <row r="961" customHeight="1" spans="5:5">
-      <c r="E961" s="18"/>
+      <c r="E961" s="22"/>
     </row>
     <row r="962" customHeight="1" spans="5:5">
-      <c r="E962" s="18"/>
+      <c r="E962" s="22"/>
     </row>
     <row r="963" customHeight="1" spans="5:5">
-      <c r="E963" s="18"/>
+      <c r="E963" s="22"/>
     </row>
     <row r="964" customHeight="1" spans="5:5">
-      <c r="E964" s="18"/>
+      <c r="E964" s="22"/>
     </row>
     <row r="965" customHeight="1" spans="5:5">
-      <c r="E965" s="18"/>
+      <c r="E965" s="22"/>
     </row>
     <row r="966" customHeight="1" spans="5:5">
-      <c r="E966" s="18"/>
+      <c r="E966" s="22"/>
     </row>
     <row r="967" customHeight="1" spans="5:5">
-      <c r="E967" s="18"/>
+      <c r="E967" s="22"/>
     </row>
     <row r="968" customHeight="1" spans="5:5">
-      <c r="E968" s="18"/>
+      <c r="E968" s="22"/>
     </row>
     <row r="969" customHeight="1" spans="5:5">
-      <c r="E969" s="18"/>
+      <c r="E969" s="22"/>
     </row>
     <row r="970" customHeight="1" spans="5:5">
-      <c r="E970" s="18"/>
+      <c r="E970" s="22"/>
     </row>
     <row r="971" customHeight="1" spans="5:5">
-      <c r="E971" s="18"/>
+      <c r="E971" s="22"/>
     </row>
     <row r="972" customHeight="1" spans="5:5">
-      <c r="E972" s="18"/>
+      <c r="E972" s="22"/>
     </row>
     <row r="973" customHeight="1" spans="5:5">
-      <c r="E973" s="18"/>
+      <c r="E973" s="22"/>
     </row>
     <row r="974" customHeight="1" spans="5:5">
-      <c r="E974" s="18"/>
+      <c r="E974" s="22"/>
     </row>
     <row r="975" customHeight="1" spans="5:5">
-      <c r="E975" s="18"/>
+      <c r="E975" s="22"/>
     </row>
     <row r="976" customHeight="1" spans="5:5">
-      <c r="E976" s="18"/>
+      <c r="E976" s="22"/>
     </row>
     <row r="977" customHeight="1" spans="5:5">
-      <c r="E977" s="18"/>
+      <c r="E977" s="22"/>
     </row>
     <row r="978" customHeight="1" spans="5:5">
-      <c r="E978" s="18"/>
+      <c r="E978" s="22"/>
     </row>
     <row r="979" customHeight="1" spans="5:5">
-      <c r="E979" s="18"/>
+      <c r="E979" s="22"/>
     </row>
     <row r="980" customHeight="1" spans="5:5">
-      <c r="E980" s="18"/>
+      <c r="E980" s="22"/>
     </row>
     <row r="981" customHeight="1" spans="5:5">
-      <c r="E981" s="18"/>
+      <c r="E981" s="22"/>
     </row>
     <row r="982" customHeight="1" spans="5:5">
-      <c r="E982" s="18"/>
+      <c r="E982" s="22"/>
     </row>
     <row r="983" customHeight="1" spans="5:5">
-      <c r="E983" s="18"/>
+      <c r="E983" s="22"/>
     </row>
     <row r="984" customHeight="1" spans="5:5">
-      <c r="E984" s="18"/>
+      <c r="E984" s="22"/>
     </row>
     <row r="985" customHeight="1" spans="5:5">
-      <c r="E985" s="18"/>
+      <c r="E985" s="22"/>
     </row>
     <row r="986" customHeight="1" spans="5:5">
-      <c r="E986" s="18"/>
+      <c r="E986" s="22"/>
     </row>
     <row r="987" customHeight="1" spans="5:5">
-      <c r="E987" s="18"/>
+      <c r="E987" s="22"/>
     </row>
     <row r="988" customHeight="1" spans="5:5">
-      <c r="E988" s="18"/>
+      <c r="E988" s="22"/>
     </row>
     <row r="989" customHeight="1" spans="5:5">
-      <c r="E989" s="18"/>
+      <c r="E989" s="22"/>
     </row>
     <row r="990" customHeight="1" spans="5:5">
-      <c r="E990" s="18"/>
+      <c r="E990" s="22"/>
     </row>
     <row r="991" customHeight="1" spans="5:5">
-      <c r="E991" s="18"/>
+      <c r="E991" s="22"/>
     </row>
     <row r="992" customHeight="1" spans="5:5">
-      <c r="E992" s="18"/>
+      <c r="E992" s="22"/>
     </row>
     <row r="993" customHeight="1" spans="5:5">
-      <c r="E993" s="18"/>
+      <c r="E993" s="22"/>
     </row>
     <row r="994" customHeight="1" spans="5:5">
-      <c r="E994" s="18"/>
+      <c r="E994" s="22"/>
     </row>
     <row r="995" customHeight="1" spans="5:5">
-      <c r="E995" s="18"/>
+      <c r="E995" s="22"/>
     </row>
     <row r="996" customHeight="1" spans="5:5">
-      <c r="E996" s="18"/>
+      <c r="E996" s="22"/>
     </row>
     <row r="997" customHeight="1" spans="5:5">
-      <c r="E997" s="18"/>
+      <c r="E997" s="22"/>
     </row>
     <row r="998" customHeight="1" spans="5:5">
-      <c r="E998" s="18"/>
+      <c r="E998" s="22"/>
     </row>
     <row r="999" customHeight="1" spans="5:5">
-      <c r="E999" s="18"/>
+      <c r="E999" s="22"/>
     </row>
     <row r="1000" customHeight="1" spans="5:5">
-      <c r="E1000" s="18"/>
+      <c r="E1000" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5484,12 +5677,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -5499,7 +5692,8 @@
     <col min="4" max="4" width="9.71428571428571"/>
     <col min="5" max="5" width="12.1428571428571"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="8" max="8" width="25.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="13.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:8">
@@ -7073,12 +7267,22 @@
       <c r="B61" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="4"/>
+      <c r="C61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3">
+        <v>42890</v>
+      </c>
+      <c r="E61" s="4">
+        <v>200000</v>
+      </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
@@ -7088,12 +7292,20 @@
       <c r="B62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="4"/>
+      <c r="C62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="3">
+        <v>42890</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1500000</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
@@ -7103,12 +7315,24 @@
       <c r="B63" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3">
+        <v>42162</v>
+      </c>
+      <c r="E63" s="4">
+        <v>215000</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
@@ -7118,12 +7342,22 @@
       <c r="B64" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="4"/>
+      <c r="C64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="3">
+        <v>42896</v>
+      </c>
+      <c r="E64" s="4">
+        <v>780000</v>
+      </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
@@ -7133,12 +7367,22 @@
       <c r="B65" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="4"/>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3">
+        <v>42939</v>
+      </c>
+      <c r="E65" s="4">
+        <v>4510000</v>
+      </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2">
@@ -7146,52 +7390,98 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="3">
+        <v>42896</v>
+      </c>
+      <c r="E66" s="4">
+        <v>27900</v>
+      </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2">
         <f t="shared" ref="A67:A111" si="1">A66+1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="4"/>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3">
+        <v>42896</v>
+      </c>
+      <c r="E67" s="4">
+        <v>750000</v>
+      </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="4"/>
+      <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="3">
+        <v>42897</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2400000</v>
+      </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="3">
+        <v>42909</v>
+      </c>
+      <c r="E69" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8">
@@ -7199,546 +7489,2076 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="3">
+        <v>42910</v>
+      </c>
+      <c r="E70" s="4">
+        <v>600000</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="4"/>
+      <c r="B71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="3">
+        <v>42910</v>
+      </c>
+      <c r="E71" s="4">
+        <v>502000</v>
+      </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="3">
+        <v>42920</v>
+      </c>
+      <c r="E72" s="4">
+        <v>276000</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="4"/>
+      <c r="B73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="3">
+        <v>42919</v>
+      </c>
+      <c r="E73" s="4">
+        <v>500000</v>
+      </c>
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="4"/>
+      <c r="B74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="3">
+        <v>42922</v>
+      </c>
+      <c r="E74" s="4">
+        <v>100000</v>
+      </c>
       <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="4"/>
+      <c r="B75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3">
+        <v>42925</v>
+      </c>
+      <c r="E75" s="4">
+        <v>100000</v>
+      </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="3">
+        <v>42926</v>
+      </c>
+      <c r="E76" s="4">
+        <v>500000</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="4"/>
+      <c r="B77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="3">
+        <v>42931</v>
+      </c>
+      <c r="E77" s="4">
+        <v>70000</v>
+      </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="4"/>
+      <c r="B78" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="3">
+        <v>42931</v>
+      </c>
+      <c r="E78" s="4">
+        <v>320000</v>
+      </c>
       <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="G78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3">
+        <v>42931</v>
+      </c>
+      <c r="E79" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="3">
+        <v>42931</v>
+      </c>
+      <c r="E80" s="4">
+        <v>130000</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="3">
+        <v>42931</v>
+      </c>
+      <c r="E81" s="4">
+        <v>21000</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="4"/>
+      <c r="B82" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3">
+        <v>42931</v>
+      </c>
+      <c r="E82" s="4">
+        <v>120000</v>
+      </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="G82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="4"/>
+      <c r="B83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="3">
+        <v>42931</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1000000</v>
+      </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="4"/>
+      <c r="B84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="3">
+        <v>42933</v>
+      </c>
+      <c r="E84" s="4">
+        <v>5000000</v>
+      </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="G84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="3">
+        <v>42933</v>
+      </c>
+      <c r="E85" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="3">
+        <v>42933</v>
+      </c>
+      <c r="E86" s="4">
+        <v>300000</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="3">
+        <v>42936</v>
+      </c>
+      <c r="E87" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="3">
+        <v>42938</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1700000</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="4"/>
+      <c r="B89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="3">
+        <v>42938</v>
+      </c>
+      <c r="E89" s="4">
+        <v>105000</v>
+      </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="4"/>
+      <c r="B90" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="3">
+        <v>42938</v>
+      </c>
+      <c r="E90" s="4">
+        <v>248000</v>
+      </c>
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="3">
+        <v>42938</v>
+      </c>
+      <c r="E91" s="4">
+        <v>87500</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="4"/>
+      <c r="B92" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="3">
+        <v>42938</v>
+      </c>
+      <c r="E92" s="4">
+        <v>50000</v>
+      </c>
       <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="3">
+        <v>42945</v>
+      </c>
+      <c r="E93" s="4">
+        <v>80000</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="4"/>
+      <c r="B94" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="3">
+        <v>42945</v>
+      </c>
+      <c r="E94" s="4">
+        <v>150000</v>
+      </c>
       <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="G94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="3">
+        <v>42950</v>
+      </c>
+      <c r="E95" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3">
+        <v>42956</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1588000</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="3">
+        <v>42959</v>
+      </c>
+      <c r="E97" s="4">
+        <v>117000</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="3">
+        <v>42959</v>
+      </c>
+      <c r="E98" s="4">
+        <v>53000</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" s="3">
+        <v>42959</v>
+      </c>
+      <c r="E99" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="4"/>
+      <c r="B100" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="3">
+        <v>42966</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2000000</v>
+      </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="G100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="3">
+        <v>42969</v>
+      </c>
+      <c r="E101" s="4">
+        <v>276000</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <f t="shared" si="1"/>
+        <f>A101+1</f>
         <v>101</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="3">
+        <v>42979</v>
+      </c>
+      <c r="E102" s="4">
+        <v>660000</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H102" s="2"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <f t="shared" si="1"/>
+        <f>A102+1</f>
         <v>102</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" s="3">
+        <v>42983</v>
+      </c>
+      <c r="E103" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <f t="shared" si="1"/>
+        <f>A103+1</f>
         <v>103</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="3">
+        <v>42986</v>
+      </c>
+      <c r="E104" s="4">
+        <v>125000</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <f t="shared" si="1"/>
+        <f>A104+1</f>
         <v>104</v>
       </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" s="3">
+        <v>42986</v>
+      </c>
+      <c r="E105" s="4">
+        <v>156000</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <f t="shared" si="1"/>
+        <f>A105+1</f>
         <v>105</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="3">
+        <v>42986</v>
+      </c>
+      <c r="E106" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <f t="shared" si="1"/>
+        <f>A106+1</f>
         <v>106</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="3">
+        <v>42986</v>
+      </c>
+      <c r="E107" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <f t="shared" si="1"/>
+        <f>A107+1</f>
         <v>107</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" s="3">
+        <v>42994</v>
+      </c>
+      <c r="E108" s="4">
+        <v>300000</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <f t="shared" si="1"/>
+        <f>A108+1</f>
         <v>108</v>
       </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" s="3">
+        <v>42994</v>
+      </c>
+      <c r="E109" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <f t="shared" si="1"/>
+        <f>A109+1</f>
         <v>109</v>
       </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" s="3">
+        <v>43004</v>
+      </c>
+      <c r="E110" s="4">
+        <v>250000</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2">
-        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E111" s="4">
+        <v>400000</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E112" s="4">
+        <v>300000</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="2">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E113" s="10">
+        <v>400000</v>
+      </c>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="2">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E114" s="10">
+        <v>36000</v>
+      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="9"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="2">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115" s="11">
+        <v>43001</v>
+      </c>
+      <c r="E115" s="10">
+        <v>3000000</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="2">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D116" s="11">
+        <v>43006</v>
+      </c>
+      <c r="E116" s="10">
+        <v>360000</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="2">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" s="11">
+        <v>43012</v>
+      </c>
+      <c r="E117" s="10">
+        <v>125000</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="2">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="11">
+        <v>43015</v>
+      </c>
+      <c r="E118" s="10">
+        <v>200000</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="2">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="2">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="2">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="2">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="2">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="2">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="2">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="2">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="2">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="2">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="2">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="2">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="2">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="2">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>140</v>
+      </c>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>141</v>
+      </c>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>142</v>
+      </c>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>143</v>
+      </c>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>144</v>
+      </c>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>145</v>
+      </c>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>146</v>
+      </c>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>147</v>
+      </c>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>148</v>
+      </c>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>149</v>
+      </c>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>150</v>
+      </c>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>151</v>
+      </c>
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>152</v>
+      </c>
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>153</v>
+      </c>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>154</v>
+      </c>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>155</v>
+      </c>
+      <c r="E157" s="12"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>156</v>
+      </c>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>157</v>
+      </c>
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>158</v>
+      </c>
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>159</v>
+      </c>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>160</v>
+      </c>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>161</v>
+      </c>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>162</v>
+      </c>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>163</v>
+      </c>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>164</v>
+      </c>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="2">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>No</t>
   </si>
@@ -585,6 +585,15 @@
   </si>
   <si>
     <t>Operasional Mahad</t>
+  </si>
+  <si>
+    <t>Pembangunan pinjam uang banin</t>
+  </si>
+  <si>
+    <t>Perbaikan sound system oleh pak Seti</t>
+  </si>
+  <si>
+    <t>Sapu atap 2</t>
   </si>
 </sst>
 </file>
@@ -592,12 +601,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -619,21 +628,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,6 +649,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -654,32 +664,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,11 +678,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,8 +700,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,39 +772,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,31 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,13 +823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +835,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +913,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,25 +943,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,67 +973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,41 +1008,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1053,7 +1027,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,6 +1071,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1096,174 +1096,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1631,196 +1637,196 @@
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="13">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="11">
         <v>42644</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>3000000</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>42644</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>1087500</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>42644</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>960000</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>42278</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>3000000</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>42278</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>1087500</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>42292</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>556000</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>42658</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>40000</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="17">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>42552</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <v>1000000</v>
       </c>
       <c r="F9" t="s">
@@ -1831,16 +1837,16 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="17">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>42553</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>465000</v>
       </c>
       <c r="F10" t="s">
@@ -1851,16 +1857,16 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="17">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>42553</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <v>180000</v>
       </c>
       <c r="F11" t="s">
@@ -1871,16 +1877,16 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="17">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>42553</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>500000</v>
       </c>
       <c r="F12" t="s">
@@ -1894,16 +1900,16 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="17">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>42553</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="16">
         <v>10000</v>
       </c>
       <c r="F13" t="s">
@@ -1914,16 +1920,16 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="17">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>42553</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>499500</v>
       </c>
       <c r="F14" t="s">
@@ -1934,16 +1940,16 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="17">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>42553</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>200000</v>
       </c>
       <c r="F15" t="s">
@@ -1954,16 +1960,16 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="17">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>42556</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>600000</v>
       </c>
       <c r="F16" t="s">
@@ -1974,16 +1980,16 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="17">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>42556</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <v>-290000</v>
       </c>
       <c r="F17" t="s">
@@ -1997,16 +2003,16 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="17">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>42570</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <v>320000</v>
       </c>
       <c r="F18" t="s">
@@ -2017,16 +2023,16 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="17">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>42579</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="16">
         <v>3600000</v>
       </c>
       <c r="F19" t="s">
@@ -2040,16 +2046,16 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="17">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>42573</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="16">
         <v>500000</v>
       </c>
       <c r="F20" t="s">
@@ -2060,16 +2066,16 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="17">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <v>42573</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="16">
         <v>100000</v>
       </c>
       <c r="F21" t="s">
@@ -2080,16 +2086,16 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="17">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>42573</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="16">
         <v>1125000</v>
       </c>
       <c r="F22" t="s">
@@ -2103,16 +2109,16 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="17">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>42573</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="16">
         <v>2500000</v>
       </c>
       <c r="F23" t="s">
@@ -2126,16 +2132,16 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="17">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>42573</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <v>140000</v>
       </c>
       <c r="F24" t="s">
@@ -2149,16 +2155,16 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="17">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <v>42573</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="16">
         <v>25000</v>
       </c>
       <c r="F25" t="s">
@@ -2169,16 +2175,16 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="17">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>42573</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="16">
         <v>19000</v>
       </c>
       <c r="F26" t="s">
@@ -2192,16 +2198,16 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="17">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <v>42573</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="16">
         <v>50000</v>
       </c>
       <c r="F27" t="s">
@@ -2215,16 +2221,16 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="17">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <v>42574</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="16">
         <v>901500</v>
       </c>
       <c r="F28" t="s">
@@ -2238,16 +2244,16 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="17">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="15">
         <v>42574</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="16">
         <v>100000</v>
       </c>
       <c r="F29" t="s">
@@ -2258,16 +2264,16 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="17">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="15">
         <v>42575</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="16">
         <v>100000</v>
       </c>
       <c r="F30" t="s">
@@ -2278,16 +2284,16 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="17">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="15">
         <v>42576</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="16">
         <v>400000</v>
       </c>
       <c r="F31" t="s">
@@ -2301,16 +2307,16 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="17">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="15">
         <v>42577</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="16">
         <v>300000</v>
       </c>
       <c r="F32" t="s">
@@ -2324,16 +2330,16 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="17">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="15">
         <v>42579</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="16">
         <v>1000000</v>
       </c>
       <c r="F33" t="s">
@@ -2344,16 +2350,16 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="17">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="15">
         <v>42581</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="16">
         <v>-159000</v>
       </c>
       <c r="F34" t="s">
@@ -2367,16 +2373,16 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="17">
+      <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="15">
         <v>42581</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="16">
         <v>200000</v>
       </c>
       <c r="F35" t="s">
@@ -2387,16 +2393,16 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="17">
+      <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <v>42583</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="16">
         <v>2150000</v>
       </c>
       <c r="F36" t="s">
@@ -2410,16 +2416,16 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="17">
+      <c r="A37" s="14">
         <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="15">
         <v>42583</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="16">
         <v>7500</v>
       </c>
       <c r="F37" t="s">
@@ -2433,16 +2439,16 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="17">
+      <c r="A38" s="14">
         <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="15">
         <v>42583</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="16">
         <v>1000000</v>
       </c>
       <c r="F38" t="s">
@@ -2456,16 +2462,16 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="17">
+      <c r="A39" s="14">
         <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="15">
         <v>42583</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="16">
         <v>100000</v>
       </c>
       <c r="F39" t="s">
@@ -2476,16 +2482,16 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="17">
+      <c r="A40" s="14">
         <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="15">
         <v>42583</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="16">
         <v>20000</v>
       </c>
       <c r="F40" t="s">
@@ -2499,16 +2505,16 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="17">
+      <c r="A41" s="14">
         <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="15">
         <v>42583</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="16">
         <v>4000000</v>
       </c>
       <c r="F41" t="s">
@@ -2522,16 +2528,16 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="17">
+      <c r="A42" s="14">
         <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="15">
         <v>42585</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="16">
         <v>5000000</v>
       </c>
       <c r="F42" t="s">
@@ -2545,16 +2551,16 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="17">
+      <c r="A43" s="14">
         <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="15">
         <v>42585</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="16">
         <v>200000</v>
       </c>
       <c r="F43" t="s">
@@ -2565,16 +2571,16 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="17">
+      <c r="A44" s="14">
         <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="15">
         <v>42587</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="16">
         <v>465000</v>
       </c>
       <c r="F44" t="s">
@@ -2588,16 +2594,16 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="17">
+      <c r="A45" s="14">
         <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="15">
         <v>42587</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="16">
         <v>500000</v>
       </c>
       <c r="F45" t="s">
@@ -2608,16 +2614,16 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="17">
+      <c r="A46" s="14">
         <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="15">
         <v>42587</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="16">
         <v>180000</v>
       </c>
       <c r="F46" t="s">
@@ -2628,16 +2634,16 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="17">
+      <c r="A47" s="14">
         <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="15">
         <v>42587</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="16">
         <v>570000</v>
       </c>
       <c r="F47" t="s">
@@ -2648,16 +2654,16 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="17">
+      <c r="A48" s="14">
         <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="15">
         <v>42587</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="16">
         <v>200000</v>
       </c>
       <c r="F48" t="s">
@@ -2668,16 +2674,16 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="17">
+      <c r="A49" s="14">
         <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="15">
         <v>42587</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="16">
         <v>100000</v>
       </c>
       <c r="F49" t="s">
@@ -2688,19 +2694,19 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="17">
+      <c r="A50" s="14">
         <v>49</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="18">
         <v>42679</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="19">
         <v>100000</v>
       </c>
       <c r="F50" t="s">
@@ -2711,2962 +2717,2962 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="17">
+      <c r="A51" s="14">
         <v>50</v>
       </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="17">
+      <c r="A52" s="14">
         <v>51</v>
       </c>
-      <c r="E52" s="22"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="17">
+      <c r="A53" s="14">
         <v>52</v>
       </c>
-      <c r="E53" s="22"/>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="17">
+      <c r="A54" s="14">
         <v>53</v>
       </c>
-      <c r="E54" s="22"/>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="17">
+      <c r="A55" s="14">
         <v>54</v>
       </c>
-      <c r="E55" s="22"/>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="17">
+      <c r="A56" s="14">
         <v>55</v>
       </c>
-      <c r="E56" s="22"/>
+      <c r="E56" s="19"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="17">
+      <c r="A57" s="14">
         <v>56</v>
       </c>
-      <c r="E57" s="22"/>
+      <c r="E57" s="19"/>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="17">
+      <c r="A58" s="14">
         <v>57</v>
       </c>
-      <c r="E58" s="22"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="17">
+      <c r="A59" s="14">
         <v>58</v>
       </c>
-      <c r="E59" s="22"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="17">
+      <c r="A60" s="14">
         <v>59</v>
       </c>
-      <c r="E60" s="22"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="17">
+      <c r="A61" s="14">
         <v>60</v>
       </c>
-      <c r="E61" s="22"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="17">
+      <c r="A62" s="14">
         <v>61</v>
       </c>
-      <c r="E62" s="22"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="17">
+      <c r="A63" s="14">
         <v>62</v>
       </c>
-      <c r="E63" s="22"/>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="17">
+      <c r="A64" s="14">
         <v>63</v>
       </c>
-      <c r="E64" s="22"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="17">
+      <c r="A65" s="14">
         <v>64</v>
       </c>
-      <c r="E65" s="22"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="17">
+      <c r="A66" s="14">
         <v>65</v>
       </c>
-      <c r="E66" s="22"/>
+      <c r="E66" s="19"/>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="17">
+      <c r="A67" s="14">
         <v>66</v>
       </c>
-      <c r="E67" s="22"/>
+      <c r="E67" s="19"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="17">
+      <c r="A68" s="14">
         <v>67</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" s="19"/>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="17">
+      <c r="A69" s="14">
         <v>68</v>
       </c>
-      <c r="E69" s="22"/>
+      <c r="E69" s="19"/>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="17">
+      <c r="A70" s="14">
         <v>69</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="19"/>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="17">
+      <c r="A71" s="14">
         <v>70</v>
       </c>
-      <c r="E71" s="22"/>
+      <c r="E71" s="19"/>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="17">
+      <c r="A72" s="14">
         <v>71</v>
       </c>
-      <c r="E72" s="22"/>
+      <c r="E72" s="19"/>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="17">
+      <c r="A73" s="14">
         <v>72</v>
       </c>
-      <c r="E73" s="22"/>
+      <c r="E73" s="19"/>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="17">
+      <c r="A74" s="14">
         <v>73</v>
       </c>
-      <c r="E74" s="22"/>
+      <c r="E74" s="19"/>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="17">
+      <c r="A75" s="14">
         <v>74</v>
       </c>
-      <c r="E75" s="22"/>
+      <c r="E75" s="19"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="17">
+      <c r="A76" s="14">
         <v>75</v>
       </c>
-      <c r="E76" s="22"/>
+      <c r="E76" s="19"/>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="17">
+      <c r="A77" s="14">
         <v>76</v>
       </c>
-      <c r="E77" s="22"/>
+      <c r="E77" s="19"/>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="17">
+      <c r="A78" s="14">
         <v>77</v>
       </c>
-      <c r="E78" s="22"/>
+      <c r="E78" s="19"/>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="17">
+      <c r="A79" s="14">
         <v>78</v>
       </c>
-      <c r="E79" s="22"/>
+      <c r="E79" s="19"/>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="17">
+      <c r="A80" s="14">
         <v>79</v>
       </c>
-      <c r="E80" s="22"/>
+      <c r="E80" s="19"/>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="17">
+      <c r="A81" s="14">
         <v>80</v>
       </c>
-      <c r="E81" s="22"/>
+      <c r="E81" s="19"/>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="17">
+      <c r="A82" s="14">
         <v>81</v>
       </c>
-      <c r="E82" s="22"/>
+      <c r="E82" s="19"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="17">
+      <c r="A83" s="14">
         <v>82</v>
       </c>
-      <c r="E83" s="22"/>
+      <c r="E83" s="19"/>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="17">
+      <c r="A84" s="14">
         <v>83</v>
       </c>
-      <c r="E84" s="22"/>
+      <c r="E84" s="19"/>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="17">
+      <c r="A85" s="14">
         <v>84</v>
       </c>
-      <c r="E85" s="22"/>
+      <c r="E85" s="19"/>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="17">
+      <c r="A86" s="14">
         <v>85</v>
       </c>
-      <c r="E86" s="22"/>
+      <c r="E86" s="19"/>
     </row>
     <row r="87" customHeight="1" spans="5:5">
-      <c r="E87" s="22"/>
+      <c r="E87" s="19"/>
     </row>
     <row r="88" customHeight="1" spans="5:5">
-      <c r="E88" s="22"/>
+      <c r="E88" s="19"/>
     </row>
     <row r="89" customHeight="1" spans="5:5">
-      <c r="E89" s="22"/>
+      <c r="E89" s="19"/>
     </row>
     <row r="90" customHeight="1" spans="5:5">
-      <c r="E90" s="22"/>
+      <c r="E90" s="19"/>
     </row>
     <row r="91" customHeight="1" spans="5:5">
-      <c r="E91" s="22"/>
+      <c r="E91" s="19"/>
     </row>
     <row r="92" customHeight="1" spans="5:5">
-      <c r="E92" s="22"/>
+      <c r="E92" s="19"/>
     </row>
     <row r="93" customHeight="1" spans="5:5">
-      <c r="E93" s="22"/>
+      <c r="E93" s="19"/>
     </row>
     <row r="94" customHeight="1" spans="5:5">
-      <c r="E94" s="22"/>
+      <c r="E94" s="19"/>
     </row>
     <row r="95" customHeight="1" spans="5:5">
-      <c r="E95" s="22"/>
+      <c r="E95" s="19"/>
     </row>
     <row r="96" customHeight="1" spans="5:5">
-      <c r="E96" s="22"/>
+      <c r="E96" s="19"/>
     </row>
     <row r="97" customHeight="1" spans="5:5">
-      <c r="E97" s="22"/>
+      <c r="E97" s="19"/>
     </row>
     <row r="98" customHeight="1" spans="5:5">
-      <c r="E98" s="22"/>
+      <c r="E98" s="19"/>
     </row>
     <row r="99" customHeight="1" spans="5:5">
-      <c r="E99" s="22"/>
+      <c r="E99" s="19"/>
     </row>
     <row r="100" customHeight="1" spans="5:5">
-      <c r="E100" s="22"/>
+      <c r="E100" s="19"/>
     </row>
     <row r="101" customHeight="1" spans="5:5">
-      <c r="E101" s="22"/>
+      <c r="E101" s="19"/>
     </row>
     <row r="102" customHeight="1" spans="5:5">
-      <c r="E102" s="22"/>
+      <c r="E102" s="19"/>
     </row>
     <row r="103" customHeight="1" spans="5:5">
-      <c r="E103" s="22"/>
+      <c r="E103" s="19"/>
     </row>
     <row r="104" customHeight="1" spans="5:5">
-      <c r="E104" s="22"/>
+      <c r="E104" s="19"/>
     </row>
     <row r="105" customHeight="1" spans="5:5">
-      <c r="E105" s="22"/>
+      <c r="E105" s="19"/>
     </row>
     <row r="106" customHeight="1" spans="5:5">
-      <c r="E106" s="22"/>
+      <c r="E106" s="19"/>
     </row>
     <row r="107" customHeight="1" spans="5:5">
-      <c r="E107" s="22"/>
+      <c r="E107" s="19"/>
     </row>
     <row r="108" customHeight="1" spans="5:5">
-      <c r="E108" s="22"/>
+      <c r="E108" s="19"/>
     </row>
     <row r="109" customHeight="1" spans="5:5">
-      <c r="E109" s="22"/>
+      <c r="E109" s="19"/>
     </row>
     <row r="110" customHeight="1" spans="5:5">
-      <c r="E110" s="22"/>
+      <c r="E110" s="19"/>
     </row>
     <row r="111" customHeight="1" spans="5:5">
-      <c r="E111" s="22"/>
+      <c r="E111" s="19"/>
     </row>
     <row r="112" customHeight="1" spans="5:5">
-      <c r="E112" s="22"/>
+      <c r="E112" s="19"/>
     </row>
     <row r="113" customHeight="1" spans="5:5">
-      <c r="E113" s="22"/>
+      <c r="E113" s="19"/>
     </row>
     <row r="114" customHeight="1" spans="5:5">
-      <c r="E114" s="22"/>
+      <c r="E114" s="19"/>
     </row>
     <row r="115" customHeight="1" spans="5:5">
-      <c r="E115" s="22"/>
+      <c r="E115" s="19"/>
     </row>
     <row r="116" customHeight="1" spans="5:5">
-      <c r="E116" s="22"/>
+      <c r="E116" s="19"/>
     </row>
     <row r="117" customHeight="1" spans="5:5">
-      <c r="E117" s="22"/>
+      <c r="E117" s="19"/>
     </row>
     <row r="118" customHeight="1" spans="5:5">
-      <c r="E118" s="22"/>
+      <c r="E118" s="19"/>
     </row>
     <row r="119" customHeight="1" spans="5:5">
-      <c r="E119" s="22"/>
+      <c r="E119" s="19"/>
     </row>
     <row r="120" customHeight="1" spans="5:5">
-      <c r="E120" s="22"/>
+      <c r="E120" s="19"/>
     </row>
     <row r="121" customHeight="1" spans="5:5">
-      <c r="E121" s="22"/>
+      <c r="E121" s="19"/>
     </row>
     <row r="122" customHeight="1" spans="5:5">
-      <c r="E122" s="22"/>
+      <c r="E122" s="19"/>
     </row>
     <row r="123" customHeight="1" spans="5:5">
-      <c r="E123" s="22"/>
+      <c r="E123" s="19"/>
     </row>
     <row r="124" customHeight="1" spans="5:5">
-      <c r="E124" s="22"/>
+      <c r="E124" s="19"/>
     </row>
     <row r="125" customHeight="1" spans="5:5">
-      <c r="E125" s="22"/>
+      <c r="E125" s="19"/>
     </row>
     <row r="126" customHeight="1" spans="5:5">
-      <c r="E126" s="22"/>
+      <c r="E126" s="19"/>
     </row>
     <row r="127" customHeight="1" spans="5:5">
-      <c r="E127" s="22"/>
+      <c r="E127" s="19"/>
     </row>
     <row r="128" customHeight="1" spans="5:5">
-      <c r="E128" s="22"/>
+      <c r="E128" s="19"/>
     </row>
     <row r="129" customHeight="1" spans="5:5">
-      <c r="E129" s="22"/>
+      <c r="E129" s="19"/>
     </row>
     <row r="130" customHeight="1" spans="5:5">
-      <c r="E130" s="22"/>
+      <c r="E130" s="19"/>
     </row>
     <row r="131" customHeight="1" spans="5:5">
-      <c r="E131" s="22"/>
+      <c r="E131" s="19"/>
     </row>
     <row r="132" customHeight="1" spans="5:5">
-      <c r="E132" s="22"/>
+      <c r="E132" s="19"/>
     </row>
     <row r="133" customHeight="1" spans="5:5">
-      <c r="E133" s="22"/>
+      <c r="E133" s="19"/>
     </row>
     <row r="134" customHeight="1" spans="5:5">
-      <c r="E134" s="22"/>
+      <c r="E134" s="19"/>
     </row>
     <row r="135" customHeight="1" spans="5:5">
-      <c r="E135" s="22"/>
+      <c r="E135" s="19"/>
     </row>
     <row r="136" customHeight="1" spans="5:5">
-      <c r="E136" s="22"/>
+      <c r="E136" s="19"/>
     </row>
     <row r="137" customHeight="1" spans="5:5">
-      <c r="E137" s="22"/>
+      <c r="E137" s="19"/>
     </row>
     <row r="138" customHeight="1" spans="5:5">
-      <c r="E138" s="22"/>
+      <c r="E138" s="19"/>
     </row>
     <row r="139" customHeight="1" spans="5:5">
-      <c r="E139" s="22"/>
+      <c r="E139" s="19"/>
     </row>
     <row r="140" customHeight="1" spans="5:5">
-      <c r="E140" s="22"/>
+      <c r="E140" s="19"/>
     </row>
     <row r="141" customHeight="1" spans="5:5">
-      <c r="E141" s="22"/>
+      <c r="E141" s="19"/>
     </row>
     <row r="142" customHeight="1" spans="5:5">
-      <c r="E142" s="22"/>
+      <c r="E142" s="19"/>
     </row>
     <row r="143" customHeight="1" spans="5:5">
-      <c r="E143" s="22"/>
+      <c r="E143" s="19"/>
     </row>
     <row r="144" customHeight="1" spans="5:5">
-      <c r="E144" s="22"/>
+      <c r="E144" s="19"/>
     </row>
     <row r="145" customHeight="1" spans="5:5">
-      <c r="E145" s="22"/>
+      <c r="E145" s="19"/>
     </row>
     <row r="146" customHeight="1" spans="5:5">
-      <c r="E146" s="22"/>
+      <c r="E146" s="19"/>
     </row>
     <row r="147" customHeight="1" spans="5:5">
-      <c r="E147" s="22"/>
+      <c r="E147" s="19"/>
     </row>
     <row r="148" customHeight="1" spans="5:5">
-      <c r="E148" s="22"/>
+      <c r="E148" s="19"/>
     </row>
     <row r="149" customHeight="1" spans="5:5">
-      <c r="E149" s="22"/>
+      <c r="E149" s="19"/>
     </row>
     <row r="150" customHeight="1" spans="5:5">
-      <c r="E150" s="22"/>
+      <c r="E150" s="19"/>
     </row>
     <row r="151" customHeight="1" spans="5:5">
-      <c r="E151" s="22"/>
+      <c r="E151" s="19"/>
     </row>
     <row r="152" customHeight="1" spans="5:5">
-      <c r="E152" s="22"/>
+      <c r="E152" s="19"/>
     </row>
     <row r="153" customHeight="1" spans="5:5">
-      <c r="E153" s="22"/>
+      <c r="E153" s="19"/>
     </row>
     <row r="154" customHeight="1" spans="5:5">
-      <c r="E154" s="22"/>
+      <c r="E154" s="19"/>
     </row>
     <row r="155" customHeight="1" spans="5:5">
-      <c r="E155" s="22"/>
+      <c r="E155" s="19"/>
     </row>
     <row r="156" customHeight="1" spans="5:5">
-      <c r="E156" s="22"/>
+      <c r="E156" s="19"/>
     </row>
     <row r="157" customHeight="1" spans="5:5">
-      <c r="E157" s="22"/>
+      <c r="E157" s="19"/>
     </row>
     <row r="158" customHeight="1" spans="5:5">
-      <c r="E158" s="22"/>
+      <c r="E158" s="19"/>
     </row>
     <row r="159" customHeight="1" spans="5:5">
-      <c r="E159" s="22"/>
+      <c r="E159" s="19"/>
     </row>
     <row r="160" customHeight="1" spans="5:5">
-      <c r="E160" s="22"/>
+      <c r="E160" s="19"/>
     </row>
     <row r="161" customHeight="1" spans="5:5">
-      <c r="E161" s="22"/>
+      <c r="E161" s="19"/>
     </row>
     <row r="162" customHeight="1" spans="5:5">
-      <c r="E162" s="22"/>
+      <c r="E162" s="19"/>
     </row>
     <row r="163" customHeight="1" spans="5:5">
-      <c r="E163" s="22"/>
+      <c r="E163" s="19"/>
     </row>
     <row r="164" customHeight="1" spans="5:5">
-      <c r="E164" s="22"/>
+      <c r="E164" s="19"/>
     </row>
     <row r="165" customHeight="1" spans="5:5">
-      <c r="E165" s="22"/>
+      <c r="E165" s="19"/>
     </row>
     <row r="166" customHeight="1" spans="5:5">
-      <c r="E166" s="22"/>
+      <c r="E166" s="19"/>
     </row>
     <row r="167" customHeight="1" spans="5:5">
-      <c r="E167" s="22"/>
+      <c r="E167" s="19"/>
     </row>
     <row r="168" customHeight="1" spans="5:5">
-      <c r="E168" s="22"/>
+      <c r="E168" s="19"/>
     </row>
     <row r="169" customHeight="1" spans="5:5">
-      <c r="E169" s="22"/>
+      <c r="E169" s="19"/>
     </row>
     <row r="170" customHeight="1" spans="5:5">
-      <c r="E170" s="22"/>
+      <c r="E170" s="19"/>
     </row>
     <row r="171" customHeight="1" spans="5:5">
-      <c r="E171" s="22"/>
+      <c r="E171" s="19"/>
     </row>
     <row r="172" customHeight="1" spans="5:5">
-      <c r="E172" s="22"/>
+      <c r="E172" s="19"/>
     </row>
     <row r="173" customHeight="1" spans="5:5">
-      <c r="E173" s="22"/>
+      <c r="E173" s="19"/>
     </row>
     <row r="174" customHeight="1" spans="5:5">
-      <c r="E174" s="22"/>
+      <c r="E174" s="19"/>
     </row>
     <row r="175" customHeight="1" spans="5:5">
-      <c r="E175" s="22"/>
+      <c r="E175" s="19"/>
     </row>
     <row r="176" customHeight="1" spans="5:5">
-      <c r="E176" s="22"/>
+      <c r="E176" s="19"/>
     </row>
     <row r="177" customHeight="1" spans="5:5">
-      <c r="E177" s="22"/>
+      <c r="E177" s="19"/>
     </row>
     <row r="178" customHeight="1" spans="5:5">
-      <c r="E178" s="22"/>
+      <c r="E178" s="19"/>
     </row>
     <row r="179" customHeight="1" spans="5:5">
-      <c r="E179" s="22"/>
+      <c r="E179" s="19"/>
     </row>
     <row r="180" customHeight="1" spans="5:5">
-      <c r="E180" s="22"/>
+      <c r="E180" s="19"/>
     </row>
     <row r="181" customHeight="1" spans="5:5">
-      <c r="E181" s="22"/>
+      <c r="E181" s="19"/>
     </row>
     <row r="182" customHeight="1" spans="5:5">
-      <c r="E182" s="22"/>
+      <c r="E182" s="19"/>
     </row>
     <row r="183" customHeight="1" spans="5:5">
-      <c r="E183" s="22"/>
+      <c r="E183" s="19"/>
     </row>
     <row r="184" customHeight="1" spans="5:5">
-      <c r="E184" s="22"/>
+      <c r="E184" s="19"/>
     </row>
     <row r="185" customHeight="1" spans="5:5">
-      <c r="E185" s="22"/>
+      <c r="E185" s="19"/>
     </row>
     <row r="186" customHeight="1" spans="5:5">
-      <c r="E186" s="22"/>
+      <c r="E186" s="19"/>
     </row>
     <row r="187" customHeight="1" spans="5:5">
-      <c r="E187" s="22"/>
+      <c r="E187" s="19"/>
     </row>
     <row r="188" customHeight="1" spans="5:5">
-      <c r="E188" s="22"/>
+      <c r="E188" s="19"/>
     </row>
     <row r="189" customHeight="1" spans="5:5">
-      <c r="E189" s="22"/>
+      <c r="E189" s="19"/>
     </row>
     <row r="190" customHeight="1" spans="5:5">
-      <c r="E190" s="22"/>
+      <c r="E190" s="19"/>
     </row>
     <row r="191" customHeight="1" spans="5:5">
-      <c r="E191" s="22"/>
+      <c r="E191" s="19"/>
     </row>
     <row r="192" customHeight="1" spans="5:5">
-      <c r="E192" s="22"/>
+      <c r="E192" s="19"/>
     </row>
     <row r="193" customHeight="1" spans="5:5">
-      <c r="E193" s="22"/>
+      <c r="E193" s="19"/>
     </row>
     <row r="194" customHeight="1" spans="5:5">
-      <c r="E194" s="22"/>
+      <c r="E194" s="19"/>
     </row>
     <row r="195" customHeight="1" spans="5:5">
-      <c r="E195" s="22"/>
+      <c r="E195" s="19"/>
     </row>
     <row r="196" customHeight="1" spans="5:5">
-      <c r="E196" s="22"/>
+      <c r="E196" s="19"/>
     </row>
     <row r="197" customHeight="1" spans="5:5">
-      <c r="E197" s="22"/>
+      <c r="E197" s="19"/>
     </row>
     <row r="198" customHeight="1" spans="5:5">
-      <c r="E198" s="22"/>
+      <c r="E198" s="19"/>
     </row>
     <row r="199" customHeight="1" spans="5:5">
-      <c r="E199" s="22"/>
+      <c r="E199" s="19"/>
     </row>
     <row r="200" customHeight="1" spans="5:5">
-      <c r="E200" s="22"/>
+      <c r="E200" s="19"/>
     </row>
     <row r="201" customHeight="1" spans="5:5">
-      <c r="E201" s="22"/>
+      <c r="E201" s="19"/>
     </row>
     <row r="202" customHeight="1" spans="5:5">
-      <c r="E202" s="22"/>
+      <c r="E202" s="19"/>
     </row>
     <row r="203" customHeight="1" spans="5:5">
-      <c r="E203" s="22"/>
+      <c r="E203" s="19"/>
     </row>
     <row r="204" customHeight="1" spans="5:5">
-      <c r="E204" s="22"/>
+      <c r="E204" s="19"/>
     </row>
     <row r="205" customHeight="1" spans="5:5">
-      <c r="E205" s="22"/>
+      <c r="E205" s="19"/>
     </row>
     <row r="206" customHeight="1" spans="5:5">
-      <c r="E206" s="22"/>
+      <c r="E206" s="19"/>
     </row>
     <row r="207" customHeight="1" spans="5:5">
-      <c r="E207" s="22"/>
+      <c r="E207" s="19"/>
     </row>
     <row r="208" customHeight="1" spans="5:5">
-      <c r="E208" s="22"/>
+      <c r="E208" s="19"/>
     </row>
     <row r="209" customHeight="1" spans="5:5">
-      <c r="E209" s="22"/>
+      <c r="E209" s="19"/>
     </row>
     <row r="210" customHeight="1" spans="5:5">
-      <c r="E210" s="22"/>
+      <c r="E210" s="19"/>
     </row>
     <row r="211" customHeight="1" spans="5:5">
-      <c r="E211" s="22"/>
+      <c r="E211" s="19"/>
     </row>
     <row r="212" customHeight="1" spans="5:5">
-      <c r="E212" s="22"/>
+      <c r="E212" s="19"/>
     </row>
     <row r="213" customHeight="1" spans="5:5">
-      <c r="E213" s="22"/>
+      <c r="E213" s="19"/>
     </row>
     <row r="214" customHeight="1" spans="5:5">
-      <c r="E214" s="22"/>
+      <c r="E214" s="19"/>
     </row>
     <row r="215" customHeight="1" spans="5:5">
-      <c r="E215" s="22"/>
+      <c r="E215" s="19"/>
     </row>
     <row r="216" customHeight="1" spans="5:5">
-      <c r="E216" s="22"/>
+      <c r="E216" s="19"/>
     </row>
     <row r="217" customHeight="1" spans="5:5">
-      <c r="E217" s="22"/>
+      <c r="E217" s="19"/>
     </row>
     <row r="218" customHeight="1" spans="5:5">
-      <c r="E218" s="22"/>
+      <c r="E218" s="19"/>
     </row>
     <row r="219" customHeight="1" spans="5:5">
-      <c r="E219" s="22"/>
+      <c r="E219" s="19"/>
     </row>
     <row r="220" customHeight="1" spans="5:5">
-      <c r="E220" s="22"/>
+      <c r="E220" s="19"/>
     </row>
     <row r="221" customHeight="1" spans="5:5">
-      <c r="E221" s="22"/>
+      <c r="E221" s="19"/>
     </row>
     <row r="222" customHeight="1" spans="5:5">
-      <c r="E222" s="22"/>
+      <c r="E222" s="19"/>
     </row>
     <row r="223" customHeight="1" spans="5:5">
-      <c r="E223" s="22"/>
+      <c r="E223" s="19"/>
     </row>
     <row r="224" customHeight="1" spans="5:5">
-      <c r="E224" s="22"/>
+      <c r="E224" s="19"/>
     </row>
     <row r="225" customHeight="1" spans="5:5">
-      <c r="E225" s="22"/>
+      <c r="E225" s="19"/>
     </row>
     <row r="226" customHeight="1" spans="5:5">
-      <c r="E226" s="22"/>
+      <c r="E226" s="19"/>
     </row>
     <row r="227" customHeight="1" spans="5:5">
-      <c r="E227" s="22"/>
+      <c r="E227" s="19"/>
     </row>
     <row r="228" customHeight="1" spans="5:5">
-      <c r="E228" s="22"/>
+      <c r="E228" s="19"/>
     </row>
     <row r="229" customHeight="1" spans="5:5">
-      <c r="E229" s="22"/>
+      <c r="E229" s="19"/>
     </row>
     <row r="230" customHeight="1" spans="5:5">
-      <c r="E230" s="22"/>
+      <c r="E230" s="19"/>
     </row>
     <row r="231" customHeight="1" spans="5:5">
-      <c r="E231" s="22"/>
+      <c r="E231" s="19"/>
     </row>
     <row r="232" customHeight="1" spans="5:5">
-      <c r="E232" s="22"/>
+      <c r="E232" s="19"/>
     </row>
     <row r="233" customHeight="1" spans="5:5">
-      <c r="E233" s="22"/>
+      <c r="E233" s="19"/>
     </row>
     <row r="234" customHeight="1" spans="5:5">
-      <c r="E234" s="22"/>
+      <c r="E234" s="19"/>
     </row>
     <row r="235" customHeight="1" spans="5:5">
-      <c r="E235" s="22"/>
+      <c r="E235" s="19"/>
     </row>
     <row r="236" customHeight="1" spans="5:5">
-      <c r="E236" s="22"/>
+      <c r="E236" s="19"/>
     </row>
     <row r="237" customHeight="1" spans="5:5">
-      <c r="E237" s="22"/>
+      <c r="E237" s="19"/>
     </row>
     <row r="238" customHeight="1" spans="5:5">
-      <c r="E238" s="22"/>
+      <c r="E238" s="19"/>
     </row>
     <row r="239" customHeight="1" spans="5:5">
-      <c r="E239" s="22"/>
+      <c r="E239" s="19"/>
     </row>
     <row r="240" customHeight="1" spans="5:5">
-      <c r="E240" s="22"/>
+      <c r="E240" s="19"/>
     </row>
     <row r="241" customHeight="1" spans="5:5">
-      <c r="E241" s="22"/>
+      <c r="E241" s="19"/>
     </row>
     <row r="242" customHeight="1" spans="5:5">
-      <c r="E242" s="22"/>
+      <c r="E242" s="19"/>
     </row>
     <row r="243" customHeight="1" spans="5:5">
-      <c r="E243" s="22"/>
+      <c r="E243" s="19"/>
     </row>
     <row r="244" customHeight="1" spans="5:5">
-      <c r="E244" s="22"/>
+      <c r="E244" s="19"/>
     </row>
     <row r="245" customHeight="1" spans="5:5">
-      <c r="E245" s="22"/>
+      <c r="E245" s="19"/>
     </row>
     <row r="246" customHeight="1" spans="5:5">
-      <c r="E246" s="22"/>
+      <c r="E246" s="19"/>
     </row>
     <row r="247" customHeight="1" spans="5:5">
-      <c r="E247" s="22"/>
+      <c r="E247" s="19"/>
     </row>
     <row r="248" customHeight="1" spans="5:5">
-      <c r="E248" s="22"/>
+      <c r="E248" s="19"/>
     </row>
     <row r="249" customHeight="1" spans="5:5">
-      <c r="E249" s="22"/>
+      <c r="E249" s="19"/>
     </row>
     <row r="250" customHeight="1" spans="5:5">
-      <c r="E250" s="22"/>
+      <c r="E250" s="19"/>
     </row>
     <row r="251" customHeight="1" spans="5:5">
-      <c r="E251" s="22"/>
+      <c r="E251" s="19"/>
     </row>
     <row r="252" customHeight="1" spans="5:5">
-      <c r="E252" s="22"/>
+      <c r="E252" s="19"/>
     </row>
     <row r="253" customHeight="1" spans="5:5">
-      <c r="E253" s="22"/>
+      <c r="E253" s="19"/>
     </row>
     <row r="254" customHeight="1" spans="5:5">
-      <c r="E254" s="22"/>
+      <c r="E254" s="19"/>
     </row>
     <row r="255" customHeight="1" spans="5:5">
-      <c r="E255" s="22"/>
+      <c r="E255" s="19"/>
     </row>
     <row r="256" customHeight="1" spans="5:5">
-      <c r="E256" s="22"/>
+      <c r="E256" s="19"/>
     </row>
     <row r="257" customHeight="1" spans="5:5">
-      <c r="E257" s="22"/>
+      <c r="E257" s="19"/>
     </row>
     <row r="258" customHeight="1" spans="5:5">
-      <c r="E258" s="22"/>
+      <c r="E258" s="19"/>
     </row>
     <row r="259" customHeight="1" spans="5:5">
-      <c r="E259" s="22"/>
+      <c r="E259" s="19"/>
     </row>
     <row r="260" customHeight="1" spans="5:5">
-      <c r="E260" s="22"/>
+      <c r="E260" s="19"/>
     </row>
     <row r="261" customHeight="1" spans="5:5">
-      <c r="E261" s="22"/>
+      <c r="E261" s="19"/>
     </row>
     <row r="262" customHeight="1" spans="5:5">
-      <c r="E262" s="22"/>
+      <c r="E262" s="19"/>
     </row>
     <row r="263" customHeight="1" spans="5:5">
-      <c r="E263" s="22"/>
+      <c r="E263" s="19"/>
     </row>
     <row r="264" customHeight="1" spans="5:5">
-      <c r="E264" s="22"/>
+      <c r="E264" s="19"/>
     </row>
     <row r="265" customHeight="1" spans="5:5">
-      <c r="E265" s="22"/>
+      <c r="E265" s="19"/>
     </row>
     <row r="266" customHeight="1" spans="5:5">
-      <c r="E266" s="22"/>
+      <c r="E266" s="19"/>
     </row>
     <row r="267" customHeight="1" spans="5:5">
-      <c r="E267" s="22"/>
+      <c r="E267" s="19"/>
     </row>
     <row r="268" customHeight="1" spans="5:5">
-      <c r="E268" s="22"/>
+      <c r="E268" s="19"/>
     </row>
     <row r="269" customHeight="1" spans="5:5">
-      <c r="E269" s="22"/>
+      <c r="E269" s="19"/>
     </row>
     <row r="270" customHeight="1" spans="5:5">
-      <c r="E270" s="22"/>
+      <c r="E270" s="19"/>
     </row>
     <row r="271" customHeight="1" spans="5:5">
-      <c r="E271" s="22"/>
+      <c r="E271" s="19"/>
     </row>
     <row r="272" customHeight="1" spans="5:5">
-      <c r="E272" s="22"/>
+      <c r="E272" s="19"/>
     </row>
     <row r="273" customHeight="1" spans="5:5">
-      <c r="E273" s="22"/>
+      <c r="E273" s="19"/>
     </row>
     <row r="274" customHeight="1" spans="5:5">
-      <c r="E274" s="22"/>
+      <c r="E274" s="19"/>
     </row>
     <row r="275" customHeight="1" spans="5:5">
-      <c r="E275" s="22"/>
+      <c r="E275" s="19"/>
     </row>
     <row r="276" customHeight="1" spans="5:5">
-      <c r="E276" s="22"/>
+      <c r="E276" s="19"/>
     </row>
     <row r="277" customHeight="1" spans="5:5">
-      <c r="E277" s="22"/>
+      <c r="E277" s="19"/>
     </row>
     <row r="278" customHeight="1" spans="5:5">
-      <c r="E278" s="22"/>
+      <c r="E278" s="19"/>
     </row>
     <row r="279" customHeight="1" spans="5:5">
-      <c r="E279" s="22"/>
+      <c r="E279" s="19"/>
     </row>
     <row r="280" customHeight="1" spans="5:5">
-      <c r="E280" s="22"/>
+      <c r="E280" s="19"/>
     </row>
     <row r="281" customHeight="1" spans="5:5">
-      <c r="E281" s="22"/>
+      <c r="E281" s="19"/>
     </row>
     <row r="282" customHeight="1" spans="5:5">
-      <c r="E282" s="22"/>
+      <c r="E282" s="19"/>
     </row>
     <row r="283" customHeight="1" spans="5:5">
-      <c r="E283" s="22"/>
+      <c r="E283" s="19"/>
     </row>
     <row r="284" customHeight="1" spans="5:5">
-      <c r="E284" s="22"/>
+      <c r="E284" s="19"/>
     </row>
     <row r="285" customHeight="1" spans="5:5">
-      <c r="E285" s="22"/>
+      <c r="E285" s="19"/>
     </row>
     <row r="286" customHeight="1" spans="5:5">
-      <c r="E286" s="22"/>
+      <c r="E286" s="19"/>
     </row>
     <row r="287" customHeight="1" spans="5:5">
-      <c r="E287" s="22"/>
+      <c r="E287" s="19"/>
     </row>
     <row r="288" customHeight="1" spans="5:5">
-      <c r="E288" s="22"/>
+      <c r="E288" s="19"/>
     </row>
     <row r="289" customHeight="1" spans="5:5">
-      <c r="E289" s="22"/>
+      <c r="E289" s="19"/>
     </row>
     <row r="290" customHeight="1" spans="5:5">
-      <c r="E290" s="22"/>
+      <c r="E290" s="19"/>
     </row>
     <row r="291" customHeight="1" spans="5:5">
-      <c r="E291" s="22"/>
+      <c r="E291" s="19"/>
     </row>
     <row r="292" customHeight="1" spans="5:5">
-      <c r="E292" s="22"/>
+      <c r="E292" s="19"/>
     </row>
     <row r="293" customHeight="1" spans="5:5">
-      <c r="E293" s="22"/>
+      <c r="E293" s="19"/>
     </row>
     <row r="294" customHeight="1" spans="5:5">
-      <c r="E294" s="22"/>
+      <c r="E294" s="19"/>
     </row>
     <row r="295" customHeight="1" spans="5:5">
-      <c r="E295" s="22"/>
+      <c r="E295" s="19"/>
     </row>
     <row r="296" customHeight="1" spans="5:5">
-      <c r="E296" s="22"/>
+      <c r="E296" s="19"/>
     </row>
     <row r="297" customHeight="1" spans="5:5">
-      <c r="E297" s="22"/>
+      <c r="E297" s="19"/>
     </row>
     <row r="298" customHeight="1" spans="5:5">
-      <c r="E298" s="22"/>
+      <c r="E298" s="19"/>
     </row>
     <row r="299" customHeight="1" spans="5:5">
-      <c r="E299" s="22"/>
+      <c r="E299" s="19"/>
     </row>
     <row r="300" customHeight="1" spans="5:5">
-      <c r="E300" s="22"/>
+      <c r="E300" s="19"/>
     </row>
     <row r="301" customHeight="1" spans="5:5">
-      <c r="E301" s="22"/>
+      <c r="E301" s="19"/>
     </row>
     <row r="302" customHeight="1" spans="5:5">
-      <c r="E302" s="22"/>
+      <c r="E302" s="19"/>
     </row>
     <row r="303" customHeight="1" spans="5:5">
-      <c r="E303" s="22"/>
+      <c r="E303" s="19"/>
     </row>
     <row r="304" customHeight="1" spans="5:5">
-      <c r="E304" s="22"/>
+      <c r="E304" s="19"/>
     </row>
     <row r="305" customHeight="1" spans="5:5">
-      <c r="E305" s="22"/>
+      <c r="E305" s="19"/>
     </row>
     <row r="306" customHeight="1" spans="5:5">
-      <c r="E306" s="22"/>
+      <c r="E306" s="19"/>
     </row>
     <row r="307" customHeight="1" spans="5:5">
-      <c r="E307" s="22"/>
+      <c r="E307" s="19"/>
     </row>
     <row r="308" customHeight="1" spans="5:5">
-      <c r="E308" s="22"/>
+      <c r="E308" s="19"/>
     </row>
     <row r="309" customHeight="1" spans="5:5">
-      <c r="E309" s="22"/>
+      <c r="E309" s="19"/>
     </row>
     <row r="310" customHeight="1" spans="5:5">
-      <c r="E310" s="22"/>
+      <c r="E310" s="19"/>
     </row>
     <row r="311" customHeight="1" spans="5:5">
-      <c r="E311" s="22"/>
+      <c r="E311" s="19"/>
     </row>
     <row r="312" customHeight="1" spans="5:5">
-      <c r="E312" s="22"/>
+      <c r="E312" s="19"/>
     </row>
     <row r="313" customHeight="1" spans="5:5">
-      <c r="E313" s="22"/>
+      <c r="E313" s="19"/>
     </row>
     <row r="314" customHeight="1" spans="5:5">
-      <c r="E314" s="22"/>
+      <c r="E314" s="19"/>
     </row>
     <row r="315" customHeight="1" spans="5:5">
-      <c r="E315" s="22"/>
+      <c r="E315" s="19"/>
     </row>
     <row r="316" customHeight="1" spans="5:5">
-      <c r="E316" s="22"/>
+      <c r="E316" s="19"/>
     </row>
     <row r="317" customHeight="1" spans="5:5">
-      <c r="E317" s="22"/>
+      <c r="E317" s="19"/>
     </row>
     <row r="318" customHeight="1" spans="5:5">
-      <c r="E318" s="22"/>
+      <c r="E318" s="19"/>
     </row>
     <row r="319" customHeight="1" spans="5:5">
-      <c r="E319" s="22"/>
+      <c r="E319" s="19"/>
     </row>
     <row r="320" customHeight="1" spans="5:5">
-      <c r="E320" s="22"/>
+      <c r="E320" s="19"/>
     </row>
     <row r="321" customHeight="1" spans="5:5">
-      <c r="E321" s="22"/>
+      <c r="E321" s="19"/>
     </row>
     <row r="322" customHeight="1" spans="5:5">
-      <c r="E322" s="22"/>
+      <c r="E322" s="19"/>
     </row>
     <row r="323" customHeight="1" spans="5:5">
-      <c r="E323" s="22"/>
+      <c r="E323" s="19"/>
     </row>
     <row r="324" customHeight="1" spans="5:5">
-      <c r="E324" s="22"/>
+      <c r="E324" s="19"/>
     </row>
     <row r="325" customHeight="1" spans="5:5">
-      <c r="E325" s="22"/>
+      <c r="E325" s="19"/>
     </row>
     <row r="326" customHeight="1" spans="5:5">
-      <c r="E326" s="22"/>
+      <c r="E326" s="19"/>
     </row>
     <row r="327" customHeight="1" spans="5:5">
-      <c r="E327" s="22"/>
+      <c r="E327" s="19"/>
     </row>
     <row r="328" customHeight="1" spans="5:5">
-      <c r="E328" s="22"/>
+      <c r="E328" s="19"/>
     </row>
     <row r="329" customHeight="1" spans="5:5">
-      <c r="E329" s="22"/>
+      <c r="E329" s="19"/>
     </row>
     <row r="330" customHeight="1" spans="5:5">
-      <c r="E330" s="22"/>
+      <c r="E330" s="19"/>
     </row>
     <row r="331" customHeight="1" spans="5:5">
-      <c r="E331" s="22"/>
+      <c r="E331" s="19"/>
     </row>
     <row r="332" customHeight="1" spans="5:5">
-      <c r="E332" s="22"/>
+      <c r="E332" s="19"/>
     </row>
     <row r="333" customHeight="1" spans="5:5">
-      <c r="E333" s="22"/>
+      <c r="E333" s="19"/>
     </row>
     <row r="334" customHeight="1" spans="5:5">
-      <c r="E334" s="22"/>
+      <c r="E334" s="19"/>
     </row>
     <row r="335" customHeight="1" spans="5:5">
-      <c r="E335" s="22"/>
+      <c r="E335" s="19"/>
     </row>
     <row r="336" customHeight="1" spans="5:5">
-      <c r="E336" s="22"/>
+      <c r="E336" s="19"/>
     </row>
     <row r="337" customHeight="1" spans="5:5">
-      <c r="E337" s="22"/>
+      <c r="E337" s="19"/>
     </row>
     <row r="338" customHeight="1" spans="5:5">
-      <c r="E338" s="22"/>
+      <c r="E338" s="19"/>
     </row>
     <row r="339" customHeight="1" spans="5:5">
-      <c r="E339" s="22"/>
+      <c r="E339" s="19"/>
     </row>
     <row r="340" customHeight="1" spans="5:5">
-      <c r="E340" s="22"/>
+      <c r="E340" s="19"/>
     </row>
     <row r="341" customHeight="1" spans="5:5">
-      <c r="E341" s="22"/>
+      <c r="E341" s="19"/>
     </row>
     <row r="342" customHeight="1" spans="5:5">
-      <c r="E342" s="22"/>
+      <c r="E342" s="19"/>
     </row>
     <row r="343" customHeight="1" spans="5:5">
-      <c r="E343" s="22"/>
+      <c r="E343" s="19"/>
     </row>
     <row r="344" customHeight="1" spans="5:5">
-      <c r="E344" s="22"/>
+      <c r="E344" s="19"/>
     </row>
     <row r="345" customHeight="1" spans="5:5">
-      <c r="E345" s="22"/>
+      <c r="E345" s="19"/>
     </row>
     <row r="346" customHeight="1" spans="5:5">
-      <c r="E346" s="22"/>
+      <c r="E346" s="19"/>
     </row>
     <row r="347" customHeight="1" spans="5:5">
-      <c r="E347" s="22"/>
+      <c r="E347" s="19"/>
     </row>
     <row r="348" customHeight="1" spans="5:5">
-      <c r="E348" s="22"/>
+      <c r="E348" s="19"/>
     </row>
     <row r="349" customHeight="1" spans="5:5">
-      <c r="E349" s="22"/>
+      <c r="E349" s="19"/>
     </row>
     <row r="350" customHeight="1" spans="5:5">
-      <c r="E350" s="22"/>
+      <c r="E350" s="19"/>
     </row>
     <row r="351" customHeight="1" spans="5:5">
-      <c r="E351" s="22"/>
+      <c r="E351" s="19"/>
     </row>
     <row r="352" customHeight="1" spans="5:5">
-      <c r="E352" s="22"/>
+      <c r="E352" s="19"/>
     </row>
     <row r="353" customHeight="1" spans="5:5">
-      <c r="E353" s="22"/>
+      <c r="E353" s="19"/>
     </row>
     <row r="354" customHeight="1" spans="5:5">
-      <c r="E354" s="22"/>
+      <c r="E354" s="19"/>
     </row>
     <row r="355" customHeight="1" spans="5:5">
-      <c r="E355" s="22"/>
+      <c r="E355" s="19"/>
     </row>
     <row r="356" customHeight="1" spans="5:5">
-      <c r="E356" s="22"/>
+      <c r="E356" s="19"/>
     </row>
     <row r="357" customHeight="1" spans="5:5">
-      <c r="E357" s="22"/>
+      <c r="E357" s="19"/>
     </row>
     <row r="358" customHeight="1" spans="5:5">
-      <c r="E358" s="22"/>
+      <c r="E358" s="19"/>
     </row>
     <row r="359" customHeight="1" spans="5:5">
-      <c r="E359" s="22"/>
+      <c r="E359" s="19"/>
     </row>
     <row r="360" customHeight="1" spans="5:5">
-      <c r="E360" s="22"/>
+      <c r="E360" s="19"/>
     </row>
     <row r="361" customHeight="1" spans="5:5">
-      <c r="E361" s="22"/>
+      <c r="E361" s="19"/>
     </row>
     <row r="362" customHeight="1" spans="5:5">
-      <c r="E362" s="22"/>
+      <c r="E362" s="19"/>
     </row>
     <row r="363" customHeight="1" spans="5:5">
-      <c r="E363" s="22"/>
+      <c r="E363" s="19"/>
     </row>
     <row r="364" customHeight="1" spans="5:5">
-      <c r="E364" s="22"/>
+      <c r="E364" s="19"/>
     </row>
     <row r="365" customHeight="1" spans="5:5">
-      <c r="E365" s="22"/>
+      <c r="E365" s="19"/>
     </row>
     <row r="366" customHeight="1" spans="5:5">
-      <c r="E366" s="22"/>
+      <c r="E366" s="19"/>
     </row>
     <row r="367" customHeight="1" spans="5:5">
-      <c r="E367" s="22"/>
+      <c r="E367" s="19"/>
     </row>
     <row r="368" customHeight="1" spans="5:5">
-      <c r="E368" s="22"/>
+      <c r="E368" s="19"/>
     </row>
     <row r="369" customHeight="1" spans="5:5">
-      <c r="E369" s="22"/>
+      <c r="E369" s="19"/>
     </row>
     <row r="370" customHeight="1" spans="5:5">
-      <c r="E370" s="22"/>
+      <c r="E370" s="19"/>
     </row>
     <row r="371" customHeight="1" spans="5:5">
-      <c r="E371" s="22"/>
+      <c r="E371" s="19"/>
     </row>
     <row r="372" customHeight="1" spans="5:5">
-      <c r="E372" s="22"/>
+      <c r="E372" s="19"/>
     </row>
     <row r="373" customHeight="1" spans="5:5">
-      <c r="E373" s="22"/>
+      <c r="E373" s="19"/>
     </row>
     <row r="374" customHeight="1" spans="5:5">
-      <c r="E374" s="22"/>
+      <c r="E374" s="19"/>
     </row>
     <row r="375" customHeight="1" spans="5:5">
-      <c r="E375" s="22"/>
+      <c r="E375" s="19"/>
     </row>
     <row r="376" customHeight="1" spans="5:5">
-      <c r="E376" s="22"/>
+      <c r="E376" s="19"/>
     </row>
     <row r="377" customHeight="1" spans="5:5">
-      <c r="E377" s="22"/>
+      <c r="E377" s="19"/>
     </row>
     <row r="378" customHeight="1" spans="5:5">
-      <c r="E378" s="22"/>
+      <c r="E378" s="19"/>
     </row>
     <row r="379" customHeight="1" spans="5:5">
-      <c r="E379" s="22"/>
+      <c r="E379" s="19"/>
     </row>
     <row r="380" customHeight="1" spans="5:5">
-      <c r="E380" s="22"/>
+      <c r="E380" s="19"/>
     </row>
     <row r="381" customHeight="1" spans="5:5">
-      <c r="E381" s="22"/>
+      <c r="E381" s="19"/>
     </row>
     <row r="382" customHeight="1" spans="5:5">
-      <c r="E382" s="22"/>
+      <c r="E382" s="19"/>
     </row>
     <row r="383" customHeight="1" spans="5:5">
-      <c r="E383" s="22"/>
+      <c r="E383" s="19"/>
     </row>
     <row r="384" customHeight="1" spans="5:5">
-      <c r="E384" s="22"/>
+      <c r="E384" s="19"/>
     </row>
     <row r="385" customHeight="1" spans="5:5">
-      <c r="E385" s="22"/>
+      <c r="E385" s="19"/>
     </row>
     <row r="386" customHeight="1" spans="5:5">
-      <c r="E386" s="22"/>
+      <c r="E386" s="19"/>
     </row>
     <row r="387" customHeight="1" spans="5:5">
-      <c r="E387" s="22"/>
+      <c r="E387" s="19"/>
     </row>
     <row r="388" customHeight="1" spans="5:5">
-      <c r="E388" s="22"/>
+      <c r="E388" s="19"/>
     </row>
     <row r="389" customHeight="1" spans="5:5">
-      <c r="E389" s="22"/>
+      <c r="E389" s="19"/>
     </row>
     <row r="390" customHeight="1" spans="5:5">
-      <c r="E390" s="22"/>
+      <c r="E390" s="19"/>
     </row>
     <row r="391" customHeight="1" spans="5:5">
-      <c r="E391" s="22"/>
+      <c r="E391" s="19"/>
     </row>
     <row r="392" customHeight="1" spans="5:5">
-      <c r="E392" s="22"/>
+      <c r="E392" s="19"/>
     </row>
     <row r="393" customHeight="1" spans="5:5">
-      <c r="E393" s="22"/>
+      <c r="E393" s="19"/>
     </row>
     <row r="394" customHeight="1" spans="5:5">
-      <c r="E394" s="22"/>
+      <c r="E394" s="19"/>
     </row>
     <row r="395" customHeight="1" spans="5:5">
-      <c r="E395" s="22"/>
+      <c r="E395" s="19"/>
     </row>
     <row r="396" customHeight="1" spans="5:5">
-      <c r="E396" s="22"/>
+      <c r="E396" s="19"/>
     </row>
     <row r="397" customHeight="1" spans="5:5">
-      <c r="E397" s="22"/>
+      <c r="E397" s="19"/>
     </row>
     <row r="398" customHeight="1" spans="5:5">
-      <c r="E398" s="22"/>
+      <c r="E398" s="19"/>
     </row>
     <row r="399" customHeight="1" spans="5:5">
-      <c r="E399" s="22"/>
+      <c r="E399" s="19"/>
     </row>
     <row r="400" customHeight="1" spans="5:5">
-      <c r="E400" s="22"/>
+      <c r="E400" s="19"/>
     </row>
     <row r="401" customHeight="1" spans="5:5">
-      <c r="E401" s="22"/>
+      <c r="E401" s="19"/>
     </row>
     <row r="402" customHeight="1" spans="5:5">
-      <c r="E402" s="22"/>
+      <c r="E402" s="19"/>
     </row>
     <row r="403" customHeight="1" spans="5:5">
-      <c r="E403" s="22"/>
+      <c r="E403" s="19"/>
     </row>
     <row r="404" customHeight="1" spans="5:5">
-      <c r="E404" s="22"/>
+      <c r="E404" s="19"/>
     </row>
     <row r="405" customHeight="1" spans="5:5">
-      <c r="E405" s="22"/>
+      <c r="E405" s="19"/>
     </row>
     <row r="406" customHeight="1" spans="5:5">
-      <c r="E406" s="22"/>
+      <c r="E406" s="19"/>
     </row>
     <row r="407" customHeight="1" spans="5:5">
-      <c r="E407" s="22"/>
+      <c r="E407" s="19"/>
     </row>
     <row r="408" customHeight="1" spans="5:5">
-      <c r="E408" s="22"/>
+      <c r="E408" s="19"/>
     </row>
     <row r="409" customHeight="1" spans="5:5">
-      <c r="E409" s="22"/>
+      <c r="E409" s="19"/>
     </row>
     <row r="410" customHeight="1" spans="5:5">
-      <c r="E410" s="22"/>
+      <c r="E410" s="19"/>
     </row>
     <row r="411" customHeight="1" spans="5:5">
-      <c r="E411" s="22"/>
+      <c r="E411" s="19"/>
     </row>
     <row r="412" customHeight="1" spans="5:5">
-      <c r="E412" s="22"/>
+      <c r="E412" s="19"/>
     </row>
     <row r="413" customHeight="1" spans="5:5">
-      <c r="E413" s="22"/>
+      <c r="E413" s="19"/>
     </row>
     <row r="414" customHeight="1" spans="5:5">
-      <c r="E414" s="22"/>
+      <c r="E414" s="19"/>
     </row>
     <row r="415" customHeight="1" spans="5:5">
-      <c r="E415" s="22"/>
+      <c r="E415" s="19"/>
     </row>
     <row r="416" customHeight="1" spans="5:5">
-      <c r="E416" s="22"/>
+      <c r="E416" s="19"/>
     </row>
     <row r="417" customHeight="1" spans="5:5">
-      <c r="E417" s="22"/>
+      <c r="E417" s="19"/>
     </row>
     <row r="418" customHeight="1" spans="5:5">
-      <c r="E418" s="22"/>
+      <c r="E418" s="19"/>
     </row>
     <row r="419" customHeight="1" spans="5:5">
-      <c r="E419" s="22"/>
+      <c r="E419" s="19"/>
     </row>
     <row r="420" customHeight="1" spans="5:5">
-      <c r="E420" s="22"/>
+      <c r="E420" s="19"/>
     </row>
     <row r="421" customHeight="1" spans="5:5">
-      <c r="E421" s="22"/>
+      <c r="E421" s="19"/>
     </row>
     <row r="422" customHeight="1" spans="5:5">
-      <c r="E422" s="22"/>
+      <c r="E422" s="19"/>
     </row>
     <row r="423" customHeight="1" spans="5:5">
-      <c r="E423" s="22"/>
+      <c r="E423" s="19"/>
     </row>
     <row r="424" customHeight="1" spans="5:5">
-      <c r="E424" s="22"/>
+      <c r="E424" s="19"/>
     </row>
     <row r="425" customHeight="1" spans="5:5">
-      <c r="E425" s="22"/>
+      <c r="E425" s="19"/>
     </row>
     <row r="426" customHeight="1" spans="5:5">
-      <c r="E426" s="22"/>
+      <c r="E426" s="19"/>
     </row>
     <row r="427" customHeight="1" spans="5:5">
-      <c r="E427" s="22"/>
+      <c r="E427" s="19"/>
     </row>
     <row r="428" customHeight="1" spans="5:5">
-      <c r="E428" s="22"/>
+      <c r="E428" s="19"/>
     </row>
     <row r="429" customHeight="1" spans="5:5">
-      <c r="E429" s="22"/>
+      <c r="E429" s="19"/>
     </row>
     <row r="430" customHeight="1" spans="5:5">
-      <c r="E430" s="22"/>
+      <c r="E430" s="19"/>
     </row>
     <row r="431" customHeight="1" spans="5:5">
-      <c r="E431" s="22"/>
+      <c r="E431" s="19"/>
     </row>
     <row r="432" customHeight="1" spans="5:5">
-      <c r="E432" s="22"/>
+      <c r="E432" s="19"/>
     </row>
     <row r="433" customHeight="1" spans="5:5">
-      <c r="E433" s="22"/>
+      <c r="E433" s="19"/>
     </row>
     <row r="434" customHeight="1" spans="5:5">
-      <c r="E434" s="22"/>
+      <c r="E434" s="19"/>
     </row>
     <row r="435" customHeight="1" spans="5:5">
-      <c r="E435" s="22"/>
+      <c r="E435" s="19"/>
     </row>
     <row r="436" customHeight="1" spans="5:5">
-      <c r="E436" s="22"/>
+      <c r="E436" s="19"/>
     </row>
     <row r="437" customHeight="1" spans="5:5">
-      <c r="E437" s="22"/>
+      <c r="E437" s="19"/>
     </row>
     <row r="438" customHeight="1" spans="5:5">
-      <c r="E438" s="22"/>
+      <c r="E438" s="19"/>
     </row>
     <row r="439" customHeight="1" spans="5:5">
-      <c r="E439" s="22"/>
+      <c r="E439" s="19"/>
     </row>
     <row r="440" customHeight="1" spans="5:5">
-      <c r="E440" s="22"/>
+      <c r="E440" s="19"/>
     </row>
     <row r="441" customHeight="1" spans="5:5">
-      <c r="E441" s="22"/>
+      <c r="E441" s="19"/>
     </row>
     <row r="442" customHeight="1" spans="5:5">
-      <c r="E442" s="22"/>
+      <c r="E442" s="19"/>
     </row>
     <row r="443" customHeight="1" spans="5:5">
-      <c r="E443" s="22"/>
+      <c r="E443" s="19"/>
     </row>
     <row r="444" customHeight="1" spans="5:5">
-      <c r="E444" s="22"/>
+      <c r="E444" s="19"/>
     </row>
     <row r="445" customHeight="1" spans="5:5">
-      <c r="E445" s="22"/>
+      <c r="E445" s="19"/>
     </row>
     <row r="446" customHeight="1" spans="5:5">
-      <c r="E446" s="22"/>
+      <c r="E446" s="19"/>
     </row>
     <row r="447" customHeight="1" spans="5:5">
-      <c r="E447" s="22"/>
+      <c r="E447" s="19"/>
     </row>
     <row r="448" customHeight="1" spans="5:5">
-      <c r="E448" s="22"/>
+      <c r="E448" s="19"/>
     </row>
     <row r="449" customHeight="1" spans="5:5">
-      <c r="E449" s="22"/>
+      <c r="E449" s="19"/>
     </row>
     <row r="450" customHeight="1" spans="5:5">
-      <c r="E450" s="22"/>
+      <c r="E450" s="19"/>
     </row>
     <row r="451" customHeight="1" spans="5:5">
-      <c r="E451" s="22"/>
+      <c r="E451" s="19"/>
     </row>
     <row r="452" customHeight="1" spans="5:5">
-      <c r="E452" s="22"/>
+      <c r="E452" s="19"/>
     </row>
     <row r="453" customHeight="1" spans="5:5">
-      <c r="E453" s="22"/>
+      <c r="E453" s="19"/>
     </row>
     <row r="454" customHeight="1" spans="5:5">
-      <c r="E454" s="22"/>
+      <c r="E454" s="19"/>
     </row>
     <row r="455" customHeight="1" spans="5:5">
-      <c r="E455" s="22"/>
+      <c r="E455" s="19"/>
     </row>
     <row r="456" customHeight="1" spans="5:5">
-      <c r="E456" s="22"/>
+      <c r="E456" s="19"/>
     </row>
     <row r="457" customHeight="1" spans="5:5">
-      <c r="E457" s="22"/>
+      <c r="E457" s="19"/>
     </row>
     <row r="458" customHeight="1" spans="5:5">
-      <c r="E458" s="22"/>
+      <c r="E458" s="19"/>
     </row>
     <row r="459" customHeight="1" spans="5:5">
-      <c r="E459" s="22"/>
+      <c r="E459" s="19"/>
     </row>
     <row r="460" customHeight="1" spans="5:5">
-      <c r="E460" s="22"/>
+      <c r="E460" s="19"/>
     </row>
     <row r="461" customHeight="1" spans="5:5">
-      <c r="E461" s="22"/>
+      <c r="E461" s="19"/>
     </row>
     <row r="462" customHeight="1" spans="5:5">
-      <c r="E462" s="22"/>
+      <c r="E462" s="19"/>
     </row>
     <row r="463" customHeight="1" spans="5:5">
-      <c r="E463" s="22"/>
+      <c r="E463" s="19"/>
     </row>
     <row r="464" customHeight="1" spans="5:5">
-      <c r="E464" s="22"/>
+      <c r="E464" s="19"/>
     </row>
     <row r="465" customHeight="1" spans="5:5">
-      <c r="E465" s="22"/>
+      <c r="E465" s="19"/>
     </row>
     <row r="466" customHeight="1" spans="5:5">
-      <c r="E466" s="22"/>
+      <c r="E466" s="19"/>
     </row>
     <row r="467" customHeight="1" spans="5:5">
-      <c r="E467" s="22"/>
+      <c r="E467" s="19"/>
     </row>
     <row r="468" customHeight="1" spans="5:5">
-      <c r="E468" s="22"/>
+      <c r="E468" s="19"/>
     </row>
     <row r="469" customHeight="1" spans="5:5">
-      <c r="E469" s="22"/>
+      <c r="E469" s="19"/>
     </row>
     <row r="470" customHeight="1" spans="5:5">
-      <c r="E470" s="22"/>
+      <c r="E470" s="19"/>
     </row>
     <row r="471" customHeight="1" spans="5:5">
-      <c r="E471" s="22"/>
+      <c r="E471" s="19"/>
     </row>
     <row r="472" customHeight="1" spans="5:5">
-      <c r="E472" s="22"/>
+      <c r="E472" s="19"/>
     </row>
     <row r="473" customHeight="1" spans="5:5">
-      <c r="E473" s="22"/>
+      <c r="E473" s="19"/>
     </row>
     <row r="474" customHeight="1" spans="5:5">
-      <c r="E474" s="22"/>
+      <c r="E474" s="19"/>
     </row>
     <row r="475" customHeight="1" spans="5:5">
-      <c r="E475" s="22"/>
+      <c r="E475" s="19"/>
     </row>
     <row r="476" customHeight="1" spans="5:5">
-      <c r="E476" s="22"/>
+      <c r="E476" s="19"/>
     </row>
     <row r="477" customHeight="1" spans="5:5">
-      <c r="E477" s="22"/>
+      <c r="E477" s="19"/>
     </row>
     <row r="478" customHeight="1" spans="5:5">
-      <c r="E478" s="22"/>
+      <c r="E478" s="19"/>
     </row>
     <row r="479" customHeight="1" spans="5:5">
-      <c r="E479" s="22"/>
+      <c r="E479" s="19"/>
     </row>
     <row r="480" customHeight="1" spans="5:5">
-      <c r="E480" s="22"/>
+      <c r="E480" s="19"/>
     </row>
     <row r="481" customHeight="1" spans="5:5">
-      <c r="E481" s="22"/>
+      <c r="E481" s="19"/>
     </row>
     <row r="482" customHeight="1" spans="5:5">
-      <c r="E482" s="22"/>
+      <c r="E482" s="19"/>
     </row>
     <row r="483" customHeight="1" spans="5:5">
-      <c r="E483" s="22"/>
+      <c r="E483" s="19"/>
     </row>
     <row r="484" customHeight="1" spans="5:5">
-      <c r="E484" s="22"/>
+      <c r="E484" s="19"/>
     </row>
     <row r="485" customHeight="1" spans="5:5">
-      <c r="E485" s="22"/>
+      <c r="E485" s="19"/>
     </row>
     <row r="486" customHeight="1" spans="5:5">
-      <c r="E486" s="22"/>
+      <c r="E486" s="19"/>
     </row>
     <row r="487" customHeight="1" spans="5:5">
-      <c r="E487" s="22"/>
+      <c r="E487" s="19"/>
     </row>
     <row r="488" customHeight="1" spans="5:5">
-      <c r="E488" s="22"/>
+      <c r="E488" s="19"/>
     </row>
     <row r="489" customHeight="1" spans="5:5">
-      <c r="E489" s="22"/>
+      <c r="E489" s="19"/>
     </row>
     <row r="490" customHeight="1" spans="5:5">
-      <c r="E490" s="22"/>
+      <c r="E490" s="19"/>
     </row>
     <row r="491" customHeight="1" spans="5:5">
-      <c r="E491" s="22"/>
+      <c r="E491" s="19"/>
     </row>
     <row r="492" customHeight="1" spans="5:5">
-      <c r="E492" s="22"/>
+      <c r="E492" s="19"/>
     </row>
     <row r="493" customHeight="1" spans="5:5">
-      <c r="E493" s="22"/>
+      <c r="E493" s="19"/>
     </row>
     <row r="494" customHeight="1" spans="5:5">
-      <c r="E494" s="22"/>
+      <c r="E494" s="19"/>
     </row>
     <row r="495" customHeight="1" spans="5:5">
-      <c r="E495" s="22"/>
+      <c r="E495" s="19"/>
     </row>
     <row r="496" customHeight="1" spans="5:5">
-      <c r="E496" s="22"/>
+      <c r="E496" s="19"/>
     </row>
     <row r="497" customHeight="1" spans="5:5">
-      <c r="E497" s="22"/>
+      <c r="E497" s="19"/>
     </row>
     <row r="498" customHeight="1" spans="5:5">
-      <c r="E498" s="22"/>
+      <c r="E498" s="19"/>
     </row>
     <row r="499" customHeight="1" spans="5:5">
-      <c r="E499" s="22"/>
+      <c r="E499" s="19"/>
     </row>
     <row r="500" customHeight="1" spans="5:5">
-      <c r="E500" s="22"/>
+      <c r="E500" s="19"/>
     </row>
     <row r="501" customHeight="1" spans="5:5">
-      <c r="E501" s="22"/>
+      <c r="E501" s="19"/>
     </row>
     <row r="502" customHeight="1" spans="5:5">
-      <c r="E502" s="22"/>
+      <c r="E502" s="19"/>
     </row>
     <row r="503" customHeight="1" spans="5:5">
-      <c r="E503" s="22"/>
+      <c r="E503" s="19"/>
     </row>
     <row r="504" customHeight="1" spans="5:5">
-      <c r="E504" s="22"/>
+      <c r="E504" s="19"/>
     </row>
     <row r="505" customHeight="1" spans="5:5">
-      <c r="E505" s="22"/>
+      <c r="E505" s="19"/>
     </row>
     <row r="506" customHeight="1" spans="5:5">
-      <c r="E506" s="22"/>
+      <c r="E506" s="19"/>
     </row>
     <row r="507" customHeight="1" spans="5:5">
-      <c r="E507" s="22"/>
+      <c r="E507" s="19"/>
     </row>
     <row r="508" customHeight="1" spans="5:5">
-      <c r="E508" s="22"/>
+      <c r="E508" s="19"/>
     </row>
     <row r="509" customHeight="1" spans="5:5">
-      <c r="E509" s="22"/>
+      <c r="E509" s="19"/>
     </row>
     <row r="510" customHeight="1" spans="5:5">
-      <c r="E510" s="22"/>
+      <c r="E510" s="19"/>
     </row>
     <row r="511" customHeight="1" spans="5:5">
-      <c r="E511" s="22"/>
+      <c r="E511" s="19"/>
     </row>
     <row r="512" customHeight="1" spans="5:5">
-      <c r="E512" s="22"/>
+      <c r="E512" s="19"/>
     </row>
     <row r="513" customHeight="1" spans="5:5">
-      <c r="E513" s="22"/>
+      <c r="E513" s="19"/>
     </row>
     <row r="514" customHeight="1" spans="5:5">
-      <c r="E514" s="22"/>
+      <c r="E514" s="19"/>
     </row>
     <row r="515" customHeight="1" spans="5:5">
-      <c r="E515" s="22"/>
+      <c r="E515" s="19"/>
     </row>
     <row r="516" customHeight="1" spans="5:5">
-      <c r="E516" s="22"/>
+      <c r="E516" s="19"/>
     </row>
     <row r="517" customHeight="1" spans="5:5">
-      <c r="E517" s="22"/>
+      <c r="E517" s="19"/>
     </row>
     <row r="518" customHeight="1" spans="5:5">
-      <c r="E518" s="22"/>
+      <c r="E518" s="19"/>
     </row>
     <row r="519" customHeight="1" spans="5:5">
-      <c r="E519" s="22"/>
+      <c r="E519" s="19"/>
     </row>
     <row r="520" customHeight="1" spans="5:5">
-      <c r="E520" s="22"/>
+      <c r="E520" s="19"/>
     </row>
     <row r="521" customHeight="1" spans="5:5">
-      <c r="E521" s="22"/>
+      <c r="E521" s="19"/>
     </row>
     <row r="522" customHeight="1" spans="5:5">
-      <c r="E522" s="22"/>
+      <c r="E522" s="19"/>
     </row>
     <row r="523" customHeight="1" spans="5:5">
-      <c r="E523" s="22"/>
+      <c r="E523" s="19"/>
     </row>
     <row r="524" customHeight="1" spans="5:5">
-      <c r="E524" s="22"/>
+      <c r="E524" s="19"/>
     </row>
     <row r="525" customHeight="1" spans="5:5">
-      <c r="E525" s="22"/>
+      <c r="E525" s="19"/>
     </row>
     <row r="526" customHeight="1" spans="5:5">
-      <c r="E526" s="22"/>
+      <c r="E526" s="19"/>
     </row>
     <row r="527" customHeight="1" spans="5:5">
-      <c r="E527" s="22"/>
+      <c r="E527" s="19"/>
     </row>
     <row r="528" customHeight="1" spans="5:5">
-      <c r="E528" s="22"/>
+      <c r="E528" s="19"/>
     </row>
     <row r="529" customHeight="1" spans="5:5">
-      <c r="E529" s="22"/>
+      <c r="E529" s="19"/>
     </row>
     <row r="530" customHeight="1" spans="5:5">
-      <c r="E530" s="22"/>
+      <c r="E530" s="19"/>
     </row>
     <row r="531" customHeight="1" spans="5:5">
-      <c r="E531" s="22"/>
+      <c r="E531" s="19"/>
     </row>
     <row r="532" customHeight="1" spans="5:5">
-      <c r="E532" s="22"/>
+      <c r="E532" s="19"/>
     </row>
     <row r="533" customHeight="1" spans="5:5">
-      <c r="E533" s="22"/>
+      <c r="E533" s="19"/>
     </row>
     <row r="534" customHeight="1" spans="5:5">
-      <c r="E534" s="22"/>
+      <c r="E534" s="19"/>
     </row>
     <row r="535" customHeight="1" spans="5:5">
-      <c r="E535" s="22"/>
+      <c r="E535" s="19"/>
     </row>
     <row r="536" customHeight="1" spans="5:5">
-      <c r="E536" s="22"/>
+      <c r="E536" s="19"/>
     </row>
     <row r="537" customHeight="1" spans="5:5">
-      <c r="E537" s="22"/>
+      <c r="E537" s="19"/>
     </row>
     <row r="538" customHeight="1" spans="5:5">
-      <c r="E538" s="22"/>
+      <c r="E538" s="19"/>
     </row>
     <row r="539" customHeight="1" spans="5:5">
-      <c r="E539" s="22"/>
+      <c r="E539" s="19"/>
     </row>
     <row r="540" customHeight="1" spans="5:5">
-      <c r="E540" s="22"/>
+      <c r="E540" s="19"/>
     </row>
     <row r="541" customHeight="1" spans="5:5">
-      <c r="E541" s="22"/>
+      <c r="E541" s="19"/>
     </row>
     <row r="542" customHeight="1" spans="5:5">
-      <c r="E542" s="22"/>
+      <c r="E542" s="19"/>
     </row>
     <row r="543" customHeight="1" spans="5:5">
-      <c r="E543" s="22"/>
+      <c r="E543" s="19"/>
     </row>
     <row r="544" customHeight="1" spans="5:5">
-      <c r="E544" s="22"/>
+      <c r="E544" s="19"/>
     </row>
     <row r="545" customHeight="1" spans="5:5">
-      <c r="E545" s="22"/>
+      <c r="E545" s="19"/>
     </row>
     <row r="546" customHeight="1" spans="5:5">
-      <c r="E546" s="22"/>
+      <c r="E546" s="19"/>
     </row>
     <row r="547" customHeight="1" spans="5:5">
-      <c r="E547" s="22"/>
+      <c r="E547" s="19"/>
     </row>
     <row r="548" customHeight="1" spans="5:5">
-      <c r="E548" s="22"/>
+      <c r="E548" s="19"/>
     </row>
     <row r="549" customHeight="1" spans="5:5">
-      <c r="E549" s="22"/>
+      <c r="E549" s="19"/>
     </row>
     <row r="550" customHeight="1" spans="5:5">
-      <c r="E550" s="22"/>
+      <c r="E550" s="19"/>
     </row>
     <row r="551" customHeight="1" spans="5:5">
-      <c r="E551" s="22"/>
+      <c r="E551" s="19"/>
     </row>
     <row r="552" customHeight="1" spans="5:5">
-      <c r="E552" s="22"/>
+      <c r="E552" s="19"/>
     </row>
     <row r="553" customHeight="1" spans="5:5">
-      <c r="E553" s="22"/>
+      <c r="E553" s="19"/>
     </row>
     <row r="554" customHeight="1" spans="5:5">
-      <c r="E554" s="22"/>
+      <c r="E554" s="19"/>
     </row>
     <row r="555" customHeight="1" spans="5:5">
-      <c r="E555" s="22"/>
+      <c r="E555" s="19"/>
     </row>
     <row r="556" customHeight="1" spans="5:5">
-      <c r="E556" s="22"/>
+      <c r="E556" s="19"/>
     </row>
     <row r="557" customHeight="1" spans="5:5">
-      <c r="E557" s="22"/>
+      <c r="E557" s="19"/>
     </row>
     <row r="558" customHeight="1" spans="5:5">
-      <c r="E558" s="22"/>
+      <c r="E558" s="19"/>
     </row>
     <row r="559" customHeight="1" spans="5:5">
-      <c r="E559" s="22"/>
+      <c r="E559" s="19"/>
     </row>
     <row r="560" customHeight="1" spans="5:5">
-      <c r="E560" s="22"/>
+      <c r="E560" s="19"/>
     </row>
     <row r="561" customHeight="1" spans="5:5">
-      <c r="E561" s="22"/>
+      <c r="E561" s="19"/>
     </row>
     <row r="562" customHeight="1" spans="5:5">
-      <c r="E562" s="22"/>
+      <c r="E562" s="19"/>
     </row>
     <row r="563" customHeight="1" spans="5:5">
-      <c r="E563" s="22"/>
+      <c r="E563" s="19"/>
     </row>
     <row r="564" customHeight="1" spans="5:5">
-      <c r="E564" s="22"/>
+      <c r="E564" s="19"/>
     </row>
     <row r="565" customHeight="1" spans="5:5">
-      <c r="E565" s="22"/>
+      <c r="E565" s="19"/>
     </row>
     <row r="566" customHeight="1" spans="5:5">
-      <c r="E566" s="22"/>
+      <c r="E566" s="19"/>
     </row>
     <row r="567" customHeight="1" spans="5:5">
-      <c r="E567" s="22"/>
+      <c r="E567" s="19"/>
     </row>
     <row r="568" customHeight="1" spans="5:5">
-      <c r="E568" s="22"/>
+      <c r="E568" s="19"/>
     </row>
     <row r="569" customHeight="1" spans="5:5">
-      <c r="E569" s="22"/>
+      <c r="E569" s="19"/>
     </row>
     <row r="570" customHeight="1" spans="5:5">
-      <c r="E570" s="22"/>
+      <c r="E570" s="19"/>
     </row>
     <row r="571" customHeight="1" spans="5:5">
-      <c r="E571" s="22"/>
+      <c r="E571" s="19"/>
     </row>
     <row r="572" customHeight="1" spans="5:5">
-      <c r="E572" s="22"/>
+      <c r="E572" s="19"/>
     </row>
     <row r="573" customHeight="1" spans="5:5">
-      <c r="E573" s="22"/>
+      <c r="E573" s="19"/>
     </row>
     <row r="574" customHeight="1" spans="5:5">
-      <c r="E574" s="22"/>
+      <c r="E574" s="19"/>
     </row>
     <row r="575" customHeight="1" spans="5:5">
-      <c r="E575" s="22"/>
+      <c r="E575" s="19"/>
     </row>
     <row r="576" customHeight="1" spans="5:5">
-      <c r="E576" s="22"/>
+      <c r="E576" s="19"/>
     </row>
     <row r="577" customHeight="1" spans="5:5">
-      <c r="E577" s="22"/>
+      <c r="E577" s="19"/>
     </row>
     <row r="578" customHeight="1" spans="5:5">
-      <c r="E578" s="22"/>
+      <c r="E578" s="19"/>
     </row>
     <row r="579" customHeight="1" spans="5:5">
-      <c r="E579" s="22"/>
+      <c r="E579" s="19"/>
     </row>
     <row r="580" customHeight="1" spans="5:5">
-      <c r="E580" s="22"/>
+      <c r="E580" s="19"/>
     </row>
     <row r="581" customHeight="1" spans="5:5">
-      <c r="E581" s="22"/>
+      <c r="E581" s="19"/>
     </row>
     <row r="582" customHeight="1" spans="5:5">
-      <c r="E582" s="22"/>
+      <c r="E582" s="19"/>
     </row>
     <row r="583" customHeight="1" spans="5:5">
-      <c r="E583" s="22"/>
+      <c r="E583" s="19"/>
     </row>
     <row r="584" customHeight="1" spans="5:5">
-      <c r="E584" s="22"/>
+      <c r="E584" s="19"/>
     </row>
     <row r="585" customHeight="1" spans="5:5">
-      <c r="E585" s="22"/>
+      <c r="E585" s="19"/>
     </row>
     <row r="586" customHeight="1" spans="5:5">
-      <c r="E586" s="22"/>
+      <c r="E586" s="19"/>
     </row>
     <row r="587" customHeight="1" spans="5:5">
-      <c r="E587" s="22"/>
+      <c r="E587" s="19"/>
     </row>
     <row r="588" customHeight="1" spans="5:5">
-      <c r="E588" s="22"/>
+      <c r="E588" s="19"/>
     </row>
     <row r="589" customHeight="1" spans="5:5">
-      <c r="E589" s="22"/>
+      <c r="E589" s="19"/>
     </row>
     <row r="590" customHeight="1" spans="5:5">
-      <c r="E590" s="22"/>
+      <c r="E590" s="19"/>
     </row>
     <row r="591" customHeight="1" spans="5:5">
-      <c r="E591" s="22"/>
+      <c r="E591" s="19"/>
     </row>
     <row r="592" customHeight="1" spans="5:5">
-      <c r="E592" s="22"/>
+      <c r="E592" s="19"/>
     </row>
     <row r="593" customHeight="1" spans="5:5">
-      <c r="E593" s="22"/>
+      <c r="E593" s="19"/>
     </row>
     <row r="594" customHeight="1" spans="5:5">
-      <c r="E594" s="22"/>
+      <c r="E594" s="19"/>
     </row>
     <row r="595" customHeight="1" spans="5:5">
-      <c r="E595" s="22"/>
+      <c r="E595" s="19"/>
     </row>
     <row r="596" customHeight="1" spans="5:5">
-      <c r="E596" s="22"/>
+      <c r="E596" s="19"/>
     </row>
     <row r="597" customHeight="1" spans="5:5">
-      <c r="E597" s="22"/>
+      <c r="E597" s="19"/>
     </row>
     <row r="598" customHeight="1" spans="5:5">
-      <c r="E598" s="22"/>
+      <c r="E598" s="19"/>
     </row>
     <row r="599" customHeight="1" spans="5:5">
-      <c r="E599" s="22"/>
+      <c r="E599" s="19"/>
     </row>
     <row r="600" customHeight="1" spans="5:5">
-      <c r="E600" s="22"/>
+      <c r="E600" s="19"/>
     </row>
     <row r="601" customHeight="1" spans="5:5">
-      <c r="E601" s="22"/>
+      <c r="E601" s="19"/>
     </row>
     <row r="602" customHeight="1" spans="5:5">
-      <c r="E602" s="22"/>
+      <c r="E602" s="19"/>
     </row>
     <row r="603" customHeight="1" spans="5:5">
-      <c r="E603" s="22"/>
+      <c r="E603" s="19"/>
     </row>
     <row r="604" customHeight="1" spans="5:5">
-      <c r="E604" s="22"/>
+      <c r="E604" s="19"/>
     </row>
     <row r="605" customHeight="1" spans="5:5">
-      <c r="E605" s="22"/>
+      <c r="E605" s="19"/>
     </row>
     <row r="606" customHeight="1" spans="5:5">
-      <c r="E606" s="22"/>
+      <c r="E606" s="19"/>
     </row>
     <row r="607" customHeight="1" spans="5:5">
-      <c r="E607" s="22"/>
+      <c r="E607" s="19"/>
     </row>
     <row r="608" customHeight="1" spans="5:5">
-      <c r="E608" s="22"/>
+      <c r="E608" s="19"/>
     </row>
     <row r="609" customHeight="1" spans="5:5">
-      <c r="E609" s="22"/>
+      <c r="E609" s="19"/>
     </row>
     <row r="610" customHeight="1" spans="5:5">
-      <c r="E610" s="22"/>
+      <c r="E610" s="19"/>
     </row>
     <row r="611" customHeight="1" spans="5:5">
-      <c r="E611" s="22"/>
+      <c r="E611" s="19"/>
     </row>
     <row r="612" customHeight="1" spans="5:5">
-      <c r="E612" s="22"/>
+      <c r="E612" s="19"/>
     </row>
     <row r="613" customHeight="1" spans="5:5">
-      <c r="E613" s="22"/>
+      <c r="E613" s="19"/>
     </row>
     <row r="614" customHeight="1" spans="5:5">
-      <c r="E614" s="22"/>
+      <c r="E614" s="19"/>
     </row>
     <row r="615" customHeight="1" spans="5:5">
-      <c r="E615" s="22"/>
+      <c r="E615" s="19"/>
     </row>
     <row r="616" customHeight="1" spans="5:5">
-      <c r="E616" s="22"/>
+      <c r="E616" s="19"/>
     </row>
     <row r="617" customHeight="1" spans="5:5">
-      <c r="E617" s="22"/>
+      <c r="E617" s="19"/>
     </row>
     <row r="618" customHeight="1" spans="5:5">
-      <c r="E618" s="22"/>
+      <c r="E618" s="19"/>
     </row>
     <row r="619" customHeight="1" spans="5:5">
-      <c r="E619" s="22"/>
+      <c r="E619" s="19"/>
     </row>
     <row r="620" customHeight="1" spans="5:5">
-      <c r="E620" s="22"/>
+      <c r="E620" s="19"/>
     </row>
     <row r="621" customHeight="1" spans="5:5">
-      <c r="E621" s="22"/>
+      <c r="E621" s="19"/>
     </row>
     <row r="622" customHeight="1" spans="5:5">
-      <c r="E622" s="22"/>
+      <c r="E622" s="19"/>
     </row>
     <row r="623" customHeight="1" spans="5:5">
-      <c r="E623" s="22"/>
+      <c r="E623" s="19"/>
     </row>
     <row r="624" customHeight="1" spans="5:5">
-      <c r="E624" s="22"/>
+      <c r="E624" s="19"/>
     </row>
     <row r="625" customHeight="1" spans="5:5">
-      <c r="E625" s="22"/>
+      <c r="E625" s="19"/>
     </row>
     <row r="626" customHeight="1" spans="5:5">
-      <c r="E626" s="22"/>
+      <c r="E626" s="19"/>
     </row>
     <row r="627" customHeight="1" spans="5:5">
-      <c r="E627" s="22"/>
+      <c r="E627" s="19"/>
     </row>
     <row r="628" customHeight="1" spans="5:5">
-      <c r="E628" s="22"/>
+      <c r="E628" s="19"/>
     </row>
     <row r="629" customHeight="1" spans="5:5">
-      <c r="E629" s="22"/>
+      <c r="E629" s="19"/>
     </row>
     <row r="630" customHeight="1" spans="5:5">
-      <c r="E630" s="22"/>
+      <c r="E630" s="19"/>
     </row>
     <row r="631" customHeight="1" spans="5:5">
-      <c r="E631" s="22"/>
+      <c r="E631" s="19"/>
     </row>
     <row r="632" customHeight="1" spans="5:5">
-      <c r="E632" s="22"/>
+      <c r="E632" s="19"/>
     </row>
     <row r="633" customHeight="1" spans="5:5">
-      <c r="E633" s="22"/>
+      <c r="E633" s="19"/>
     </row>
     <row r="634" customHeight="1" spans="5:5">
-      <c r="E634" s="22"/>
+      <c r="E634" s="19"/>
     </row>
     <row r="635" customHeight="1" spans="5:5">
-      <c r="E635" s="22"/>
+      <c r="E635" s="19"/>
     </row>
     <row r="636" customHeight="1" spans="5:5">
-      <c r="E636" s="22"/>
+      <c r="E636" s="19"/>
     </row>
     <row r="637" customHeight="1" spans="5:5">
-      <c r="E637" s="22"/>
+      <c r="E637" s="19"/>
     </row>
     <row r="638" customHeight="1" spans="5:5">
-      <c r="E638" s="22"/>
+      <c r="E638" s="19"/>
     </row>
     <row r="639" customHeight="1" spans="5:5">
-      <c r="E639" s="22"/>
+      <c r="E639" s="19"/>
     </row>
     <row r="640" customHeight="1" spans="5:5">
-      <c r="E640" s="22"/>
+      <c r="E640" s="19"/>
     </row>
     <row r="641" customHeight="1" spans="5:5">
-      <c r="E641" s="22"/>
+      <c r="E641" s="19"/>
     </row>
     <row r="642" customHeight="1" spans="5:5">
-      <c r="E642" s="22"/>
+      <c r="E642" s="19"/>
     </row>
     <row r="643" customHeight="1" spans="5:5">
-      <c r="E643" s="22"/>
+      <c r="E643" s="19"/>
     </row>
     <row r="644" customHeight="1" spans="5:5">
-      <c r="E644" s="22"/>
+      <c r="E644" s="19"/>
     </row>
     <row r="645" customHeight="1" spans="5:5">
-      <c r="E645" s="22"/>
+      <c r="E645" s="19"/>
     </row>
     <row r="646" customHeight="1" spans="5:5">
-      <c r="E646" s="22"/>
+      <c r="E646" s="19"/>
     </row>
     <row r="647" customHeight="1" spans="5:5">
-      <c r="E647" s="22"/>
+      <c r="E647" s="19"/>
     </row>
     <row r="648" customHeight="1" spans="5:5">
-      <c r="E648" s="22"/>
+      <c r="E648" s="19"/>
     </row>
     <row r="649" customHeight="1" spans="5:5">
-      <c r="E649" s="22"/>
+      <c r="E649" s="19"/>
     </row>
     <row r="650" customHeight="1" spans="5:5">
-      <c r="E650" s="22"/>
+      <c r="E650" s="19"/>
     </row>
     <row r="651" customHeight="1" spans="5:5">
-      <c r="E651" s="22"/>
+      <c r="E651" s="19"/>
     </row>
     <row r="652" customHeight="1" spans="5:5">
-      <c r="E652" s="22"/>
+      <c r="E652" s="19"/>
     </row>
     <row r="653" customHeight="1" spans="5:5">
-      <c r="E653" s="22"/>
+      <c r="E653" s="19"/>
     </row>
     <row r="654" customHeight="1" spans="5:5">
-      <c r="E654" s="22"/>
+      <c r="E654" s="19"/>
     </row>
     <row r="655" customHeight="1" spans="5:5">
-      <c r="E655" s="22"/>
+      <c r="E655" s="19"/>
     </row>
     <row r="656" customHeight="1" spans="5:5">
-      <c r="E656" s="22"/>
+      <c r="E656" s="19"/>
     </row>
     <row r="657" customHeight="1" spans="5:5">
-      <c r="E657" s="22"/>
+      <c r="E657" s="19"/>
     </row>
     <row r="658" customHeight="1" spans="5:5">
-      <c r="E658" s="22"/>
+      <c r="E658" s="19"/>
     </row>
     <row r="659" customHeight="1" spans="5:5">
-      <c r="E659" s="22"/>
+      <c r="E659" s="19"/>
     </row>
     <row r="660" customHeight="1" spans="5:5">
-      <c r="E660" s="22"/>
+      <c r="E660" s="19"/>
     </row>
     <row r="661" customHeight="1" spans="5:5">
-      <c r="E661" s="22"/>
+      <c r="E661" s="19"/>
     </row>
     <row r="662" customHeight="1" spans="5:5">
-      <c r="E662" s="22"/>
+      <c r="E662" s="19"/>
     </row>
     <row r="663" customHeight="1" spans="5:5">
-      <c r="E663" s="22"/>
+      <c r="E663" s="19"/>
     </row>
     <row r="664" customHeight="1" spans="5:5">
-      <c r="E664" s="22"/>
+      <c r="E664" s="19"/>
     </row>
     <row r="665" customHeight="1" spans="5:5">
-      <c r="E665" s="22"/>
+      <c r="E665" s="19"/>
     </row>
     <row r="666" customHeight="1" spans="5:5">
-      <c r="E666" s="22"/>
+      <c r="E666" s="19"/>
     </row>
     <row r="667" customHeight="1" spans="5:5">
-      <c r="E667" s="22"/>
+      <c r="E667" s="19"/>
     </row>
     <row r="668" customHeight="1" spans="5:5">
-      <c r="E668" s="22"/>
+      <c r="E668" s="19"/>
     </row>
     <row r="669" customHeight="1" spans="5:5">
-      <c r="E669" s="22"/>
+      <c r="E669" s="19"/>
     </row>
     <row r="670" customHeight="1" spans="5:5">
-      <c r="E670" s="22"/>
+      <c r="E670" s="19"/>
     </row>
     <row r="671" customHeight="1" spans="5:5">
-      <c r="E671" s="22"/>
+      <c r="E671" s="19"/>
     </row>
     <row r="672" customHeight="1" spans="5:5">
-      <c r="E672" s="22"/>
+      <c r="E672" s="19"/>
     </row>
     <row r="673" customHeight="1" spans="5:5">
-      <c r="E673" s="22"/>
+      <c r="E673" s="19"/>
     </row>
     <row r="674" customHeight="1" spans="5:5">
-      <c r="E674" s="22"/>
+      <c r="E674" s="19"/>
     </row>
     <row r="675" customHeight="1" spans="5:5">
-      <c r="E675" s="22"/>
+      <c r="E675" s="19"/>
     </row>
     <row r="676" customHeight="1" spans="5:5">
-      <c r="E676" s="22"/>
+      <c r="E676" s="19"/>
     </row>
     <row r="677" customHeight="1" spans="5:5">
-      <c r="E677" s="22"/>
+      <c r="E677" s="19"/>
     </row>
     <row r="678" customHeight="1" spans="5:5">
-      <c r="E678" s="22"/>
+      <c r="E678" s="19"/>
     </row>
     <row r="679" customHeight="1" spans="5:5">
-      <c r="E679" s="22"/>
+      <c r="E679" s="19"/>
     </row>
     <row r="680" customHeight="1" spans="5:5">
-      <c r="E680" s="22"/>
+      <c r="E680" s="19"/>
     </row>
     <row r="681" customHeight="1" spans="5:5">
-      <c r="E681" s="22"/>
+      <c r="E681" s="19"/>
     </row>
     <row r="682" customHeight="1" spans="5:5">
-      <c r="E682" s="22"/>
+      <c r="E682" s="19"/>
     </row>
     <row r="683" customHeight="1" spans="5:5">
-      <c r="E683" s="22"/>
+      <c r="E683" s="19"/>
     </row>
     <row r="684" customHeight="1" spans="5:5">
-      <c r="E684" s="22"/>
+      <c r="E684" s="19"/>
     </row>
     <row r="685" customHeight="1" spans="5:5">
-      <c r="E685" s="22"/>
+      <c r="E685" s="19"/>
     </row>
     <row r="686" customHeight="1" spans="5:5">
-      <c r="E686" s="22"/>
+      <c r="E686" s="19"/>
     </row>
     <row r="687" customHeight="1" spans="5:5">
-      <c r="E687" s="22"/>
+      <c r="E687" s="19"/>
     </row>
     <row r="688" customHeight="1" spans="5:5">
-      <c r="E688" s="22"/>
+      <c r="E688" s="19"/>
     </row>
     <row r="689" customHeight="1" spans="5:5">
-      <c r="E689" s="22"/>
+      <c r="E689" s="19"/>
     </row>
     <row r="690" customHeight="1" spans="5:5">
-      <c r="E690" s="22"/>
+      <c r="E690" s="19"/>
     </row>
     <row r="691" customHeight="1" spans="5:5">
-      <c r="E691" s="22"/>
+      <c r="E691" s="19"/>
     </row>
     <row r="692" customHeight="1" spans="5:5">
-      <c r="E692" s="22"/>
+      <c r="E692" s="19"/>
     </row>
     <row r="693" customHeight="1" spans="5:5">
-      <c r="E693" s="22"/>
+      <c r="E693" s="19"/>
     </row>
     <row r="694" customHeight="1" spans="5:5">
-      <c r="E694" s="22"/>
+      <c r="E694" s="19"/>
     </row>
     <row r="695" customHeight="1" spans="5:5">
-      <c r="E695" s="22"/>
+      <c r="E695" s="19"/>
     </row>
     <row r="696" customHeight="1" spans="5:5">
-      <c r="E696" s="22"/>
+      <c r="E696" s="19"/>
     </row>
     <row r="697" customHeight="1" spans="5:5">
-      <c r="E697" s="22"/>
+      <c r="E697" s="19"/>
     </row>
     <row r="698" customHeight="1" spans="5:5">
-      <c r="E698" s="22"/>
+      <c r="E698" s="19"/>
     </row>
     <row r="699" customHeight="1" spans="5:5">
-      <c r="E699" s="22"/>
+      <c r="E699" s="19"/>
     </row>
     <row r="700" customHeight="1" spans="5:5">
-      <c r="E700" s="22"/>
+      <c r="E700" s="19"/>
     </row>
     <row r="701" customHeight="1" spans="5:5">
-      <c r="E701" s="22"/>
+      <c r="E701" s="19"/>
     </row>
     <row r="702" customHeight="1" spans="5:5">
-      <c r="E702" s="22"/>
+      <c r="E702" s="19"/>
     </row>
     <row r="703" customHeight="1" spans="5:5">
-      <c r="E703" s="22"/>
+      <c r="E703" s="19"/>
     </row>
     <row r="704" customHeight="1" spans="5:5">
-      <c r="E704" s="22"/>
+      <c r="E704" s="19"/>
     </row>
     <row r="705" customHeight="1" spans="5:5">
-      <c r="E705" s="22"/>
+      <c r="E705" s="19"/>
     </row>
     <row r="706" customHeight="1" spans="5:5">
-      <c r="E706" s="22"/>
+      <c r="E706" s="19"/>
     </row>
     <row r="707" customHeight="1" spans="5:5">
-      <c r="E707" s="22"/>
+      <c r="E707" s="19"/>
     </row>
     <row r="708" customHeight="1" spans="5:5">
-      <c r="E708" s="22"/>
+      <c r="E708" s="19"/>
     </row>
     <row r="709" customHeight="1" spans="5:5">
-      <c r="E709" s="22"/>
+      <c r="E709" s="19"/>
     </row>
     <row r="710" customHeight="1" spans="5:5">
-      <c r="E710" s="22"/>
+      <c r="E710" s="19"/>
     </row>
     <row r="711" customHeight="1" spans="5:5">
-      <c r="E711" s="22"/>
+      <c r="E711" s="19"/>
     </row>
     <row r="712" customHeight="1" spans="5:5">
-      <c r="E712" s="22"/>
+      <c r="E712" s="19"/>
     </row>
     <row r="713" customHeight="1" spans="5:5">
-      <c r="E713" s="22"/>
+      <c r="E713" s="19"/>
     </row>
     <row r="714" customHeight="1" spans="5:5">
-      <c r="E714" s="22"/>
+      <c r="E714" s="19"/>
     </row>
     <row r="715" customHeight="1" spans="5:5">
-      <c r="E715" s="22"/>
+      <c r="E715" s="19"/>
     </row>
     <row r="716" customHeight="1" spans="5:5">
-      <c r="E716" s="22"/>
+      <c r="E716" s="19"/>
     </row>
     <row r="717" customHeight="1" spans="5:5">
-      <c r="E717" s="22"/>
+      <c r="E717" s="19"/>
     </row>
     <row r="718" customHeight="1" spans="5:5">
-      <c r="E718" s="22"/>
+      <c r="E718" s="19"/>
     </row>
     <row r="719" customHeight="1" spans="5:5">
-      <c r="E719" s="22"/>
+      <c r="E719" s="19"/>
     </row>
     <row r="720" customHeight="1" spans="5:5">
-      <c r="E720" s="22"/>
+      <c r="E720" s="19"/>
     </row>
     <row r="721" customHeight="1" spans="5:5">
-      <c r="E721" s="22"/>
+      <c r="E721" s="19"/>
     </row>
     <row r="722" customHeight="1" spans="5:5">
-      <c r="E722" s="22"/>
+      <c r="E722" s="19"/>
     </row>
     <row r="723" customHeight="1" spans="5:5">
-      <c r="E723" s="22"/>
+      <c r="E723" s="19"/>
     </row>
     <row r="724" customHeight="1" spans="5:5">
-      <c r="E724" s="22"/>
+      <c r="E724" s="19"/>
     </row>
     <row r="725" customHeight="1" spans="5:5">
-      <c r="E725" s="22"/>
+      <c r="E725" s="19"/>
     </row>
     <row r="726" customHeight="1" spans="5:5">
-      <c r="E726" s="22"/>
+      <c r="E726" s="19"/>
     </row>
     <row r="727" customHeight="1" spans="5:5">
-      <c r="E727" s="22"/>
+      <c r="E727" s="19"/>
     </row>
     <row r="728" customHeight="1" spans="5:5">
-      <c r="E728" s="22"/>
+      <c r="E728" s="19"/>
     </row>
     <row r="729" customHeight="1" spans="5:5">
-      <c r="E729" s="22"/>
+      <c r="E729" s="19"/>
     </row>
     <row r="730" customHeight="1" spans="5:5">
-      <c r="E730" s="22"/>
+      <c r="E730" s="19"/>
     </row>
     <row r="731" customHeight="1" spans="5:5">
-      <c r="E731" s="22"/>
+      <c r="E731" s="19"/>
     </row>
     <row r="732" customHeight="1" spans="5:5">
-      <c r="E732" s="22"/>
+      <c r="E732" s="19"/>
     </row>
     <row r="733" customHeight="1" spans="5:5">
-      <c r="E733" s="22"/>
+      <c r="E733" s="19"/>
     </row>
     <row r="734" customHeight="1" spans="5:5">
-      <c r="E734" s="22"/>
+      <c r="E734" s="19"/>
     </row>
     <row r="735" customHeight="1" spans="5:5">
-      <c r="E735" s="22"/>
+      <c r="E735" s="19"/>
     </row>
     <row r="736" customHeight="1" spans="5:5">
-      <c r="E736" s="22"/>
+      <c r="E736" s="19"/>
     </row>
     <row r="737" customHeight="1" spans="5:5">
-      <c r="E737" s="22"/>
+      <c r="E737" s="19"/>
     </row>
     <row r="738" customHeight="1" spans="5:5">
-      <c r="E738" s="22"/>
+      <c r="E738" s="19"/>
     </row>
     <row r="739" customHeight="1" spans="5:5">
-      <c r="E739" s="22"/>
+      <c r="E739" s="19"/>
     </row>
     <row r="740" customHeight="1" spans="5:5">
-      <c r="E740" s="22"/>
+      <c r="E740" s="19"/>
     </row>
     <row r="741" customHeight="1" spans="5:5">
-      <c r="E741" s="22"/>
+      <c r="E741" s="19"/>
     </row>
     <row r="742" customHeight="1" spans="5:5">
-      <c r="E742" s="22"/>
+      <c r="E742" s="19"/>
     </row>
     <row r="743" customHeight="1" spans="5:5">
-      <c r="E743" s="22"/>
+      <c r="E743" s="19"/>
     </row>
     <row r="744" customHeight="1" spans="5:5">
-      <c r="E744" s="22"/>
+      <c r="E744" s="19"/>
     </row>
     <row r="745" customHeight="1" spans="5:5">
-      <c r="E745" s="22"/>
+      <c r="E745" s="19"/>
     </row>
     <row r="746" customHeight="1" spans="5:5">
-      <c r="E746" s="22"/>
+      <c r="E746" s="19"/>
     </row>
     <row r="747" customHeight="1" spans="5:5">
-      <c r="E747" s="22"/>
+      <c r="E747" s="19"/>
     </row>
     <row r="748" customHeight="1" spans="5:5">
-      <c r="E748" s="22"/>
+      <c r="E748" s="19"/>
     </row>
     <row r="749" customHeight="1" spans="5:5">
-      <c r="E749" s="22"/>
+      <c r="E749" s="19"/>
     </row>
     <row r="750" customHeight="1" spans="5:5">
-      <c r="E750" s="22"/>
+      <c r="E750" s="19"/>
     </row>
     <row r="751" customHeight="1" spans="5:5">
-      <c r="E751" s="22"/>
+      <c r="E751" s="19"/>
     </row>
     <row r="752" customHeight="1" spans="5:5">
-      <c r="E752" s="22"/>
+      <c r="E752" s="19"/>
     </row>
     <row r="753" customHeight="1" spans="5:5">
-      <c r="E753" s="22"/>
+      <c r="E753" s="19"/>
     </row>
     <row r="754" customHeight="1" spans="5:5">
-      <c r="E754" s="22"/>
+      <c r="E754" s="19"/>
     </row>
     <row r="755" customHeight="1" spans="5:5">
-      <c r="E755" s="22"/>
+      <c r="E755" s="19"/>
     </row>
     <row r="756" customHeight="1" spans="5:5">
-      <c r="E756" s="22"/>
+      <c r="E756" s="19"/>
     </row>
     <row r="757" customHeight="1" spans="5:5">
-      <c r="E757" s="22"/>
+      <c r="E757" s="19"/>
     </row>
     <row r="758" customHeight="1" spans="5:5">
-      <c r="E758" s="22"/>
+      <c r="E758" s="19"/>
     </row>
     <row r="759" customHeight="1" spans="5:5">
-      <c r="E759" s="22"/>
+      <c r="E759" s="19"/>
     </row>
     <row r="760" customHeight="1" spans="5:5">
-      <c r="E760" s="22"/>
+      <c r="E760" s="19"/>
     </row>
     <row r="761" customHeight="1" spans="5:5">
-      <c r="E761" s="22"/>
+      <c r="E761" s="19"/>
     </row>
     <row r="762" customHeight="1" spans="5:5">
-      <c r="E762" s="22"/>
+      <c r="E762" s="19"/>
     </row>
     <row r="763" customHeight="1" spans="5:5">
-      <c r="E763" s="22"/>
+      <c r="E763" s="19"/>
     </row>
     <row r="764" customHeight="1" spans="5:5">
-      <c r="E764" s="22"/>
+      <c r="E764" s="19"/>
     </row>
     <row r="765" customHeight="1" spans="5:5">
-      <c r="E765" s="22"/>
+      <c r="E765" s="19"/>
     </row>
     <row r="766" customHeight="1" spans="5:5">
-      <c r="E766" s="22"/>
+      <c r="E766" s="19"/>
     </row>
     <row r="767" customHeight="1" spans="5:5">
-      <c r="E767" s="22"/>
+      <c r="E767" s="19"/>
     </row>
     <row r="768" customHeight="1" spans="5:5">
-      <c r="E768" s="22"/>
+      <c r="E768" s="19"/>
     </row>
     <row r="769" customHeight="1" spans="5:5">
-      <c r="E769" s="22"/>
+      <c r="E769" s="19"/>
     </row>
     <row r="770" customHeight="1" spans="5:5">
-      <c r="E770" s="22"/>
+      <c r="E770" s="19"/>
     </row>
     <row r="771" customHeight="1" spans="5:5">
-      <c r="E771" s="22"/>
+      <c r="E771" s="19"/>
     </row>
     <row r="772" customHeight="1" spans="5:5">
-      <c r="E772" s="22"/>
+      <c r="E772" s="19"/>
     </row>
     <row r="773" customHeight="1" spans="5:5">
-      <c r="E773" s="22"/>
+      <c r="E773" s="19"/>
     </row>
     <row r="774" customHeight="1" spans="5:5">
-      <c r="E774" s="22"/>
+      <c r="E774" s="19"/>
     </row>
     <row r="775" customHeight="1" spans="5:5">
-      <c r="E775" s="22"/>
+      <c r="E775" s="19"/>
     </row>
     <row r="776" customHeight="1" spans="5:5">
-      <c r="E776" s="22"/>
+      <c r="E776" s="19"/>
     </row>
     <row r="777" customHeight="1" spans="5:5">
-      <c r="E777" s="22"/>
+      <c r="E777" s="19"/>
     </row>
     <row r="778" customHeight="1" spans="5:5">
-      <c r="E778" s="22"/>
+      <c r="E778" s="19"/>
     </row>
     <row r="779" customHeight="1" spans="5:5">
-      <c r="E779" s="22"/>
+      <c r="E779" s="19"/>
     </row>
     <row r="780" customHeight="1" spans="5:5">
-      <c r="E780" s="22"/>
+      <c r="E780" s="19"/>
     </row>
     <row r="781" customHeight="1" spans="5:5">
-      <c r="E781" s="22"/>
+      <c r="E781" s="19"/>
     </row>
     <row r="782" customHeight="1" spans="5:5">
-      <c r="E782" s="22"/>
+      <c r="E782" s="19"/>
     </row>
     <row r="783" customHeight="1" spans="5:5">
-      <c r="E783" s="22"/>
+      <c r="E783" s="19"/>
     </row>
     <row r="784" customHeight="1" spans="5:5">
-      <c r="E784" s="22"/>
+      <c r="E784" s="19"/>
     </row>
     <row r="785" customHeight="1" spans="5:5">
-      <c r="E785" s="22"/>
+      <c r="E785" s="19"/>
     </row>
     <row r="786" customHeight="1" spans="5:5">
-      <c r="E786" s="22"/>
+      <c r="E786" s="19"/>
     </row>
     <row r="787" customHeight="1" spans="5:5">
-      <c r="E787" s="22"/>
+      <c r="E787" s="19"/>
     </row>
     <row r="788" customHeight="1" spans="5:5">
-      <c r="E788" s="22"/>
+      <c r="E788" s="19"/>
     </row>
     <row r="789" customHeight="1" spans="5:5">
-      <c r="E789" s="22"/>
+      <c r="E789" s="19"/>
     </row>
     <row r="790" customHeight="1" spans="5:5">
-      <c r="E790" s="22"/>
+      <c r="E790" s="19"/>
     </row>
     <row r="791" customHeight="1" spans="5:5">
-      <c r="E791" s="22"/>
+      <c r="E791" s="19"/>
     </row>
     <row r="792" customHeight="1" spans="5:5">
-      <c r="E792" s="22"/>
+      <c r="E792" s="19"/>
     </row>
     <row r="793" customHeight="1" spans="5:5">
-      <c r="E793" s="22"/>
+      <c r="E793" s="19"/>
     </row>
     <row r="794" customHeight="1" spans="5:5">
-      <c r="E794" s="22"/>
+      <c r="E794" s="19"/>
     </row>
     <row r="795" customHeight="1" spans="5:5">
-      <c r="E795" s="22"/>
+      <c r="E795" s="19"/>
     </row>
     <row r="796" customHeight="1" spans="5:5">
-      <c r="E796" s="22"/>
+      <c r="E796" s="19"/>
     </row>
     <row r="797" customHeight="1" spans="5:5">
-      <c r="E797" s="22"/>
+      <c r="E797" s="19"/>
     </row>
     <row r="798" customHeight="1" spans="5:5">
-      <c r="E798" s="22"/>
+      <c r="E798" s="19"/>
     </row>
     <row r="799" customHeight="1" spans="5:5">
-      <c r="E799" s="22"/>
+      <c r="E799" s="19"/>
     </row>
     <row r="800" customHeight="1" spans="5:5">
-      <c r="E800" s="22"/>
+      <c r="E800" s="19"/>
     </row>
     <row r="801" customHeight="1" spans="5:5">
-      <c r="E801" s="22"/>
+      <c r="E801" s="19"/>
     </row>
     <row r="802" customHeight="1" spans="5:5">
-      <c r="E802" s="22"/>
+      <c r="E802" s="19"/>
     </row>
     <row r="803" customHeight="1" spans="5:5">
-      <c r="E803" s="22"/>
+      <c r="E803" s="19"/>
     </row>
     <row r="804" customHeight="1" spans="5:5">
-      <c r="E804" s="22"/>
+      <c r="E804" s="19"/>
     </row>
     <row r="805" customHeight="1" spans="5:5">
-      <c r="E805" s="22"/>
+      <c r="E805" s="19"/>
     </row>
     <row r="806" customHeight="1" spans="5:5">
-      <c r="E806" s="22"/>
+      <c r="E806" s="19"/>
     </row>
     <row r="807" customHeight="1" spans="5:5">
-      <c r="E807" s="22"/>
+      <c r="E807" s="19"/>
     </row>
     <row r="808" customHeight="1" spans="5:5">
-      <c r="E808" s="22"/>
+      <c r="E808" s="19"/>
     </row>
     <row r="809" customHeight="1" spans="5:5">
-      <c r="E809" s="22"/>
+      <c r="E809" s="19"/>
     </row>
     <row r="810" customHeight="1" spans="5:5">
-      <c r="E810" s="22"/>
+      <c r="E810" s="19"/>
     </row>
     <row r="811" customHeight="1" spans="5:5">
-      <c r="E811" s="22"/>
+      <c r="E811" s="19"/>
     </row>
     <row r="812" customHeight="1" spans="5:5">
-      <c r="E812" s="22"/>
+      <c r="E812" s="19"/>
     </row>
     <row r="813" customHeight="1" spans="5:5">
-      <c r="E813" s="22"/>
+      <c r="E813" s="19"/>
     </row>
     <row r="814" customHeight="1" spans="5:5">
-      <c r="E814" s="22"/>
+      <c r="E814" s="19"/>
     </row>
     <row r="815" customHeight="1" spans="5:5">
-      <c r="E815" s="22"/>
+      <c r="E815" s="19"/>
     </row>
     <row r="816" customHeight="1" spans="5:5">
-      <c r="E816" s="22"/>
+      <c r="E816" s="19"/>
     </row>
     <row r="817" customHeight="1" spans="5:5">
-      <c r="E817" s="22"/>
+      <c r="E817" s="19"/>
     </row>
     <row r="818" customHeight="1" spans="5:5">
-      <c r="E818" s="22"/>
+      <c r="E818" s="19"/>
     </row>
     <row r="819" customHeight="1" spans="5:5">
-      <c r="E819" s="22"/>
+      <c r="E819" s="19"/>
     </row>
     <row r="820" customHeight="1" spans="5:5">
-      <c r="E820" s="22"/>
+      <c r="E820" s="19"/>
     </row>
     <row r="821" customHeight="1" spans="5:5">
-      <c r="E821" s="22"/>
+      <c r="E821" s="19"/>
     </row>
     <row r="822" customHeight="1" spans="5:5">
-      <c r="E822" s="22"/>
+      <c r="E822" s="19"/>
     </row>
     <row r="823" customHeight="1" spans="5:5">
-      <c r="E823" s="22"/>
+      <c r="E823" s="19"/>
     </row>
     <row r="824" customHeight="1" spans="5:5">
-      <c r="E824" s="22"/>
+      <c r="E824" s="19"/>
     </row>
     <row r="825" customHeight="1" spans="5:5">
-      <c r="E825" s="22"/>
+      <c r="E825" s="19"/>
     </row>
     <row r="826" customHeight="1" spans="5:5">
-      <c r="E826" s="22"/>
+      <c r="E826" s="19"/>
     </row>
     <row r="827" customHeight="1" spans="5:5">
-      <c r="E827" s="22"/>
+      <c r="E827" s="19"/>
     </row>
     <row r="828" customHeight="1" spans="5:5">
-      <c r="E828" s="22"/>
+      <c r="E828" s="19"/>
     </row>
     <row r="829" customHeight="1" spans="5:5">
-      <c r="E829" s="22"/>
+      <c r="E829" s="19"/>
     </row>
     <row r="830" customHeight="1" spans="5:5">
-      <c r="E830" s="22"/>
+      <c r="E830" s="19"/>
     </row>
     <row r="831" customHeight="1" spans="5:5">
-      <c r="E831" s="22"/>
+      <c r="E831" s="19"/>
     </row>
     <row r="832" customHeight="1" spans="5:5">
-      <c r="E832" s="22"/>
+      <c r="E832" s="19"/>
     </row>
     <row r="833" customHeight="1" spans="5:5">
-      <c r="E833" s="22"/>
+      <c r="E833" s="19"/>
     </row>
     <row r="834" customHeight="1" spans="5:5">
-      <c r="E834" s="22"/>
+      <c r="E834" s="19"/>
     </row>
     <row r="835" customHeight="1" spans="5:5">
-      <c r="E835" s="22"/>
+      <c r="E835" s="19"/>
     </row>
     <row r="836" customHeight="1" spans="5:5">
-      <c r="E836" s="22"/>
+      <c r="E836" s="19"/>
     </row>
     <row r="837" customHeight="1" spans="5:5">
-      <c r="E837" s="22"/>
+      <c r="E837" s="19"/>
     </row>
     <row r="838" customHeight="1" spans="5:5">
-      <c r="E838" s="22"/>
+      <c r="E838" s="19"/>
     </row>
     <row r="839" customHeight="1" spans="5:5">
-      <c r="E839" s="22"/>
+      <c r="E839" s="19"/>
     </row>
     <row r="840" customHeight="1" spans="5:5">
-      <c r="E840" s="22"/>
+      <c r="E840" s="19"/>
     </row>
     <row r="841" customHeight="1" spans="5:5">
-      <c r="E841" s="22"/>
+      <c r="E841" s="19"/>
     </row>
     <row r="842" customHeight="1" spans="5:5">
-      <c r="E842" s="22"/>
+      <c r="E842" s="19"/>
     </row>
     <row r="843" customHeight="1" spans="5:5">
-      <c r="E843" s="22"/>
+      <c r="E843" s="19"/>
     </row>
     <row r="844" customHeight="1" spans="5:5">
-      <c r="E844" s="22"/>
+      <c r="E844" s="19"/>
     </row>
     <row r="845" customHeight="1" spans="5:5">
-      <c r="E845" s="22"/>
+      <c r="E845" s="19"/>
     </row>
     <row r="846" customHeight="1" spans="5:5">
-      <c r="E846" s="22"/>
+      <c r="E846" s="19"/>
     </row>
     <row r="847" customHeight="1" spans="5:5">
-      <c r="E847" s="22"/>
+      <c r="E847" s="19"/>
     </row>
     <row r="848" customHeight="1" spans="5:5">
-      <c r="E848" s="22"/>
+      <c r="E848" s="19"/>
     </row>
     <row r="849" customHeight="1" spans="5:5">
-      <c r="E849" s="22"/>
+      <c r="E849" s="19"/>
     </row>
     <row r="850" customHeight="1" spans="5:5">
-      <c r="E850" s="22"/>
+      <c r="E850" s="19"/>
     </row>
     <row r="851" customHeight="1" spans="5:5">
-      <c r="E851" s="22"/>
+      <c r="E851" s="19"/>
     </row>
     <row r="852" customHeight="1" spans="5:5">
-      <c r="E852" s="22"/>
+      <c r="E852" s="19"/>
     </row>
     <row r="853" customHeight="1" spans="5:5">
-      <c r="E853" s="22"/>
+      <c r="E853" s="19"/>
     </row>
     <row r="854" customHeight="1" spans="5:5">
-      <c r="E854" s="22"/>
+      <c r="E854" s="19"/>
     </row>
     <row r="855" customHeight="1" spans="5:5">
-      <c r="E855" s="22"/>
+      <c r="E855" s="19"/>
     </row>
     <row r="856" customHeight="1" spans="5:5">
-      <c r="E856" s="22"/>
+      <c r="E856" s="19"/>
     </row>
     <row r="857" customHeight="1" spans="5:5">
-      <c r="E857" s="22"/>
+      <c r="E857" s="19"/>
     </row>
     <row r="858" customHeight="1" spans="5:5">
-      <c r="E858" s="22"/>
+      <c r="E858" s="19"/>
     </row>
     <row r="859" customHeight="1" spans="5:5">
-      <c r="E859" s="22"/>
+      <c r="E859" s="19"/>
     </row>
     <row r="860" customHeight="1" spans="5:5">
-      <c r="E860" s="22"/>
+      <c r="E860" s="19"/>
     </row>
     <row r="861" customHeight="1" spans="5:5">
-      <c r="E861" s="22"/>
+      <c r="E861" s="19"/>
     </row>
     <row r="862" customHeight="1" spans="5:5">
-      <c r="E862" s="22"/>
+      <c r="E862" s="19"/>
     </row>
     <row r="863" customHeight="1" spans="5:5">
-      <c r="E863" s="22"/>
+      <c r="E863" s="19"/>
     </row>
     <row r="864" customHeight="1" spans="5:5">
-      <c r="E864" s="22"/>
+      <c r="E864" s="19"/>
     </row>
     <row r="865" customHeight="1" spans="5:5">
-      <c r="E865" s="22"/>
+      <c r="E865" s="19"/>
     </row>
     <row r="866" customHeight="1" spans="5:5">
-      <c r="E866" s="22"/>
+      <c r="E866" s="19"/>
     </row>
     <row r="867" customHeight="1" spans="5:5">
-      <c r="E867" s="22"/>
+      <c r="E867" s="19"/>
     </row>
     <row r="868" customHeight="1" spans="5:5">
-      <c r="E868" s="22"/>
+      <c r="E868" s="19"/>
     </row>
     <row r="869" customHeight="1" spans="5:5">
-      <c r="E869" s="22"/>
+      <c r="E869" s="19"/>
     </row>
     <row r="870" customHeight="1" spans="5:5">
-      <c r="E870" s="22"/>
+      <c r="E870" s="19"/>
     </row>
     <row r="871" customHeight="1" spans="5:5">
-      <c r="E871" s="22"/>
+      <c r="E871" s="19"/>
     </row>
     <row r="872" customHeight="1" spans="5:5">
-      <c r="E872" s="22"/>
+      <c r="E872" s="19"/>
     </row>
     <row r="873" customHeight="1" spans="5:5">
-      <c r="E873" s="22"/>
+      <c r="E873" s="19"/>
     </row>
     <row r="874" customHeight="1" spans="5:5">
-      <c r="E874" s="22"/>
+      <c r="E874" s="19"/>
     </row>
     <row r="875" customHeight="1" spans="5:5">
-      <c r="E875" s="22"/>
+      <c r="E875" s="19"/>
     </row>
     <row r="876" customHeight="1" spans="5:5">
-      <c r="E876" s="22"/>
+      <c r="E876" s="19"/>
     </row>
     <row r="877" customHeight="1" spans="5:5">
-      <c r="E877" s="22"/>
+      <c r="E877" s="19"/>
     </row>
     <row r="878" customHeight="1" spans="5:5">
-      <c r="E878" s="22"/>
+      <c r="E878" s="19"/>
     </row>
     <row r="879" customHeight="1" spans="5:5">
-      <c r="E879" s="22"/>
+      <c r="E879" s="19"/>
     </row>
     <row r="880" customHeight="1" spans="5:5">
-      <c r="E880" s="22"/>
+      <c r="E880" s="19"/>
     </row>
     <row r="881" customHeight="1" spans="5:5">
-      <c r="E881" s="22"/>
+      <c r="E881" s="19"/>
     </row>
     <row r="882" customHeight="1" spans="5:5">
-      <c r="E882" s="22"/>
+      <c r="E882" s="19"/>
     </row>
     <row r="883" customHeight="1" spans="5:5">
-      <c r="E883" s="22"/>
+      <c r="E883" s="19"/>
     </row>
     <row r="884" customHeight="1" spans="5:5">
-      <c r="E884" s="22"/>
+      <c r="E884" s="19"/>
     </row>
     <row r="885" customHeight="1" spans="5:5">
-      <c r="E885" s="22"/>
+      <c r="E885" s="19"/>
     </row>
     <row r="886" customHeight="1" spans="5:5">
-      <c r="E886" s="22"/>
+      <c r="E886" s="19"/>
     </row>
     <row r="887" customHeight="1" spans="5:5">
-      <c r="E887" s="22"/>
+      <c r="E887" s="19"/>
     </row>
     <row r="888" customHeight="1" spans="5:5">
-      <c r="E888" s="22"/>
+      <c r="E888" s="19"/>
     </row>
     <row r="889" customHeight="1" spans="5:5">
-      <c r="E889" s="22"/>
+      <c r="E889" s="19"/>
     </row>
     <row r="890" customHeight="1" spans="5:5">
-      <c r="E890" s="22"/>
+      <c r="E890" s="19"/>
     </row>
     <row r="891" customHeight="1" spans="5:5">
-      <c r="E891" s="22"/>
+      <c r="E891" s="19"/>
     </row>
     <row r="892" customHeight="1" spans="5:5">
-      <c r="E892" s="22"/>
+      <c r="E892" s="19"/>
     </row>
     <row r="893" customHeight="1" spans="5:5">
-      <c r="E893" s="22"/>
+      <c r="E893" s="19"/>
     </row>
     <row r="894" customHeight="1" spans="5:5">
-      <c r="E894" s="22"/>
+      <c r="E894" s="19"/>
     </row>
     <row r="895" customHeight="1" spans="5:5">
-      <c r="E895" s="22"/>
+      <c r="E895" s="19"/>
     </row>
     <row r="896" customHeight="1" spans="5:5">
-      <c r="E896" s="22"/>
+      <c r="E896" s="19"/>
     </row>
     <row r="897" customHeight="1" spans="5:5">
-      <c r="E897" s="22"/>
+      <c r="E897" s="19"/>
     </row>
     <row r="898" customHeight="1" spans="5:5">
-      <c r="E898" s="22"/>
+      <c r="E898" s="19"/>
     </row>
     <row r="899" customHeight="1" spans="5:5">
-      <c r="E899" s="22"/>
+      <c r="E899" s="19"/>
     </row>
     <row r="900" customHeight="1" spans="5:5">
-      <c r="E900" s="22"/>
+      <c r="E900" s="19"/>
     </row>
     <row r="901" customHeight="1" spans="5:5">
-      <c r="E901" s="22"/>
+      <c r="E901" s="19"/>
     </row>
     <row r="902" customHeight="1" spans="5:5">
-      <c r="E902" s="22"/>
+      <c r="E902" s="19"/>
     </row>
     <row r="903" customHeight="1" spans="5:5">
-      <c r="E903" s="22"/>
+      <c r="E903" s="19"/>
     </row>
     <row r="904" customHeight="1" spans="5:5">
-      <c r="E904" s="22"/>
+      <c r="E904" s="19"/>
     </row>
     <row r="905" customHeight="1" spans="5:5">
-      <c r="E905" s="22"/>
+      <c r="E905" s="19"/>
     </row>
     <row r="906" customHeight="1" spans="5:5">
-      <c r="E906" s="22"/>
+      <c r="E906" s="19"/>
     </row>
     <row r="907" customHeight="1" spans="5:5">
-      <c r="E907" s="22"/>
+      <c r="E907" s="19"/>
     </row>
     <row r="908" customHeight="1" spans="5:5">
-      <c r="E908" s="22"/>
+      <c r="E908" s="19"/>
     </row>
     <row r="909" customHeight="1" spans="5:5">
-      <c r="E909" s="22"/>
+      <c r="E909" s="19"/>
     </row>
     <row r="910" customHeight="1" spans="5:5">
-      <c r="E910" s="22"/>
+      <c r="E910" s="19"/>
     </row>
     <row r="911" customHeight="1" spans="5:5">
-      <c r="E911" s="22"/>
+      <c r="E911" s="19"/>
     </row>
     <row r="912" customHeight="1" spans="5:5">
-      <c r="E912" s="22"/>
+      <c r="E912" s="19"/>
     </row>
     <row r="913" customHeight="1" spans="5:5">
-      <c r="E913" s="22"/>
+      <c r="E913" s="19"/>
     </row>
     <row r="914" customHeight="1" spans="5:5">
-      <c r="E914" s="22"/>
+      <c r="E914" s="19"/>
     </row>
     <row r="915" customHeight="1" spans="5:5">
-      <c r="E915" s="22"/>
+      <c r="E915" s="19"/>
     </row>
     <row r="916" customHeight="1" spans="5:5">
-      <c r="E916" s="22"/>
+      <c r="E916" s="19"/>
     </row>
     <row r="917" customHeight="1" spans="5:5">
-      <c r="E917" s="22"/>
+      <c r="E917" s="19"/>
     </row>
     <row r="918" customHeight="1" spans="5:5">
-      <c r="E918" s="22"/>
+      <c r="E918" s="19"/>
     </row>
     <row r="919" customHeight="1" spans="5:5">
-      <c r="E919" s="22"/>
+      <c r="E919" s="19"/>
     </row>
     <row r="920" customHeight="1" spans="5:5">
-      <c r="E920" s="22"/>
+      <c r="E920" s="19"/>
     </row>
     <row r="921" customHeight="1" spans="5:5">
-      <c r="E921" s="22"/>
+      <c r="E921" s="19"/>
     </row>
     <row r="922" customHeight="1" spans="5:5">
-      <c r="E922" s="22"/>
+      <c r="E922" s="19"/>
     </row>
     <row r="923" customHeight="1" spans="5:5">
-      <c r="E923" s="22"/>
+      <c r="E923" s="19"/>
     </row>
     <row r="924" customHeight="1" spans="5:5">
-      <c r="E924" s="22"/>
+      <c r="E924" s="19"/>
     </row>
     <row r="925" customHeight="1" spans="5:5">
-      <c r="E925" s="22"/>
+      <c r="E925" s="19"/>
     </row>
     <row r="926" customHeight="1" spans="5:5">
-      <c r="E926" s="22"/>
+      <c r="E926" s="19"/>
     </row>
     <row r="927" customHeight="1" spans="5:5">
-      <c r="E927" s="22"/>
+      <c r="E927" s="19"/>
     </row>
     <row r="928" customHeight="1" spans="5:5">
-      <c r="E928" s="22"/>
+      <c r="E928" s="19"/>
     </row>
     <row r="929" customHeight="1" spans="5:5">
-      <c r="E929" s="22"/>
+      <c r="E929" s="19"/>
     </row>
     <row r="930" customHeight="1" spans="5:5">
-      <c r="E930" s="22"/>
+      <c r="E930" s="19"/>
     </row>
     <row r="931" customHeight="1" spans="5:5">
-      <c r="E931" s="22"/>
+      <c r="E931" s="19"/>
     </row>
     <row r="932" customHeight="1" spans="5:5">
-      <c r="E932" s="22"/>
+      <c r="E932" s="19"/>
     </row>
     <row r="933" customHeight="1" spans="5:5">
-      <c r="E933" s="22"/>
+      <c r="E933" s="19"/>
     </row>
     <row r="934" customHeight="1" spans="5:5">
-      <c r="E934" s="22"/>
+      <c r="E934" s="19"/>
     </row>
     <row r="935" customHeight="1" spans="5:5">
-      <c r="E935" s="22"/>
+      <c r="E935" s="19"/>
     </row>
     <row r="936" customHeight="1" spans="5:5">
-      <c r="E936" s="22"/>
+      <c r="E936" s="19"/>
     </row>
     <row r="937" customHeight="1" spans="5:5">
-      <c r="E937" s="22"/>
+      <c r="E937" s="19"/>
     </row>
     <row r="938" customHeight="1" spans="5:5">
-      <c r="E938" s="22"/>
+      <c r="E938" s="19"/>
     </row>
     <row r="939" customHeight="1" spans="5:5">
-      <c r="E939" s="22"/>
+      <c r="E939" s="19"/>
     </row>
     <row r="940" customHeight="1" spans="5:5">
-      <c r="E940" s="22"/>
+      <c r="E940" s="19"/>
     </row>
     <row r="941" customHeight="1" spans="5:5">
-      <c r="E941" s="22"/>
+      <c r="E941" s="19"/>
     </row>
     <row r="942" customHeight="1" spans="5:5">
-      <c r="E942" s="22"/>
+      <c r="E942" s="19"/>
     </row>
     <row r="943" customHeight="1" spans="5:5">
-      <c r="E943" s="22"/>
+      <c r="E943" s="19"/>
     </row>
     <row r="944" customHeight="1" spans="5:5">
-      <c r="E944" s="22"/>
+      <c r="E944" s="19"/>
     </row>
     <row r="945" customHeight="1" spans="5:5">
-      <c r="E945" s="22"/>
+      <c r="E945" s="19"/>
     </row>
     <row r="946" customHeight="1" spans="5:5">
-      <c r="E946" s="22"/>
+      <c r="E946" s="19"/>
     </row>
     <row r="947" customHeight="1" spans="5:5">
-      <c r="E947" s="22"/>
+      <c r="E947" s="19"/>
     </row>
     <row r="948" customHeight="1" spans="5:5">
-      <c r="E948" s="22"/>
+      <c r="E948" s="19"/>
     </row>
     <row r="949" customHeight="1" spans="5:5">
-      <c r="E949" s="22"/>
+      <c r="E949" s="19"/>
     </row>
     <row r="950" customHeight="1" spans="5:5">
-      <c r="E950" s="22"/>
+      <c r="E950" s="19"/>
     </row>
     <row r="951" customHeight="1" spans="5:5">
-      <c r="E951" s="22"/>
+      <c r="E951" s="19"/>
     </row>
     <row r="952" customHeight="1" spans="5:5">
-      <c r="E952" s="22"/>
+      <c r="E952" s="19"/>
     </row>
     <row r="953" customHeight="1" spans="5:5">
-      <c r="E953" s="22"/>
+      <c r="E953" s="19"/>
     </row>
     <row r="954" customHeight="1" spans="5:5">
-      <c r="E954" s="22"/>
+      <c r="E954" s="19"/>
     </row>
     <row r="955" customHeight="1" spans="5:5">
-      <c r="E955" s="22"/>
+      <c r="E955" s="19"/>
     </row>
     <row r="956" customHeight="1" spans="5:5">
-      <c r="E956" s="22"/>
+      <c r="E956" s="19"/>
     </row>
     <row r="957" customHeight="1" spans="5:5">
-      <c r="E957" s="22"/>
+      <c r="E957" s="19"/>
     </row>
     <row r="958" customHeight="1" spans="5:5">
-      <c r="E958" s="22"/>
+      <c r="E958" s="19"/>
     </row>
     <row r="959" customHeight="1" spans="5:5">
-      <c r="E959" s="22"/>
+      <c r="E959" s="19"/>
     </row>
     <row r="960" customHeight="1" spans="5:5">
-      <c r="E960" s="22"/>
+      <c r="E960" s="19"/>
     </row>
     <row r="961" customHeight="1" spans="5:5">
-      <c r="E961" s="22"/>
+      <c r="E961" s="19"/>
     </row>
     <row r="962" customHeight="1" spans="5:5">
-      <c r="E962" s="22"/>
+      <c r="E962" s="19"/>
     </row>
     <row r="963" customHeight="1" spans="5:5">
-      <c r="E963" s="22"/>
+      <c r="E963" s="19"/>
     </row>
     <row r="964" customHeight="1" spans="5:5">
-      <c r="E964" s="22"/>
+      <c r="E964" s="19"/>
     </row>
     <row r="965" customHeight="1" spans="5:5">
-      <c r="E965" s="22"/>
+      <c r="E965" s="19"/>
     </row>
     <row r="966" customHeight="1" spans="5:5">
-      <c r="E966" s="22"/>
+      <c r="E966" s="19"/>
     </row>
     <row r="967" customHeight="1" spans="5:5">
-      <c r="E967" s="22"/>
+      <c r="E967" s="19"/>
     </row>
     <row r="968" customHeight="1" spans="5:5">
-      <c r="E968" s="22"/>
+      <c r="E968" s="19"/>
     </row>
     <row r="969" customHeight="1" spans="5:5">
-      <c r="E969" s="22"/>
+      <c r="E969" s="19"/>
     </row>
     <row r="970" customHeight="1" spans="5:5">
-      <c r="E970" s="22"/>
+      <c r="E970" s="19"/>
     </row>
     <row r="971" customHeight="1" spans="5:5">
-      <c r="E971" s="22"/>
+      <c r="E971" s="19"/>
     </row>
     <row r="972" customHeight="1" spans="5:5">
-      <c r="E972" s="22"/>
+      <c r="E972" s="19"/>
     </row>
     <row r="973" customHeight="1" spans="5:5">
-      <c r="E973" s="22"/>
+      <c r="E973" s="19"/>
     </row>
     <row r="974" customHeight="1" spans="5:5">
-      <c r="E974" s="22"/>
+      <c r="E974" s="19"/>
     </row>
     <row r="975" customHeight="1" spans="5:5">
-      <c r="E975" s="22"/>
+      <c r="E975" s="19"/>
     </row>
     <row r="976" customHeight="1" spans="5:5">
-      <c r="E976" s="22"/>
+      <c r="E976" s="19"/>
     </row>
     <row r="977" customHeight="1" spans="5:5">
-      <c r="E977" s="22"/>
+      <c r="E977" s="19"/>
     </row>
     <row r="978" customHeight="1" spans="5:5">
-      <c r="E978" s="22"/>
+      <c r="E978" s="19"/>
     </row>
     <row r="979" customHeight="1" spans="5:5">
-      <c r="E979" s="22"/>
+      <c r="E979" s="19"/>
     </row>
     <row r="980" customHeight="1" spans="5:5">
-      <c r="E980" s="22"/>
+      <c r="E980" s="19"/>
     </row>
     <row r="981" customHeight="1" spans="5:5">
-      <c r="E981" s="22"/>
+      <c r="E981" s="19"/>
     </row>
     <row r="982" customHeight="1" spans="5:5">
-      <c r="E982" s="22"/>
+      <c r="E982" s="19"/>
     </row>
     <row r="983" customHeight="1" spans="5:5">
-      <c r="E983" s="22"/>
+      <c r="E983" s="19"/>
     </row>
     <row r="984" customHeight="1" spans="5:5">
-      <c r="E984" s="22"/>
+      <c r="E984" s="19"/>
     </row>
     <row r="985" customHeight="1" spans="5:5">
-      <c r="E985" s="22"/>
+      <c r="E985" s="19"/>
     </row>
     <row r="986" customHeight="1" spans="5:5">
-      <c r="E986" s="22"/>
+      <c r="E986" s="19"/>
     </row>
     <row r="987" customHeight="1" spans="5:5">
-      <c r="E987" s="22"/>
+      <c r="E987" s="19"/>
     </row>
     <row r="988" customHeight="1" spans="5:5">
-      <c r="E988" s="22"/>
+      <c r="E988" s="19"/>
     </row>
     <row r="989" customHeight="1" spans="5:5">
-      <c r="E989" s="22"/>
+      <c r="E989" s="19"/>
     </row>
     <row r="990" customHeight="1" spans="5:5">
-      <c r="E990" s="22"/>
+      <c r="E990" s="19"/>
     </row>
     <row r="991" customHeight="1" spans="5:5">
-      <c r="E991" s="22"/>
+      <c r="E991" s="19"/>
     </row>
     <row r="992" customHeight="1" spans="5:5">
-      <c r="E992" s="22"/>
+      <c r="E992" s="19"/>
     </row>
     <row r="993" customHeight="1" spans="5:5">
-      <c r="E993" s="22"/>
+      <c r="E993" s="19"/>
     </row>
     <row r="994" customHeight="1" spans="5:5">
-      <c r="E994" s="22"/>
+      <c r="E994" s="19"/>
     </row>
     <row r="995" customHeight="1" spans="5:5">
-      <c r="E995" s="22"/>
+      <c r="E995" s="19"/>
     </row>
     <row r="996" customHeight="1" spans="5:5">
-      <c r="E996" s="22"/>
+      <c r="E996" s="19"/>
     </row>
     <row r="997" customHeight="1" spans="5:5">
-      <c r="E997" s="22"/>
+      <c r="E997" s="19"/>
     </row>
     <row r="998" customHeight="1" spans="5:5">
-      <c r="E998" s="22"/>
+      <c r="E998" s="19"/>
     </row>
     <row r="999" customHeight="1" spans="5:5">
-      <c r="E999" s="22"/>
+      <c r="E999" s="19"/>
     </row>
     <row r="1000" customHeight="1" spans="5:5">
-      <c r="E1000" s="22"/>
+      <c r="E1000" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5680,16 +5686,16 @@
   <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="14.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="9.71428571428571"/>
+    <col min="4" max="4" width="10.8571428571429"/>
     <col min="5" max="5" width="12.1428571428571"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="13.8571428571429" customWidth="1"/>
@@ -8322,7 +8328,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <f>A101+1</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -8347,7 +8353,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <f>A102+1</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -8374,7 +8380,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <f>A103+1</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -8401,7 +8407,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <f>A104+1</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -8428,7 +8434,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <f>A105+1</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -8455,7 +8461,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <f>A106+1</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -8482,7 +8488,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <f>A107+1</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -8509,7 +8515,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <f>A108+1</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -8536,7 +8542,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <f>A109+1</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -8620,20 +8626,20 @@
       <c r="B113" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="3">
         <v>43000</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113" s="4">
         <v>400000</v>
       </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="9" t="s">
+      <c r="F113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -8644,20 +8650,20 @@
       <c r="B114" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="3">
         <v>43000</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114" s="4">
         <v>36000</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="9"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="2"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2">
@@ -8666,22 +8672,22 @@
       <c r="B115" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D115" s="11">
+      <c r="D115" s="3">
         <v>43001</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E115" s="4">
         <v>3000000</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="F115" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G115" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="9" t="s">
+      <c r="G115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8692,22 +8698,22 @@
       <c r="B116" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D116" s="3">
         <v>43006</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="4">
         <v>360000</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G116" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="9" t="s">
+      <c r="G116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -8718,22 +8724,22 @@
       <c r="B117" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D117" s="11">
+      <c r="D117" s="3">
         <v>43012</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117" s="4">
         <v>125000</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8744,22 +8750,22 @@
       <c r="B118" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D118" s="3">
         <v>43015</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="4">
         <v>200000</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G118" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H118" s="9" t="s">
+      <c r="H118" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -8770,12 +8776,24 @@
       <c r="B119" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="3">
+        <v>43029</v>
+      </c>
+      <c r="E119" s="4">
+        <v>138000</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2">
@@ -8784,12 +8802,24 @@
       <c r="B120" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
+      <c r="C120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="3">
+        <v>43035</v>
+      </c>
+      <c r="E120" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2">
@@ -8798,12 +8828,24 @@
       <c r="B121" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
+      <c r="C121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="3">
+        <v>43039</v>
+      </c>
+      <c r="E121" s="4">
+        <v>240000</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2">
@@ -8812,12 +8854,22 @@
       <c r="B122" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
+      <c r="C122" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122" s="3">
+        <v>43043</v>
+      </c>
+      <c r="E122" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2">
@@ -8826,12 +8878,24 @@
       <c r="B123" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
+      <c r="C123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="3">
+        <v>43043</v>
+      </c>
+      <c r="E123" s="4">
+        <v>30000</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2">
@@ -8840,12 +8904,12 @@
       <c r="B124" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2">
@@ -8854,12 +8918,12 @@
       <c r="B125" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2">
@@ -8868,12 +8932,12 @@
       <c r="B126" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2">
@@ -8882,12 +8946,12 @@
       <c r="B127" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2">
@@ -8896,12 +8960,12 @@
       <c r="B128" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2">
@@ -8910,12 +8974,12 @@
       <c r="B129" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2">
@@ -8924,12 +8988,12 @@
       <c r="B130" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2">
@@ -8938,12 +9002,12 @@
       <c r="B131" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2">
@@ -8952,12 +9016,12 @@
       <c r="B132" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2">
@@ -8966,12 +9030,12 @@
       <c r="B133" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2">
@@ -8980,12 +9044,12 @@
       <c r="B134" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2">
@@ -8994,12 +9058,12 @@
       <c r="B135" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2">
@@ -9008,12 +9072,12 @@
       <c r="B136" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2">
@@ -9022,12 +9086,12 @@
       <c r="B137" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2">
@@ -9036,12 +9100,12 @@
       <c r="B138" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2">
@@ -9050,12 +9114,12 @@
       <c r="B139" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2">
@@ -9064,12 +9128,12 @@
       <c r="B140" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2">
@@ -9078,162 +9142,162 @@
       <c r="B141" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
         <v>140</v>
       </c>
-      <c r="E142" s="12"/>
+      <c r="E142" s="9"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
         <v>141</v>
       </c>
-      <c r="E143" s="12"/>
+      <c r="E143" s="9"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
         <v>142</v>
       </c>
-      <c r="E144" s="12"/>
+      <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
         <v>143</v>
       </c>
-      <c r="E145" s="12"/>
+      <c r="E145" s="9"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
         <v>144</v>
       </c>
-      <c r="E146" s="12"/>
+      <c r="E146" s="9"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
         <v>145</v>
       </c>
-      <c r="E147" s="12"/>
+      <c r="E147" s="9"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
         <v>146</v>
       </c>
-      <c r="E148" s="12"/>
+      <c r="E148" s="9"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
         <v>147</v>
       </c>
-      <c r="E149" s="12"/>
+      <c r="E149" s="9"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
         <v>148</v>
       </c>
-      <c r="E150" s="12"/>
+      <c r="E150" s="9"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
         <v>149</v>
       </c>
-      <c r="E151" s="12"/>
+      <c r="E151" s="9"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
         <v>150</v>
       </c>
-      <c r="E152" s="12"/>
+      <c r="E152" s="9"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
         <v>151</v>
       </c>
-      <c r="E153" s="12"/>
+      <c r="E153" s="9"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
         <v>152</v>
       </c>
-      <c r="E154" s="12"/>
+      <c r="E154" s="9"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
         <v>153</v>
       </c>
-      <c r="E155" s="12"/>
+      <c r="E155" s="9"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
         <v>154</v>
       </c>
-      <c r="E156" s="12"/>
+      <c r="E156" s="9"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
         <v>155</v>
       </c>
-      <c r="E157" s="12"/>
+      <c r="E157" s="9"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
         <v>156</v>
       </c>
-      <c r="E158" s="12"/>
+      <c r="E158" s="9"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
         <v>157</v>
       </c>
-      <c r="E159" s="12"/>
+      <c r="E159" s="9"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
         <v>158</v>
       </c>
-      <c r="E160" s="12"/>
+      <c r="E160" s="9"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
         <v>159</v>
       </c>
-      <c r="E161" s="12"/>
+      <c r="E161" s="9"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
         <v>160</v>
       </c>
-      <c r="E162" s="12"/>
+      <c r="E162" s="9"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
         <v>161</v>
       </c>
-      <c r="E163" s="12"/>
+      <c r="E163" s="9"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
         <v>162</v>
       </c>
-      <c r="E164" s="12"/>
+      <c r="E164" s="9"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
         <v>163</v>
       </c>
-      <c r="E165" s="12"/>
+      <c r="E165" s="9"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
         <v>164</v>
       </c>
-      <c r="E166" s="12"/>
+      <c r="E166" s="9"/>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2">

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
   <si>
     <t>No</t>
   </si>
@@ -594,6 +594,24 @@
   </si>
   <si>
     <t>Sapu atap 2</t>
+  </si>
+  <si>
+    <t>B000-15</t>
+  </si>
+  <si>
+    <t>Konsumsi rapat pembangunan</t>
+  </si>
+  <si>
+    <t>Kebersihan</t>
+  </si>
+  <si>
+    <t>Bersih-bersih selokan</t>
+  </si>
+  <si>
+    <t>Konsumsi rapat rutin banin</t>
+  </si>
+  <si>
+    <t>Service kompor</t>
   </si>
 </sst>
 </file>
@@ -601,10 +619,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -628,13 +646,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -650,9 +661,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,15 +690,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,22 +750,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -713,21 +777,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,39 +795,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,7 +817,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,7 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,25 +883,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,61 +925,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,37 +949,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,13 +991,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,6 +1032,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1027,7 +1075,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,41 +1100,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,161 +1121,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1265,6 +1289,9 @@
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1637,196 +1664,196 @@
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="10">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="14">
         <v>42644</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="15">
         <v>3000000</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="10">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>42644</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="15">
         <v>1087500</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="10">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="14">
         <v>42644</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="15">
         <v>960000</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <v>42278</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="15">
         <v>3000000</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="16">
         <v>42278</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="15">
         <v>1087500</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="10">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="14">
         <v>42292</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="15">
         <v>556000</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="10">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="14">
         <v>42658</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="15">
         <v>40000</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="14">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="18">
         <v>42552</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="19">
         <v>1000000</v>
       </c>
       <c r="F9" t="s">
@@ -1837,16 +1864,16 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="14">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="18">
         <v>42553</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="19">
         <v>465000</v>
       </c>
       <c r="F10" t="s">
@@ -1857,16 +1884,16 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="14">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="18">
         <v>42553</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="19">
         <v>180000</v>
       </c>
       <c r="F11" t="s">
@@ -1877,16 +1904,16 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="14">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="18">
         <v>42553</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="19">
         <v>500000</v>
       </c>
       <c r="F12" t="s">
@@ -1900,16 +1927,16 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="14">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="18">
         <v>42553</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="19">
         <v>10000</v>
       </c>
       <c r="F13" t="s">
@@ -1920,16 +1947,16 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="14">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="18">
         <v>42553</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="19">
         <v>499500</v>
       </c>
       <c r="F14" t="s">
@@ -1940,16 +1967,16 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="14">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="18">
         <v>42553</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="19">
         <v>200000</v>
       </c>
       <c r="F15" t="s">
@@ -1960,16 +1987,16 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="14">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="18">
         <v>42556</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="19">
         <v>600000</v>
       </c>
       <c r="F16" t="s">
@@ -1980,16 +2007,16 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="14">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="18">
         <v>42556</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="19">
         <v>-290000</v>
       </c>
       <c r="F17" t="s">
@@ -2003,16 +2030,16 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="14">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="18">
         <v>42570</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="19">
         <v>320000</v>
       </c>
       <c r="F18" t="s">
@@ -2023,16 +2050,16 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="14">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="18">
         <v>42579</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="19">
         <v>3600000</v>
       </c>
       <c r="F19" t="s">
@@ -2046,16 +2073,16 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="14">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="18">
         <v>42573</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="19">
         <v>500000</v>
       </c>
       <c r="F20" t="s">
@@ -2066,16 +2093,16 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="14">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="18">
         <v>42573</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="19">
         <v>100000</v>
       </c>
       <c r="F21" t="s">
@@ -2086,16 +2113,16 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="14">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="18">
         <v>42573</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="19">
         <v>1125000</v>
       </c>
       <c r="F22" t="s">
@@ -2109,16 +2136,16 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="14">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="18">
         <v>42573</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="19">
         <v>2500000</v>
       </c>
       <c r="F23" t="s">
@@ -2132,16 +2159,16 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="14">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="18">
         <v>42573</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="19">
         <v>140000</v>
       </c>
       <c r="F24" t="s">
@@ -2155,16 +2182,16 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="14">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="18">
         <v>42573</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="19">
         <v>25000</v>
       </c>
       <c r="F25" t="s">
@@ -2175,16 +2202,16 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="14">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="18">
         <v>42573</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="19">
         <v>19000</v>
       </c>
       <c r="F26" t="s">
@@ -2198,16 +2225,16 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="14">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="18">
         <v>42573</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="19">
         <v>50000</v>
       </c>
       <c r="F27" t="s">
@@ -2221,16 +2248,16 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="14">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="18">
         <v>42574</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="19">
         <v>901500</v>
       </c>
       <c r="F28" t="s">
@@ -2244,16 +2271,16 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="14">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="18">
         <v>42574</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="19">
         <v>100000</v>
       </c>
       <c r="F29" t="s">
@@ -2264,16 +2291,16 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="14">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="18">
         <v>42575</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="19">
         <v>100000</v>
       </c>
       <c r="F30" t="s">
@@ -2284,16 +2311,16 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="14">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="18">
         <v>42576</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="19">
         <v>400000</v>
       </c>
       <c r="F31" t="s">
@@ -2307,16 +2334,16 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="14">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="18">
         <v>42577</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="19">
         <v>300000</v>
       </c>
       <c r="F32" t="s">
@@ -2330,16 +2357,16 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="14">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="18">
         <v>42579</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="19">
         <v>1000000</v>
       </c>
       <c r="F33" t="s">
@@ -2350,16 +2377,16 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="14">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="18">
         <v>42581</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="19">
         <v>-159000</v>
       </c>
       <c r="F34" t="s">
@@ -2373,16 +2400,16 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="14">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="18">
         <v>42581</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="19">
         <v>200000</v>
       </c>
       <c r="F35" t="s">
@@ -2393,16 +2420,16 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="14">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="18">
         <v>42583</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="19">
         <v>2150000</v>
       </c>
       <c r="F36" t="s">
@@ -2416,16 +2443,16 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="14">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="18">
         <v>42583</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="19">
         <v>7500</v>
       </c>
       <c r="F37" t="s">
@@ -2439,16 +2466,16 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="14">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="18">
         <v>42583</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="19">
         <v>1000000</v>
       </c>
       <c r="F38" t="s">
@@ -2462,16 +2489,16 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="14">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="18">
         <v>42583</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="19">
         <v>100000</v>
       </c>
       <c r="F39" t="s">
@@ -2482,16 +2509,16 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="14">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="18">
         <v>42583</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="19">
         <v>20000</v>
       </c>
       <c r="F40" t="s">
@@ -2505,16 +2532,16 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="14">
+      <c r="A41" s="17">
         <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="18">
         <v>42583</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="19">
         <v>4000000</v>
       </c>
       <c r="F41" t="s">
@@ -2528,16 +2555,16 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="14">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="18">
         <v>42585</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="19">
         <v>5000000</v>
       </c>
       <c r="F42" t="s">
@@ -2551,16 +2578,16 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="14">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="18">
         <v>42585</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="19">
         <v>200000</v>
       </c>
       <c r="F43" t="s">
@@ -2571,16 +2598,16 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="14">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="18">
         <v>42587</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="19">
         <v>465000</v>
       </c>
       <c r="F44" t="s">
@@ -2594,16 +2621,16 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="14">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="18">
         <v>42587</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="19">
         <v>500000</v>
       </c>
       <c r="F45" t="s">
@@ -2614,16 +2641,16 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="14">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="18">
         <v>42587</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="19">
         <v>180000</v>
       </c>
       <c r="F46" t="s">
@@ -2634,16 +2661,16 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="14">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="18">
         <v>42587</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="19">
         <v>570000</v>
       </c>
       <c r="F47" t="s">
@@ -2654,16 +2681,16 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="14">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="18">
         <v>42587</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="19">
         <v>200000</v>
       </c>
       <c r="F48" t="s">
@@ -2674,16 +2701,16 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="14">
+      <c r="A49" s="17">
         <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="18">
         <v>42587</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="19">
         <v>100000</v>
       </c>
       <c r="F49" t="s">
@@ -2694,19 +2721,19 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="14">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="21">
         <v>42679</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="22">
         <v>100000</v>
       </c>
       <c r="F50" t="s">
@@ -2717,2962 +2744,2962 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
-      <c r="A51" s="14">
+      <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="E51" s="19"/>
+      <c r="E51" s="22"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="14">
+      <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="E52" s="19"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
-      <c r="A53" s="14">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="E53" s="19"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" customHeight="1" spans="1:5">
-      <c r="A54" s="14">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="E54" s="19"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" customHeight="1" spans="1:5">
-      <c r="A55" s="14">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="E55" s="19"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="14">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="E56" s="19"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="14">
+      <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="E57" s="19"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="14">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="14">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="14">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="E60" s="19"/>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="14">
+      <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="E61" s="19"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="14">
+      <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="E62" s="19"/>
+      <c r="E62" s="22"/>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="14">
+      <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="E63" s="19"/>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" customHeight="1" spans="1:5">
-      <c r="A64" s="14">
+      <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="E64" s="19"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" customHeight="1" spans="1:5">
-      <c r="A65" s="14">
+      <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="E65" s="19"/>
+      <c r="E65" s="22"/>
     </row>
     <row r="66" customHeight="1" spans="1:5">
-      <c r="A66" s="14">
+      <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="E66" s="19"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" customHeight="1" spans="1:5">
-      <c r="A67" s="14">
+      <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="E67" s="19"/>
+      <c r="E67" s="22"/>
     </row>
     <row r="68" customHeight="1" spans="1:5">
-      <c r="A68" s="14">
+      <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="E68" s="19"/>
+      <c r="E68" s="22"/>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="14">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="E69" s="19"/>
+      <c r="E69" s="22"/>
     </row>
     <row r="70" customHeight="1" spans="1:5">
-      <c r="A70" s="14">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="E70" s="19"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" customHeight="1" spans="1:5">
-      <c r="A71" s="14">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="E71" s="19"/>
+      <c r="E71" s="22"/>
     </row>
     <row r="72" customHeight="1" spans="1:5">
-      <c r="A72" s="14">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="E72" s="19"/>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" customHeight="1" spans="1:5">
-      <c r="A73" s="14">
+      <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="E73" s="19"/>
+      <c r="E73" s="22"/>
     </row>
     <row r="74" customHeight="1" spans="1:5">
-      <c r="A74" s="14">
+      <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="E74" s="19"/>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="14">
+      <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="E75" s="19"/>
+      <c r="E75" s="22"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="14">
+      <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="E76" s="19"/>
+      <c r="E76" s="22"/>
     </row>
     <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="14">
+      <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="E77" s="19"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" customHeight="1" spans="1:5">
-      <c r="A78" s="14">
+      <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="E78" s="19"/>
+      <c r="E78" s="22"/>
     </row>
     <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="14">
+      <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="E79" s="19"/>
+      <c r="E79" s="22"/>
     </row>
     <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="14">
+      <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="E80" s="19"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="14">
+      <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="E81" s="19"/>
+      <c r="E81" s="22"/>
     </row>
     <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="14">
+      <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="E82" s="19"/>
+      <c r="E82" s="22"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="14">
+      <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="E83" s="19"/>
+      <c r="E83" s="22"/>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="14">
+      <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="E84" s="19"/>
+      <c r="E84" s="22"/>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="14">
+      <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="E85" s="19"/>
+      <c r="E85" s="22"/>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="14">
+      <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="E86" s="19"/>
+      <c r="E86" s="22"/>
     </row>
     <row r="87" customHeight="1" spans="5:5">
-      <c r="E87" s="19"/>
+      <c r="E87" s="22"/>
     </row>
     <row r="88" customHeight="1" spans="5:5">
-      <c r="E88" s="19"/>
+      <c r="E88" s="22"/>
     </row>
     <row r="89" customHeight="1" spans="5:5">
-      <c r="E89" s="19"/>
+      <c r="E89" s="22"/>
     </row>
     <row r="90" customHeight="1" spans="5:5">
-      <c r="E90" s="19"/>
+      <c r="E90" s="22"/>
     </row>
     <row r="91" customHeight="1" spans="5:5">
-      <c r="E91" s="19"/>
+      <c r="E91" s="22"/>
     </row>
     <row r="92" customHeight="1" spans="5:5">
-      <c r="E92" s="19"/>
+      <c r="E92" s="22"/>
     </row>
     <row r="93" customHeight="1" spans="5:5">
-      <c r="E93" s="19"/>
+      <c r="E93" s="22"/>
     </row>
     <row r="94" customHeight="1" spans="5:5">
-      <c r="E94" s="19"/>
+      <c r="E94" s="22"/>
     </row>
     <row r="95" customHeight="1" spans="5:5">
-      <c r="E95" s="19"/>
+      <c r="E95" s="22"/>
     </row>
     <row r="96" customHeight="1" spans="5:5">
-      <c r="E96" s="19"/>
+      <c r="E96" s="22"/>
     </row>
     <row r="97" customHeight="1" spans="5:5">
-      <c r="E97" s="19"/>
+      <c r="E97" s="22"/>
     </row>
     <row r="98" customHeight="1" spans="5:5">
-      <c r="E98" s="19"/>
+      <c r="E98" s="22"/>
     </row>
     <row r="99" customHeight="1" spans="5:5">
-      <c r="E99" s="19"/>
+      <c r="E99" s="22"/>
     </row>
     <row r="100" customHeight="1" spans="5:5">
-      <c r="E100" s="19"/>
+      <c r="E100" s="22"/>
     </row>
     <row r="101" customHeight="1" spans="5:5">
-      <c r="E101" s="19"/>
+      <c r="E101" s="22"/>
     </row>
     <row r="102" customHeight="1" spans="5:5">
-      <c r="E102" s="19"/>
+      <c r="E102" s="22"/>
     </row>
     <row r="103" customHeight="1" spans="5:5">
-      <c r="E103" s="19"/>
+      <c r="E103" s="22"/>
     </row>
     <row r="104" customHeight="1" spans="5:5">
-      <c r="E104" s="19"/>
+      <c r="E104" s="22"/>
     </row>
     <row r="105" customHeight="1" spans="5:5">
-      <c r="E105" s="19"/>
+      <c r="E105" s="22"/>
     </row>
     <row r="106" customHeight="1" spans="5:5">
-      <c r="E106" s="19"/>
+      <c r="E106" s="22"/>
     </row>
     <row r="107" customHeight="1" spans="5:5">
-      <c r="E107" s="19"/>
+      <c r="E107" s="22"/>
     </row>
     <row r="108" customHeight="1" spans="5:5">
-      <c r="E108" s="19"/>
+      <c r="E108" s="22"/>
     </row>
     <row r="109" customHeight="1" spans="5:5">
-      <c r="E109" s="19"/>
+      <c r="E109" s="22"/>
     </row>
     <row r="110" customHeight="1" spans="5:5">
-      <c r="E110" s="19"/>
+      <c r="E110" s="22"/>
     </row>
     <row r="111" customHeight="1" spans="5:5">
-      <c r="E111" s="19"/>
+      <c r="E111" s="22"/>
     </row>
     <row r="112" customHeight="1" spans="5:5">
-      <c r="E112" s="19"/>
+      <c r="E112" s="22"/>
     </row>
     <row r="113" customHeight="1" spans="5:5">
-      <c r="E113" s="19"/>
+      <c r="E113" s="22"/>
     </row>
     <row r="114" customHeight="1" spans="5:5">
-      <c r="E114" s="19"/>
+      <c r="E114" s="22"/>
     </row>
     <row r="115" customHeight="1" spans="5:5">
-      <c r="E115" s="19"/>
+      <c r="E115" s="22"/>
     </row>
     <row r="116" customHeight="1" spans="5:5">
-      <c r="E116" s="19"/>
+      <c r="E116" s="22"/>
     </row>
     <row r="117" customHeight="1" spans="5:5">
-      <c r="E117" s="19"/>
+      <c r="E117" s="22"/>
     </row>
     <row r="118" customHeight="1" spans="5:5">
-      <c r="E118" s="19"/>
+      <c r="E118" s="22"/>
     </row>
     <row r="119" customHeight="1" spans="5:5">
-      <c r="E119" s="19"/>
+      <c r="E119" s="22"/>
     </row>
     <row r="120" customHeight="1" spans="5:5">
-      <c r="E120" s="19"/>
+      <c r="E120" s="22"/>
     </row>
     <row r="121" customHeight="1" spans="5:5">
-      <c r="E121" s="19"/>
+      <c r="E121" s="22"/>
     </row>
     <row r="122" customHeight="1" spans="5:5">
-      <c r="E122" s="19"/>
+      <c r="E122" s="22"/>
     </row>
     <row r="123" customHeight="1" spans="5:5">
-      <c r="E123" s="19"/>
+      <c r="E123" s="22"/>
     </row>
     <row r="124" customHeight="1" spans="5:5">
-      <c r="E124" s="19"/>
+      <c r="E124" s="22"/>
     </row>
     <row r="125" customHeight="1" spans="5:5">
-      <c r="E125" s="19"/>
+      <c r="E125" s="22"/>
     </row>
     <row r="126" customHeight="1" spans="5:5">
-      <c r="E126" s="19"/>
+      <c r="E126" s="22"/>
     </row>
     <row r="127" customHeight="1" spans="5:5">
-      <c r="E127" s="19"/>
+      <c r="E127" s="22"/>
     </row>
     <row r="128" customHeight="1" spans="5:5">
-      <c r="E128" s="19"/>
+      <c r="E128" s="22"/>
     </row>
     <row r="129" customHeight="1" spans="5:5">
-      <c r="E129" s="19"/>
+      <c r="E129" s="22"/>
     </row>
     <row r="130" customHeight="1" spans="5:5">
-      <c r="E130" s="19"/>
+      <c r="E130" s="22"/>
     </row>
     <row r="131" customHeight="1" spans="5:5">
-      <c r="E131" s="19"/>
+      <c r="E131" s="22"/>
     </row>
     <row r="132" customHeight="1" spans="5:5">
-      <c r="E132" s="19"/>
+      <c r="E132" s="22"/>
     </row>
     <row r="133" customHeight="1" spans="5:5">
-      <c r="E133" s="19"/>
+      <c r="E133" s="22"/>
     </row>
     <row r="134" customHeight="1" spans="5:5">
-      <c r="E134" s="19"/>
+      <c r="E134" s="22"/>
     </row>
     <row r="135" customHeight="1" spans="5:5">
-      <c r="E135" s="19"/>
+      <c r="E135" s="22"/>
     </row>
     <row r="136" customHeight="1" spans="5:5">
-      <c r="E136" s="19"/>
+      <c r="E136" s="22"/>
     </row>
     <row r="137" customHeight="1" spans="5:5">
-      <c r="E137" s="19"/>
+      <c r="E137" s="22"/>
     </row>
     <row r="138" customHeight="1" spans="5:5">
-      <c r="E138" s="19"/>
+      <c r="E138" s="22"/>
     </row>
     <row r="139" customHeight="1" spans="5:5">
-      <c r="E139" s="19"/>
+      <c r="E139" s="22"/>
     </row>
     <row r="140" customHeight="1" spans="5:5">
-      <c r="E140" s="19"/>
+      <c r="E140" s="22"/>
     </row>
     <row r="141" customHeight="1" spans="5:5">
-      <c r="E141" s="19"/>
+      <c r="E141" s="22"/>
     </row>
     <row r="142" customHeight="1" spans="5:5">
-      <c r="E142" s="19"/>
+      <c r="E142" s="22"/>
     </row>
     <row r="143" customHeight="1" spans="5:5">
-      <c r="E143" s="19"/>
+      <c r="E143" s="22"/>
     </row>
     <row r="144" customHeight="1" spans="5:5">
-      <c r="E144" s="19"/>
+      <c r="E144" s="22"/>
     </row>
     <row r="145" customHeight="1" spans="5:5">
-      <c r="E145" s="19"/>
+      <c r="E145" s="22"/>
     </row>
     <row r="146" customHeight="1" spans="5:5">
-      <c r="E146" s="19"/>
+      <c r="E146" s="22"/>
     </row>
     <row r="147" customHeight="1" spans="5:5">
-      <c r="E147" s="19"/>
+      <c r="E147" s="22"/>
     </row>
     <row r="148" customHeight="1" spans="5:5">
-      <c r="E148" s="19"/>
+      <c r="E148" s="22"/>
     </row>
     <row r="149" customHeight="1" spans="5:5">
-      <c r="E149" s="19"/>
+      <c r="E149" s="22"/>
     </row>
     <row r="150" customHeight="1" spans="5:5">
-      <c r="E150" s="19"/>
+      <c r="E150" s="22"/>
     </row>
     <row r="151" customHeight="1" spans="5:5">
-      <c r="E151" s="19"/>
+      <c r="E151" s="22"/>
     </row>
     <row r="152" customHeight="1" spans="5:5">
-      <c r="E152" s="19"/>
+      <c r="E152" s="22"/>
     </row>
     <row r="153" customHeight="1" spans="5:5">
-      <c r="E153" s="19"/>
+      <c r="E153" s="22"/>
     </row>
     <row r="154" customHeight="1" spans="5:5">
-      <c r="E154" s="19"/>
+      <c r="E154" s="22"/>
     </row>
     <row r="155" customHeight="1" spans="5:5">
-      <c r="E155" s="19"/>
+      <c r="E155" s="22"/>
     </row>
     <row r="156" customHeight="1" spans="5:5">
-      <c r="E156" s="19"/>
+      <c r="E156" s="22"/>
     </row>
     <row r="157" customHeight="1" spans="5:5">
-      <c r="E157" s="19"/>
+      <c r="E157" s="22"/>
     </row>
     <row r="158" customHeight="1" spans="5:5">
-      <c r="E158" s="19"/>
+      <c r="E158" s="22"/>
     </row>
     <row r="159" customHeight="1" spans="5:5">
-      <c r="E159" s="19"/>
+      <c r="E159" s="22"/>
     </row>
     <row r="160" customHeight="1" spans="5:5">
-      <c r="E160" s="19"/>
+      <c r="E160" s="22"/>
     </row>
     <row r="161" customHeight="1" spans="5:5">
-      <c r="E161" s="19"/>
+      <c r="E161" s="22"/>
     </row>
     <row r="162" customHeight="1" spans="5:5">
-      <c r="E162" s="19"/>
+      <c r="E162" s="22"/>
     </row>
     <row r="163" customHeight="1" spans="5:5">
-      <c r="E163" s="19"/>
+      <c r="E163" s="22"/>
     </row>
     <row r="164" customHeight="1" spans="5:5">
-      <c r="E164" s="19"/>
+      <c r="E164" s="22"/>
     </row>
     <row r="165" customHeight="1" spans="5:5">
-      <c r="E165" s="19"/>
+      <c r="E165" s="22"/>
     </row>
     <row r="166" customHeight="1" spans="5:5">
-      <c r="E166" s="19"/>
+      <c r="E166" s="22"/>
     </row>
     <row r="167" customHeight="1" spans="5:5">
-      <c r="E167" s="19"/>
+      <c r="E167" s="22"/>
     </row>
     <row r="168" customHeight="1" spans="5:5">
-      <c r="E168" s="19"/>
+      <c r="E168" s="22"/>
     </row>
     <row r="169" customHeight="1" spans="5:5">
-      <c r="E169" s="19"/>
+      <c r="E169" s="22"/>
     </row>
     <row r="170" customHeight="1" spans="5:5">
-      <c r="E170" s="19"/>
+      <c r="E170" s="22"/>
     </row>
     <row r="171" customHeight="1" spans="5:5">
-      <c r="E171" s="19"/>
+      <c r="E171" s="22"/>
     </row>
     <row r="172" customHeight="1" spans="5:5">
-      <c r="E172" s="19"/>
+      <c r="E172" s="22"/>
     </row>
     <row r="173" customHeight="1" spans="5:5">
-      <c r="E173" s="19"/>
+      <c r="E173" s="22"/>
     </row>
     <row r="174" customHeight="1" spans="5:5">
-      <c r="E174" s="19"/>
+      <c r="E174" s="22"/>
     </row>
     <row r="175" customHeight="1" spans="5:5">
-      <c r="E175" s="19"/>
+      <c r="E175" s="22"/>
     </row>
     <row r="176" customHeight="1" spans="5:5">
-      <c r="E176" s="19"/>
+      <c r="E176" s="22"/>
     </row>
     <row r="177" customHeight="1" spans="5:5">
-      <c r="E177" s="19"/>
+      <c r="E177" s="22"/>
     </row>
     <row r="178" customHeight="1" spans="5:5">
-      <c r="E178" s="19"/>
+      <c r="E178" s="22"/>
     </row>
     <row r="179" customHeight="1" spans="5:5">
-      <c r="E179" s="19"/>
+      <c r="E179" s="22"/>
     </row>
     <row r="180" customHeight="1" spans="5:5">
-      <c r="E180" s="19"/>
+      <c r="E180" s="22"/>
     </row>
     <row r="181" customHeight="1" spans="5:5">
-      <c r="E181" s="19"/>
+      <c r="E181" s="22"/>
     </row>
     <row r="182" customHeight="1" spans="5:5">
-      <c r="E182" s="19"/>
+      <c r="E182" s="22"/>
     </row>
     <row r="183" customHeight="1" spans="5:5">
-      <c r="E183" s="19"/>
+      <c r="E183" s="22"/>
     </row>
     <row r="184" customHeight="1" spans="5:5">
-      <c r="E184" s="19"/>
+      <c r="E184" s="22"/>
     </row>
     <row r="185" customHeight="1" spans="5:5">
-      <c r="E185" s="19"/>
+      <c r="E185" s="22"/>
     </row>
     <row r="186" customHeight="1" spans="5:5">
-      <c r="E186" s="19"/>
+      <c r="E186" s="22"/>
     </row>
     <row r="187" customHeight="1" spans="5:5">
-      <c r="E187" s="19"/>
+      <c r="E187" s="22"/>
     </row>
     <row r="188" customHeight="1" spans="5:5">
-      <c r="E188" s="19"/>
+      <c r="E188" s="22"/>
     </row>
     <row r="189" customHeight="1" spans="5:5">
-      <c r="E189" s="19"/>
+      <c r="E189" s="22"/>
     </row>
     <row r="190" customHeight="1" spans="5:5">
-      <c r="E190" s="19"/>
+      <c r="E190" s="22"/>
     </row>
     <row r="191" customHeight="1" spans="5:5">
-      <c r="E191" s="19"/>
+      <c r="E191" s="22"/>
     </row>
     <row r="192" customHeight="1" spans="5:5">
-      <c r="E192" s="19"/>
+      <c r="E192" s="22"/>
     </row>
     <row r="193" customHeight="1" spans="5:5">
-      <c r="E193" s="19"/>
+      <c r="E193" s="22"/>
     </row>
     <row r="194" customHeight="1" spans="5:5">
-      <c r="E194" s="19"/>
+      <c r="E194" s="22"/>
     </row>
     <row r="195" customHeight="1" spans="5:5">
-      <c r="E195" s="19"/>
+      <c r="E195" s="22"/>
     </row>
     <row r="196" customHeight="1" spans="5:5">
-      <c r="E196" s="19"/>
+      <c r="E196" s="22"/>
     </row>
     <row r="197" customHeight="1" spans="5:5">
-      <c r="E197" s="19"/>
+      <c r="E197" s="22"/>
     </row>
     <row r="198" customHeight="1" spans="5:5">
-      <c r="E198" s="19"/>
+      <c r="E198" s="22"/>
     </row>
     <row r="199" customHeight="1" spans="5:5">
-      <c r="E199" s="19"/>
+      <c r="E199" s="22"/>
     </row>
     <row r="200" customHeight="1" spans="5:5">
-      <c r="E200" s="19"/>
+      <c r="E200" s="22"/>
     </row>
     <row r="201" customHeight="1" spans="5:5">
-      <c r="E201" s="19"/>
+      <c r="E201" s="22"/>
     </row>
     <row r="202" customHeight="1" spans="5:5">
-      <c r="E202" s="19"/>
+      <c r="E202" s="22"/>
     </row>
     <row r="203" customHeight="1" spans="5:5">
-      <c r="E203" s="19"/>
+      <c r="E203" s="22"/>
     </row>
     <row r="204" customHeight="1" spans="5:5">
-      <c r="E204" s="19"/>
+      <c r="E204" s="22"/>
     </row>
     <row r="205" customHeight="1" spans="5:5">
-      <c r="E205" s="19"/>
+      <c r="E205" s="22"/>
     </row>
     <row r="206" customHeight="1" spans="5:5">
-      <c r="E206" s="19"/>
+      <c r="E206" s="22"/>
     </row>
     <row r="207" customHeight="1" spans="5:5">
-      <c r="E207" s="19"/>
+      <c r="E207" s="22"/>
     </row>
     <row r="208" customHeight="1" spans="5:5">
-      <c r="E208" s="19"/>
+      <c r="E208" s="22"/>
     </row>
     <row r="209" customHeight="1" spans="5:5">
-      <c r="E209" s="19"/>
+      <c r="E209" s="22"/>
     </row>
     <row r="210" customHeight="1" spans="5:5">
-      <c r="E210" s="19"/>
+      <c r="E210" s="22"/>
     </row>
     <row r="211" customHeight="1" spans="5:5">
-      <c r="E211" s="19"/>
+      <c r="E211" s="22"/>
     </row>
     <row r="212" customHeight="1" spans="5:5">
-      <c r="E212" s="19"/>
+      <c r="E212" s="22"/>
     </row>
     <row r="213" customHeight="1" spans="5:5">
-      <c r="E213" s="19"/>
+      <c r="E213" s="22"/>
     </row>
     <row r="214" customHeight="1" spans="5:5">
-      <c r="E214" s="19"/>
+      <c r="E214" s="22"/>
     </row>
     <row r="215" customHeight="1" spans="5:5">
-      <c r="E215" s="19"/>
+      <c r="E215" s="22"/>
     </row>
     <row r="216" customHeight="1" spans="5:5">
-      <c r="E216" s="19"/>
+      <c r="E216" s="22"/>
     </row>
     <row r="217" customHeight="1" spans="5:5">
-      <c r="E217" s="19"/>
+      <c r="E217" s="22"/>
     </row>
     <row r="218" customHeight="1" spans="5:5">
-      <c r="E218" s="19"/>
+      <c r="E218" s="22"/>
     </row>
     <row r="219" customHeight="1" spans="5:5">
-      <c r="E219" s="19"/>
+      <c r="E219" s="22"/>
     </row>
     <row r="220" customHeight="1" spans="5:5">
-      <c r="E220" s="19"/>
+      <c r="E220" s="22"/>
     </row>
     <row r="221" customHeight="1" spans="5:5">
-      <c r="E221" s="19"/>
+      <c r="E221" s="22"/>
     </row>
     <row r="222" customHeight="1" spans="5:5">
-      <c r="E222" s="19"/>
+      <c r="E222" s="22"/>
     </row>
     <row r="223" customHeight="1" spans="5:5">
-      <c r="E223" s="19"/>
+      <c r="E223" s="22"/>
     </row>
     <row r="224" customHeight="1" spans="5:5">
-      <c r="E224" s="19"/>
+      <c r="E224" s="22"/>
     </row>
     <row r="225" customHeight="1" spans="5:5">
-      <c r="E225" s="19"/>
+      <c r="E225" s="22"/>
     </row>
     <row r="226" customHeight="1" spans="5:5">
-      <c r="E226" s="19"/>
+      <c r="E226" s="22"/>
     </row>
     <row r="227" customHeight="1" spans="5:5">
-      <c r="E227" s="19"/>
+      <c r="E227" s="22"/>
     </row>
     <row r="228" customHeight="1" spans="5:5">
-      <c r="E228" s="19"/>
+      <c r="E228" s="22"/>
     </row>
     <row r="229" customHeight="1" spans="5:5">
-      <c r="E229" s="19"/>
+      <c r="E229" s="22"/>
     </row>
     <row r="230" customHeight="1" spans="5:5">
-      <c r="E230" s="19"/>
+      <c r="E230" s="22"/>
     </row>
     <row r="231" customHeight="1" spans="5:5">
-      <c r="E231" s="19"/>
+      <c r="E231" s="22"/>
     </row>
     <row r="232" customHeight="1" spans="5:5">
-      <c r="E232" s="19"/>
+      <c r="E232" s="22"/>
     </row>
     <row r="233" customHeight="1" spans="5:5">
-      <c r="E233" s="19"/>
+      <c r="E233" s="22"/>
     </row>
     <row r="234" customHeight="1" spans="5:5">
-      <c r="E234" s="19"/>
+      <c r="E234" s="22"/>
     </row>
     <row r="235" customHeight="1" spans="5:5">
-      <c r="E235" s="19"/>
+      <c r="E235" s="22"/>
     </row>
     <row r="236" customHeight="1" spans="5:5">
-      <c r="E236" s="19"/>
+      <c r="E236" s="22"/>
     </row>
     <row r="237" customHeight="1" spans="5:5">
-      <c r="E237" s="19"/>
+      <c r="E237" s="22"/>
     </row>
     <row r="238" customHeight="1" spans="5:5">
-      <c r="E238" s="19"/>
+      <c r="E238" s="22"/>
     </row>
     <row r="239" customHeight="1" spans="5:5">
-      <c r="E239" s="19"/>
+      <c r="E239" s="22"/>
     </row>
     <row r="240" customHeight="1" spans="5:5">
-      <c r="E240" s="19"/>
+      <c r="E240" s="22"/>
     </row>
     <row r="241" customHeight="1" spans="5:5">
-      <c r="E241" s="19"/>
+      <c r="E241" s="22"/>
     </row>
     <row r="242" customHeight="1" spans="5:5">
-      <c r="E242" s="19"/>
+      <c r="E242" s="22"/>
     </row>
     <row r="243" customHeight="1" spans="5:5">
-      <c r="E243" s="19"/>
+      <c r="E243" s="22"/>
     </row>
     <row r="244" customHeight="1" spans="5:5">
-      <c r="E244" s="19"/>
+      <c r="E244" s="22"/>
     </row>
     <row r="245" customHeight="1" spans="5:5">
-      <c r="E245" s="19"/>
+      <c r="E245" s="22"/>
     </row>
     <row r="246" customHeight="1" spans="5:5">
-      <c r="E246" s="19"/>
+      <c r="E246" s="22"/>
     </row>
     <row r="247" customHeight="1" spans="5:5">
-      <c r="E247" s="19"/>
+      <c r="E247" s="22"/>
     </row>
     <row r="248" customHeight="1" spans="5:5">
-      <c r="E248" s="19"/>
+      <c r="E248" s="22"/>
     </row>
     <row r="249" customHeight="1" spans="5:5">
-      <c r="E249" s="19"/>
+      <c r="E249" s="22"/>
     </row>
     <row r="250" customHeight="1" spans="5:5">
-      <c r="E250" s="19"/>
+      <c r="E250" s="22"/>
     </row>
     <row r="251" customHeight="1" spans="5:5">
-      <c r="E251" s="19"/>
+      <c r="E251" s="22"/>
     </row>
     <row r="252" customHeight="1" spans="5:5">
-      <c r="E252" s="19"/>
+      <c r="E252" s="22"/>
     </row>
     <row r="253" customHeight="1" spans="5:5">
-      <c r="E253" s="19"/>
+      <c r="E253" s="22"/>
     </row>
     <row r="254" customHeight="1" spans="5:5">
-      <c r="E254" s="19"/>
+      <c r="E254" s="22"/>
     </row>
     <row r="255" customHeight="1" spans="5:5">
-      <c r="E255" s="19"/>
+      <c r="E255" s="22"/>
     </row>
     <row r="256" customHeight="1" spans="5:5">
-      <c r="E256" s="19"/>
+      <c r="E256" s="22"/>
     </row>
     <row r="257" customHeight="1" spans="5:5">
-      <c r="E257" s="19"/>
+      <c r="E257" s="22"/>
     </row>
     <row r="258" customHeight="1" spans="5:5">
-      <c r="E258" s="19"/>
+      <c r="E258" s="22"/>
     </row>
     <row r="259" customHeight="1" spans="5:5">
-      <c r="E259" s="19"/>
+      <c r="E259" s="22"/>
     </row>
     <row r="260" customHeight="1" spans="5:5">
-      <c r="E260" s="19"/>
+      <c r="E260" s="22"/>
     </row>
     <row r="261" customHeight="1" spans="5:5">
-      <c r="E261" s="19"/>
+      <c r="E261" s="22"/>
     </row>
     <row r="262" customHeight="1" spans="5:5">
-      <c r="E262" s="19"/>
+      <c r="E262" s="22"/>
     </row>
     <row r="263" customHeight="1" spans="5:5">
-      <c r="E263" s="19"/>
+      <c r="E263" s="22"/>
     </row>
     <row r="264" customHeight="1" spans="5:5">
-      <c r="E264" s="19"/>
+      <c r="E264" s="22"/>
     </row>
     <row r="265" customHeight="1" spans="5:5">
-      <c r="E265" s="19"/>
+      <c r="E265" s="22"/>
     </row>
     <row r="266" customHeight="1" spans="5:5">
-      <c r="E266" s="19"/>
+      <c r="E266" s="22"/>
     </row>
     <row r="267" customHeight="1" spans="5:5">
-      <c r="E267" s="19"/>
+      <c r="E267" s="22"/>
     </row>
     <row r="268" customHeight="1" spans="5:5">
-      <c r="E268" s="19"/>
+      <c r="E268" s="22"/>
     </row>
     <row r="269" customHeight="1" spans="5:5">
-      <c r="E269" s="19"/>
+      <c r="E269" s="22"/>
     </row>
     <row r="270" customHeight="1" spans="5:5">
-      <c r="E270" s="19"/>
+      <c r="E270" s="22"/>
     </row>
     <row r="271" customHeight="1" spans="5:5">
-      <c r="E271" s="19"/>
+      <c r="E271" s="22"/>
     </row>
     <row r="272" customHeight="1" spans="5:5">
-      <c r="E272" s="19"/>
+      <c r="E272" s="22"/>
     </row>
     <row r="273" customHeight="1" spans="5:5">
-      <c r="E273" s="19"/>
+      <c r="E273" s="22"/>
     </row>
     <row r="274" customHeight="1" spans="5:5">
-      <c r="E274" s="19"/>
+      <c r="E274" s="22"/>
     </row>
     <row r="275" customHeight="1" spans="5:5">
-      <c r="E275" s="19"/>
+      <c r="E275" s="22"/>
     </row>
     <row r="276" customHeight="1" spans="5:5">
-      <c r="E276" s="19"/>
+      <c r="E276" s="22"/>
     </row>
     <row r="277" customHeight="1" spans="5:5">
-      <c r="E277" s="19"/>
+      <c r="E277" s="22"/>
     </row>
     <row r="278" customHeight="1" spans="5:5">
-      <c r="E278" s="19"/>
+      <c r="E278" s="22"/>
     </row>
     <row r="279" customHeight="1" spans="5:5">
-      <c r="E279" s="19"/>
+      <c r="E279" s="22"/>
     </row>
     <row r="280" customHeight="1" spans="5:5">
-      <c r="E280" s="19"/>
+      <c r="E280" s="22"/>
     </row>
     <row r="281" customHeight="1" spans="5:5">
-      <c r="E281" s="19"/>
+      <c r="E281" s="22"/>
     </row>
     <row r="282" customHeight="1" spans="5:5">
-      <c r="E282" s="19"/>
+      <c r="E282" s="22"/>
     </row>
     <row r="283" customHeight="1" spans="5:5">
-      <c r="E283" s="19"/>
+      <c r="E283" s="22"/>
     </row>
     <row r="284" customHeight="1" spans="5:5">
-      <c r="E284" s="19"/>
+      <c r="E284" s="22"/>
     </row>
     <row r="285" customHeight="1" spans="5:5">
-      <c r="E285" s="19"/>
+      <c r="E285" s="22"/>
     </row>
     <row r="286" customHeight="1" spans="5:5">
-      <c r="E286" s="19"/>
+      <c r="E286" s="22"/>
     </row>
     <row r="287" customHeight="1" spans="5:5">
-      <c r="E287" s="19"/>
+      <c r="E287" s="22"/>
     </row>
     <row r="288" customHeight="1" spans="5:5">
-      <c r="E288" s="19"/>
+      <c r="E288" s="22"/>
     </row>
     <row r="289" customHeight="1" spans="5:5">
-      <c r="E289" s="19"/>
+      <c r="E289" s="22"/>
     </row>
     <row r="290" customHeight="1" spans="5:5">
-      <c r="E290" s="19"/>
+      <c r="E290" s="22"/>
     </row>
     <row r="291" customHeight="1" spans="5:5">
-      <c r="E291" s="19"/>
+      <c r="E291" s="22"/>
     </row>
     <row r="292" customHeight="1" spans="5:5">
-      <c r="E292" s="19"/>
+      <c r="E292" s="22"/>
     </row>
     <row r="293" customHeight="1" spans="5:5">
-      <c r="E293" s="19"/>
+      <c r="E293" s="22"/>
     </row>
     <row r="294" customHeight="1" spans="5:5">
-      <c r="E294" s="19"/>
+      <c r="E294" s="22"/>
     </row>
     <row r="295" customHeight="1" spans="5:5">
-      <c r="E295" s="19"/>
+      <c r="E295" s="22"/>
     </row>
     <row r="296" customHeight="1" spans="5:5">
-      <c r="E296" s="19"/>
+      <c r="E296" s="22"/>
     </row>
     <row r="297" customHeight="1" spans="5:5">
-      <c r="E297" s="19"/>
+      <c r="E297" s="22"/>
     </row>
     <row r="298" customHeight="1" spans="5:5">
-      <c r="E298" s="19"/>
+      <c r="E298" s="22"/>
     </row>
     <row r="299" customHeight="1" spans="5:5">
-      <c r="E299" s="19"/>
+      <c r="E299" s="22"/>
     </row>
     <row r="300" customHeight="1" spans="5:5">
-      <c r="E300" s="19"/>
+      <c r="E300" s="22"/>
     </row>
     <row r="301" customHeight="1" spans="5:5">
-      <c r="E301" s="19"/>
+      <c r="E301" s="22"/>
     </row>
     <row r="302" customHeight="1" spans="5:5">
-      <c r="E302" s="19"/>
+      <c r="E302" s="22"/>
     </row>
     <row r="303" customHeight="1" spans="5:5">
-      <c r="E303" s="19"/>
+      <c r="E303" s="22"/>
     </row>
     <row r="304" customHeight="1" spans="5:5">
-      <c r="E304" s="19"/>
+      <c r="E304" s="22"/>
     </row>
     <row r="305" customHeight="1" spans="5:5">
-      <c r="E305" s="19"/>
+      <c r="E305" s="22"/>
     </row>
     <row r="306" customHeight="1" spans="5:5">
-      <c r="E306" s="19"/>
+      <c r="E306" s="22"/>
     </row>
     <row r="307" customHeight="1" spans="5:5">
-      <c r="E307" s="19"/>
+      <c r="E307" s="22"/>
     </row>
     <row r="308" customHeight="1" spans="5:5">
-      <c r="E308" s="19"/>
+      <c r="E308" s="22"/>
     </row>
     <row r="309" customHeight="1" spans="5:5">
-      <c r="E309" s="19"/>
+      <c r="E309" s="22"/>
     </row>
     <row r="310" customHeight="1" spans="5:5">
-      <c r="E310" s="19"/>
+      <c r="E310" s="22"/>
     </row>
     <row r="311" customHeight="1" spans="5:5">
-      <c r="E311" s="19"/>
+      <c r="E311" s="22"/>
     </row>
     <row r="312" customHeight="1" spans="5:5">
-      <c r="E312" s="19"/>
+      <c r="E312" s="22"/>
     </row>
     <row r="313" customHeight="1" spans="5:5">
-      <c r="E313" s="19"/>
+      <c r="E313" s="22"/>
     </row>
     <row r="314" customHeight="1" spans="5:5">
-      <c r="E314" s="19"/>
+      <c r="E314" s="22"/>
     </row>
     <row r="315" customHeight="1" spans="5:5">
-      <c r="E315" s="19"/>
+      <c r="E315" s="22"/>
     </row>
     <row r="316" customHeight="1" spans="5:5">
-      <c r="E316" s="19"/>
+      <c r="E316" s="22"/>
     </row>
     <row r="317" customHeight="1" spans="5:5">
-      <c r="E317" s="19"/>
+      <c r="E317" s="22"/>
     </row>
     <row r="318" customHeight="1" spans="5:5">
-      <c r="E318" s="19"/>
+      <c r="E318" s="22"/>
     </row>
     <row r="319" customHeight="1" spans="5:5">
-      <c r="E319" s="19"/>
+      <c r="E319" s="22"/>
     </row>
     <row r="320" customHeight="1" spans="5:5">
-      <c r="E320" s="19"/>
+      <c r="E320" s="22"/>
     </row>
     <row r="321" customHeight="1" spans="5:5">
-      <c r="E321" s="19"/>
+      <c r="E321" s="22"/>
     </row>
     <row r="322" customHeight="1" spans="5:5">
-      <c r="E322" s="19"/>
+      <c r="E322" s="22"/>
     </row>
     <row r="323" customHeight="1" spans="5:5">
-      <c r="E323" s="19"/>
+      <c r="E323" s="22"/>
     </row>
     <row r="324" customHeight="1" spans="5:5">
-      <c r="E324" s="19"/>
+      <c r="E324" s="22"/>
     </row>
     <row r="325" customHeight="1" spans="5:5">
-      <c r="E325" s="19"/>
+      <c r="E325" s="22"/>
     </row>
     <row r="326" customHeight="1" spans="5:5">
-      <c r="E326" s="19"/>
+      <c r="E326" s="22"/>
     </row>
     <row r="327" customHeight="1" spans="5:5">
-      <c r="E327" s="19"/>
+      <c r="E327" s="22"/>
     </row>
     <row r="328" customHeight="1" spans="5:5">
-      <c r="E328" s="19"/>
+      <c r="E328" s="22"/>
     </row>
     <row r="329" customHeight="1" spans="5:5">
-      <c r="E329" s="19"/>
+      <c r="E329" s="22"/>
     </row>
     <row r="330" customHeight="1" spans="5:5">
-      <c r="E330" s="19"/>
+      <c r="E330" s="22"/>
     </row>
     <row r="331" customHeight="1" spans="5:5">
-      <c r="E331" s="19"/>
+      <c r="E331" s="22"/>
     </row>
     <row r="332" customHeight="1" spans="5:5">
-      <c r="E332" s="19"/>
+      <c r="E332" s="22"/>
     </row>
     <row r="333" customHeight="1" spans="5:5">
-      <c r="E333" s="19"/>
+      <c r="E333" s="22"/>
     </row>
     <row r="334" customHeight="1" spans="5:5">
-      <c r="E334" s="19"/>
+      <c r="E334" s="22"/>
     </row>
     <row r="335" customHeight="1" spans="5:5">
-      <c r="E335" s="19"/>
+      <c r="E335" s="22"/>
     </row>
     <row r="336" customHeight="1" spans="5:5">
-      <c r="E336" s="19"/>
+      <c r="E336" s="22"/>
     </row>
     <row r="337" customHeight="1" spans="5:5">
-      <c r="E337" s="19"/>
+      <c r="E337" s="22"/>
     </row>
     <row r="338" customHeight="1" spans="5:5">
-      <c r="E338" s="19"/>
+      <c r="E338" s="22"/>
     </row>
     <row r="339" customHeight="1" spans="5:5">
-      <c r="E339" s="19"/>
+      <c r="E339" s="22"/>
     </row>
     <row r="340" customHeight="1" spans="5:5">
-      <c r="E340" s="19"/>
+      <c r="E340" s="22"/>
     </row>
     <row r="341" customHeight="1" spans="5:5">
-      <c r="E341" s="19"/>
+      <c r="E341" s="22"/>
     </row>
     <row r="342" customHeight="1" spans="5:5">
-      <c r="E342" s="19"/>
+      <c r="E342" s="22"/>
     </row>
     <row r="343" customHeight="1" spans="5:5">
-      <c r="E343" s="19"/>
+      <c r="E343" s="22"/>
     </row>
     <row r="344" customHeight="1" spans="5:5">
-      <c r="E344" s="19"/>
+      <c r="E344" s="22"/>
     </row>
     <row r="345" customHeight="1" spans="5:5">
-      <c r="E345" s="19"/>
+      <c r="E345" s="22"/>
     </row>
     <row r="346" customHeight="1" spans="5:5">
-      <c r="E346" s="19"/>
+      <c r="E346" s="22"/>
     </row>
     <row r="347" customHeight="1" spans="5:5">
-      <c r="E347" s="19"/>
+      <c r="E347" s="22"/>
     </row>
     <row r="348" customHeight="1" spans="5:5">
-      <c r="E348" s="19"/>
+      <c r="E348" s="22"/>
     </row>
     <row r="349" customHeight="1" spans="5:5">
-      <c r="E349" s="19"/>
+      <c r="E349" s="22"/>
     </row>
     <row r="350" customHeight="1" spans="5:5">
-      <c r="E350" s="19"/>
+      <c r="E350" s="22"/>
     </row>
     <row r="351" customHeight="1" spans="5:5">
-      <c r="E351" s="19"/>
+      <c r="E351" s="22"/>
     </row>
     <row r="352" customHeight="1" spans="5:5">
-      <c r="E352" s="19"/>
+      <c r="E352" s="22"/>
     </row>
     <row r="353" customHeight="1" spans="5:5">
-      <c r="E353" s="19"/>
+      <c r="E353" s="22"/>
     </row>
     <row r="354" customHeight="1" spans="5:5">
-      <c r="E354" s="19"/>
+      <c r="E354" s="22"/>
     </row>
     <row r="355" customHeight="1" spans="5:5">
-      <c r="E355" s="19"/>
+      <c r="E355" s="22"/>
     </row>
     <row r="356" customHeight="1" spans="5:5">
-      <c r="E356" s="19"/>
+      <c r="E356" s="22"/>
     </row>
     <row r="357" customHeight="1" spans="5:5">
-      <c r="E357" s="19"/>
+      <c r="E357" s="22"/>
     </row>
     <row r="358" customHeight="1" spans="5:5">
-      <c r="E358" s="19"/>
+      <c r="E358" s="22"/>
     </row>
     <row r="359" customHeight="1" spans="5:5">
-      <c r="E359" s="19"/>
+      <c r="E359" s="22"/>
     </row>
     <row r="360" customHeight="1" spans="5:5">
-      <c r="E360" s="19"/>
+      <c r="E360" s="22"/>
     </row>
     <row r="361" customHeight="1" spans="5:5">
-      <c r="E361" s="19"/>
+      <c r="E361" s="22"/>
     </row>
     <row r="362" customHeight="1" spans="5:5">
-      <c r="E362" s="19"/>
+      <c r="E362" s="22"/>
     </row>
     <row r="363" customHeight="1" spans="5:5">
-      <c r="E363" s="19"/>
+      <c r="E363" s="22"/>
     </row>
     <row r="364" customHeight="1" spans="5:5">
-      <c r="E364" s="19"/>
+      <c r="E364" s="22"/>
     </row>
     <row r="365" customHeight="1" spans="5:5">
-      <c r="E365" s="19"/>
+      <c r="E365" s="22"/>
     </row>
     <row r="366" customHeight="1" spans="5:5">
-      <c r="E366" s="19"/>
+      <c r="E366" s="22"/>
     </row>
     <row r="367" customHeight="1" spans="5:5">
-      <c r="E367" s="19"/>
+      <c r="E367" s="22"/>
     </row>
     <row r="368" customHeight="1" spans="5:5">
-      <c r="E368" s="19"/>
+      <c r="E368" s="22"/>
     </row>
     <row r="369" customHeight="1" spans="5:5">
-      <c r="E369" s="19"/>
+      <c r="E369" s="22"/>
     </row>
     <row r="370" customHeight="1" spans="5:5">
-      <c r="E370" s="19"/>
+      <c r="E370" s="22"/>
     </row>
     <row r="371" customHeight="1" spans="5:5">
-      <c r="E371" s="19"/>
+      <c r="E371" s="22"/>
     </row>
     <row r="372" customHeight="1" spans="5:5">
-      <c r="E372" s="19"/>
+      <c r="E372" s="22"/>
     </row>
     <row r="373" customHeight="1" spans="5:5">
-      <c r="E373" s="19"/>
+      <c r="E373" s="22"/>
     </row>
     <row r="374" customHeight="1" spans="5:5">
-      <c r="E374" s="19"/>
+      <c r="E374" s="22"/>
     </row>
     <row r="375" customHeight="1" spans="5:5">
-      <c r="E375" s="19"/>
+      <c r="E375" s="22"/>
     </row>
     <row r="376" customHeight="1" spans="5:5">
-      <c r="E376" s="19"/>
+      <c r="E376" s="22"/>
     </row>
     <row r="377" customHeight="1" spans="5:5">
-      <c r="E377" s="19"/>
+      <c r="E377" s="22"/>
     </row>
     <row r="378" customHeight="1" spans="5:5">
-      <c r="E378" s="19"/>
+      <c r="E378" s="22"/>
     </row>
     <row r="379" customHeight="1" spans="5:5">
-      <c r="E379" s="19"/>
+      <c r="E379" s="22"/>
     </row>
     <row r="380" customHeight="1" spans="5:5">
-      <c r="E380" s="19"/>
+      <c r="E380" s="22"/>
     </row>
     <row r="381" customHeight="1" spans="5:5">
-      <c r="E381" s="19"/>
+      <c r="E381" s="22"/>
     </row>
     <row r="382" customHeight="1" spans="5:5">
-      <c r="E382" s="19"/>
+      <c r="E382" s="22"/>
     </row>
     <row r="383" customHeight="1" spans="5:5">
-      <c r="E383" s="19"/>
+      <c r="E383" s="22"/>
     </row>
     <row r="384" customHeight="1" spans="5:5">
-      <c r="E384" s="19"/>
+      <c r="E384" s="22"/>
     </row>
     <row r="385" customHeight="1" spans="5:5">
-      <c r="E385" s="19"/>
+      <c r="E385" s="22"/>
     </row>
     <row r="386" customHeight="1" spans="5:5">
-      <c r="E386" s="19"/>
+      <c r="E386" s="22"/>
     </row>
     <row r="387" customHeight="1" spans="5:5">
-      <c r="E387" s="19"/>
+      <c r="E387" s="22"/>
     </row>
     <row r="388" customHeight="1" spans="5:5">
-      <c r="E388" s="19"/>
+      <c r="E388" s="22"/>
     </row>
     <row r="389" customHeight="1" spans="5:5">
-      <c r="E389" s="19"/>
+      <c r="E389" s="22"/>
     </row>
     <row r="390" customHeight="1" spans="5:5">
-      <c r="E390" s="19"/>
+      <c r="E390" s="22"/>
     </row>
     <row r="391" customHeight="1" spans="5:5">
-      <c r="E391" s="19"/>
+      <c r="E391" s="22"/>
     </row>
     <row r="392" customHeight="1" spans="5:5">
-      <c r="E392" s="19"/>
+      <c r="E392" s="22"/>
     </row>
     <row r="393" customHeight="1" spans="5:5">
-      <c r="E393" s="19"/>
+      <c r="E393" s="22"/>
     </row>
     <row r="394" customHeight="1" spans="5:5">
-      <c r="E394" s="19"/>
+      <c r="E394" s="22"/>
     </row>
     <row r="395" customHeight="1" spans="5:5">
-      <c r="E395" s="19"/>
+      <c r="E395" s="22"/>
     </row>
     <row r="396" customHeight="1" spans="5:5">
-      <c r="E396" s="19"/>
+      <c r="E396" s="22"/>
     </row>
     <row r="397" customHeight="1" spans="5:5">
-      <c r="E397" s="19"/>
+      <c r="E397" s="22"/>
     </row>
     <row r="398" customHeight="1" spans="5:5">
-      <c r="E398" s="19"/>
+      <c r="E398" s="22"/>
     </row>
     <row r="399" customHeight="1" spans="5:5">
-      <c r="E399" s="19"/>
+      <c r="E399" s="22"/>
     </row>
     <row r="400" customHeight="1" spans="5:5">
-      <c r="E400" s="19"/>
+      <c r="E400" s="22"/>
     </row>
     <row r="401" customHeight="1" spans="5:5">
-      <c r="E401" s="19"/>
+      <c r="E401" s="22"/>
     </row>
     <row r="402" customHeight="1" spans="5:5">
-      <c r="E402" s="19"/>
+      <c r="E402" s="22"/>
     </row>
     <row r="403" customHeight="1" spans="5:5">
-      <c r="E403" s="19"/>
+      <c r="E403" s="22"/>
     </row>
     <row r="404" customHeight="1" spans="5:5">
-      <c r="E404" s="19"/>
+      <c r="E404" s="22"/>
     </row>
     <row r="405" customHeight="1" spans="5:5">
-      <c r="E405" s="19"/>
+      <c r="E405" s="22"/>
     </row>
     <row r="406" customHeight="1" spans="5:5">
-      <c r="E406" s="19"/>
+      <c r="E406" s="22"/>
     </row>
     <row r="407" customHeight="1" spans="5:5">
-      <c r="E407" s="19"/>
+      <c r="E407" s="22"/>
     </row>
     <row r="408" customHeight="1" spans="5:5">
-      <c r="E408" s="19"/>
+      <c r="E408" s="22"/>
     </row>
     <row r="409" customHeight="1" spans="5:5">
-      <c r="E409" s="19"/>
+      <c r="E409" s="22"/>
     </row>
     <row r="410" customHeight="1" spans="5:5">
-      <c r="E410" s="19"/>
+      <c r="E410" s="22"/>
     </row>
     <row r="411" customHeight="1" spans="5:5">
-      <c r="E411" s="19"/>
+      <c r="E411" s="22"/>
     </row>
     <row r="412" customHeight="1" spans="5:5">
-      <c r="E412" s="19"/>
+      <c r="E412" s="22"/>
     </row>
     <row r="413" customHeight="1" spans="5:5">
-      <c r="E413" s="19"/>
+      <c r="E413" s="22"/>
     </row>
     <row r="414" customHeight="1" spans="5:5">
-      <c r="E414" s="19"/>
+      <c r="E414" s="22"/>
     </row>
     <row r="415" customHeight="1" spans="5:5">
-      <c r="E415" s="19"/>
+      <c r="E415" s="22"/>
     </row>
     <row r="416" customHeight="1" spans="5:5">
-      <c r="E416" s="19"/>
+      <c r="E416" s="22"/>
     </row>
     <row r="417" customHeight="1" spans="5:5">
-      <c r="E417" s="19"/>
+      <c r="E417" s="22"/>
     </row>
     <row r="418" customHeight="1" spans="5:5">
-      <c r="E418" s="19"/>
+      <c r="E418" s="22"/>
     </row>
     <row r="419" customHeight="1" spans="5:5">
-      <c r="E419" s="19"/>
+      <c r="E419" s="22"/>
     </row>
     <row r="420" customHeight="1" spans="5:5">
-      <c r="E420" s="19"/>
+      <c r="E420" s="22"/>
     </row>
     <row r="421" customHeight="1" spans="5:5">
-      <c r="E421" s="19"/>
+      <c r="E421" s="22"/>
     </row>
     <row r="422" customHeight="1" spans="5:5">
-      <c r="E422" s="19"/>
+      <c r="E422" s="22"/>
     </row>
     <row r="423" customHeight="1" spans="5:5">
-      <c r="E423" s="19"/>
+      <c r="E423" s="22"/>
     </row>
     <row r="424" customHeight="1" spans="5:5">
-      <c r="E424" s="19"/>
+      <c r="E424" s="22"/>
     </row>
     <row r="425" customHeight="1" spans="5:5">
-      <c r="E425" s="19"/>
+      <c r="E425" s="22"/>
     </row>
     <row r="426" customHeight="1" spans="5:5">
-      <c r="E426" s="19"/>
+      <c r="E426" s="22"/>
     </row>
     <row r="427" customHeight="1" spans="5:5">
-      <c r="E427" s="19"/>
+      <c r="E427" s="22"/>
     </row>
     <row r="428" customHeight="1" spans="5:5">
-      <c r="E428" s="19"/>
+      <c r="E428" s="22"/>
     </row>
     <row r="429" customHeight="1" spans="5:5">
-      <c r="E429" s="19"/>
+      <c r="E429" s="22"/>
     </row>
     <row r="430" customHeight="1" spans="5:5">
-      <c r="E430" s="19"/>
+      <c r="E430" s="22"/>
     </row>
     <row r="431" customHeight="1" spans="5:5">
-      <c r="E431" s="19"/>
+      <c r="E431" s="22"/>
     </row>
     <row r="432" customHeight="1" spans="5:5">
-      <c r="E432" s="19"/>
+      <c r="E432" s="22"/>
     </row>
     <row r="433" customHeight="1" spans="5:5">
-      <c r="E433" s="19"/>
+      <c r="E433" s="22"/>
     </row>
     <row r="434" customHeight="1" spans="5:5">
-      <c r="E434" s="19"/>
+      <c r="E434" s="22"/>
     </row>
     <row r="435" customHeight="1" spans="5:5">
-      <c r="E435" s="19"/>
+      <c r="E435" s="22"/>
     </row>
     <row r="436" customHeight="1" spans="5:5">
-      <c r="E436" s="19"/>
+      <c r="E436" s="22"/>
     </row>
     <row r="437" customHeight="1" spans="5:5">
-      <c r="E437" s="19"/>
+      <c r="E437" s="22"/>
     </row>
     <row r="438" customHeight="1" spans="5:5">
-      <c r="E438" s="19"/>
+      <c r="E438" s="22"/>
     </row>
     <row r="439" customHeight="1" spans="5:5">
-      <c r="E439" s="19"/>
+      <c r="E439" s="22"/>
     </row>
     <row r="440" customHeight="1" spans="5:5">
-      <c r="E440" s="19"/>
+      <c r="E440" s="22"/>
     </row>
     <row r="441" customHeight="1" spans="5:5">
-      <c r="E441" s="19"/>
+      <c r="E441" s="22"/>
     </row>
     <row r="442" customHeight="1" spans="5:5">
-      <c r="E442" s="19"/>
+      <c r="E442" s="22"/>
     </row>
     <row r="443" customHeight="1" spans="5:5">
-      <c r="E443" s="19"/>
+      <c r="E443" s="22"/>
     </row>
     <row r="444" customHeight="1" spans="5:5">
-      <c r="E444" s="19"/>
+      <c r="E444" s="22"/>
     </row>
     <row r="445" customHeight="1" spans="5:5">
-      <c r="E445" s="19"/>
+      <c r="E445" s="22"/>
     </row>
     <row r="446" customHeight="1" spans="5:5">
-      <c r="E446" s="19"/>
+      <c r="E446" s="22"/>
     </row>
     <row r="447" customHeight="1" spans="5:5">
-      <c r="E447" s="19"/>
+      <c r="E447" s="22"/>
     </row>
     <row r="448" customHeight="1" spans="5:5">
-      <c r="E448" s="19"/>
+      <c r="E448" s="22"/>
     </row>
     <row r="449" customHeight="1" spans="5:5">
-      <c r="E449" s="19"/>
+      <c r="E449" s="22"/>
     </row>
     <row r="450" customHeight="1" spans="5:5">
-      <c r="E450" s="19"/>
+      <c r="E450" s="22"/>
     </row>
     <row r="451" customHeight="1" spans="5:5">
-      <c r="E451" s="19"/>
+      <c r="E451" s="22"/>
     </row>
     <row r="452" customHeight="1" spans="5:5">
-      <c r="E452" s="19"/>
+      <c r="E452" s="22"/>
     </row>
     <row r="453" customHeight="1" spans="5:5">
-      <c r="E453" s="19"/>
+      <c r="E453" s="22"/>
     </row>
     <row r="454" customHeight="1" spans="5:5">
-      <c r="E454" s="19"/>
+      <c r="E454" s="22"/>
     </row>
     <row r="455" customHeight="1" spans="5:5">
-      <c r="E455" s="19"/>
+      <c r="E455" s="22"/>
     </row>
     <row r="456" customHeight="1" spans="5:5">
-      <c r="E456" s="19"/>
+      <c r="E456" s="22"/>
     </row>
     <row r="457" customHeight="1" spans="5:5">
-      <c r="E457" s="19"/>
+      <c r="E457" s="22"/>
     </row>
     <row r="458" customHeight="1" spans="5:5">
-      <c r="E458" s="19"/>
+      <c r="E458" s="22"/>
     </row>
     <row r="459" customHeight="1" spans="5:5">
-      <c r="E459" s="19"/>
+      <c r="E459" s="22"/>
     </row>
     <row r="460" customHeight="1" spans="5:5">
-      <c r="E460" s="19"/>
+      <c r="E460" s="22"/>
     </row>
     <row r="461" customHeight="1" spans="5:5">
-      <c r="E461" s="19"/>
+      <c r="E461" s="22"/>
     </row>
     <row r="462" customHeight="1" spans="5:5">
-      <c r="E462" s="19"/>
+      <c r="E462" s="22"/>
     </row>
     <row r="463" customHeight="1" spans="5:5">
-      <c r="E463" s="19"/>
+      <c r="E463" s="22"/>
     </row>
     <row r="464" customHeight="1" spans="5:5">
-      <c r="E464" s="19"/>
+      <c r="E464" s="22"/>
     </row>
     <row r="465" customHeight="1" spans="5:5">
-      <c r="E465" s="19"/>
+      <c r="E465" s="22"/>
     </row>
     <row r="466" customHeight="1" spans="5:5">
-      <c r="E466" s="19"/>
+      <c r="E466" s="22"/>
     </row>
     <row r="467" customHeight="1" spans="5:5">
-      <c r="E467" s="19"/>
+      <c r="E467" s="22"/>
     </row>
     <row r="468" customHeight="1" spans="5:5">
-      <c r="E468" s="19"/>
+      <c r="E468" s="22"/>
     </row>
     <row r="469" customHeight="1" spans="5:5">
-      <c r="E469" s="19"/>
+      <c r="E469" s="22"/>
     </row>
     <row r="470" customHeight="1" spans="5:5">
-      <c r="E470" s="19"/>
+      <c r="E470" s="22"/>
     </row>
     <row r="471" customHeight="1" spans="5:5">
-      <c r="E471" s="19"/>
+      <c r="E471" s="22"/>
     </row>
     <row r="472" customHeight="1" spans="5:5">
-      <c r="E472" s="19"/>
+      <c r="E472" s="22"/>
     </row>
     <row r="473" customHeight="1" spans="5:5">
-      <c r="E473" s="19"/>
+      <c r="E473" s="22"/>
     </row>
     <row r="474" customHeight="1" spans="5:5">
-      <c r="E474" s="19"/>
+      <c r="E474" s="22"/>
     </row>
     <row r="475" customHeight="1" spans="5:5">
-      <c r="E475" s="19"/>
+      <c r="E475" s="22"/>
     </row>
     <row r="476" customHeight="1" spans="5:5">
-      <c r="E476" s="19"/>
+      <c r="E476" s="22"/>
     </row>
     <row r="477" customHeight="1" spans="5:5">
-      <c r="E477" s="19"/>
+      <c r="E477" s="22"/>
     </row>
     <row r="478" customHeight="1" spans="5:5">
-      <c r="E478" s="19"/>
+      <c r="E478" s="22"/>
     </row>
     <row r="479" customHeight="1" spans="5:5">
-      <c r="E479" s="19"/>
+      <c r="E479" s="22"/>
     </row>
     <row r="480" customHeight="1" spans="5:5">
-      <c r="E480" s="19"/>
+      <c r="E480" s="22"/>
     </row>
     <row r="481" customHeight="1" spans="5:5">
-      <c r="E481" s="19"/>
+      <c r="E481" s="22"/>
     </row>
     <row r="482" customHeight="1" spans="5:5">
-      <c r="E482" s="19"/>
+      <c r="E482" s="22"/>
     </row>
     <row r="483" customHeight="1" spans="5:5">
-      <c r="E483" s="19"/>
+      <c r="E483" s="22"/>
     </row>
     <row r="484" customHeight="1" spans="5:5">
-      <c r="E484" s="19"/>
+      <c r="E484" s="22"/>
     </row>
     <row r="485" customHeight="1" spans="5:5">
-      <c r="E485" s="19"/>
+      <c r="E485" s="22"/>
     </row>
     <row r="486" customHeight="1" spans="5:5">
-      <c r="E486" s="19"/>
+      <c r="E486" s="22"/>
     </row>
     <row r="487" customHeight="1" spans="5:5">
-      <c r="E487" s="19"/>
+      <c r="E487" s="22"/>
     </row>
     <row r="488" customHeight="1" spans="5:5">
-      <c r="E488" s="19"/>
+      <c r="E488" s="22"/>
     </row>
     <row r="489" customHeight="1" spans="5:5">
-      <c r="E489" s="19"/>
+      <c r="E489" s="22"/>
     </row>
     <row r="490" customHeight="1" spans="5:5">
-      <c r="E490" s="19"/>
+      <c r="E490" s="22"/>
     </row>
     <row r="491" customHeight="1" spans="5:5">
-      <c r="E491" s="19"/>
+      <c r="E491" s="22"/>
     </row>
     <row r="492" customHeight="1" spans="5:5">
-      <c r="E492" s="19"/>
+      <c r="E492" s="22"/>
     </row>
     <row r="493" customHeight="1" spans="5:5">
-      <c r="E493" s="19"/>
+      <c r="E493" s="22"/>
     </row>
     <row r="494" customHeight="1" spans="5:5">
-      <c r="E494" s="19"/>
+      <c r="E494" s="22"/>
     </row>
     <row r="495" customHeight="1" spans="5:5">
-      <c r="E495" s="19"/>
+      <c r="E495" s="22"/>
     </row>
     <row r="496" customHeight="1" spans="5:5">
-      <c r="E496" s="19"/>
+      <c r="E496" s="22"/>
     </row>
     <row r="497" customHeight="1" spans="5:5">
-      <c r="E497" s="19"/>
+      <c r="E497" s="22"/>
     </row>
     <row r="498" customHeight="1" spans="5:5">
-      <c r="E498" s="19"/>
+      <c r="E498" s="22"/>
     </row>
     <row r="499" customHeight="1" spans="5:5">
-      <c r="E499" s="19"/>
+      <c r="E499" s="22"/>
     </row>
     <row r="500" customHeight="1" spans="5:5">
-      <c r="E500" s="19"/>
+      <c r="E500" s="22"/>
     </row>
     <row r="501" customHeight="1" spans="5:5">
-      <c r="E501" s="19"/>
+      <c r="E501" s="22"/>
     </row>
     <row r="502" customHeight="1" spans="5:5">
-      <c r="E502" s="19"/>
+      <c r="E502" s="22"/>
     </row>
     <row r="503" customHeight="1" spans="5:5">
-      <c r="E503" s="19"/>
+      <c r="E503" s="22"/>
     </row>
     <row r="504" customHeight="1" spans="5:5">
-      <c r="E504" s="19"/>
+      <c r="E504" s="22"/>
     </row>
     <row r="505" customHeight="1" spans="5:5">
-      <c r="E505" s="19"/>
+      <c r="E505" s="22"/>
     </row>
     <row r="506" customHeight="1" spans="5:5">
-      <c r="E506" s="19"/>
+      <c r="E506" s="22"/>
     </row>
     <row r="507" customHeight="1" spans="5:5">
-      <c r="E507" s="19"/>
+      <c r="E507" s="22"/>
     </row>
     <row r="508" customHeight="1" spans="5:5">
-      <c r="E508" s="19"/>
+      <c r="E508" s="22"/>
     </row>
     <row r="509" customHeight="1" spans="5:5">
-      <c r="E509" s="19"/>
+      <c r="E509" s="22"/>
     </row>
     <row r="510" customHeight="1" spans="5:5">
-      <c r="E510" s="19"/>
+      <c r="E510" s="22"/>
     </row>
     <row r="511" customHeight="1" spans="5:5">
-      <c r="E511" s="19"/>
+      <c r="E511" s="22"/>
     </row>
     <row r="512" customHeight="1" spans="5:5">
-      <c r="E512" s="19"/>
+      <c r="E512" s="22"/>
     </row>
     <row r="513" customHeight="1" spans="5:5">
-      <c r="E513" s="19"/>
+      <c r="E513" s="22"/>
     </row>
     <row r="514" customHeight="1" spans="5:5">
-      <c r="E514" s="19"/>
+      <c r="E514" s="22"/>
     </row>
     <row r="515" customHeight="1" spans="5:5">
-      <c r="E515" s="19"/>
+      <c r="E515" s="22"/>
     </row>
     <row r="516" customHeight="1" spans="5:5">
-      <c r="E516" s="19"/>
+      <c r="E516" s="22"/>
     </row>
     <row r="517" customHeight="1" spans="5:5">
-      <c r="E517" s="19"/>
+      <c r="E517" s="22"/>
     </row>
     <row r="518" customHeight="1" spans="5:5">
-      <c r="E518" s="19"/>
+      <c r="E518" s="22"/>
     </row>
     <row r="519" customHeight="1" spans="5:5">
-      <c r="E519" s="19"/>
+      <c r="E519" s="22"/>
     </row>
     <row r="520" customHeight="1" spans="5:5">
-      <c r="E520" s="19"/>
+      <c r="E520" s="22"/>
     </row>
     <row r="521" customHeight="1" spans="5:5">
-      <c r="E521" s="19"/>
+      <c r="E521" s="22"/>
     </row>
     <row r="522" customHeight="1" spans="5:5">
-      <c r="E522" s="19"/>
+      <c r="E522" s="22"/>
     </row>
     <row r="523" customHeight="1" spans="5:5">
-      <c r="E523" s="19"/>
+      <c r="E523" s="22"/>
     </row>
     <row r="524" customHeight="1" spans="5:5">
-      <c r="E524" s="19"/>
+      <c r="E524" s="22"/>
     </row>
     <row r="525" customHeight="1" spans="5:5">
-      <c r="E525" s="19"/>
+      <c r="E525" s="22"/>
     </row>
     <row r="526" customHeight="1" spans="5:5">
-      <c r="E526" s="19"/>
+      <c r="E526" s="22"/>
     </row>
     <row r="527" customHeight="1" spans="5:5">
-      <c r="E527" s="19"/>
+      <c r="E527" s="22"/>
     </row>
     <row r="528" customHeight="1" spans="5:5">
-      <c r="E528" s="19"/>
+      <c r="E528" s="22"/>
     </row>
     <row r="529" customHeight="1" spans="5:5">
-      <c r="E529" s="19"/>
+      <c r="E529" s="22"/>
     </row>
     <row r="530" customHeight="1" spans="5:5">
-      <c r="E530" s="19"/>
+      <c r="E530" s="22"/>
     </row>
     <row r="531" customHeight="1" spans="5:5">
-      <c r="E531" s="19"/>
+      <c r="E531" s="22"/>
     </row>
     <row r="532" customHeight="1" spans="5:5">
-      <c r="E532" s="19"/>
+      <c r="E532" s="22"/>
     </row>
     <row r="533" customHeight="1" spans="5:5">
-      <c r="E533" s="19"/>
+      <c r="E533" s="22"/>
     </row>
     <row r="534" customHeight="1" spans="5:5">
-      <c r="E534" s="19"/>
+      <c r="E534" s="22"/>
     </row>
     <row r="535" customHeight="1" spans="5:5">
-      <c r="E535" s="19"/>
+      <c r="E535" s="22"/>
     </row>
     <row r="536" customHeight="1" spans="5:5">
-      <c r="E536" s="19"/>
+      <c r="E536" s="22"/>
     </row>
     <row r="537" customHeight="1" spans="5:5">
-      <c r="E537" s="19"/>
+      <c r="E537" s="22"/>
     </row>
     <row r="538" customHeight="1" spans="5:5">
-      <c r="E538" s="19"/>
+      <c r="E538" s="22"/>
     </row>
     <row r="539" customHeight="1" spans="5:5">
-      <c r="E539" s="19"/>
+      <c r="E539" s="22"/>
     </row>
     <row r="540" customHeight="1" spans="5:5">
-      <c r="E540" s="19"/>
+      <c r="E540" s="22"/>
     </row>
     <row r="541" customHeight="1" spans="5:5">
-      <c r="E541" s="19"/>
+      <c r="E541" s="22"/>
     </row>
     <row r="542" customHeight="1" spans="5:5">
-      <c r="E542" s="19"/>
+      <c r="E542" s="22"/>
     </row>
     <row r="543" customHeight="1" spans="5:5">
-      <c r="E543" s="19"/>
+      <c r="E543" s="22"/>
     </row>
     <row r="544" customHeight="1" spans="5:5">
-      <c r="E544" s="19"/>
+      <c r="E544" s="22"/>
     </row>
     <row r="545" customHeight="1" spans="5:5">
-      <c r="E545" s="19"/>
+      <c r="E545" s="22"/>
     </row>
     <row r="546" customHeight="1" spans="5:5">
-      <c r="E546" s="19"/>
+      <c r="E546" s="22"/>
     </row>
     <row r="547" customHeight="1" spans="5:5">
-      <c r="E547" s="19"/>
+      <c r="E547" s="22"/>
     </row>
     <row r="548" customHeight="1" spans="5:5">
-      <c r="E548" s="19"/>
+      <c r="E548" s="22"/>
     </row>
     <row r="549" customHeight="1" spans="5:5">
-      <c r="E549" s="19"/>
+      <c r="E549" s="22"/>
     </row>
     <row r="550" customHeight="1" spans="5:5">
-      <c r="E550" s="19"/>
+      <c r="E550" s="22"/>
     </row>
     <row r="551" customHeight="1" spans="5:5">
-      <c r="E551" s="19"/>
+      <c r="E551" s="22"/>
     </row>
     <row r="552" customHeight="1" spans="5:5">
-      <c r="E552" s="19"/>
+      <c r="E552" s="22"/>
     </row>
     <row r="553" customHeight="1" spans="5:5">
-      <c r="E553" s="19"/>
+      <c r="E553" s="22"/>
     </row>
     <row r="554" customHeight="1" spans="5:5">
-      <c r="E554" s="19"/>
+      <c r="E554" s="22"/>
     </row>
     <row r="555" customHeight="1" spans="5:5">
-      <c r="E555" s="19"/>
+      <c r="E555" s="22"/>
     </row>
     <row r="556" customHeight="1" spans="5:5">
-      <c r="E556" s="19"/>
+      <c r="E556" s="22"/>
     </row>
     <row r="557" customHeight="1" spans="5:5">
-      <c r="E557" s="19"/>
+      <c r="E557" s="22"/>
     </row>
     <row r="558" customHeight="1" spans="5:5">
-      <c r="E558" s="19"/>
+      <c r="E558" s="22"/>
     </row>
     <row r="559" customHeight="1" spans="5:5">
-      <c r="E559" s="19"/>
+      <c r="E559" s="22"/>
     </row>
     <row r="560" customHeight="1" spans="5:5">
-      <c r="E560" s="19"/>
+      <c r="E560" s="22"/>
     </row>
     <row r="561" customHeight="1" spans="5:5">
-      <c r="E561" s="19"/>
+      <c r="E561" s="22"/>
     </row>
     <row r="562" customHeight="1" spans="5:5">
-      <c r="E562" s="19"/>
+      <c r="E562" s="22"/>
     </row>
     <row r="563" customHeight="1" spans="5:5">
-      <c r="E563" s="19"/>
+      <c r="E563" s="22"/>
     </row>
     <row r="564" customHeight="1" spans="5:5">
-      <c r="E564" s="19"/>
+      <c r="E564" s="22"/>
     </row>
     <row r="565" customHeight="1" spans="5:5">
-      <c r="E565" s="19"/>
+      <c r="E565" s="22"/>
     </row>
     <row r="566" customHeight="1" spans="5:5">
-      <c r="E566" s="19"/>
+      <c r="E566" s="22"/>
     </row>
     <row r="567" customHeight="1" spans="5:5">
-      <c r="E567" s="19"/>
+      <c r="E567" s="22"/>
     </row>
     <row r="568" customHeight="1" spans="5:5">
-      <c r="E568" s="19"/>
+      <c r="E568" s="22"/>
     </row>
     <row r="569" customHeight="1" spans="5:5">
-      <c r="E569" s="19"/>
+      <c r="E569" s="22"/>
     </row>
     <row r="570" customHeight="1" spans="5:5">
-      <c r="E570" s="19"/>
+      <c r="E570" s="22"/>
     </row>
     <row r="571" customHeight="1" spans="5:5">
-      <c r="E571" s="19"/>
+      <c r="E571" s="22"/>
     </row>
     <row r="572" customHeight="1" spans="5:5">
-      <c r="E572" s="19"/>
+      <c r="E572" s="22"/>
     </row>
     <row r="573" customHeight="1" spans="5:5">
-      <c r="E573" s="19"/>
+      <c r="E573" s="22"/>
     </row>
     <row r="574" customHeight="1" spans="5:5">
-      <c r="E574" s="19"/>
+      <c r="E574" s="22"/>
     </row>
     <row r="575" customHeight="1" spans="5:5">
-      <c r="E575" s="19"/>
+      <c r="E575" s="22"/>
     </row>
     <row r="576" customHeight="1" spans="5:5">
-      <c r="E576" s="19"/>
+      <c r="E576" s="22"/>
     </row>
     <row r="577" customHeight="1" spans="5:5">
-      <c r="E577" s="19"/>
+      <c r="E577" s="22"/>
     </row>
     <row r="578" customHeight="1" spans="5:5">
-      <c r="E578" s="19"/>
+      <c r="E578" s="22"/>
     </row>
     <row r="579" customHeight="1" spans="5:5">
-      <c r="E579" s="19"/>
+      <c r="E579" s="22"/>
     </row>
     <row r="580" customHeight="1" spans="5:5">
-      <c r="E580" s="19"/>
+      <c r="E580" s="22"/>
     </row>
     <row r="581" customHeight="1" spans="5:5">
-      <c r="E581" s="19"/>
+      <c r="E581" s="22"/>
     </row>
     <row r="582" customHeight="1" spans="5:5">
-      <c r="E582" s="19"/>
+      <c r="E582" s="22"/>
     </row>
     <row r="583" customHeight="1" spans="5:5">
-      <c r="E583" s="19"/>
+      <c r="E583" s="22"/>
     </row>
     <row r="584" customHeight="1" spans="5:5">
-      <c r="E584" s="19"/>
+      <c r="E584" s="22"/>
     </row>
     <row r="585" customHeight="1" spans="5:5">
-      <c r="E585" s="19"/>
+      <c r="E585" s="22"/>
     </row>
     <row r="586" customHeight="1" spans="5:5">
-      <c r="E586" s="19"/>
+      <c r="E586" s="22"/>
     </row>
     <row r="587" customHeight="1" spans="5:5">
-      <c r="E587" s="19"/>
+      <c r="E587" s="22"/>
     </row>
     <row r="588" customHeight="1" spans="5:5">
-      <c r="E588" s="19"/>
+      <c r="E588" s="22"/>
     </row>
     <row r="589" customHeight="1" spans="5:5">
-      <c r="E589" s="19"/>
+      <c r="E589" s="22"/>
     </row>
     <row r="590" customHeight="1" spans="5:5">
-      <c r="E590" s="19"/>
+      <c r="E590" s="22"/>
     </row>
     <row r="591" customHeight="1" spans="5:5">
-      <c r="E591" s="19"/>
+      <c r="E591" s="22"/>
     </row>
     <row r="592" customHeight="1" spans="5:5">
-      <c r="E592" s="19"/>
+      <c r="E592" s="22"/>
     </row>
     <row r="593" customHeight="1" spans="5:5">
-      <c r="E593" s="19"/>
+      <c r="E593" s="22"/>
     </row>
     <row r="594" customHeight="1" spans="5:5">
-      <c r="E594" s="19"/>
+      <c r="E594" s="22"/>
     </row>
     <row r="595" customHeight="1" spans="5:5">
-      <c r="E595" s="19"/>
+      <c r="E595" s="22"/>
     </row>
     <row r="596" customHeight="1" spans="5:5">
-      <c r="E596" s="19"/>
+      <c r="E596" s="22"/>
     </row>
     <row r="597" customHeight="1" spans="5:5">
-      <c r="E597" s="19"/>
+      <c r="E597" s="22"/>
     </row>
     <row r="598" customHeight="1" spans="5:5">
-      <c r="E598" s="19"/>
+      <c r="E598" s="22"/>
     </row>
     <row r="599" customHeight="1" spans="5:5">
-      <c r="E599" s="19"/>
+      <c r="E599" s="22"/>
     </row>
     <row r="600" customHeight="1" spans="5:5">
-      <c r="E600" s="19"/>
+      <c r="E600" s="22"/>
     </row>
     <row r="601" customHeight="1" spans="5:5">
-      <c r="E601" s="19"/>
+      <c r="E601" s="22"/>
     </row>
     <row r="602" customHeight="1" spans="5:5">
-      <c r="E602" s="19"/>
+      <c r="E602" s="22"/>
     </row>
     <row r="603" customHeight="1" spans="5:5">
-      <c r="E603" s="19"/>
+      <c r="E603" s="22"/>
     </row>
     <row r="604" customHeight="1" spans="5:5">
-      <c r="E604" s="19"/>
+      <c r="E604" s="22"/>
     </row>
     <row r="605" customHeight="1" spans="5:5">
-      <c r="E605" s="19"/>
+      <c r="E605" s="22"/>
     </row>
     <row r="606" customHeight="1" spans="5:5">
-      <c r="E606" s="19"/>
+      <c r="E606" s="22"/>
     </row>
     <row r="607" customHeight="1" spans="5:5">
-      <c r="E607" s="19"/>
+      <c r="E607" s="22"/>
     </row>
     <row r="608" customHeight="1" spans="5:5">
-      <c r="E608" s="19"/>
+      <c r="E608" s="22"/>
     </row>
     <row r="609" customHeight="1" spans="5:5">
-      <c r="E609" s="19"/>
+      <c r="E609" s="22"/>
     </row>
     <row r="610" customHeight="1" spans="5:5">
-      <c r="E610" s="19"/>
+      <c r="E610" s="22"/>
     </row>
     <row r="611" customHeight="1" spans="5:5">
-      <c r="E611" s="19"/>
+      <c r="E611" s="22"/>
     </row>
     <row r="612" customHeight="1" spans="5:5">
-      <c r="E612" s="19"/>
+      <c r="E612" s="22"/>
     </row>
     <row r="613" customHeight="1" spans="5:5">
-      <c r="E613" s="19"/>
+      <c r="E613" s="22"/>
     </row>
     <row r="614" customHeight="1" spans="5:5">
-      <c r="E614" s="19"/>
+      <c r="E614" s="22"/>
     </row>
     <row r="615" customHeight="1" spans="5:5">
-      <c r="E615" s="19"/>
+      <c r="E615" s="22"/>
     </row>
     <row r="616" customHeight="1" spans="5:5">
-      <c r="E616" s="19"/>
+      <c r="E616" s="22"/>
     </row>
     <row r="617" customHeight="1" spans="5:5">
-      <c r="E617" s="19"/>
+      <c r="E617" s="22"/>
     </row>
     <row r="618" customHeight="1" spans="5:5">
-      <c r="E618" s="19"/>
+      <c r="E618" s="22"/>
     </row>
     <row r="619" customHeight="1" spans="5:5">
-      <c r="E619" s="19"/>
+      <c r="E619" s="22"/>
     </row>
     <row r="620" customHeight="1" spans="5:5">
-      <c r="E620" s="19"/>
+      <c r="E620" s="22"/>
     </row>
     <row r="621" customHeight="1" spans="5:5">
-      <c r="E621" s="19"/>
+      <c r="E621" s="22"/>
     </row>
     <row r="622" customHeight="1" spans="5:5">
-      <c r="E622" s="19"/>
+      <c r="E622" s="22"/>
     </row>
     <row r="623" customHeight="1" spans="5:5">
-      <c r="E623" s="19"/>
+      <c r="E623" s="22"/>
     </row>
     <row r="624" customHeight="1" spans="5:5">
-      <c r="E624" s="19"/>
+      <c r="E624" s="22"/>
     </row>
     <row r="625" customHeight="1" spans="5:5">
-      <c r="E625" s="19"/>
+      <c r="E625" s="22"/>
     </row>
     <row r="626" customHeight="1" spans="5:5">
-      <c r="E626" s="19"/>
+      <c r="E626" s="22"/>
     </row>
     <row r="627" customHeight="1" spans="5:5">
-      <c r="E627" s="19"/>
+      <c r="E627" s="22"/>
     </row>
     <row r="628" customHeight="1" spans="5:5">
-      <c r="E628" s="19"/>
+      <c r="E628" s="22"/>
     </row>
     <row r="629" customHeight="1" spans="5:5">
-      <c r="E629" s="19"/>
+      <c r="E629" s="22"/>
     </row>
     <row r="630" customHeight="1" spans="5:5">
-      <c r="E630" s="19"/>
+      <c r="E630" s="22"/>
     </row>
     <row r="631" customHeight="1" spans="5:5">
-      <c r="E631" s="19"/>
+      <c r="E631" s="22"/>
     </row>
     <row r="632" customHeight="1" spans="5:5">
-      <c r="E632" s="19"/>
+      <c r="E632" s="22"/>
     </row>
     <row r="633" customHeight="1" spans="5:5">
-      <c r="E633" s="19"/>
+      <c r="E633" s="22"/>
     </row>
     <row r="634" customHeight="1" spans="5:5">
-      <c r="E634" s="19"/>
+      <c r="E634" s="22"/>
     </row>
     <row r="635" customHeight="1" spans="5:5">
-      <c r="E635" s="19"/>
+      <c r="E635" s="22"/>
     </row>
     <row r="636" customHeight="1" spans="5:5">
-      <c r="E636" s="19"/>
+      <c r="E636" s="22"/>
     </row>
     <row r="637" customHeight="1" spans="5:5">
-      <c r="E637" s="19"/>
+      <c r="E637" s="22"/>
     </row>
     <row r="638" customHeight="1" spans="5:5">
-      <c r="E638" s="19"/>
+      <c r="E638" s="22"/>
     </row>
     <row r="639" customHeight="1" spans="5:5">
-      <c r="E639" s="19"/>
+      <c r="E639" s="22"/>
     </row>
     <row r="640" customHeight="1" spans="5:5">
-      <c r="E640" s="19"/>
+      <c r="E640" s="22"/>
     </row>
     <row r="641" customHeight="1" spans="5:5">
-      <c r="E641" s="19"/>
+      <c r="E641" s="22"/>
     </row>
     <row r="642" customHeight="1" spans="5:5">
-      <c r="E642" s="19"/>
+      <c r="E642" s="22"/>
     </row>
     <row r="643" customHeight="1" spans="5:5">
-      <c r="E643" s="19"/>
+      <c r="E643" s="22"/>
     </row>
     <row r="644" customHeight="1" spans="5:5">
-      <c r="E644" s="19"/>
+      <c r="E644" s="22"/>
     </row>
     <row r="645" customHeight="1" spans="5:5">
-      <c r="E645" s="19"/>
+      <c r="E645" s="22"/>
     </row>
     <row r="646" customHeight="1" spans="5:5">
-      <c r="E646" s="19"/>
+      <c r="E646" s="22"/>
     </row>
     <row r="647" customHeight="1" spans="5:5">
-      <c r="E647" s="19"/>
+      <c r="E647" s="22"/>
     </row>
     <row r="648" customHeight="1" spans="5:5">
-      <c r="E648" s="19"/>
+      <c r="E648" s="22"/>
     </row>
     <row r="649" customHeight="1" spans="5:5">
-      <c r="E649" s="19"/>
+      <c r="E649" s="22"/>
     </row>
     <row r="650" customHeight="1" spans="5:5">
-      <c r="E650" s="19"/>
+      <c r="E650" s="22"/>
     </row>
     <row r="651" customHeight="1" spans="5:5">
-      <c r="E651" s="19"/>
+      <c r="E651" s="22"/>
     </row>
     <row r="652" customHeight="1" spans="5:5">
-      <c r="E652" s="19"/>
+      <c r="E652" s="22"/>
     </row>
     <row r="653" customHeight="1" spans="5:5">
-      <c r="E653" s="19"/>
+      <c r="E653" s="22"/>
     </row>
     <row r="654" customHeight="1" spans="5:5">
-      <c r="E654" s="19"/>
+      <c r="E654" s="22"/>
     </row>
     <row r="655" customHeight="1" spans="5:5">
-      <c r="E655" s="19"/>
+      <c r="E655" s="22"/>
     </row>
     <row r="656" customHeight="1" spans="5:5">
-      <c r="E656" s="19"/>
+      <c r="E656" s="22"/>
     </row>
     <row r="657" customHeight="1" spans="5:5">
-      <c r="E657" s="19"/>
+      <c r="E657" s="22"/>
     </row>
     <row r="658" customHeight="1" spans="5:5">
-      <c r="E658" s="19"/>
+      <c r="E658" s="22"/>
     </row>
     <row r="659" customHeight="1" spans="5:5">
-      <c r="E659" s="19"/>
+      <c r="E659" s="22"/>
     </row>
     <row r="660" customHeight="1" spans="5:5">
-      <c r="E660" s="19"/>
+      <c r="E660" s="22"/>
     </row>
     <row r="661" customHeight="1" spans="5:5">
-      <c r="E661" s="19"/>
+      <c r="E661" s="22"/>
     </row>
     <row r="662" customHeight="1" spans="5:5">
-      <c r="E662" s="19"/>
+      <c r="E662" s="22"/>
     </row>
     <row r="663" customHeight="1" spans="5:5">
-      <c r="E663" s="19"/>
+      <c r="E663" s="22"/>
     </row>
     <row r="664" customHeight="1" spans="5:5">
-      <c r="E664" s="19"/>
+      <c r="E664" s="22"/>
     </row>
     <row r="665" customHeight="1" spans="5:5">
-      <c r="E665" s="19"/>
+      <c r="E665" s="22"/>
     </row>
     <row r="666" customHeight="1" spans="5:5">
-      <c r="E666" s="19"/>
+      <c r="E666" s="22"/>
     </row>
     <row r="667" customHeight="1" spans="5:5">
-      <c r="E667" s="19"/>
+      <c r="E667" s="22"/>
     </row>
     <row r="668" customHeight="1" spans="5:5">
-      <c r="E668" s="19"/>
+      <c r="E668" s="22"/>
     </row>
     <row r="669" customHeight="1" spans="5:5">
-      <c r="E669" s="19"/>
+      <c r="E669" s="22"/>
     </row>
     <row r="670" customHeight="1" spans="5:5">
-      <c r="E670" s="19"/>
+      <c r="E670" s="22"/>
     </row>
     <row r="671" customHeight="1" spans="5:5">
-      <c r="E671" s="19"/>
+      <c r="E671" s="22"/>
     </row>
     <row r="672" customHeight="1" spans="5:5">
-      <c r="E672" s="19"/>
+      <c r="E672" s="22"/>
     </row>
     <row r="673" customHeight="1" spans="5:5">
-      <c r="E673" s="19"/>
+      <c r="E673" s="22"/>
     </row>
     <row r="674" customHeight="1" spans="5:5">
-      <c r="E674" s="19"/>
+      <c r="E674" s="22"/>
     </row>
     <row r="675" customHeight="1" spans="5:5">
-      <c r="E675" s="19"/>
+      <c r="E675" s="22"/>
     </row>
     <row r="676" customHeight="1" spans="5:5">
-      <c r="E676" s="19"/>
+      <c r="E676" s="22"/>
     </row>
     <row r="677" customHeight="1" spans="5:5">
-      <c r="E677" s="19"/>
+      <c r="E677" s="22"/>
     </row>
     <row r="678" customHeight="1" spans="5:5">
-      <c r="E678" s="19"/>
+      <c r="E678" s="22"/>
     </row>
     <row r="679" customHeight="1" spans="5:5">
-      <c r="E679" s="19"/>
+      <c r="E679" s="22"/>
     </row>
     <row r="680" customHeight="1" spans="5:5">
-      <c r="E680" s="19"/>
+      <c r="E680" s="22"/>
     </row>
     <row r="681" customHeight="1" spans="5:5">
-      <c r="E681" s="19"/>
+      <c r="E681" s="22"/>
     </row>
     <row r="682" customHeight="1" spans="5:5">
-      <c r="E682" s="19"/>
+      <c r="E682" s="22"/>
     </row>
     <row r="683" customHeight="1" spans="5:5">
-      <c r="E683" s="19"/>
+      <c r="E683" s="22"/>
     </row>
     <row r="684" customHeight="1" spans="5:5">
-      <c r="E684" s="19"/>
+      <c r="E684" s="22"/>
     </row>
     <row r="685" customHeight="1" spans="5:5">
-      <c r="E685" s="19"/>
+      <c r="E685" s="22"/>
     </row>
     <row r="686" customHeight="1" spans="5:5">
-      <c r="E686" s="19"/>
+      <c r="E686" s="22"/>
     </row>
     <row r="687" customHeight="1" spans="5:5">
-      <c r="E687" s="19"/>
+      <c r="E687" s="22"/>
     </row>
     <row r="688" customHeight="1" spans="5:5">
-      <c r="E688" s="19"/>
+      <c r="E688" s="22"/>
     </row>
     <row r="689" customHeight="1" spans="5:5">
-      <c r="E689" s="19"/>
+      <c r="E689" s="22"/>
     </row>
     <row r="690" customHeight="1" spans="5:5">
-      <c r="E690" s="19"/>
+      <c r="E690" s="22"/>
     </row>
     <row r="691" customHeight="1" spans="5:5">
-      <c r="E691" s="19"/>
+      <c r="E691" s="22"/>
     </row>
     <row r="692" customHeight="1" spans="5:5">
-      <c r="E692" s="19"/>
+      <c r="E692" s="22"/>
     </row>
     <row r="693" customHeight="1" spans="5:5">
-      <c r="E693" s="19"/>
+      <c r="E693" s="22"/>
     </row>
     <row r="694" customHeight="1" spans="5:5">
-      <c r="E694" s="19"/>
+      <c r="E694" s="22"/>
     </row>
     <row r="695" customHeight="1" spans="5:5">
-      <c r="E695" s="19"/>
+      <c r="E695" s="22"/>
     </row>
     <row r="696" customHeight="1" spans="5:5">
-      <c r="E696" s="19"/>
+      <c r="E696" s="22"/>
     </row>
     <row r="697" customHeight="1" spans="5:5">
-      <c r="E697" s="19"/>
+      <c r="E697" s="22"/>
     </row>
     <row r="698" customHeight="1" spans="5:5">
-      <c r="E698" s="19"/>
+      <c r="E698" s="22"/>
     </row>
     <row r="699" customHeight="1" spans="5:5">
-      <c r="E699" s="19"/>
+      <c r="E699" s="22"/>
     </row>
     <row r="700" customHeight="1" spans="5:5">
-      <c r="E700" s="19"/>
+      <c r="E700" s="22"/>
     </row>
     <row r="701" customHeight="1" spans="5:5">
-      <c r="E701" s="19"/>
+      <c r="E701" s="22"/>
     </row>
     <row r="702" customHeight="1" spans="5:5">
-      <c r="E702" s="19"/>
+      <c r="E702" s="22"/>
     </row>
     <row r="703" customHeight="1" spans="5:5">
-      <c r="E703" s="19"/>
+      <c r="E703" s="22"/>
     </row>
     <row r="704" customHeight="1" spans="5:5">
-      <c r="E704" s="19"/>
+      <c r="E704" s="22"/>
     </row>
     <row r="705" customHeight="1" spans="5:5">
-      <c r="E705" s="19"/>
+      <c r="E705" s="22"/>
     </row>
     <row r="706" customHeight="1" spans="5:5">
-      <c r="E706" s="19"/>
+      <c r="E706" s="22"/>
     </row>
     <row r="707" customHeight="1" spans="5:5">
-      <c r="E707" s="19"/>
+      <c r="E707" s="22"/>
     </row>
     <row r="708" customHeight="1" spans="5:5">
-      <c r="E708" s="19"/>
+      <c r="E708" s="22"/>
     </row>
     <row r="709" customHeight="1" spans="5:5">
-      <c r="E709" s="19"/>
+      <c r="E709" s="22"/>
     </row>
     <row r="710" customHeight="1" spans="5:5">
-      <c r="E710" s="19"/>
+      <c r="E710" s="22"/>
     </row>
     <row r="711" customHeight="1" spans="5:5">
-      <c r="E711" s="19"/>
+      <c r="E711" s="22"/>
     </row>
     <row r="712" customHeight="1" spans="5:5">
-      <c r="E712" s="19"/>
+      <c r="E712" s="22"/>
     </row>
     <row r="713" customHeight="1" spans="5:5">
-      <c r="E713" s="19"/>
+      <c r="E713" s="22"/>
     </row>
     <row r="714" customHeight="1" spans="5:5">
-      <c r="E714" s="19"/>
+      <c r="E714" s="22"/>
     </row>
     <row r="715" customHeight="1" spans="5:5">
-      <c r="E715" s="19"/>
+      <c r="E715" s="22"/>
     </row>
     <row r="716" customHeight="1" spans="5:5">
-      <c r="E716" s="19"/>
+      <c r="E716" s="22"/>
     </row>
     <row r="717" customHeight="1" spans="5:5">
-      <c r="E717" s="19"/>
+      <c r="E717" s="22"/>
     </row>
     <row r="718" customHeight="1" spans="5:5">
-      <c r="E718" s="19"/>
+      <c r="E718" s="22"/>
     </row>
     <row r="719" customHeight="1" spans="5:5">
-      <c r="E719" s="19"/>
+      <c r="E719" s="22"/>
     </row>
     <row r="720" customHeight="1" spans="5:5">
-      <c r="E720" s="19"/>
+      <c r="E720" s="22"/>
     </row>
     <row r="721" customHeight="1" spans="5:5">
-      <c r="E721" s="19"/>
+      <c r="E721" s="22"/>
     </row>
     <row r="722" customHeight="1" spans="5:5">
-      <c r="E722" s="19"/>
+      <c r="E722" s="22"/>
     </row>
     <row r="723" customHeight="1" spans="5:5">
-      <c r="E723" s="19"/>
+      <c r="E723" s="22"/>
     </row>
     <row r="724" customHeight="1" spans="5:5">
-      <c r="E724" s="19"/>
+      <c r="E724" s="22"/>
     </row>
     <row r="725" customHeight="1" spans="5:5">
-      <c r="E725" s="19"/>
+      <c r="E725" s="22"/>
     </row>
     <row r="726" customHeight="1" spans="5:5">
-      <c r="E726" s="19"/>
+      <c r="E726" s="22"/>
     </row>
     <row r="727" customHeight="1" spans="5:5">
-      <c r="E727" s="19"/>
+      <c r="E727" s="22"/>
     </row>
     <row r="728" customHeight="1" spans="5:5">
-      <c r="E728" s="19"/>
+      <c r="E728" s="22"/>
     </row>
     <row r="729" customHeight="1" spans="5:5">
-      <c r="E729" s="19"/>
+      <c r="E729" s="22"/>
     </row>
     <row r="730" customHeight="1" spans="5:5">
-      <c r="E730" s="19"/>
+      <c r="E730" s="22"/>
     </row>
     <row r="731" customHeight="1" spans="5:5">
-      <c r="E731" s="19"/>
+      <c r="E731" s="22"/>
     </row>
     <row r="732" customHeight="1" spans="5:5">
-      <c r="E732" s="19"/>
+      <c r="E732" s="22"/>
     </row>
     <row r="733" customHeight="1" spans="5:5">
-      <c r="E733" s="19"/>
+      <c r="E733" s="22"/>
     </row>
     <row r="734" customHeight="1" spans="5:5">
-      <c r="E734" s="19"/>
+      <c r="E734" s="22"/>
     </row>
     <row r="735" customHeight="1" spans="5:5">
-      <c r="E735" s="19"/>
+      <c r="E735" s="22"/>
     </row>
     <row r="736" customHeight="1" spans="5:5">
-      <c r="E736" s="19"/>
+      <c r="E736" s="22"/>
     </row>
     <row r="737" customHeight="1" spans="5:5">
-      <c r="E737" s="19"/>
+      <c r="E737" s="22"/>
     </row>
     <row r="738" customHeight="1" spans="5:5">
-      <c r="E738" s="19"/>
+      <c r="E738" s="22"/>
     </row>
     <row r="739" customHeight="1" spans="5:5">
-      <c r="E739" s="19"/>
+      <c r="E739" s="22"/>
     </row>
     <row r="740" customHeight="1" spans="5:5">
-      <c r="E740" s="19"/>
+      <c r="E740" s="22"/>
     </row>
     <row r="741" customHeight="1" spans="5:5">
-      <c r="E741" s="19"/>
+      <c r="E741" s="22"/>
     </row>
     <row r="742" customHeight="1" spans="5:5">
-      <c r="E742" s="19"/>
+      <c r="E742" s="22"/>
     </row>
     <row r="743" customHeight="1" spans="5:5">
-      <c r="E743" s="19"/>
+      <c r="E743" s="22"/>
     </row>
     <row r="744" customHeight="1" spans="5:5">
-      <c r="E744" s="19"/>
+      <c r="E744" s="22"/>
     </row>
     <row r="745" customHeight="1" spans="5:5">
-      <c r="E745" s="19"/>
+      <c r="E745" s="22"/>
     </row>
     <row r="746" customHeight="1" spans="5:5">
-      <c r="E746" s="19"/>
+      <c r="E746" s="22"/>
     </row>
     <row r="747" customHeight="1" spans="5:5">
-      <c r="E747" s="19"/>
+      <c r="E747" s="22"/>
     </row>
     <row r="748" customHeight="1" spans="5:5">
-      <c r="E748" s="19"/>
+      <c r="E748" s="22"/>
     </row>
     <row r="749" customHeight="1" spans="5:5">
-      <c r="E749" s="19"/>
+      <c r="E749" s="22"/>
     </row>
     <row r="750" customHeight="1" spans="5:5">
-      <c r="E750" s="19"/>
+      <c r="E750" s="22"/>
     </row>
     <row r="751" customHeight="1" spans="5:5">
-      <c r="E751" s="19"/>
+      <c r="E751" s="22"/>
     </row>
     <row r="752" customHeight="1" spans="5:5">
-      <c r="E752" s="19"/>
+      <c r="E752" s="22"/>
     </row>
     <row r="753" customHeight="1" spans="5:5">
-      <c r="E753" s="19"/>
+      <c r="E753" s="22"/>
     </row>
     <row r="754" customHeight="1" spans="5:5">
-      <c r="E754" s="19"/>
+      <c r="E754" s="22"/>
     </row>
     <row r="755" customHeight="1" spans="5:5">
-      <c r="E755" s="19"/>
+      <c r="E755" s="22"/>
     </row>
     <row r="756" customHeight="1" spans="5:5">
-      <c r="E756" s="19"/>
+      <c r="E756" s="22"/>
     </row>
     <row r="757" customHeight="1" spans="5:5">
-      <c r="E757" s="19"/>
+      <c r="E757" s="22"/>
     </row>
     <row r="758" customHeight="1" spans="5:5">
-      <c r="E758" s="19"/>
+      <c r="E758" s="22"/>
     </row>
     <row r="759" customHeight="1" spans="5:5">
-      <c r="E759" s="19"/>
+      <c r="E759" s="22"/>
     </row>
     <row r="760" customHeight="1" spans="5:5">
-      <c r="E760" s="19"/>
+      <c r="E760" s="22"/>
     </row>
     <row r="761" customHeight="1" spans="5:5">
-      <c r="E761" s="19"/>
+      <c r="E761" s="22"/>
     </row>
     <row r="762" customHeight="1" spans="5:5">
-      <c r="E762" s="19"/>
+      <c r="E762" s="22"/>
     </row>
     <row r="763" customHeight="1" spans="5:5">
-      <c r="E763" s="19"/>
+      <c r="E763" s="22"/>
     </row>
     <row r="764" customHeight="1" spans="5:5">
-      <c r="E764" s="19"/>
+      <c r="E764" s="22"/>
     </row>
     <row r="765" customHeight="1" spans="5:5">
-      <c r="E765" s="19"/>
+      <c r="E765" s="22"/>
     </row>
     <row r="766" customHeight="1" spans="5:5">
-      <c r="E766" s="19"/>
+      <c r="E766" s="22"/>
     </row>
     <row r="767" customHeight="1" spans="5:5">
-      <c r="E767" s="19"/>
+      <c r="E767" s="22"/>
     </row>
     <row r="768" customHeight="1" spans="5:5">
-      <c r="E768" s="19"/>
+      <c r="E768" s="22"/>
     </row>
     <row r="769" customHeight="1" spans="5:5">
-      <c r="E769" s="19"/>
+      <c r="E769" s="22"/>
     </row>
     <row r="770" customHeight="1" spans="5:5">
-      <c r="E770" s="19"/>
+      <c r="E770" s="22"/>
     </row>
     <row r="771" customHeight="1" spans="5:5">
-      <c r="E771" s="19"/>
+      <c r="E771" s="22"/>
     </row>
     <row r="772" customHeight="1" spans="5:5">
-      <c r="E772" s="19"/>
+      <c r="E772" s="22"/>
     </row>
     <row r="773" customHeight="1" spans="5:5">
-      <c r="E773" s="19"/>
+      <c r="E773" s="22"/>
     </row>
     <row r="774" customHeight="1" spans="5:5">
-      <c r="E774" s="19"/>
+      <c r="E774" s="22"/>
     </row>
     <row r="775" customHeight="1" spans="5:5">
-      <c r="E775" s="19"/>
+      <c r="E775" s="22"/>
     </row>
     <row r="776" customHeight="1" spans="5:5">
-      <c r="E776" s="19"/>
+      <c r="E776" s="22"/>
     </row>
     <row r="777" customHeight="1" spans="5:5">
-      <c r="E777" s="19"/>
+      <c r="E777" s="22"/>
     </row>
     <row r="778" customHeight="1" spans="5:5">
-      <c r="E778" s="19"/>
+      <c r="E778" s="22"/>
     </row>
     <row r="779" customHeight="1" spans="5:5">
-      <c r="E779" s="19"/>
+      <c r="E779" s="22"/>
     </row>
     <row r="780" customHeight="1" spans="5:5">
-      <c r="E780" s="19"/>
+      <c r="E780" s="22"/>
     </row>
     <row r="781" customHeight="1" spans="5:5">
-      <c r="E781" s="19"/>
+      <c r="E781" s="22"/>
     </row>
     <row r="782" customHeight="1" spans="5:5">
-      <c r="E782" s="19"/>
+      <c r="E782" s="22"/>
     </row>
     <row r="783" customHeight="1" spans="5:5">
-      <c r="E783" s="19"/>
+      <c r="E783" s="22"/>
     </row>
     <row r="784" customHeight="1" spans="5:5">
-      <c r="E784" s="19"/>
+      <c r="E784" s="22"/>
     </row>
     <row r="785" customHeight="1" spans="5:5">
-      <c r="E785" s="19"/>
+      <c r="E785" s="22"/>
     </row>
     <row r="786" customHeight="1" spans="5:5">
-      <c r="E786" s="19"/>
+      <c r="E786" s="22"/>
     </row>
     <row r="787" customHeight="1" spans="5:5">
-      <c r="E787" s="19"/>
+      <c r="E787" s="22"/>
     </row>
     <row r="788" customHeight="1" spans="5:5">
-      <c r="E788" s="19"/>
+      <c r="E788" s="22"/>
     </row>
     <row r="789" customHeight="1" spans="5:5">
-      <c r="E789" s="19"/>
+      <c r="E789" s="22"/>
     </row>
     <row r="790" customHeight="1" spans="5:5">
-      <c r="E790" s="19"/>
+      <c r="E790" s="22"/>
     </row>
     <row r="791" customHeight="1" spans="5:5">
-      <c r="E791" s="19"/>
+      <c r="E791" s="22"/>
     </row>
     <row r="792" customHeight="1" spans="5:5">
-      <c r="E792" s="19"/>
+      <c r="E792" s="22"/>
     </row>
     <row r="793" customHeight="1" spans="5:5">
-      <c r="E793" s="19"/>
+      <c r="E793" s="22"/>
     </row>
     <row r="794" customHeight="1" spans="5:5">
-      <c r="E794" s="19"/>
+      <c r="E794" s="22"/>
     </row>
     <row r="795" customHeight="1" spans="5:5">
-      <c r="E795" s="19"/>
+      <c r="E795" s="22"/>
     </row>
     <row r="796" customHeight="1" spans="5:5">
-      <c r="E796" s="19"/>
+      <c r="E796" s="22"/>
     </row>
     <row r="797" customHeight="1" spans="5:5">
-      <c r="E797" s="19"/>
+      <c r="E797" s="22"/>
     </row>
     <row r="798" customHeight="1" spans="5:5">
-      <c r="E798" s="19"/>
+      <c r="E798" s="22"/>
     </row>
     <row r="799" customHeight="1" spans="5:5">
-      <c r="E799" s="19"/>
+      <c r="E799" s="22"/>
     </row>
     <row r="800" customHeight="1" spans="5:5">
-      <c r="E800" s="19"/>
+      <c r="E800" s="22"/>
     </row>
     <row r="801" customHeight="1" spans="5:5">
-      <c r="E801" s="19"/>
+      <c r="E801" s="22"/>
     </row>
     <row r="802" customHeight="1" spans="5:5">
-      <c r="E802" s="19"/>
+      <c r="E802" s="22"/>
     </row>
     <row r="803" customHeight="1" spans="5:5">
-      <c r="E803" s="19"/>
+      <c r="E803" s="22"/>
     </row>
     <row r="804" customHeight="1" spans="5:5">
-      <c r="E804" s="19"/>
+      <c r="E804" s="22"/>
     </row>
     <row r="805" customHeight="1" spans="5:5">
-      <c r="E805" s="19"/>
+      <c r="E805" s="22"/>
     </row>
     <row r="806" customHeight="1" spans="5:5">
-      <c r="E806" s="19"/>
+      <c r="E806" s="22"/>
     </row>
     <row r="807" customHeight="1" spans="5:5">
-      <c r="E807" s="19"/>
+      <c r="E807" s="22"/>
     </row>
     <row r="808" customHeight="1" spans="5:5">
-      <c r="E808" s="19"/>
+      <c r="E808" s="22"/>
     </row>
     <row r="809" customHeight="1" spans="5:5">
-      <c r="E809" s="19"/>
+      <c r="E809" s="22"/>
     </row>
     <row r="810" customHeight="1" spans="5:5">
-      <c r="E810" s="19"/>
+      <c r="E810" s="22"/>
     </row>
     <row r="811" customHeight="1" spans="5:5">
-      <c r="E811" s="19"/>
+      <c r="E811" s="22"/>
     </row>
     <row r="812" customHeight="1" spans="5:5">
-      <c r="E812" s="19"/>
+      <c r="E812" s="22"/>
     </row>
     <row r="813" customHeight="1" spans="5:5">
-      <c r="E813" s="19"/>
+      <c r="E813" s="22"/>
     </row>
     <row r="814" customHeight="1" spans="5:5">
-      <c r="E814" s="19"/>
+      <c r="E814" s="22"/>
     </row>
     <row r="815" customHeight="1" spans="5:5">
-      <c r="E815" s="19"/>
+      <c r="E815" s="22"/>
     </row>
     <row r="816" customHeight="1" spans="5:5">
-      <c r="E816" s="19"/>
+      <c r="E816" s="22"/>
     </row>
     <row r="817" customHeight="1" spans="5:5">
-      <c r="E817" s="19"/>
+      <c r="E817" s="22"/>
     </row>
     <row r="818" customHeight="1" spans="5:5">
-      <c r="E818" s="19"/>
+      <c r="E818" s="22"/>
     </row>
     <row r="819" customHeight="1" spans="5:5">
-      <c r="E819" s="19"/>
+      <c r="E819" s="22"/>
     </row>
     <row r="820" customHeight="1" spans="5:5">
-      <c r="E820" s="19"/>
+      <c r="E820" s="22"/>
     </row>
     <row r="821" customHeight="1" spans="5:5">
-      <c r="E821" s="19"/>
+      <c r="E821" s="22"/>
     </row>
     <row r="822" customHeight="1" spans="5:5">
-      <c r="E822" s="19"/>
+      <c r="E822" s="22"/>
     </row>
     <row r="823" customHeight="1" spans="5:5">
-      <c r="E823" s="19"/>
+      <c r="E823" s="22"/>
     </row>
     <row r="824" customHeight="1" spans="5:5">
-      <c r="E824" s="19"/>
+      <c r="E824" s="22"/>
     </row>
     <row r="825" customHeight="1" spans="5:5">
-      <c r="E825" s="19"/>
+      <c r="E825" s="22"/>
     </row>
     <row r="826" customHeight="1" spans="5:5">
-      <c r="E826" s="19"/>
+      <c r="E826" s="22"/>
     </row>
     <row r="827" customHeight="1" spans="5:5">
-      <c r="E827" s="19"/>
+      <c r="E827" s="22"/>
     </row>
     <row r="828" customHeight="1" spans="5:5">
-      <c r="E828" s="19"/>
+      <c r="E828" s="22"/>
     </row>
     <row r="829" customHeight="1" spans="5:5">
-      <c r="E829" s="19"/>
+      <c r="E829" s="22"/>
     </row>
     <row r="830" customHeight="1" spans="5:5">
-      <c r="E830" s="19"/>
+      <c r="E830" s="22"/>
     </row>
     <row r="831" customHeight="1" spans="5:5">
-      <c r="E831" s="19"/>
+      <c r="E831" s="22"/>
     </row>
     <row r="832" customHeight="1" spans="5:5">
-      <c r="E832" s="19"/>
+      <c r="E832" s="22"/>
     </row>
     <row r="833" customHeight="1" spans="5:5">
-      <c r="E833" s="19"/>
+      <c r="E833" s="22"/>
     </row>
     <row r="834" customHeight="1" spans="5:5">
-      <c r="E834" s="19"/>
+      <c r="E834" s="22"/>
     </row>
     <row r="835" customHeight="1" spans="5:5">
-      <c r="E835" s="19"/>
+      <c r="E835" s="22"/>
     </row>
     <row r="836" customHeight="1" spans="5:5">
-      <c r="E836" s="19"/>
+      <c r="E836" s="22"/>
     </row>
     <row r="837" customHeight="1" spans="5:5">
-      <c r="E837" s="19"/>
+      <c r="E837" s="22"/>
     </row>
     <row r="838" customHeight="1" spans="5:5">
-      <c r="E838" s="19"/>
+      <c r="E838" s="22"/>
     </row>
     <row r="839" customHeight="1" spans="5:5">
-      <c r="E839" s="19"/>
+      <c r="E839" s="22"/>
     </row>
     <row r="840" customHeight="1" spans="5:5">
-      <c r="E840" s="19"/>
+      <c r="E840" s="22"/>
     </row>
     <row r="841" customHeight="1" spans="5:5">
-      <c r="E841" s="19"/>
+      <c r="E841" s="22"/>
     </row>
     <row r="842" customHeight="1" spans="5:5">
-      <c r="E842" s="19"/>
+      <c r="E842" s="22"/>
     </row>
     <row r="843" customHeight="1" spans="5:5">
-      <c r="E843" s="19"/>
+      <c r="E843" s="22"/>
     </row>
     <row r="844" customHeight="1" spans="5:5">
-      <c r="E844" s="19"/>
+      <c r="E844" s="22"/>
     </row>
     <row r="845" customHeight="1" spans="5:5">
-      <c r="E845" s="19"/>
+      <c r="E845" s="22"/>
     </row>
     <row r="846" customHeight="1" spans="5:5">
-      <c r="E846" s="19"/>
+      <c r="E846" s="22"/>
     </row>
     <row r="847" customHeight="1" spans="5:5">
-      <c r="E847" s="19"/>
+      <c r="E847" s="22"/>
     </row>
     <row r="848" customHeight="1" spans="5:5">
-      <c r="E848" s="19"/>
+      <c r="E848" s="22"/>
     </row>
     <row r="849" customHeight="1" spans="5:5">
-      <c r="E849" s="19"/>
+      <c r="E849" s="22"/>
     </row>
     <row r="850" customHeight="1" spans="5:5">
-      <c r="E850" s="19"/>
+      <c r="E850" s="22"/>
     </row>
     <row r="851" customHeight="1" spans="5:5">
-      <c r="E851" s="19"/>
+      <c r="E851" s="22"/>
     </row>
     <row r="852" customHeight="1" spans="5:5">
-      <c r="E852" s="19"/>
+      <c r="E852" s="22"/>
     </row>
     <row r="853" customHeight="1" spans="5:5">
-      <c r="E853" s="19"/>
+      <c r="E853" s="22"/>
     </row>
     <row r="854" customHeight="1" spans="5:5">
-      <c r="E854" s="19"/>
+      <c r="E854" s="22"/>
     </row>
     <row r="855" customHeight="1" spans="5:5">
-      <c r="E855" s="19"/>
+      <c r="E855" s="22"/>
     </row>
     <row r="856" customHeight="1" spans="5:5">
-      <c r="E856" s="19"/>
+      <c r="E856" s="22"/>
     </row>
     <row r="857" customHeight="1" spans="5:5">
-      <c r="E857" s="19"/>
+      <c r="E857" s="22"/>
     </row>
     <row r="858" customHeight="1" spans="5:5">
-      <c r="E858" s="19"/>
+      <c r="E858" s="22"/>
     </row>
     <row r="859" customHeight="1" spans="5:5">
-      <c r="E859" s="19"/>
+      <c r="E859" s="22"/>
     </row>
     <row r="860" customHeight="1" spans="5:5">
-      <c r="E860" s="19"/>
+      <c r="E860" s="22"/>
     </row>
     <row r="861" customHeight="1" spans="5:5">
-      <c r="E861" s="19"/>
+      <c r="E861" s="22"/>
     </row>
     <row r="862" customHeight="1" spans="5:5">
-      <c r="E862" s="19"/>
+      <c r="E862" s="22"/>
     </row>
     <row r="863" customHeight="1" spans="5:5">
-      <c r="E863" s="19"/>
+      <c r="E863" s="22"/>
     </row>
     <row r="864" customHeight="1" spans="5:5">
-      <c r="E864" s="19"/>
+      <c r="E864" s="22"/>
     </row>
     <row r="865" customHeight="1" spans="5:5">
-      <c r="E865" s="19"/>
+      <c r="E865" s="22"/>
     </row>
     <row r="866" customHeight="1" spans="5:5">
-      <c r="E866" s="19"/>
+      <c r="E866" s="22"/>
     </row>
     <row r="867" customHeight="1" spans="5:5">
-      <c r="E867" s="19"/>
+      <c r="E867" s="22"/>
     </row>
     <row r="868" customHeight="1" spans="5:5">
-      <c r="E868" s="19"/>
+      <c r="E868" s="22"/>
     </row>
     <row r="869" customHeight="1" spans="5:5">
-      <c r="E869" s="19"/>
+      <c r="E869" s="22"/>
     </row>
     <row r="870" customHeight="1" spans="5:5">
-      <c r="E870" s="19"/>
+      <c r="E870" s="22"/>
     </row>
     <row r="871" customHeight="1" spans="5:5">
-      <c r="E871" s="19"/>
+      <c r="E871" s="22"/>
     </row>
     <row r="872" customHeight="1" spans="5:5">
-      <c r="E872" s="19"/>
+      <c r="E872" s="22"/>
     </row>
     <row r="873" customHeight="1" spans="5:5">
-      <c r="E873" s="19"/>
+      <c r="E873" s="22"/>
     </row>
     <row r="874" customHeight="1" spans="5:5">
-      <c r="E874" s="19"/>
+      <c r="E874" s="22"/>
     </row>
     <row r="875" customHeight="1" spans="5:5">
-      <c r="E875" s="19"/>
+      <c r="E875" s="22"/>
     </row>
     <row r="876" customHeight="1" spans="5:5">
-      <c r="E876" s="19"/>
+      <c r="E876" s="22"/>
     </row>
     <row r="877" customHeight="1" spans="5:5">
-      <c r="E877" s="19"/>
+      <c r="E877" s="22"/>
     </row>
     <row r="878" customHeight="1" spans="5:5">
-      <c r="E878" s="19"/>
+      <c r="E878" s="22"/>
     </row>
     <row r="879" customHeight="1" spans="5:5">
-      <c r="E879" s="19"/>
+      <c r="E879" s="22"/>
     </row>
     <row r="880" customHeight="1" spans="5:5">
-      <c r="E880" s="19"/>
+      <c r="E880" s="22"/>
     </row>
     <row r="881" customHeight="1" spans="5:5">
-      <c r="E881" s="19"/>
+      <c r="E881" s="22"/>
     </row>
     <row r="882" customHeight="1" spans="5:5">
-      <c r="E882" s="19"/>
+      <c r="E882" s="22"/>
     </row>
     <row r="883" customHeight="1" spans="5:5">
-      <c r="E883" s="19"/>
+      <c r="E883" s="22"/>
     </row>
     <row r="884" customHeight="1" spans="5:5">
-      <c r="E884" s="19"/>
+      <c r="E884" s="22"/>
     </row>
     <row r="885" customHeight="1" spans="5:5">
-      <c r="E885" s="19"/>
+      <c r="E885" s="22"/>
     </row>
     <row r="886" customHeight="1" spans="5:5">
-      <c r="E886" s="19"/>
+      <c r="E886" s="22"/>
     </row>
     <row r="887" customHeight="1" spans="5:5">
-      <c r="E887" s="19"/>
+      <c r="E887" s="22"/>
     </row>
     <row r="888" customHeight="1" spans="5:5">
-      <c r="E888" s="19"/>
+      <c r="E888" s="22"/>
     </row>
     <row r="889" customHeight="1" spans="5:5">
-      <c r="E889" s="19"/>
+      <c r="E889" s="22"/>
     </row>
     <row r="890" customHeight="1" spans="5:5">
-      <c r="E890" s="19"/>
+      <c r="E890" s="22"/>
     </row>
     <row r="891" customHeight="1" spans="5:5">
-      <c r="E891" s="19"/>
+      <c r="E891" s="22"/>
     </row>
     <row r="892" customHeight="1" spans="5:5">
-      <c r="E892" s="19"/>
+      <c r="E892" s="22"/>
     </row>
     <row r="893" customHeight="1" spans="5:5">
-      <c r="E893" s="19"/>
+      <c r="E893" s="22"/>
     </row>
     <row r="894" customHeight="1" spans="5:5">
-      <c r="E894" s="19"/>
+      <c r="E894" s="22"/>
     </row>
     <row r="895" customHeight="1" spans="5:5">
-      <c r="E895" s="19"/>
+      <c r="E895" s="22"/>
     </row>
     <row r="896" customHeight="1" spans="5:5">
-      <c r="E896" s="19"/>
+      <c r="E896" s="22"/>
     </row>
     <row r="897" customHeight="1" spans="5:5">
-      <c r="E897" s="19"/>
+      <c r="E897" s="22"/>
     </row>
     <row r="898" customHeight="1" spans="5:5">
-      <c r="E898" s="19"/>
+      <c r="E898" s="22"/>
     </row>
     <row r="899" customHeight="1" spans="5:5">
-      <c r="E899" s="19"/>
+      <c r="E899" s="22"/>
     </row>
     <row r="900" customHeight="1" spans="5:5">
-      <c r="E900" s="19"/>
+      <c r="E900" s="22"/>
     </row>
     <row r="901" customHeight="1" spans="5:5">
-      <c r="E901" s="19"/>
+      <c r="E901" s="22"/>
     </row>
     <row r="902" customHeight="1" spans="5:5">
-      <c r="E902" s="19"/>
+      <c r="E902" s="22"/>
     </row>
     <row r="903" customHeight="1" spans="5:5">
-      <c r="E903" s="19"/>
+      <c r="E903" s="22"/>
     </row>
     <row r="904" customHeight="1" spans="5:5">
-      <c r="E904" s="19"/>
+      <c r="E904" s="22"/>
     </row>
     <row r="905" customHeight="1" spans="5:5">
-      <c r="E905" s="19"/>
+      <c r="E905" s="22"/>
     </row>
     <row r="906" customHeight="1" spans="5:5">
-      <c r="E906" s="19"/>
+      <c r="E906" s="22"/>
     </row>
     <row r="907" customHeight="1" spans="5:5">
-      <c r="E907" s="19"/>
+      <c r="E907" s="22"/>
     </row>
     <row r="908" customHeight="1" spans="5:5">
-      <c r="E908" s="19"/>
+      <c r="E908" s="22"/>
     </row>
     <row r="909" customHeight="1" spans="5:5">
-      <c r="E909" s="19"/>
+      <c r="E909" s="22"/>
     </row>
     <row r="910" customHeight="1" spans="5:5">
-      <c r="E910" s="19"/>
+      <c r="E910" s="22"/>
     </row>
     <row r="911" customHeight="1" spans="5:5">
-      <c r="E911" s="19"/>
+      <c r="E911" s="22"/>
     </row>
     <row r="912" customHeight="1" spans="5:5">
-      <c r="E912" s="19"/>
+      <c r="E912" s="22"/>
     </row>
     <row r="913" customHeight="1" spans="5:5">
-      <c r="E913" s="19"/>
+      <c r="E913" s="22"/>
     </row>
     <row r="914" customHeight="1" spans="5:5">
-      <c r="E914" s="19"/>
+      <c r="E914" s="22"/>
     </row>
     <row r="915" customHeight="1" spans="5:5">
-      <c r="E915" s="19"/>
+      <c r="E915" s="22"/>
     </row>
     <row r="916" customHeight="1" spans="5:5">
-      <c r="E916" s="19"/>
+      <c r="E916" s="22"/>
     </row>
     <row r="917" customHeight="1" spans="5:5">
-      <c r="E917" s="19"/>
+      <c r="E917" s="22"/>
     </row>
     <row r="918" customHeight="1" spans="5:5">
-      <c r="E918" s="19"/>
+      <c r="E918" s="22"/>
     </row>
     <row r="919" customHeight="1" spans="5:5">
-      <c r="E919" s="19"/>
+      <c r="E919" s="22"/>
     </row>
     <row r="920" customHeight="1" spans="5:5">
-      <c r="E920" s="19"/>
+      <c r="E920" s="22"/>
     </row>
     <row r="921" customHeight="1" spans="5:5">
-      <c r="E921" s="19"/>
+      <c r="E921" s="22"/>
     </row>
     <row r="922" customHeight="1" spans="5:5">
-      <c r="E922" s="19"/>
+      <c r="E922" s="22"/>
     </row>
     <row r="923" customHeight="1" spans="5:5">
-      <c r="E923" s="19"/>
+      <c r="E923" s="22"/>
     </row>
     <row r="924" customHeight="1" spans="5:5">
-      <c r="E924" s="19"/>
+      <c r="E924" s="22"/>
     </row>
     <row r="925" customHeight="1" spans="5:5">
-      <c r="E925" s="19"/>
+      <c r="E925" s="22"/>
     </row>
     <row r="926" customHeight="1" spans="5:5">
-      <c r="E926" s="19"/>
+      <c r="E926" s="22"/>
     </row>
     <row r="927" customHeight="1" spans="5:5">
-      <c r="E927" s="19"/>
+      <c r="E927" s="22"/>
     </row>
     <row r="928" customHeight="1" spans="5:5">
-      <c r="E928" s="19"/>
+      <c r="E928" s="22"/>
     </row>
     <row r="929" customHeight="1" spans="5:5">
-      <c r="E929" s="19"/>
+      <c r="E929" s="22"/>
     </row>
     <row r="930" customHeight="1" spans="5:5">
-      <c r="E930" s="19"/>
+      <c r="E930" s="22"/>
     </row>
     <row r="931" customHeight="1" spans="5:5">
-      <c r="E931" s="19"/>
+      <c r="E931" s="22"/>
     </row>
     <row r="932" customHeight="1" spans="5:5">
-      <c r="E932" s="19"/>
+      <c r="E932" s="22"/>
     </row>
     <row r="933" customHeight="1" spans="5:5">
-      <c r="E933" s="19"/>
+      <c r="E933" s="22"/>
     </row>
     <row r="934" customHeight="1" spans="5:5">
-      <c r="E934" s="19"/>
+      <c r="E934" s="22"/>
     </row>
     <row r="935" customHeight="1" spans="5:5">
-      <c r="E935" s="19"/>
+      <c r="E935" s="22"/>
     </row>
     <row r="936" customHeight="1" spans="5:5">
-      <c r="E936" s="19"/>
+      <c r="E936" s="22"/>
     </row>
     <row r="937" customHeight="1" spans="5:5">
-      <c r="E937" s="19"/>
+      <c r="E937" s="22"/>
     </row>
     <row r="938" customHeight="1" spans="5:5">
-      <c r="E938" s="19"/>
+      <c r="E938" s="22"/>
     </row>
     <row r="939" customHeight="1" spans="5:5">
-      <c r="E939" s="19"/>
+      <c r="E939" s="22"/>
     </row>
     <row r="940" customHeight="1" spans="5:5">
-      <c r="E940" s="19"/>
+      <c r="E940" s="22"/>
     </row>
     <row r="941" customHeight="1" spans="5:5">
-      <c r="E941" s="19"/>
+      <c r="E941" s="22"/>
     </row>
     <row r="942" customHeight="1" spans="5:5">
-      <c r="E942" s="19"/>
+      <c r="E942" s="22"/>
     </row>
     <row r="943" customHeight="1" spans="5:5">
-      <c r="E943" s="19"/>
+      <c r="E943" s="22"/>
     </row>
     <row r="944" customHeight="1" spans="5:5">
-      <c r="E944" s="19"/>
+      <c r="E944" s="22"/>
     </row>
     <row r="945" customHeight="1" spans="5:5">
-      <c r="E945" s="19"/>
+      <c r="E945" s="22"/>
     </row>
     <row r="946" customHeight="1" spans="5:5">
-      <c r="E946" s="19"/>
+      <c r="E946" s="22"/>
     </row>
     <row r="947" customHeight="1" spans="5:5">
-      <c r="E947" s="19"/>
+      <c r="E947" s="22"/>
     </row>
     <row r="948" customHeight="1" spans="5:5">
-      <c r="E948" s="19"/>
+      <c r="E948" s="22"/>
     </row>
     <row r="949" customHeight="1" spans="5:5">
-      <c r="E949" s="19"/>
+      <c r="E949" s="22"/>
     </row>
     <row r="950" customHeight="1" spans="5:5">
-      <c r="E950" s="19"/>
+      <c r="E950" s="22"/>
     </row>
     <row r="951" customHeight="1" spans="5:5">
-      <c r="E951" s="19"/>
+      <c r="E951" s="22"/>
     </row>
     <row r="952" customHeight="1" spans="5:5">
-      <c r="E952" s="19"/>
+      <c r="E952" s="22"/>
     </row>
     <row r="953" customHeight="1" spans="5:5">
-      <c r="E953" s="19"/>
+      <c r="E953" s="22"/>
     </row>
     <row r="954" customHeight="1" spans="5:5">
-      <c r="E954" s="19"/>
+      <c r="E954" s="22"/>
     </row>
     <row r="955" customHeight="1" spans="5:5">
-      <c r="E955" s="19"/>
+      <c r="E955" s="22"/>
     </row>
     <row r="956" customHeight="1" spans="5:5">
-      <c r="E956" s="19"/>
+      <c r="E956" s="22"/>
     </row>
     <row r="957" customHeight="1" spans="5:5">
-      <c r="E957" s="19"/>
+      <c r="E957" s="22"/>
     </row>
     <row r="958" customHeight="1" spans="5:5">
-      <c r="E958" s="19"/>
+      <c r="E958" s="22"/>
     </row>
     <row r="959" customHeight="1" spans="5:5">
-      <c r="E959" s="19"/>
+      <c r="E959" s="22"/>
     </row>
     <row r="960" customHeight="1" spans="5:5">
-      <c r="E960" s="19"/>
+      <c r="E960" s="22"/>
     </row>
     <row r="961" customHeight="1" spans="5:5">
-      <c r="E961" s="19"/>
+      <c r="E961" s="22"/>
     </row>
     <row r="962" customHeight="1" spans="5:5">
-      <c r="E962" s="19"/>
+      <c r="E962" s="22"/>
     </row>
     <row r="963" customHeight="1" spans="5:5">
-      <c r="E963" s="19"/>
+      <c r="E963" s="22"/>
     </row>
     <row r="964" customHeight="1" spans="5:5">
-      <c r="E964" s="19"/>
+      <c r="E964" s="22"/>
     </row>
     <row r="965" customHeight="1" spans="5:5">
-      <c r="E965" s="19"/>
+      <c r="E965" s="22"/>
     </row>
     <row r="966" customHeight="1" spans="5:5">
-      <c r="E966" s="19"/>
+      <c r="E966" s="22"/>
     </row>
     <row r="967" customHeight="1" spans="5:5">
-      <c r="E967" s="19"/>
+      <c r="E967" s="22"/>
     </row>
     <row r="968" customHeight="1" spans="5:5">
-      <c r="E968" s="19"/>
+      <c r="E968" s="22"/>
     </row>
     <row r="969" customHeight="1" spans="5:5">
-      <c r="E969" s="19"/>
+      <c r="E969" s="22"/>
     </row>
     <row r="970" customHeight="1" spans="5:5">
-      <c r="E970" s="19"/>
+      <c r="E970" s="22"/>
     </row>
     <row r="971" customHeight="1" spans="5:5">
-      <c r="E971" s="19"/>
+      <c r="E971" s="22"/>
     </row>
     <row r="972" customHeight="1" spans="5:5">
-      <c r="E972" s="19"/>
+      <c r="E972" s="22"/>
     </row>
     <row r="973" customHeight="1" spans="5:5">
-      <c r="E973" s="19"/>
+      <c r="E973" s="22"/>
     </row>
     <row r="974" customHeight="1" spans="5:5">
-      <c r="E974" s="19"/>
+      <c r="E974" s="22"/>
     </row>
     <row r="975" customHeight="1" spans="5:5">
-      <c r="E975" s="19"/>
+      <c r="E975" s="22"/>
     </row>
     <row r="976" customHeight="1" spans="5:5">
-      <c r="E976" s="19"/>
+      <c r="E976" s="22"/>
     </row>
     <row r="977" customHeight="1" spans="5:5">
-      <c r="E977" s="19"/>
+      <c r="E977" s="22"/>
     </row>
     <row r="978" customHeight="1" spans="5:5">
-      <c r="E978" s="19"/>
+      <c r="E978" s="22"/>
     </row>
     <row r="979" customHeight="1" spans="5:5">
-      <c r="E979" s="19"/>
+      <c r="E979" s="22"/>
     </row>
     <row r="980" customHeight="1" spans="5:5">
-      <c r="E980" s="19"/>
+      <c r="E980" s="22"/>
     </row>
     <row r="981" customHeight="1" spans="5:5">
-      <c r="E981" s="19"/>
+      <c r="E981" s="22"/>
     </row>
     <row r="982" customHeight="1" spans="5:5">
-      <c r="E982" s="19"/>
+      <c r="E982" s="22"/>
     </row>
     <row r="983" customHeight="1" spans="5:5">
-      <c r="E983" s="19"/>
+      <c r="E983" s="22"/>
     </row>
     <row r="984" customHeight="1" spans="5:5">
-      <c r="E984" s="19"/>
+      <c r="E984" s="22"/>
     </row>
     <row r="985" customHeight="1" spans="5:5">
-      <c r="E985" s="19"/>
+      <c r="E985" s="22"/>
     </row>
     <row r="986" customHeight="1" spans="5:5">
-      <c r="E986" s="19"/>
+      <c r="E986" s="22"/>
     </row>
     <row r="987" customHeight="1" spans="5:5">
-      <c r="E987" s="19"/>
+      <c r="E987" s="22"/>
     </row>
     <row r="988" customHeight="1" spans="5:5">
-      <c r="E988" s="19"/>
+      <c r="E988" s="22"/>
     </row>
     <row r="989" customHeight="1" spans="5:5">
-      <c r="E989" s="19"/>
+      <c r="E989" s="22"/>
     </row>
     <row r="990" customHeight="1" spans="5:5">
-      <c r="E990" s="19"/>
+      <c r="E990" s="22"/>
     </row>
     <row r="991" customHeight="1" spans="5:5">
-      <c r="E991" s="19"/>
+      <c r="E991" s="22"/>
     </row>
     <row r="992" customHeight="1" spans="5:5">
-      <c r="E992" s="19"/>
+      <c r="E992" s="22"/>
     </row>
     <row r="993" customHeight="1" spans="5:5">
-      <c r="E993" s="19"/>
+      <c r="E993" s="22"/>
     </row>
     <row r="994" customHeight="1" spans="5:5">
-      <c r="E994" s="19"/>
+      <c r="E994" s="22"/>
     </row>
     <row r="995" customHeight="1" spans="5:5">
-      <c r="E995" s="19"/>
+      <c r="E995" s="22"/>
     </row>
     <row r="996" customHeight="1" spans="5:5">
-      <c r="E996" s="19"/>
+      <c r="E996" s="22"/>
     </row>
     <row r="997" customHeight="1" spans="5:5">
-      <c r="E997" s="19"/>
+      <c r="E997" s="22"/>
     </row>
     <row r="998" customHeight="1" spans="5:5">
-      <c r="E998" s="19"/>
+      <c r="E998" s="22"/>
     </row>
     <row r="999" customHeight="1" spans="5:5">
-      <c r="E999" s="19"/>
+      <c r="E999" s="22"/>
     </row>
     <row r="1000" customHeight="1" spans="5:5">
-      <c r="E1000" s="19"/>
+      <c r="E1000" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5686,9 +5713,9 @@
   <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -8902,105 +8929,183 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="3">
+        <v>43046</v>
+      </c>
+      <c r="E124" s="4">
+        <v>30000</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" s="3">
+        <v>43050</v>
+      </c>
+      <c r="E125" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="3">
+        <v>43057</v>
+      </c>
+      <c r="E126" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="2">
+      <c r="A127" s="9">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
+      <c r="B127" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="10">
+        <v>43057</v>
+      </c>
+      <c r="E127" s="11"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="3">
+        <v>43064</v>
+      </c>
+      <c r="E128" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" s="3">
+        <v>43070</v>
+      </c>
+      <c r="E129" s="4">
+        <v>660000</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="2">
+      <c r="A130" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
+      <c r="B130" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D130" s="10">
+        <v>43082</v>
+      </c>
+      <c r="E130" s="11"/>
+      <c r="F130" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -9014,7 +9119,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -9028,7 +9133,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -9042,7 +9147,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -9056,7 +9161,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -9070,7 +9175,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -9084,7 +9189,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -9098,7 +9203,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -9112,7 +9217,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -9126,7 +9231,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -9140,7 +9245,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -9153,151 +9258,151 @@
       <c r="A142" s="2">
         <v>140</v>
       </c>
-      <c r="E142" s="9"/>
+      <c r="E142" s="12"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
         <v>141</v>
       </c>
-      <c r="E143" s="9"/>
+      <c r="E143" s="12"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
         <v>142</v>
       </c>
-      <c r="E144" s="9"/>
+      <c r="E144" s="12"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
         <v>143</v>
       </c>
-      <c r="E145" s="9"/>
+      <c r="E145" s="12"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
         <v>144</v>
       </c>
-      <c r="E146" s="9"/>
+      <c r="E146" s="12"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
         <v>145</v>
       </c>
-      <c r="E147" s="9"/>
+      <c r="E147" s="12"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
         <v>146</v>
       </c>
-      <c r="E148" s="9"/>
+      <c r="E148" s="12"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
         <v>147</v>
       </c>
-      <c r="E149" s="9"/>
+      <c r="E149" s="12"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
         <v>148</v>
       </c>
-      <c r="E150" s="9"/>
+      <c r="E150" s="12"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
         <v>149</v>
       </c>
-      <c r="E151" s="9"/>
+      <c r="E151" s="12"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
         <v>150</v>
       </c>
-      <c r="E152" s="9"/>
+      <c r="E152" s="12"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
         <v>151</v>
       </c>
-      <c r="E153" s="9"/>
+      <c r="E153" s="12"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
         <v>152</v>
       </c>
-      <c r="E154" s="9"/>
+      <c r="E154" s="12"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
         <v>153</v>
       </c>
-      <c r="E155" s="9"/>
+      <c r="E155" s="12"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
         <v>154</v>
       </c>
-      <c r="E156" s="9"/>
+      <c r="E156" s="12"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
         <v>155</v>
       </c>
-      <c r="E157" s="9"/>
+      <c r="E157" s="12"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
         <v>156</v>
       </c>
-      <c r="E158" s="9"/>
+      <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
         <v>157</v>
       </c>
-      <c r="E159" s="9"/>
+      <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
         <v>158</v>
       </c>
-      <c r="E160" s="9"/>
+      <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
         <v>159</v>
       </c>
-      <c r="E161" s="9"/>
+      <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
         <v>160</v>
       </c>
-      <c r="E162" s="9"/>
+      <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
         <v>161</v>
       </c>
-      <c r="E163" s="9"/>
+      <c r="E163" s="12"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
         <v>162</v>
       </c>
-      <c r="E164" s="9"/>
+      <c r="E164" s="12"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
         <v>163</v>
       </c>
-      <c r="E165" s="9"/>
+      <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
         <v>164</v>
       </c>
-      <c r="E166" s="9"/>
+      <c r="E166" s="12"/>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2">

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>No</t>
   </si>
@@ -612,6 +612,15 @@
   </si>
   <si>
     <t>Service kompor</t>
+  </si>
+  <si>
+    <t>Buku musyrif</t>
+  </si>
+  <si>
+    <t>Photo Copy soal ujian</t>
+  </si>
+  <si>
+    <t>Transportasi mudaris ke TW</t>
   </si>
 </sst>
 </file>
@@ -619,12 +628,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -646,7 +655,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,37 +701,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -699,7 +715,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,7 +731,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,29 +752,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,6 +777,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,7 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,13 +856,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,55 +940,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,61 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,13 +988,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,16 +1042,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,31 +1099,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,151 +1123,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,19 +1293,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5713,9 +5722,9 @@
   <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
+      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -9107,12 +9116,24 @@
       <c r="B131" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131" s="3">
+        <v>43083</v>
+      </c>
+      <c r="E131" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2">
@@ -9121,12 +9142,25 @@
       <c r="B132" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="3">
+        <v>43085</v>
+      </c>
+      <c r="E132" s="4">
+        <f>318000+48000</f>
+        <v>366000</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2">
@@ -9135,12 +9169,24 @@
       <c r="B133" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D133" s="3">
+        <v>43092</v>
+      </c>
+      <c r="E133" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2">
@@ -9149,12 +9195,24 @@
       <c r="B134" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" s="3">
+        <v>43092</v>
+      </c>
+      <c r="E134" s="4">
+        <v>195000</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2">
@@ -9163,12 +9221,24 @@
       <c r="B135" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
+      <c r="C135" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135" s="3">
+        <v>43092</v>
+      </c>
+      <c r="E135" s="4">
+        <v>30000</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2">
@@ -9177,12 +9247,24 @@
       <c r="B136" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
+      <c r="C136" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D136" s="3">
+        <v>43092</v>
+      </c>
+      <c r="E136" s="4">
+        <v>500000</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2">
@@ -9191,12 +9273,24 @@
       <c r="B137" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="3">
+        <v>43099</v>
+      </c>
+      <c r="E137" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2">

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <t>No</t>
   </si>
@@ -614,6 +614,9 @@
     <t>Service kompor</t>
   </si>
   <si>
+    <t>B000-16</t>
+  </si>
+  <si>
     <t>Buku musyrif</t>
   </si>
   <si>
@@ -621,6 +624,12 @@
   </si>
   <si>
     <t>Transportasi mudaris ke TW</t>
+  </si>
+  <si>
+    <t>B000-17</t>
+  </si>
+  <si>
+    <t>Zain</t>
   </si>
 </sst>
 </file>
@@ -629,11 +638,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -655,6 +664,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -662,17 +678,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,31 +706,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,9 +732,33 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -744,8 +769,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,6 +779,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,40 +807,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +841,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,31 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,25 +901,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,31 +937,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,49 +973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,6 +998,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,6 +1050,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1056,26 +1104,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,21 +1137,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1123,166 +1147,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1305,7 +1314,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5724,7 +5733,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
+      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -9114,7 +9123,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>64</v>
@@ -9140,7 +9149,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
@@ -9167,7 +9176,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>79</v>
@@ -9193,7 +9202,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>37</v>
@@ -9219,7 +9228,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>98</v>
@@ -9237,7 +9246,7 @@
         <v>10</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9245,7 +9254,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>98</v>
@@ -9263,7 +9272,7 @@
         <v>10</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9271,7 +9280,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>27</v>
@@ -9289,7 +9298,7 @@
         <v>10</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9297,49 +9306,83 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="3">
+        <v>43119</v>
+      </c>
+      <c r="E138" s="4">
+        <v>500000</v>
+      </c>
       <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
+      <c r="G138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D139" s="3">
+        <v>43120</v>
+      </c>
+      <c r="E139" s="4">
+        <v>200000</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="3">
+        <v>43121</v>
+      </c>
+      <c r="E140" s="4">
+        <v>425000</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -9352,47 +9395,71 @@
       <c r="A142" s="2">
         <v>140</v>
       </c>
+      <c r="B142" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E142" s="12"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
         <v>141</v>
       </c>
+      <c r="B143" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E143" s="12"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
         <v>142</v>
       </c>
+      <c r="B144" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E144" s="12"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
         <v>143</v>
       </c>
+      <c r="B145" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E145" s="12"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
         <v>144</v>
       </c>
+      <c r="B146" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E146" s="12"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
         <v>145</v>
       </c>
+      <c r="B147" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E147" s="12"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
         <v>146</v>
       </c>
+      <c r="B148" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E148" s="12"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
         <v>147</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="E149" s="12"/>
     </row>

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -730,11 +730,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="24">
@@ -763,6 +763,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -770,8 +778,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,71 +877,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,38 +892,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,8 +906,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,7 +941,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +983,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,13 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,49 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,19 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,7 +1073,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,25 +1109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,16 +1151,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,6 +1189,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1200,21 +1224,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1238,170 +1247,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1410,16 +1410,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1503,6 +1503,7 @@
       <sheetName val="Sheet1"/>
       <sheetName val="DETAIL"/>
       <sheetName val="Ronda dan Komite"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -9854,139 +9855,224 @@
           </cell>
         </row>
         <row r="644">
+          <cell r="G644">
+            <v>150000</v>
+          </cell>
+        </row>
+        <row r="644">
           <cell r="I644">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J644">
-            <v>1</v>
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="645">
+          <cell r="G645">
+            <v>150000</v>
           </cell>
         </row>
         <row r="645">
           <cell r="I645">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J645">
-            <v>1</v>
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="646">
+          <cell r="G646">
+            <v>150000</v>
           </cell>
         </row>
         <row r="646">
           <cell r="I646">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J646">
-            <v>1</v>
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="647">
+          <cell r="G647">
+            <v>150000</v>
           </cell>
         </row>
         <row r="647">
           <cell r="I647">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J647">
-            <v>1</v>
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="648">
+          <cell r="G648">
+            <v>150000</v>
           </cell>
         </row>
         <row r="648">
           <cell r="I648">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J648">
-            <v>1</v>
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="649">
+          <cell r="G649">
+            <v>150000</v>
           </cell>
         </row>
         <row r="649">
           <cell r="I649">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J649">
-            <v>1</v>
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="650">
+          <cell r="G650">
+            <v>150000</v>
           </cell>
         </row>
         <row r="650">
           <cell r="I650">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J650">
-            <v>1</v>
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="651">
+          <cell r="G651">
+            <v>150000</v>
           </cell>
         </row>
         <row r="651">
           <cell r="I651">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J651">
-            <v>1</v>
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="652">
+          <cell r="G652">
+            <v>200000</v>
           </cell>
         </row>
         <row r="652">
           <cell r="I652">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J652">
-            <v>1</v>
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="653">
+          <cell r="G653">
+            <v>200000</v>
           </cell>
         </row>
         <row r="653">
           <cell r="I653">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J653">
-            <v>1</v>
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="654">
+          <cell r="G654">
+            <v>200000</v>
           </cell>
         </row>
         <row r="654">
           <cell r="I654">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J654">
-            <v>1</v>
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="655">
+          <cell r="G655">
+            <v>200000</v>
           </cell>
         </row>
         <row r="655">
           <cell r="I655">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J655">
-            <v>1</v>
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="656">
+          <cell r="G656">
+            <v>200000</v>
           </cell>
         </row>
         <row r="656">
           <cell r="I656">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J656">
-            <v>1</v>
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="657">
+          <cell r="G657">
+            <v>200000</v>
           </cell>
         </row>
         <row r="657">
           <cell r="I657">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J657">
-            <v>1</v>
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="658">
+          <cell r="G658">
+            <v>200000</v>
           </cell>
         </row>
         <row r="658">
           <cell r="I658">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J658">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="659">
+          <cell r="G659">
+            <v>200000</v>
           </cell>
         </row>
         <row r="659">
           <cell r="I659">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J659">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="660">
+          <cell r="G660">
+            <v>200000</v>
           </cell>
         </row>
         <row r="660">
           <cell r="I660">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J660">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="661">
@@ -12799,6 +12885,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -21488,7 +21575,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -22253,7 +22340,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="19890" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244">
   <si>
     <t>No</t>
   </si>
@@ -683,10 +683,43 @@
     <t>Saldo Akhir</t>
   </si>
   <si>
+    <t>BNI-01</t>
+  </si>
+  <si>
+    <t>Pak Purwanto</t>
+  </si>
+  <si>
+    <t>Pak Utsman</t>
+  </si>
+  <si>
+    <t>konsumsi rapot</t>
+  </si>
+  <si>
+    <t>Ust. Fauzan</t>
+  </si>
+  <si>
+    <t>Kemanan liburan</t>
+  </si>
+  <si>
+    <t>Abu Dzulkifili</t>
+  </si>
+  <si>
+    <t>beras</t>
+  </si>
+  <si>
+    <t>Rapat pengurus</t>
+  </si>
+  <si>
+    <t>Amin Silitonga</t>
+  </si>
+  <si>
+    <t>Administrasi Transfer</t>
+  </si>
+  <si>
+    <t>Mukafaah Jan 2018</t>
+  </si>
+  <si>
     <t>BNI</t>
-  </si>
-  <si>
-    <t>Amin Silitonga</t>
   </si>
   <si>
     <t>Jaga siang,ronda, tim dapur, dll</t>
@@ -730,11 +763,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="24">
@@ -763,47 +796,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -832,6 +826,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -839,8 +841,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,31 +917,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,22 +934,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,19 +974,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,43 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,55 +1022,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,7 +1040,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,37 +1148,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,30 +1183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1192,23 +1201,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,8 +1225,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,151 +1271,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17236,7 +17269,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B138" sqref="B138:H141"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -21574,20 +21607,20 @@
   <sheetPr/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="20.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="10.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="9.28571428571429" customWidth="1"/>
-    <col min="5" max="5" width="10.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="13.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="9.57142857142857" customWidth="1"/>
-    <col min="7" max="7" width="13.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="8.57142857142857" customWidth="1"/>
+    <col min="7" max="7" width="14.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="14.7142857142857" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.4285714285714" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
@@ -21602,7 +21635,7 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -21642,7 +21675,7 @@
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>D2</f>
         <v>500000</v>
       </c>
@@ -21673,7 +21706,7 @@
       <c r="G3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f t="shared" ref="H3:H66" si="0">H2+D3</f>
         <v>700000</v>
       </c>
@@ -21707,7 +21740,7 @@
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>1125000</v>
       </c>
@@ -21716,7 +21749,7 @@
       </c>
       <c r="K4" s="8">
         <f>H100</f>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -21741,7 +21774,7 @@
       <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>1575000</v>
       </c>
@@ -21750,579 +21783,986 @@
       </c>
       <c r="K5" s="8">
         <f>K2+K3-K4</f>
-        <v>29955000</v>
-      </c>
-    </row>
-    <row r="6" spans="8:11">
-      <c r="H6">
+        <v>-2297000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>43103</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>3015000</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="8:8">
-      <c r="H7">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>43103</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1168000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8">
-      <c r="H8">
+        <v>4183000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43103</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="H9">
+        <v>4683000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43105</v>
+      </c>
+      <c r="D9" s="1">
+        <v>900000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="H10">
+        <v>5583000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>43111</v>
+      </c>
+      <c r="D10" s="1">
+        <f>1155000-880000</f>
+        <v>275000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="H11">
+        <v>5858000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>43112</v>
+      </c>
+      <c r="D11" s="1">
+        <v>312500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12">
+        <v>6170500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>43114</v>
+      </c>
+      <c r="D12" s="1">
+        <v>700000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="13" spans="8:8">
-      <c r="H13">
+        <v>6870500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>43115</v>
+      </c>
+      <c r="D13" s="1">
+        <f>2685000-670000</f>
+        <v>2015000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="14" spans="8:8">
-      <c r="H14">
+        <v>8885500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="5">
+        <v>43115</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6500</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8">
-      <c r="H15">
+        <v>8892000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43115</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6500</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="16" spans="8:8">
-      <c r="H16">
+        <v>8898500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="5">
+        <v>43115</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6500</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17">
+        <v>8905000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>43116</v>
+      </c>
+      <c r="D17" s="1">
+        <v>470000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18">
+        <v>9375000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>43117</v>
+      </c>
+      <c r="D18" s="1">
+        <v>470000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19">
+        <v>9845000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>43118</v>
+      </c>
+      <c r="D19" s="1">
+        <v>470000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="H20">
+        <v>10315000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5">
+        <v>43124</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1785000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8">
-      <c r="H21">
+        <v>12100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>43125</v>
+      </c>
+      <c r="D21" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="H22">
+        <v>12600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>43126</v>
+      </c>
+      <c r="D22" s="1">
+        <v>400000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="H23">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43127</v>
+      </c>
+      <c r="D23" s="1">
+        <v>900000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="H24">
+        <v>13900000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <v>43129</v>
+      </c>
+      <c r="D24" s="1">
+        <v>900000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25">
+        <v>14800000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>43131</v>
+      </c>
+      <c r="D25" s="1">
+        <v>900000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="H26">
+        <v>15700000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="5">
+        <v>43145</v>
+      </c>
+      <c r="D26" s="1">
+        <v>18127000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="27" spans="8:8">
-      <c r="H27">
+      <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="28" spans="8:8">
-      <c r="H28">
+      <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="29" spans="8:8">
-      <c r="H29">
+      <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="30" spans="8:8">
-      <c r="H30">
+      <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="31" spans="8:8">
-      <c r="H31">
+      <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="32" spans="8:8">
-      <c r="H32">
+      <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="33" spans="8:8">
-      <c r="H33">
+      <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="34" spans="8:8">
-      <c r="H34">
+      <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="35" spans="8:8">
-      <c r="H35">
+      <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36">
+      <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37">
+      <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38">
+      <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39">
+      <c r="H39" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40">
+      <c r="H40" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41">
+      <c r="H41" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42">
+      <c r="H42" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43">
+      <c r="H43" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44">
+      <c r="H44" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45">
+      <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46">
+      <c r="H46" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47">
+      <c r="H47" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48">
+      <c r="H48" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49">
+      <c r="H49" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50">
+      <c r="H50" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51">
+      <c r="H51" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="52" spans="8:8">
-      <c r="H52">
+      <c r="H52" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="53" spans="8:8">
-      <c r="H53">
+      <c r="H53" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="54" spans="8:8">
-      <c r="H54">
+      <c r="H54" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="55" spans="8:8">
-      <c r="H55">
+      <c r="H55" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="56" spans="8:8">
-      <c r="H56">
+      <c r="H56" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="57" spans="8:8">
-      <c r="H57">
+      <c r="H57" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="58" spans="8:8">
-      <c r="H58">
+      <c r="H58" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="59" spans="8:8">
-      <c r="H59">
+      <c r="H59" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="60" spans="8:8">
-      <c r="H60">
+      <c r="H60" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="61" spans="8:8">
-      <c r="H61">
+      <c r="H61" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="62" spans="8:8">
-      <c r="H62">
+      <c r="H62" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="63" spans="8:8">
-      <c r="H63">
+      <c r="H63" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="64" spans="8:8">
-      <c r="H64">
+      <c r="H64" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="65" spans="8:8">
-      <c r="H65">
+      <c r="H65" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="66" spans="8:8">
-      <c r="H66">
+      <c r="H66" s="1">
         <f t="shared" si="0"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="67" spans="8:8">
-      <c r="H67">
+      <c r="H67" s="1">
         <f t="shared" ref="H67:H100" si="1">H66+D67</f>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="68" spans="8:8">
-      <c r="H68">
+      <c r="H68" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="69" spans="8:8">
-      <c r="H69">
+      <c r="H69" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="70" spans="8:8">
-      <c r="H70">
+      <c r="H70" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="71" spans="8:8">
-      <c r="H71">
+      <c r="H71" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="72" spans="8:8">
-      <c r="H72">
+      <c r="H72" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="73" spans="8:8">
-      <c r="H73">
+      <c r="H73" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="74" spans="8:8">
-      <c r="H74">
+      <c r="H74" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="75" spans="8:8">
-      <c r="H75">
+      <c r="H75" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="76" spans="8:8">
-      <c r="H76">
+      <c r="H76" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="77" spans="8:8">
-      <c r="H77">
+      <c r="H77" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="78" spans="8:8">
-      <c r="H78">
+      <c r="H78" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="79" spans="8:8">
-      <c r="H79">
+      <c r="H79" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="80" spans="8:8">
-      <c r="H80">
+      <c r="H80" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="81" spans="8:8">
-      <c r="H81">
+      <c r="H81" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="82" spans="8:8">
-      <c r="H82">
+      <c r="H82" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="83" spans="8:8">
-      <c r="H83">
+      <c r="H83" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="84" spans="8:8">
-      <c r="H84">
+      <c r="H84" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="85" spans="8:8">
-      <c r="H85">
+      <c r="H85" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="86" spans="8:8">
-      <c r="H86">
+      <c r="H86" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="87" spans="8:8">
-      <c r="H87">
+      <c r="H87" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="88" spans="8:8">
-      <c r="H88">
+      <c r="H88" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="89" spans="8:8">
-      <c r="H89">
+      <c r="H89" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="90" spans="8:8">
-      <c r="H90">
+      <c r="H90" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="91" spans="8:8">
-      <c r="H91">
+      <c r="H91" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="92" spans="8:8">
-      <c r="H92">
+      <c r="H92" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="93" spans="8:8">
-      <c r="H93">
+      <c r="H93" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="94" spans="8:8">
-      <c r="H94">
+      <c r="H94" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="95" spans="8:8">
-      <c r="H95">
+      <c r="H95" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="96" spans="8:8">
-      <c r="H96">
+      <c r="H96" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="97" spans="8:8">
-      <c r="H97">
+      <c r="H97" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="98" spans="8:8">
-      <c r="H98">
+      <c r="H98" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="99" spans="8:8">
-      <c r="H99">
+      <c r="H99" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
     <row r="100" spans="8:8">
-      <c r="H100">
+      <c r="H100" s="1">
         <f t="shared" si="1"/>
-        <v>1575000</v>
+        <v>33827000</v>
       </c>
     </row>
   </sheetData>
@@ -22339,8 +22779,8 @@
   <sheetPr/>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -22419,7 +22859,7 @@
       </c>
       <c r="K2" s="8">
         <f>'Jan 2018'!K5</f>
-        <v>29955000</v>
+        <v>-2297000</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -22521,7 +22961,7 @@
       </c>
       <c r="K5" s="8">
         <f>K2+K3-K4</f>
-        <v>1076000</v>
+        <v>-31176000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -22582,7 +23022,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -22609,7 +23049,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -22621,7 +23061,7 @@
         <v>1785000</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -22636,7 +23076,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -22648,13 +23088,13 @@
         <v>1500000</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
@@ -22663,7 +23103,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -22681,7 +23121,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
@@ -22690,7 +23130,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -22708,7 +23148,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
@@ -22717,7 +23157,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -22729,7 +23169,7 @@
         <v>500000</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -22741,10 +23181,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C14" s="5">
         <v>43143</v>
@@ -22765,10 +23205,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C15" s="5">
         <v>43144</v>
@@ -22783,7 +23223,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
@@ -22792,10 +23232,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C16" s="5">
         <v>43144</v>
@@ -22813,7 +23253,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -22831,7 +23271,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
@@ -22840,10 +23280,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C18" s="5">
         <v>43145</v>
@@ -22861,10 +23301,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C19" s="5">
         <v>43145</v>
@@ -22879,7 +23319,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -22897,7 +23337,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
@@ -22906,7 +23346,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -22924,7 +23364,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
@@ -22933,7 +23373,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -22945,7 +23385,7 @@
         <v>1785000</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -22960,7 +23400,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -22978,7 +23418,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
@@ -22987,7 +23427,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -23005,7 +23445,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
@@ -23014,7 +23454,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -23026,13 +23466,13 @@
         <v>750000</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
@@ -23041,7 +23481,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -23068,7 +23508,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -23080,7 +23520,7 @@
         <v>1995000</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -23095,7 +23535,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -23122,10 +23562,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C29" s="5">
         <v>43159</v>
@@ -23140,7 +23580,7 @@
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
@@ -23149,10 +23589,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C30" s="5">
         <v>43159</v>
@@ -23167,7 +23607,7 @@
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
@@ -23176,7 +23616,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s">
         <v>106</v>
@@ -23194,7 +23634,7 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
@@ -23203,7 +23643,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
@@ -23212,7 +23652,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
@@ -23221,7 +23661,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="19890" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -764,10 +764,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="24">
@@ -796,6 +796,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -803,8 +811,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,14 +887,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -850,13 +903,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -865,21 +911,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,6 +925,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,47 +940,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,84 +974,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1064,7 +986,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,13 +1010,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,25 +1088,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,31 +1148,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,30 +1183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1225,8 +1201,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,6 +1237,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1275,156 +1275,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10109,131 +10109,211 @@
           </cell>
         </row>
         <row r="661">
+          <cell r="G661">
+            <v>150000</v>
+          </cell>
+        </row>
+        <row r="661">
           <cell r="I661">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J661">
-            <v>1</v>
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="662">
+          <cell r="G662">
+            <v>150000</v>
           </cell>
         </row>
         <row r="662">
           <cell r="I662">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J662">
-            <v>1</v>
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="663">
+          <cell r="G663">
+            <v>150000</v>
           </cell>
         </row>
         <row r="663">
           <cell r="I663">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J663">
-            <v>1</v>
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="664">
+          <cell r="G664">
+            <v>150000</v>
           </cell>
         </row>
         <row r="664">
           <cell r="I664">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J664">
-            <v>1</v>
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="665">
+          <cell r="G665">
+            <v>150000</v>
           </cell>
         </row>
         <row r="665">
           <cell r="I665">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J665">
-            <v>1</v>
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="666">
+          <cell r="G666">
+            <v>150000</v>
           </cell>
         </row>
         <row r="666">
           <cell r="I666">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J666">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="667">
+          <cell r="G667">
+            <v>150000</v>
           </cell>
         </row>
         <row r="667">
           <cell r="I667">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J667">
-            <v>1</v>
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="668">
+          <cell r="G668">
+            <v>150000</v>
           </cell>
         </row>
         <row r="668">
           <cell r="I668">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J668">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="669">
+          <cell r="G669">
+            <v>150000</v>
           </cell>
         </row>
         <row r="669">
           <cell r="I669">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J669">
-            <v>1</v>
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="670">
+          <cell r="G670">
+            <v>150000</v>
           </cell>
         </row>
         <row r="670">
           <cell r="I670">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J670">
-            <v>1</v>
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="671">
+          <cell r="G671">
+            <v>150000</v>
           </cell>
         </row>
         <row r="671">
           <cell r="I671">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J671">
-            <v>1</v>
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="672">
+          <cell r="G672">
+            <v>150000</v>
           </cell>
         </row>
         <row r="672">
           <cell r="I672">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J672">
-            <v>1</v>
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="673">
+          <cell r="G673">
+            <v>150000</v>
           </cell>
         </row>
         <row r="673">
           <cell r="I673">
-            <v>1900</v>
+            <v>2017</v>
           </cell>
           <cell r="J673">
-            <v>1</v>
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="G674">
+            <v>150000</v>
           </cell>
         </row>
         <row r="674">
           <cell r="I674">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J674">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="675">
+          <cell r="G675">
+            <v>150000</v>
           </cell>
         </row>
         <row r="675">
           <cell r="I675">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J675">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="676">
+          <cell r="G676">
+            <v>150000</v>
           </cell>
         </row>
         <row r="676">
           <cell r="I676">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J676">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="677">
@@ -21607,7 +21687,7 @@
   <sheetPr/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -21715,7 +21795,7 @@
       </c>
       <c r="K3" s="8">
         <f>SUMIFS([1]DETAIL!$G$2:$G$1048576,[1]DETAIL!$I$2:$I$1048576,2018,[1]DETAIL!$J$2:$J$1048576,1)</f>
-        <v>31530000</v>
+        <v>31830000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -21783,7 +21863,7 @@
       </c>
       <c r="K5" s="8">
         <f>K2+K3-K4</f>
-        <v>-2297000</v>
+        <v>-1997000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -22779,8 +22859,8 @@
   <sheetPr/>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -22859,7 +22939,7 @@
       </c>
       <c r="K2" s="8">
         <f>'Jan 2018'!K5</f>
-        <v>-2297000</v>
+        <v>-1997000</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -22893,7 +22973,7 @@
       </c>
       <c r="K3" s="8">
         <f>SUMIFS([1]DETAIL!$G$2:$G$1048576,[1]DETAIL!$I$2:$I$1048576,2018,[1]DETAIL!$J$2:$J$1048576,2)</f>
-        <v>15330000</v>
+        <v>15480000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -22961,7 +23041,7 @@
       </c>
       <c r="K5" s="8">
         <f>K2+K3-K4</f>
-        <v>-31176000</v>
+        <v>-30726000</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -764,10 +764,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="24">
@@ -796,14 +796,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -811,8 +803,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -826,53 +825,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,8 +864,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,6 +903,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,6 +927,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,13 +974,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,37 +1010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,109 +1034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,6 +1053,108 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,41 +1183,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,6 +1222,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1280,151 +1265,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2999,15 +2999,15 @@
         </row>
         <row r="114">
           <cell r="G114">
-            <v>450000</v>
+            <v>200000</v>
           </cell>
         </row>
         <row r="114">
           <cell r="I114">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J114">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="115">
@@ -3020,7 +3020,7 @@
             <v>2017</v>
           </cell>
           <cell r="J115">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="116">
@@ -3033,7 +3033,7 @@
             <v>2017</v>
           </cell>
           <cell r="J116">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="117">
@@ -3046,7 +3046,7 @@
             <v>2017</v>
           </cell>
           <cell r="J117">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="118">
@@ -3059,7 +3059,7 @@
             <v>2017</v>
           </cell>
           <cell r="J118">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="119">
@@ -3072,7 +3072,7 @@
             <v>2017</v>
           </cell>
           <cell r="J119">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="120">
@@ -3082,23 +3082,23 @@
         </row>
         <row r="120">
           <cell r="I120">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J120">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="121">
           <cell r="G121">
-            <v>200000</v>
+            <v>375000</v>
           </cell>
         </row>
         <row r="121">
           <cell r="I121">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J121">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="122">
@@ -3111,7 +3111,7 @@
             <v>2017</v>
           </cell>
           <cell r="J122">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="123">
@@ -3124,7 +3124,7 @@
             <v>2017</v>
           </cell>
           <cell r="J123">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="124">
@@ -3137,7 +3137,7 @@
             <v>2017</v>
           </cell>
           <cell r="J124">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="125">
@@ -3150,7 +3150,7 @@
             <v>2017</v>
           </cell>
           <cell r="J125">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="126">
@@ -3163,7 +3163,7 @@
             <v>2017</v>
           </cell>
           <cell r="J126">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="127">
@@ -3173,23 +3173,23 @@
         </row>
         <row r="127">
           <cell r="I127">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J127">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="128">
           <cell r="G128">
-            <v>375000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="128">
           <cell r="I128">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J128">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="129">
@@ -3202,7 +3202,7 @@
             <v>2017</v>
           </cell>
           <cell r="J129">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="130">
@@ -3228,7 +3228,7 @@
             <v>2017</v>
           </cell>
           <cell r="J131">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="132">
@@ -3241,7 +3241,7 @@
             <v>2017</v>
           </cell>
           <cell r="J132">
-            <v>10</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="133">
@@ -3259,7 +3259,7 @@
         </row>
         <row r="134">
           <cell r="G134">
-            <v>450000</v>
+            <v>300000</v>
           </cell>
         </row>
         <row r="134">
@@ -3267,7 +3267,7 @@
             <v>2017</v>
           </cell>
           <cell r="J134">
-            <v>12</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="135">
@@ -3280,7 +3280,7 @@
             <v>2017</v>
           </cell>
           <cell r="J135">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="136">
@@ -3293,7 +3293,7 @@
             <v>2017</v>
           </cell>
           <cell r="J136">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="137">
@@ -3306,7 +3306,7 @@
             <v>2017</v>
           </cell>
           <cell r="J137">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="138">
@@ -3319,7 +3319,7 @@
             <v>2017</v>
           </cell>
           <cell r="J138">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="139">
@@ -3332,7 +3332,7 @@
             <v>2017</v>
           </cell>
           <cell r="J139">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="140">
@@ -3342,23 +3342,23 @@
         </row>
         <row r="140">
           <cell r="I140">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J140">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="141">
           <cell r="G141">
-            <v>300000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="141">
           <cell r="I141">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J141">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="142">
@@ -3384,7 +3384,7 @@
             <v>2017</v>
           </cell>
           <cell r="J143">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="144">
@@ -3410,7 +3410,7 @@
             <v>2017</v>
           </cell>
           <cell r="J145">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="146">
@@ -3420,10 +3420,10 @@
         </row>
         <row r="146">
           <cell r="I146">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J146">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="147">
@@ -3446,10 +3446,10 @@
         </row>
         <row r="148">
           <cell r="I148">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J148">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="149">
@@ -3462,7 +3462,7 @@
             <v>2017</v>
           </cell>
           <cell r="J149">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="150">
@@ -3475,7 +3475,7 @@
             <v>2017</v>
           </cell>
           <cell r="J150">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="151">
@@ -3488,7 +3488,7 @@
             <v>2017</v>
           </cell>
           <cell r="J151">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="152">
@@ -3501,7 +3501,7 @@
             <v>2017</v>
           </cell>
           <cell r="J152">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="153">
@@ -3511,10 +3511,10 @@
         </row>
         <row r="153">
           <cell r="I153">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J153">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="154">
@@ -3524,10 +3524,10 @@
         </row>
         <row r="154">
           <cell r="I154">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J154">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="155">
@@ -3553,7 +3553,7 @@
             <v>2017</v>
           </cell>
           <cell r="J156">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="157">
@@ -3566,7 +3566,7 @@
             <v>2017</v>
           </cell>
           <cell r="J157">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="158">
@@ -3589,10 +3589,10 @@
         </row>
         <row r="159">
           <cell r="I159">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J159">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="160">
@@ -3602,10 +3602,10 @@
         </row>
         <row r="160">
           <cell r="I160">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J160">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="161">
@@ -3618,7 +3618,7 @@
             <v>2017</v>
           </cell>
           <cell r="J161">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="162">
@@ -3644,7 +3644,7 @@
             <v>2017</v>
           </cell>
           <cell r="J163">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="164">
@@ -3667,10 +3667,10 @@
         </row>
         <row r="165">
           <cell r="I165">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J165">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="166">
@@ -3683,20 +3683,20 @@
             <v>2018</v>
           </cell>
           <cell r="J166">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="167">
           <cell r="G167">
-            <v>450000</v>
+            <v>175000</v>
           </cell>
         </row>
         <row r="167">
           <cell r="I167">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J167">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="168">
@@ -3709,7 +3709,7 @@
             <v>2017</v>
           </cell>
           <cell r="J168">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="169">
@@ -3722,7 +3722,7 @@
             <v>2017</v>
           </cell>
           <cell r="J169">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="170">
@@ -3735,7 +3735,7 @@
             <v>2017</v>
           </cell>
           <cell r="J170">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="171">
@@ -3748,7 +3748,7 @@
             <v>2017</v>
           </cell>
           <cell r="J171">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="172">
@@ -3761,7 +3761,7 @@
             <v>2017</v>
           </cell>
           <cell r="J172">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="173">
@@ -3771,23 +3771,23 @@
         </row>
         <row r="173">
           <cell r="I173">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J173">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="174">
           <cell r="G174">
-            <v>175000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="174">
           <cell r="I174">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J174">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="175">
@@ -3813,7 +3813,7 @@
             <v>2017</v>
           </cell>
           <cell r="J176">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="177">
@@ -3839,7 +3839,7 @@
             <v>2017</v>
           </cell>
           <cell r="J178">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="179">
@@ -3852,12 +3852,12 @@
             <v>2017</v>
           </cell>
           <cell r="J179">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="180">
           <cell r="G180">
-            <v>450000</v>
+            <v>500000</v>
           </cell>
         </row>
         <row r="180">
@@ -3865,7 +3865,7 @@
             <v>2017</v>
           </cell>
           <cell r="J180">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="181">
@@ -3891,7 +3891,7 @@
             <v>2017</v>
           </cell>
           <cell r="J182">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="183">
@@ -3904,7 +3904,7 @@
             <v>2017</v>
           </cell>
           <cell r="J183">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="184">
@@ -3922,7 +3922,7 @@
         </row>
         <row r="185">
           <cell r="G185">
-            <v>500000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="185">
@@ -3930,7 +3930,7 @@
             <v>2017</v>
           </cell>
           <cell r="J185">
-            <v>10</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="186">
@@ -3943,7 +3943,7 @@
             <v>2017</v>
           </cell>
           <cell r="J186">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="187">
@@ -3956,7 +3956,7 @@
             <v>2017</v>
           </cell>
           <cell r="J187">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="188">
@@ -3969,7 +3969,7 @@
             <v>2017</v>
           </cell>
           <cell r="J188">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="189">
@@ -3982,7 +3982,7 @@
             <v>2017</v>
           </cell>
           <cell r="J189">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="190">
@@ -3995,7 +3995,7 @@
             <v>2017</v>
           </cell>
           <cell r="J190">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="191">
@@ -4005,23 +4005,23 @@
         </row>
         <row r="191">
           <cell r="I191">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J191">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="192">
           <cell r="G192">
-            <v>450000</v>
+            <v>350000</v>
           </cell>
         </row>
         <row r="192">
           <cell r="I192">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J192">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="193">
@@ -4034,7 +4034,7 @@
             <v>2017</v>
           </cell>
           <cell r="J193">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="194">
@@ -4047,7 +4047,7 @@
             <v>2017</v>
           </cell>
           <cell r="J194">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="195">
@@ -4060,7 +4060,7 @@
             <v>2017</v>
           </cell>
           <cell r="J195">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="196">
@@ -4073,12 +4073,12 @@
             <v>2017</v>
           </cell>
           <cell r="J196">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="197">
           <cell r="G197">
-            <v>350000</v>
+            <v>425000</v>
           </cell>
         </row>
         <row r="197">
@@ -4086,12 +4086,12 @@
             <v>2017</v>
           </cell>
           <cell r="J197">
-            <v>12</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="198">
           <cell r="G198">
-            <v>425000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="198">
@@ -4099,7 +4099,7 @@
             <v>2017</v>
           </cell>
           <cell r="J198">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="199">
@@ -4112,7 +4112,7 @@
             <v>2017</v>
           </cell>
           <cell r="J199">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="200">
@@ -4125,7 +4125,7 @@
             <v>2017</v>
           </cell>
           <cell r="J200">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="201">
@@ -4138,7 +4138,7 @@
             <v>2017</v>
           </cell>
           <cell r="J201">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="202">
@@ -4151,7 +4151,7 @@
             <v>2017</v>
           </cell>
           <cell r="J202">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="203">
@@ -4161,10 +4161,10 @@
         </row>
         <row r="203">
           <cell r="I203">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J203">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="204">
@@ -4174,10 +4174,10 @@
         </row>
         <row r="204">
           <cell r="I204">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J204">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="205">
@@ -4190,7 +4190,7 @@
             <v>2017</v>
           </cell>
           <cell r="J205">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="206">
@@ -4203,7 +4203,7 @@
             <v>2017</v>
           </cell>
           <cell r="J206">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="207">
@@ -4216,7 +4216,7 @@
             <v>2017</v>
           </cell>
           <cell r="J207">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="208">
@@ -4229,7 +4229,7 @@
             <v>2017</v>
           </cell>
           <cell r="J208">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="209">
@@ -4242,7 +4242,7 @@
             <v>2017</v>
           </cell>
           <cell r="J209">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="210">
@@ -4255,7 +4255,7 @@
             <v>2017</v>
           </cell>
           <cell r="J210">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="211">
@@ -4268,7 +4268,7 @@
             <v>2017</v>
           </cell>
           <cell r="J211">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="212">
@@ -4281,7 +4281,7 @@
             <v>2017</v>
           </cell>
           <cell r="J212">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="213">
@@ -4294,7 +4294,7 @@
             <v>2017</v>
           </cell>
           <cell r="J213">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="214">
@@ -4307,7 +4307,7 @@
             <v>2017</v>
           </cell>
           <cell r="J214">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="215">
@@ -4320,7 +4320,7 @@
             <v>2017</v>
           </cell>
           <cell r="J215">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="216">
@@ -4333,7 +4333,7 @@
             <v>2017</v>
           </cell>
           <cell r="J216">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="217">
@@ -4346,7 +4346,7 @@
             <v>2017</v>
           </cell>
           <cell r="J217">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="218">
@@ -4356,10 +4356,10 @@
         </row>
         <row r="218">
           <cell r="I218">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J218">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="219">
@@ -4372,20 +4372,20 @@
             <v>2018</v>
           </cell>
           <cell r="J219">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="220">
           <cell r="G220">
-            <v>450000</v>
+            <v>375000</v>
           </cell>
         </row>
         <row r="220">
           <cell r="I220">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J220">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="221">
@@ -4398,7 +4398,7 @@
             <v>2017</v>
           </cell>
           <cell r="J221">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="222">
@@ -4411,7 +4411,7 @@
             <v>2017</v>
           </cell>
           <cell r="J222">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="223">
@@ -4450,7 +4450,7 @@
             <v>2017</v>
           </cell>
           <cell r="J225">
-            <v>10</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="226">
@@ -4468,7 +4468,7 @@
         </row>
         <row r="227">
           <cell r="G227">
-            <v>375000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="227">
@@ -4476,7 +4476,7 @@
             <v>2017</v>
           </cell>
           <cell r="J227">
-            <v>12</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="228">
@@ -4489,7 +4489,7 @@
             <v>2017</v>
           </cell>
           <cell r="J228">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="229">
@@ -4515,7 +4515,7 @@
             <v>2017</v>
           </cell>
           <cell r="J230">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="231">
@@ -4541,12 +4541,12 @@
             <v>2017</v>
           </cell>
           <cell r="J232">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="233">
           <cell r="G233">
-            <v>450000</v>
+            <v>500000</v>
           </cell>
         </row>
         <row r="233">
@@ -4554,7 +4554,7 @@
             <v>2017</v>
           </cell>
           <cell r="J233">
-            <v>12</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="234">
@@ -4567,7 +4567,7 @@
             <v>2017</v>
           </cell>
           <cell r="J234">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="235">
@@ -4580,7 +4580,7 @@
             <v>2017</v>
           </cell>
           <cell r="J235">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="236">
@@ -4593,7 +4593,7 @@
             <v>2017</v>
           </cell>
           <cell r="J236">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="237">
@@ -4606,7 +4606,7 @@
             <v>2017</v>
           </cell>
           <cell r="J237">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="238">
@@ -4616,10 +4616,10 @@
         </row>
         <row r="238">
           <cell r="I238">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J238">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="239">
@@ -4645,12 +4645,12 @@
             <v>2018</v>
           </cell>
           <cell r="J240">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="241">
           <cell r="G241">
-            <v>500000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="241">
@@ -4658,7 +4658,7 @@
             <v>2018</v>
           </cell>
           <cell r="J241">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="242">
@@ -4728,15 +4728,15 @@
         </row>
         <row r="247">
           <cell r="G247">
-            <v>450000</v>
+            <v>300000</v>
           </cell>
         </row>
         <row r="247">
           <cell r="I247">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J247">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="248">
@@ -4749,7 +4749,7 @@
             <v>2017</v>
           </cell>
           <cell r="J248">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="249">
@@ -4762,7 +4762,7 @@
             <v>2017</v>
           </cell>
           <cell r="J249">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="250">
@@ -4775,7 +4775,7 @@
             <v>2017</v>
           </cell>
           <cell r="J250">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="251">
@@ -4788,7 +4788,7 @@
             <v>2017</v>
           </cell>
           <cell r="J251">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="252">
@@ -4801,12 +4801,12 @@
             <v>2017</v>
           </cell>
           <cell r="J252">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="253">
           <cell r="G253">
-            <v>300000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="253">
@@ -4814,7 +4814,7 @@
             <v>2017</v>
           </cell>
           <cell r="J253">
-            <v>12</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="254">
@@ -4827,7 +4827,7 @@
             <v>2017</v>
           </cell>
           <cell r="J254">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="255">
@@ -4840,7 +4840,7 @@
             <v>2017</v>
           </cell>
           <cell r="J255">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="256">
@@ -4866,7 +4866,7 @@
             <v>2017</v>
           </cell>
           <cell r="J257">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="258">
@@ -4876,10 +4876,10 @@
         </row>
         <row r="258">
           <cell r="I258">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J258">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="259">
@@ -4892,7 +4892,7 @@
             <v>2018</v>
           </cell>
           <cell r="J259">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="260">
@@ -4902,10 +4902,10 @@
         </row>
         <row r="260">
           <cell r="I260">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J260">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="261">
@@ -4918,7 +4918,7 @@
             <v>2017</v>
           </cell>
           <cell r="J261">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="262">
@@ -4954,10 +4954,10 @@
         </row>
         <row r="264">
           <cell r="I264">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J264">
-            <v>9</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="265">
@@ -4980,10 +4980,10 @@
         </row>
         <row r="266">
           <cell r="I266">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J266">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="267">
@@ -5009,7 +5009,7 @@
             <v>2017</v>
           </cell>
           <cell r="J268">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="269">
@@ -5022,7 +5022,7 @@
             <v>2017</v>
           </cell>
           <cell r="J269">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="270">
@@ -5035,7 +5035,7 @@
             <v>2017</v>
           </cell>
           <cell r="J270">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="271">
@@ -5048,7 +5048,7 @@
             <v>2017</v>
           </cell>
           <cell r="J271">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="272">
@@ -5058,10 +5058,10 @@
         </row>
         <row r="272">
           <cell r="I272">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J272">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="273">
@@ -5071,10 +5071,10 @@
         </row>
         <row r="273">
           <cell r="I273">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J273">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="274">
@@ -5087,7 +5087,7 @@
             <v>2017</v>
           </cell>
           <cell r="J274">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="275">
@@ -5100,7 +5100,7 @@
             <v>2017</v>
           </cell>
           <cell r="J275">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="276">
@@ -5113,7 +5113,7 @@
             <v>2017</v>
           </cell>
           <cell r="J276">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="277">
@@ -5123,10 +5123,10 @@
         </row>
         <row r="277">
           <cell r="I277">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J277">
-            <v>10</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="278">
@@ -5162,10 +5162,10 @@
         </row>
         <row r="280">
           <cell r="I280">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J280">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="281">
@@ -5191,7 +5191,7 @@
             <v>2017</v>
           </cell>
           <cell r="J282">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="283">
@@ -5217,7 +5217,7 @@
             <v>2017</v>
           </cell>
           <cell r="J284">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="285">
@@ -5227,10 +5227,10 @@
         </row>
         <row r="285">
           <cell r="I285">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J285">
-            <v>10</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="286">
@@ -5256,7 +5256,7 @@
             <v>2018</v>
           </cell>
           <cell r="J287">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="288">
@@ -5266,10 +5266,10 @@
         </row>
         <row r="288">
           <cell r="I288">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J288">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="289">
@@ -5295,7 +5295,7 @@
             <v>2017</v>
           </cell>
           <cell r="J290">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="291">
@@ -5308,7 +5308,7 @@
             <v>2017</v>
           </cell>
           <cell r="J291">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="292">
@@ -5321,7 +5321,7 @@
             <v>2017</v>
           </cell>
           <cell r="J292">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="293">
@@ -5331,10 +5331,10 @@
         </row>
         <row r="293">
           <cell r="I293">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J293">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="294">
@@ -5344,10 +5344,10 @@
         </row>
         <row r="294">
           <cell r="I294">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J294">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="295">
@@ -5360,7 +5360,7 @@
             <v>2017</v>
           </cell>
           <cell r="J295">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="296">
@@ -5373,7 +5373,7 @@
             <v>2017</v>
           </cell>
           <cell r="J296">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="297">
@@ -5399,7 +5399,7 @@
             <v>2017</v>
           </cell>
           <cell r="J298">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="299">
@@ -5409,10 +5409,10 @@
         </row>
         <row r="299">
           <cell r="I299">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J299">
-            <v>10</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="300">
@@ -5425,7 +5425,7 @@
             <v>2018</v>
           </cell>
           <cell r="J300">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="301">
@@ -5435,10 +5435,10 @@
         </row>
         <row r="301">
           <cell r="I301">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J301">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="302">
@@ -5451,7 +5451,7 @@
             <v>2017</v>
           </cell>
           <cell r="J302">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="303">
@@ -5464,7 +5464,7 @@
             <v>2017</v>
           </cell>
           <cell r="J303">
-            <v>8</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="304">
@@ -5477,7 +5477,7 @@
             <v>2017</v>
           </cell>
           <cell r="J304">
-            <v>5</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="305">
@@ -5490,7 +5490,7 @@
             <v>2017</v>
           </cell>
           <cell r="J305">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="306">
@@ -5503,7 +5503,7 @@
             <v>2017</v>
           </cell>
           <cell r="J306">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="307">
@@ -5513,10 +5513,10 @@
         </row>
         <row r="307">
           <cell r="I307">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J307">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="308">
@@ -5529,7 +5529,7 @@
             <v>2018</v>
           </cell>
           <cell r="J308">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="309">
@@ -5539,10 +5539,10 @@
         </row>
         <row r="309">
           <cell r="I309">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J309">
-            <v>2</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="310">
@@ -5568,7 +5568,7 @@
             <v>2017</v>
           </cell>
           <cell r="J311">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="312">
@@ -5581,7 +5581,7 @@
             <v>2017</v>
           </cell>
           <cell r="J312">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="313">
@@ -5594,7 +5594,7 @@
             <v>2017</v>
           </cell>
           <cell r="J313">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="314">
@@ -5620,7 +5620,7 @@
             <v>2017</v>
           </cell>
           <cell r="J315">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="316">
@@ -5630,10 +5630,10 @@
         </row>
         <row r="316">
           <cell r="I316">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J316">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="317">
@@ -5643,10 +5643,10 @@
         </row>
         <row r="317">
           <cell r="I317">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J317">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="318">
@@ -5685,7 +5685,7 @@
             <v>2017</v>
           </cell>
           <cell r="J320">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="321">
@@ -5721,10 +5721,10 @@
         </row>
         <row r="323">
           <cell r="I323">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J323">
-            <v>9</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="324">
@@ -5760,10 +5760,10 @@
         </row>
         <row r="326">
           <cell r="I326">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J326">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="327">
@@ -5776,7 +5776,7 @@
             <v>2017</v>
           </cell>
           <cell r="J327">
-            <v>7</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="328">
@@ -5812,10 +5812,10 @@
         </row>
         <row r="330">
           <cell r="I330">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J330">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="331">
@@ -5828,7 +5828,7 @@
             <v>2018</v>
           </cell>
           <cell r="J331">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="332">
@@ -5838,10 +5838,10 @@
         </row>
         <row r="332">
           <cell r="I332">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J332">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="333">
@@ -5854,7 +5854,7 @@
             <v>2017</v>
           </cell>
           <cell r="J333">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="334">
@@ -5867,7 +5867,7 @@
             <v>2017</v>
           </cell>
           <cell r="J334">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="335">
@@ -5880,7 +5880,7 @@
             <v>2017</v>
           </cell>
           <cell r="J335">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="336">
@@ -5890,10 +5890,10 @@
         </row>
         <row r="336">
           <cell r="I336">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J336">
-            <v>10</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="337">
@@ -5929,10 +5929,10 @@
         </row>
         <row r="339">
           <cell r="I339">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J339">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="340">
@@ -5945,7 +5945,7 @@
             <v>2017</v>
           </cell>
           <cell r="J340">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="341">
@@ -5971,7 +5971,7 @@
             <v>2017</v>
           </cell>
           <cell r="J342">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="343">
@@ -5994,10 +5994,10 @@
         </row>
         <row r="344">
           <cell r="I344">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J344">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="345">
@@ -6010,7 +6010,7 @@
             <v>2018</v>
           </cell>
           <cell r="J345">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="346">
@@ -6020,10 +6020,10 @@
         </row>
         <row r="346">
           <cell r="I346">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J346">
-            <v>2</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="347">
@@ -6049,7 +6049,7 @@
             <v>2017</v>
           </cell>
           <cell r="J348">
-            <v>9</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="349">
@@ -6072,10 +6072,10 @@
         </row>
         <row r="350">
           <cell r="I350">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J350">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="351">
@@ -6093,15 +6093,15 @@
         </row>
         <row r="352">
           <cell r="G352">
-            <v>450000</v>
+            <v>300000</v>
           </cell>
         </row>
         <row r="352">
           <cell r="I352">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J352">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="353">
@@ -6114,7 +6114,7 @@
             <v>2017</v>
           </cell>
           <cell r="J353">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="354">
@@ -6127,7 +6127,7 @@
             <v>2017</v>
           </cell>
           <cell r="J354">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="355">
@@ -6140,7 +6140,7 @@
             <v>2017</v>
           </cell>
           <cell r="J355">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="356">
@@ -6153,7 +6153,7 @@
             <v>2017</v>
           </cell>
           <cell r="J356">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="357">
@@ -6166,7 +6166,7 @@
             <v>2017</v>
           </cell>
           <cell r="J357">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="358">
@@ -6176,23 +6176,23 @@
         </row>
         <row r="358">
           <cell r="I358">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J358">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="359">
           <cell r="G359">
-            <v>300000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="359">
           <cell r="I359">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J359">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="360">
@@ -6218,7 +6218,7 @@
             <v>2017</v>
           </cell>
           <cell r="J361">
-            <v>8</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="362">
@@ -6267,10 +6267,10 @@
         </row>
         <row r="365">
           <cell r="I365">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J365">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="366">
@@ -6280,10 +6280,10 @@
         </row>
         <row r="366">
           <cell r="I366">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J366">
-            <v>1</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="367">
@@ -6306,10 +6306,10 @@
         </row>
         <row r="368">
           <cell r="I368">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J368">
-            <v>8</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="369">
@@ -6353,15 +6353,15 @@
         </row>
         <row r="372">
           <cell r="G372">
-            <v>450000</v>
+            <v>300000</v>
           </cell>
         </row>
         <row r="372">
           <cell r="I372">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J372">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="373">
@@ -6374,7 +6374,7 @@
             <v>2017</v>
           </cell>
           <cell r="J373">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="374">
@@ -6400,7 +6400,7 @@
             <v>2017</v>
           </cell>
           <cell r="J375">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="376">
@@ -6413,7 +6413,7 @@
             <v>2017</v>
           </cell>
           <cell r="J376">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="377">
@@ -6431,7 +6431,7 @@
         </row>
         <row r="378">
           <cell r="G378">
-            <v>300000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="378">
@@ -6439,7 +6439,7 @@
             <v>2017</v>
           </cell>
           <cell r="J378">
-            <v>11</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="379">
@@ -6452,7 +6452,7 @@
             <v>2017</v>
           </cell>
           <cell r="J379">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="380">
@@ -6465,7 +6465,7 @@
             <v>2017</v>
           </cell>
           <cell r="J380">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="381">
@@ -6478,7 +6478,7 @@
             <v>2017</v>
           </cell>
           <cell r="J381">
-            <v>10</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="382">
@@ -6491,12 +6491,12 @@
             <v>2017</v>
           </cell>
           <cell r="J382">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="383">
           <cell r="G383">
-            <v>450000</v>
+            <v>170000</v>
           </cell>
         </row>
         <row r="383">
@@ -6504,7 +6504,7 @@
             <v>2017</v>
           </cell>
           <cell r="J383">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="384">
@@ -6517,7 +6517,7 @@
             <v>2017</v>
           </cell>
           <cell r="J384">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="385">
@@ -6530,7 +6530,7 @@
             <v>2017</v>
           </cell>
           <cell r="J385">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="386">
@@ -6543,7 +6543,7 @@
             <v>2017</v>
           </cell>
           <cell r="J386">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="387">
@@ -6556,7 +6556,7 @@
             <v>2017</v>
           </cell>
           <cell r="J387">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="388">
@@ -6569,12 +6569,12 @@
             <v>2017</v>
           </cell>
           <cell r="J388">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="389">
           <cell r="G389">
-            <v>170000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="389">
@@ -6582,7 +6582,7 @@
             <v>2017</v>
           </cell>
           <cell r="J389">
-            <v>12</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="390">
@@ -6595,7 +6595,7 @@
             <v>2017</v>
           </cell>
           <cell r="J390">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="391">
@@ -6608,7 +6608,7 @@
             <v>2017</v>
           </cell>
           <cell r="J391">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="392">
@@ -6634,7 +6634,7 @@
             <v>2017</v>
           </cell>
           <cell r="J393">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="394">
@@ -6647,7 +6647,7 @@
             <v>2017</v>
           </cell>
           <cell r="J394">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="395">
@@ -6660,7 +6660,7 @@
             <v>2017</v>
           </cell>
           <cell r="J395">
-            <v>12</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="396">
@@ -6686,7 +6686,7 @@
             <v>2017</v>
           </cell>
           <cell r="J397">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="398">
@@ -6712,7 +6712,7 @@
             <v>2017</v>
           </cell>
           <cell r="J399">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="400">
@@ -6725,7 +6725,7 @@
             <v>2017</v>
           </cell>
           <cell r="J400">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="401">
@@ -6735,10 +6735,10 @@
         </row>
         <row r="401">
           <cell r="I401">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J401">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="402">
@@ -6748,10 +6748,10 @@
         </row>
         <row r="402">
           <cell r="I402">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J402">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="403">
@@ -6790,7 +6790,7 @@
             <v>2017</v>
           </cell>
           <cell r="J405">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="406">
@@ -6826,10 +6826,10 @@
         </row>
         <row r="408">
           <cell r="I408">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J408">
-            <v>9</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="409">
@@ -6860,15 +6860,15 @@
         </row>
         <row r="411">
           <cell r="G411">
-            <v>450000</v>
+            <v>170000</v>
           </cell>
         </row>
         <row r="411">
           <cell r="I411">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J411">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="412">
@@ -6881,7 +6881,7 @@
             <v>2017</v>
           </cell>
           <cell r="J412">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="413">
@@ -6894,7 +6894,7 @@
             <v>2017</v>
           </cell>
           <cell r="J413">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="414">
@@ -6907,7 +6907,7 @@
             <v>2017</v>
           </cell>
           <cell r="J414">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="415">
@@ -6920,7 +6920,7 @@
             <v>2017</v>
           </cell>
           <cell r="J415">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="416">
@@ -6933,7 +6933,7 @@
             <v>2017</v>
           </cell>
           <cell r="J416">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="417">
@@ -6943,23 +6943,23 @@
         </row>
         <row r="417">
           <cell r="I417">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J417">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="418">
           <cell r="G418">
-            <v>170000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="418">
           <cell r="I418">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J418">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="419">
@@ -6972,7 +6972,7 @@
             <v>2017</v>
           </cell>
           <cell r="J419">
-            <v>7</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="420">
@@ -6985,7 +6985,7 @@
             <v>2017</v>
           </cell>
           <cell r="J420">
-            <v>5</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="421">
@@ -7024,7 +7024,7 @@
             <v>2017</v>
           </cell>
           <cell r="J423">
-            <v>9</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="424">
@@ -7050,7 +7050,7 @@
             <v>2017</v>
           </cell>
           <cell r="J425">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="426">
@@ -7063,7 +7063,7 @@
             <v>2017</v>
           </cell>
           <cell r="J426">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="427">
@@ -7089,7 +7089,7 @@
             <v>2017</v>
           </cell>
           <cell r="J428">
-            <v>10</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="429">
@@ -7099,10 +7099,10 @@
         </row>
         <row r="429">
           <cell r="I429">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J429">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="430">
@@ -7128,7 +7128,7 @@
             <v>2018</v>
           </cell>
           <cell r="J431">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="432">
@@ -7151,10 +7151,10 @@
         </row>
         <row r="433">
           <cell r="I433">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J433">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="434">
@@ -7167,7 +7167,7 @@
             <v>2017</v>
           </cell>
           <cell r="J434">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="435">
@@ -7180,7 +7180,7 @@
             <v>2017</v>
           </cell>
           <cell r="J435">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="436">
@@ -7193,7 +7193,7 @@
             <v>2017</v>
           </cell>
           <cell r="J436">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="437">
@@ -7232,7 +7232,7 @@
             <v>2017</v>
           </cell>
           <cell r="J439">
-            <v>11</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="440">
@@ -7258,7 +7258,7 @@
             <v>2017</v>
           </cell>
           <cell r="J441">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="442">
@@ -7271,7 +7271,7 @@
             <v>2017</v>
           </cell>
           <cell r="J442">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="443">
@@ -7302,7 +7302,7 @@
         </row>
         <row r="445">
           <cell r="G445">
-            <v>450000</v>
+            <v>300000</v>
           </cell>
         </row>
         <row r="445">
@@ -7310,7 +7310,7 @@
             <v>2017</v>
           </cell>
           <cell r="J445">
-            <v>11</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="446">
@@ -7323,7 +7323,7 @@
             <v>2017</v>
           </cell>
           <cell r="J446">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="447">
@@ -7336,7 +7336,7 @@
             <v>2017</v>
           </cell>
           <cell r="J447">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="448">
@@ -7349,7 +7349,7 @@
             <v>2017</v>
           </cell>
           <cell r="J448">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="449">
@@ -7362,7 +7362,7 @@
             <v>2017</v>
           </cell>
           <cell r="J449">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="450">
@@ -7375,7 +7375,7 @@
             <v>2017</v>
           </cell>
           <cell r="J450">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="451">
@@ -7385,23 +7385,23 @@
         </row>
         <row r="451">
           <cell r="I451">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J451">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="452">
           <cell r="G452">
-            <v>300000</v>
+            <v>450000</v>
           </cell>
         </row>
         <row r="452">
           <cell r="I452">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J452">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="453">
@@ -7414,7 +7414,7 @@
             <v>2017</v>
           </cell>
           <cell r="J453">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="454">
@@ -7427,7 +7427,7 @@
             <v>2017</v>
           </cell>
           <cell r="J454">
-            <v>8</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="455">
@@ -7492,7 +7492,7 @@
             <v>2017</v>
           </cell>
           <cell r="J459">
-            <v>11</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="460">
@@ -7505,7 +7505,7 @@
             <v>2017</v>
           </cell>
           <cell r="J460">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="461">
@@ -7531,7 +7531,7 @@
             <v>2017</v>
           </cell>
           <cell r="J462">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="463">
@@ -7544,7 +7544,7 @@
             <v>2017</v>
           </cell>
           <cell r="J463">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="464">
@@ -7557,7 +7557,7 @@
             <v>2017</v>
           </cell>
           <cell r="J464">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="465">
@@ -7567,10 +7567,10 @@
         </row>
         <row r="465">
           <cell r="I465">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J465">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="466">
@@ -7593,10 +7593,10 @@
         </row>
         <row r="467">
           <cell r="I467">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J467">
-            <v>2</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="468">
@@ -7622,7 +7622,7 @@
             <v>2017</v>
           </cell>
           <cell r="J469">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="470">
@@ -7635,7 +7635,7 @@
             <v>2017</v>
           </cell>
           <cell r="J470">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="471">
@@ -7648,7 +7648,7 @@
             <v>2017</v>
           </cell>
           <cell r="J471">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="472">
@@ -7658,10 +7658,10 @@
         </row>
         <row r="472">
           <cell r="I472">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J472">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="473">
@@ -7674,7 +7674,7 @@
             <v>2018</v>
           </cell>
           <cell r="J473">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="474">
@@ -7684,10 +7684,10 @@
         </row>
         <row r="474">
           <cell r="I474">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J474">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="475">
@@ -7700,7 +7700,7 @@
             <v>2017</v>
           </cell>
           <cell r="J475">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="476">
@@ -7713,7 +7713,7 @@
             <v>2017</v>
           </cell>
           <cell r="J476">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="477">
@@ -7726,7 +7726,7 @@
             <v>2017</v>
           </cell>
           <cell r="J477">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="478">
@@ -7739,7 +7739,7 @@
             <v>2017</v>
           </cell>
           <cell r="J478">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="479">
@@ -7749,10 +7749,10 @@
         </row>
         <row r="479">
           <cell r="I479">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J479">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="480">
@@ -7762,10 +7762,10 @@
         </row>
         <row r="480">
           <cell r="I480">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J480">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="481">
@@ -7778,7 +7778,7 @@
             <v>2017</v>
           </cell>
           <cell r="J481">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="482">
@@ -7791,7 +7791,7 @@
             <v>2017</v>
           </cell>
           <cell r="J482">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="483">
@@ -7804,7 +7804,7 @@
             <v>2017</v>
           </cell>
           <cell r="J483">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="484">
@@ -7817,7 +7817,7 @@
             <v>2017</v>
           </cell>
           <cell r="J484">
-            <v>10</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="485">
@@ -7843,7 +7843,7 @@
             <v>2017</v>
           </cell>
           <cell r="J486">
-            <v>12</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="487">
@@ -7856,7 +7856,7 @@
             <v>2017</v>
           </cell>
           <cell r="J487">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="488">
@@ -7869,7 +7869,7 @@
             <v>2017</v>
           </cell>
           <cell r="J488">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="489">
@@ -7882,7 +7882,7 @@
             <v>2017</v>
           </cell>
           <cell r="J489">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="490">
@@ -7895,7 +7895,7 @@
             <v>2017</v>
           </cell>
           <cell r="J490">
-            <v>10</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="491">
@@ -7921,7 +7921,7 @@
             <v>2017</v>
           </cell>
           <cell r="J492">
-            <v>12</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="493">
@@ -7934,7 +7934,7 @@
             <v>2017</v>
           </cell>
           <cell r="J493">
-            <v>9</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="494">
@@ -7952,7 +7952,7 @@
         </row>
         <row r="495">
           <cell r="G495">
-            <v>450000</v>
+            <v>500000</v>
           </cell>
         </row>
         <row r="495">
@@ -7960,12 +7960,12 @@
             <v>2017</v>
           </cell>
           <cell r="J495">
-            <v>5</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="496">
           <cell r="G496">
-            <v>500000</v>
+            <v>260000</v>
           </cell>
         </row>
         <row r="496">
@@ -7973,7 +7973,7 @@
             <v>2017</v>
           </cell>
           <cell r="J496">
-            <v>7</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="497">
@@ -8012,7 +8012,7 @@
             <v>2017</v>
           </cell>
           <cell r="J499">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="500">
@@ -8022,10 +8022,10 @@
         </row>
         <row r="500">
           <cell r="I500">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J500">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="501">
@@ -8035,10 +8035,10 @@
         </row>
         <row r="501">
           <cell r="I501">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J501">
-            <v>2</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="502">
@@ -8051,7 +8051,7 @@
             <v>2017</v>
           </cell>
           <cell r="J502">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="503">
@@ -8064,7 +8064,7 @@
             <v>2017</v>
           </cell>
           <cell r="J503">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="504">
@@ -8074,10 +8074,10 @@
         </row>
         <row r="504">
           <cell r="I504">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J504">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="505">
@@ -8087,23 +8087,23 @@
         </row>
         <row r="505">
           <cell r="I505">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J505">
-            <v>1</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="506">
           <cell r="G506">
-            <v>260000</v>
+            <v>150000</v>
           </cell>
         </row>
         <row r="506">
           <cell r="I506">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J506">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="507">
@@ -8134,15 +8134,15 @@
         </row>
         <row r="509">
           <cell r="G509">
-            <v>150000</v>
+            <v>350000</v>
           </cell>
         </row>
         <row r="509">
           <cell r="I509">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J509">
-            <v>1</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="510">
@@ -8173,7 +8173,7 @@
         </row>
         <row r="512">
           <cell r="G512">
-            <v>350000</v>
+            <v>150000</v>
           </cell>
         </row>
         <row r="512">
@@ -8181,7 +8181,7 @@
             <v>2017</v>
           </cell>
           <cell r="J512">
-            <v>11</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="513">
@@ -8207,7 +8207,7 @@
             <v>2017</v>
           </cell>
           <cell r="J514">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="515">
@@ -8220,7 +8220,7 @@
             <v>2017</v>
           </cell>
           <cell r="J515">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="516">
@@ -8230,10 +8230,10 @@
         </row>
         <row r="516">
           <cell r="I516">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J516">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="517">
@@ -8259,7 +8259,7 @@
             <v>2018</v>
           </cell>
           <cell r="J518">
-            <v>2</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="519">
@@ -8269,10 +8269,10 @@
         </row>
         <row r="519">
           <cell r="I519">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J519">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="520">
@@ -8285,7 +8285,7 @@
             <v>2017</v>
           </cell>
           <cell r="J520">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="521">
@@ -8298,7 +8298,7 @@
             <v>2017</v>
           </cell>
           <cell r="J521">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="522">
@@ -8311,7 +8311,7 @@
             <v>2017</v>
           </cell>
           <cell r="J522">
-            <v>12</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="523">
@@ -8337,7 +8337,7 @@
             <v>2017</v>
           </cell>
           <cell r="J524">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="525">
@@ -8363,7 +8363,7 @@
             <v>2017</v>
           </cell>
           <cell r="J526">
-            <v>11</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="527">
@@ -8381,7 +8381,7 @@
         </row>
         <row r="528">
           <cell r="G528">
-            <v>150000</v>
+            <v>100000</v>
           </cell>
         </row>
         <row r="528">
@@ -8389,7 +8389,7 @@
             <v>2017</v>
           </cell>
           <cell r="J528">
-            <v>2</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="529">
@@ -8428,7 +8428,7 @@
             <v>2017</v>
           </cell>
           <cell r="J531">
-            <v>9</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="532">
@@ -8446,7 +8446,7 @@
         </row>
         <row r="533">
           <cell r="G533">
-            <v>100000</v>
+            <v>150000</v>
           </cell>
         </row>
         <row r="533">
@@ -8454,7 +8454,7 @@
             <v>2017</v>
           </cell>
           <cell r="J533">
-            <v>1</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="534">
@@ -8467,7 +8467,7 @@
             <v>2017</v>
           </cell>
           <cell r="J534">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="535">
@@ -8490,10 +8490,10 @@
         </row>
         <row r="536">
           <cell r="I536">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J536">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="537">
@@ -8506,7 +8506,7 @@
             <v>2018</v>
           </cell>
           <cell r="J537">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="538">
@@ -8529,10 +8529,10 @@
         </row>
         <row r="539">
           <cell r="I539">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J539">
-            <v>2</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="540">
@@ -8545,7 +8545,7 @@
             <v>2017</v>
           </cell>
           <cell r="J540">
-            <v>9</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="541">
@@ -8584,7 +8584,7 @@
             <v>2017</v>
           </cell>
           <cell r="J543">
-            <v>12</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="544">
@@ -8597,7 +8597,7 @@
             <v>2017</v>
           </cell>
           <cell r="J544">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="545">
@@ -8610,7 +8610,7 @@
             <v>2017</v>
           </cell>
           <cell r="J545">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="546">
@@ -8623,7 +8623,7 @@
             <v>2017</v>
           </cell>
           <cell r="J546">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="547">
@@ -8636,7 +8636,7 @@
             <v>2017</v>
           </cell>
           <cell r="J547">
-            <v>12</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="548">
@@ -8649,7 +8649,7 @@
             <v>2017</v>
           </cell>
           <cell r="J548">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="549">
@@ -8662,7 +8662,7 @@
             <v>2017</v>
           </cell>
           <cell r="J549">
-            <v>10</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="550">
@@ -8672,10 +8672,10 @@
         </row>
         <row r="550">
           <cell r="I550">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J550">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="551">
@@ -8685,10 +8685,10 @@
         </row>
         <row r="551">
           <cell r="I551">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J551">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="552">
@@ -8701,7 +8701,7 @@
             <v>2017</v>
           </cell>
           <cell r="J552">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="553">
@@ -8714,7 +8714,7 @@
             <v>2017</v>
           </cell>
           <cell r="J553">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="554">
@@ -8727,7 +8727,7 @@
             <v>2017</v>
           </cell>
           <cell r="J554">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="555">
@@ -8740,7 +8740,7 @@
             <v>2017</v>
           </cell>
           <cell r="J555">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="556">
@@ -8753,7 +8753,7 @@
             <v>2017</v>
           </cell>
           <cell r="J556">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="557">
@@ -8763,10 +8763,10 @@
         </row>
         <row r="557">
           <cell r="I557">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J557">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="558">
@@ -8789,10 +8789,10 @@
         </row>
         <row r="559">
           <cell r="I559">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J559">
-            <v>2</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="560">
@@ -8805,7 +8805,7 @@
             <v>2017</v>
           </cell>
           <cell r="J560">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="561">
@@ -8818,7 +8818,7 @@
             <v>2017</v>
           </cell>
           <cell r="J561">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="562">
@@ -8831,7 +8831,7 @@
             <v>2017</v>
           </cell>
           <cell r="J562">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="563">
@@ -8841,23 +8841,23 @@
         </row>
         <row r="563">
           <cell r="I563">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J563">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="564">
           <cell r="G564">
-            <v>150000</v>
+            <v>120000</v>
           </cell>
         </row>
         <row r="564">
           <cell r="I564">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J564">
-            <v>2</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="565">
@@ -8870,7 +8870,7 @@
             <v>2017</v>
           </cell>
           <cell r="J565">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="566">
@@ -8883,7 +8883,7 @@
             <v>2017</v>
           </cell>
           <cell r="J566">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="567">
@@ -8906,10 +8906,10 @@
         </row>
         <row r="568">
           <cell r="I568">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J568">
-            <v>11</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="569">
@@ -8927,15 +8927,15 @@
         </row>
         <row r="570">
           <cell r="G570">
-            <v>120000</v>
+            <v>150000</v>
           </cell>
         </row>
         <row r="570">
           <cell r="I570">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J570">
-            <v>2</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="571">
@@ -8974,7 +8974,7 @@
             <v>2017</v>
           </cell>
           <cell r="J573">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="574">
@@ -8987,7 +8987,7 @@
             <v>2017</v>
           </cell>
           <cell r="J574">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="575">
@@ -8997,10 +8997,10 @@
         </row>
         <row r="575">
           <cell r="I575">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J575">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="576">
@@ -9010,10 +9010,10 @@
         </row>
         <row r="576">
           <cell r="I576">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J576">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="577">
@@ -9026,7 +9026,7 @@
             <v>2017</v>
           </cell>
           <cell r="J577">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="578">
@@ -9039,7 +9039,7 @@
             <v>2017</v>
           </cell>
           <cell r="J578">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="579">
@@ -9052,7 +9052,7 @@
             <v>2017</v>
           </cell>
           <cell r="J579">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="580">
@@ -9065,7 +9065,7 @@
             <v>2017</v>
           </cell>
           <cell r="J580">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="581">
@@ -9078,12 +9078,12 @@
             <v>2017</v>
           </cell>
           <cell r="J581">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="582">
           <cell r="G582">
-            <v>150000</v>
+            <v>160000</v>
           </cell>
         </row>
         <row r="582">
@@ -9091,7 +9091,7 @@
             <v>2017</v>
           </cell>
           <cell r="J582">
-            <v>12</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="583">
@@ -9117,7 +9117,7 @@
             <v>2017</v>
           </cell>
           <cell r="J584">
-            <v>7</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="585">
@@ -9130,7 +9130,7 @@
             <v>2017</v>
           </cell>
           <cell r="J585">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="586">
@@ -9143,7 +9143,7 @@
             <v>2017</v>
           </cell>
           <cell r="J586">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="587">
@@ -9169,7 +9169,7 @@
             <v>2017</v>
           </cell>
           <cell r="J588">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="589">
@@ -9179,23 +9179,23 @@
         </row>
         <row r="589">
           <cell r="I589">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J589">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="590">
           <cell r="G590">
-            <v>160000</v>
+            <v>150000</v>
           </cell>
         </row>
         <row r="590">
           <cell r="I590">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J590">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="591">
@@ -9208,7 +9208,7 @@
             <v>2017</v>
           </cell>
           <cell r="J591">
-            <v>7</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="592">
@@ -9221,7 +9221,7 @@
             <v>2017</v>
           </cell>
           <cell r="J592">
-            <v>12</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="593">
@@ -9234,7 +9234,7 @@
             <v>2017</v>
           </cell>
           <cell r="J593">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="594">
@@ -9247,7 +9247,7 @@
             <v>2017</v>
           </cell>
           <cell r="J594">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="595">
@@ -9260,7 +9260,7 @@
             <v>2017</v>
           </cell>
           <cell r="J595">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="596">
@@ -9270,10 +9270,10 @@
         </row>
         <row r="596">
           <cell r="I596">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J596">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="597">
@@ -9291,15 +9291,15 @@
         </row>
         <row r="598">
           <cell r="G598">
-            <v>150000</v>
+            <v>160000</v>
           </cell>
         </row>
         <row r="598">
           <cell r="I598">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J598">
-            <v>2</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="599">
@@ -9325,7 +9325,7 @@
             <v>2017</v>
           </cell>
           <cell r="J600">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="601">
@@ -9338,7 +9338,7 @@
             <v>2017</v>
           </cell>
           <cell r="J601">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="602">
@@ -9351,7 +9351,7 @@
             <v>2017</v>
           </cell>
           <cell r="J602">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="603">
@@ -9364,7 +9364,7 @@
             <v>2017</v>
           </cell>
           <cell r="J603">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="604">
@@ -9374,10 +9374,10 @@
         </row>
         <row r="604">
           <cell r="I604">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J604">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="605">
@@ -9395,15 +9395,15 @@
         </row>
         <row r="606">
           <cell r="G606">
-            <v>160000</v>
+            <v>150000</v>
           </cell>
         </row>
         <row r="606">
           <cell r="I606">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J606">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="607">
@@ -9416,7 +9416,7 @@
             <v>2017</v>
           </cell>
           <cell r="J607">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="608">
@@ -9429,7 +9429,7 @@
             <v>2017</v>
           </cell>
           <cell r="J608">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="609">
@@ -9442,7 +9442,7 @@
             <v>2017</v>
           </cell>
           <cell r="J609">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="610">
@@ -9468,7 +9468,7 @@
             <v>2017</v>
           </cell>
           <cell r="J611">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="612">
@@ -9481,7 +9481,7 @@
             <v>2017</v>
           </cell>
           <cell r="J612">
-            <v>12</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="613">
@@ -9494,7 +9494,7 @@
             <v>2017</v>
           </cell>
           <cell r="J613">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="614">
@@ -9507,7 +9507,7 @@
             <v>2017</v>
           </cell>
           <cell r="J614">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="615">
@@ -9520,7 +9520,7 @@
             <v>2017</v>
           </cell>
           <cell r="J615">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="616">
@@ -9533,7 +9533,7 @@
             <v>2017</v>
           </cell>
           <cell r="J616">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="617">
@@ -9546,7 +9546,7 @@
             <v>2017</v>
           </cell>
           <cell r="J617">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="618">
@@ -9556,10 +9556,10 @@
         </row>
         <row r="618">
           <cell r="I618">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J618">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="619">
@@ -9572,7 +9572,7 @@
             <v>2018</v>
           </cell>
           <cell r="J619">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="620">
@@ -9582,10 +9582,10 @@
         </row>
         <row r="620">
           <cell r="I620">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J620">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="621">
@@ -9598,7 +9598,7 @@
             <v>2017</v>
           </cell>
           <cell r="J621">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="622">
@@ -9611,7 +9611,7 @@
             <v>2017</v>
           </cell>
           <cell r="J622">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="623">
@@ -9624,7 +9624,7 @@
             <v>2017</v>
           </cell>
           <cell r="J623">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="624">
@@ -9650,7 +9650,7 @@
             <v>2017</v>
           </cell>
           <cell r="J625">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="626">
@@ -9660,10 +9660,10 @@
         </row>
         <row r="626">
           <cell r="I626">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J626">
-            <v>12</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="627">
@@ -9673,10 +9673,10 @@
         </row>
         <row r="627">
           <cell r="I627">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J627">
-            <v>2</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="628">
@@ -9689,7 +9689,7 @@
             <v>2017</v>
           </cell>
           <cell r="J628">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="629">
@@ -9715,7 +9715,7 @@
             <v>2017</v>
           </cell>
           <cell r="J630">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="631">
@@ -9728,7 +9728,7 @@
             <v>2017</v>
           </cell>
           <cell r="J631">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="632">
@@ -9738,10 +9738,10 @@
         </row>
         <row r="632">
           <cell r="I632">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J632">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="633">
@@ -9754,7 +9754,7 @@
             <v>2018</v>
           </cell>
           <cell r="J633">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="634">
@@ -9772,15 +9772,15 @@
         </row>
         <row r="635">
           <cell r="G635">
-            <v>150000</v>
+            <v>200000</v>
           </cell>
         </row>
         <row r="635">
           <cell r="I635">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J635">
-            <v>2</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="636">
@@ -9793,7 +9793,7 @@
             <v>2017</v>
           </cell>
           <cell r="J636">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="637">
@@ -9806,7 +9806,7 @@
             <v>2017</v>
           </cell>
           <cell r="J637">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="638">
@@ -9819,7 +9819,7 @@
             <v>2017</v>
           </cell>
           <cell r="J638">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="639">
@@ -9832,7 +9832,7 @@
             <v>2017</v>
           </cell>
           <cell r="J639">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="640">
@@ -9842,10 +9842,10 @@
         </row>
         <row r="640">
           <cell r="I640">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J640">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="641">
@@ -9871,20 +9871,20 @@
             <v>2018</v>
           </cell>
           <cell r="J642">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="643">
           <cell r="G643">
-            <v>200000</v>
+            <v>150000</v>
           </cell>
         </row>
         <row r="643">
           <cell r="I643">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J643">
-            <v>2</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="644">
@@ -9910,7 +9910,7 @@
             <v>2017</v>
           </cell>
           <cell r="J645">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="646">
@@ -9936,7 +9936,7 @@
             <v>2017</v>
           </cell>
           <cell r="J647">
-            <v>9</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="648">
@@ -9962,7 +9962,7 @@
             <v>2017</v>
           </cell>
           <cell r="J649">
-            <v>12</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="650">
@@ -9980,7 +9980,7 @@
         </row>
         <row r="651">
           <cell r="G651">
-            <v>150000</v>
+            <v>200000</v>
           </cell>
         </row>
         <row r="651">
@@ -9988,7 +9988,7 @@
             <v>2017</v>
           </cell>
           <cell r="J651">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="652">
@@ -10027,7 +10027,7 @@
             <v>2017</v>
           </cell>
           <cell r="J654">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="655">
@@ -10040,7 +10040,7 @@
             <v>2017</v>
           </cell>
           <cell r="J655">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="656">
@@ -10053,7 +10053,7 @@
             <v>2017</v>
           </cell>
           <cell r="J656">
-            <v>11</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="657">
@@ -10066,7 +10066,7 @@
             <v>2017</v>
           </cell>
           <cell r="J657">
-            <v>12</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="658">
@@ -10097,7 +10097,7 @@
         </row>
         <row r="660">
           <cell r="G660">
-            <v>200000</v>
+            <v>150000</v>
           </cell>
         </row>
         <row r="660">
@@ -10105,7 +10105,7 @@
             <v>2017</v>
           </cell>
           <cell r="J660">
-            <v>3</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="661">
@@ -10131,7 +10131,7 @@
             <v>2017</v>
           </cell>
           <cell r="J662">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="663">
@@ -10144,7 +10144,7 @@
             <v>2017</v>
           </cell>
           <cell r="J663">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="664">
@@ -10157,7 +10157,7 @@
             <v>2017</v>
           </cell>
           <cell r="J664">
-            <v>10</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="665">
@@ -10167,10 +10167,10 @@
         </row>
         <row r="665">
           <cell r="I665">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J665">
-            <v>12</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="666">
@@ -10183,7 +10183,7 @@
             <v>2018</v>
           </cell>
           <cell r="J666">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="667">
@@ -10196,7 +10196,7 @@
             <v>2018</v>
           </cell>
           <cell r="J667">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="668">
@@ -10206,10 +10206,10 @@
         </row>
         <row r="668">
           <cell r="I668">
-            <v>2018</v>
+            <v>2017</v>
           </cell>
           <cell r="J668">
-            <v>3</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="669">
@@ -10235,7 +10235,7 @@
             <v>2017</v>
           </cell>
           <cell r="J670">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="671">
@@ -10248,7 +10248,7 @@
             <v>2017</v>
           </cell>
           <cell r="J671">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="672">
@@ -10271,10 +10271,10 @@
         </row>
         <row r="673">
           <cell r="I673">
-            <v>2017</v>
+            <v>2018</v>
           </cell>
           <cell r="J673">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="674">
@@ -10287,7 +10287,7 @@
             <v>2018</v>
           </cell>
           <cell r="J674">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="675">
@@ -10317,2683 +10317,471 @@
           </cell>
         </row>
         <row r="677">
+          <cell r="G677">
+            <v>150000</v>
+          </cell>
+        </row>
+        <row r="677">
           <cell r="I677">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J677">
-            <v>1</v>
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="678">
+          <cell r="G678">
+            <v>150000</v>
           </cell>
         </row>
         <row r="678">
           <cell r="I678">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J678">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="679">
+          <cell r="G679">
+            <v>150000</v>
           </cell>
         </row>
         <row r="679">
           <cell r="I679">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J679">
-            <v>1</v>
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="680">
+          <cell r="G680">
+            <v>150000</v>
           </cell>
         </row>
         <row r="680">
           <cell r="I680">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J680">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="681">
+          <cell r="G681">
+            <v>150000</v>
           </cell>
         </row>
         <row r="681">
           <cell r="I681">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J681">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="682">
+          <cell r="G682">
+            <v>150000</v>
           </cell>
         </row>
         <row r="682">
           <cell r="I682">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J682">
-            <v>1</v>
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="683">
+          <cell r="G683">
+            <v>150000</v>
           </cell>
         </row>
         <row r="683">
           <cell r="I683">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J683">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="684">
+          <cell r="G684">
+            <v>150000</v>
           </cell>
         </row>
         <row r="684">
           <cell r="I684">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J684">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="685">
+          <cell r="G685">
+            <v>160000</v>
           </cell>
         </row>
         <row r="685">
           <cell r="I685">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J685">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="686">
+          <cell r="G686">
+            <v>150000</v>
           </cell>
         </row>
         <row r="686">
           <cell r="I686">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J686">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="687">
+          <cell r="G687">
+            <v>150000</v>
           </cell>
         </row>
         <row r="687">
           <cell r="I687">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J687">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="688">
+          <cell r="G688">
+            <v>150000</v>
           </cell>
         </row>
         <row r="688">
           <cell r="I688">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J688">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="689">
+          <cell r="G689">
+            <v>150000</v>
           </cell>
         </row>
         <row r="689">
           <cell r="I689">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J689">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="690">
+          <cell r="G690">
+            <v>200000</v>
           </cell>
         </row>
         <row r="690">
           <cell r="I690">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J690">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="691">
+          <cell r="G691">
+            <v>450000</v>
           </cell>
         </row>
         <row r="691">
           <cell r="I691">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J691">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="692">
+          <cell r="G692">
+            <v>450000</v>
           </cell>
         </row>
         <row r="692">
           <cell r="I692">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J692">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="693">
+          <cell r="G693">
+            <v>450000</v>
           </cell>
         </row>
         <row r="693">
           <cell r="I693">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J693">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="694">
+          <cell r="G694">
+            <v>450000</v>
           </cell>
         </row>
         <row r="694">
           <cell r="I694">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J694">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="695">
+          <cell r="G695">
+            <v>450000</v>
           </cell>
         </row>
         <row r="695">
           <cell r="I695">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J695">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="696">
+          <cell r="G696">
+            <v>450000</v>
           </cell>
         </row>
         <row r="696">
           <cell r="I696">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J696">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="697">
+          <cell r="G697">
+            <v>450000</v>
           </cell>
         </row>
         <row r="697">
           <cell r="I697">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J697">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="698">
+          <cell r="G698">
+            <v>450000</v>
           </cell>
         </row>
         <row r="698">
           <cell r="I698">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J698">
             <v>1</v>
           </cell>
         </row>
         <row r="699">
+          <cell r="G699">
+            <v>450000</v>
+          </cell>
+        </row>
+        <row r="699">
           <cell r="I699">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J699">
-            <v>1</v>
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="700">
+          <cell r="G700">
+            <v>450000</v>
           </cell>
         </row>
         <row r="700">
           <cell r="I700">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J700">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="701">
+          <cell r="G701">
+            <v>450000</v>
           </cell>
         </row>
         <row r="701">
           <cell r="I701">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J701">
-            <v>1</v>
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="702">
+          <cell r="G702">
+            <v>450000</v>
           </cell>
         </row>
         <row r="702">
           <cell r="I702">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J702">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="703">
+          <cell r="G703">
+            <v>260000</v>
           </cell>
         </row>
         <row r="703">
           <cell r="I703">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J703">
-            <v>1</v>
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="704">
+          <cell r="G704">
+            <v>260000</v>
           </cell>
         </row>
         <row r="704">
           <cell r="I704">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J704">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="705">
+          <cell r="G705">
+            <v>160000</v>
           </cell>
         </row>
         <row r="705">
           <cell r="I705">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J705">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="706">
+          <cell r="G706">
+            <v>150000</v>
           </cell>
         </row>
         <row r="706">
           <cell r="I706">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J706">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="707">
+          <cell r="G707">
+            <v>150000</v>
           </cell>
         </row>
         <row r="707">
           <cell r="I707">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J707">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="708">
+          <cell r="G708">
+            <v>450000</v>
           </cell>
         </row>
         <row r="708">
           <cell r="I708">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J708">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="709">
+          <cell r="G709">
+            <v>150000</v>
           </cell>
         </row>
         <row r="709">
           <cell r="I709">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J709">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="G710">
+            <v>150000</v>
           </cell>
         </row>
         <row r="710">
           <cell r="I710">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J710">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="G711">
+            <v>150000</v>
           </cell>
         </row>
         <row r="711">
           <cell r="I711">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J711">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="712">
+          <cell r="G712">
+            <v>150000</v>
           </cell>
         </row>
         <row r="712">
           <cell r="I712">
-            <v>1900</v>
+            <v>2018</v>
           </cell>
           <cell r="J712">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="713">
-          <cell r="I713">
-            <v>1900</v>
-          </cell>
-          <cell r="J713">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="714">
-          <cell r="I714">
-            <v>1900</v>
-          </cell>
-          <cell r="J714">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="715">
-          <cell r="I715">
-            <v>1900</v>
-          </cell>
-          <cell r="J715">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="716">
-          <cell r="I716">
-            <v>1900</v>
-          </cell>
-          <cell r="J716">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="717">
-          <cell r="I717">
-            <v>1900</v>
-          </cell>
-          <cell r="J717">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="718">
-          <cell r="I718">
-            <v>1900</v>
-          </cell>
-          <cell r="J718">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="719">
-          <cell r="I719">
-            <v>1900</v>
-          </cell>
-          <cell r="J719">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="720">
-          <cell r="I720">
-            <v>1900</v>
-          </cell>
-          <cell r="J720">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="721">
-          <cell r="I721">
-            <v>1900</v>
-          </cell>
-          <cell r="J721">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="722">
-          <cell r="I722">
-            <v>1900</v>
-          </cell>
-          <cell r="J722">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="723">
-          <cell r="I723">
-            <v>1900</v>
-          </cell>
-          <cell r="J723">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="724">
-          <cell r="I724">
-            <v>1900</v>
-          </cell>
-          <cell r="J724">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="725">
-          <cell r="I725">
-            <v>1900</v>
-          </cell>
-          <cell r="J725">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="726">
-          <cell r="I726">
-            <v>1900</v>
-          </cell>
-          <cell r="J726">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="727">
-          <cell r="I727">
-            <v>1900</v>
-          </cell>
-          <cell r="J727">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="728">
-          <cell r="I728">
-            <v>1900</v>
-          </cell>
-          <cell r="J728">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="729">
-          <cell r="I729">
-            <v>1900</v>
-          </cell>
-          <cell r="J729">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="730">
-          <cell r="I730">
-            <v>1900</v>
-          </cell>
-          <cell r="J730">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="731">
-          <cell r="I731">
-            <v>1900</v>
-          </cell>
-          <cell r="J731">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="732">
-          <cell r="I732">
-            <v>1900</v>
-          </cell>
-          <cell r="J732">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="733">
-          <cell r="I733">
-            <v>1900</v>
-          </cell>
-          <cell r="J733">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="734">
-          <cell r="I734">
-            <v>1900</v>
-          </cell>
-          <cell r="J734">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="735">
-          <cell r="I735">
-            <v>1900</v>
-          </cell>
-          <cell r="J735">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="736">
-          <cell r="I736">
-            <v>1900</v>
-          </cell>
-          <cell r="J736">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="737">
-          <cell r="I737">
-            <v>1900</v>
-          </cell>
-          <cell r="J737">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="738">
-          <cell r="I738">
-            <v>1900</v>
-          </cell>
-          <cell r="J738">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="739">
-          <cell r="I739">
-            <v>1900</v>
-          </cell>
-          <cell r="J739">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="740">
-          <cell r="I740">
-            <v>1900</v>
-          </cell>
-          <cell r="J740">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="741">
-          <cell r="I741">
-            <v>1900</v>
-          </cell>
-          <cell r="J741">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="742">
-          <cell r="I742">
-            <v>1900</v>
-          </cell>
-          <cell r="J742">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="743">
-          <cell r="I743">
-            <v>1900</v>
-          </cell>
-          <cell r="J743">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="744">
-          <cell r="I744">
-            <v>1900</v>
-          </cell>
-          <cell r="J744">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="745">
-          <cell r="I745">
-            <v>1900</v>
-          </cell>
-          <cell r="J745">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="746">
-          <cell r="I746">
-            <v>1900</v>
-          </cell>
-          <cell r="J746">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="747">
-          <cell r="I747">
-            <v>1900</v>
-          </cell>
-          <cell r="J747">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="748">
-          <cell r="I748">
-            <v>1900</v>
-          </cell>
-          <cell r="J748">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="749">
-          <cell r="I749">
-            <v>1900</v>
-          </cell>
-          <cell r="J749">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="750">
-          <cell r="I750">
-            <v>1900</v>
-          </cell>
-          <cell r="J750">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="751">
-          <cell r="I751">
-            <v>1900</v>
-          </cell>
-          <cell r="J751">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="752">
-          <cell r="I752">
-            <v>1900</v>
-          </cell>
-          <cell r="J752">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="753">
-          <cell r="I753">
-            <v>1900</v>
-          </cell>
-          <cell r="J753">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="754">
-          <cell r="I754">
-            <v>1900</v>
-          </cell>
-          <cell r="J754">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="755">
-          <cell r="I755">
-            <v>1900</v>
-          </cell>
-          <cell r="J755">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="756">
-          <cell r="I756">
-            <v>1900</v>
-          </cell>
-          <cell r="J756">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="757">
-          <cell r="I757">
-            <v>1900</v>
-          </cell>
-          <cell r="J757">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="758">
-          <cell r="I758">
-            <v>1900</v>
-          </cell>
-          <cell r="J758">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="759">
-          <cell r="I759">
-            <v>1900</v>
-          </cell>
-          <cell r="J759">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="760">
-          <cell r="I760">
-            <v>1900</v>
-          </cell>
-          <cell r="J760">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="761">
-          <cell r="I761">
-            <v>1900</v>
-          </cell>
-          <cell r="J761">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="762">
-          <cell r="I762">
-            <v>1900</v>
-          </cell>
-          <cell r="J762">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="763">
-          <cell r="I763">
-            <v>1900</v>
-          </cell>
-          <cell r="J763">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="764">
-          <cell r="I764">
-            <v>1900</v>
-          </cell>
-          <cell r="J764">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="765">
-          <cell r="I765">
-            <v>1900</v>
-          </cell>
-          <cell r="J765">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="766">
-          <cell r="I766">
-            <v>1900</v>
-          </cell>
-          <cell r="J766">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="767">
-          <cell r="I767">
-            <v>1900</v>
-          </cell>
-          <cell r="J767">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="768">
-          <cell r="I768">
-            <v>1900</v>
-          </cell>
-          <cell r="J768">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="769">
-          <cell r="I769">
-            <v>1900</v>
-          </cell>
-          <cell r="J769">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="770">
-          <cell r="I770">
-            <v>1900</v>
-          </cell>
-          <cell r="J770">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="771">
-          <cell r="I771">
-            <v>1900</v>
-          </cell>
-          <cell r="J771">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="772">
-          <cell r="I772">
-            <v>1900</v>
-          </cell>
-          <cell r="J772">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="773">
-          <cell r="I773">
-            <v>1900</v>
-          </cell>
-          <cell r="J773">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="774">
-          <cell r="I774">
-            <v>1900</v>
-          </cell>
-          <cell r="J774">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="775">
-          <cell r="I775">
-            <v>1900</v>
-          </cell>
-          <cell r="J775">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="776">
-          <cell r="I776">
-            <v>1900</v>
-          </cell>
-          <cell r="J776">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="777">
-          <cell r="I777">
-            <v>1900</v>
-          </cell>
-          <cell r="J777">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="778">
-          <cell r="I778">
-            <v>1900</v>
-          </cell>
-          <cell r="J778">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="779">
-          <cell r="I779">
-            <v>1900</v>
-          </cell>
-          <cell r="J779">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="780">
-          <cell r="I780">
-            <v>1900</v>
-          </cell>
-          <cell r="J780">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="781">
-          <cell r="I781">
-            <v>1900</v>
-          </cell>
-          <cell r="J781">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="782">
-          <cell r="I782">
-            <v>1900</v>
-          </cell>
-          <cell r="J782">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="783">
-          <cell r="I783">
-            <v>1900</v>
-          </cell>
-          <cell r="J783">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="784">
-          <cell r="I784">
-            <v>1900</v>
-          </cell>
-          <cell r="J784">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="785">
-          <cell r="I785">
-            <v>1900</v>
-          </cell>
-          <cell r="J785">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="786">
-          <cell r="I786">
-            <v>1900</v>
-          </cell>
-          <cell r="J786">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="787">
-          <cell r="I787">
-            <v>1900</v>
-          </cell>
-          <cell r="J787">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="788">
-          <cell r="I788">
-            <v>1900</v>
-          </cell>
-          <cell r="J788">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="789">
-          <cell r="I789">
-            <v>1900</v>
-          </cell>
-          <cell r="J789">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="790">
-          <cell r="I790">
-            <v>1900</v>
-          </cell>
-          <cell r="J790">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="791">
-          <cell r="I791">
-            <v>1900</v>
-          </cell>
-          <cell r="J791">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="792">
-          <cell r="I792">
-            <v>1900</v>
-          </cell>
-          <cell r="J792">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="793">
-          <cell r="I793">
-            <v>1900</v>
-          </cell>
-          <cell r="J793">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="794">
-          <cell r="I794">
-            <v>1900</v>
-          </cell>
-          <cell r="J794">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="795">
-          <cell r="I795">
-            <v>1900</v>
-          </cell>
-          <cell r="J795">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="796">
-          <cell r="I796">
-            <v>1900</v>
-          </cell>
-          <cell r="J796">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="797">
-          <cell r="I797">
-            <v>1900</v>
-          </cell>
-          <cell r="J797">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="798">
-          <cell r="I798">
-            <v>1900</v>
-          </cell>
-          <cell r="J798">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="799">
-          <cell r="I799">
-            <v>1900</v>
-          </cell>
-          <cell r="J799">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="800">
-          <cell r="I800">
-            <v>1900</v>
-          </cell>
-          <cell r="J800">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="801">
-          <cell r="I801">
-            <v>1900</v>
-          </cell>
-          <cell r="J801">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="802">
-          <cell r="I802">
-            <v>1900</v>
-          </cell>
-          <cell r="J802">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="803">
-          <cell r="I803">
-            <v>1900</v>
-          </cell>
-          <cell r="J803">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="804">
-          <cell r="I804">
-            <v>1900</v>
-          </cell>
-          <cell r="J804">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="805">
-          <cell r="I805">
-            <v>1900</v>
-          </cell>
-          <cell r="J805">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="806">
-          <cell r="I806">
-            <v>1900</v>
-          </cell>
-          <cell r="J806">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="807">
-          <cell r="I807">
-            <v>1900</v>
-          </cell>
-          <cell r="J807">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="808">
-          <cell r="I808">
-            <v>1900</v>
-          </cell>
-          <cell r="J808">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="809">
-          <cell r="I809">
-            <v>1900</v>
-          </cell>
-          <cell r="J809">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="810">
-          <cell r="I810">
-            <v>1900</v>
-          </cell>
-          <cell r="J810">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="811">
-          <cell r="I811">
-            <v>1900</v>
-          </cell>
-          <cell r="J811">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="812">
-          <cell r="I812">
-            <v>1900</v>
-          </cell>
-          <cell r="J812">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="813">
-          <cell r="I813">
-            <v>1900</v>
-          </cell>
-          <cell r="J813">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="814">
-          <cell r="I814">
-            <v>1900</v>
-          </cell>
-          <cell r="J814">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="815">
-          <cell r="I815">
-            <v>1900</v>
-          </cell>
-          <cell r="J815">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="816">
-          <cell r="I816">
-            <v>1900</v>
-          </cell>
-          <cell r="J816">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="817">
-          <cell r="I817">
-            <v>1900</v>
-          </cell>
-          <cell r="J817">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="818">
-          <cell r="I818">
-            <v>1900</v>
-          </cell>
-          <cell r="J818">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="819">
-          <cell r="I819">
-            <v>1900</v>
-          </cell>
-          <cell r="J819">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="820">
-          <cell r="I820">
-            <v>1900</v>
-          </cell>
-          <cell r="J820">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="821">
-          <cell r="I821">
-            <v>1900</v>
-          </cell>
-          <cell r="J821">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="822">
-          <cell r="I822">
-            <v>1900</v>
-          </cell>
-          <cell r="J822">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="823">
-          <cell r="I823">
-            <v>1900</v>
-          </cell>
-          <cell r="J823">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="824">
-          <cell r="I824">
-            <v>1900</v>
-          </cell>
-          <cell r="J824">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="825">
-          <cell r="I825">
-            <v>1900</v>
-          </cell>
-          <cell r="J825">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="826">
-          <cell r="I826">
-            <v>1900</v>
-          </cell>
-          <cell r="J826">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="827">
-          <cell r="I827">
-            <v>1900</v>
-          </cell>
-          <cell r="J827">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="828">
-          <cell r="I828">
-            <v>1900</v>
-          </cell>
-          <cell r="J828">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="829">
-          <cell r="I829">
-            <v>1900</v>
-          </cell>
-          <cell r="J829">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="830">
-          <cell r="I830">
-            <v>1900</v>
-          </cell>
-          <cell r="J830">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="831">
-          <cell r="I831">
-            <v>1900</v>
-          </cell>
-          <cell r="J831">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="832">
-          <cell r="I832">
-            <v>1900</v>
-          </cell>
-          <cell r="J832">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="833">
-          <cell r="I833">
-            <v>1900</v>
-          </cell>
-          <cell r="J833">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="834">
-          <cell r="I834">
-            <v>1900</v>
-          </cell>
-          <cell r="J834">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="835">
-          <cell r="I835">
-            <v>1900</v>
-          </cell>
-          <cell r="J835">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="836">
-          <cell r="I836">
-            <v>1900</v>
-          </cell>
-          <cell r="J836">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="837">
-          <cell r="I837">
-            <v>1900</v>
-          </cell>
-          <cell r="J837">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="838">
-          <cell r="I838">
-            <v>1900</v>
-          </cell>
-          <cell r="J838">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="839">
-          <cell r="I839">
-            <v>1900</v>
-          </cell>
-          <cell r="J839">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="840">
-          <cell r="I840">
-            <v>1900</v>
-          </cell>
-          <cell r="J840">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="841">
-          <cell r="I841">
-            <v>1900</v>
-          </cell>
-          <cell r="J841">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="842">
-          <cell r="I842">
-            <v>1900</v>
-          </cell>
-          <cell r="J842">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="843">
-          <cell r="I843">
-            <v>1900</v>
-          </cell>
-          <cell r="J843">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="844">
-          <cell r="I844">
-            <v>1900</v>
-          </cell>
-          <cell r="J844">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="845">
-          <cell r="I845">
-            <v>1900</v>
-          </cell>
-          <cell r="J845">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="846">
-          <cell r="I846">
-            <v>1900</v>
-          </cell>
-          <cell r="J846">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="847">
-          <cell r="I847">
-            <v>1900</v>
-          </cell>
-          <cell r="J847">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="848">
-          <cell r="I848">
-            <v>1900</v>
-          </cell>
-          <cell r="J848">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="849">
-          <cell r="I849">
-            <v>1900</v>
-          </cell>
-          <cell r="J849">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="850">
-          <cell r="I850">
-            <v>1900</v>
-          </cell>
-          <cell r="J850">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="851">
-          <cell r="I851">
-            <v>1900</v>
-          </cell>
-          <cell r="J851">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="852">
-          <cell r="I852">
-            <v>1900</v>
-          </cell>
-          <cell r="J852">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="853">
-          <cell r="I853">
-            <v>1900</v>
-          </cell>
-          <cell r="J853">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="854">
-          <cell r="I854">
-            <v>1900</v>
-          </cell>
-          <cell r="J854">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="855">
-          <cell r="I855">
-            <v>1900</v>
-          </cell>
-          <cell r="J855">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="856">
-          <cell r="I856">
-            <v>1900</v>
-          </cell>
-          <cell r="J856">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="857">
-          <cell r="I857">
-            <v>1900</v>
-          </cell>
-          <cell r="J857">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="858">
-          <cell r="I858">
-            <v>1900</v>
-          </cell>
-          <cell r="J858">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="859">
-          <cell r="I859">
-            <v>1900</v>
-          </cell>
-          <cell r="J859">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="860">
-          <cell r="I860">
-            <v>1900</v>
-          </cell>
-          <cell r="J860">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="861">
-          <cell r="I861">
-            <v>1900</v>
-          </cell>
-          <cell r="J861">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="862">
-          <cell r="I862">
-            <v>1900</v>
-          </cell>
-          <cell r="J862">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="863">
-          <cell r="I863">
-            <v>1900</v>
-          </cell>
-          <cell r="J863">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="864">
-          <cell r="I864">
-            <v>1900</v>
-          </cell>
-          <cell r="J864">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="865">
-          <cell r="I865">
-            <v>1900</v>
-          </cell>
-          <cell r="J865">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="866">
-          <cell r="I866">
-            <v>1900</v>
-          </cell>
-          <cell r="J866">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="867">
-          <cell r="I867">
-            <v>1900</v>
-          </cell>
-          <cell r="J867">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="868">
-          <cell r="I868">
-            <v>1900</v>
-          </cell>
-          <cell r="J868">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="869">
-          <cell r="I869">
-            <v>1900</v>
-          </cell>
-          <cell r="J869">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="870">
-          <cell r="I870">
-            <v>1900</v>
-          </cell>
-          <cell r="J870">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="871">
-          <cell r="I871">
-            <v>1900</v>
-          </cell>
-          <cell r="J871">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="872">
-          <cell r="I872">
-            <v>1900</v>
-          </cell>
-          <cell r="J872">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="873">
-          <cell r="I873">
-            <v>1900</v>
-          </cell>
-          <cell r="J873">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="874">
-          <cell r="I874">
-            <v>1900</v>
-          </cell>
-          <cell r="J874">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="875">
-          <cell r="I875">
-            <v>1900</v>
-          </cell>
-          <cell r="J875">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="876">
-          <cell r="I876">
-            <v>1900</v>
-          </cell>
-          <cell r="J876">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="877">
-          <cell r="I877">
-            <v>1900</v>
-          </cell>
-          <cell r="J877">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="878">
-          <cell r="I878">
-            <v>1900</v>
-          </cell>
-          <cell r="J878">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="879">
-          <cell r="I879">
-            <v>1900</v>
-          </cell>
-          <cell r="J879">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="880">
-          <cell r="I880">
-            <v>1900</v>
-          </cell>
-          <cell r="J880">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="881">
-          <cell r="I881">
-            <v>1900</v>
-          </cell>
-          <cell r="J881">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="882">
-          <cell r="I882">
-            <v>1900</v>
-          </cell>
-          <cell r="J882">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="883">
-          <cell r="I883">
-            <v>1900</v>
-          </cell>
-          <cell r="J883">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="884">
-          <cell r="I884">
-            <v>1900</v>
-          </cell>
-          <cell r="J884">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="885">
-          <cell r="I885">
-            <v>1900</v>
-          </cell>
-          <cell r="J885">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="886">
-          <cell r="I886">
-            <v>1900</v>
-          </cell>
-          <cell r="J886">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="887">
-          <cell r="I887">
-            <v>1900</v>
-          </cell>
-          <cell r="J887">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="888">
-          <cell r="I888">
-            <v>1900</v>
-          </cell>
-          <cell r="J888">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="889">
-          <cell r="I889">
-            <v>1900</v>
-          </cell>
-          <cell r="J889">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="890">
-          <cell r="I890">
-            <v>1900</v>
-          </cell>
-          <cell r="J890">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="891">
-          <cell r="I891">
-            <v>1900</v>
-          </cell>
-          <cell r="J891">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="892">
-          <cell r="I892">
-            <v>1900</v>
-          </cell>
-          <cell r="J892">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="893">
-          <cell r="I893">
-            <v>1900</v>
-          </cell>
-          <cell r="J893">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="894">
-          <cell r="I894">
-            <v>1900</v>
-          </cell>
-          <cell r="J894">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="895">
-          <cell r="I895">
-            <v>1900</v>
-          </cell>
-          <cell r="J895">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="896">
-          <cell r="I896">
-            <v>1900</v>
-          </cell>
-          <cell r="J896">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="897">
-          <cell r="I897">
-            <v>1900</v>
-          </cell>
-          <cell r="J897">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="898">
-          <cell r="I898">
-            <v>1900</v>
-          </cell>
-          <cell r="J898">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="899">
-          <cell r="I899">
-            <v>1900</v>
-          </cell>
-          <cell r="J899">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="900">
-          <cell r="I900">
-            <v>1900</v>
-          </cell>
-          <cell r="J900">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="901">
-          <cell r="I901">
-            <v>1900</v>
-          </cell>
-          <cell r="J901">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="902">
-          <cell r="I902">
-            <v>1900</v>
-          </cell>
-          <cell r="J902">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="903">
-          <cell r="I903">
-            <v>1900</v>
-          </cell>
-          <cell r="J903">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="904">
-          <cell r="I904">
-            <v>1900</v>
-          </cell>
-          <cell r="J904">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="905">
-          <cell r="I905">
-            <v>1900</v>
-          </cell>
-          <cell r="J905">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="906">
-          <cell r="I906">
-            <v>1900</v>
-          </cell>
-          <cell r="J906">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="907">
-          <cell r="I907">
-            <v>1900</v>
-          </cell>
-          <cell r="J907">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="908">
-          <cell r="I908">
-            <v>1900</v>
-          </cell>
-          <cell r="J908">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="909">
-          <cell r="I909">
-            <v>1900</v>
-          </cell>
-          <cell r="J909">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="910">
-          <cell r="I910">
-            <v>1900</v>
-          </cell>
-          <cell r="J910">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="911">
-          <cell r="I911">
-            <v>1900</v>
-          </cell>
-          <cell r="J911">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="912">
-          <cell r="I912">
-            <v>1900</v>
-          </cell>
-          <cell r="J912">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="913">
-          <cell r="I913">
-            <v>1900</v>
-          </cell>
-          <cell r="J913">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="914">
-          <cell r="I914">
-            <v>1900</v>
-          </cell>
-          <cell r="J914">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="915">
-          <cell r="I915">
-            <v>1900</v>
-          </cell>
-          <cell r="J915">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="916">
-          <cell r="I916">
-            <v>1900</v>
-          </cell>
-          <cell r="J916">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="917">
-          <cell r="I917">
-            <v>1900</v>
-          </cell>
-          <cell r="J917">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="918">
-          <cell r="I918">
-            <v>1900</v>
-          </cell>
-          <cell r="J918">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="919">
-          <cell r="I919">
-            <v>1900</v>
-          </cell>
-          <cell r="J919">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="920">
-          <cell r="I920">
-            <v>1900</v>
-          </cell>
-          <cell r="J920">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="921">
-          <cell r="I921">
-            <v>1900</v>
-          </cell>
-          <cell r="J921">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="922">
-          <cell r="I922">
-            <v>1900</v>
-          </cell>
-          <cell r="J922">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="923">
-          <cell r="I923">
-            <v>1900</v>
-          </cell>
-          <cell r="J923">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="924">
-          <cell r="I924">
-            <v>1900</v>
-          </cell>
-          <cell r="J924">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="925">
-          <cell r="I925">
-            <v>1900</v>
-          </cell>
-          <cell r="J925">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="926">
-          <cell r="I926">
-            <v>1900</v>
-          </cell>
-          <cell r="J926">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="927">
-          <cell r="I927">
-            <v>1900</v>
-          </cell>
-          <cell r="J927">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="928">
-          <cell r="I928">
-            <v>1900</v>
-          </cell>
-          <cell r="J928">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="929">
-          <cell r="I929">
-            <v>1900</v>
-          </cell>
-          <cell r="J929">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="930">
-          <cell r="I930">
-            <v>1900</v>
-          </cell>
-          <cell r="J930">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="931">
-          <cell r="I931">
-            <v>1900</v>
-          </cell>
-          <cell r="J931">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="932">
-          <cell r="I932">
-            <v>1900</v>
-          </cell>
-          <cell r="J932">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="933">
-          <cell r="I933">
-            <v>1900</v>
-          </cell>
-          <cell r="J933">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="934">
-          <cell r="I934">
-            <v>1900</v>
-          </cell>
-          <cell r="J934">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="935">
-          <cell r="I935">
-            <v>1900</v>
-          </cell>
-          <cell r="J935">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="936">
-          <cell r="I936">
-            <v>1900</v>
-          </cell>
-          <cell r="J936">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="937">
-          <cell r="I937">
-            <v>1900</v>
-          </cell>
-          <cell r="J937">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="938">
-          <cell r="I938">
-            <v>1900</v>
-          </cell>
-          <cell r="J938">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="939">
-          <cell r="I939">
-            <v>1900</v>
-          </cell>
-          <cell r="J939">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="940">
-          <cell r="I940">
-            <v>1900</v>
-          </cell>
-          <cell r="J940">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="941">
-          <cell r="I941">
-            <v>1900</v>
-          </cell>
-          <cell r="J941">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="942">
-          <cell r="I942">
-            <v>1900</v>
-          </cell>
-          <cell r="J942">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="943">
-          <cell r="I943">
-            <v>1900</v>
-          </cell>
-          <cell r="J943">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="944">
-          <cell r="I944">
-            <v>1900</v>
-          </cell>
-          <cell r="J944">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="945">
-          <cell r="I945">
-            <v>1900</v>
-          </cell>
-          <cell r="J945">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="946">
-          <cell r="I946">
-            <v>1900</v>
-          </cell>
-          <cell r="J946">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="947">
-          <cell r="I947">
-            <v>1900</v>
-          </cell>
-          <cell r="J947">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="948">
-          <cell r="I948">
-            <v>1900</v>
-          </cell>
-          <cell r="J948">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="949">
-          <cell r="I949">
-            <v>1900</v>
-          </cell>
-          <cell r="J949">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="950">
-          <cell r="I950">
-            <v>1900</v>
-          </cell>
-          <cell r="J950">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="951">
-          <cell r="I951">
-            <v>1900</v>
-          </cell>
-          <cell r="J951">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="952">
-          <cell r="I952">
-            <v>1900</v>
-          </cell>
-          <cell r="J952">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="953">
-          <cell r="I953">
-            <v>1900</v>
-          </cell>
-          <cell r="J953">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="954">
-          <cell r="I954">
-            <v>1900</v>
-          </cell>
-          <cell r="J954">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="955">
-          <cell r="I955">
-            <v>1900</v>
-          </cell>
-          <cell r="J955">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="956">
-          <cell r="I956">
-            <v>1900</v>
-          </cell>
-          <cell r="J956">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="957">
-          <cell r="I957">
-            <v>1900</v>
-          </cell>
-          <cell r="J957">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="958">
-          <cell r="I958">
-            <v>1900</v>
-          </cell>
-          <cell r="J958">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="959">
-          <cell r="I959">
-            <v>1900</v>
-          </cell>
-          <cell r="J959">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="960">
-          <cell r="I960">
-            <v>1900</v>
-          </cell>
-          <cell r="J960">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="961">
-          <cell r="I961">
-            <v>1900</v>
-          </cell>
-          <cell r="J961">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="962">
-          <cell r="I962">
-            <v>1900</v>
-          </cell>
-          <cell r="J962">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="963">
-          <cell r="I963">
-            <v>1900</v>
-          </cell>
-          <cell r="J963">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="964">
-          <cell r="I964">
-            <v>1900</v>
-          </cell>
-          <cell r="J964">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="965">
-          <cell r="I965">
-            <v>1900</v>
-          </cell>
-          <cell r="J965">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="966">
-          <cell r="I966">
-            <v>1900</v>
-          </cell>
-          <cell r="J966">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="967">
-          <cell r="I967">
-            <v>1900</v>
-          </cell>
-          <cell r="J967">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="968">
-          <cell r="I968">
-            <v>1900</v>
-          </cell>
-          <cell r="J968">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="969">
-          <cell r="I969">
-            <v>1900</v>
-          </cell>
-          <cell r="J969">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="970">
-          <cell r="I970">
-            <v>1900</v>
-          </cell>
-          <cell r="J970">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="971">
-          <cell r="I971">
-            <v>1900</v>
-          </cell>
-          <cell r="J971">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="972">
-          <cell r="I972">
-            <v>1900</v>
-          </cell>
-          <cell r="J972">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="973">
-          <cell r="I973">
-            <v>1900</v>
-          </cell>
-          <cell r="J973">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="974">
-          <cell r="I974">
-            <v>1900</v>
-          </cell>
-          <cell r="J974">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="975">
-          <cell r="I975">
-            <v>1900</v>
-          </cell>
-          <cell r="J975">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="976">
-          <cell r="I976">
-            <v>1900</v>
-          </cell>
-          <cell r="J976">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="977">
-          <cell r="I977">
-            <v>1900</v>
-          </cell>
-          <cell r="J977">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="978">
-          <cell r="I978">
-            <v>1900</v>
-          </cell>
-          <cell r="J978">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="979">
-          <cell r="I979">
-            <v>1900</v>
-          </cell>
-          <cell r="J979">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="980">
-          <cell r="I980">
-            <v>1900</v>
-          </cell>
-          <cell r="J980">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="981">
-          <cell r="I981">
-            <v>1900</v>
-          </cell>
-          <cell r="J981">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="982">
-          <cell r="I982">
-            <v>1900</v>
-          </cell>
-          <cell r="J982">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="983">
-          <cell r="I983">
-            <v>1900</v>
-          </cell>
-          <cell r="J983">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="984">
-          <cell r="I984">
-            <v>1900</v>
-          </cell>
-          <cell r="J984">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="985">
-          <cell r="I985">
-            <v>1900</v>
-          </cell>
-          <cell r="J985">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="986">
-          <cell r="I986">
-            <v>1900</v>
-          </cell>
-          <cell r="J986">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="987">
-          <cell r="I987">
-            <v>1900</v>
-          </cell>
-          <cell r="J987">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="988">
-          <cell r="I988">
-            <v>1900</v>
-          </cell>
-          <cell r="J988">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="989">
-          <cell r="I989">
-            <v>1900</v>
-          </cell>
-          <cell r="J989">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="990">
-          <cell r="I990">
-            <v>1900</v>
-          </cell>
-          <cell r="J990">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="991">
-          <cell r="I991">
-            <v>1900</v>
-          </cell>
-          <cell r="J991">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="992">
-          <cell r="I992">
-            <v>1900</v>
-          </cell>
-          <cell r="J992">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="993">
-          <cell r="I993">
-            <v>1900</v>
-          </cell>
-          <cell r="J993">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="994">
-          <cell r="I994">
-            <v>1900</v>
-          </cell>
-          <cell r="J994">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="995">
-          <cell r="I995">
-            <v>1900</v>
-          </cell>
-          <cell r="J995">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="996">
-          <cell r="I996">
-            <v>1900</v>
-          </cell>
-          <cell r="J996">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="997">
-          <cell r="I997">
-            <v>1900</v>
-          </cell>
-          <cell r="J997">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="998">
-          <cell r="I998">
-            <v>1900</v>
-          </cell>
-          <cell r="J998">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="999">
-          <cell r="I999">
-            <v>1900</v>
-          </cell>
-          <cell r="J999">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1000">
-          <cell r="I1000">
-            <v>1900</v>
-          </cell>
-          <cell r="J1000">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1001">
-          <cell r="I1001">
-            <v>1900</v>
-          </cell>
-          <cell r="J1001">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1002">
-          <cell r="I1002">
-            <v>1900</v>
-          </cell>
-          <cell r="J1002">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1003">
-          <cell r="I1003">
-            <v>1900</v>
-          </cell>
-          <cell r="J1003">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1004">
-          <cell r="I1004">
-            <v>1900</v>
-          </cell>
-          <cell r="J1004">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1005">
-          <cell r="I1005">
-            <v>1900</v>
-          </cell>
-          <cell r="J1005">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1006">
-          <cell r="I1006">
-            <v>1900</v>
-          </cell>
-          <cell r="J1006">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1007">
-          <cell r="I1007">
-            <v>1900</v>
-          </cell>
-          <cell r="J1007">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1008">
-          <cell r="I1008">
-            <v>1900</v>
-          </cell>
-          <cell r="J1008">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1009">
-          <cell r="I1009">
-            <v>1900</v>
-          </cell>
-          <cell r="J1009">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1010">
-          <cell r="I1010">
-            <v>1900</v>
-          </cell>
-          <cell r="J1010">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="1011">
-          <cell r="I1011">
-            <v>1900</v>
-          </cell>
-          <cell r="J1011">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -22860,7 +20648,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -22973,7 +20761,7 @@
       </c>
       <c r="K3" s="8">
         <f>SUMIFS([1]DETAIL!$G$2:$G$1048576,[1]DETAIL!$I$2:$I$1048576,2018,[1]DETAIL!$J$2:$J$1048576,2)</f>
-        <v>15480000</v>
+        <v>16940000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -23041,7 +20829,7 @@
       </c>
       <c r="K5" s="8">
         <f>K2+K3-K4</f>
-        <v>-30726000</v>
+        <v>-29266000</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/Pengeluaran Mahad.xlsx
+++ b/Pengeluaran Mahad.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="249">
   <si>
     <t>No</t>
   </si>
@@ -774,15 +774,18 @@
   <si>
     <t>Abu Sholih</t>
   </si>
+  <si>
+    <t>OL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -875,7 +878,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -884,27 +887,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -916,10 +919,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -23149,10 +23152,10 @@
       <c r="H1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -24320,10 +24323,10 @@
       <c r="H1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -25335,10 +25338,10 @@
         <v>213</v>
       </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="26"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3">
@@ -25453,7 +25456,7 @@
       </c>
       <c r="L4" s="7">
         <f>I34</f>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -25512,13 +25515,13 @@
       <c r="E6" s="5">
         <v>6500</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>244</v>
       </c>
       <c r="I6" s="5">
@@ -25546,13 +25549,13 @@
       <c r="E7" s="5">
         <v>6500</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>244</v>
       </c>
       <c r="I7" s="5">
@@ -25601,7 +25604,7 @@
       <c r="B9" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4">
@@ -25610,13 +25613,13 @@
       <c r="E9" s="5">
         <v>1300000</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>245</v>
       </c>
       <c r="I9" s="5">
@@ -25633,7 +25636,7 @@
       <c r="B10" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4">
@@ -25642,13 +25645,13 @@
       <c r="E10" s="5">
         <v>3000000</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="5">
@@ -25665,7 +25668,7 @@
       <c r="B11" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4">
@@ -25674,13 +25677,13 @@
       <c r="E11" s="5">
         <v>2200000</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="5">
@@ -25697,7 +25700,7 @@
       <c r="B12" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4">
@@ -25706,13 +25709,13 @@
       <c r="E12" s="5">
         <v>150000</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="5">
@@ -25729,7 +25732,7 @@
       <c r="B13" t="s">
         <v>231</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="4">
@@ -25738,13 +25741,13 @@
       <c r="E13" s="5">
         <v>1500000</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="26" t="s">
         <v>246</v>
       </c>
       <c r="I13" s="5">
@@ -25761,7 +25764,7 @@
       <c r="B14" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="4">
@@ -25770,13 +25773,13 @@
       <c r="E14" s="5">
         <v>500000</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="5">
@@ -25793,7 +25796,7 @@
       <c r="B15" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="4">
@@ -25802,13 +25805,13 @@
       <c r="E15" s="5">
         <v>3000000</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="5">
@@ -25823,13 +25826,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43181</v>
+      </c>
+      <c r="E16" s="5">
+        <v>202000</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -25845,7 +25864,7 @@
       <c r="E17" s="5"/>
       <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -25861,7 +25880,7 @@
       <c r="E18" s="5"/>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -25877,7 +25896,7 @@
       <c r="E19" s="5"/>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -25893,7 +25912,7 @@
       <c r="E20" s="5"/>
       <c r="I20" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J20" s="5"/>
     </row>
@@ -25909,7 +25928,7 @@
       <c r="E21" s="5"/>
       <c r="I21" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J21" s="5"/>
     </row>
@@ -25925,7 +25944,7 @@
       <c r="E22" s="5"/>
       <c r="I22" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J22" s="5"/>
     </row>
@@ -25941,7 +25960,7 @@
       <c r="E23" s="5"/>
       <c r="I23" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J23" s="5"/>
     </row>
@@ -25954,7 +25973,7 @@
       <c r="E24" s="5"/>
       <c r="I24" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J24" s="5"/>
     </row>
@@ -25967,7 +25986,7 @@
       <c r="E25" s="5"/>
       <c r="I25" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J25" s="5"/>
     </row>
@@ -25980,7 +25999,7 @@
       <c r="E26" s="5"/>
       <c r="I26" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J26" s="5"/>
     </row>
@@ -25993,7 +26012,7 @@
       <c r="E27" s="5"/>
       <c r="I27" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J27" s="5"/>
     </row>
@@ -26006,7 +26025,7 @@
       <c r="E28" s="5"/>
       <c r="I28" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J28" s="5"/>
     </row>
@@ -26019,7 +26038,7 @@
       <c r="E29" s="5"/>
       <c r="I29" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J29" s="5"/>
     </row>
@@ -26032,7 +26051,7 @@
       <c r="E30" s="5"/>
       <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J30" s="5"/>
     </row>
@@ -26045,7 +26064,7 @@
       <c r="E31" s="5"/>
       <c r="I31" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J31" s="5"/>
     </row>
@@ -26057,7 +26076,7 @@
       <c r="E32" s="5"/>
       <c r="I32" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J32" s="5"/>
     </row>
@@ -26069,7 +26088,7 @@
       <c r="E33" s="5"/>
       <c r="I33" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J33" s="5"/>
     </row>
@@ -26081,7 +26100,7 @@
       <c r="E34" s="5"/>
       <c r="I34" s="5">
         <f t="shared" si="0"/>
-        <v>37795000</v>
+        <v>37997000</v>
       </c>
       <c r="J34" s="5"/>
     </row>
